--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10101_顧客検索.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10101_顧客検索.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. Webサービス取引概要'!$A$1:$AI$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10101（顧客検索）'!$A$1:$AI$90</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10101（顧客検索）'!$A$1:$AI$91</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
   <si>
     <t>PJ名</t>
   </si>
@@ -1153,31 +1153,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>※入力値が指定された場合のみ検索条件に含める</t>
-    <rPh sb="1" eb="3">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>チ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シテイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジョウケン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>(4) 応答電文作成</t>
     <rPh sb="4" eb="6">
       <t>オウトウ</t>
@@ -1247,6 +1222,50 @@
   </si>
   <si>
     <t>client_name</t>
+  </si>
+  <si>
+    <t>検索条件は入力値が指定された場合のみ検索条件に含める。</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ニュウリョクチ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ソート順は顧客名の昇順とする。</t>
+    <rPh sb="3" eb="4">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -1675,7 +1694,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="367">
+  <cellXfs count="366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1989,9 +2008,6 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2001,9 +2017,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2043,6 +2056,87 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2157,86 +2251,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2274,44 +2326,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2331,245 +2371,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2634,38 +2485,203 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6222,12 +6238,12 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="154">
+      <c r="I25" s="152">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="154"/>
-      <c r="K25" s="154"/>
+      <c r="J25" s="152"/>
+      <c r="K25" s="152"/>
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1">
@@ -6858,55 +6874,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="166" t="s">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="191" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="175" t="s">
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="184" t="s">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="209" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="185"/>
-      <c r="U1" s="185"/>
-      <c r="V1" s="185"/>
-      <c r="W1" s="185"/>
-      <c r="X1" s="185"/>
-      <c r="Y1" s="185"/>
-      <c r="Z1" s="186"/>
-      <c r="AA1" s="172" t="s">
+      <c r="T1" s="210"/>
+      <c r="U1" s="210"/>
+      <c r="V1" s="210"/>
+      <c r="W1" s="210"/>
+      <c r="X1" s="210"/>
+      <c r="Y1" s="210"/>
+      <c r="Z1" s="211"/>
+      <c r="AA1" s="197" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="155" t="s">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="180" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="159">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="184">
         <v>43718</v>
       </c>
-      <c r="AH1" s="160"/>
-      <c r="AI1" s="161"/>
+      <c r="AH1" s="185"/>
+      <c r="AI1" s="186"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -6914,53 +6930,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="166" t="s">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="191" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="172" t="s">
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="212"/>
+      <c r="T2" s="213"/>
+      <c r="U2" s="213"/>
+      <c r="V2" s="213"/>
+      <c r="W2" s="213"/>
+      <c r="X2" s="213"/>
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="197" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="169" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="194" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="170"/>
-      <c r="AE2" s="170"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="159" t="str">
+      <c r="AD2" s="195"/>
+      <c r="AE2" s="195"/>
+      <c r="AF2" s="196"/>
+      <c r="AG2" s="184" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="160"/>
-      <c r="AI2" s="161"/>
+      <c r="AH2" s="185"/>
+      <c r="AI2" s="186"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -6968,45 +6984,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="166" t="s">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="191" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="191"/>
-      <c r="W3" s="191"/>
-      <c r="X3" s="191"/>
-      <c r="Y3" s="191"/>
-      <c r="Z3" s="192"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="158"/>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="157"/>
-      <c r="AG3" s="159"/>
-      <c r="AH3" s="160"/>
-      <c r="AI3" s="161"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="216"/>
+      <c r="U3" s="216"/>
+      <c r="V3" s="216"/>
+      <c r="W3" s="216"/>
+      <c r="X3" s="216"/>
+      <c r="Y3" s="216"/>
+      <c r="Z3" s="217"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="183"/>
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="184"/>
+      <c r="AH3" s="185"/>
+      <c r="AI3" s="186"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -7043,1186 +7059,1030 @@
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="163"/>
-      <c r="D7" s="162" t="s">
+      <c r="C7" s="188"/>
+      <c r="D7" s="187" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="164"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="162" t="s">
+      <c r="E7" s="189"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="187" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="164"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="165" t="s">
+      <c r="H7" s="189"/>
+      <c r="I7" s="188"/>
+      <c r="J7" s="190" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="164"/>
-      <c r="L7" s="164"/>
-      <c r="M7" s="164"/>
-      <c r="N7" s="164"/>
-      <c r="O7" s="164"/>
-      <c r="P7" s="163"/>
-      <c r="Q7" s="162" t="s">
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
+      <c r="P7" s="188"/>
+      <c r="Q7" s="187" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="164"/>
-      <c r="S7" s="164"/>
-      <c r="T7" s="164"/>
-      <c r="U7" s="164"/>
-      <c r="V7" s="164"/>
-      <c r="W7" s="164"/>
-      <c r="X7" s="164"/>
-      <c r="Y7" s="164"/>
-      <c r="Z7" s="164"/>
-      <c r="AA7" s="164"/>
-      <c r="AB7" s="164"/>
-      <c r="AC7" s="164"/>
-      <c r="AD7" s="164"/>
-      <c r="AE7" s="163"/>
-      <c r="AF7" s="165" t="s">
+      <c r="R7" s="189"/>
+      <c r="S7" s="189"/>
+      <c r="T7" s="189"/>
+      <c r="U7" s="189"/>
+      <c r="V7" s="189"/>
+      <c r="W7" s="189"/>
+      <c r="X7" s="189"/>
+      <c r="Y7" s="189"/>
+      <c r="Z7" s="189"/>
+      <c r="AA7" s="189"/>
+      <c r="AB7" s="189"/>
+      <c r="AC7" s="189"/>
+      <c r="AD7" s="189"/>
+      <c r="AE7" s="188"/>
+      <c r="AF7" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="164"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="163"/>
+      <c r="AG7" s="189"/>
+      <c r="AH7" s="189"/>
+      <c r="AI7" s="188"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="117">
         <v>1</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="166" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="206"/>
-      <c r="D8" s="207">
+      <c r="C8" s="167"/>
+      <c r="D8" s="168">
         <v>43718</v>
       </c>
-      <c r="E8" s="208"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="210" t="s">
+      <c r="E8" s="169"/>
+      <c r="F8" s="170"/>
+      <c r="G8" s="171" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="211"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="212"/>
-      <c r="K8" s="213"/>
-      <c r="L8" s="213"/>
-      <c r="M8" s="213"/>
-      <c r="N8" s="213"/>
-      <c r="O8" s="213"/>
-      <c r="P8" s="214"/>
-      <c r="Q8" s="216"/>
-      <c r="R8" s="217"/>
-      <c r="S8" s="217"/>
-      <c r="T8" s="217"/>
-      <c r="U8" s="217"/>
-      <c r="V8" s="217"/>
-      <c r="W8" s="217"/>
-      <c r="X8" s="217"/>
-      <c r="Y8" s="217"/>
-      <c r="Z8" s="217"/>
-      <c r="AA8" s="217"/>
-      <c r="AB8" s="217"/>
-      <c r="AC8" s="217"/>
-      <c r="AD8" s="217"/>
-      <c r="AE8" s="218"/>
-      <c r="AF8" s="215" t="s">
+      <c r="H8" s="172"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="173"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="177"/>
+      <c r="R8" s="178"/>
+      <c r="S8" s="178"/>
+      <c r="T8" s="178"/>
+      <c r="U8" s="178"/>
+      <c r="V8" s="178"/>
+      <c r="W8" s="178"/>
+      <c r="X8" s="178"/>
+      <c r="Y8" s="178"/>
+      <c r="Z8" s="178"/>
+      <c r="AA8" s="178"/>
+      <c r="AB8" s="178"/>
+      <c r="AC8" s="178"/>
+      <c r="AD8" s="178"/>
+      <c r="AE8" s="179"/>
+      <c r="AF8" s="176" t="s">
         <v>73</v>
       </c>
-      <c r="AG8" s="213"/>
-      <c r="AH8" s="213"/>
-      <c r="AI8" s="214"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="174"/>
+      <c r="AI8" s="175"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="118"/>
-      <c r="B9" s="193"/>
-      <c r="C9" s="194"/>
-      <c r="D9" s="195"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="197"/>
-      <c r="G9" s="195"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="194"/>
-      <c r="J9" s="199"/>
-      <c r="K9" s="200"/>
-      <c r="L9" s="200"/>
-      <c r="M9" s="200"/>
-      <c r="N9" s="200"/>
-      <c r="O9" s="200"/>
-      <c r="P9" s="201"/>
-      <c r="Q9" s="202"/>
-      <c r="R9" s="203"/>
-      <c r="S9" s="203"/>
-      <c r="T9" s="203"/>
-      <c r="U9" s="203"/>
-      <c r="V9" s="203"/>
-      <c r="W9" s="203"/>
-      <c r="X9" s="203"/>
-      <c r="Y9" s="203"/>
-      <c r="Z9" s="203"/>
-      <c r="AA9" s="203"/>
-      <c r="AB9" s="203"/>
-      <c r="AC9" s="203"/>
-      <c r="AD9" s="203"/>
-      <c r="AE9" s="204"/>
-      <c r="AF9" s="199"/>
-      <c r="AG9" s="200"/>
-      <c r="AH9" s="200"/>
-      <c r="AI9" s="201"/>
+      <c r="B9" s="153"/>
+      <c r="C9" s="154"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="157"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="158"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="159"/>
+      <c r="K9" s="160"/>
+      <c r="L9" s="160"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="160"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="161"/>
+      <c r="Q9" s="162"/>
+      <c r="R9" s="163"/>
+      <c r="S9" s="163"/>
+      <c r="T9" s="163"/>
+      <c r="U9" s="163"/>
+      <c r="V9" s="163"/>
+      <c r="W9" s="163"/>
+      <c r="X9" s="163"/>
+      <c r="Y9" s="163"/>
+      <c r="Z9" s="163"/>
+      <c r="AA9" s="163"/>
+      <c r="AB9" s="163"/>
+      <c r="AC9" s="163"/>
+      <c r="AD9" s="163"/>
+      <c r="AE9" s="164"/>
+      <c r="AF9" s="159"/>
+      <c r="AG9" s="160"/>
+      <c r="AH9" s="160"/>
+      <c r="AI9" s="161"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="118"/>
-      <c r="B10" s="193"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="197"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="198"/>
-      <c r="I10" s="194"/>
-      <c r="J10" s="199"/>
-      <c r="K10" s="200"/>
-      <c r="L10" s="200"/>
-      <c r="M10" s="200"/>
-      <c r="N10" s="200"/>
-      <c r="O10" s="200"/>
-      <c r="P10" s="201"/>
-      <c r="Q10" s="202"/>
-      <c r="R10" s="203"/>
-      <c r="S10" s="203"/>
-      <c r="T10" s="203"/>
-      <c r="U10" s="203"/>
-      <c r="V10" s="203"/>
-      <c r="W10" s="203"/>
-      <c r="X10" s="203"/>
-      <c r="Y10" s="203"/>
-      <c r="Z10" s="203"/>
-      <c r="AA10" s="203"/>
-      <c r="AB10" s="203"/>
-      <c r="AC10" s="203"/>
-      <c r="AD10" s="203"/>
-      <c r="AE10" s="204"/>
-      <c r="AF10" s="199"/>
-      <c r="AG10" s="200"/>
-      <c r="AH10" s="200"/>
-      <c r="AI10" s="201"/>
+      <c r="B10" s="153"/>
+      <c r="C10" s="154"/>
+      <c r="D10" s="155"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="157"/>
+      <c r="G10" s="153"/>
+      <c r="H10" s="158"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="159"/>
+      <c r="K10" s="160"/>
+      <c r="L10" s="160"/>
+      <c r="M10" s="160"/>
+      <c r="N10" s="160"/>
+      <c r="O10" s="160"/>
+      <c r="P10" s="161"/>
+      <c r="Q10" s="162"/>
+      <c r="R10" s="163"/>
+      <c r="S10" s="163"/>
+      <c r="T10" s="163"/>
+      <c r="U10" s="163"/>
+      <c r="V10" s="163"/>
+      <c r="W10" s="163"/>
+      <c r="X10" s="163"/>
+      <c r="Y10" s="163"/>
+      <c r="Z10" s="163"/>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="164"/>
+      <c r="AF10" s="159"/>
+      <c r="AG10" s="160"/>
+      <c r="AH10" s="160"/>
+      <c r="AI10" s="161"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="193"/>
-      <c r="C11" s="194"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="197"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="198"/>
-      <c r="I11" s="194"/>
-      <c r="J11" s="199"/>
-      <c r="K11" s="200"/>
-      <c r="L11" s="200"/>
-      <c r="M11" s="200"/>
-      <c r="N11" s="200"/>
-      <c r="O11" s="200"/>
-      <c r="P11" s="201"/>
-      <c r="Q11" s="202"/>
-      <c r="R11" s="203"/>
-      <c r="S11" s="203"/>
-      <c r="T11" s="203"/>
-      <c r="U11" s="203"/>
-      <c r="V11" s="203"/>
-      <c r="W11" s="203"/>
-      <c r="X11" s="203"/>
-      <c r="Y11" s="203"/>
-      <c r="Z11" s="203"/>
-      <c r="AA11" s="203"/>
-      <c r="AB11" s="203"/>
-      <c r="AC11" s="203"/>
-      <c r="AD11" s="203"/>
-      <c r="AE11" s="204"/>
-      <c r="AF11" s="199"/>
-      <c r="AG11" s="200"/>
-      <c r="AH11" s="200"/>
-      <c r="AI11" s="201"/>
+      <c r="B11" s="153"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="157"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="158"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="159"/>
+      <c r="K11" s="160"/>
+      <c r="L11" s="160"/>
+      <c r="M11" s="160"/>
+      <c r="N11" s="160"/>
+      <c r="O11" s="160"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="162"/>
+      <c r="R11" s="163"/>
+      <c r="S11" s="163"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="163"/>
+      <c r="V11" s="163"/>
+      <c r="W11" s="163"/>
+      <c r="X11" s="163"/>
+      <c r="Y11" s="163"/>
+      <c r="Z11" s="163"/>
+      <c r="AA11" s="163"/>
+      <c r="AB11" s="163"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="163"/>
+      <c r="AE11" s="164"/>
+      <c r="AF11" s="159"/>
+      <c r="AG11" s="160"/>
+      <c r="AH11" s="160"/>
+      <c r="AI11" s="161"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="193"/>
-      <c r="C12" s="194"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="197"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="198"/>
-      <c r="I12" s="194"/>
-      <c r="J12" s="199"/>
-      <c r="K12" s="200"/>
-      <c r="L12" s="200"/>
-      <c r="M12" s="200"/>
-      <c r="N12" s="200"/>
-      <c r="O12" s="200"/>
-      <c r="P12" s="201"/>
-      <c r="Q12" s="202"/>
-      <c r="R12" s="203"/>
-      <c r="S12" s="203"/>
-      <c r="T12" s="203"/>
-      <c r="U12" s="203"/>
-      <c r="V12" s="203"/>
-      <c r="W12" s="203"/>
-      <c r="X12" s="203"/>
-      <c r="Y12" s="203"/>
-      <c r="Z12" s="203"/>
-      <c r="AA12" s="203"/>
-      <c r="AB12" s="203"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="203"/>
-      <c r="AE12" s="204"/>
-      <c r="AF12" s="199"/>
-      <c r="AG12" s="200"/>
-      <c r="AH12" s="200"/>
-      <c r="AI12" s="201"/>
+      <c r="B12" s="153"/>
+      <c r="C12" s="154"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="157"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="158"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="159"/>
+      <c r="K12" s="160"/>
+      <c r="L12" s="160"/>
+      <c r="M12" s="160"/>
+      <c r="N12" s="160"/>
+      <c r="O12" s="160"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="162"/>
+      <c r="R12" s="163"/>
+      <c r="S12" s="163"/>
+      <c r="T12" s="163"/>
+      <c r="U12" s="163"/>
+      <c r="V12" s="163"/>
+      <c r="W12" s="163"/>
+      <c r="X12" s="163"/>
+      <c r="Y12" s="163"/>
+      <c r="Z12" s="163"/>
+      <c r="AA12" s="163"/>
+      <c r="AB12" s="163"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="164"/>
+      <c r="AF12" s="159"/>
+      <c r="AG12" s="160"/>
+      <c r="AH12" s="160"/>
+      <c r="AI12" s="161"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="193"/>
-      <c r="C13" s="194"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="197"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="198"/>
-      <c r="I13" s="194"/>
-      <c r="J13" s="199"/>
-      <c r="K13" s="200"/>
-      <c r="L13" s="200"/>
-      <c r="M13" s="200"/>
-      <c r="N13" s="200"/>
-      <c r="O13" s="200"/>
-      <c r="P13" s="201"/>
-      <c r="Q13" s="202"/>
-      <c r="R13" s="203"/>
-      <c r="S13" s="203"/>
-      <c r="T13" s="203"/>
-      <c r="U13" s="203"/>
-      <c r="V13" s="203"/>
-      <c r="W13" s="203"/>
-      <c r="X13" s="203"/>
-      <c r="Y13" s="203"/>
-      <c r="Z13" s="203"/>
-      <c r="AA13" s="203"/>
-      <c r="AB13" s="203"/>
-      <c r="AC13" s="203"/>
-      <c r="AD13" s="203"/>
-      <c r="AE13" s="204"/>
-      <c r="AF13" s="199"/>
-      <c r="AG13" s="200"/>
-      <c r="AH13" s="200"/>
-      <c r="AI13" s="201"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="154"/>
+      <c r="D13" s="155"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="157"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="154"/>
+      <c r="J13" s="159"/>
+      <c r="K13" s="160"/>
+      <c r="L13" s="160"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="160"/>
+      <c r="O13" s="160"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="162"/>
+      <c r="R13" s="163"/>
+      <c r="S13" s="163"/>
+      <c r="T13" s="163"/>
+      <c r="U13" s="163"/>
+      <c r="V13" s="163"/>
+      <c r="W13" s="163"/>
+      <c r="X13" s="163"/>
+      <c r="Y13" s="163"/>
+      <c r="Z13" s="163"/>
+      <c r="AA13" s="163"/>
+      <c r="AB13" s="163"/>
+      <c r="AC13" s="163"/>
+      <c r="AD13" s="163"/>
+      <c r="AE13" s="164"/>
+      <c r="AF13" s="159"/>
+      <c r="AG13" s="160"/>
+      <c r="AH13" s="160"/>
+      <c r="AI13" s="161"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="193"/>
-      <c r="C14" s="194"/>
-      <c r="D14" s="195"/>
-      <c r="E14" s="196"/>
-      <c r="F14" s="197"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="198"/>
-      <c r="I14" s="194"/>
-      <c r="J14" s="199"/>
-      <c r="K14" s="200"/>
-      <c r="L14" s="200"/>
-      <c r="M14" s="200"/>
-      <c r="N14" s="200"/>
-      <c r="O14" s="200"/>
-      <c r="P14" s="201"/>
-      <c r="Q14" s="202"/>
-      <c r="R14" s="203"/>
-      <c r="S14" s="203"/>
-      <c r="T14" s="203"/>
-      <c r="U14" s="203"/>
-      <c r="V14" s="203"/>
-      <c r="W14" s="203"/>
-      <c r="X14" s="203"/>
-      <c r="Y14" s="203"/>
-      <c r="Z14" s="203"/>
-      <c r="AA14" s="203"/>
-      <c r="AB14" s="203"/>
-      <c r="AC14" s="203"/>
-      <c r="AD14" s="203"/>
-      <c r="AE14" s="204"/>
-      <c r="AF14" s="199"/>
-      <c r="AG14" s="200"/>
-      <c r="AH14" s="200"/>
-      <c r="AI14" s="201"/>
+      <c r="B14" s="153"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="157"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="158"/>
+      <c r="I14" s="154"/>
+      <c r="J14" s="159"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="162"/>
+      <c r="R14" s="163"/>
+      <c r="S14" s="163"/>
+      <c r="T14" s="163"/>
+      <c r="U14" s="163"/>
+      <c r="V14" s="163"/>
+      <c r="W14" s="163"/>
+      <c r="X14" s="163"/>
+      <c r="Y14" s="163"/>
+      <c r="Z14" s="163"/>
+      <c r="AA14" s="163"/>
+      <c r="AB14" s="163"/>
+      <c r="AC14" s="163"/>
+      <c r="AD14" s="163"/>
+      <c r="AE14" s="164"/>
+      <c r="AF14" s="159"/>
+      <c r="AG14" s="160"/>
+      <c r="AH14" s="160"/>
+      <c r="AI14" s="161"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="193"/>
-      <c r="C15" s="194"/>
-      <c r="D15" s="195"/>
-      <c r="E15" s="196"/>
-      <c r="F15" s="197"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="198"/>
-      <c r="I15" s="194"/>
-      <c r="J15" s="199"/>
-      <c r="K15" s="200"/>
-      <c r="L15" s="200"/>
-      <c r="M15" s="200"/>
-      <c r="N15" s="200"/>
-      <c r="O15" s="200"/>
-      <c r="P15" s="201"/>
-      <c r="Q15" s="202"/>
-      <c r="R15" s="203"/>
-      <c r="S15" s="203"/>
-      <c r="T15" s="203"/>
-      <c r="U15" s="203"/>
-      <c r="V15" s="203"/>
-      <c r="W15" s="203"/>
-      <c r="X15" s="203"/>
-      <c r="Y15" s="203"/>
-      <c r="Z15" s="203"/>
-      <c r="AA15" s="203"/>
-      <c r="AB15" s="203"/>
-      <c r="AC15" s="203"/>
-      <c r="AD15" s="203"/>
-      <c r="AE15" s="204"/>
-      <c r="AF15" s="199"/>
-      <c r="AG15" s="200"/>
-      <c r="AH15" s="200"/>
-      <c r="AI15" s="201"/>
+      <c r="B15" s="153"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="157"/>
+      <c r="G15" s="153"/>
+      <c r="H15" s="158"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="160"/>
+      <c r="L15" s="160"/>
+      <c r="M15" s="160"/>
+      <c r="N15" s="160"/>
+      <c r="O15" s="160"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="162"/>
+      <c r="R15" s="163"/>
+      <c r="S15" s="163"/>
+      <c r="T15" s="163"/>
+      <c r="U15" s="163"/>
+      <c r="V15" s="163"/>
+      <c r="W15" s="163"/>
+      <c r="X15" s="163"/>
+      <c r="Y15" s="163"/>
+      <c r="Z15" s="163"/>
+      <c r="AA15" s="163"/>
+      <c r="AB15" s="163"/>
+      <c r="AC15" s="163"/>
+      <c r="AD15" s="163"/>
+      <c r="AE15" s="164"/>
+      <c r="AF15" s="159"/>
+      <c r="AG15" s="160"/>
+      <c r="AH15" s="160"/>
+      <c r="AI15" s="161"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="193"/>
-      <c r="C16" s="194"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="196"/>
-      <c r="F16" s="197"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="198"/>
-      <c r="I16" s="194"/>
-      <c r="J16" s="199"/>
-      <c r="K16" s="200"/>
-      <c r="L16" s="200"/>
-      <c r="M16" s="200"/>
-      <c r="N16" s="200"/>
-      <c r="O16" s="200"/>
-      <c r="P16" s="201"/>
-      <c r="Q16" s="202"/>
-      <c r="R16" s="203"/>
-      <c r="S16" s="203"/>
-      <c r="T16" s="203"/>
-      <c r="U16" s="203"/>
-      <c r="V16" s="203"/>
-      <c r="W16" s="203"/>
-      <c r="X16" s="203"/>
-      <c r="Y16" s="203"/>
-      <c r="Z16" s="203"/>
-      <c r="AA16" s="203"/>
-      <c r="AB16" s="203"/>
-      <c r="AC16" s="203"/>
-      <c r="AD16" s="203"/>
-      <c r="AE16" s="204"/>
-      <c r="AF16" s="199"/>
-      <c r="AG16" s="200"/>
-      <c r="AH16" s="200"/>
-      <c r="AI16" s="201"/>
+      <c r="B16" s="153"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="155"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="157"/>
+      <c r="G16" s="153"/>
+      <c r="H16" s="158"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="159"/>
+      <c r="K16" s="160"/>
+      <c r="L16" s="160"/>
+      <c r="M16" s="160"/>
+      <c r="N16" s="160"/>
+      <c r="O16" s="160"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="162"/>
+      <c r="R16" s="163"/>
+      <c r="S16" s="163"/>
+      <c r="T16" s="163"/>
+      <c r="U16" s="163"/>
+      <c r="V16" s="163"/>
+      <c r="W16" s="163"/>
+      <c r="X16" s="163"/>
+      <c r="Y16" s="163"/>
+      <c r="Z16" s="163"/>
+      <c r="AA16" s="163"/>
+      <c r="AB16" s="163"/>
+      <c r="AC16" s="163"/>
+      <c r="AD16" s="163"/>
+      <c r="AE16" s="164"/>
+      <c r="AF16" s="159"/>
+      <c r="AG16" s="160"/>
+      <c r="AH16" s="160"/>
+      <c r="AI16" s="161"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="193"/>
-      <c r="C17" s="194"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="197"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="194"/>
-      <c r="J17" s="199"/>
-      <c r="K17" s="200"/>
-      <c r="L17" s="200"/>
-      <c r="M17" s="200"/>
-      <c r="N17" s="200"/>
-      <c r="O17" s="200"/>
-      <c r="P17" s="201"/>
-      <c r="Q17" s="202"/>
-      <c r="R17" s="203"/>
-      <c r="S17" s="203"/>
-      <c r="T17" s="203"/>
-      <c r="U17" s="203"/>
-      <c r="V17" s="203"/>
-      <c r="W17" s="203"/>
-      <c r="X17" s="203"/>
-      <c r="Y17" s="203"/>
-      <c r="Z17" s="203"/>
-      <c r="AA17" s="203"/>
-      <c r="AB17" s="203"/>
-      <c r="AC17" s="203"/>
-      <c r="AD17" s="203"/>
-      <c r="AE17" s="204"/>
-      <c r="AF17" s="199"/>
-      <c r="AG17" s="200"/>
-      <c r="AH17" s="200"/>
-      <c r="AI17" s="201"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="154"/>
+      <c r="D17" s="155"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="157"/>
+      <c r="G17" s="153"/>
+      <c r="H17" s="158"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="159"/>
+      <c r="K17" s="160"/>
+      <c r="L17" s="160"/>
+      <c r="M17" s="160"/>
+      <c r="N17" s="160"/>
+      <c r="O17" s="160"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="162"/>
+      <c r="R17" s="163"/>
+      <c r="S17" s="163"/>
+      <c r="T17" s="163"/>
+      <c r="U17" s="163"/>
+      <c r="V17" s="163"/>
+      <c r="W17" s="163"/>
+      <c r="X17" s="163"/>
+      <c r="Y17" s="163"/>
+      <c r="Z17" s="163"/>
+      <c r="AA17" s="163"/>
+      <c r="AB17" s="163"/>
+      <c r="AC17" s="163"/>
+      <c r="AD17" s="163"/>
+      <c r="AE17" s="164"/>
+      <c r="AF17" s="159"/>
+      <c r="AG17" s="160"/>
+      <c r="AH17" s="160"/>
+      <c r="AI17" s="161"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="193"/>
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="197"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="198"/>
-      <c r="I18" s="194"/>
-      <c r="J18" s="199"/>
-      <c r="K18" s="200"/>
-      <c r="L18" s="200"/>
-      <c r="M18" s="200"/>
-      <c r="N18" s="200"/>
-      <c r="O18" s="200"/>
-      <c r="P18" s="201"/>
-      <c r="Q18" s="202"/>
-      <c r="R18" s="203"/>
-      <c r="S18" s="203"/>
-      <c r="T18" s="203"/>
-      <c r="U18" s="203"/>
-      <c r="V18" s="203"/>
-      <c r="W18" s="203"/>
-      <c r="X18" s="203"/>
-      <c r="Y18" s="203"/>
-      <c r="Z18" s="203"/>
-      <c r="AA18" s="203"/>
-      <c r="AB18" s="203"/>
-      <c r="AC18" s="203"/>
-      <c r="AD18" s="203"/>
-      <c r="AE18" s="204"/>
-      <c r="AF18" s="199"/>
-      <c r="AG18" s="200"/>
-      <c r="AH18" s="200"/>
-      <c r="AI18" s="201"/>
+      <c r="B18" s="153"/>
+      <c r="C18" s="154"/>
+      <c r="D18" s="155"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="157"/>
+      <c r="G18" s="153"/>
+      <c r="H18" s="158"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="159"/>
+      <c r="K18" s="160"/>
+      <c r="L18" s="160"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="160"/>
+      <c r="O18" s="160"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="162"/>
+      <c r="R18" s="163"/>
+      <c r="S18" s="163"/>
+      <c r="T18" s="163"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="163"/>
+      <c r="W18" s="163"/>
+      <c r="X18" s="163"/>
+      <c r="Y18" s="163"/>
+      <c r="Z18" s="163"/>
+      <c r="AA18" s="163"/>
+      <c r="AB18" s="163"/>
+      <c r="AC18" s="163"/>
+      <c r="AD18" s="163"/>
+      <c r="AE18" s="164"/>
+      <c r="AF18" s="159"/>
+      <c r="AG18" s="160"/>
+      <c r="AH18" s="160"/>
+      <c r="AI18" s="161"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="193"/>
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="197"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="198"/>
-      <c r="I19" s="194"/>
-      <c r="J19" s="199"/>
-      <c r="K19" s="200"/>
-      <c r="L19" s="200"/>
-      <c r="M19" s="200"/>
-      <c r="N19" s="200"/>
-      <c r="O19" s="200"/>
-      <c r="P19" s="201"/>
-      <c r="Q19" s="202"/>
-      <c r="R19" s="203"/>
-      <c r="S19" s="203"/>
-      <c r="T19" s="203"/>
-      <c r="U19" s="203"/>
-      <c r="V19" s="203"/>
-      <c r="W19" s="203"/>
-      <c r="X19" s="203"/>
-      <c r="Y19" s="203"/>
-      <c r="Z19" s="203"/>
-      <c r="AA19" s="203"/>
-      <c r="AB19" s="203"/>
-      <c r="AC19" s="203"/>
-      <c r="AD19" s="203"/>
-      <c r="AE19" s="204"/>
-      <c r="AF19" s="199"/>
-      <c r="AG19" s="200"/>
-      <c r="AH19" s="200"/>
-      <c r="AI19" s="201"/>
+      <c r="B19" s="153"/>
+      <c r="C19" s="154"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="153"/>
+      <c r="H19" s="158"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="159"/>
+      <c r="K19" s="160"/>
+      <c r="L19" s="160"/>
+      <c r="M19" s="160"/>
+      <c r="N19" s="160"/>
+      <c r="O19" s="160"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="162"/>
+      <c r="R19" s="163"/>
+      <c r="S19" s="163"/>
+      <c r="T19" s="163"/>
+      <c r="U19" s="163"/>
+      <c r="V19" s="163"/>
+      <c r="W19" s="163"/>
+      <c r="X19" s="163"/>
+      <c r="Y19" s="163"/>
+      <c r="Z19" s="163"/>
+      <c r="AA19" s="163"/>
+      <c r="AB19" s="163"/>
+      <c r="AC19" s="163"/>
+      <c r="AD19" s="163"/>
+      <c r="AE19" s="164"/>
+      <c r="AF19" s="159"/>
+      <c r="AG19" s="160"/>
+      <c r="AH19" s="160"/>
+      <c r="AI19" s="161"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="193"/>
-      <c r="C20" s="194"/>
-      <c r="D20" s="195"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="197"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="198"/>
-      <c r="I20" s="194"/>
-      <c r="J20" s="199"/>
-      <c r="K20" s="200"/>
-      <c r="L20" s="200"/>
-      <c r="M20" s="200"/>
-      <c r="N20" s="200"/>
-      <c r="O20" s="200"/>
-      <c r="P20" s="201"/>
-      <c r="Q20" s="202"/>
-      <c r="R20" s="203"/>
-      <c r="S20" s="203"/>
-      <c r="T20" s="203"/>
-      <c r="U20" s="203"/>
-      <c r="V20" s="203"/>
-      <c r="W20" s="203"/>
-      <c r="X20" s="203"/>
-      <c r="Y20" s="203"/>
-      <c r="Z20" s="203"/>
-      <c r="AA20" s="203"/>
-      <c r="AB20" s="203"/>
-      <c r="AC20" s="203"/>
-      <c r="AD20" s="203"/>
-      <c r="AE20" s="204"/>
-      <c r="AF20" s="199"/>
-      <c r="AG20" s="200"/>
-      <c r="AH20" s="200"/>
-      <c r="AI20" s="201"/>
+      <c r="B20" s="153"/>
+      <c r="C20" s="154"/>
+      <c r="D20" s="155"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="157"/>
+      <c r="G20" s="153"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="159"/>
+      <c r="K20" s="160"/>
+      <c r="L20" s="160"/>
+      <c r="M20" s="160"/>
+      <c r="N20" s="160"/>
+      <c r="O20" s="160"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="162"/>
+      <c r="R20" s="163"/>
+      <c r="S20" s="163"/>
+      <c r="T20" s="163"/>
+      <c r="U20" s="163"/>
+      <c r="V20" s="163"/>
+      <c r="W20" s="163"/>
+      <c r="X20" s="163"/>
+      <c r="Y20" s="163"/>
+      <c r="Z20" s="163"/>
+      <c r="AA20" s="163"/>
+      <c r="AB20" s="163"/>
+      <c r="AC20" s="163"/>
+      <c r="AD20" s="163"/>
+      <c r="AE20" s="164"/>
+      <c r="AF20" s="159"/>
+      <c r="AG20" s="160"/>
+      <c r="AH20" s="160"/>
+      <c r="AI20" s="161"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="193"/>
-      <c r="C21" s="194"/>
-      <c r="D21" s="195"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="197"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="198"/>
-      <c r="I21" s="194"/>
-      <c r="J21" s="199"/>
-      <c r="K21" s="200"/>
-      <c r="L21" s="200"/>
-      <c r="M21" s="200"/>
-      <c r="N21" s="200"/>
-      <c r="O21" s="200"/>
-      <c r="P21" s="201"/>
-      <c r="Q21" s="202"/>
-      <c r="R21" s="203"/>
-      <c r="S21" s="203"/>
-      <c r="T21" s="203"/>
-      <c r="U21" s="203"/>
-      <c r="V21" s="203"/>
-      <c r="W21" s="203"/>
-      <c r="X21" s="203"/>
-      <c r="Y21" s="203"/>
-      <c r="Z21" s="203"/>
-      <c r="AA21" s="203"/>
-      <c r="AB21" s="203"/>
-      <c r="AC21" s="203"/>
-      <c r="AD21" s="203"/>
-      <c r="AE21" s="204"/>
-      <c r="AF21" s="199"/>
-      <c r="AG21" s="200"/>
-      <c r="AH21" s="200"/>
-      <c r="AI21" s="201"/>
+      <c r="B21" s="153"/>
+      <c r="C21" s="154"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="157"/>
+      <c r="G21" s="153"/>
+      <c r="H21" s="158"/>
+      <c r="I21" s="154"/>
+      <c r="J21" s="159"/>
+      <c r="K21" s="160"/>
+      <c r="L21" s="160"/>
+      <c r="M21" s="160"/>
+      <c r="N21" s="160"/>
+      <c r="O21" s="160"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="162"/>
+      <c r="R21" s="163"/>
+      <c r="S21" s="163"/>
+      <c r="T21" s="163"/>
+      <c r="U21" s="163"/>
+      <c r="V21" s="163"/>
+      <c r="W21" s="163"/>
+      <c r="X21" s="163"/>
+      <c r="Y21" s="163"/>
+      <c r="Z21" s="163"/>
+      <c r="AA21" s="163"/>
+      <c r="AB21" s="163"/>
+      <c r="AC21" s="163"/>
+      <c r="AD21" s="163"/>
+      <c r="AE21" s="164"/>
+      <c r="AF21" s="159"/>
+      <c r="AG21" s="160"/>
+      <c r="AH21" s="160"/>
+      <c r="AI21" s="161"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="193"/>
-      <c r="C22" s="194"/>
-      <c r="D22" s="195"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="198"/>
-      <c r="I22" s="194"/>
-      <c r="J22" s="199"/>
-      <c r="K22" s="200"/>
-      <c r="L22" s="200"/>
-      <c r="M22" s="200"/>
-      <c r="N22" s="200"/>
-      <c r="O22" s="200"/>
-      <c r="P22" s="201"/>
-      <c r="Q22" s="202"/>
-      <c r="R22" s="203"/>
-      <c r="S22" s="203"/>
-      <c r="T22" s="203"/>
-      <c r="U22" s="203"/>
-      <c r="V22" s="203"/>
-      <c r="W22" s="203"/>
-      <c r="X22" s="203"/>
-      <c r="Y22" s="203"/>
-      <c r="Z22" s="203"/>
-      <c r="AA22" s="203"/>
-      <c r="AB22" s="203"/>
-      <c r="AC22" s="203"/>
-      <c r="AD22" s="203"/>
-      <c r="AE22" s="204"/>
-      <c r="AF22" s="199"/>
-      <c r="AG22" s="200"/>
-      <c r="AH22" s="200"/>
-      <c r="AI22" s="201"/>
+      <c r="B22" s="153"/>
+      <c r="C22" s="154"/>
+      <c r="D22" s="155"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="153"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="154"/>
+      <c r="J22" s="159"/>
+      <c r="K22" s="160"/>
+      <c r="L22" s="160"/>
+      <c r="M22" s="160"/>
+      <c r="N22" s="160"/>
+      <c r="O22" s="160"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="163"/>
+      <c r="S22" s="163"/>
+      <c r="T22" s="163"/>
+      <c r="U22" s="163"/>
+      <c r="V22" s="163"/>
+      <c r="W22" s="163"/>
+      <c r="X22" s="163"/>
+      <c r="Y22" s="163"/>
+      <c r="Z22" s="163"/>
+      <c r="AA22" s="163"/>
+      <c r="AB22" s="163"/>
+      <c r="AC22" s="163"/>
+      <c r="AD22" s="163"/>
+      <c r="AE22" s="164"/>
+      <c r="AF22" s="159"/>
+      <c r="AG22" s="160"/>
+      <c r="AH22" s="160"/>
+      <c r="AI22" s="161"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="193"/>
-      <c r="C23" s="194"/>
-      <c r="D23" s="195"/>
-      <c r="E23" s="196"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="198"/>
-      <c r="I23" s="194"/>
-      <c r="J23" s="199"/>
-      <c r="K23" s="200"/>
-      <c r="L23" s="200"/>
-      <c r="M23" s="200"/>
-      <c r="N23" s="200"/>
-      <c r="O23" s="200"/>
-      <c r="P23" s="201"/>
-      <c r="Q23" s="202"/>
-      <c r="R23" s="203"/>
-      <c r="S23" s="203"/>
-      <c r="T23" s="203"/>
-      <c r="U23" s="203"/>
-      <c r="V23" s="203"/>
-      <c r="W23" s="203"/>
-      <c r="X23" s="203"/>
-      <c r="Y23" s="203"/>
-      <c r="Z23" s="203"/>
-      <c r="AA23" s="203"/>
-      <c r="AB23" s="203"/>
-      <c r="AC23" s="203"/>
-      <c r="AD23" s="203"/>
-      <c r="AE23" s="204"/>
-      <c r="AF23" s="199"/>
-      <c r="AG23" s="200"/>
-      <c r="AH23" s="200"/>
-      <c r="AI23" s="201"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="154"/>
+      <c r="D23" s="155"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="157"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="159"/>
+      <c r="K23" s="160"/>
+      <c r="L23" s="160"/>
+      <c r="M23" s="160"/>
+      <c r="N23" s="160"/>
+      <c r="O23" s="160"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="162"/>
+      <c r="R23" s="163"/>
+      <c r="S23" s="163"/>
+      <c r="T23" s="163"/>
+      <c r="U23" s="163"/>
+      <c r="V23" s="163"/>
+      <c r="W23" s="163"/>
+      <c r="X23" s="163"/>
+      <c r="Y23" s="163"/>
+      <c r="Z23" s="163"/>
+      <c r="AA23" s="163"/>
+      <c r="AB23" s="163"/>
+      <c r="AC23" s="163"/>
+      <c r="AD23" s="163"/>
+      <c r="AE23" s="164"/>
+      <c r="AF23" s="159"/>
+      <c r="AG23" s="160"/>
+      <c r="AH23" s="160"/>
+      <c r="AI23" s="161"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="193"/>
-      <c r="C24" s="194"/>
-      <c r="D24" s="195"/>
-      <c r="E24" s="196"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="198"/>
-      <c r="I24" s="194"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="200"/>
-      <c r="L24" s="200"/>
-      <c r="M24" s="200"/>
-      <c r="N24" s="200"/>
-      <c r="O24" s="200"/>
-      <c r="P24" s="201"/>
-      <c r="Q24" s="202"/>
-      <c r="R24" s="203"/>
-      <c r="S24" s="203"/>
-      <c r="T24" s="203"/>
-      <c r="U24" s="203"/>
-      <c r="V24" s="203"/>
-      <c r="W24" s="203"/>
-      <c r="X24" s="203"/>
-      <c r="Y24" s="203"/>
-      <c r="Z24" s="203"/>
-      <c r="AA24" s="203"/>
-      <c r="AB24" s="203"/>
-      <c r="AC24" s="203"/>
-      <c r="AD24" s="203"/>
-      <c r="AE24" s="204"/>
-      <c r="AF24" s="199"/>
-      <c r="AG24" s="200"/>
-      <c r="AH24" s="200"/>
-      <c r="AI24" s="201"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="154"/>
+      <c r="D24" s="155"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="157"/>
+      <c r="G24" s="153"/>
+      <c r="H24" s="158"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="159"/>
+      <c r="K24" s="160"/>
+      <c r="L24" s="160"/>
+      <c r="M24" s="160"/>
+      <c r="N24" s="160"/>
+      <c r="O24" s="160"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="162"/>
+      <c r="R24" s="163"/>
+      <c r="S24" s="163"/>
+      <c r="T24" s="163"/>
+      <c r="U24" s="163"/>
+      <c r="V24" s="163"/>
+      <c r="W24" s="163"/>
+      <c r="X24" s="163"/>
+      <c r="Y24" s="163"/>
+      <c r="Z24" s="163"/>
+      <c r="AA24" s="163"/>
+      <c r="AB24" s="163"/>
+      <c r="AC24" s="163"/>
+      <c r="AD24" s="163"/>
+      <c r="AE24" s="164"/>
+      <c r="AF24" s="159"/>
+      <c r="AG24" s="160"/>
+      <c r="AH24" s="160"/>
+      <c r="AI24" s="161"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="193"/>
-      <c r="C25" s="194"/>
-      <c r="D25" s="195"/>
-      <c r="E25" s="196"/>
-      <c r="F25" s="197"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="198"/>
-      <c r="I25" s="194"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="200"/>
-      <c r="L25" s="200"/>
-      <c r="M25" s="200"/>
-      <c r="N25" s="200"/>
-      <c r="O25" s="200"/>
-      <c r="P25" s="201"/>
-      <c r="Q25" s="202"/>
-      <c r="R25" s="203"/>
-      <c r="S25" s="203"/>
-      <c r="T25" s="203"/>
-      <c r="U25" s="203"/>
-      <c r="V25" s="203"/>
-      <c r="W25" s="203"/>
-      <c r="X25" s="203"/>
-      <c r="Y25" s="203"/>
-      <c r="Z25" s="203"/>
-      <c r="AA25" s="203"/>
-      <c r="AB25" s="203"/>
-      <c r="AC25" s="203"/>
-      <c r="AD25" s="203"/>
-      <c r="AE25" s="204"/>
-      <c r="AF25" s="199"/>
-      <c r="AG25" s="200"/>
-      <c r="AH25" s="200"/>
-      <c r="AI25" s="201"/>
+      <c r="B25" s="153"/>
+      <c r="C25" s="154"/>
+      <c r="D25" s="155"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="157"/>
+      <c r="G25" s="153"/>
+      <c r="H25" s="158"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="159"/>
+      <c r="K25" s="160"/>
+      <c r="L25" s="160"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="160"/>
+      <c r="O25" s="160"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="162"/>
+      <c r="R25" s="163"/>
+      <c r="S25" s="163"/>
+      <c r="T25" s="163"/>
+      <c r="U25" s="163"/>
+      <c r="V25" s="163"/>
+      <c r="W25" s="163"/>
+      <c r="X25" s="163"/>
+      <c r="Y25" s="163"/>
+      <c r="Z25" s="163"/>
+      <c r="AA25" s="163"/>
+      <c r="AB25" s="163"/>
+      <c r="AC25" s="163"/>
+      <c r="AD25" s="163"/>
+      <c r="AE25" s="164"/>
+      <c r="AF25" s="159"/>
+      <c r="AG25" s="160"/>
+      <c r="AH25" s="160"/>
+      <c r="AI25" s="161"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="193"/>
-      <c r="C26" s="194"/>
-      <c r="D26" s="195"/>
-      <c r="E26" s="196"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="198"/>
-      <c r="I26" s="194"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="200"/>
-      <c r="M26" s="200"/>
-      <c r="N26" s="200"/>
-      <c r="O26" s="200"/>
-      <c r="P26" s="201"/>
-      <c r="Q26" s="202"/>
-      <c r="R26" s="203"/>
-      <c r="S26" s="203"/>
-      <c r="T26" s="203"/>
-      <c r="U26" s="203"/>
-      <c r="V26" s="203"/>
-      <c r="W26" s="203"/>
-      <c r="X26" s="203"/>
-      <c r="Y26" s="203"/>
-      <c r="Z26" s="203"/>
-      <c r="AA26" s="203"/>
-      <c r="AB26" s="203"/>
-      <c r="AC26" s="203"/>
-      <c r="AD26" s="203"/>
-      <c r="AE26" s="204"/>
-      <c r="AF26" s="199"/>
-      <c r="AG26" s="200"/>
-      <c r="AH26" s="200"/>
-      <c r="AI26" s="201"/>
+      <c r="B26" s="153"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="157"/>
+      <c r="G26" s="153"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="159"/>
+      <c r="K26" s="160"/>
+      <c r="L26" s="160"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="160"/>
+      <c r="O26" s="160"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="162"/>
+      <c r="R26" s="163"/>
+      <c r="S26" s="163"/>
+      <c r="T26" s="163"/>
+      <c r="U26" s="163"/>
+      <c r="V26" s="163"/>
+      <c r="W26" s="163"/>
+      <c r="X26" s="163"/>
+      <c r="Y26" s="163"/>
+      <c r="Z26" s="163"/>
+      <c r="AA26" s="163"/>
+      <c r="AB26" s="163"/>
+      <c r="AC26" s="163"/>
+      <c r="AD26" s="163"/>
+      <c r="AE26" s="164"/>
+      <c r="AF26" s="159"/>
+      <c r="AG26" s="160"/>
+      <c r="AH26" s="160"/>
+      <c r="AI26" s="161"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="193"/>
-      <c r="C27" s="194"/>
-      <c r="D27" s="195"/>
-      <c r="E27" s="196"/>
-      <c r="F27" s="197"/>
-      <c r="G27" s="193"/>
-      <c r="H27" s="198"/>
-      <c r="I27" s="194"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="200"/>
-      <c r="L27" s="200"/>
-      <c r="M27" s="200"/>
-      <c r="N27" s="200"/>
-      <c r="O27" s="200"/>
-      <c r="P27" s="201"/>
-      <c r="Q27" s="202"/>
-      <c r="R27" s="203"/>
-      <c r="S27" s="203"/>
-      <c r="T27" s="203"/>
-      <c r="U27" s="203"/>
-      <c r="V27" s="203"/>
-      <c r="W27" s="203"/>
-      <c r="X27" s="203"/>
-      <c r="Y27" s="203"/>
-      <c r="Z27" s="203"/>
-      <c r="AA27" s="203"/>
-      <c r="AB27" s="203"/>
-      <c r="AC27" s="203"/>
-      <c r="AD27" s="203"/>
-      <c r="AE27" s="204"/>
-      <c r="AF27" s="199"/>
-      <c r="AG27" s="200"/>
-      <c r="AH27" s="200"/>
-      <c r="AI27" s="201"/>
+      <c r="B27" s="153"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="155"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="157"/>
+      <c r="G27" s="153"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="159"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="160"/>
+      <c r="O27" s="160"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="162"/>
+      <c r="R27" s="163"/>
+      <c r="S27" s="163"/>
+      <c r="T27" s="163"/>
+      <c r="U27" s="163"/>
+      <c r="V27" s="163"/>
+      <c r="W27" s="163"/>
+      <c r="X27" s="163"/>
+      <c r="Y27" s="163"/>
+      <c r="Z27" s="163"/>
+      <c r="AA27" s="163"/>
+      <c r="AB27" s="163"/>
+      <c r="AC27" s="163"/>
+      <c r="AD27" s="163"/>
+      <c r="AE27" s="164"/>
+      <c r="AF27" s="159"/>
+      <c r="AG27" s="160"/>
+      <c r="AH27" s="160"/>
+      <c r="AI27" s="161"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="193"/>
-      <c r="C28" s="194"/>
-      <c r="D28" s="195"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="198"/>
-      <c r="I28" s="194"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="200"/>
-      <c r="L28" s="200"/>
-      <c r="M28" s="200"/>
-      <c r="N28" s="200"/>
-      <c r="O28" s="200"/>
-      <c r="P28" s="201"/>
-      <c r="Q28" s="202"/>
-      <c r="R28" s="203"/>
-      <c r="S28" s="203"/>
-      <c r="T28" s="203"/>
-      <c r="U28" s="203"/>
-      <c r="V28" s="203"/>
-      <c r="W28" s="203"/>
-      <c r="X28" s="203"/>
-      <c r="Y28" s="203"/>
-      <c r="Z28" s="203"/>
-      <c r="AA28" s="203"/>
-      <c r="AB28" s="203"/>
-      <c r="AC28" s="203"/>
-      <c r="AD28" s="203"/>
-      <c r="AE28" s="204"/>
-      <c r="AF28" s="199"/>
-      <c r="AG28" s="200"/>
-      <c r="AH28" s="200"/>
-      <c r="AI28" s="201"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="155"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="153"/>
+      <c r="H28" s="158"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="159"/>
+      <c r="K28" s="160"/>
+      <c r="L28" s="160"/>
+      <c r="M28" s="160"/>
+      <c r="N28" s="160"/>
+      <c r="O28" s="160"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="162"/>
+      <c r="R28" s="163"/>
+      <c r="S28" s="163"/>
+      <c r="T28" s="163"/>
+      <c r="U28" s="163"/>
+      <c r="V28" s="163"/>
+      <c r="W28" s="163"/>
+      <c r="X28" s="163"/>
+      <c r="Y28" s="163"/>
+      <c r="Z28" s="163"/>
+      <c r="AA28" s="163"/>
+      <c r="AB28" s="163"/>
+      <c r="AC28" s="163"/>
+      <c r="AD28" s="163"/>
+      <c r="AE28" s="164"/>
+      <c r="AF28" s="159"/>
+      <c r="AG28" s="160"/>
+      <c r="AH28" s="160"/>
+      <c r="AI28" s="161"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="193"/>
-      <c r="C29" s="194"/>
-      <c r="D29" s="195"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="197"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="198"/>
-      <c r="I29" s="194"/>
-      <c r="J29" s="199"/>
-      <c r="K29" s="200"/>
-      <c r="L29" s="200"/>
-      <c r="M29" s="200"/>
-      <c r="N29" s="200"/>
-      <c r="O29" s="200"/>
-      <c r="P29" s="201"/>
-      <c r="Q29" s="202"/>
-      <c r="R29" s="203"/>
-      <c r="S29" s="203"/>
-      <c r="T29" s="203"/>
-      <c r="U29" s="203"/>
-      <c r="V29" s="203"/>
-      <c r="W29" s="203"/>
-      <c r="X29" s="203"/>
-      <c r="Y29" s="203"/>
-      <c r="Z29" s="203"/>
-      <c r="AA29" s="203"/>
-      <c r="AB29" s="203"/>
-      <c r="AC29" s="203"/>
-      <c r="AD29" s="203"/>
-      <c r="AE29" s="204"/>
-      <c r="AF29" s="199"/>
-      <c r="AG29" s="200"/>
-      <c r="AH29" s="200"/>
-      <c r="AI29" s="201"/>
+      <c r="B29" s="153"/>
+      <c r="C29" s="154"/>
+      <c r="D29" s="155"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="157"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="158"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="159"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="160"/>
+      <c r="M29" s="160"/>
+      <c r="N29" s="160"/>
+      <c r="O29" s="160"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="162"/>
+      <c r="R29" s="163"/>
+      <c r="S29" s="163"/>
+      <c r="T29" s="163"/>
+      <c r="U29" s="163"/>
+      <c r="V29" s="163"/>
+      <c r="W29" s="163"/>
+      <c r="X29" s="163"/>
+      <c r="Y29" s="163"/>
+      <c r="Z29" s="163"/>
+      <c r="AA29" s="163"/>
+      <c r="AB29" s="163"/>
+      <c r="AC29" s="163"/>
+      <c r="AD29" s="163"/>
+      <c r="AE29" s="164"/>
+      <c r="AF29" s="159"/>
+      <c r="AG29" s="160"/>
+      <c r="AH29" s="160"/>
+      <c r="AI29" s="161"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="193"/>
-      <c r="C30" s="194"/>
-      <c r="D30" s="195"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="197"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="198"/>
-      <c r="I30" s="194"/>
-      <c r="J30" s="199"/>
-      <c r="K30" s="200"/>
-      <c r="L30" s="200"/>
-      <c r="M30" s="200"/>
-      <c r="N30" s="200"/>
-      <c r="O30" s="200"/>
-      <c r="P30" s="201"/>
-      <c r="Q30" s="202"/>
-      <c r="R30" s="203"/>
-      <c r="S30" s="203"/>
-      <c r="T30" s="203"/>
-      <c r="U30" s="203"/>
-      <c r="V30" s="203"/>
-      <c r="W30" s="203"/>
-      <c r="X30" s="203"/>
-      <c r="Y30" s="203"/>
-      <c r="Z30" s="203"/>
-      <c r="AA30" s="203"/>
-      <c r="AB30" s="203"/>
-      <c r="AC30" s="203"/>
-      <c r="AD30" s="203"/>
-      <c r="AE30" s="204"/>
-      <c r="AF30" s="199"/>
-      <c r="AG30" s="200"/>
-      <c r="AH30" s="200"/>
-      <c r="AI30" s="201"/>
+      <c r="B30" s="153"/>
+      <c r="C30" s="154"/>
+      <c r="D30" s="155"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="157"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="158"/>
+      <c r="I30" s="154"/>
+      <c r="J30" s="159"/>
+      <c r="K30" s="160"/>
+      <c r="L30" s="160"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="160"/>
+      <c r="O30" s="160"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="162"/>
+      <c r="R30" s="163"/>
+      <c r="S30" s="163"/>
+      <c r="T30" s="163"/>
+      <c r="U30" s="163"/>
+      <c r="V30" s="163"/>
+      <c r="W30" s="163"/>
+      <c r="X30" s="163"/>
+      <c r="Y30" s="163"/>
+      <c r="Z30" s="163"/>
+      <c r="AA30" s="163"/>
+      <c r="AB30" s="163"/>
+      <c r="AC30" s="163"/>
+      <c r="AD30" s="163"/>
+      <c r="AE30" s="164"/>
+      <c r="AF30" s="159"/>
+      <c r="AG30" s="160"/>
+      <c r="AH30" s="160"/>
+      <c r="AI30" s="161"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="193"/>
-      <c r="C31" s="194"/>
-      <c r="D31" s="195"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="197"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="198"/>
-      <c r="I31" s="194"/>
-      <c r="J31" s="199"/>
-      <c r="K31" s="200"/>
-      <c r="L31" s="200"/>
-      <c r="M31" s="200"/>
-      <c r="N31" s="200"/>
-      <c r="O31" s="200"/>
-      <c r="P31" s="201"/>
-      <c r="Q31" s="202"/>
-      <c r="R31" s="203"/>
-      <c r="S31" s="203"/>
-      <c r="T31" s="203"/>
-      <c r="U31" s="203"/>
-      <c r="V31" s="203"/>
-      <c r="W31" s="203"/>
-      <c r="X31" s="203"/>
-      <c r="Y31" s="203"/>
-      <c r="Z31" s="203"/>
-      <c r="AA31" s="203"/>
-      <c r="AB31" s="203"/>
-      <c r="AC31" s="203"/>
-      <c r="AD31" s="203"/>
-      <c r="AE31" s="204"/>
-      <c r="AF31" s="199"/>
-      <c r="AG31" s="200"/>
-      <c r="AH31" s="200"/>
-      <c r="AI31" s="201"/>
+      <c r="B31" s="153"/>
+      <c r="C31" s="154"/>
+      <c r="D31" s="155"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="157"/>
+      <c r="G31" s="153"/>
+      <c r="H31" s="158"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="159"/>
+      <c r="K31" s="160"/>
+      <c r="L31" s="160"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="160"/>
+      <c r="O31" s="160"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="162"/>
+      <c r="R31" s="163"/>
+      <c r="S31" s="163"/>
+      <c r="T31" s="163"/>
+      <c r="U31" s="163"/>
+      <c r="V31" s="163"/>
+      <c r="W31" s="163"/>
+      <c r="X31" s="163"/>
+      <c r="Y31" s="163"/>
+      <c r="Z31" s="163"/>
+      <c r="AA31" s="163"/>
+      <c r="AB31" s="163"/>
+      <c r="AC31" s="163"/>
+      <c r="AD31" s="163"/>
+      <c r="AE31" s="164"/>
+      <c r="AF31" s="159"/>
+      <c r="AG31" s="160"/>
+      <c r="AH31" s="160"/>
+      <c r="AI31" s="161"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="193"/>
-      <c r="C32" s="194"/>
-      <c r="D32" s="195"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="198"/>
-      <c r="I32" s="194"/>
-      <c r="J32" s="199"/>
-      <c r="K32" s="219"/>
-      <c r="L32" s="200"/>
-      <c r="M32" s="200"/>
-      <c r="N32" s="200"/>
-      <c r="O32" s="200"/>
-      <c r="P32" s="201"/>
-      <c r="Q32" s="202"/>
-      <c r="R32" s="203"/>
-      <c r="S32" s="203"/>
-      <c r="T32" s="203"/>
-      <c r="U32" s="203"/>
-      <c r="V32" s="203"/>
-      <c r="W32" s="203"/>
-      <c r="X32" s="203"/>
-      <c r="Y32" s="203"/>
-      <c r="Z32" s="203"/>
-      <c r="AA32" s="203"/>
-      <c r="AB32" s="203"/>
-      <c r="AC32" s="203"/>
-      <c r="AD32" s="203"/>
-      <c r="AE32" s="204"/>
-      <c r="AF32" s="199"/>
-      <c r="AG32" s="200"/>
-      <c r="AH32" s="200"/>
-      <c r="AI32" s="201"/>
+      <c r="B32" s="153"/>
+      <c r="C32" s="154"/>
+      <c r="D32" s="155"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="157"/>
+      <c r="G32" s="153"/>
+      <c r="H32" s="158"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="165"/>
+      <c r="L32" s="160"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="160"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="162"/>
+      <c r="R32" s="163"/>
+      <c r="S32" s="163"/>
+      <c r="T32" s="163"/>
+      <c r="U32" s="163"/>
+      <c r="V32" s="163"/>
+      <c r="W32" s="163"/>
+      <c r="X32" s="163"/>
+      <c r="Y32" s="163"/>
+      <c r="Z32" s="163"/>
+      <c r="AA32" s="163"/>
+      <c r="AB32" s="163"/>
+      <c r="AC32" s="163"/>
+      <c r="AD32" s="163"/>
+      <c r="AE32" s="164"/>
+      <c r="AF32" s="159"/>
+      <c r="AG32" s="160"/>
+      <c r="AH32" s="160"/>
+      <c r="AI32" s="161"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="193"/>
-      <c r="C33" s="194"/>
-      <c r="D33" s="195"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="197"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="194"/>
-      <c r="J33" s="199"/>
-      <c r="K33" s="200"/>
-      <c r="L33" s="200"/>
-      <c r="M33" s="200"/>
-      <c r="N33" s="200"/>
-      <c r="O33" s="200"/>
-      <c r="P33" s="201"/>
-      <c r="Q33" s="202"/>
-      <c r="R33" s="203"/>
-      <c r="S33" s="203"/>
-      <c r="T33" s="203"/>
-      <c r="U33" s="203"/>
-      <c r="V33" s="203"/>
-      <c r="W33" s="203"/>
-      <c r="X33" s="203"/>
-      <c r="Y33" s="203"/>
-      <c r="Z33" s="203"/>
-      <c r="AA33" s="203"/>
-      <c r="AB33" s="203"/>
-      <c r="AC33" s="203"/>
-      <c r="AD33" s="203"/>
-      <c r="AE33" s="204"/>
-      <c r="AF33" s="199"/>
-      <c r="AG33" s="200"/>
-      <c r="AH33" s="200"/>
-      <c r="AI33" s="201"/>
+      <c r="B33" s="153"/>
+      <c r="C33" s="154"/>
+      <c r="D33" s="155"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="157"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="159"/>
+      <c r="K33" s="160"/>
+      <c r="L33" s="160"/>
+      <c r="M33" s="160"/>
+      <c r="N33" s="160"/>
+      <c r="O33" s="160"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="162"/>
+      <c r="R33" s="163"/>
+      <c r="S33" s="163"/>
+      <c r="T33" s="163"/>
+      <c r="U33" s="163"/>
+      <c r="V33" s="163"/>
+      <c r="W33" s="163"/>
+      <c r="X33" s="163"/>
+      <c r="Y33" s="163"/>
+      <c r="Z33" s="163"/>
+      <c r="AA33" s="163"/>
+      <c r="AB33" s="163"/>
+      <c r="AC33" s="163"/>
+      <c r="AD33" s="163"/>
+      <c r="AE33" s="164"/>
+      <c r="AF33" s="159"/>
+      <c r="AG33" s="160"/>
+      <c r="AH33" s="160"/>
+      <c r="AI33" s="161"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8246,6 +8106,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8402,157 +8418,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="231" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="232" t="str">
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="223" t="s">
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="224"/>
-      <c r="Q1" s="224"/>
-      <c r="R1" s="225"/>
-      <c r="S1" s="236" t="str">
+      <c r="P1" s="235"/>
+      <c r="Q1" s="235"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="220" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="231" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="222"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="233"/>
+      <c r="AC1" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="233">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="218">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="234"/>
-      <c r="AI1" s="235"/>
+      <c r="AH1" s="219"/>
+      <c r="AI1" s="220"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="220" t="s">
+      <c r="A2" s="231" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="221"/>
-      <c r="C2" s="221"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="232" t="str">
+      <c r="B2" s="232"/>
+      <c r="C2" s="232"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="226"/>
-      <c r="P2" s="227"/>
-      <c r="Q2" s="227"/>
-      <c r="R2" s="228"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="220" t="s">
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="237"/>
+      <c r="P2" s="238"/>
+      <c r="Q2" s="238"/>
+      <c r="R2" s="239"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="231" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="222"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="233"/>
+      <c r="AC2" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="157"/>
-      <c r="AG2" s="233" t="str">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="234"/>
-      <c r="AI2" s="235"/>
+      <c r="AH2" s="219"/>
+      <c r="AI2" s="220"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="220" t="s">
+      <c r="A3" s="231" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="221"/>
-      <c r="C3" s="221"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="232" t="str">
+      <c r="B3" s="232"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="233"/>
+      <c r="E3" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="229"/>
-      <c r="P3" s="230"/>
-      <c r="Q3" s="230"/>
-      <c r="R3" s="231"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243"/>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="220"/>
-      <c r="AB3" s="222"/>
-      <c r="AC3" s="158" t="str">
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="240"/>
+      <c r="P3" s="241"/>
+      <c r="Q3" s="241"/>
+      <c r="R3" s="242"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="231"/>
+      <c r="AB3" s="233"/>
+      <c r="AC3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="157"/>
-      <c r="AG3" s="233" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="218" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="234"/>
-      <c r="AI3" s="235"/>
+      <c r="AH3" s="219"/>
+      <c r="AI3" s="220"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="44"/>
@@ -10019,6 +10035,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -10028,14 +10052,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10064,157 +10080,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="232" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="175" t="s">
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="236" t="str">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="172" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="246">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="253">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="247"/>
-      <c r="AI1" s="248"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="255"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="232" t="str">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="172" t="s">
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="157"/>
-      <c r="AG2" s="246" t="str">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248"/>
+      <c r="AH2" s="254"/>
+      <c r="AI2" s="255"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="232" t="str">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243"/>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="158" t="str">
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="157"/>
-      <c r="AG3" s="246" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
+      <c r="AH3" s="254"/>
+      <c r="AI3" s="255"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1">
       <c r="A4" s="30"/>
@@ -10370,92 +10386,92 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="251" t="s">
+      <c r="D8" s="246" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="252"/>
-      <c r="F8" s="252"/>
-      <c r="G8" s="253"/>
-      <c r="H8" s="249" t="s">
+      <c r="E8" s="247"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="248"/>
+      <c r="H8" s="256" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="250"/>
-      <c r="J8" s="250"/>
-      <c r="K8" s="250"/>
-      <c r="L8" s="250"/>
-      <c r="M8" s="250"/>
-      <c r="N8" s="250"/>
-      <c r="O8" s="250"/>
-      <c r="P8" s="250"/>
-      <c r="Q8" s="250"/>
-      <c r="R8" s="250"/>
-      <c r="S8" s="250"/>
-      <c r="T8" s="250"/>
-      <c r="U8" s="250"/>
-      <c r="V8" s="250"/>
-      <c r="W8" s="250"/>
-      <c r="X8" s="250"/>
-      <c r="Y8" s="250"/>
-      <c r="Z8" s="250"/>
-      <c r="AA8" s="250"/>
-      <c r="AB8" s="250"/>
-      <c r="AC8" s="250"/>
-      <c r="AD8" s="250"/>
-      <c r="AE8" s="250"/>
-      <c r="AF8" s="250"/>
-      <c r="AG8" s="250"/>
-      <c r="AH8" s="250"/>
+      <c r="I8" s="257"/>
+      <c r="J8" s="257"/>
+      <c r="K8" s="257"/>
+      <c r="L8" s="257"/>
+      <c r="M8" s="257"/>
+      <c r="N8" s="257"/>
+      <c r="O8" s="257"/>
+      <c r="P8" s="257"/>
+      <c r="Q8" s="257"/>
+      <c r="R8" s="257"/>
+      <c r="S8" s="257"/>
+      <c r="T8" s="257"/>
+      <c r="U8" s="257"/>
+      <c r="V8" s="257"/>
+      <c r="W8" s="257"/>
+      <c r="X8" s="257"/>
+      <c r="Y8" s="257"/>
+      <c r="Z8" s="257"/>
+      <c r="AA8" s="257"/>
+      <c r="AB8" s="257"/>
+      <c r="AC8" s="257"/>
+      <c r="AD8" s="257"/>
+      <c r="AE8" s="257"/>
+      <c r="AF8" s="257"/>
+      <c r="AG8" s="257"/>
+      <c r="AH8" s="257"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="251" t="s">
+      <c r="D9" s="246" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="252"/>
-      <c r="F9" s="252"/>
-      <c r="G9" s="253"/>
-      <c r="H9" s="245" t="s">
+      <c r="E9" s="247"/>
+      <c r="F9" s="247"/>
+      <c r="G9" s="248"/>
+      <c r="H9" s="252" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="245"/>
-      <c r="L9" s="245"/>
-      <c r="M9" s="245"/>
-      <c r="N9" s="245"/>
-      <c r="O9" s="245"/>
-      <c r="P9" s="245"/>
-      <c r="Q9" s="245"/>
-      <c r="R9" s="245"/>
-      <c r="S9" s="245"/>
-      <c r="T9" s="245"/>
-      <c r="U9" s="245"/>
-      <c r="V9" s="245"/>
-      <c r="W9" s="245"/>
-      <c r="X9" s="245"/>
-      <c r="Y9" s="245"/>
-      <c r="Z9" s="245"/>
-      <c r="AA9" s="245"/>
-      <c r="AB9" s="245"/>
-      <c r="AC9" s="245"/>
-      <c r="AD9" s="245"/>
-      <c r="AE9" s="245"/>
-      <c r="AF9" s="245"/>
-      <c r="AG9" s="245"/>
-      <c r="AH9" s="245"/>
+      <c r="I9" s="252"/>
+      <c r="J9" s="252"/>
+      <c r="K9" s="252"/>
+      <c r="L9" s="252"/>
+      <c r="M9" s="252"/>
+      <c r="N9" s="252"/>
+      <c r="O9" s="252"/>
+      <c r="P9" s="252"/>
+      <c r="Q9" s="252"/>
+      <c r="R9" s="252"/>
+      <c r="S9" s="252"/>
+      <c r="T9" s="252"/>
+      <c r="U9" s="252"/>
+      <c r="V9" s="252"/>
+      <c r="W9" s="252"/>
+      <c r="X9" s="252"/>
+      <c r="Y9" s="252"/>
+      <c r="Z9" s="252"/>
+      <c r="AA9" s="252"/>
+      <c r="AB9" s="252"/>
+      <c r="AC9" s="252"/>
+      <c r="AD9" s="252"/>
+      <c r="AE9" s="252"/>
+      <c r="AF9" s="252"/>
+      <c r="AG9" s="252"/>
+      <c r="AH9" s="252"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="254" t="s">
+      <c r="D10" s="243" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="255"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="256"/>
+      <c r="E10" s="244"/>
+      <c r="F10" s="244"/>
+      <c r="G10" s="245"/>
       <c r="H10" s="103" t="s">
         <v>117</v>
       </c>
@@ -10490,201 +10506,201 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="251" t="s">
+      <c r="D11" s="246" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="252"/>
-      <c r="F11" s="252"/>
-      <c r="G11" s="253"/>
-      <c r="H11" s="249" t="s">
+      <c r="E11" s="247"/>
+      <c r="F11" s="247"/>
+      <c r="G11" s="248"/>
+      <c r="H11" s="256" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="250"/>
-      <c r="J11" s="250"/>
-      <c r="K11" s="250"/>
-      <c r="L11" s="250"/>
-      <c r="M11" s="250"/>
-      <c r="N11" s="250"/>
-      <c r="O11" s="250"/>
-      <c r="P11" s="250"/>
-      <c r="Q11" s="250"/>
-      <c r="R11" s="250"/>
-      <c r="S11" s="250"/>
-      <c r="T11" s="250"/>
-      <c r="U11" s="250"/>
-      <c r="V11" s="250"/>
-      <c r="W11" s="250"/>
-      <c r="X11" s="250"/>
-      <c r="Y11" s="250"/>
-      <c r="Z11" s="250"/>
-      <c r="AA11" s="250"/>
-      <c r="AB11" s="250"/>
-      <c r="AC11" s="250"/>
-      <c r="AD11" s="250"/>
-      <c r="AE11" s="250"/>
-      <c r="AF11" s="250"/>
-      <c r="AG11" s="250"/>
-      <c r="AH11" s="250"/>
+      <c r="I11" s="257"/>
+      <c r="J11" s="257"/>
+      <c r="K11" s="257"/>
+      <c r="L11" s="257"/>
+      <c r="M11" s="257"/>
+      <c r="N11" s="257"/>
+      <c r="O11" s="257"/>
+      <c r="P11" s="257"/>
+      <c r="Q11" s="257"/>
+      <c r="R11" s="257"/>
+      <c r="S11" s="257"/>
+      <c r="T11" s="257"/>
+      <c r="U11" s="257"/>
+      <c r="V11" s="257"/>
+      <c r="W11" s="257"/>
+      <c r="X11" s="257"/>
+      <c r="Y11" s="257"/>
+      <c r="Z11" s="257"/>
+      <c r="AA11" s="257"/>
+      <c r="AB11" s="257"/>
+      <c r="AC11" s="257"/>
+      <c r="AD11" s="257"/>
+      <c r="AE11" s="257"/>
+      <c r="AF11" s="257"/>
+      <c r="AG11" s="257"/>
+      <c r="AH11" s="257"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="251" t="s">
+      <c r="D12" s="246" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="252"/>
-      <c r="F12" s="252"/>
-      <c r="G12" s="253"/>
-      <c r="H12" s="245" t="s">
+      <c r="E12" s="247"/>
+      <c r="F12" s="247"/>
+      <c r="G12" s="248"/>
+      <c r="H12" s="252" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="245"/>
-      <c r="J12" s="245"/>
-      <c r="K12" s="245"/>
-      <c r="L12" s="245"/>
-      <c r="M12" s="245"/>
-      <c r="N12" s="245"/>
-      <c r="O12" s="245"/>
-      <c r="P12" s="245"/>
-      <c r="Q12" s="245"/>
-      <c r="R12" s="245"/>
-      <c r="S12" s="245"/>
-      <c r="T12" s="245"/>
-      <c r="U12" s="245"/>
-      <c r="V12" s="245"/>
-      <c r="W12" s="245"/>
-      <c r="X12" s="245"/>
-      <c r="Y12" s="245"/>
-      <c r="Z12" s="245"/>
-      <c r="AA12" s="245"/>
-      <c r="AB12" s="245"/>
-      <c r="AC12" s="245"/>
-      <c r="AD12" s="245"/>
-      <c r="AE12" s="245"/>
-      <c r="AF12" s="245"/>
-      <c r="AG12" s="245"/>
-      <c r="AH12" s="245"/>
+      <c r="I12" s="252"/>
+      <c r="J12" s="252"/>
+      <c r="K12" s="252"/>
+      <c r="L12" s="252"/>
+      <c r="M12" s="252"/>
+      <c r="N12" s="252"/>
+      <c r="O12" s="252"/>
+      <c r="P12" s="252"/>
+      <c r="Q12" s="252"/>
+      <c r="R12" s="252"/>
+      <c r="S12" s="252"/>
+      <c r="T12" s="252"/>
+      <c r="U12" s="252"/>
+      <c r="V12" s="252"/>
+      <c r="W12" s="252"/>
+      <c r="X12" s="252"/>
+      <c r="Y12" s="252"/>
+      <c r="Z12" s="252"/>
+      <c r="AA12" s="252"/>
+      <c r="AB12" s="252"/>
+      <c r="AC12" s="252"/>
+      <c r="AD12" s="252"/>
+      <c r="AE12" s="252"/>
+      <c r="AF12" s="252"/>
+      <c r="AG12" s="252"/>
+      <c r="AH12" s="252"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="251" t="s">
+      <c r="D13" s="246" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="252"/>
-      <c r="F13" s="252"/>
-      <c r="G13" s="253"/>
-      <c r="H13" s="245" t="s">
-        <v>155</v>
-      </c>
-      <c r="I13" s="245"/>
-      <c r="J13" s="245"/>
-      <c r="K13" s="245"/>
-      <c r="L13" s="245"/>
-      <c r="M13" s="245"/>
-      <c r="N13" s="245"/>
-      <c r="O13" s="245"/>
-      <c r="P13" s="245"/>
-      <c r="Q13" s="245"/>
-      <c r="R13" s="245"/>
-      <c r="S13" s="245"/>
-      <c r="T13" s="245"/>
-      <c r="U13" s="245"/>
-      <c r="V13" s="245"/>
-      <c r="W13" s="245"/>
-      <c r="X13" s="245"/>
-      <c r="Y13" s="245"/>
-      <c r="Z13" s="245"/>
-      <c r="AA13" s="245"/>
-      <c r="AB13" s="245"/>
-      <c r="AC13" s="245"/>
-      <c r="AD13" s="245"/>
-      <c r="AE13" s="245"/>
-      <c r="AF13" s="245"/>
-      <c r="AG13" s="245"/>
-      <c r="AH13" s="245"/>
+      <c r="E13" s="247"/>
+      <c r="F13" s="247"/>
+      <c r="G13" s="248"/>
+      <c r="H13" s="252" t="s">
+        <v>154</v>
+      </c>
+      <c r="I13" s="252"/>
+      <c r="J13" s="252"/>
+      <c r="K13" s="252"/>
+      <c r="L13" s="252"/>
+      <c r="M13" s="252"/>
+      <c r="N13" s="252"/>
+      <c r="O13" s="252"/>
+      <c r="P13" s="252"/>
+      <c r="Q13" s="252"/>
+      <c r="R13" s="252"/>
+      <c r="S13" s="252"/>
+      <c r="T13" s="252"/>
+      <c r="U13" s="252"/>
+      <c r="V13" s="252"/>
+      <c r="W13" s="252"/>
+      <c r="X13" s="252"/>
+      <c r="Y13" s="252"/>
+      <c r="Z13" s="252"/>
+      <c r="AA13" s="252"/>
+      <c r="AB13" s="252"/>
+      <c r="AC13" s="252"/>
+      <c r="AD13" s="252"/>
+      <c r="AE13" s="252"/>
+      <c r="AF13" s="252"/>
+      <c r="AG13" s="252"/>
+      <c r="AH13" s="252"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="251" t="s">
+      <c r="D14" s="246" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252"/>
-      <c r="G14" s="253"/>
-      <c r="H14" s="245" t="s">
+      <c r="E14" s="247"/>
+      <c r="F14" s="247"/>
+      <c r="G14" s="248"/>
+      <c r="H14" s="252" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="245"/>
-      <c r="J14" s="245"/>
-      <c r="K14" s="245"/>
-      <c r="L14" s="245"/>
-      <c r="M14" s="245"/>
-      <c r="N14" s="245"/>
-      <c r="O14" s="245"/>
-      <c r="P14" s="245"/>
-      <c r="Q14" s="245"/>
-      <c r="R14" s="245"/>
-      <c r="S14" s="245"/>
-      <c r="T14" s="245"/>
-      <c r="U14" s="245"/>
-      <c r="V14" s="245"/>
-      <c r="W14" s="245"/>
-      <c r="X14" s="245"/>
-      <c r="Y14" s="245"/>
-      <c r="Z14" s="245"/>
-      <c r="AA14" s="245"/>
-      <c r="AB14" s="245"/>
-      <c r="AC14" s="245"/>
-      <c r="AD14" s="245"/>
-      <c r="AE14" s="245"/>
-      <c r="AF14" s="245"/>
-      <c r="AG14" s="245"/>
-      <c r="AH14" s="245"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="252"/>
+      <c r="K14" s="252"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="252"/>
+      <c r="N14" s="252"/>
+      <c r="O14" s="252"/>
+      <c r="P14" s="252"/>
+      <c r="Q14" s="252"/>
+      <c r="R14" s="252"/>
+      <c r="S14" s="252"/>
+      <c r="T14" s="252"/>
+      <c r="U14" s="252"/>
+      <c r="V14" s="252"/>
+      <c r="W14" s="252"/>
+      <c r="X14" s="252"/>
+      <c r="Y14" s="252"/>
+      <c r="Z14" s="252"/>
+      <c r="AA14" s="252"/>
+      <c r="AB14" s="252"/>
+      <c r="AC14" s="252"/>
+      <c r="AD14" s="252"/>
+      <c r="AE14" s="252"/>
+      <c r="AF14" s="252"/>
+      <c r="AG14" s="252"/>
+      <c r="AH14" s="252"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="251" t="s">
+      <c r="D15" s="246" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="252"/>
-      <c r="F15" s="252"/>
-      <c r="G15" s="253"/>
-      <c r="H15" s="148" t="s">
+      <c r="E15" s="247"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="248"/>
+      <c r="H15" s="146" t="s">
         <v>118</v>
       </c>
-      <c r="I15" s="149"/>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
-      <c r="L15" s="149"/>
-      <c r="M15" s="149"/>
-      <c r="N15" s="149"/>
-      <c r="O15" s="149"/>
-      <c r="P15" s="149"/>
-      <c r="Q15" s="149"/>
-      <c r="R15" s="149"/>
-      <c r="S15" s="149"/>
-      <c r="T15" s="149"/>
-      <c r="U15" s="149"/>
-      <c r="V15" s="149"/>
-      <c r="W15" s="149"/>
-      <c r="X15" s="149"/>
-      <c r="Y15" s="149"/>
-      <c r="Z15" s="149"/>
-      <c r="AA15" s="149"/>
-      <c r="AB15" s="149"/>
-      <c r="AC15" s="149"/>
-      <c r="AD15" s="149"/>
-      <c r="AE15" s="149"/>
-      <c r="AF15" s="149"/>
-      <c r="AG15" s="149"/>
-      <c r="AH15" s="150"/>
+      <c r="I15" s="147"/>
+      <c r="J15" s="147"/>
+      <c r="K15" s="147"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="147"/>
+      <c r="N15" s="147"/>
+      <c r="O15" s="147"/>
+      <c r="P15" s="147"/>
+      <c r="Q15" s="147"/>
+      <c r="R15" s="147"/>
+      <c r="S15" s="147"/>
+      <c r="T15" s="147"/>
+      <c r="U15" s="147"/>
+      <c r="V15" s="147"/>
+      <c r="W15" s="147"/>
+      <c r="X15" s="147"/>
+      <c r="Y15" s="147"/>
+      <c r="Z15" s="147"/>
+      <c r="AA15" s="147"/>
+      <c r="AB15" s="147"/>
+      <c r="AC15" s="147"/>
+      <c r="AD15" s="147"/>
+      <c r="AE15" s="147"/>
+      <c r="AF15" s="147"/>
+      <c r="AG15" s="147"/>
+      <c r="AH15" s="148"/>
     </row>
     <row r="16" spans="1:38" ht="12" customHeight="1">
       <c r="A16" s="31"/>
@@ -10807,30 +10823,30 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="259"/>
-      <c r="H19" s="259"/>
-      <c r="I19" s="259"/>
-      <c r="J19" s="259"/>
-      <c r="K19" s="259"/>
-      <c r="L19" s="259"/>
-      <c r="M19" s="259"/>
-      <c r="N19" s="259"/>
-      <c r="O19" s="257"/>
-      <c r="P19" s="258"/>
-      <c r="Q19" s="258"/>
-      <c r="R19" s="258"/>
-      <c r="S19" s="258"/>
-      <c r="T19" s="258"/>
-      <c r="U19" s="258"/>
-      <c r="V19" s="258"/>
-      <c r="W19" s="258"/>
-      <c r="X19" s="258"/>
-      <c r="Y19" s="258"/>
-      <c r="Z19" s="258"/>
-      <c r="AA19" s="258"/>
-      <c r="AB19" s="258"/>
-      <c r="AC19" s="258"/>
-      <c r="AD19" s="258"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="251"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="251"/>
+      <c r="N19" s="251"/>
+      <c r="O19" s="249"/>
+      <c r="P19" s="250"/>
+      <c r="Q19" s="250"/>
+      <c r="R19" s="250"/>
+      <c r="S19" s="250"/>
+      <c r="T19" s="250"/>
+      <c r="U19" s="250"/>
+      <c r="V19" s="250"/>
+      <c r="W19" s="250"/>
+      <c r="X19" s="250"/>
+      <c r="Y19" s="250"/>
+      <c r="Z19" s="250"/>
+      <c r="AA19" s="250"/>
+      <c r="AB19" s="250"/>
+      <c r="AC19" s="250"/>
+      <c r="AD19" s="250"/>
       <c r="AE19" s="32"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
@@ -11282,15 +11298,14 @@
     <row r="34" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11307,14 +11322,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11343,157 +11359,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="232" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="175" t="s">
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="236" t="str">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="172" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="246">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="253">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="247"/>
-      <c r="AI1" s="248"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="255"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="232" t="str">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="172" t="s">
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="157"/>
-      <c r="AG2" s="246" t="str">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248"/>
+      <c r="AH2" s="254"/>
+      <c r="AI2" s="255"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="232" t="str">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243"/>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="158" t="str">
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="157"/>
-      <c r="AG3" s="246" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
+      <c r="AH3" s="254"/>
+      <c r="AI3" s="255"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" ht="12" customHeight="1">
@@ -11504,12 +11520,6 @@
     <row r="6" spans="1:35" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11521,6 +11531,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11538,10 +11554,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL89"/>
+  <dimension ref="A1:AL90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -11550,163 +11566,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="232" t="str">
+      <c r="B1" s="198"/>
+      <c r="C1" s="198"/>
+      <c r="D1" s="199"/>
+      <c r="E1" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
-      <c r="H1" s="167"/>
-      <c r="I1" s="167"/>
-      <c r="J1" s="167"/>
-      <c r="K1" s="167"/>
-      <c r="L1" s="167"/>
-      <c r="M1" s="167"/>
-      <c r="N1" s="168"/>
-      <c r="O1" s="175" t="s">
+      <c r="F1" s="192"/>
+      <c r="G1" s="192"/>
+      <c r="H1" s="192"/>
+      <c r="I1" s="192"/>
+      <c r="J1" s="192"/>
+      <c r="K1" s="192"/>
+      <c r="L1" s="192"/>
+      <c r="M1" s="192"/>
+      <c r="N1" s="193"/>
+      <c r="O1" s="200" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="176"/>
-      <c r="Q1" s="176"/>
-      <c r="R1" s="177"/>
-      <c r="S1" s="236" t="str">
+      <c r="P1" s="201"/>
+      <c r="Q1" s="201"/>
+      <c r="R1" s="202"/>
+      <c r="S1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="237"/>
-      <c r="U1" s="237"/>
-      <c r="V1" s="237"/>
-      <c r="W1" s="237"/>
-      <c r="X1" s="237"/>
-      <c r="Y1" s="237"/>
-      <c r="Z1" s="238"/>
-      <c r="AA1" s="172" t="s">
+      <c r="T1" s="223"/>
+      <c r="U1" s="223"/>
+      <c r="V1" s="223"/>
+      <c r="W1" s="223"/>
+      <c r="X1" s="223"/>
+      <c r="Y1" s="223"/>
+      <c r="Z1" s="224"/>
+      <c r="AA1" s="197" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="174"/>
-      <c r="AC1" s="158" t="str">
+      <c r="AB1" s="199"/>
+      <c r="AC1" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="156"/>
-      <c r="AE1" s="156"/>
-      <c r="AF1" s="157"/>
-      <c r="AG1" s="246">
+      <c r="AD1" s="181"/>
+      <c r="AE1" s="181"/>
+      <c r="AF1" s="182"/>
+      <c r="AG1" s="253">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="247"/>
-      <c r="AI1" s="248"/>
+      <c r="AH1" s="254"/>
+      <c r="AI1" s="255"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="173"/>
-      <c r="C2" s="173"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="232" t="str">
+      <c r="B2" s="198"/>
+      <c r="C2" s="198"/>
+      <c r="D2" s="199"/>
+      <c r="E2" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="168"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="180"/>
-      <c r="S2" s="239"/>
-      <c r="T2" s="240"/>
-      <c r="U2" s="240"/>
-      <c r="V2" s="240"/>
-      <c r="W2" s="240"/>
-      <c r="X2" s="240"/>
-      <c r="Y2" s="240"/>
-      <c r="Z2" s="241"/>
-      <c r="AA2" s="172" t="s">
+      <c r="F2" s="192"/>
+      <c r="G2" s="192"/>
+      <c r="H2" s="192"/>
+      <c r="I2" s="192"/>
+      <c r="J2" s="192"/>
+      <c r="K2" s="192"/>
+      <c r="L2" s="192"/>
+      <c r="M2" s="192"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="204"/>
+      <c r="Q2" s="204"/>
+      <c r="R2" s="205"/>
+      <c r="S2" s="225"/>
+      <c r="T2" s="226"/>
+      <c r="U2" s="226"/>
+      <c r="V2" s="226"/>
+      <c r="W2" s="226"/>
+      <c r="X2" s="226"/>
+      <c r="Y2" s="226"/>
+      <c r="Z2" s="227"/>
+      <c r="AA2" s="197" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="174"/>
-      <c r="AC2" s="158" t="str">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="156"/>
-      <c r="AE2" s="156"/>
-      <c r="AF2" s="157"/>
-      <c r="AG2" s="246" t="str">
+      <c r="AD2" s="181"/>
+      <c r="AE2" s="181"/>
+      <c r="AF2" s="182"/>
+      <c r="AG2" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="247"/>
-      <c r="AI2" s="248"/>
+      <c r="AH2" s="254"/>
+      <c r="AI2" s="255"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="173"/>
-      <c r="C3" s="173"/>
-      <c r="D3" s="174"/>
-      <c r="E3" s="232" t="str">
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="221" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="167"/>
-      <c r="I3" s="167"/>
-      <c r="J3" s="167"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="168"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="182"/>
-      <c r="Q3" s="182"/>
-      <c r="R3" s="183"/>
-      <c r="S3" s="242"/>
-      <c r="T3" s="243"/>
-      <c r="U3" s="243"/>
-      <c r="V3" s="243"/>
-      <c r="W3" s="243"/>
-      <c r="X3" s="243"/>
-      <c r="Y3" s="243"/>
-      <c r="Z3" s="244"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="174"/>
-      <c r="AC3" s="158" t="str">
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="206"/>
+      <c r="P3" s="207"/>
+      <c r="Q3" s="207"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="228"/>
+      <c r="T3" s="229"/>
+      <c r="U3" s="229"/>
+      <c r="V3" s="229"/>
+      <c r="W3" s="229"/>
+      <c r="X3" s="229"/>
+      <c r="Y3" s="229"/>
+      <c r="Z3" s="230"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="199"/>
+      <c r="AC3" s="183" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="156"/>
-      <c r="AE3" s="156"/>
-      <c r="AF3" s="157"/>
-      <c r="AG3" s="246" t="str">
+      <c r="AD3" s="181"/>
+      <c r="AE3" s="181"/>
+      <c r="AF3" s="182"/>
+      <c r="AG3" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="247"/>
-      <c r="AI3" s="248"/>
+      <c r="AH3" s="254"/>
+      <c r="AI3" s="255"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11824,65 +11840,65 @@
     <row r="8" spans="1:38">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="279" t="s">
+      <c r="D8" s="332" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="281" t="s">
+      <c r="E8" s="334" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="282"/>
-      <c r="G8" s="282"/>
-      <c r="H8" s="282"/>
-      <c r="I8" s="282"/>
-      <c r="J8" s="283"/>
-      <c r="K8" s="287" t="s">
+      <c r="F8" s="335"/>
+      <c r="G8" s="335"/>
+      <c r="H8" s="335"/>
+      <c r="I8" s="335"/>
+      <c r="J8" s="336"/>
+      <c r="K8" s="340" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="282"/>
-      <c r="M8" s="282"/>
-      <c r="N8" s="283"/>
-      <c r="O8" s="288" t="s">
+      <c r="L8" s="335"/>
+      <c r="M8" s="335"/>
+      <c r="N8" s="336"/>
+      <c r="O8" s="341" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="293" t="s">
+      <c r="P8" s="346" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="294"/>
-      <c r="R8" s="294"/>
-      <c r="S8" s="294"/>
-      <c r="T8" s="294"/>
-      <c r="U8" s="295"/>
-      <c r="V8" s="290" t="s">
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+      <c r="U8" s="348"/>
+      <c r="V8" s="343" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="290"/>
-      <c r="X8" s="290"/>
-      <c r="Y8" s="290"/>
-      <c r="Z8" s="290"/>
-      <c r="AA8" s="290"/>
-      <c r="AB8" s="290"/>
-      <c r="AC8" s="290"/>
-      <c r="AD8" s="290"/>
-      <c r="AE8" s="290"/>
-      <c r="AF8" s="290"/>
-      <c r="AG8" s="290"/>
-      <c r="AH8" s="290"/>
+      <c r="W8" s="343"/>
+      <c r="X8" s="343"/>
+      <c r="Y8" s="343"/>
+      <c r="Z8" s="343"/>
+      <c r="AA8" s="343"/>
+      <c r="AB8" s="343"/>
+      <c r="AC8" s="343"/>
+      <c r="AD8" s="343"/>
+      <c r="AE8" s="343"/>
+      <c r="AF8" s="343"/>
+      <c r="AG8" s="343"/>
+      <c r="AH8" s="343"/>
     </row>
     <row r="9" spans="1:38">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="280"/>
-      <c r="E9" s="284"/>
-      <c r="F9" s="285"/>
-      <c r="G9" s="285"/>
-      <c r="H9" s="285"/>
-      <c r="I9" s="285"/>
-      <c r="J9" s="286"/>
-      <c r="K9" s="284"/>
-      <c r="L9" s="285"/>
-      <c r="M9" s="285"/>
-      <c r="N9" s="286"/>
-      <c r="O9" s="289"/>
+      <c r="D9" s="333"/>
+      <c r="E9" s="337"/>
+      <c r="F9" s="338"/>
+      <c r="G9" s="338"/>
+      <c r="H9" s="338"/>
+      <c r="I9" s="338"/>
+      <c r="J9" s="339"/>
+      <c r="K9" s="337"/>
+      <c r="L9" s="338"/>
+      <c r="M9" s="338"/>
+      <c r="N9" s="339"/>
+      <c r="O9" s="342"/>
       <c r="P9" s="90" t="s">
         <v>46</v>
       </c>
@@ -11895,23 +11911,23 @@
       <c r="S9" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="291" t="s">
+      <c r="T9" s="344" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="292"/>
-      <c r="V9" s="290"/>
-      <c r="W9" s="290"/>
-      <c r="X9" s="290"/>
-      <c r="Y9" s="290"/>
-      <c r="Z9" s="290"/>
-      <c r="AA9" s="290"/>
-      <c r="AB9" s="290"/>
-      <c r="AC9" s="290"/>
-      <c r="AD9" s="290"/>
-      <c r="AE9" s="290"/>
-      <c r="AF9" s="290"/>
-      <c r="AG9" s="290"/>
-      <c r="AH9" s="290"/>
+      <c r="U9" s="345"/>
+      <c r="V9" s="343"/>
+      <c r="W9" s="343"/>
+      <c r="X9" s="343"/>
+      <c r="Y9" s="343"/>
+      <c r="Z9" s="343"/>
+      <c r="AA9" s="343"/>
+      <c r="AB9" s="343"/>
+      <c r="AC9" s="343"/>
+      <c r="AD9" s="343"/>
+      <c r="AE9" s="343"/>
+      <c r="AF9" s="343"/>
+      <c r="AG9" s="343"/>
+      <c r="AH9" s="343"/>
     </row>
     <row r="10" spans="1:38">
       <c r="B10" s="30"/>
@@ -11919,20 +11935,20 @@
       <c r="D10" s="114">
         <v>1</v>
       </c>
-      <c r="E10" s="268" t="s">
+      <c r="E10" s="270" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="203"/>
-      <c r="G10" s="203"/>
-      <c r="H10" s="203"/>
-      <c r="I10" s="203"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="202" t="s">
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+      <c r="I10" s="163"/>
+      <c r="J10" s="164"/>
+      <c r="K10" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="203"/>
-      <c r="M10" s="203"/>
-      <c r="N10" s="204"/>
+      <c r="L10" s="163"/>
+      <c r="M10" s="163"/>
+      <c r="N10" s="164"/>
       <c r="O10" s="115" t="s">
         <v>76</v>
       </c>
@@ -11948,23 +11964,23 @@
       <c r="S10" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T10" s="263" t="s">
+      <c r="T10" s="273" t="s">
         <v>79</v>
       </c>
-      <c r="U10" s="264"/>
-      <c r="V10" s="202"/>
-      <c r="W10" s="203"/>
-      <c r="X10" s="203"/>
-      <c r="Y10" s="203"/>
-      <c r="Z10" s="203"/>
-      <c r="AA10" s="203"/>
-      <c r="AB10" s="203"/>
-      <c r="AC10" s="203"/>
-      <c r="AD10" s="203"/>
-      <c r="AE10" s="203"/>
-      <c r="AF10" s="203"/>
-      <c r="AG10" s="203"/>
-      <c r="AH10" s="204"/>
+      <c r="U10" s="274"/>
+      <c r="V10" s="162"/>
+      <c r="W10" s="163"/>
+      <c r="X10" s="163"/>
+      <c r="Y10" s="163"/>
+      <c r="Z10" s="163"/>
+      <c r="AA10" s="163"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="163"/>
+      <c r="AD10" s="163"/>
+      <c r="AE10" s="163"/>
+      <c r="AF10" s="163"/>
+      <c r="AG10" s="163"/>
+      <c r="AH10" s="164"/>
     </row>
     <row r="11" spans="1:38">
       <c r="B11" s="30"/>
@@ -11972,20 +11988,20 @@
       <c r="D11" s="114">
         <v>2</v>
       </c>
-      <c r="E11" s="268" t="s">
+      <c r="E11" s="270" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="203"/>
-      <c r="G11" s="203"/>
-      <c r="H11" s="203"/>
-      <c r="I11" s="203"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="202" t="s">
+      <c r="F11" s="163"/>
+      <c r="G11" s="163"/>
+      <c r="H11" s="163"/>
+      <c r="I11" s="163"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="162" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="203"/>
-      <c r="M11" s="203"/>
-      <c r="N11" s="204"/>
+      <c r="L11" s="163"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="164"/>
       <c r="O11" s="116" t="s">
         <v>76</v>
       </c>
@@ -12001,23 +12017,23 @@
       <c r="S11" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T11" s="263" t="s">
+      <c r="T11" s="273" t="s">
         <v>79</v>
       </c>
-      <c r="U11" s="264"/>
-      <c r="V11" s="202"/>
-      <c r="W11" s="203"/>
-      <c r="X11" s="203"/>
-      <c r="Y11" s="203"/>
-      <c r="Z11" s="203"/>
-      <c r="AA11" s="203"/>
-      <c r="AB11" s="203"/>
-      <c r="AC11" s="203"/>
-      <c r="AD11" s="203"/>
-      <c r="AE11" s="203"/>
-      <c r="AF11" s="203"/>
-      <c r="AG11" s="203"/>
-      <c r="AH11" s="204"/>
+      <c r="U11" s="274"/>
+      <c r="V11" s="162"/>
+      <c r="W11" s="163"/>
+      <c r="X11" s="163"/>
+      <c r="Y11" s="163"/>
+      <c r="Z11" s="163"/>
+      <c r="AA11" s="163"/>
+      <c r="AB11" s="163"/>
+      <c r="AC11" s="163"/>
+      <c r="AD11" s="163"/>
+      <c r="AE11" s="163"/>
+      <c r="AF11" s="163"/>
+      <c r="AG11" s="163"/>
+      <c r="AH11" s="164"/>
     </row>
     <row r="12" spans="1:38">
       <c r="B12" s="30"/>
@@ -12025,20 +12041,20 @@
       <c r="D12" s="114">
         <v>3</v>
       </c>
-      <c r="E12" s="268" t="s">
+      <c r="E12" s="270" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="203"/>
-      <c r="G12" s="203"/>
-      <c r="H12" s="203"/>
-      <c r="I12" s="203"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="202" t="s">
+      <c r="F12" s="163"/>
+      <c r="G12" s="163"/>
+      <c r="H12" s="163"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="162" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="203"/>
-      <c r="M12" s="203"/>
-      <c r="N12" s="204"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="164"/>
       <c r="O12" s="116" t="s">
         <v>77</v>
       </c>
@@ -12054,23 +12070,23 @@
       <c r="S12" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T12" s="263" t="s">
+      <c r="T12" s="273" t="s">
         <v>79</v>
       </c>
-      <c r="U12" s="264"/>
-      <c r="V12" s="202"/>
-      <c r="W12" s="203"/>
-      <c r="X12" s="203"/>
-      <c r="Y12" s="203"/>
-      <c r="Z12" s="203"/>
-      <c r="AA12" s="203"/>
-      <c r="AB12" s="203"/>
-      <c r="AC12" s="203"/>
-      <c r="AD12" s="203"/>
-      <c r="AE12" s="203"/>
-      <c r="AF12" s="203"/>
-      <c r="AG12" s="203"/>
-      <c r="AH12" s="204"/>
+      <c r="U12" s="274"/>
+      <c r="V12" s="162"/>
+      <c r="W12" s="163"/>
+      <c r="X12" s="163"/>
+      <c r="Y12" s="163"/>
+      <c r="Z12" s="163"/>
+      <c r="AA12" s="163"/>
+      <c r="AB12" s="163"/>
+      <c r="AC12" s="163"/>
+      <c r="AD12" s="163"/>
+      <c r="AE12" s="163"/>
+      <c r="AF12" s="163"/>
+      <c r="AG12" s="163"/>
+      <c r="AH12" s="164"/>
     </row>
     <row r="13" spans="1:38">
       <c r="B13" s="30"/>
@@ -12220,40 +12236,40 @@
       <c r="D17" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="296" t="s">
+      <c r="E17" s="302" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="297"/>
-      <c r="G17" s="298"/>
-      <c r="H17" s="265" t="s">
+      <c r="F17" s="303"/>
+      <c r="G17" s="304"/>
+      <c r="H17" s="361" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="266"/>
-      <c r="J17" s="266"/>
-      <c r="K17" s="266"/>
-      <c r="L17" s="266"/>
-      <c r="M17" s="266"/>
-      <c r="N17" s="266"/>
-      <c r="O17" s="266"/>
-      <c r="P17" s="266"/>
-      <c r="Q17" s="266"/>
-      <c r="R17" s="266"/>
-      <c r="S17" s="266"/>
-      <c r="T17" s="266"/>
-      <c r="U17" s="266"/>
-      <c r="V17" s="266"/>
-      <c r="W17" s="266"/>
-      <c r="X17" s="266"/>
-      <c r="Y17" s="266"/>
-      <c r="Z17" s="266"/>
-      <c r="AA17" s="266"/>
-      <c r="AB17" s="266"/>
-      <c r="AC17" s="266"/>
-      <c r="AD17" s="266"/>
-      <c r="AE17" s="266"/>
-      <c r="AF17" s="266"/>
-      <c r="AG17" s="266"/>
-      <c r="AH17" s="267"/>
+      <c r="I17" s="362"/>
+      <c r="J17" s="362"/>
+      <c r="K17" s="362"/>
+      <c r="L17" s="362"/>
+      <c r="M17" s="362"/>
+      <c r="N17" s="362"/>
+      <c r="O17" s="362"/>
+      <c r="P17" s="362"/>
+      <c r="Q17" s="362"/>
+      <c r="R17" s="362"/>
+      <c r="S17" s="362"/>
+      <c r="T17" s="362"/>
+      <c r="U17" s="362"/>
+      <c r="V17" s="362"/>
+      <c r="W17" s="362"/>
+      <c r="X17" s="362"/>
+      <c r="Y17" s="362"/>
+      <c r="Z17" s="362"/>
+      <c r="AA17" s="362"/>
+      <c r="AB17" s="362"/>
+      <c r="AC17" s="362"/>
+      <c r="AD17" s="362"/>
+      <c r="AE17" s="362"/>
+      <c r="AF17" s="362"/>
+      <c r="AG17" s="362"/>
+      <c r="AH17" s="363"/>
     </row>
     <row r="18" spans="1:35" s="88" customFormat="1" ht="24" customHeight="1">
       <c r="B18" s="30"/>
@@ -12261,40 +12277,40 @@
       <c r="D18" s="114">
         <v>1</v>
       </c>
-      <c r="E18" s="268" t="s">
+      <c r="E18" s="270" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="203"/>
-      <c r="G18" s="204"/>
-      <c r="H18" s="268" t="s">
+      <c r="F18" s="163"/>
+      <c r="G18" s="164"/>
+      <c r="H18" s="270" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="203"/>
-      <c r="J18" s="203"/>
-      <c r="K18" s="203"/>
-      <c r="L18" s="203"/>
-      <c r="M18" s="203"/>
-      <c r="N18" s="203"/>
-      <c r="O18" s="203"/>
-      <c r="P18" s="203"/>
-      <c r="Q18" s="203"/>
-      <c r="R18" s="203"/>
-      <c r="S18" s="203"/>
-      <c r="T18" s="203"/>
-      <c r="U18" s="203"/>
-      <c r="V18" s="203"/>
-      <c r="W18" s="203"/>
-      <c r="X18" s="203"/>
-      <c r="Y18" s="203"/>
-      <c r="Z18" s="203"/>
-      <c r="AA18" s="203"/>
-      <c r="AB18" s="203"/>
-      <c r="AC18" s="203"/>
-      <c r="AD18" s="203"/>
-      <c r="AE18" s="203"/>
-      <c r="AF18" s="203"/>
-      <c r="AG18" s="203"/>
-      <c r="AH18" s="204"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+      <c r="N18" s="163"/>
+      <c r="O18" s="163"/>
+      <c r="P18" s="163"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="163"/>
+      <c r="S18" s="163"/>
+      <c r="T18" s="163"/>
+      <c r="U18" s="163"/>
+      <c r="V18" s="163"/>
+      <c r="W18" s="163"/>
+      <c r="X18" s="163"/>
+      <c r="Y18" s="163"/>
+      <c r="Z18" s="163"/>
+      <c r="AA18" s="163"/>
+      <c r="AB18" s="163"/>
+      <c r="AC18" s="163"/>
+      <c r="AD18" s="163"/>
+      <c r="AE18" s="163"/>
+      <c r="AF18" s="163"/>
+      <c r="AG18" s="163"/>
+      <c r="AH18" s="164"/>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
       <c r="B19" s="1"/>
@@ -12302,40 +12318,40 @@
       <c r="D19" s="114">
         <v>2</v>
       </c>
-      <c r="E19" s="268" t="s">
+      <c r="E19" s="270" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="203"/>
-      <c r="G19" s="204"/>
-      <c r="H19" s="268" t="s">
+      <c r="F19" s="163"/>
+      <c r="G19" s="164"/>
+      <c r="H19" s="270" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="203"/>
-      <c r="J19" s="203"/>
-      <c r="K19" s="203"/>
-      <c r="L19" s="203"/>
-      <c r="M19" s="203"/>
-      <c r="N19" s="203"/>
-      <c r="O19" s="203"/>
-      <c r="P19" s="203"/>
-      <c r="Q19" s="203"/>
-      <c r="R19" s="203"/>
-      <c r="S19" s="203"/>
-      <c r="T19" s="203"/>
-      <c r="U19" s="203"/>
-      <c r="V19" s="203"/>
-      <c r="W19" s="203"/>
-      <c r="X19" s="203"/>
-      <c r="Y19" s="203"/>
-      <c r="Z19" s="203"/>
-      <c r="AA19" s="203"/>
-      <c r="AB19" s="203"/>
-      <c r="AC19" s="203"/>
-      <c r="AD19" s="203"/>
-      <c r="AE19" s="203"/>
-      <c r="AF19" s="203"/>
-      <c r="AG19" s="203"/>
-      <c r="AH19" s="204"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="163"/>
+      <c r="O19" s="163"/>
+      <c r="P19" s="163"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="163"/>
+      <c r="S19" s="163"/>
+      <c r="T19" s="163"/>
+      <c r="U19" s="163"/>
+      <c r="V19" s="163"/>
+      <c r="W19" s="163"/>
+      <c r="X19" s="163"/>
+      <c r="Y19" s="163"/>
+      <c r="Z19" s="163"/>
+      <c r="AA19" s="163"/>
+      <c r="AB19" s="163"/>
+      <c r="AC19" s="163"/>
+      <c r="AD19" s="163"/>
+      <c r="AE19" s="163"/>
+      <c r="AF19" s="163"/>
+      <c r="AG19" s="163"/>
+      <c r="AH19" s="164"/>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
       <c r="B20" s="1"/>
@@ -12343,40 +12359,40 @@
       <c r="D20" s="114">
         <v>3</v>
       </c>
-      <c r="E20" s="268" t="s">
+      <c r="E20" s="270" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="203"/>
-      <c r="G20" s="204"/>
-      <c r="H20" s="268" t="s">
+      <c r="F20" s="163"/>
+      <c r="G20" s="164"/>
+      <c r="H20" s="270" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="203"/>
-      <c r="J20" s="203"/>
-      <c r="K20" s="203"/>
-      <c r="L20" s="203"/>
-      <c r="M20" s="203"/>
-      <c r="N20" s="203"/>
-      <c r="O20" s="203"/>
-      <c r="P20" s="203"/>
-      <c r="Q20" s="203"/>
-      <c r="R20" s="203"/>
-      <c r="S20" s="203"/>
-      <c r="T20" s="203"/>
-      <c r="U20" s="203"/>
-      <c r="V20" s="203"/>
-      <c r="W20" s="203"/>
-      <c r="X20" s="203"/>
-      <c r="Y20" s="203"/>
-      <c r="Z20" s="203"/>
-      <c r="AA20" s="203"/>
-      <c r="AB20" s="203"/>
-      <c r="AC20" s="203"/>
-      <c r="AD20" s="203"/>
-      <c r="AE20" s="203"/>
-      <c r="AF20" s="203"/>
-      <c r="AG20" s="203"/>
-      <c r="AH20" s="204"/>
+      <c r="I20" s="163"/>
+      <c r="J20" s="163"/>
+      <c r="K20" s="163"/>
+      <c r="L20" s="163"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="163"/>
+      <c r="O20" s="163"/>
+      <c r="P20" s="163"/>
+      <c r="Q20" s="163"/>
+      <c r="R20" s="163"/>
+      <c r="S20" s="163"/>
+      <c r="T20" s="163"/>
+      <c r="U20" s="163"/>
+      <c r="V20" s="163"/>
+      <c r="W20" s="163"/>
+      <c r="X20" s="163"/>
+      <c r="Y20" s="163"/>
+      <c r="Z20" s="163"/>
+      <c r="AA20" s="163"/>
+      <c r="AB20" s="163"/>
+      <c r="AC20" s="163"/>
+      <c r="AD20" s="163"/>
+      <c r="AE20" s="163"/>
+      <c r="AF20" s="163"/>
+      <c r="AG20" s="163"/>
+      <c r="AH20" s="164"/>
     </row>
     <row r="21" spans="1:35">
       <c r="B21" s="87"/>
@@ -12634,44 +12650,44 @@
       <c r="B28" s="87"/>
       <c r="C28" s="93"/>
       <c r="D28" s="124"/>
-      <c r="E28" s="329" t="s">
+      <c r="E28" s="271" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="329"/>
-      <c r="G28" s="330" t="s">
+      <c r="F28" s="271"/>
+      <c r="G28" s="272" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="330"/>
-      <c r="I28" s="330"/>
-      <c r="J28" s="330"/>
-      <c r="K28" s="330"/>
-      <c r="L28" s="330"/>
-      <c r="M28" s="329" t="s">
+      <c r="H28" s="272"/>
+      <c r="I28" s="272"/>
+      <c r="J28" s="272"/>
+      <c r="K28" s="272"/>
+      <c r="L28" s="272"/>
+      <c r="M28" s="271" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="329"/>
-      <c r="O28" s="316" t="s">
+      <c r="N28" s="271"/>
+      <c r="O28" s="319" t="s">
         <v>128</v>
       </c>
-      <c r="P28" s="317"/>
-      <c r="Q28" s="317"/>
-      <c r="R28" s="317"/>
-      <c r="S28" s="317"/>
-      <c r="T28" s="317"/>
-      <c r="U28" s="317"/>
-      <c r="V28" s="317"/>
-      <c r="W28" s="317"/>
-      <c r="X28" s="317"/>
-      <c r="Y28" s="317"/>
-      <c r="Z28" s="317"/>
-      <c r="AA28" s="317"/>
-      <c r="AB28" s="317"/>
-      <c r="AC28" s="317"/>
-      <c r="AD28" s="317"/>
-      <c r="AE28" s="317"/>
-      <c r="AF28" s="317"/>
-      <c r="AG28" s="317"/>
-      <c r="AH28" s="318"/>
+      <c r="P28" s="320"/>
+      <c r="Q28" s="320"/>
+      <c r="R28" s="320"/>
+      <c r="S28" s="320"/>
+      <c r="T28" s="320"/>
+      <c r="U28" s="320"/>
+      <c r="V28" s="320"/>
+      <c r="W28" s="320"/>
+      <c r="X28" s="320"/>
+      <c r="Y28" s="320"/>
+      <c r="Z28" s="320"/>
+      <c r="AA28" s="320"/>
+      <c r="AB28" s="320"/>
+      <c r="AC28" s="320"/>
+      <c r="AD28" s="320"/>
+      <c r="AE28" s="320"/>
+      <c r="AF28" s="320"/>
+      <c r="AG28" s="320"/>
+      <c r="AH28" s="321"/>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="48"/>
@@ -12873,43 +12889,43 @@
       <c r="E35" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="319" t="s">
+      <c r="F35" s="322" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="320"/>
-      <c r="H35" s="320"/>
-      <c r="I35" s="320"/>
-      <c r="J35" s="320"/>
-      <c r="K35" s="321"/>
-      <c r="L35" s="322" t="s">
+      <c r="G35" s="323"/>
+      <c r="H35" s="323"/>
+      <c r="I35" s="323"/>
+      <c r="J35" s="323"/>
+      <c r="K35" s="324"/>
+      <c r="L35" s="325" t="s">
         <v>88</v>
       </c>
-      <c r="M35" s="320"/>
-      <c r="N35" s="320"/>
-      <c r="O35" s="320"/>
-      <c r="P35" s="320"/>
-      <c r="Q35" s="320"/>
-      <c r="R35" s="320"/>
-      <c r="S35" s="320"/>
-      <c r="T35" s="320"/>
-      <c r="U35" s="321"/>
-      <c r="V35" s="323" t="s">
+      <c r="M35" s="323"/>
+      <c r="N35" s="323"/>
+      <c r="O35" s="323"/>
+      <c r="P35" s="323"/>
+      <c r="Q35" s="323"/>
+      <c r="R35" s="323"/>
+      <c r="S35" s="323"/>
+      <c r="T35" s="323"/>
+      <c r="U35" s="324"/>
+      <c r="V35" s="326" t="s">
         <v>89</v>
       </c>
-      <c r="W35" s="324"/>
-      <c r="X35" s="325"/>
-      <c r="Y35" s="323" t="s">
+      <c r="W35" s="327"/>
+      <c r="X35" s="328"/>
+      <c r="Y35" s="326" t="s">
         <v>90</v>
       </c>
-      <c r="Z35" s="324"/>
-      <c r="AA35" s="324"/>
-      <c r="AB35" s="325"/>
-      <c r="AC35" s="326" t="s">
+      <c r="Z35" s="327"/>
+      <c r="AA35" s="327"/>
+      <c r="AB35" s="328"/>
+      <c r="AC35" s="329" t="s">
         <v>91</v>
       </c>
-      <c r="AD35" s="327"/>
-      <c r="AE35" s="327"/>
-      <c r="AF35" s="328"/>
+      <c r="AD35" s="330"/>
+      <c r="AE35" s="330"/>
+      <c r="AF35" s="331"/>
       <c r="AG35" s="48"/>
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
@@ -12922,43 +12938,43 @@
       <c r="E36" s="129">
         <v>1</v>
       </c>
-      <c r="F36" s="355" t="s">
+      <c r="F36" s="299" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="311"/>
-      <c r="H36" s="311"/>
-      <c r="I36" s="311"/>
-      <c r="J36" s="311"/>
-      <c r="K36" s="312"/>
-      <c r="L36" s="310" t="s">
+      <c r="G36" s="300"/>
+      <c r="H36" s="300"/>
+      <c r="I36" s="300"/>
+      <c r="J36" s="300"/>
+      <c r="K36" s="301"/>
+      <c r="L36" s="261" t="s">
         <v>93</v>
       </c>
-      <c r="M36" s="311"/>
-      <c r="N36" s="311"/>
-      <c r="O36" s="311"/>
-      <c r="P36" s="311"/>
-      <c r="Q36" s="311"/>
-      <c r="R36" s="311"/>
-      <c r="S36" s="311"/>
-      <c r="T36" s="311"/>
-      <c r="U36" s="312"/>
-      <c r="V36" s="313" t="s">
+      <c r="M36" s="300"/>
+      <c r="N36" s="300"/>
+      <c r="O36" s="300"/>
+      <c r="P36" s="300"/>
+      <c r="Q36" s="300"/>
+      <c r="R36" s="300"/>
+      <c r="S36" s="300"/>
+      <c r="T36" s="300"/>
+      <c r="U36" s="301"/>
+      <c r="V36" s="316" t="s">
         <v>94</v>
       </c>
-      <c r="W36" s="314"/>
-      <c r="X36" s="315"/>
-      <c r="Y36" s="307" t="s">
+      <c r="W36" s="317"/>
+      <c r="X36" s="318"/>
+      <c r="Y36" s="313" t="s">
         <v>95</v>
       </c>
-      <c r="Z36" s="308"/>
-      <c r="AA36" s="308"/>
-      <c r="AB36" s="309"/>
-      <c r="AC36" s="310" t="s">
+      <c r="Z36" s="314"/>
+      <c r="AA36" s="314"/>
+      <c r="AB36" s="315"/>
+      <c r="AC36" s="261" t="s">
         <v>129</v>
       </c>
-      <c r="AD36" s="311"/>
-      <c r="AE36" s="311"/>
-      <c r="AF36" s="312"/>
+      <c r="AD36" s="300"/>
+      <c r="AE36" s="300"/>
+      <c r="AF36" s="301"/>
       <c r="AG36" s="48"/>
       <c r="AH36" s="48"/>
       <c r="AI36" s="48"/>
@@ -13044,112 +13060,112 @@
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
       <c r="D39"/>
-      <c r="E39" s="356" t="s">
+      <c r="E39" s="267" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="357"/>
-      <c r="G39" s="357"/>
-      <c r="H39" s="357"/>
-      <c r="I39" s="357"/>
-      <c r="J39" s="358" t="s">
+      <c r="F39" s="268"/>
+      <c r="G39" s="268"/>
+      <c r="H39" s="268"/>
+      <c r="I39" s="268"/>
+      <c r="J39" s="269" t="s">
         <v>132</v>
       </c>
-      <c r="K39" s="358"/>
-      <c r="L39" s="358"/>
-      <c r="M39" s="359" t="s">
+      <c r="K39" s="269"/>
+      <c r="L39" s="269"/>
+      <c r="M39" s="258" t="s">
         <v>133</v>
       </c>
-      <c r="N39" s="360"/>
-      <c r="O39" s="360"/>
-      <c r="P39" s="360"/>
-      <c r="Q39" s="360"/>
-      <c r="R39" s="360"/>
-      <c r="S39" s="361"/>
-      <c r="T39" s="359" t="s">
+      <c r="N39" s="259"/>
+      <c r="O39" s="259"/>
+      <c r="P39" s="259"/>
+      <c r="Q39" s="259"/>
+      <c r="R39" s="259"/>
+      <c r="S39" s="260"/>
+      <c r="T39" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="U39" s="360"/>
-      <c r="V39" s="360"/>
-      <c r="W39" s="360"/>
-      <c r="X39" s="360"/>
-      <c r="Y39" s="360"/>
-      <c r="Z39" s="360"/>
-      <c r="AA39" s="360"/>
-      <c r="AB39" s="360"/>
-      <c r="AC39" s="360"/>
-      <c r="AD39" s="361"/>
+      <c r="U39" s="259"/>
+      <c r="V39" s="259"/>
+      <c r="W39" s="259"/>
+      <c r="X39" s="259"/>
+      <c r="Y39" s="259"/>
+      <c r="Z39" s="259"/>
+      <c r="AA39" s="259"/>
+      <c r="AB39" s="259"/>
+      <c r="AC39" s="259"/>
+      <c r="AD39" s="260"/>
     </row>
     <row r="40" spans="1:35" ht="11.25" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
       <c r="D40"/>
-      <c r="E40" s="310" t="s">
+      <c r="E40" s="261" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="362"/>
-      <c r="G40" s="362"/>
-      <c r="H40" s="362"/>
-      <c r="I40" s="362"/>
-      <c r="J40" s="363" t="s">
+      <c r="F40" s="262"/>
+      <c r="G40" s="262"/>
+      <c r="H40" s="262"/>
+      <c r="I40" s="262"/>
+      <c r="J40" s="263" t="s">
         <v>135</v>
       </c>
-      <c r="K40" s="363"/>
-      <c r="L40" s="363"/>
-      <c r="M40" s="364" t="s">
+      <c r="K40" s="263"/>
+      <c r="L40" s="263"/>
+      <c r="M40" s="264" t="s">
         <v>136</v>
       </c>
-      <c r="N40" s="365"/>
-      <c r="O40" s="365"/>
-      <c r="P40" s="365"/>
-      <c r="Q40" s="365"/>
-      <c r="R40" s="365"/>
-      <c r="S40" s="366"/>
-      <c r="T40" s="364" t="s">
+      <c r="N40" s="265"/>
+      <c r="O40" s="265"/>
+      <c r="P40" s="265"/>
+      <c r="Q40" s="265"/>
+      <c r="R40" s="265"/>
+      <c r="S40" s="266"/>
+      <c r="T40" s="264" t="s">
         <v>136</v>
       </c>
-      <c r="U40" s="365"/>
-      <c r="V40" s="365"/>
-      <c r="W40" s="365"/>
-      <c r="X40" s="365"/>
-      <c r="Y40" s="365"/>
-      <c r="Z40" s="365"/>
-      <c r="AA40" s="365"/>
-      <c r="AB40" s="365"/>
-      <c r="AC40" s="365"/>
-      <c r="AD40" s="366"/>
+      <c r="U40" s="265"/>
+      <c r="V40" s="265"/>
+      <c r="W40" s="265"/>
+      <c r="X40" s="265"/>
+      <c r="Y40" s="265"/>
+      <c r="Z40" s="265"/>
+      <c r="AA40" s="265"/>
+      <c r="AB40" s="265"/>
+      <c r="AC40" s="265"/>
+      <c r="AD40" s="266"/>
     </row>
     <row r="41" spans="1:35" ht="11.25" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
       <c r="D41"/>
-      <c r="E41" s="151"/>
-      <c r="F41" s="151"/>
-      <c r="G41" s="151"/>
-      <c r="H41" s="151"/>
-      <c r="I41" s="151"/>
-      <c r="J41" s="152"/>
-      <c r="K41" s="152"/>
-      <c r="L41" s="152"/>
-      <c r="M41" s="153"/>
-      <c r="N41" s="153"/>
-      <c r="O41" s="153"/>
-      <c r="P41" s="153"/>
-      <c r="Q41" s="153"/>
-      <c r="R41" s="153"/>
-      <c r="S41" s="153"/>
-      <c r="T41" s="153"/>
-      <c r="U41" s="153"/>
-      <c r="V41" s="153"/>
-      <c r="W41" s="153"/>
-      <c r="X41" s="153"/>
-      <c r="Y41" s="153"/>
-      <c r="Z41" s="153"/>
-      <c r="AA41" s="153"/>
-      <c r="AB41" s="153"/>
-      <c r="AC41" s="153"/>
-      <c r="AD41" s="153"/>
+      <c r="E41" s="149"/>
+      <c r="F41" s="149"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="150"/>
+      <c r="K41" s="150"/>
+      <c r="L41" s="150"/>
+      <c r="M41" s="151"/>
+      <c r="N41" s="151"/>
+      <c r="O41" s="151"/>
+      <c r="P41" s="151"/>
+      <c r="Q41" s="151"/>
+      <c r="R41" s="151"/>
+      <c r="S41" s="151"/>
+      <c r="T41" s="151"/>
+      <c r="U41" s="151"/>
+      <c r="V41" s="151"/>
+      <c r="W41" s="151"/>
+      <c r="X41" s="151"/>
+      <c r="Y41" s="151"/>
+      <c r="Z41" s="151"/>
+      <c r="AA41" s="151"/>
+      <c r="AB41" s="151"/>
+      <c r="AC41" s="151"/>
+      <c r="AD41" s="151"/>
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="58"/>
@@ -13383,80 +13399,80 @@
       <c r="B48" s="58"/>
       <c r="C48" s="58"/>
       <c r="D48"/>
-      <c r="E48" s="356" t="s">
+      <c r="E48" s="267" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="357"/>
-      <c r="G48" s="357"/>
-      <c r="H48" s="357"/>
-      <c r="I48" s="357"/>
-      <c r="J48" s="358" t="s">
+      <c r="F48" s="268"/>
+      <c r="G48" s="268"/>
+      <c r="H48" s="268"/>
+      <c r="I48" s="268"/>
+      <c r="J48" s="269" t="s">
         <v>132</v>
       </c>
-      <c r="K48" s="358"/>
-      <c r="L48" s="358"/>
-      <c r="M48" s="359" t="s">
+      <c r="K48" s="269"/>
+      <c r="L48" s="269"/>
+      <c r="M48" s="258" t="s">
         <v>140</v>
       </c>
-      <c r="N48" s="360"/>
-      <c r="O48" s="360"/>
-      <c r="P48" s="360"/>
-      <c r="Q48" s="360"/>
-      <c r="R48" s="360"/>
-      <c r="S48" s="361"/>
-      <c r="T48" s="359" t="s">
+      <c r="N48" s="259"/>
+      <c r="O48" s="259"/>
+      <c r="P48" s="259"/>
+      <c r="Q48" s="259"/>
+      <c r="R48" s="259"/>
+      <c r="S48" s="260"/>
+      <c r="T48" s="258" t="s">
         <v>90</v>
       </c>
-      <c r="U48" s="360"/>
-      <c r="V48" s="360"/>
-      <c r="W48" s="360"/>
-      <c r="X48" s="360"/>
-      <c r="Y48" s="360"/>
-      <c r="Z48" s="360"/>
-      <c r="AA48" s="360"/>
-      <c r="AB48" s="360"/>
-      <c r="AC48" s="360"/>
-      <c r="AD48" s="361"/>
+      <c r="U48" s="259"/>
+      <c r="V48" s="259"/>
+      <c r="W48" s="259"/>
+      <c r="X48" s="259"/>
+      <c r="Y48" s="259"/>
+      <c r="Z48" s="259"/>
+      <c r="AA48" s="259"/>
+      <c r="AB48" s="259"/>
+      <c r="AC48" s="259"/>
+      <c r="AD48" s="260"/>
     </row>
     <row r="49" spans="1:35" ht="11.25" customHeight="1">
       <c r="A49" s="58"/>
       <c r="B49" s="58"/>
       <c r="C49" s="58"/>
       <c r="D49"/>
-      <c r="E49" s="310" t="s">
+      <c r="E49" s="261" t="s">
         <v>141</v>
       </c>
-      <c r="F49" s="362"/>
-      <c r="G49" s="362"/>
-      <c r="H49" s="362"/>
-      <c r="I49" s="362"/>
-      <c r="J49" s="363" t="s">
+      <c r="F49" s="262"/>
+      <c r="G49" s="262"/>
+      <c r="H49" s="262"/>
+      <c r="I49" s="262"/>
+      <c r="J49" s="263" t="s">
         <v>142</v>
       </c>
-      <c r="K49" s="363"/>
-      <c r="L49" s="363"/>
-      <c r="M49" s="364" t="s">
+      <c r="K49" s="263"/>
+      <c r="L49" s="263"/>
+      <c r="M49" s="264" t="s">
         <v>143</v>
       </c>
-      <c r="N49" s="365"/>
-      <c r="O49" s="365"/>
-      <c r="P49" s="365"/>
-      <c r="Q49" s="365"/>
-      <c r="R49" s="365"/>
-      <c r="S49" s="366"/>
-      <c r="T49" s="364" t="s">
+      <c r="N49" s="265"/>
+      <c r="O49" s="265"/>
+      <c r="P49" s="265"/>
+      <c r="Q49" s="265"/>
+      <c r="R49" s="265"/>
+      <c r="S49" s="266"/>
+      <c r="T49" s="264" t="s">
         <v>145</v>
       </c>
-      <c r="U49" s="365"/>
-      <c r="V49" s="365"/>
-      <c r="W49" s="365"/>
-      <c r="X49" s="365"/>
-      <c r="Y49" s="365"/>
-      <c r="Z49" s="365"/>
-      <c r="AA49" s="365"/>
-      <c r="AB49" s="365"/>
-      <c r="AC49" s="365"/>
-      <c r="AD49" s="366"/>
+      <c r="U49" s="265"/>
+      <c r="V49" s="265"/>
+      <c r="W49" s="265"/>
+      <c r="X49" s="265"/>
+      <c r="Y49" s="265"/>
+      <c r="Z49" s="265"/>
+      <c r="AA49" s="265"/>
+      <c r="AB49" s="265"/>
+      <c r="AC49" s="265"/>
+      <c r="AD49" s="266"/>
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="48"/>
@@ -13613,30 +13629,30 @@
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
       <c r="D54" s="48"/>
-      <c r="E54" s="346" t="s">
+      <c r="E54" s="290" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="347"/>
-      <c r="G54" s="347"/>
-      <c r="H54" s="347"/>
-      <c r="I54" s="347"/>
-      <c r="J54" s="347"/>
-      <c r="K54" s="347"/>
-      <c r="L54" s="347"/>
-      <c r="M54" s="347"/>
-      <c r="N54" s="348"/>
-      <c r="O54" s="349" t="s">
+      <c r="F54" s="291"/>
+      <c r="G54" s="291"/>
+      <c r="H54" s="291"/>
+      <c r="I54" s="291"/>
+      <c r="J54" s="291"/>
+      <c r="K54" s="291"/>
+      <c r="L54" s="291"/>
+      <c r="M54" s="291"/>
+      <c r="N54" s="292"/>
+      <c r="O54" s="293" t="s">
         <v>97</v>
       </c>
-      <c r="P54" s="350"/>
-      <c r="Q54" s="350"/>
-      <c r="R54" s="350"/>
-      <c r="S54" s="350"/>
-      <c r="T54" s="350"/>
-      <c r="U54" s="350"/>
-      <c r="V54" s="350"/>
-      <c r="W54" s="350"/>
-      <c r="X54" s="351"/>
+      <c r="P54" s="294"/>
+      <c r="Q54" s="294"/>
+      <c r="R54" s="294"/>
+      <c r="S54" s="294"/>
+      <c r="T54" s="294"/>
+      <c r="U54" s="294"/>
+      <c r="V54" s="294"/>
+      <c r="W54" s="294"/>
+      <c r="X54" s="295"/>
       <c r="Y54" s="48"/>
       <c r="Z54" s="48"/>
       <c r="AA54" s="48"/>
@@ -13654,30 +13670,30 @@
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
-      <c r="E55" s="334" t="s">
+      <c r="E55" s="278" t="s">
         <v>100</v>
       </c>
-      <c r="F55" s="335"/>
-      <c r="G55" s="335"/>
-      <c r="H55" s="335"/>
-      <c r="I55" s="335"/>
-      <c r="J55" s="335"/>
-      <c r="K55" s="335"/>
-      <c r="L55" s="335"/>
-      <c r="M55" s="335"/>
-      <c r="N55" s="336"/>
-      <c r="O55" s="352" t="s">
+      <c r="F55" s="279"/>
+      <c r="G55" s="279"/>
+      <c r="H55" s="279"/>
+      <c r="I55" s="279"/>
+      <c r="J55" s="279"/>
+      <c r="K55" s="279"/>
+      <c r="L55" s="279"/>
+      <c r="M55" s="279"/>
+      <c r="N55" s="280"/>
+      <c r="O55" s="296" t="s">
         <v>102</v>
       </c>
-      <c r="P55" s="353"/>
-      <c r="Q55" s="353"/>
-      <c r="R55" s="353"/>
-      <c r="S55" s="353"/>
-      <c r="T55" s="353"/>
-      <c r="U55" s="353"/>
-      <c r="V55" s="353"/>
-      <c r="W55" s="353"/>
-      <c r="X55" s="354"/>
+      <c r="P55" s="297"/>
+      <c r="Q55" s="297"/>
+      <c r="R55" s="297"/>
+      <c r="S55" s="297"/>
+      <c r="T55" s="297"/>
+      <c r="U55" s="297"/>
+      <c r="V55" s="297"/>
+      <c r="W55" s="297"/>
+      <c r="X55" s="298"/>
       <c r="Y55" s="48"/>
       <c r="Z55" s="48"/>
       <c r="AA55" s="48"/>
@@ -13695,28 +13711,28 @@
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
       <c r="D56" s="48"/>
-      <c r="E56" s="337"/>
-      <c r="F56" s="338"/>
-      <c r="G56" s="338"/>
-      <c r="H56" s="338"/>
-      <c r="I56" s="338"/>
-      <c r="J56" s="338"/>
-      <c r="K56" s="338"/>
-      <c r="L56" s="338"/>
-      <c r="M56" s="338"/>
-      <c r="N56" s="339"/>
-      <c r="O56" s="352" t="s">
+      <c r="E56" s="281"/>
+      <c r="F56" s="282"/>
+      <c r="G56" s="282"/>
+      <c r="H56" s="282"/>
+      <c r="I56" s="282"/>
+      <c r="J56" s="282"/>
+      <c r="K56" s="282"/>
+      <c r="L56" s="282"/>
+      <c r="M56" s="282"/>
+      <c r="N56" s="283"/>
+      <c r="O56" s="296" t="s">
         <v>104</v>
       </c>
-      <c r="P56" s="353"/>
-      <c r="Q56" s="353"/>
-      <c r="R56" s="353"/>
-      <c r="S56" s="353"/>
-      <c r="T56" s="353"/>
-      <c r="U56" s="353"/>
-      <c r="V56" s="353"/>
-      <c r="W56" s="353"/>
-      <c r="X56" s="354"/>
+      <c r="P56" s="297"/>
+      <c r="Q56" s="297"/>
+      <c r="R56" s="297"/>
+      <c r="S56" s="297"/>
+      <c r="T56" s="297"/>
+      <c r="U56" s="297"/>
+      <c r="V56" s="297"/>
+      <c r="W56" s="297"/>
+      <c r="X56" s="298"/>
       <c r="Y56" s="48"/>
       <c r="Z56" s="48"/>
       <c r="AA56" s="48"/>
@@ -13734,28 +13750,28 @@
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
       <c r="D57" s="48"/>
-      <c r="E57" s="340"/>
-      <c r="F57" s="341"/>
-      <c r="G57" s="341"/>
-      <c r="H57" s="341"/>
-      <c r="I57" s="341"/>
-      <c r="J57" s="341"/>
-      <c r="K57" s="341"/>
-      <c r="L57" s="341"/>
-      <c r="M57" s="341"/>
-      <c r="N57" s="342"/>
-      <c r="O57" s="343" t="s">
+      <c r="E57" s="284"/>
+      <c r="F57" s="285"/>
+      <c r="G57" s="285"/>
+      <c r="H57" s="285"/>
+      <c r="I57" s="285"/>
+      <c r="J57" s="285"/>
+      <c r="K57" s="285"/>
+      <c r="L57" s="285"/>
+      <c r="M57" s="285"/>
+      <c r="N57" s="286"/>
+      <c r="O57" s="287" t="s">
         <v>105</v>
       </c>
-      <c r="P57" s="344"/>
-      <c r="Q57" s="344"/>
-      <c r="R57" s="344"/>
-      <c r="S57" s="344"/>
-      <c r="T57" s="344"/>
-      <c r="U57" s="344"/>
-      <c r="V57" s="344"/>
-      <c r="W57" s="344"/>
-      <c r="X57" s="345"/>
+      <c r="P57" s="288"/>
+      <c r="Q57" s="288"/>
+      <c r="R57" s="288"/>
+      <c r="S57" s="288"/>
+      <c r="T57" s="288"/>
+      <c r="U57" s="288"/>
+      <c r="V57" s="288"/>
+      <c r="W57" s="288"/>
+      <c r="X57" s="289"/>
       <c r="Y57" s="48"/>
       <c r="Z57" s="48"/>
       <c r="AA57" s="48"/>
@@ -13773,28 +13789,28 @@
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
-      <c r="E58" s="331" t="s">
+      <c r="E58" s="275" t="s">
         <v>98</v>
       </c>
-      <c r="F58" s="332"/>
-      <c r="G58" s="332"/>
-      <c r="H58" s="332"/>
-      <c r="I58" s="332"/>
-      <c r="J58" s="332"/>
-      <c r="K58" s="332"/>
-      <c r="L58" s="332"/>
-      <c r="M58" s="332"/>
-      <c r="N58" s="332"/>
-      <c r="O58" s="332"/>
-      <c r="P58" s="332"/>
-      <c r="Q58" s="332"/>
-      <c r="R58" s="332"/>
-      <c r="S58" s="332"/>
-      <c r="T58" s="332"/>
-      <c r="U58" s="332"/>
-      <c r="V58" s="332"/>
-      <c r="W58" s="332"/>
-      <c r="X58" s="333"/>
+      <c r="F58" s="276"/>
+      <c r="G58" s="276"/>
+      <c r="H58" s="276"/>
+      <c r="I58" s="276"/>
+      <c r="J58" s="276"/>
+      <c r="K58" s="276"/>
+      <c r="L58" s="276"/>
+      <c r="M58" s="276"/>
+      <c r="N58" s="276"/>
+      <c r="O58" s="276"/>
+      <c r="P58" s="276"/>
+      <c r="Q58" s="276"/>
+      <c r="R58" s="276"/>
+      <c r="S58" s="276"/>
+      <c r="T58" s="276"/>
+      <c r="U58" s="276"/>
+      <c r="V58" s="276"/>
+      <c r="W58" s="276"/>
+      <c r="X58" s="277"/>
       <c r="Y58" s="48"/>
       <c r="Z58" s="48"/>
       <c r="AA58" s="48"/>
@@ -13849,32 +13865,32 @@
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
-      <c r="E60" s="144"/>
-      <c r="F60" s="134" t="s">
+      <c r="E60" s="142"/>
+      <c r="F60" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="G60" s="135"/>
-      <c r="H60" s="135"/>
-      <c r="I60" s="135"/>
-      <c r="J60" s="136"/>
-      <c r="K60" s="147" t="s">
+      <c r="G60" s="134"/>
+      <c r="H60" s="134"/>
+      <c r="I60" s="134"/>
+      <c r="J60" s="135"/>
+      <c r="K60" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="L60" s="135"/>
-      <c r="M60" s="135"/>
-      <c r="N60" s="134" t="s">
+      <c r="L60" s="134"/>
+      <c r="M60" s="134"/>
+      <c r="N60" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="O60" s="135"/>
-      <c r="P60" s="135"/>
-      <c r="Q60" s="135"/>
-      <c r="R60" s="145"/>
-      <c r="S60" s="145"/>
-      <c r="T60" s="145"/>
-      <c r="U60" s="145"/>
-      <c r="V60" s="145"/>
-      <c r="W60" s="145"/>
-      <c r="X60" s="146"/>
+      <c r="O60" s="134"/>
+      <c r="P60" s="134"/>
+      <c r="Q60" s="134"/>
+      <c r="R60" s="143"/>
+      <c r="S60" s="143"/>
+      <c r="T60" s="143"/>
+      <c r="U60" s="143"/>
+      <c r="V60" s="143"/>
+      <c r="W60" s="143"/>
+      <c r="X60" s="144"/>
       <c r="Y60" s="48"/>
       <c r="Z60" s="48"/>
       <c r="AA60" s="48"/>
@@ -13892,32 +13908,32 @@
       <c r="B61" s="48"/>
       <c r="C61" s="48"/>
       <c r="D61" s="48"/>
-      <c r="E61" s="144"/>
-      <c r="F61" s="134" t="s">
+      <c r="E61" s="142"/>
+      <c r="F61" s="133" t="s">
         <v>108</v>
       </c>
-      <c r="G61" s="135"/>
-      <c r="H61" s="135"/>
-      <c r="I61" s="135"/>
-      <c r="J61" s="136"/>
-      <c r="K61" s="136" t="s">
+      <c r="G61" s="134"/>
+      <c r="H61" s="134"/>
+      <c r="I61" s="134"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="L61" s="135"/>
-      <c r="M61" s="135"/>
-      <c r="N61" s="134" t="s">
+      <c r="L61" s="134"/>
+      <c r="M61" s="134"/>
+      <c r="N61" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="O61" s="135"/>
-      <c r="P61" s="135"/>
-      <c r="Q61" s="135"/>
-      <c r="R61" s="145"/>
-      <c r="S61" s="145"/>
-      <c r="T61" s="145"/>
-      <c r="U61" s="145"/>
-      <c r="V61" s="145"/>
-      <c r="W61" s="145"/>
-      <c r="X61" s="146"/>
+      <c r="O61" s="134"/>
+      <c r="P61" s="134"/>
+      <c r="Q61" s="134"/>
+      <c r="R61" s="143"/>
+      <c r="S61" s="143"/>
+      <c r="T61" s="143"/>
+      <c r="U61" s="143"/>
+      <c r="V61" s="143"/>
+      <c r="W61" s="143"/>
+      <c r="X61" s="144"/>
       <c r="Y61" s="48"/>
       <c r="Z61" s="48"/>
       <c r="AA61" s="48"/>
@@ -13935,26 +13951,26 @@
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
       <c r="D62" s="48"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="134"/>
-      <c r="G62" s="135"/>
-      <c r="H62" s="135"/>
-      <c r="I62" s="135"/>
-      <c r="J62" s="136"/>
-      <c r="K62" s="136"/>
-      <c r="L62" s="135"/>
-      <c r="M62" s="135"/>
-      <c r="N62" s="134"/>
-      <c r="O62" s="135"/>
-      <c r="P62" s="135"/>
-      <c r="Q62" s="135"/>
-      <c r="R62" s="145"/>
-      <c r="S62" s="145"/>
-      <c r="T62" s="145"/>
-      <c r="U62" s="145"/>
-      <c r="V62" s="145"/>
-      <c r="W62" s="145"/>
-      <c r="X62" s="146"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="138"/>
+      <c r="G62" s="138"/>
+      <c r="H62" s="138"/>
+      <c r="I62" s="138"/>
+      <c r="J62" s="139"/>
+      <c r="K62" s="139"/>
+      <c r="L62" s="138"/>
+      <c r="M62" s="138"/>
+      <c r="N62" s="138"/>
+      <c r="O62" s="138"/>
+      <c r="P62" s="138"/>
+      <c r="Q62" s="138"/>
+      <c r="R62" s="138"/>
+      <c r="S62" s="138"/>
+      <c r="T62" s="140"/>
+      <c r="U62" s="138"/>
+      <c r="V62" s="138"/>
+      <c r="W62" s="138"/>
+      <c r="X62" s="141"/>
       <c r="Y62" s="48"/>
       <c r="Z62" s="48"/>
       <c r="AA62" s="48"/>
@@ -13972,26 +13988,26 @@
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
       <c r="D63" s="48"/>
-      <c r="E63" s="133"/>
-      <c r="F63" s="91" t="s">
-        <v>149</v>
-      </c>
-      <c r="G63" s="135"/>
-      <c r="H63" s="135"/>
-      <c r="I63" s="135"/>
-      <c r="J63" s="136"/>
-      <c r="L63" s="135"/>
-      <c r="M63" s="135"/>
-      <c r="O63" s="135"/>
-      <c r="P63" s="135"/>
-      <c r="Q63" s="135"/>
-      <c r="R63" s="135"/>
-      <c r="S63" s="135"/>
-      <c r="T63" s="137"/>
-      <c r="U63" s="135"/>
-      <c r="V63" s="135"/>
-      <c r="W63" s="135"/>
-      <c r="X63" s="138"/>
+      <c r="E63" s="134"/>
+      <c r="F63" s="134"/>
+      <c r="G63" s="134"/>
+      <c r="H63" s="134"/>
+      <c r="I63" s="134"/>
+      <c r="J63" s="135"/>
+      <c r="K63" s="135"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
+      <c r="N63" s="134"/>
+      <c r="O63" s="134"/>
+      <c r="P63" s="134"/>
+      <c r="Q63" s="134"/>
+      <c r="R63" s="134"/>
+      <c r="S63" s="134"/>
+      <c r="T63" s="136"/>
+      <c r="U63" s="134"/>
+      <c r="V63" s="134"/>
+      <c r="W63" s="134"/>
+      <c r="X63" s="365"/>
       <c r="Y63" s="48"/>
       <c r="Z63" s="48"/>
       <c r="AA63" s="48"/>
@@ -14009,26 +14025,28 @@
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
       <c r="D64" s="48"/>
-      <c r="E64" s="139"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="140"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
-      <c r="J64" s="141"/>
-      <c r="K64" s="141"/>
-      <c r="L64" s="140"/>
-      <c r="M64" s="140"/>
-      <c r="N64" s="140"/>
-      <c r="O64" s="140"/>
-      <c r="P64" s="140"/>
-      <c r="Q64" s="140"/>
-      <c r="R64" s="140"/>
-      <c r="S64" s="140"/>
-      <c r="T64" s="142"/>
-      <c r="U64" s="140"/>
-      <c r="V64" s="140"/>
-      <c r="W64" s="140"/>
-      <c r="X64" s="143"/>
+      <c r="E64" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="F64" s="134"/>
+      <c r="G64" s="134"/>
+      <c r="H64" s="134"/>
+      <c r="I64" s="134"/>
+      <c r="J64" s="135"/>
+      <c r="K64" s="135"/>
+      <c r="L64" s="134"/>
+      <c r="M64" s="134"/>
+      <c r="N64" s="134"/>
+      <c r="O64" s="134"/>
+      <c r="P64" s="134"/>
+      <c r="Q64" s="134"/>
+      <c r="R64" s="134"/>
+      <c r="S64" s="134"/>
+      <c r="T64" s="136"/>
+      <c r="U64" s="134"/>
+      <c r="V64" s="134"/>
+      <c r="W64" s="134"/>
+      <c r="X64" s="365"/>
       <c r="Y64" s="48"/>
       <c r="Z64" s="48"/>
       <c r="AA64" s="48"/>
@@ -14046,26 +14064,28 @@
       <c r="B65" s="48"/>
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="48"/>
-      <c r="G65" s="48"/>
-      <c r="H65" s="48"/>
-      <c r="I65" s="48"/>
-      <c r="J65" s="48"/>
-      <c r="K65" s="48"/>
-      <c r="L65" s="48"/>
-      <c r="M65" s="48"/>
-      <c r="N65" s="48"/>
-      <c r="O65" s="48"/>
-      <c r="P65" s="48"/>
-      <c r="Q65" s="48"/>
-      <c r="R65" s="48"/>
-      <c r="S65" s="48"/>
-      <c r="T65" s="48"/>
-      <c r="U65" s="48"/>
-      <c r="V65" s="48"/>
-      <c r="W65" s="48"/>
-      <c r="X65" s="48"/>
+      <c r="E65" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65" s="134"/>
+      <c r="G65" s="134"/>
+      <c r="H65" s="134"/>
+      <c r="I65" s="134"/>
+      <c r="J65" s="135"/>
+      <c r="K65" s="135"/>
+      <c r="L65" s="134"/>
+      <c r="M65" s="134"/>
+      <c r="N65" s="134"/>
+      <c r="O65" s="134"/>
+      <c r="P65" s="134"/>
+      <c r="Q65" s="134"/>
+      <c r="R65" s="134"/>
+      <c r="S65" s="134"/>
+      <c r="T65" s="136"/>
+      <c r="U65" s="134"/>
+      <c r="V65" s="134"/>
+      <c r="W65" s="134"/>
+      <c r="X65" s="365"/>
       <c r="Y65" s="48"/>
       <c r="Z65" s="48"/>
       <c r="AA65" s="48"/>
@@ -14082,9 +14102,7 @@
       <c r="A66" s="48"/>
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
-      <c r="D66" s="58" t="s">
-        <v>150</v>
-      </c>
+      <c r="D66" s="48"/>
       <c r="E66" s="48"/>
       <c r="F66" s="48"/>
       <c r="G66" s="48"/>
@@ -14121,7 +14139,9 @@
       <c r="A67" s="48"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
-      <c r="D67" s="48"/>
+      <c r="D67" s="58" t="s">
+        <v>149</v>
+      </c>
       <c r="E67" s="48"/>
       <c r="F67" s="48"/>
       <c r="G67" s="48"/>
@@ -14159,9 +14179,7 @@
       <c r="B68" s="48"/>
       <c r="C68" s="48"/>
       <c r="D68" s="48"/>
-      <c r="E68" s="58" t="s">
-        <v>151</v>
-      </c>
+      <c r="E68" s="48"/>
       <c r="F68" s="48"/>
       <c r="G68" s="48"/>
       <c r="H68" s="48"/>
@@ -14198,7 +14216,9 @@
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
       <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
+      <c r="E69" s="58" t="s">
+        <v>150</v>
+      </c>
       <c r="F69" s="48"/>
       <c r="G69" s="48"/>
       <c r="H69" s="48"/>
@@ -14304,45 +14324,48 @@
       <c r="AH71" s="48"/>
       <c r="AI71" s="48"/>
     </row>
-    <row r="73" spans="1:35">
-      <c r="C73" s="30" t="s">
+    <row r="72" spans="1:35">
+      <c r="A72" s="48"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="48"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+      <c r="G72" s="48"/>
+      <c r="H72" s="48"/>
+      <c r="I72" s="48"/>
+      <c r="J72" s="48"/>
+      <c r="K72" s="48"/>
+      <c r="L72" s="48"/>
+      <c r="M72" s="48"/>
+      <c r="N72" s="48"/>
+      <c r="O72" s="48"/>
+      <c r="P72" s="48"/>
+      <c r="Q72" s="48"/>
+      <c r="R72" s="48"/>
+      <c r="S72" s="48"/>
+      <c r="T72" s="48"/>
+      <c r="U72" s="48"/>
+      <c r="V72" s="48"/>
+      <c r="W72" s="48"/>
+      <c r="X72" s="48"/>
+      <c r="Y72" s="48"/>
+      <c r="Z72" s="48"/>
+      <c r="AA72" s="48"/>
+      <c r="AB72" s="48"/>
+      <c r="AC72" s="48"/>
+      <c r="AD72" s="48"/>
+      <c r="AE72" s="48"/>
+      <c r="AF72" s="48"/>
+      <c r="AG72" s="48"/>
+      <c r="AH72" s="48"/>
+      <c r="AI72" s="48"/>
+    </row>
+    <row r="74" spans="1:35">
+      <c r="C74" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="30"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
-      <c r="J73" s="30"/>
-      <c r="K73" s="30"/>
-      <c r="L73" s="30"/>
-      <c r="M73" s="30"/>
-      <c r="N73" s="30"/>
-      <c r="O73" s="30"/>
-      <c r="P73" s="30"/>
-      <c r="Q73" s="30"/>
-      <c r="R73" s="30"/>
-      <c r="S73" s="30"/>
-      <c r="T73" s="30"/>
-      <c r="U73" s="30"/>
-      <c r="V73" s="30"/>
-      <c r="W73" s="30"/>
-      <c r="X73" s="30"/>
-      <c r="Y73" s="30"/>
-      <c r="Z73" s="30"/>
-      <c r="AA73" s="30"/>
-      <c r="AB73" s="30"/>
-      <c r="AC73" s="30"/>
-      <c r="AD73" s="30"/>
-      <c r="AE73" s="30"/>
-      <c r="AF73" s="30"/>
-    </row>
-    <row r="74" spans="1:35">
-      <c r="C74" s="30"/>
-      <c r="D74" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="D74" s="30"/>
       <c r="E74" s="30"/>
       <c r="F74" s="30"/>
       <c r="G74" s="30"/>
@@ -14374,7 +14397,9 @@
     </row>
     <row r="75" spans="1:35">
       <c r="C75" s="30"/>
-      <c r="D75" s="30"/>
+      <c r="D75" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="E75" s="30"/>
       <c r="F75" s="30"/>
       <c r="G75" s="30"/>
@@ -14406,41 +14431,41 @@
     </row>
     <row r="76" spans="1:35">
       <c r="C76" s="30"/>
-      <c r="E76" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="1"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1"/>
-      <c r="R76" s="1"/>
-      <c r="S76" s="1"/>
-      <c r="T76" s="1"/>
-      <c r="U76" s="1"/>
-      <c r="V76" s="1"/>
-      <c r="W76" s="1"/>
-      <c r="X76" s="1"/>
-      <c r="Y76" s="1"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
-      <c r="AD76" s="27"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="30"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="30"/>
+      <c r="P76" s="30"/>
+      <c r="Q76" s="30"/>
+      <c r="R76" s="30"/>
+      <c r="S76" s="30"/>
+      <c r="T76" s="30"/>
+      <c r="U76" s="30"/>
+      <c r="V76" s="30"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="30"/>
+      <c r="AA76" s="30"/>
+      <c r="AB76" s="30"/>
+      <c r="AC76" s="30"/>
+      <c r="AD76" s="30"/>
       <c r="AE76" s="30"/>
       <c r="AF76" s="30"/>
     </row>
     <row r="77" spans="1:35">
       <c r="C77" s="30"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
       <c r="H77" s="1"/>
@@ -14471,77 +14496,77 @@
     </row>
     <row r="78" spans="1:35">
       <c r="C78" s="30"/>
-      <c r="D78" s="30"/>
-      <c r="E78" s="329" t="s">
-        <v>22</v>
-      </c>
-      <c r="F78" s="329"/>
-      <c r="G78" s="316" t="s">
-        <v>153</v>
-      </c>
-      <c r="H78" s="317"/>
-      <c r="I78" s="317"/>
-      <c r="J78" s="317"/>
-      <c r="K78" s="317"/>
-      <c r="L78" s="318"/>
-      <c r="M78" s="329" t="s">
-        <v>23</v>
-      </c>
-      <c r="N78" s="329"/>
-      <c r="O78" s="316" t="s">
-        <v>154</v>
-      </c>
-      <c r="P78" s="317"/>
-      <c r="Q78" s="317"/>
-      <c r="R78" s="317"/>
-      <c r="S78" s="317"/>
-      <c r="T78" s="317"/>
-      <c r="U78" s="317"/>
-      <c r="V78" s="317"/>
-      <c r="W78" s="317"/>
-      <c r="X78" s="317"/>
-      <c r="Y78" s="317"/>
-      <c r="Z78" s="317"/>
-      <c r="AA78" s="317"/>
-      <c r="AB78" s="317"/>
-      <c r="AC78" s="317"/>
-      <c r="AD78" s="317"/>
-      <c r="AE78" s="317"/>
-      <c r="AF78" s="317"/>
-      <c r="AG78" s="317"/>
-      <c r="AH78" s="318"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+      <c r="V78" s="1"/>
+      <c r="W78" s="1"/>
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+      <c r="Z78" s="1"/>
+      <c r="AA78" s="1"/>
+      <c r="AB78" s="1"/>
+      <c r="AC78" s="1"/>
+      <c r="AD78" s="27"/>
+      <c r="AE78" s="30"/>
+      <c r="AF78" s="30"/>
     </row>
     <row r="79" spans="1:35">
       <c r="C79" s="30"/>
       <c r="D79" s="30"/>
-      <c r="E79" s="30"/>
-      <c r="F79" s="30"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="30"/>
-      <c r="I79" s="30"/>
-      <c r="J79" s="30"/>
-      <c r="K79" s="30"/>
-      <c r="L79" s="30"/>
-      <c r="M79" s="30"/>
-      <c r="N79" s="30"/>
-      <c r="O79" s="30"/>
-      <c r="P79" s="30"/>
-      <c r="Q79" s="30"/>
-      <c r="R79" s="30"/>
-      <c r="S79" s="30"/>
-      <c r="T79" s="30"/>
-      <c r="U79" s="30"/>
-      <c r="V79" s="30"/>
-      <c r="W79" s="30"/>
-      <c r="X79" s="30"/>
-      <c r="Y79" s="30"/>
-      <c r="Z79" s="30"/>
-      <c r="AA79" s="30"/>
-      <c r="AB79" s="30"/>
-      <c r="AC79" s="30"/>
-      <c r="AD79" s="30"/>
-      <c r="AE79" s="30"/>
-      <c r="AF79" s="30"/>
+      <c r="E79" s="271" t="s">
+        <v>22</v>
+      </c>
+      <c r="F79" s="271"/>
+      <c r="G79" s="319" t="s">
+        <v>152</v>
+      </c>
+      <c r="H79" s="320"/>
+      <c r="I79" s="320"/>
+      <c r="J79" s="320"/>
+      <c r="K79" s="320"/>
+      <c r="L79" s="321"/>
+      <c r="M79" s="271" t="s">
+        <v>23</v>
+      </c>
+      <c r="N79" s="271"/>
+      <c r="O79" s="319" t="s">
+        <v>153</v>
+      </c>
+      <c r="P79" s="320"/>
+      <c r="Q79" s="320"/>
+      <c r="R79" s="320"/>
+      <c r="S79" s="320"/>
+      <c r="T79" s="320"/>
+      <c r="U79" s="320"/>
+      <c r="V79" s="320"/>
+      <c r="W79" s="320"/>
+      <c r="X79" s="320"/>
+      <c r="Y79" s="320"/>
+      <c r="Z79" s="320"/>
+      <c r="AA79" s="320"/>
+      <c r="AB79" s="320"/>
+      <c r="AC79" s="320"/>
+      <c r="AD79" s="320"/>
+      <c r="AE79" s="320"/>
+      <c r="AF79" s="320"/>
+      <c r="AG79" s="320"/>
+      <c r="AH79" s="321"/>
     </row>
     <row r="80" spans="1:35">
       <c r="C80" s="30"/>
@@ -14577,9 +14602,7 @@
     </row>
     <row r="81" spans="3:34">
       <c r="C81" s="30"/>
-      <c r="D81" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="D81" s="30"/>
       <c r="E81" s="30"/>
       <c r="F81" s="30"/>
       <c r="G81" s="30"/>
@@ -14611,7 +14634,9 @@
     </row>
     <row r="82" spans="3:34">
       <c r="C82" s="30"/>
-      <c r="D82" s="30"/>
+      <c r="D82" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="E82" s="30"/>
       <c r="F82" s="30"/>
       <c r="G82" s="30"/>
@@ -14644,354 +14669,363 @@
     <row r="83" spans="3:34">
       <c r="C83" s="30"/>
       <c r="D83" s="30"/>
-      <c r="E83" s="305" t="s">
-        <v>53</v>
-      </c>
-      <c r="F83" s="299" t="s">
-        <v>24</v>
-      </c>
-      <c r="G83" s="300"/>
-      <c r="H83" s="300"/>
-      <c r="I83" s="301"/>
-      <c r="J83" s="299" t="s">
-        <v>25</v>
-      </c>
-      <c r="K83" s="300"/>
-      <c r="L83" s="300"/>
-      <c r="M83" s="301"/>
-      <c r="N83" s="277" t="s">
-        <v>26</v>
-      </c>
-      <c r="O83" s="277"/>
-      <c r="P83" s="277"/>
-      <c r="Q83" s="277"/>
-      <c r="R83" s="277"/>
-      <c r="S83" s="277"/>
-      <c r="T83" s="277"/>
-      <c r="U83" s="277"/>
-      <c r="V83" s="277"/>
-      <c r="W83" s="299" t="s">
-        <v>34</v>
-      </c>
-      <c r="X83" s="300"/>
-      <c r="Y83" s="300"/>
-      <c r="Z83" s="300"/>
-      <c r="AA83" s="300"/>
-      <c r="AB83" s="300"/>
-      <c r="AC83" s="301"/>
-      <c r="AD83" s="299" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE83" s="300"/>
-      <c r="AF83" s="300"/>
-      <c r="AG83" s="300"/>
-      <c r="AH83" s="301"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="30"/>
+      <c r="S83" s="30"/>
+      <c r="T83" s="30"/>
+      <c r="U83" s="30"/>
+      <c r="V83" s="30"/>
+      <c r="W83" s="30"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30"/>
+      <c r="AB83" s="30"/>
+      <c r="AC83" s="30"/>
+      <c r="AD83" s="30"/>
+      <c r="AE83" s="30"/>
+      <c r="AF83" s="30"/>
     </row>
     <row r="84" spans="3:34">
       <c r="C84" s="30"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="306"/>
-      <c r="F84" s="302"/>
-      <c r="G84" s="303"/>
-      <c r="H84" s="303"/>
-      <c r="I84" s="304"/>
-      <c r="J84" s="302"/>
-      <c r="K84" s="303"/>
-      <c r="L84" s="303"/>
-      <c r="M84" s="304"/>
-      <c r="N84" s="277" t="s">
-        <v>29</v>
-      </c>
-      <c r="O84" s="277"/>
-      <c r="P84" s="277"/>
-      <c r="Q84" s="277"/>
-      <c r="R84" s="277"/>
-      <c r="S84" s="278" t="s">
-        <v>30</v>
-      </c>
-      <c r="T84" s="278"/>
-      <c r="U84" s="278"/>
-      <c r="V84" s="278"/>
-      <c r="W84" s="302"/>
-      <c r="X84" s="303"/>
-      <c r="Y84" s="303"/>
-      <c r="Z84" s="303"/>
-      <c r="AA84" s="303"/>
-      <c r="AB84" s="303"/>
-      <c r="AC84" s="304"/>
-      <c r="AD84" s="302"/>
-      <c r="AE84" s="303"/>
-      <c r="AF84" s="303"/>
-      <c r="AG84" s="303"/>
-      <c r="AH84" s="304"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="311" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" s="305" t="s">
+        <v>24</v>
+      </c>
+      <c r="G84" s="306"/>
+      <c r="H84" s="306"/>
+      <c r="I84" s="307"/>
+      <c r="J84" s="305" t="s">
+        <v>25</v>
+      </c>
+      <c r="K84" s="306"/>
+      <c r="L84" s="306"/>
+      <c r="M84" s="307"/>
+      <c r="N84" s="355" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" s="355"/>
+      <c r="P84" s="355"/>
+      <c r="Q84" s="355"/>
+      <c r="R84" s="355"/>
+      <c r="S84" s="355"/>
+      <c r="T84" s="355"/>
+      <c r="U84" s="355"/>
+      <c r="V84" s="355"/>
+      <c r="W84" s="305" t="s">
+        <v>34</v>
+      </c>
+      <c r="X84" s="306"/>
+      <c r="Y84" s="306"/>
+      <c r="Z84" s="306"/>
+      <c r="AA84" s="306"/>
+      <c r="AB84" s="306"/>
+      <c r="AC84" s="307"/>
+      <c r="AD84" s="305" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE84" s="306"/>
+      <c r="AF84" s="306"/>
+      <c r="AG84" s="306"/>
+      <c r="AH84" s="307"/>
     </row>
     <row r="85" spans="3:34">
       <c r="C85" s="30"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="41">
-        <v>1</v>
-      </c>
-      <c r="F85" s="274" t="s">
-        <v>156</v>
-      </c>
-      <c r="G85" s="275"/>
-      <c r="H85" s="275"/>
-      <c r="I85" s="276"/>
-      <c r="J85" s="274" t="s">
-        <v>101</v>
-      </c>
-      <c r="K85" s="275"/>
-      <c r="L85" s="275"/>
-      <c r="M85" s="276"/>
-      <c r="N85" s="272" t="s">
-        <v>81</v>
-      </c>
-      <c r="O85" s="270"/>
-      <c r="P85" s="270"/>
-      <c r="Q85" s="270"/>
-      <c r="R85" s="270"/>
-      <c r="S85" s="273" t="s">
-        <v>82</v>
-      </c>
-      <c r="T85" s="271"/>
-      <c r="U85" s="271"/>
-      <c r="V85" s="271"/>
-      <c r="W85" s="260"/>
-      <c r="X85" s="261"/>
-      <c r="Y85" s="261"/>
-      <c r="Z85" s="261"/>
-      <c r="AA85" s="261"/>
-      <c r="AB85" s="261"/>
-      <c r="AC85" s="262"/>
-      <c r="AD85" s="260"/>
-      <c r="AE85" s="261"/>
-      <c r="AF85" s="261"/>
-      <c r="AG85" s="261"/>
-      <c r="AH85" s="262"/>
+      <c r="E85" s="312"/>
+      <c r="F85" s="308"/>
+      <c r="G85" s="309"/>
+      <c r="H85" s="309"/>
+      <c r="I85" s="310"/>
+      <c r="J85" s="308"/>
+      <c r="K85" s="309"/>
+      <c r="L85" s="309"/>
+      <c r="M85" s="310"/>
+      <c r="N85" s="355" t="s">
+        <v>29</v>
+      </c>
+      <c r="O85" s="355"/>
+      <c r="P85" s="355"/>
+      <c r="Q85" s="355"/>
+      <c r="R85" s="355"/>
+      <c r="S85" s="356" t="s">
+        <v>30</v>
+      </c>
+      <c r="T85" s="356"/>
+      <c r="U85" s="356"/>
+      <c r="V85" s="356"/>
+      <c r="W85" s="308"/>
+      <c r="X85" s="309"/>
+      <c r="Y85" s="309"/>
+      <c r="Z85" s="309"/>
+      <c r="AA85" s="309"/>
+      <c r="AB85" s="309"/>
+      <c r="AC85" s="310"/>
+      <c r="AD85" s="308"/>
+      <c r="AE85" s="309"/>
+      <c r="AF85" s="309"/>
+      <c r="AG85" s="309"/>
+      <c r="AH85" s="310"/>
     </row>
     <row r="86" spans="3:34">
       <c r="C86" s="30"/>
       <c r="D86" s="1"/>
       <c r="E86" s="41">
-        <v>2</v>
-      </c>
-      <c r="F86" s="274" t="s">
-        <v>157</v>
-      </c>
-      <c r="G86" s="275"/>
-      <c r="H86" s="275"/>
-      <c r="I86" s="276"/>
-      <c r="J86" s="274" t="s">
-        <v>103</v>
-      </c>
-      <c r="K86" s="275"/>
-      <c r="L86" s="275"/>
-      <c r="M86" s="276"/>
-      <c r="N86" s="272" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" s="349" t="s">
+        <v>155</v>
+      </c>
+      <c r="G86" s="350"/>
+      <c r="H86" s="350"/>
+      <c r="I86" s="351"/>
+      <c r="J86" s="349" t="s">
+        <v>101</v>
+      </c>
+      <c r="K86" s="350"/>
+      <c r="L86" s="350"/>
+      <c r="M86" s="351"/>
+      <c r="N86" s="357" t="s">
         <v>81</v>
       </c>
-      <c r="O86" s="270"/>
-      <c r="P86" s="270"/>
-      <c r="Q86" s="270"/>
-      <c r="R86" s="270"/>
-      <c r="S86" s="273" t="s">
-        <v>83</v>
-      </c>
-      <c r="T86" s="271"/>
-      <c r="U86" s="271"/>
-      <c r="V86" s="271"/>
-      <c r="W86" s="260"/>
-      <c r="X86" s="261"/>
-      <c r="Y86" s="261"/>
-      <c r="Z86" s="261"/>
-      <c r="AA86" s="261"/>
-      <c r="AB86" s="261"/>
-      <c r="AC86" s="262"/>
-      <c r="AD86" s="260"/>
-      <c r="AE86" s="261"/>
-      <c r="AF86" s="261"/>
-      <c r="AG86" s="261"/>
-      <c r="AH86" s="262"/>
+      <c r="O86" s="358"/>
+      <c r="P86" s="358"/>
+      <c r="Q86" s="358"/>
+      <c r="R86" s="358"/>
+      <c r="S86" s="359" t="s">
+        <v>82</v>
+      </c>
+      <c r="T86" s="360"/>
+      <c r="U86" s="360"/>
+      <c r="V86" s="360"/>
+      <c r="W86" s="352"/>
+      <c r="X86" s="353"/>
+      <c r="Y86" s="353"/>
+      <c r="Z86" s="353"/>
+      <c r="AA86" s="353"/>
+      <c r="AB86" s="353"/>
+      <c r="AC86" s="354"/>
+      <c r="AD86" s="352"/>
+      <c r="AE86" s="353"/>
+      <c r="AF86" s="353"/>
+      <c r="AG86" s="353"/>
+      <c r="AH86" s="354"/>
     </row>
     <row r="87" spans="3:34">
       <c r="C87" s="30"/>
       <c r="D87" s="1"/>
       <c r="E87" s="41">
-        <v>3</v>
-      </c>
-      <c r="F87" s="274" t="s">
-        <v>80</v>
-      </c>
-      <c r="G87" s="275"/>
-      <c r="H87" s="275"/>
-      <c r="I87" s="276"/>
-      <c r="J87" s="274" t="s">
-        <v>105</v>
-      </c>
-      <c r="K87" s="275"/>
-      <c r="L87" s="275"/>
-      <c r="M87" s="276"/>
-      <c r="N87" s="272" t="s">
+        <v>2</v>
+      </c>
+      <c r="F87" s="349" t="s">
+        <v>156</v>
+      </c>
+      <c r="G87" s="350"/>
+      <c r="H87" s="350"/>
+      <c r="I87" s="351"/>
+      <c r="J87" s="349" t="s">
+        <v>103</v>
+      </c>
+      <c r="K87" s="350"/>
+      <c r="L87" s="350"/>
+      <c r="M87" s="351"/>
+      <c r="N87" s="357" t="s">
         <v>81</v>
       </c>
-      <c r="O87" s="270"/>
-      <c r="P87" s="270"/>
-      <c r="Q87" s="270"/>
-      <c r="R87" s="270"/>
-      <c r="S87" s="273" t="s">
-        <v>84</v>
-      </c>
-      <c r="T87" s="271"/>
-      <c r="U87" s="271"/>
-      <c r="V87" s="271"/>
-      <c r="W87" s="260"/>
-      <c r="X87" s="261"/>
-      <c r="Y87" s="261"/>
-      <c r="Z87" s="261"/>
-      <c r="AA87" s="261"/>
-      <c r="AB87" s="261"/>
-      <c r="AC87" s="262"/>
-      <c r="AD87" s="260"/>
-      <c r="AE87" s="261"/>
-      <c r="AF87" s="261"/>
-      <c r="AG87" s="261"/>
-      <c r="AH87" s="262"/>
+      <c r="O87" s="358"/>
+      <c r="P87" s="358"/>
+      <c r="Q87" s="358"/>
+      <c r="R87" s="358"/>
+      <c r="S87" s="359" t="s">
+        <v>83</v>
+      </c>
+      <c r="T87" s="360"/>
+      <c r="U87" s="360"/>
+      <c r="V87" s="360"/>
+      <c r="W87" s="352"/>
+      <c r="X87" s="353"/>
+      <c r="Y87" s="353"/>
+      <c r="Z87" s="353"/>
+      <c r="AA87" s="353"/>
+      <c r="AB87" s="353"/>
+      <c r="AC87" s="354"/>
+      <c r="AD87" s="352"/>
+      <c r="AE87" s="353"/>
+      <c r="AF87" s="353"/>
+      <c r="AG87" s="353"/>
+      <c r="AH87" s="354"/>
     </row>
     <row r="88" spans="3:34">
       <c r="C88" s="30"/>
       <c r="D88" s="1"/>
       <c r="E88" s="41">
-        <v>4</v>
-      </c>
-      <c r="F88" s="274"/>
-      <c r="G88" s="275"/>
-      <c r="H88" s="275"/>
-      <c r="I88" s="276"/>
-      <c r="J88" s="274"/>
-      <c r="K88" s="275"/>
-      <c r="L88" s="275"/>
-      <c r="M88" s="276"/>
-      <c r="N88" s="269"/>
-      <c r="O88" s="270"/>
-      <c r="P88" s="270"/>
-      <c r="Q88" s="270"/>
-      <c r="R88" s="270"/>
-      <c r="S88" s="271"/>
-      <c r="T88" s="271"/>
-      <c r="U88" s="271"/>
-      <c r="V88" s="271"/>
-      <c r="W88" s="260"/>
-      <c r="X88" s="261"/>
-      <c r="Y88" s="261"/>
-      <c r="Z88" s="261"/>
-      <c r="AA88" s="261"/>
-      <c r="AB88" s="261"/>
-      <c r="AC88" s="262"/>
-      <c r="AD88" s="260"/>
-      <c r="AE88" s="261"/>
-      <c r="AF88" s="261"/>
-      <c r="AG88" s="261"/>
-      <c r="AH88" s="262"/>
+        <v>3</v>
+      </c>
+      <c r="F88" s="349" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" s="350"/>
+      <c r="H88" s="350"/>
+      <c r="I88" s="351"/>
+      <c r="J88" s="349" t="s">
+        <v>105</v>
+      </c>
+      <c r="K88" s="350"/>
+      <c r="L88" s="350"/>
+      <c r="M88" s="351"/>
+      <c r="N88" s="357" t="s">
+        <v>81</v>
+      </c>
+      <c r="O88" s="358"/>
+      <c r="P88" s="358"/>
+      <c r="Q88" s="358"/>
+      <c r="R88" s="358"/>
+      <c r="S88" s="359" t="s">
+        <v>84</v>
+      </c>
+      <c r="T88" s="360"/>
+      <c r="U88" s="360"/>
+      <c r="V88" s="360"/>
+      <c r="W88" s="352"/>
+      <c r="X88" s="353"/>
+      <c r="Y88" s="353"/>
+      <c r="Z88" s="353"/>
+      <c r="AA88" s="353"/>
+      <c r="AB88" s="353"/>
+      <c r="AC88" s="354"/>
+      <c r="AD88" s="352"/>
+      <c r="AE88" s="353"/>
+      <c r="AF88" s="353"/>
+      <c r="AG88" s="353"/>
+      <c r="AH88" s="354"/>
     </row>
     <row r="89" spans="3:34">
       <c r="C89" s="30"/>
       <c r="D89" s="1"/>
       <c r="E89" s="41">
+        <v>4</v>
+      </c>
+      <c r="F89" s="349"/>
+      <c r="G89" s="350"/>
+      <c r="H89" s="350"/>
+      <c r="I89" s="351"/>
+      <c r="J89" s="349"/>
+      <c r="K89" s="350"/>
+      <c r="L89" s="350"/>
+      <c r="M89" s="351"/>
+      <c r="N89" s="364"/>
+      <c r="O89" s="358"/>
+      <c r="P89" s="358"/>
+      <c r="Q89" s="358"/>
+      <c r="R89" s="358"/>
+      <c r="S89" s="360"/>
+      <c r="T89" s="360"/>
+      <c r="U89" s="360"/>
+      <c r="V89" s="360"/>
+      <c r="W89" s="352"/>
+      <c r="X89" s="353"/>
+      <c r="Y89" s="353"/>
+      <c r="Z89" s="353"/>
+      <c r="AA89" s="353"/>
+      <c r="AB89" s="353"/>
+      <c r="AC89" s="354"/>
+      <c r="AD89" s="352"/>
+      <c r="AE89" s="353"/>
+      <c r="AF89" s="353"/>
+      <c r="AG89" s="353"/>
+      <c r="AH89" s="354"/>
+    </row>
+    <row r="90" spans="3:34">
+      <c r="C90" s="30"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="41">
         <v>5</v>
       </c>
-      <c r="F89" s="274"/>
-      <c r="G89" s="275"/>
-      <c r="H89" s="275"/>
-      <c r="I89" s="276"/>
-      <c r="J89" s="274"/>
-      <c r="K89" s="275"/>
-      <c r="L89" s="275"/>
-      <c r="M89" s="276"/>
-      <c r="N89" s="269"/>
-      <c r="O89" s="270"/>
-      <c r="P89" s="270"/>
-      <c r="Q89" s="270"/>
-      <c r="R89" s="270"/>
-      <c r="S89" s="271"/>
-      <c r="T89" s="271"/>
-      <c r="U89" s="271"/>
-      <c r="V89" s="271"/>
-      <c r="W89" s="260"/>
-      <c r="X89" s="261"/>
-      <c r="Y89" s="261"/>
-      <c r="Z89" s="261"/>
-      <c r="AA89" s="261"/>
-      <c r="AB89" s="261"/>
-      <c r="AC89" s="262"/>
-      <c r="AD89" s="260"/>
-      <c r="AE89" s="261"/>
-      <c r="AF89" s="261"/>
-      <c r="AG89" s="261"/>
-      <c r="AH89" s="262"/>
+      <c r="F90" s="349"/>
+      <c r="G90" s="350"/>
+      <c r="H90" s="350"/>
+      <c r="I90" s="351"/>
+      <c r="J90" s="349"/>
+      <c r="K90" s="350"/>
+      <c r="L90" s="350"/>
+      <c r="M90" s="351"/>
+      <c r="N90" s="364"/>
+      <c r="O90" s="358"/>
+      <c r="P90" s="358"/>
+      <c r="Q90" s="358"/>
+      <c r="R90" s="358"/>
+      <c r="S90" s="360"/>
+      <c r="T90" s="360"/>
+      <c r="U90" s="360"/>
+      <c r="V90" s="360"/>
+      <c r="W90" s="352"/>
+      <c r="X90" s="353"/>
+      <c r="Y90" s="353"/>
+      <c r="Z90" s="353"/>
+      <c r="AA90" s="353"/>
+      <c r="AB90" s="353"/>
+      <c r="AC90" s="354"/>
+      <c r="AD90" s="352"/>
+      <c r="AE90" s="353"/>
+      <c r="AF90" s="353"/>
+      <c r="AG90" s="353"/>
+      <c r="AH90" s="354"/>
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="T48:AD48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="T49:AD49"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AD39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:S40"/>
-    <mergeCell ref="T40:AD40"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E78:F78"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="E58:X58"/>
-    <mergeCell ref="E55:N57"/>
-    <mergeCell ref="O57:X57"/>
-    <mergeCell ref="E54:N54"/>
-    <mergeCell ref="O54:X54"/>
-    <mergeCell ref="O55:X55"/>
-    <mergeCell ref="O56:X56"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="F83:I84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="G78:L78"/>
-    <mergeCell ref="O78:AH78"/>
-    <mergeCell ref="W83:AC84"/>
-    <mergeCell ref="AD83:AH84"/>
-    <mergeCell ref="O28:AH28"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="L35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="J83:M84"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="AD86:AH86"/>
+    <mergeCell ref="AD87:AH87"/>
+    <mergeCell ref="AD88:AH88"/>
+    <mergeCell ref="W86:AC86"/>
+    <mergeCell ref="W87:AC87"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="AD89:AH89"/>
+    <mergeCell ref="AD90:AH90"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="N90:R90"/>
+    <mergeCell ref="S90:V90"/>
+    <mergeCell ref="N89:R89"/>
+    <mergeCell ref="S89:V89"/>
+    <mergeCell ref="N88:R88"/>
+    <mergeCell ref="S88:V88"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="F86:I86"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="W88:AC88"/>
+    <mergeCell ref="W89:AC89"/>
+    <mergeCell ref="W90:AC90"/>
+    <mergeCell ref="N84:V84"/>
+    <mergeCell ref="N85:R85"/>
+    <mergeCell ref="S85:V85"/>
+    <mergeCell ref="N87:R87"/>
+    <mergeCell ref="S87:V87"/>
+    <mergeCell ref="N86:R86"/>
+    <mergeCell ref="S86:V86"/>
+    <mergeCell ref="J86:M86"/>
+    <mergeCell ref="J87:M87"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
@@ -15016,44 +15050,67 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="P8:U8"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="W87:AC87"/>
-    <mergeCell ref="W88:AC88"/>
-    <mergeCell ref="W89:AC89"/>
-    <mergeCell ref="N83:V83"/>
-    <mergeCell ref="N84:R84"/>
-    <mergeCell ref="S84:V84"/>
-    <mergeCell ref="N86:R86"/>
-    <mergeCell ref="S86:V86"/>
-    <mergeCell ref="N85:R85"/>
-    <mergeCell ref="S85:V85"/>
-    <mergeCell ref="J85:M85"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="AD85:AH85"/>
-    <mergeCell ref="AD86:AH86"/>
-    <mergeCell ref="AD87:AH87"/>
-    <mergeCell ref="W85:AC85"/>
-    <mergeCell ref="W86:AC86"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="AD88:AH88"/>
-    <mergeCell ref="AD89:AH89"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="N89:R89"/>
-    <mergeCell ref="S89:V89"/>
-    <mergeCell ref="N88:R88"/>
-    <mergeCell ref="S88:V88"/>
-    <mergeCell ref="N87:R87"/>
-    <mergeCell ref="S87:V87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="F85:I85"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="F84:I85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="G79:L79"/>
+    <mergeCell ref="O79:AH79"/>
+    <mergeCell ref="W84:AC85"/>
+    <mergeCell ref="AD84:AH85"/>
+    <mergeCell ref="O28:AH28"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="L35:U35"/>
+    <mergeCell ref="V35:X35"/>
+    <mergeCell ref="Y35:AB35"/>
+    <mergeCell ref="AC35:AF35"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="J84:M85"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="E48:I48"/>
+    <mergeCell ref="J48:L48"/>
+    <mergeCell ref="M48:S48"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E79:F79"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="E58:X58"/>
+    <mergeCell ref="E55:N57"/>
+    <mergeCell ref="O57:X57"/>
+    <mergeCell ref="E54:N54"/>
+    <mergeCell ref="O54:X54"/>
+    <mergeCell ref="O55:X55"/>
+    <mergeCell ref="O56:X56"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="T48:AD48"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="T49:AD49"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:AD39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:S40"/>
+    <mergeCell ref="T40:AD40"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
@@ -15075,7 +15132,7 @@
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="30" max="34" man="1"/>
-    <brk id="71" max="34" man="1"/>
+    <brk id="72" max="34" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10101_顧客検索.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10101_顧客検索.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="-75" windowWidth="17970" windowHeight="12450" tabRatio="822" activeTab="5"/>
+    <workbookView xWindow="285" yWindow="-75" windowWidth="15705" windowHeight="11790" tabRatio="822" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="36" r:id="rId1"/>
@@ -1034,10 +1034,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>FB1999901</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>（ドメイン別）</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1092,14 +1088,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>FB1010101</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>errors.upper.limit</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>件数が1000件を超える場合は業務例外を送出する。</t>
     <rPh sb="0" eb="2">
       <t>ケンスウ</t>
@@ -1265,6 +1253,18 @@
     <rPh sb="9" eb="11">
       <t>ショウジュン</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FB1999901</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FB1999902</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>errors.upper.limit</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2053,6 +2053,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2679,9 +2682,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6238,12 +6238,12 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="152">
+      <c r="I25" s="153">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="152"/>
-      <c r="K25" s="152"/>
+      <c r="J25" s="153"/>
+      <c r="K25" s="153"/>
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1">
@@ -6874,55 +6874,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="191" t="s">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="192" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="200" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="201" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="209" t="s">
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="210" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="210"/>
-      <c r="U1" s="210"/>
-      <c r="V1" s="210"/>
-      <c r="W1" s="210"/>
-      <c r="X1" s="210"/>
-      <c r="Y1" s="210"/>
-      <c r="Z1" s="211"/>
-      <c r="AA1" s="197" t="s">
+      <c r="T1" s="211"/>
+      <c r="U1" s="211"/>
+      <c r="V1" s="211"/>
+      <c r="W1" s="211"/>
+      <c r="X1" s="211"/>
+      <c r="Y1" s="211"/>
+      <c r="Z1" s="212"/>
+      <c r="AA1" s="198" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="180" t="s">
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="181" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="184">
+      <c r="AD1" s="182"/>
+      <c r="AE1" s="182"/>
+      <c r="AF1" s="183"/>
+      <c r="AG1" s="185">
         <v>43718</v>
       </c>
-      <c r="AH1" s="185"/>
-      <c r="AI1" s="186"/>
+      <c r="AH1" s="186"/>
+      <c r="AI1" s="187"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -6930,53 +6930,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="191" t="s">
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="192" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="212"/>
-      <c r="T2" s="213"/>
-      <c r="U2" s="213"/>
-      <c r="V2" s="213"/>
-      <c r="W2" s="213"/>
-      <c r="X2" s="213"/>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="197" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="213"/>
+      <c r="T2" s="214"/>
+      <c r="U2" s="214"/>
+      <c r="V2" s="214"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="214"/>
+      <c r="Y2" s="214"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="198" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="194" t="str">
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="195" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="195"/>
-      <c r="AE2" s="195"/>
-      <c r="AF2" s="196"/>
-      <c r="AG2" s="184" t="str">
+      <c r="AD2" s="196"/>
+      <c r="AE2" s="196"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="185" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="185"/>
-      <c r="AI2" s="186"/>
+      <c r="AH2" s="186"/>
+      <c r="AI2" s="187"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -6984,45 +6984,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="191" t="s">
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="192" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="215"/>
-      <c r="T3" s="216"/>
-      <c r="U3" s="216"/>
-      <c r="V3" s="216"/>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="216"/>
-      <c r="Z3" s="217"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="183"/>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="184"/>
-      <c r="AH3" s="185"/>
-      <c r="AI3" s="186"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="216"/>
+      <c r="T3" s="217"/>
+      <c r="U3" s="217"/>
+      <c r="V3" s="217"/>
+      <c r="W3" s="217"/>
+      <c r="X3" s="217"/>
+      <c r="Y3" s="217"/>
+      <c r="Z3" s="218"/>
+      <c r="AA3" s="198"/>
+      <c r="AB3" s="200"/>
+      <c r="AC3" s="184"/>
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="185"/>
+      <c r="AH3" s="186"/>
+      <c r="AI3" s="187"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -7059,1024 +7059,1024 @@
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="187" t="s">
+      <c r="B7" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="187" t="s">
+      <c r="C7" s="189"/>
+      <c r="D7" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="187" t="s">
+      <c r="E7" s="190"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="189"/>
-      <c r="I7" s="188"/>
-      <c r="J7" s="190" t="s">
+      <c r="H7" s="190"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="189"/>
-      <c r="L7" s="189"/>
-      <c r="M7" s="189"/>
-      <c r="N7" s="189"/>
-      <c r="O7" s="189"/>
-      <c r="P7" s="188"/>
-      <c r="Q7" s="187" t="s">
+      <c r="K7" s="190"/>
+      <c r="L7" s="190"/>
+      <c r="M7" s="190"/>
+      <c r="N7" s="190"/>
+      <c r="O7" s="190"/>
+      <c r="P7" s="189"/>
+      <c r="Q7" s="188" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="189"/>
-      <c r="S7" s="189"/>
-      <c r="T7" s="189"/>
-      <c r="U7" s="189"/>
-      <c r="V7" s="189"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="189"/>
-      <c r="Y7" s="189"/>
-      <c r="Z7" s="189"/>
-      <c r="AA7" s="189"/>
-      <c r="AB7" s="189"/>
-      <c r="AC7" s="189"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="188"/>
-      <c r="AF7" s="190" t="s">
+      <c r="R7" s="190"/>
+      <c r="S7" s="190"/>
+      <c r="T7" s="190"/>
+      <c r="U7" s="190"/>
+      <c r="V7" s="190"/>
+      <c r="W7" s="190"/>
+      <c r="X7" s="190"/>
+      <c r="Y7" s="190"/>
+      <c r="Z7" s="190"/>
+      <c r="AA7" s="190"/>
+      <c r="AB7" s="190"/>
+      <c r="AC7" s="190"/>
+      <c r="AD7" s="190"/>
+      <c r="AE7" s="189"/>
+      <c r="AF7" s="191" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="189"/>
-      <c r="AH7" s="189"/>
-      <c r="AI7" s="188"/>
+      <c r="AG7" s="190"/>
+      <c r="AH7" s="190"/>
+      <c r="AI7" s="189"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="117">
         <v>1</v>
       </c>
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="167" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="167"/>
-      <c r="D8" s="168">
+      <c r="C8" s="168"/>
+      <c r="D8" s="169">
         <v>43718</v>
       </c>
-      <c r="E8" s="169"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="171" t="s">
+      <c r="E8" s="170"/>
+      <c r="F8" s="171"/>
+      <c r="G8" s="172" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="172"/>
-      <c r="I8" s="167"/>
-      <c r="J8" s="173"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="177"/>
-      <c r="R8" s="178"/>
-      <c r="S8" s="178"/>
-      <c r="T8" s="178"/>
-      <c r="U8" s="178"/>
-      <c r="V8" s="178"/>
-      <c r="W8" s="178"/>
-      <c r="X8" s="178"/>
-      <c r="Y8" s="178"/>
-      <c r="Z8" s="178"/>
-      <c r="AA8" s="178"/>
-      <c r="AB8" s="178"/>
-      <c r="AC8" s="178"/>
-      <c r="AD8" s="178"/>
-      <c r="AE8" s="179"/>
-      <c r="AF8" s="176" t="s">
+      <c r="H8" s="173"/>
+      <c r="I8" s="168"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="175"/>
+      <c r="L8" s="175"/>
+      <c r="M8" s="175"/>
+      <c r="N8" s="175"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="178"/>
+      <c r="R8" s="179"/>
+      <c r="S8" s="179"/>
+      <c r="T8" s="179"/>
+      <c r="U8" s="179"/>
+      <c r="V8" s="179"/>
+      <c r="W8" s="179"/>
+      <c r="X8" s="179"/>
+      <c r="Y8" s="179"/>
+      <c r="Z8" s="179"/>
+      <c r="AA8" s="179"/>
+      <c r="AB8" s="179"/>
+      <c r="AC8" s="179"/>
+      <c r="AD8" s="179"/>
+      <c r="AE8" s="180"/>
+      <c r="AF8" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="174"/>
-      <c r="AI8" s="175"/>
+      <c r="AG8" s="175"/>
+      <c r="AH8" s="175"/>
+      <c r="AI8" s="176"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="118"/>
-      <c r="B9" s="153"/>
-      <c r="C9" s="154"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="157"/>
-      <c r="G9" s="155"/>
-      <c r="H9" s="158"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="159"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="160"/>
-      <c r="M9" s="160"/>
-      <c r="N9" s="160"/>
-      <c r="O9" s="160"/>
-      <c r="P9" s="161"/>
-      <c r="Q9" s="162"/>
-      <c r="R9" s="163"/>
-      <c r="S9" s="163"/>
-      <c r="T9" s="163"/>
-      <c r="U9" s="163"/>
-      <c r="V9" s="163"/>
-      <c r="W9" s="163"/>
-      <c r="X9" s="163"/>
-      <c r="Y9" s="163"/>
-      <c r="Z9" s="163"/>
-      <c r="AA9" s="163"/>
-      <c r="AB9" s="163"/>
-      <c r="AC9" s="163"/>
-      <c r="AD9" s="163"/>
-      <c r="AE9" s="164"/>
-      <c r="AF9" s="159"/>
-      <c r="AG9" s="160"/>
-      <c r="AH9" s="160"/>
-      <c r="AI9" s="161"/>
+      <c r="B9" s="154"/>
+      <c r="C9" s="155"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="157"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="159"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="160"/>
+      <c r="K9" s="161"/>
+      <c r="L9" s="161"/>
+      <c r="M9" s="161"/>
+      <c r="N9" s="161"/>
+      <c r="O9" s="161"/>
+      <c r="P9" s="162"/>
+      <c r="Q9" s="163"/>
+      <c r="R9" s="164"/>
+      <c r="S9" s="164"/>
+      <c r="T9" s="164"/>
+      <c r="U9" s="164"/>
+      <c r="V9" s="164"/>
+      <c r="W9" s="164"/>
+      <c r="X9" s="164"/>
+      <c r="Y9" s="164"/>
+      <c r="Z9" s="164"/>
+      <c r="AA9" s="164"/>
+      <c r="AB9" s="164"/>
+      <c r="AC9" s="164"/>
+      <c r="AD9" s="164"/>
+      <c r="AE9" s="165"/>
+      <c r="AF9" s="160"/>
+      <c r="AG9" s="161"/>
+      <c r="AH9" s="161"/>
+      <c r="AI9" s="162"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="118"/>
-      <c r="B10" s="153"/>
-      <c r="C10" s="154"/>
-      <c r="D10" s="155"/>
-      <c r="E10" s="156"/>
-      <c r="F10" s="157"/>
-      <c r="G10" s="153"/>
-      <c r="H10" s="158"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="159"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="160"/>
-      <c r="O10" s="160"/>
-      <c r="P10" s="161"/>
-      <c r="Q10" s="162"/>
-      <c r="R10" s="163"/>
-      <c r="S10" s="163"/>
-      <c r="T10" s="163"/>
-      <c r="U10" s="163"/>
-      <c r="V10" s="163"/>
-      <c r="W10" s="163"/>
-      <c r="X10" s="163"/>
-      <c r="Y10" s="163"/>
-      <c r="Z10" s="163"/>
-      <c r="AA10" s="163"/>
-      <c r="AB10" s="163"/>
-      <c r="AC10" s="163"/>
-      <c r="AD10" s="163"/>
-      <c r="AE10" s="164"/>
-      <c r="AF10" s="159"/>
-      <c r="AG10" s="160"/>
-      <c r="AH10" s="160"/>
-      <c r="AI10" s="161"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="157"/>
+      <c r="F10" s="158"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="159"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="160"/>
+      <c r="K10" s="161"/>
+      <c r="L10" s="161"/>
+      <c r="M10" s="161"/>
+      <c r="N10" s="161"/>
+      <c r="O10" s="161"/>
+      <c r="P10" s="162"/>
+      <c r="Q10" s="163"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="164"/>
+      <c r="T10" s="164"/>
+      <c r="U10" s="164"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="164"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="164"/>
+      <c r="AA10" s="164"/>
+      <c r="AB10" s="164"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="165"/>
+      <c r="AF10" s="160"/>
+      <c r="AG10" s="161"/>
+      <c r="AH10" s="161"/>
+      <c r="AI10" s="162"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="153"/>
-      <c r="C11" s="154"/>
-      <c r="D11" s="155"/>
-      <c r="E11" s="156"/>
-      <c r="F11" s="157"/>
-      <c r="G11" s="153"/>
-      <c r="H11" s="158"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="159"/>
-      <c r="K11" s="160"/>
-      <c r="L11" s="160"/>
-      <c r="M11" s="160"/>
-      <c r="N11" s="160"/>
-      <c r="O11" s="160"/>
-      <c r="P11" s="161"/>
-      <c r="Q11" s="162"/>
-      <c r="R11" s="163"/>
-      <c r="S11" s="163"/>
-      <c r="T11" s="163"/>
-      <c r="U11" s="163"/>
-      <c r="V11" s="163"/>
-      <c r="W11" s="163"/>
-      <c r="X11" s="163"/>
-      <c r="Y11" s="163"/>
-      <c r="Z11" s="163"/>
-      <c r="AA11" s="163"/>
-      <c r="AB11" s="163"/>
-      <c r="AC11" s="163"/>
-      <c r="AD11" s="163"/>
-      <c r="AE11" s="164"/>
-      <c r="AF11" s="159"/>
-      <c r="AG11" s="160"/>
-      <c r="AH11" s="160"/>
-      <c r="AI11" s="161"/>
+      <c r="B11" s="154"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="157"/>
+      <c r="F11" s="158"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="159"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="161"/>
+      <c r="L11" s="161"/>
+      <c r="M11" s="161"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="162"/>
+      <c r="Q11" s="163"/>
+      <c r="R11" s="164"/>
+      <c r="S11" s="164"/>
+      <c r="T11" s="164"/>
+      <c r="U11" s="164"/>
+      <c r="V11" s="164"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="164"/>
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="164"/>
+      <c r="AA11" s="164"/>
+      <c r="AB11" s="164"/>
+      <c r="AC11" s="164"/>
+      <c r="AD11" s="164"/>
+      <c r="AE11" s="165"/>
+      <c r="AF11" s="160"/>
+      <c r="AG11" s="161"/>
+      <c r="AH11" s="161"/>
+      <c r="AI11" s="162"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="156"/>
-      <c r="F12" s="157"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="154"/>
-      <c r="J12" s="159"/>
-      <c r="K12" s="160"/>
-      <c r="L12" s="160"/>
-      <c r="M12" s="160"/>
-      <c r="N12" s="160"/>
-      <c r="O12" s="160"/>
-      <c r="P12" s="161"/>
-      <c r="Q12" s="162"/>
-      <c r="R12" s="163"/>
-      <c r="S12" s="163"/>
-      <c r="T12" s="163"/>
-      <c r="U12" s="163"/>
-      <c r="V12" s="163"/>
-      <c r="W12" s="163"/>
-      <c r="X12" s="163"/>
-      <c r="Y12" s="163"/>
-      <c r="Z12" s="163"/>
-      <c r="AA12" s="163"/>
-      <c r="AB12" s="163"/>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="163"/>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="159"/>
-      <c r="AG12" s="160"/>
-      <c r="AH12" s="160"/>
-      <c r="AI12" s="161"/>
+      <c r="B12" s="154"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="157"/>
+      <c r="F12" s="158"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="159"/>
+      <c r="I12" s="155"/>
+      <c r="J12" s="160"/>
+      <c r="K12" s="161"/>
+      <c r="L12" s="161"/>
+      <c r="M12" s="161"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="162"/>
+      <c r="Q12" s="163"/>
+      <c r="R12" s="164"/>
+      <c r="S12" s="164"/>
+      <c r="T12" s="164"/>
+      <c r="U12" s="164"/>
+      <c r="V12" s="164"/>
+      <c r="W12" s="164"/>
+      <c r="X12" s="164"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="164"/>
+      <c r="AA12" s="164"/>
+      <c r="AB12" s="164"/>
+      <c r="AC12" s="164"/>
+      <c r="AD12" s="164"/>
+      <c r="AE12" s="165"/>
+      <c r="AF12" s="160"/>
+      <c r="AG12" s="161"/>
+      <c r="AH12" s="161"/>
+      <c r="AI12" s="162"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="154"/>
-      <c r="J13" s="159"/>
-      <c r="K13" s="160"/>
-      <c r="L13" s="160"/>
-      <c r="M13" s="160"/>
-      <c r="N13" s="160"/>
-      <c r="O13" s="160"/>
-      <c r="P13" s="161"/>
-      <c r="Q13" s="162"/>
-      <c r="R13" s="163"/>
-      <c r="S13" s="163"/>
-      <c r="T13" s="163"/>
-      <c r="U13" s="163"/>
-      <c r="V13" s="163"/>
-      <c r="W13" s="163"/>
-      <c r="X13" s="163"/>
-      <c r="Y13" s="163"/>
-      <c r="Z13" s="163"/>
-      <c r="AA13" s="163"/>
-      <c r="AB13" s="163"/>
-      <c r="AC13" s="163"/>
-      <c r="AD13" s="163"/>
-      <c r="AE13" s="164"/>
-      <c r="AF13" s="159"/>
-      <c r="AG13" s="160"/>
-      <c r="AH13" s="160"/>
-      <c r="AI13" s="161"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="155"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="157"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="154"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="155"/>
+      <c r="J13" s="160"/>
+      <c r="K13" s="161"/>
+      <c r="L13" s="161"/>
+      <c r="M13" s="161"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="162"/>
+      <c r="Q13" s="163"/>
+      <c r="R13" s="164"/>
+      <c r="S13" s="164"/>
+      <c r="T13" s="164"/>
+      <c r="U13" s="164"/>
+      <c r="V13" s="164"/>
+      <c r="W13" s="164"/>
+      <c r="X13" s="164"/>
+      <c r="Y13" s="164"/>
+      <c r="Z13" s="164"/>
+      <c r="AA13" s="164"/>
+      <c r="AB13" s="164"/>
+      <c r="AC13" s="164"/>
+      <c r="AD13" s="164"/>
+      <c r="AE13" s="165"/>
+      <c r="AF13" s="160"/>
+      <c r="AG13" s="161"/>
+      <c r="AH13" s="161"/>
+      <c r="AI13" s="162"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="153"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="154"/>
-      <c r="J14" s="159"/>
-      <c r="K14" s="160"/>
-      <c r="L14" s="160"/>
-      <c r="M14" s="160"/>
-      <c r="N14" s="160"/>
-      <c r="O14" s="160"/>
-      <c r="P14" s="161"/>
-      <c r="Q14" s="162"/>
-      <c r="R14" s="163"/>
-      <c r="S14" s="163"/>
-      <c r="T14" s="163"/>
-      <c r="U14" s="163"/>
-      <c r="V14" s="163"/>
-      <c r="W14" s="163"/>
-      <c r="X14" s="163"/>
-      <c r="Y14" s="163"/>
-      <c r="Z14" s="163"/>
-      <c r="AA14" s="163"/>
-      <c r="AB14" s="163"/>
-      <c r="AC14" s="163"/>
-      <c r="AD14" s="163"/>
-      <c r="AE14" s="164"/>
-      <c r="AF14" s="159"/>
-      <c r="AG14" s="160"/>
-      <c r="AH14" s="160"/>
-      <c r="AI14" s="161"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="157"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="154"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="155"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="161"/>
+      <c r="M14" s="161"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="162"/>
+      <c r="Q14" s="163"/>
+      <c r="R14" s="164"/>
+      <c r="S14" s="164"/>
+      <c r="T14" s="164"/>
+      <c r="U14" s="164"/>
+      <c r="V14" s="164"/>
+      <c r="W14" s="164"/>
+      <c r="X14" s="164"/>
+      <c r="Y14" s="164"/>
+      <c r="Z14" s="164"/>
+      <c r="AA14" s="164"/>
+      <c r="AB14" s="164"/>
+      <c r="AC14" s="164"/>
+      <c r="AD14" s="164"/>
+      <c r="AE14" s="165"/>
+      <c r="AF14" s="160"/>
+      <c r="AG14" s="161"/>
+      <c r="AH14" s="161"/>
+      <c r="AI14" s="162"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="156"/>
-      <c r="F15" s="157"/>
-      <c r="G15" s="153"/>
-      <c r="H15" s="158"/>
-      <c r="I15" s="154"/>
-      <c r="J15" s="159"/>
-      <c r="K15" s="160"/>
-      <c r="L15" s="160"/>
-      <c r="M15" s="160"/>
-      <c r="N15" s="160"/>
-      <c r="O15" s="160"/>
-      <c r="P15" s="161"/>
-      <c r="Q15" s="162"/>
-      <c r="R15" s="163"/>
-      <c r="S15" s="163"/>
-      <c r="T15" s="163"/>
-      <c r="U15" s="163"/>
-      <c r="V15" s="163"/>
-      <c r="W15" s="163"/>
-      <c r="X15" s="163"/>
-      <c r="Y15" s="163"/>
-      <c r="Z15" s="163"/>
-      <c r="AA15" s="163"/>
-      <c r="AB15" s="163"/>
-      <c r="AC15" s="163"/>
-      <c r="AD15" s="163"/>
-      <c r="AE15" s="164"/>
-      <c r="AF15" s="159"/>
-      <c r="AG15" s="160"/>
-      <c r="AH15" s="160"/>
-      <c r="AI15" s="161"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="157"/>
+      <c r="F15" s="158"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="155"/>
+      <c r="J15" s="160"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="161"/>
+      <c r="M15" s="161"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="162"/>
+      <c r="Q15" s="163"/>
+      <c r="R15" s="164"/>
+      <c r="S15" s="164"/>
+      <c r="T15" s="164"/>
+      <c r="U15" s="164"/>
+      <c r="V15" s="164"/>
+      <c r="W15" s="164"/>
+      <c r="X15" s="164"/>
+      <c r="Y15" s="164"/>
+      <c r="Z15" s="164"/>
+      <c r="AA15" s="164"/>
+      <c r="AB15" s="164"/>
+      <c r="AC15" s="164"/>
+      <c r="AD15" s="164"/>
+      <c r="AE15" s="165"/>
+      <c r="AF15" s="160"/>
+      <c r="AG15" s="161"/>
+      <c r="AH15" s="161"/>
+      <c r="AI15" s="162"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="156"/>
-      <c r="F16" s="157"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="158"/>
-      <c r="I16" s="154"/>
-      <c r="J16" s="159"/>
-      <c r="K16" s="160"/>
-      <c r="L16" s="160"/>
-      <c r="M16" s="160"/>
-      <c r="N16" s="160"/>
-      <c r="O16" s="160"/>
-      <c r="P16" s="161"/>
-      <c r="Q16" s="162"/>
-      <c r="R16" s="163"/>
-      <c r="S16" s="163"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="163"/>
-      <c r="W16" s="163"/>
-      <c r="X16" s="163"/>
-      <c r="Y16" s="163"/>
-      <c r="Z16" s="163"/>
-      <c r="AA16" s="163"/>
-      <c r="AB16" s="163"/>
-      <c r="AC16" s="163"/>
-      <c r="AD16" s="163"/>
-      <c r="AE16" s="164"/>
-      <c r="AF16" s="159"/>
-      <c r="AG16" s="160"/>
-      <c r="AH16" s="160"/>
-      <c r="AI16" s="161"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="155"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="157"/>
+      <c r="F16" s="158"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="159"/>
+      <c r="I16" s="155"/>
+      <c r="J16" s="160"/>
+      <c r="K16" s="161"/>
+      <c r="L16" s="161"/>
+      <c r="M16" s="161"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="162"/>
+      <c r="Q16" s="163"/>
+      <c r="R16" s="164"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="164"/>
+      <c r="U16" s="164"/>
+      <c r="V16" s="164"/>
+      <c r="W16" s="164"/>
+      <c r="X16" s="164"/>
+      <c r="Y16" s="164"/>
+      <c r="Z16" s="164"/>
+      <c r="AA16" s="164"/>
+      <c r="AB16" s="164"/>
+      <c r="AC16" s="164"/>
+      <c r="AD16" s="164"/>
+      <c r="AE16" s="165"/>
+      <c r="AF16" s="160"/>
+      <c r="AG16" s="161"/>
+      <c r="AH16" s="161"/>
+      <c r="AI16" s="162"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="156"/>
-      <c r="F17" s="157"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="158"/>
-      <c r="I17" s="154"/>
-      <c r="J17" s="159"/>
-      <c r="K17" s="160"/>
-      <c r="L17" s="160"/>
-      <c r="M17" s="160"/>
-      <c r="N17" s="160"/>
-      <c r="O17" s="160"/>
-      <c r="P17" s="161"/>
-      <c r="Q17" s="162"/>
-      <c r="R17" s="163"/>
-      <c r="S17" s="163"/>
-      <c r="T17" s="163"/>
-      <c r="U17" s="163"/>
-      <c r="V17" s="163"/>
-      <c r="W17" s="163"/>
-      <c r="X17" s="163"/>
-      <c r="Y17" s="163"/>
-      <c r="Z17" s="163"/>
-      <c r="AA17" s="163"/>
-      <c r="AB17" s="163"/>
-      <c r="AC17" s="163"/>
-      <c r="AD17" s="163"/>
-      <c r="AE17" s="164"/>
-      <c r="AF17" s="159"/>
-      <c r="AG17" s="160"/>
-      <c r="AH17" s="160"/>
-      <c r="AI17" s="161"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="155"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="157"/>
+      <c r="F17" s="158"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="159"/>
+      <c r="I17" s="155"/>
+      <c r="J17" s="160"/>
+      <c r="K17" s="161"/>
+      <c r="L17" s="161"/>
+      <c r="M17" s="161"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="162"/>
+      <c r="Q17" s="163"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="164"/>
+      <c r="T17" s="164"/>
+      <c r="U17" s="164"/>
+      <c r="V17" s="164"/>
+      <c r="W17" s="164"/>
+      <c r="X17" s="164"/>
+      <c r="Y17" s="164"/>
+      <c r="Z17" s="164"/>
+      <c r="AA17" s="164"/>
+      <c r="AB17" s="164"/>
+      <c r="AC17" s="164"/>
+      <c r="AD17" s="164"/>
+      <c r="AE17" s="165"/>
+      <c r="AF17" s="160"/>
+      <c r="AG17" s="161"/>
+      <c r="AH17" s="161"/>
+      <c r="AI17" s="162"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="156"/>
-      <c r="F18" s="157"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="158"/>
-      <c r="I18" s="154"/>
-      <c r="J18" s="159"/>
-      <c r="K18" s="160"/>
-      <c r="L18" s="160"/>
-      <c r="M18" s="160"/>
-      <c r="N18" s="160"/>
-      <c r="O18" s="160"/>
-      <c r="P18" s="161"/>
-      <c r="Q18" s="162"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="163"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="163"/>
-      <c r="Z18" s="163"/>
-      <c r="AA18" s="163"/>
-      <c r="AB18" s="163"/>
-      <c r="AC18" s="163"/>
-      <c r="AD18" s="163"/>
-      <c r="AE18" s="164"/>
-      <c r="AF18" s="159"/>
-      <c r="AG18" s="160"/>
-      <c r="AH18" s="160"/>
-      <c r="AI18" s="161"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="155"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="158"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="159"/>
+      <c r="I18" s="155"/>
+      <c r="J18" s="160"/>
+      <c r="K18" s="161"/>
+      <c r="L18" s="161"/>
+      <c r="M18" s="161"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="162"/>
+      <c r="Q18" s="163"/>
+      <c r="R18" s="164"/>
+      <c r="S18" s="164"/>
+      <c r="T18" s="164"/>
+      <c r="U18" s="164"/>
+      <c r="V18" s="164"/>
+      <c r="W18" s="164"/>
+      <c r="X18" s="164"/>
+      <c r="Y18" s="164"/>
+      <c r="Z18" s="164"/>
+      <c r="AA18" s="164"/>
+      <c r="AB18" s="164"/>
+      <c r="AC18" s="164"/>
+      <c r="AD18" s="164"/>
+      <c r="AE18" s="165"/>
+      <c r="AF18" s="160"/>
+      <c r="AG18" s="161"/>
+      <c r="AH18" s="161"/>
+      <c r="AI18" s="162"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="156"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="158"/>
-      <c r="I19" s="154"/>
-      <c r="J19" s="159"/>
-      <c r="K19" s="160"/>
-      <c r="L19" s="160"/>
-      <c r="M19" s="160"/>
-      <c r="N19" s="160"/>
-      <c r="O19" s="160"/>
-      <c r="P19" s="161"/>
-      <c r="Q19" s="162"/>
-      <c r="R19" s="163"/>
-      <c r="S19" s="163"/>
-      <c r="T19" s="163"/>
-      <c r="U19" s="163"/>
-      <c r="V19" s="163"/>
-      <c r="W19" s="163"/>
-      <c r="X19" s="163"/>
-      <c r="Y19" s="163"/>
-      <c r="Z19" s="163"/>
-      <c r="AA19" s="163"/>
-      <c r="AB19" s="163"/>
-      <c r="AC19" s="163"/>
-      <c r="AD19" s="163"/>
-      <c r="AE19" s="164"/>
-      <c r="AF19" s="159"/>
-      <c r="AG19" s="160"/>
-      <c r="AH19" s="160"/>
-      <c r="AI19" s="161"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="158"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="159"/>
+      <c r="I19" s="155"/>
+      <c r="J19" s="160"/>
+      <c r="K19" s="161"/>
+      <c r="L19" s="161"/>
+      <c r="M19" s="161"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="162"/>
+      <c r="Q19" s="163"/>
+      <c r="R19" s="164"/>
+      <c r="S19" s="164"/>
+      <c r="T19" s="164"/>
+      <c r="U19" s="164"/>
+      <c r="V19" s="164"/>
+      <c r="W19" s="164"/>
+      <c r="X19" s="164"/>
+      <c r="Y19" s="164"/>
+      <c r="Z19" s="164"/>
+      <c r="AA19" s="164"/>
+      <c r="AB19" s="164"/>
+      <c r="AC19" s="164"/>
+      <c r="AD19" s="164"/>
+      <c r="AE19" s="165"/>
+      <c r="AF19" s="160"/>
+      <c r="AG19" s="161"/>
+      <c r="AH19" s="161"/>
+      <c r="AI19" s="162"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="156"/>
-      <c r="F20" s="157"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="158"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="159"/>
-      <c r="K20" s="160"/>
-      <c r="L20" s="160"/>
-      <c r="M20" s="160"/>
-      <c r="N20" s="160"/>
-      <c r="O20" s="160"/>
-      <c r="P20" s="161"/>
-      <c r="Q20" s="162"/>
-      <c r="R20" s="163"/>
-      <c r="S20" s="163"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="163"/>
-      <c r="V20" s="163"/>
-      <c r="W20" s="163"/>
-      <c r="X20" s="163"/>
-      <c r="Y20" s="163"/>
-      <c r="Z20" s="163"/>
-      <c r="AA20" s="163"/>
-      <c r="AB20" s="163"/>
-      <c r="AC20" s="163"/>
-      <c r="AD20" s="163"/>
-      <c r="AE20" s="164"/>
-      <c r="AF20" s="159"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="160"/>
-      <c r="AI20" s="161"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="155"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="157"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="159"/>
+      <c r="I20" s="155"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="161"/>
+      <c r="L20" s="161"/>
+      <c r="M20" s="161"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="162"/>
+      <c r="Q20" s="163"/>
+      <c r="R20" s="164"/>
+      <c r="S20" s="164"/>
+      <c r="T20" s="164"/>
+      <c r="U20" s="164"/>
+      <c r="V20" s="164"/>
+      <c r="W20" s="164"/>
+      <c r="X20" s="164"/>
+      <c r="Y20" s="164"/>
+      <c r="Z20" s="164"/>
+      <c r="AA20" s="164"/>
+      <c r="AB20" s="164"/>
+      <c r="AC20" s="164"/>
+      <c r="AD20" s="164"/>
+      <c r="AE20" s="165"/>
+      <c r="AF20" s="160"/>
+      <c r="AG20" s="161"/>
+      <c r="AH20" s="161"/>
+      <c r="AI20" s="162"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="156"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="153"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="154"/>
-      <c r="J21" s="159"/>
-      <c r="K21" s="160"/>
-      <c r="L21" s="160"/>
-      <c r="M21" s="160"/>
-      <c r="N21" s="160"/>
-      <c r="O21" s="160"/>
-      <c r="P21" s="161"/>
-      <c r="Q21" s="162"/>
-      <c r="R21" s="163"/>
-      <c r="S21" s="163"/>
-      <c r="T21" s="163"/>
-      <c r="U21" s="163"/>
-      <c r="V21" s="163"/>
-      <c r="W21" s="163"/>
-      <c r="X21" s="163"/>
-      <c r="Y21" s="163"/>
-      <c r="Z21" s="163"/>
-      <c r="AA21" s="163"/>
-      <c r="AB21" s="163"/>
-      <c r="AC21" s="163"/>
-      <c r="AD21" s="163"/>
-      <c r="AE21" s="164"/>
-      <c r="AF21" s="159"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="160"/>
-      <c r="AI21" s="161"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="157"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="155"/>
+      <c r="J21" s="160"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="162"/>
+      <c r="Q21" s="163"/>
+      <c r="R21" s="164"/>
+      <c r="S21" s="164"/>
+      <c r="T21" s="164"/>
+      <c r="U21" s="164"/>
+      <c r="V21" s="164"/>
+      <c r="W21" s="164"/>
+      <c r="X21" s="164"/>
+      <c r="Y21" s="164"/>
+      <c r="Z21" s="164"/>
+      <c r="AA21" s="164"/>
+      <c r="AB21" s="164"/>
+      <c r="AC21" s="164"/>
+      <c r="AD21" s="164"/>
+      <c r="AE21" s="165"/>
+      <c r="AF21" s="160"/>
+      <c r="AG21" s="161"/>
+      <c r="AH21" s="161"/>
+      <c r="AI21" s="162"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="156"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="153"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="154"/>
-      <c r="J22" s="159"/>
-      <c r="K22" s="160"/>
-      <c r="L22" s="160"/>
-      <c r="M22" s="160"/>
-      <c r="N22" s="160"/>
-      <c r="O22" s="160"/>
-      <c r="P22" s="161"/>
-      <c r="Q22" s="162"/>
-      <c r="R22" s="163"/>
-      <c r="S22" s="163"/>
-      <c r="T22" s="163"/>
-      <c r="U22" s="163"/>
-      <c r="V22" s="163"/>
-      <c r="W22" s="163"/>
-      <c r="X22" s="163"/>
-      <c r="Y22" s="163"/>
-      <c r="Z22" s="163"/>
-      <c r="AA22" s="163"/>
-      <c r="AB22" s="163"/>
-      <c r="AC22" s="163"/>
-      <c r="AD22" s="163"/>
-      <c r="AE22" s="164"/>
-      <c r="AF22" s="159"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="160"/>
-      <c r="AI22" s="161"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="155"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="157"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="154"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="155"/>
+      <c r="J22" s="160"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="162"/>
+      <c r="Q22" s="163"/>
+      <c r="R22" s="164"/>
+      <c r="S22" s="164"/>
+      <c r="T22" s="164"/>
+      <c r="U22" s="164"/>
+      <c r="V22" s="164"/>
+      <c r="W22" s="164"/>
+      <c r="X22" s="164"/>
+      <c r="Y22" s="164"/>
+      <c r="Z22" s="164"/>
+      <c r="AA22" s="164"/>
+      <c r="AB22" s="164"/>
+      <c r="AC22" s="164"/>
+      <c r="AD22" s="164"/>
+      <c r="AE22" s="165"/>
+      <c r="AF22" s="160"/>
+      <c r="AG22" s="161"/>
+      <c r="AH22" s="161"/>
+      <c r="AI22" s="162"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="156"/>
-      <c r="F23" s="157"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="158"/>
-      <c r="I23" s="154"/>
-      <c r="J23" s="159"/>
-      <c r="K23" s="160"/>
-      <c r="L23" s="160"/>
-      <c r="M23" s="160"/>
-      <c r="N23" s="160"/>
-      <c r="O23" s="160"/>
-      <c r="P23" s="161"/>
-      <c r="Q23" s="162"/>
-      <c r="R23" s="163"/>
-      <c r="S23" s="163"/>
-      <c r="T23" s="163"/>
-      <c r="U23" s="163"/>
-      <c r="V23" s="163"/>
-      <c r="W23" s="163"/>
-      <c r="X23" s="163"/>
-      <c r="Y23" s="163"/>
-      <c r="Z23" s="163"/>
-      <c r="AA23" s="163"/>
-      <c r="AB23" s="163"/>
-      <c r="AC23" s="163"/>
-      <c r="AD23" s="163"/>
-      <c r="AE23" s="164"/>
-      <c r="AF23" s="159"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="160"/>
-      <c r="AI23" s="161"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="155"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="157"/>
+      <c r="F23" s="158"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="159"/>
+      <c r="I23" s="155"/>
+      <c r="J23" s="160"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="162"/>
+      <c r="Q23" s="163"/>
+      <c r="R23" s="164"/>
+      <c r="S23" s="164"/>
+      <c r="T23" s="164"/>
+      <c r="U23" s="164"/>
+      <c r="V23" s="164"/>
+      <c r="W23" s="164"/>
+      <c r="X23" s="164"/>
+      <c r="Y23" s="164"/>
+      <c r="Z23" s="164"/>
+      <c r="AA23" s="164"/>
+      <c r="AB23" s="164"/>
+      <c r="AC23" s="164"/>
+      <c r="AD23" s="164"/>
+      <c r="AE23" s="165"/>
+      <c r="AF23" s="160"/>
+      <c r="AG23" s="161"/>
+      <c r="AH23" s="161"/>
+      <c r="AI23" s="162"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="156"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="158"/>
-      <c r="I24" s="154"/>
-      <c r="J24" s="159"/>
-      <c r="K24" s="160"/>
-      <c r="L24" s="160"/>
-      <c r="M24" s="160"/>
-      <c r="N24" s="160"/>
-      <c r="O24" s="160"/>
-      <c r="P24" s="161"/>
-      <c r="Q24" s="162"/>
-      <c r="R24" s="163"/>
-      <c r="S24" s="163"/>
-      <c r="T24" s="163"/>
-      <c r="U24" s="163"/>
-      <c r="V24" s="163"/>
-      <c r="W24" s="163"/>
-      <c r="X24" s="163"/>
-      <c r="Y24" s="163"/>
-      <c r="Z24" s="163"/>
-      <c r="AA24" s="163"/>
-      <c r="AB24" s="163"/>
-      <c r="AC24" s="163"/>
-      <c r="AD24" s="163"/>
-      <c r="AE24" s="164"/>
-      <c r="AF24" s="159"/>
-      <c r="AG24" s="160"/>
-      <c r="AH24" s="160"/>
-      <c r="AI24" s="161"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="155"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="157"/>
+      <c r="F24" s="158"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="159"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="160"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="162"/>
+      <c r="Q24" s="163"/>
+      <c r="R24" s="164"/>
+      <c r="S24" s="164"/>
+      <c r="T24" s="164"/>
+      <c r="U24" s="164"/>
+      <c r="V24" s="164"/>
+      <c r="W24" s="164"/>
+      <c r="X24" s="164"/>
+      <c r="Y24" s="164"/>
+      <c r="Z24" s="164"/>
+      <c r="AA24" s="164"/>
+      <c r="AB24" s="164"/>
+      <c r="AC24" s="164"/>
+      <c r="AD24" s="164"/>
+      <c r="AE24" s="165"/>
+      <c r="AF24" s="160"/>
+      <c r="AG24" s="161"/>
+      <c r="AH24" s="161"/>
+      <c r="AI24" s="162"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="156"/>
-      <c r="F25" s="157"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="154"/>
-      <c r="J25" s="159"/>
-      <c r="K25" s="160"/>
-      <c r="L25" s="160"/>
-      <c r="M25" s="160"/>
-      <c r="N25" s="160"/>
-      <c r="O25" s="160"/>
-      <c r="P25" s="161"/>
-      <c r="Q25" s="162"/>
-      <c r="R25" s="163"/>
-      <c r="S25" s="163"/>
-      <c r="T25" s="163"/>
-      <c r="U25" s="163"/>
-      <c r="V25" s="163"/>
-      <c r="W25" s="163"/>
-      <c r="X25" s="163"/>
-      <c r="Y25" s="163"/>
-      <c r="Z25" s="163"/>
-      <c r="AA25" s="163"/>
-      <c r="AB25" s="163"/>
-      <c r="AC25" s="163"/>
-      <c r="AD25" s="163"/>
-      <c r="AE25" s="164"/>
-      <c r="AF25" s="159"/>
-      <c r="AG25" s="160"/>
-      <c r="AH25" s="160"/>
-      <c r="AI25" s="161"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="155"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="157"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="159"/>
+      <c r="I25" s="155"/>
+      <c r="J25" s="160"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="162"/>
+      <c r="Q25" s="163"/>
+      <c r="R25" s="164"/>
+      <c r="S25" s="164"/>
+      <c r="T25" s="164"/>
+      <c r="U25" s="164"/>
+      <c r="V25" s="164"/>
+      <c r="W25" s="164"/>
+      <c r="X25" s="164"/>
+      <c r="Y25" s="164"/>
+      <c r="Z25" s="164"/>
+      <c r="AA25" s="164"/>
+      <c r="AB25" s="164"/>
+      <c r="AC25" s="164"/>
+      <c r="AD25" s="164"/>
+      <c r="AE25" s="165"/>
+      <c r="AF25" s="160"/>
+      <c r="AG25" s="161"/>
+      <c r="AH25" s="161"/>
+      <c r="AI25" s="162"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="156"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="158"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="159"/>
-      <c r="K26" s="160"/>
-      <c r="L26" s="160"/>
-      <c r="M26" s="160"/>
-      <c r="N26" s="160"/>
-      <c r="O26" s="160"/>
-      <c r="P26" s="161"/>
-      <c r="Q26" s="162"/>
-      <c r="R26" s="163"/>
-      <c r="S26" s="163"/>
-      <c r="T26" s="163"/>
-      <c r="U26" s="163"/>
-      <c r="V26" s="163"/>
-      <c r="W26" s="163"/>
-      <c r="X26" s="163"/>
-      <c r="Y26" s="163"/>
-      <c r="Z26" s="163"/>
-      <c r="AA26" s="163"/>
-      <c r="AB26" s="163"/>
-      <c r="AC26" s="163"/>
-      <c r="AD26" s="163"/>
-      <c r="AE26" s="164"/>
-      <c r="AF26" s="159"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="160"/>
-      <c r="AI26" s="161"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="155"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="158"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="159"/>
+      <c r="I26" s="155"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="162"/>
+      <c r="Q26" s="163"/>
+      <c r="R26" s="164"/>
+      <c r="S26" s="164"/>
+      <c r="T26" s="164"/>
+      <c r="U26" s="164"/>
+      <c r="V26" s="164"/>
+      <c r="W26" s="164"/>
+      <c r="X26" s="164"/>
+      <c r="Y26" s="164"/>
+      <c r="Z26" s="164"/>
+      <c r="AA26" s="164"/>
+      <c r="AB26" s="164"/>
+      <c r="AC26" s="164"/>
+      <c r="AD26" s="164"/>
+      <c r="AE26" s="165"/>
+      <c r="AF26" s="160"/>
+      <c r="AG26" s="161"/>
+      <c r="AH26" s="161"/>
+      <c r="AI26" s="162"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="156"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="158"/>
-      <c r="I27" s="154"/>
-      <c r="J27" s="159"/>
-      <c r="K27" s="160"/>
-      <c r="L27" s="160"/>
-      <c r="M27" s="160"/>
-      <c r="N27" s="160"/>
-      <c r="O27" s="160"/>
-      <c r="P27" s="161"/>
-      <c r="Q27" s="162"/>
-      <c r="R27" s="163"/>
-      <c r="S27" s="163"/>
-      <c r="T27" s="163"/>
-      <c r="U27" s="163"/>
-      <c r="V27" s="163"/>
-      <c r="W27" s="163"/>
-      <c r="X27" s="163"/>
-      <c r="Y27" s="163"/>
-      <c r="Z27" s="163"/>
-      <c r="AA27" s="163"/>
-      <c r="AB27" s="163"/>
-      <c r="AC27" s="163"/>
-      <c r="AD27" s="163"/>
-      <c r="AE27" s="164"/>
-      <c r="AF27" s="159"/>
-      <c r="AG27" s="160"/>
-      <c r="AH27" s="160"/>
-      <c r="AI27" s="161"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="155"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="158"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="159"/>
+      <c r="I27" s="155"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="161"/>
+      <c r="L27" s="161"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="162"/>
+      <c r="Q27" s="163"/>
+      <c r="R27" s="164"/>
+      <c r="S27" s="164"/>
+      <c r="T27" s="164"/>
+      <c r="U27" s="164"/>
+      <c r="V27" s="164"/>
+      <c r="W27" s="164"/>
+      <c r="X27" s="164"/>
+      <c r="Y27" s="164"/>
+      <c r="Z27" s="164"/>
+      <c r="AA27" s="164"/>
+      <c r="AB27" s="164"/>
+      <c r="AC27" s="164"/>
+      <c r="AD27" s="164"/>
+      <c r="AE27" s="165"/>
+      <c r="AF27" s="160"/>
+      <c r="AG27" s="161"/>
+      <c r="AH27" s="161"/>
+      <c r="AI27" s="162"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="158"/>
-      <c r="I28" s="154"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="160"/>
-      <c r="L28" s="160"/>
-      <c r="M28" s="160"/>
-      <c r="N28" s="160"/>
-      <c r="O28" s="160"/>
-      <c r="P28" s="161"/>
-      <c r="Q28" s="162"/>
-      <c r="R28" s="163"/>
-      <c r="S28" s="163"/>
-      <c r="T28" s="163"/>
-      <c r="U28" s="163"/>
-      <c r="V28" s="163"/>
-      <c r="W28" s="163"/>
-      <c r="X28" s="163"/>
-      <c r="Y28" s="163"/>
-      <c r="Z28" s="163"/>
-      <c r="AA28" s="163"/>
-      <c r="AB28" s="163"/>
-      <c r="AC28" s="163"/>
-      <c r="AD28" s="163"/>
-      <c r="AE28" s="164"/>
-      <c r="AF28" s="159"/>
-      <c r="AG28" s="160"/>
-      <c r="AH28" s="160"/>
-      <c r="AI28" s="161"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="155"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="157"/>
+      <c r="F28" s="158"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="159"/>
+      <c r="I28" s="155"/>
+      <c r="J28" s="160"/>
+      <c r="K28" s="161"/>
+      <c r="L28" s="161"/>
+      <c r="M28" s="161"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="162"/>
+      <c r="Q28" s="163"/>
+      <c r="R28" s="164"/>
+      <c r="S28" s="164"/>
+      <c r="T28" s="164"/>
+      <c r="U28" s="164"/>
+      <c r="V28" s="164"/>
+      <c r="W28" s="164"/>
+      <c r="X28" s="164"/>
+      <c r="Y28" s="164"/>
+      <c r="Z28" s="164"/>
+      <c r="AA28" s="164"/>
+      <c r="AB28" s="164"/>
+      <c r="AC28" s="164"/>
+      <c r="AD28" s="164"/>
+      <c r="AE28" s="165"/>
+      <c r="AF28" s="160"/>
+      <c r="AG28" s="161"/>
+      <c r="AH28" s="161"/>
+      <c r="AI28" s="162"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="156"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="153"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="159"/>
-      <c r="K29" s="160"/>
-      <c r="L29" s="160"/>
-      <c r="M29" s="160"/>
-      <c r="N29" s="160"/>
-      <c r="O29" s="160"/>
-      <c r="P29" s="161"/>
-      <c r="Q29" s="162"/>
-      <c r="R29" s="163"/>
-      <c r="S29" s="163"/>
-      <c r="T29" s="163"/>
-      <c r="U29" s="163"/>
-      <c r="V29" s="163"/>
-      <c r="W29" s="163"/>
-      <c r="X29" s="163"/>
-      <c r="Y29" s="163"/>
-      <c r="Z29" s="163"/>
-      <c r="AA29" s="163"/>
-      <c r="AB29" s="163"/>
-      <c r="AC29" s="163"/>
-      <c r="AD29" s="163"/>
-      <c r="AE29" s="164"/>
-      <c r="AF29" s="159"/>
-      <c r="AG29" s="160"/>
-      <c r="AH29" s="160"/>
-      <c r="AI29" s="161"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="155"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="157"/>
+      <c r="F29" s="158"/>
+      <c r="G29" s="154"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="155"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="161"/>
+      <c r="L29" s="161"/>
+      <c r="M29" s="161"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="162"/>
+      <c r="Q29" s="163"/>
+      <c r="R29" s="164"/>
+      <c r="S29" s="164"/>
+      <c r="T29" s="164"/>
+      <c r="U29" s="164"/>
+      <c r="V29" s="164"/>
+      <c r="W29" s="164"/>
+      <c r="X29" s="164"/>
+      <c r="Y29" s="164"/>
+      <c r="Z29" s="164"/>
+      <c r="AA29" s="164"/>
+      <c r="AB29" s="164"/>
+      <c r="AC29" s="164"/>
+      <c r="AD29" s="164"/>
+      <c r="AE29" s="165"/>
+      <c r="AF29" s="160"/>
+      <c r="AG29" s="161"/>
+      <c r="AH29" s="161"/>
+      <c r="AI29" s="162"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="156"/>
-      <c r="F30" s="157"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="154"/>
-      <c r="J30" s="159"/>
-      <c r="K30" s="160"/>
-      <c r="L30" s="160"/>
-      <c r="M30" s="160"/>
-      <c r="N30" s="160"/>
-      <c r="O30" s="160"/>
-      <c r="P30" s="161"/>
-      <c r="Q30" s="162"/>
-      <c r="R30" s="163"/>
-      <c r="S30" s="163"/>
-      <c r="T30" s="163"/>
-      <c r="U30" s="163"/>
-      <c r="V30" s="163"/>
-      <c r="W30" s="163"/>
-      <c r="X30" s="163"/>
-      <c r="Y30" s="163"/>
-      <c r="Z30" s="163"/>
-      <c r="AA30" s="163"/>
-      <c r="AB30" s="163"/>
-      <c r="AC30" s="163"/>
-      <c r="AD30" s="163"/>
-      <c r="AE30" s="164"/>
-      <c r="AF30" s="159"/>
-      <c r="AG30" s="160"/>
-      <c r="AH30" s="160"/>
-      <c r="AI30" s="161"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="155"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="157"/>
+      <c r="F30" s="158"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="160"/>
+      <c r="K30" s="161"/>
+      <c r="L30" s="161"/>
+      <c r="M30" s="161"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="162"/>
+      <c r="Q30" s="163"/>
+      <c r="R30" s="164"/>
+      <c r="S30" s="164"/>
+      <c r="T30" s="164"/>
+      <c r="U30" s="164"/>
+      <c r="V30" s="164"/>
+      <c r="W30" s="164"/>
+      <c r="X30" s="164"/>
+      <c r="Y30" s="164"/>
+      <c r="Z30" s="164"/>
+      <c r="AA30" s="164"/>
+      <c r="AB30" s="164"/>
+      <c r="AC30" s="164"/>
+      <c r="AD30" s="164"/>
+      <c r="AE30" s="165"/>
+      <c r="AF30" s="160"/>
+      <c r="AG30" s="161"/>
+      <c r="AH30" s="161"/>
+      <c r="AI30" s="162"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="156"/>
-      <c r="F31" s="157"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="158"/>
-      <c r="I31" s="154"/>
-      <c r="J31" s="159"/>
-      <c r="K31" s="160"/>
-      <c r="L31" s="160"/>
-      <c r="M31" s="160"/>
-      <c r="N31" s="160"/>
-      <c r="O31" s="160"/>
-      <c r="P31" s="161"/>
-      <c r="Q31" s="162"/>
-      <c r="R31" s="163"/>
-      <c r="S31" s="163"/>
-      <c r="T31" s="163"/>
-      <c r="U31" s="163"/>
-      <c r="V31" s="163"/>
-      <c r="W31" s="163"/>
-      <c r="X31" s="163"/>
-      <c r="Y31" s="163"/>
-      <c r="Z31" s="163"/>
-      <c r="AA31" s="163"/>
-      <c r="AB31" s="163"/>
-      <c r="AC31" s="163"/>
-      <c r="AD31" s="163"/>
-      <c r="AE31" s="164"/>
-      <c r="AF31" s="159"/>
-      <c r="AG31" s="160"/>
-      <c r="AH31" s="160"/>
-      <c r="AI31" s="161"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="155"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="157"/>
+      <c r="F31" s="158"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="160"/>
+      <c r="K31" s="161"/>
+      <c r="L31" s="161"/>
+      <c r="M31" s="161"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="162"/>
+      <c r="Q31" s="163"/>
+      <c r="R31" s="164"/>
+      <c r="S31" s="164"/>
+      <c r="T31" s="164"/>
+      <c r="U31" s="164"/>
+      <c r="V31" s="164"/>
+      <c r="W31" s="164"/>
+      <c r="X31" s="164"/>
+      <c r="Y31" s="164"/>
+      <c r="Z31" s="164"/>
+      <c r="AA31" s="164"/>
+      <c r="AB31" s="164"/>
+      <c r="AC31" s="164"/>
+      <c r="AD31" s="164"/>
+      <c r="AE31" s="165"/>
+      <c r="AF31" s="160"/>
+      <c r="AG31" s="161"/>
+      <c r="AH31" s="161"/>
+      <c r="AI31" s="162"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="156"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="158"/>
-      <c r="I32" s="154"/>
-      <c r="J32" s="159"/>
-      <c r="K32" s="165"/>
-      <c r="L32" s="160"/>
-      <c r="M32" s="160"/>
-      <c r="N32" s="160"/>
-      <c r="O32" s="160"/>
-      <c r="P32" s="161"/>
-      <c r="Q32" s="162"/>
-      <c r="R32" s="163"/>
-      <c r="S32" s="163"/>
-      <c r="T32" s="163"/>
-      <c r="U32" s="163"/>
-      <c r="V32" s="163"/>
-      <c r="W32" s="163"/>
-      <c r="X32" s="163"/>
-      <c r="Y32" s="163"/>
-      <c r="Z32" s="163"/>
-      <c r="AA32" s="163"/>
-      <c r="AB32" s="163"/>
-      <c r="AC32" s="163"/>
-      <c r="AD32" s="163"/>
-      <c r="AE32" s="164"/>
-      <c r="AF32" s="159"/>
-      <c r="AG32" s="160"/>
-      <c r="AH32" s="160"/>
-      <c r="AI32" s="161"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="155"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="157"/>
+      <c r="F32" s="158"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="160"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="161"/>
+      <c r="M32" s="161"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="162"/>
+      <c r="Q32" s="163"/>
+      <c r="R32" s="164"/>
+      <c r="S32" s="164"/>
+      <c r="T32" s="164"/>
+      <c r="U32" s="164"/>
+      <c r="V32" s="164"/>
+      <c r="W32" s="164"/>
+      <c r="X32" s="164"/>
+      <c r="Y32" s="164"/>
+      <c r="Z32" s="164"/>
+      <c r="AA32" s="164"/>
+      <c r="AB32" s="164"/>
+      <c r="AC32" s="164"/>
+      <c r="AD32" s="164"/>
+      <c r="AE32" s="165"/>
+      <c r="AF32" s="160"/>
+      <c r="AG32" s="161"/>
+      <c r="AH32" s="161"/>
+      <c r="AI32" s="162"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="156"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="158"/>
-      <c r="I33" s="154"/>
-      <c r="J33" s="159"/>
-      <c r="K33" s="160"/>
-      <c r="L33" s="160"/>
-      <c r="M33" s="160"/>
-      <c r="N33" s="160"/>
-      <c r="O33" s="160"/>
-      <c r="P33" s="161"/>
-      <c r="Q33" s="162"/>
-      <c r="R33" s="163"/>
-      <c r="S33" s="163"/>
-      <c r="T33" s="163"/>
-      <c r="U33" s="163"/>
-      <c r="V33" s="163"/>
-      <c r="W33" s="163"/>
-      <c r="X33" s="163"/>
-      <c r="Y33" s="163"/>
-      <c r="Z33" s="163"/>
-      <c r="AA33" s="163"/>
-      <c r="AB33" s="163"/>
-      <c r="AC33" s="163"/>
-      <c r="AD33" s="163"/>
-      <c r="AE33" s="164"/>
-      <c r="AF33" s="159"/>
-      <c r="AG33" s="160"/>
-      <c r="AH33" s="160"/>
-      <c r="AI33" s="161"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="155"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="157"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="159"/>
+      <c r="I33" s="155"/>
+      <c r="J33" s="160"/>
+      <c r="K33" s="161"/>
+      <c r="L33" s="161"/>
+      <c r="M33" s="161"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="162"/>
+      <c r="Q33" s="163"/>
+      <c r="R33" s="164"/>
+      <c r="S33" s="164"/>
+      <c r="T33" s="164"/>
+      <c r="U33" s="164"/>
+      <c r="V33" s="164"/>
+      <c r="W33" s="164"/>
+      <c r="X33" s="164"/>
+      <c r="Y33" s="164"/>
+      <c r="Z33" s="164"/>
+      <c r="AA33" s="164"/>
+      <c r="AB33" s="164"/>
+      <c r="AC33" s="164"/>
+      <c r="AD33" s="164"/>
+      <c r="AE33" s="165"/>
+      <c r="AF33" s="160"/>
+      <c r="AG33" s="161"/>
+      <c r="AH33" s="161"/>
+      <c r="AI33" s="162"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
@@ -8418,157 +8418,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="231" t="s">
+      <c r="A1" s="232" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="232"/>
-      <c r="C1" s="232"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="221" t="str">
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="234" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="235" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="235"/>
-      <c r="Q1" s="235"/>
-      <c r="R1" s="236"/>
-      <c r="S1" s="222" t="str">
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="237"/>
+      <c r="S1" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="231" t="s">
+      <c r="T1" s="224"/>
+      <c r="U1" s="224"/>
+      <c r="V1" s="224"/>
+      <c r="W1" s="224"/>
+      <c r="X1" s="224"/>
+      <c r="Y1" s="224"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="232" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="233"/>
-      <c r="AC1" s="183" t="str">
+      <c r="AB1" s="234"/>
+      <c r="AC1" s="184" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="218">
+      <c r="AD1" s="182"/>
+      <c r="AE1" s="182"/>
+      <c r="AF1" s="183"/>
+      <c r="AG1" s="219">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="219"/>
-      <c r="AI1" s="220"/>
+      <c r="AH1" s="220"/>
+      <c r="AI1" s="221"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="231" t="s">
+      <c r="A2" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="232"/>
-      <c r="C2" s="232"/>
-      <c r="D2" s="233"/>
-      <c r="E2" s="221" t="str">
+      <c r="B2" s="233"/>
+      <c r="C2" s="233"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="237"/>
-      <c r="P2" s="238"/>
-      <c r="Q2" s="238"/>
-      <c r="R2" s="239"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="231" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="238"/>
+      <c r="P2" s="239"/>
+      <c r="Q2" s="239"/>
+      <c r="R2" s="240"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="227"/>
+      <c r="V2" s="227"/>
+      <c r="W2" s="227"/>
+      <c r="X2" s="227"/>
+      <c r="Y2" s="227"/>
+      <c r="Z2" s="228"/>
+      <c r="AA2" s="232" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="233"/>
-      <c r="AC2" s="183" t="str">
+      <c r="AB2" s="234"/>
+      <c r="AC2" s="184" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="218" t="str">
+      <c r="AD2" s="182"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="219"/>
-      <c r="AI2" s="220"/>
+      <c r="AH2" s="220"/>
+      <c r="AI2" s="221"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="231" t="s">
+      <c r="A3" s="232" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="232"/>
-      <c r="C3" s="232"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="221" t="str">
+      <c r="B3" s="233"/>
+      <c r="C3" s="233"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="240"/>
-      <c r="P3" s="241"/>
-      <c r="Q3" s="241"/>
-      <c r="R3" s="242"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="231"/>
-      <c r="AB3" s="233"/>
-      <c r="AC3" s="183" t="str">
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="241"/>
+      <c r="P3" s="242"/>
+      <c r="Q3" s="242"/>
+      <c r="R3" s="243"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="230"/>
+      <c r="U3" s="230"/>
+      <c r="V3" s="230"/>
+      <c r="W3" s="230"/>
+      <c r="X3" s="230"/>
+      <c r="Y3" s="230"/>
+      <c r="Z3" s="231"/>
+      <c r="AA3" s="232"/>
+      <c r="AB3" s="234"/>
+      <c r="AC3" s="184" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="218" t="str">
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="219" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="219"/>
-      <c r="AI3" s="220"/>
+      <c r="AH3" s="220"/>
+      <c r="AI3" s="221"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="44"/>
@@ -10080,157 +10080,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="221" t="str">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="200" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="222" t="str">
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="197" t="s">
+      <c r="T1" s="224"/>
+      <c r="U1" s="224"/>
+      <c r="V1" s="224"/>
+      <c r="W1" s="224"/>
+      <c r="X1" s="224"/>
+      <c r="Y1" s="224"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="183" t="str">
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="184" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="253">
+      <c r="AD1" s="182"/>
+      <c r="AE1" s="182"/>
+      <c r="AF1" s="183"/>
+      <c r="AG1" s="254">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="254"/>
-      <c r="AI1" s="255"/>
+      <c r="AH1" s="255"/>
+      <c r="AI1" s="256"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="221" t="str">
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="197" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="227"/>
+      <c r="V2" s="227"/>
+      <c r="W2" s="227"/>
+      <c r="X2" s="227"/>
+      <c r="Y2" s="227"/>
+      <c r="Z2" s="228"/>
+      <c r="AA2" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="183" t="str">
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="184" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="253" t="str">
+      <c r="AD2" s="182"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="254"/>
-      <c r="AI2" s="255"/>
+      <c r="AH2" s="255"/>
+      <c r="AI2" s="256"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="221" t="str">
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="183" t="str">
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="230"/>
+      <c r="U3" s="230"/>
+      <c r="V3" s="230"/>
+      <c r="W3" s="230"/>
+      <c r="X3" s="230"/>
+      <c r="Y3" s="230"/>
+      <c r="Z3" s="231"/>
+      <c r="AA3" s="198"/>
+      <c r="AB3" s="200"/>
+      <c r="AC3" s="184" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="253" t="str">
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="254"/>
-      <c r="AI3" s="255"/>
+      <c r="AH3" s="255"/>
+      <c r="AI3" s="256"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1">
       <c r="A4" s="30"/>
@@ -10386,92 +10386,92 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="246" t="s">
+      <c r="D8" s="247" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="247"/>
-      <c r="F8" s="247"/>
-      <c r="G8" s="248"/>
-      <c r="H8" s="256" t="s">
+      <c r="E8" s="248"/>
+      <c r="F8" s="248"/>
+      <c r="G8" s="249"/>
+      <c r="H8" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="257"/>
-      <c r="J8" s="257"/>
-      <c r="K8" s="257"/>
-      <c r="L8" s="257"/>
-      <c r="M8" s="257"/>
-      <c r="N8" s="257"/>
-      <c r="O8" s="257"/>
-      <c r="P8" s="257"/>
-      <c r="Q8" s="257"/>
-      <c r="R8" s="257"/>
-      <c r="S8" s="257"/>
-      <c r="T8" s="257"/>
-      <c r="U8" s="257"/>
-      <c r="V8" s="257"/>
-      <c r="W8" s="257"/>
-      <c r="X8" s="257"/>
-      <c r="Y8" s="257"/>
-      <c r="Z8" s="257"/>
-      <c r="AA8" s="257"/>
-      <c r="AB8" s="257"/>
-      <c r="AC8" s="257"/>
-      <c r="AD8" s="257"/>
-      <c r="AE8" s="257"/>
-      <c r="AF8" s="257"/>
-      <c r="AG8" s="257"/>
-      <c r="AH8" s="257"/>
+      <c r="I8" s="258"/>
+      <c r="J8" s="258"/>
+      <c r="K8" s="258"/>
+      <c r="L8" s="258"/>
+      <c r="M8" s="258"/>
+      <c r="N8" s="258"/>
+      <c r="O8" s="258"/>
+      <c r="P8" s="258"/>
+      <c r="Q8" s="258"/>
+      <c r="R8" s="258"/>
+      <c r="S8" s="258"/>
+      <c r="T8" s="258"/>
+      <c r="U8" s="258"/>
+      <c r="V8" s="258"/>
+      <c r="W8" s="258"/>
+      <c r="X8" s="258"/>
+      <c r="Y8" s="258"/>
+      <c r="Z8" s="258"/>
+      <c r="AA8" s="258"/>
+      <c r="AB8" s="258"/>
+      <c r="AC8" s="258"/>
+      <c r="AD8" s="258"/>
+      <c r="AE8" s="258"/>
+      <c r="AF8" s="258"/>
+      <c r="AG8" s="258"/>
+      <c r="AH8" s="258"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="246" t="s">
+      <c r="D9" s="247" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="247"/>
-      <c r="F9" s="247"/>
-      <c r="G9" s="248"/>
-      <c r="H9" s="252" t="s">
+      <c r="E9" s="248"/>
+      <c r="F9" s="248"/>
+      <c r="G9" s="249"/>
+      <c r="H9" s="253" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="252"/>
-      <c r="J9" s="252"/>
-      <c r="K9" s="252"/>
-      <c r="L9" s="252"/>
-      <c r="M9" s="252"/>
-      <c r="N9" s="252"/>
-      <c r="O9" s="252"/>
-      <c r="P9" s="252"/>
-      <c r="Q9" s="252"/>
-      <c r="R9" s="252"/>
-      <c r="S9" s="252"/>
-      <c r="T9" s="252"/>
-      <c r="U9" s="252"/>
-      <c r="V9" s="252"/>
-      <c r="W9" s="252"/>
-      <c r="X9" s="252"/>
-      <c r="Y9" s="252"/>
-      <c r="Z9" s="252"/>
-      <c r="AA9" s="252"/>
-      <c r="AB9" s="252"/>
-      <c r="AC9" s="252"/>
-      <c r="AD9" s="252"/>
-      <c r="AE9" s="252"/>
-      <c r="AF9" s="252"/>
-      <c r="AG9" s="252"/>
-      <c r="AH9" s="252"/>
+      <c r="I9" s="253"/>
+      <c r="J9" s="253"/>
+      <c r="K9" s="253"/>
+      <c r="L9" s="253"/>
+      <c r="M9" s="253"/>
+      <c r="N9" s="253"/>
+      <c r="O9" s="253"/>
+      <c r="P9" s="253"/>
+      <c r="Q9" s="253"/>
+      <c r="R9" s="253"/>
+      <c r="S9" s="253"/>
+      <c r="T9" s="253"/>
+      <c r="U9" s="253"/>
+      <c r="V9" s="253"/>
+      <c r="W9" s="253"/>
+      <c r="X9" s="253"/>
+      <c r="Y9" s="253"/>
+      <c r="Z9" s="253"/>
+      <c r="AA9" s="253"/>
+      <c r="AB9" s="253"/>
+      <c r="AC9" s="253"/>
+      <c r="AD9" s="253"/>
+      <c r="AE9" s="253"/>
+      <c r="AF9" s="253"/>
+      <c r="AG9" s="253"/>
+      <c r="AH9" s="253"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="243" t="s">
+      <c r="D10" s="244" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="244"/>
-      <c r="F10" s="244"/>
-      <c r="G10" s="245"/>
+      <c r="E10" s="245"/>
+      <c r="F10" s="245"/>
+      <c r="G10" s="246"/>
       <c r="H10" s="103" t="s">
         <v>117</v>
       </c>
@@ -10506,172 +10506,172 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="246" t="s">
+      <c r="D11" s="247" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="247"/>
-      <c r="F11" s="247"/>
-      <c r="G11" s="248"/>
-      <c r="H11" s="256" t="s">
+      <c r="E11" s="248"/>
+      <c r="F11" s="248"/>
+      <c r="G11" s="249"/>
+      <c r="H11" s="257" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="257"/>
-      <c r="J11" s="257"/>
-      <c r="K11" s="257"/>
-      <c r="L11" s="257"/>
-      <c r="M11" s="257"/>
-      <c r="N11" s="257"/>
-      <c r="O11" s="257"/>
-      <c r="P11" s="257"/>
-      <c r="Q11" s="257"/>
-      <c r="R11" s="257"/>
-      <c r="S11" s="257"/>
-      <c r="T11" s="257"/>
-      <c r="U11" s="257"/>
-      <c r="V11" s="257"/>
-      <c r="W11" s="257"/>
-      <c r="X11" s="257"/>
-      <c r="Y11" s="257"/>
-      <c r="Z11" s="257"/>
-      <c r="AA11" s="257"/>
-      <c r="AB11" s="257"/>
-      <c r="AC11" s="257"/>
-      <c r="AD11" s="257"/>
-      <c r="AE11" s="257"/>
-      <c r="AF11" s="257"/>
-      <c r="AG11" s="257"/>
-      <c r="AH11" s="257"/>
+      <c r="I11" s="258"/>
+      <c r="J11" s="258"/>
+      <c r="K11" s="258"/>
+      <c r="L11" s="258"/>
+      <c r="M11" s="258"/>
+      <c r="N11" s="258"/>
+      <c r="O11" s="258"/>
+      <c r="P11" s="258"/>
+      <c r="Q11" s="258"/>
+      <c r="R11" s="258"/>
+      <c r="S11" s="258"/>
+      <c r="T11" s="258"/>
+      <c r="U11" s="258"/>
+      <c r="V11" s="258"/>
+      <c r="W11" s="258"/>
+      <c r="X11" s="258"/>
+      <c r="Y11" s="258"/>
+      <c r="Z11" s="258"/>
+      <c r="AA11" s="258"/>
+      <c r="AB11" s="258"/>
+      <c r="AC11" s="258"/>
+      <c r="AD11" s="258"/>
+      <c r="AE11" s="258"/>
+      <c r="AF11" s="258"/>
+      <c r="AG11" s="258"/>
+      <c r="AH11" s="258"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="246" t="s">
+      <c r="D12" s="247" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="247"/>
-      <c r="F12" s="247"/>
-      <c r="G12" s="248"/>
-      <c r="H12" s="252" t="s">
+      <c r="E12" s="248"/>
+      <c r="F12" s="248"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="253" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="252"/>
-      <c r="J12" s="252"/>
-      <c r="K12" s="252"/>
-      <c r="L12" s="252"/>
-      <c r="M12" s="252"/>
-      <c r="N12" s="252"/>
-      <c r="O12" s="252"/>
-      <c r="P12" s="252"/>
-      <c r="Q12" s="252"/>
-      <c r="R12" s="252"/>
-      <c r="S12" s="252"/>
-      <c r="T12" s="252"/>
-      <c r="U12" s="252"/>
-      <c r="V12" s="252"/>
-      <c r="W12" s="252"/>
-      <c r="X12" s="252"/>
-      <c r="Y12" s="252"/>
-      <c r="Z12" s="252"/>
-      <c r="AA12" s="252"/>
-      <c r="AB12" s="252"/>
-      <c r="AC12" s="252"/>
-      <c r="AD12" s="252"/>
-      <c r="AE12" s="252"/>
-      <c r="AF12" s="252"/>
-      <c r="AG12" s="252"/>
-      <c r="AH12" s="252"/>
+      <c r="I12" s="253"/>
+      <c r="J12" s="253"/>
+      <c r="K12" s="253"/>
+      <c r="L12" s="253"/>
+      <c r="M12" s="253"/>
+      <c r="N12" s="253"/>
+      <c r="O12" s="253"/>
+      <c r="P12" s="253"/>
+      <c r="Q12" s="253"/>
+      <c r="R12" s="253"/>
+      <c r="S12" s="253"/>
+      <c r="T12" s="253"/>
+      <c r="U12" s="253"/>
+      <c r="V12" s="253"/>
+      <c r="W12" s="253"/>
+      <c r="X12" s="253"/>
+      <c r="Y12" s="253"/>
+      <c r="Z12" s="253"/>
+      <c r="AA12" s="253"/>
+      <c r="AB12" s="253"/>
+      <c r="AC12" s="253"/>
+      <c r="AD12" s="253"/>
+      <c r="AE12" s="253"/>
+      <c r="AF12" s="253"/>
+      <c r="AG12" s="253"/>
+      <c r="AH12" s="253"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="246" t="s">
+      <c r="D13" s="247" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="247"/>
-      <c r="F13" s="247"/>
-      <c r="G13" s="248"/>
-      <c r="H13" s="252" t="s">
-        <v>154</v>
-      </c>
-      <c r="I13" s="252"/>
-      <c r="J13" s="252"/>
-      <c r="K13" s="252"/>
-      <c r="L13" s="252"/>
-      <c r="M13" s="252"/>
-      <c r="N13" s="252"/>
-      <c r="O13" s="252"/>
-      <c r="P13" s="252"/>
-      <c r="Q13" s="252"/>
-      <c r="R13" s="252"/>
-      <c r="S13" s="252"/>
-      <c r="T13" s="252"/>
-      <c r="U13" s="252"/>
-      <c r="V13" s="252"/>
-      <c r="W13" s="252"/>
-      <c r="X13" s="252"/>
-      <c r="Y13" s="252"/>
-      <c r="Z13" s="252"/>
-      <c r="AA13" s="252"/>
-      <c r="AB13" s="252"/>
-      <c r="AC13" s="252"/>
-      <c r="AD13" s="252"/>
-      <c r="AE13" s="252"/>
-      <c r="AF13" s="252"/>
-      <c r="AG13" s="252"/>
-      <c r="AH13" s="252"/>
+      <c r="E13" s="248"/>
+      <c r="F13" s="248"/>
+      <c r="G13" s="249"/>
+      <c r="H13" s="253" t="s">
+        <v>151</v>
+      </c>
+      <c r="I13" s="253"/>
+      <c r="J13" s="253"/>
+      <c r="K13" s="253"/>
+      <c r="L13" s="253"/>
+      <c r="M13" s="253"/>
+      <c r="N13" s="253"/>
+      <c r="O13" s="253"/>
+      <c r="P13" s="253"/>
+      <c r="Q13" s="253"/>
+      <c r="R13" s="253"/>
+      <c r="S13" s="253"/>
+      <c r="T13" s="253"/>
+      <c r="U13" s="253"/>
+      <c r="V13" s="253"/>
+      <c r="W13" s="253"/>
+      <c r="X13" s="253"/>
+      <c r="Y13" s="253"/>
+      <c r="Z13" s="253"/>
+      <c r="AA13" s="253"/>
+      <c r="AB13" s="253"/>
+      <c r="AC13" s="253"/>
+      <c r="AD13" s="253"/>
+      <c r="AE13" s="253"/>
+      <c r="AF13" s="253"/>
+      <c r="AG13" s="253"/>
+      <c r="AH13" s="253"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="246" t="s">
+      <c r="D14" s="247" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="247"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="248"/>
-      <c r="H14" s="252" t="s">
+      <c r="E14" s="248"/>
+      <c r="F14" s="248"/>
+      <c r="G14" s="249"/>
+      <c r="H14" s="253" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="252"/>
-      <c r="J14" s="252"/>
-      <c r="K14" s="252"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="252"/>
-      <c r="N14" s="252"/>
-      <c r="O14" s="252"/>
-      <c r="P14" s="252"/>
-      <c r="Q14" s="252"/>
-      <c r="R14" s="252"/>
-      <c r="S14" s="252"/>
-      <c r="T14" s="252"/>
-      <c r="U14" s="252"/>
-      <c r="V14" s="252"/>
-      <c r="W14" s="252"/>
-      <c r="X14" s="252"/>
-      <c r="Y14" s="252"/>
-      <c r="Z14" s="252"/>
-      <c r="AA14" s="252"/>
-      <c r="AB14" s="252"/>
-      <c r="AC14" s="252"/>
-      <c r="AD14" s="252"/>
-      <c r="AE14" s="252"/>
-      <c r="AF14" s="252"/>
-      <c r="AG14" s="252"/>
-      <c r="AH14" s="252"/>
+      <c r="I14" s="253"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="253"/>
+      <c r="L14" s="253"/>
+      <c r="M14" s="253"/>
+      <c r="N14" s="253"/>
+      <c r="O14" s="253"/>
+      <c r="P14" s="253"/>
+      <c r="Q14" s="253"/>
+      <c r="R14" s="253"/>
+      <c r="S14" s="253"/>
+      <c r="T14" s="253"/>
+      <c r="U14" s="253"/>
+      <c r="V14" s="253"/>
+      <c r="W14" s="253"/>
+      <c r="X14" s="253"/>
+      <c r="Y14" s="253"/>
+      <c r="Z14" s="253"/>
+      <c r="AA14" s="253"/>
+      <c r="AB14" s="253"/>
+      <c r="AC14" s="253"/>
+      <c r="AD14" s="253"/>
+      <c r="AE14" s="253"/>
+      <c r="AF14" s="253"/>
+      <c r="AG14" s="253"/>
+      <c r="AH14" s="253"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="246" t="s">
+      <c r="D15" s="247" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="247"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="248"/>
+      <c r="E15" s="248"/>
+      <c r="F15" s="248"/>
+      <c r="G15" s="249"/>
       <c r="H15" s="146" t="s">
         <v>118</v>
       </c>
@@ -10823,30 +10823,30 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="251"/>
-      <c r="H19" s="251"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="251"/>
-      <c r="K19" s="251"/>
-      <c r="L19" s="251"/>
-      <c r="M19" s="251"/>
-      <c r="N19" s="251"/>
-      <c r="O19" s="249"/>
-      <c r="P19" s="250"/>
-      <c r="Q19" s="250"/>
-      <c r="R19" s="250"/>
-      <c r="S19" s="250"/>
-      <c r="T19" s="250"/>
-      <c r="U19" s="250"/>
-      <c r="V19" s="250"/>
-      <c r="W19" s="250"/>
-      <c r="X19" s="250"/>
-      <c r="Y19" s="250"/>
-      <c r="Z19" s="250"/>
-      <c r="AA19" s="250"/>
-      <c r="AB19" s="250"/>
-      <c r="AC19" s="250"/>
-      <c r="AD19" s="250"/>
+      <c r="G19" s="252"/>
+      <c r="H19" s="252"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="252"/>
+      <c r="K19" s="252"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="252"/>
+      <c r="N19" s="252"/>
+      <c r="O19" s="250"/>
+      <c r="P19" s="251"/>
+      <c r="Q19" s="251"/>
+      <c r="R19" s="251"/>
+      <c r="S19" s="251"/>
+      <c r="T19" s="251"/>
+      <c r="U19" s="251"/>
+      <c r="V19" s="251"/>
+      <c r="W19" s="251"/>
+      <c r="X19" s="251"/>
+      <c r="Y19" s="251"/>
+      <c r="Z19" s="251"/>
+      <c r="AA19" s="251"/>
+      <c r="AB19" s="251"/>
+      <c r="AC19" s="251"/>
+      <c r="AD19" s="251"/>
       <c r="AE19" s="32"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
@@ -11359,157 +11359,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="221" t="str">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="200" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="222" t="str">
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="197" t="s">
+      <c r="T1" s="224"/>
+      <c r="U1" s="224"/>
+      <c r="V1" s="224"/>
+      <c r="W1" s="224"/>
+      <c r="X1" s="224"/>
+      <c r="Y1" s="224"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="183" t="str">
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="184" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="253">
+      <c r="AD1" s="182"/>
+      <c r="AE1" s="182"/>
+      <c r="AF1" s="183"/>
+      <c r="AG1" s="254">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="254"/>
-      <c r="AI1" s="255"/>
+      <c r="AH1" s="255"/>
+      <c r="AI1" s="256"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="221" t="str">
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="197" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="227"/>
+      <c r="V2" s="227"/>
+      <c r="W2" s="227"/>
+      <c r="X2" s="227"/>
+      <c r="Y2" s="227"/>
+      <c r="Z2" s="228"/>
+      <c r="AA2" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="183" t="str">
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="184" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="253" t="str">
+      <c r="AD2" s="182"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="254"/>
-      <c r="AI2" s="255"/>
+      <c r="AH2" s="255"/>
+      <c r="AI2" s="256"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="221" t="str">
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="183" t="str">
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="230"/>
+      <c r="U3" s="230"/>
+      <c r="V3" s="230"/>
+      <c r="W3" s="230"/>
+      <c r="X3" s="230"/>
+      <c r="Y3" s="230"/>
+      <c r="Z3" s="231"/>
+      <c r="AA3" s="198"/>
+      <c r="AB3" s="200"/>
+      <c r="AC3" s="184" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="253" t="str">
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="254"/>
-      <c r="AI3" s="255"/>
+      <c r="AH3" s="255"/>
+      <c r="AI3" s="256"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" ht="12" customHeight="1">
@@ -11556,8 +11556,8 @@
   </sheetPr>
   <dimension ref="A1:AL90"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -11566,163 +11566,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="197" t="s">
+      <c r="A1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="198"/>
-      <c r="C1" s="198"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="221" t="str">
+      <c r="B1" s="199"/>
+      <c r="C1" s="199"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="192"/>
-      <c r="G1" s="192"/>
-      <c r="H1" s="192"/>
-      <c r="I1" s="192"/>
-      <c r="J1" s="192"/>
-      <c r="K1" s="192"/>
-      <c r="L1" s="192"/>
-      <c r="M1" s="192"/>
-      <c r="N1" s="193"/>
-      <c r="O1" s="200" t="s">
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
+      <c r="H1" s="193"/>
+      <c r="I1" s="193"/>
+      <c r="J1" s="193"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
+      <c r="M1" s="193"/>
+      <c r="N1" s="194"/>
+      <c r="O1" s="201" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="201"/>
-      <c r="Q1" s="201"/>
-      <c r="R1" s="202"/>
-      <c r="S1" s="222" t="str">
+      <c r="P1" s="202"/>
+      <c r="Q1" s="202"/>
+      <c r="R1" s="203"/>
+      <c r="S1" s="223" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="223"/>
-      <c r="U1" s="223"/>
-      <c r="V1" s="223"/>
-      <c r="W1" s="223"/>
-      <c r="X1" s="223"/>
-      <c r="Y1" s="223"/>
-      <c r="Z1" s="224"/>
-      <c r="AA1" s="197" t="s">
+      <c r="T1" s="224"/>
+      <c r="U1" s="224"/>
+      <c r="V1" s="224"/>
+      <c r="W1" s="224"/>
+      <c r="X1" s="224"/>
+      <c r="Y1" s="224"/>
+      <c r="Z1" s="225"/>
+      <c r="AA1" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="199"/>
-      <c r="AC1" s="183" t="str">
+      <c r="AB1" s="200"/>
+      <c r="AC1" s="184" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="181"/>
-      <c r="AE1" s="181"/>
-      <c r="AF1" s="182"/>
-      <c r="AG1" s="253">
+      <c r="AD1" s="182"/>
+      <c r="AE1" s="182"/>
+      <c r="AF1" s="183"/>
+      <c r="AG1" s="254">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="254"/>
-      <c r="AI1" s="255"/>
+      <c r="AH1" s="255"/>
+      <c r="AI1" s="256"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="197" t="s">
+      <c r="A2" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="198"/>
-      <c r="C2" s="198"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="221" t="str">
+      <c r="B2" s="199"/>
+      <c r="C2" s="199"/>
+      <c r="D2" s="200"/>
+      <c r="E2" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="192"/>
-      <c r="G2" s="192"/>
-      <c r="H2" s="192"/>
-      <c r="I2" s="192"/>
-      <c r="J2" s="192"/>
-      <c r="K2" s="192"/>
-      <c r="L2" s="192"/>
-      <c r="M2" s="192"/>
-      <c r="N2" s="193"/>
-      <c r="O2" s="203"/>
-      <c r="P2" s="204"/>
-      <c r="Q2" s="204"/>
-      <c r="R2" s="205"/>
-      <c r="S2" s="225"/>
-      <c r="T2" s="226"/>
-      <c r="U2" s="226"/>
-      <c r="V2" s="226"/>
-      <c r="W2" s="226"/>
-      <c r="X2" s="226"/>
-      <c r="Y2" s="226"/>
-      <c r="Z2" s="227"/>
-      <c r="AA2" s="197" t="s">
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="194"/>
+      <c r="O2" s="204"/>
+      <c r="P2" s="205"/>
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="226"/>
+      <c r="T2" s="227"/>
+      <c r="U2" s="227"/>
+      <c r="V2" s="227"/>
+      <c r="W2" s="227"/>
+      <c r="X2" s="227"/>
+      <c r="Y2" s="227"/>
+      <c r="Z2" s="228"/>
+      <c r="AA2" s="198" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="199"/>
-      <c r="AC2" s="183" t="str">
+      <c r="AB2" s="200"/>
+      <c r="AC2" s="184" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="181"/>
-      <c r="AE2" s="181"/>
-      <c r="AF2" s="182"/>
-      <c r="AG2" s="253" t="str">
+      <c r="AD2" s="182"/>
+      <c r="AE2" s="182"/>
+      <c r="AF2" s="183"/>
+      <c r="AG2" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="254"/>
-      <c r="AI2" s="255"/>
+      <c r="AH2" s="255"/>
+      <c r="AI2" s="256"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="197" t="s">
+      <c r="A3" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="198"/>
-      <c r="C3" s="198"/>
-      <c r="D3" s="199"/>
-      <c r="E3" s="221" t="str">
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="200"/>
+      <c r="E3" s="222" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="192"/>
-      <c r="G3" s="192"/>
-      <c r="H3" s="192"/>
-      <c r="I3" s="192"/>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
-      <c r="M3" s="192"/>
-      <c r="N3" s="193"/>
-      <c r="O3" s="206"/>
-      <c r="P3" s="207"/>
-      <c r="Q3" s="207"/>
-      <c r="R3" s="208"/>
-      <c r="S3" s="228"/>
-      <c r="T3" s="229"/>
-      <c r="U3" s="229"/>
-      <c r="V3" s="229"/>
-      <c r="W3" s="229"/>
-      <c r="X3" s="229"/>
-      <c r="Y3" s="229"/>
-      <c r="Z3" s="230"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="199"/>
-      <c r="AC3" s="183" t="str">
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="194"/>
+      <c r="O3" s="207"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="209"/>
+      <c r="S3" s="229"/>
+      <c r="T3" s="230"/>
+      <c r="U3" s="230"/>
+      <c r="V3" s="230"/>
+      <c r="W3" s="230"/>
+      <c r="X3" s="230"/>
+      <c r="Y3" s="230"/>
+      <c r="Z3" s="231"/>
+      <c r="AA3" s="198"/>
+      <c r="AB3" s="200"/>
+      <c r="AC3" s="184" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="181"/>
-      <c r="AE3" s="181"/>
-      <c r="AF3" s="182"/>
-      <c r="AG3" s="253" t="str">
+      <c r="AD3" s="182"/>
+      <c r="AE3" s="182"/>
+      <c r="AF3" s="183"/>
+      <c r="AG3" s="254" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="254"/>
-      <c r="AI3" s="255"/>
+      <c r="AH3" s="255"/>
+      <c r="AI3" s="256"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11840,65 +11840,65 @@
     <row r="8" spans="1:38">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="332" t="s">
+      <c r="D8" s="333" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="334" t="s">
+      <c r="E8" s="335" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="335"/>
-      <c r="G8" s="335"/>
-      <c r="H8" s="335"/>
-      <c r="I8" s="335"/>
-      <c r="J8" s="336"/>
-      <c r="K8" s="340" t="s">
+      <c r="F8" s="336"/>
+      <c r="G8" s="336"/>
+      <c r="H8" s="336"/>
+      <c r="I8" s="336"/>
+      <c r="J8" s="337"/>
+      <c r="K8" s="341" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="335"/>
-      <c r="M8" s="335"/>
-      <c r="N8" s="336"/>
-      <c r="O8" s="341" t="s">
+      <c r="L8" s="336"/>
+      <c r="M8" s="336"/>
+      <c r="N8" s="337"/>
+      <c r="O8" s="342" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="346" t="s">
+      <c r="P8" s="347" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
-      <c r="U8" s="348"/>
-      <c r="V8" s="343" t="s">
+      <c r="Q8" s="348"/>
+      <c r="R8" s="348"/>
+      <c r="S8" s="348"/>
+      <c r="T8" s="348"/>
+      <c r="U8" s="349"/>
+      <c r="V8" s="344" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="343"/>
-      <c r="X8" s="343"/>
-      <c r="Y8" s="343"/>
-      <c r="Z8" s="343"/>
-      <c r="AA8" s="343"/>
-      <c r="AB8" s="343"/>
-      <c r="AC8" s="343"/>
-      <c r="AD8" s="343"/>
-      <c r="AE8" s="343"/>
-      <c r="AF8" s="343"/>
-      <c r="AG8" s="343"/>
-      <c r="AH8" s="343"/>
+      <c r="W8" s="344"/>
+      <c r="X8" s="344"/>
+      <c r="Y8" s="344"/>
+      <c r="Z8" s="344"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="344"/>
+      <c r="AC8" s="344"/>
+      <c r="AD8" s="344"/>
+      <c r="AE8" s="344"/>
+      <c r="AF8" s="344"/>
+      <c r="AG8" s="344"/>
+      <c r="AH8" s="344"/>
     </row>
     <row r="9" spans="1:38">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="333"/>
-      <c r="E9" s="337"/>
-      <c r="F9" s="338"/>
-      <c r="G9" s="338"/>
-      <c r="H9" s="338"/>
-      <c r="I9" s="338"/>
-      <c r="J9" s="339"/>
-      <c r="K9" s="337"/>
-      <c r="L9" s="338"/>
-      <c r="M9" s="338"/>
-      <c r="N9" s="339"/>
-      <c r="O9" s="342"/>
+      <c r="D9" s="334"/>
+      <c r="E9" s="338"/>
+      <c r="F9" s="339"/>
+      <c r="G9" s="339"/>
+      <c r="H9" s="339"/>
+      <c r="I9" s="339"/>
+      <c r="J9" s="340"/>
+      <c r="K9" s="338"/>
+      <c r="L9" s="339"/>
+      <c r="M9" s="339"/>
+      <c r="N9" s="340"/>
+      <c r="O9" s="343"/>
       <c r="P9" s="90" t="s">
         <v>46</v>
       </c>
@@ -11911,23 +11911,23 @@
       <c r="S9" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="344" t="s">
+      <c r="T9" s="345" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="345"/>
-      <c r="V9" s="343"/>
-      <c r="W9" s="343"/>
-      <c r="X9" s="343"/>
-      <c r="Y9" s="343"/>
-      <c r="Z9" s="343"/>
-      <c r="AA9" s="343"/>
-      <c r="AB9" s="343"/>
-      <c r="AC9" s="343"/>
-      <c r="AD9" s="343"/>
-      <c r="AE9" s="343"/>
-      <c r="AF9" s="343"/>
-      <c r="AG9" s="343"/>
-      <c r="AH9" s="343"/>
+      <c r="U9" s="346"/>
+      <c r="V9" s="344"/>
+      <c r="W9" s="344"/>
+      <c r="X9" s="344"/>
+      <c r="Y9" s="344"/>
+      <c r="Z9" s="344"/>
+      <c r="AA9" s="344"/>
+      <c r="AB9" s="344"/>
+      <c r="AC9" s="344"/>
+      <c r="AD9" s="344"/>
+      <c r="AE9" s="344"/>
+      <c r="AF9" s="344"/>
+      <c r="AG9" s="344"/>
+      <c r="AH9" s="344"/>
     </row>
     <row r="10" spans="1:38">
       <c r="B10" s="30"/>
@@ -11935,20 +11935,20 @@
       <c r="D10" s="114">
         <v>1</v>
       </c>
-      <c r="E10" s="270" t="s">
+      <c r="E10" s="271" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="163"/>
-      <c r="G10" s="163"/>
-      <c r="H10" s="163"/>
-      <c r="I10" s="163"/>
-      <c r="J10" s="164"/>
-      <c r="K10" s="162" t="s">
+      <c r="F10" s="164"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="164"/>
+      <c r="I10" s="164"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="163"/>
-      <c r="M10" s="163"/>
-      <c r="N10" s="164"/>
+      <c r="L10" s="164"/>
+      <c r="M10" s="164"/>
+      <c r="N10" s="165"/>
       <c r="O10" s="115" t="s">
         <v>76</v>
       </c>
@@ -11964,23 +11964,23 @@
       <c r="S10" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T10" s="273" t="s">
+      <c r="T10" s="274" t="s">
         <v>79</v>
       </c>
-      <c r="U10" s="274"/>
-      <c r="V10" s="162"/>
-      <c r="W10" s="163"/>
-      <c r="X10" s="163"/>
-      <c r="Y10" s="163"/>
-      <c r="Z10" s="163"/>
-      <c r="AA10" s="163"/>
-      <c r="AB10" s="163"/>
-      <c r="AC10" s="163"/>
-      <c r="AD10" s="163"/>
-      <c r="AE10" s="163"/>
-      <c r="AF10" s="163"/>
-      <c r="AG10" s="163"/>
-      <c r="AH10" s="164"/>
+      <c r="U10" s="275"/>
+      <c r="V10" s="163"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="164"/>
+      <c r="Y10" s="164"/>
+      <c r="Z10" s="164"/>
+      <c r="AA10" s="164"/>
+      <c r="AB10" s="164"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="164"/>
+      <c r="AE10" s="164"/>
+      <c r="AF10" s="164"/>
+      <c r="AG10" s="164"/>
+      <c r="AH10" s="165"/>
     </row>
     <row r="11" spans="1:38">
       <c r="B11" s="30"/>
@@ -11988,20 +11988,20 @@
       <c r="D11" s="114">
         <v>2</v>
       </c>
-      <c r="E11" s="270" t="s">
+      <c r="E11" s="271" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="163"/>
-      <c r="G11" s="163"/>
-      <c r="H11" s="163"/>
-      <c r="I11" s="163"/>
-      <c r="J11" s="164"/>
-      <c r="K11" s="162" t="s">
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="163" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="163"/>
-      <c r="M11" s="163"/>
-      <c r="N11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="165"/>
       <c r="O11" s="116" t="s">
         <v>76</v>
       </c>
@@ -12017,23 +12017,23 @@
       <c r="S11" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T11" s="273" t="s">
+      <c r="T11" s="274" t="s">
         <v>79</v>
       </c>
-      <c r="U11" s="274"/>
-      <c r="V11" s="162"/>
-      <c r="W11" s="163"/>
-      <c r="X11" s="163"/>
-      <c r="Y11" s="163"/>
-      <c r="Z11" s="163"/>
-      <c r="AA11" s="163"/>
-      <c r="AB11" s="163"/>
-      <c r="AC11" s="163"/>
-      <c r="AD11" s="163"/>
-      <c r="AE11" s="163"/>
-      <c r="AF11" s="163"/>
-      <c r="AG11" s="163"/>
-      <c r="AH11" s="164"/>
+      <c r="U11" s="275"/>
+      <c r="V11" s="163"/>
+      <c r="W11" s="164"/>
+      <c r="X11" s="164"/>
+      <c r="Y11" s="164"/>
+      <c r="Z11" s="164"/>
+      <c r="AA11" s="164"/>
+      <c r="AB11" s="164"/>
+      <c r="AC11" s="164"/>
+      <c r="AD11" s="164"/>
+      <c r="AE11" s="164"/>
+      <c r="AF11" s="164"/>
+      <c r="AG11" s="164"/>
+      <c r="AH11" s="165"/>
     </row>
     <row r="12" spans="1:38">
       <c r="B12" s="30"/>
@@ -12041,20 +12041,20 @@
       <c r="D12" s="114">
         <v>3</v>
       </c>
-      <c r="E12" s="270" t="s">
+      <c r="E12" s="271" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="163"/>
-      <c r="G12" s="163"/>
-      <c r="H12" s="163"/>
-      <c r="I12" s="163"/>
-      <c r="J12" s="164"/>
-      <c r="K12" s="162" t="s">
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="163"/>
-      <c r="M12" s="163"/>
-      <c r="N12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="165"/>
       <c r="O12" s="116" t="s">
         <v>77</v>
       </c>
@@ -12070,23 +12070,23 @@
       <c r="S12" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T12" s="273" t="s">
+      <c r="T12" s="274" t="s">
         <v>79</v>
       </c>
-      <c r="U12" s="274"/>
-      <c r="V12" s="162"/>
-      <c r="W12" s="163"/>
-      <c r="X12" s="163"/>
-      <c r="Y12" s="163"/>
-      <c r="Z12" s="163"/>
-      <c r="AA12" s="163"/>
-      <c r="AB12" s="163"/>
-      <c r="AC12" s="163"/>
-      <c r="AD12" s="163"/>
-      <c r="AE12" s="163"/>
-      <c r="AF12" s="163"/>
-      <c r="AG12" s="163"/>
-      <c r="AH12" s="164"/>
+      <c r="U12" s="275"/>
+      <c r="V12" s="163"/>
+      <c r="W12" s="164"/>
+      <c r="X12" s="164"/>
+      <c r="Y12" s="164"/>
+      <c r="Z12" s="164"/>
+      <c r="AA12" s="164"/>
+      <c r="AB12" s="164"/>
+      <c r="AC12" s="164"/>
+      <c r="AD12" s="164"/>
+      <c r="AE12" s="164"/>
+      <c r="AF12" s="164"/>
+      <c r="AG12" s="164"/>
+      <c r="AH12" s="165"/>
     </row>
     <row r="13" spans="1:38">
       <c r="B13" s="30"/>
@@ -12236,40 +12236,40 @@
       <c r="D17" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="302" t="s">
+      <c r="E17" s="303" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="303"/>
-      <c r="G17" s="304"/>
-      <c r="H17" s="361" t="s">
+      <c r="F17" s="304"/>
+      <c r="G17" s="305"/>
+      <c r="H17" s="362" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="362"/>
-      <c r="J17" s="362"/>
-      <c r="K17" s="362"/>
-      <c r="L17" s="362"/>
-      <c r="M17" s="362"/>
-      <c r="N17" s="362"/>
-      <c r="O17" s="362"/>
-      <c r="P17" s="362"/>
-      <c r="Q17" s="362"/>
-      <c r="R17" s="362"/>
-      <c r="S17" s="362"/>
-      <c r="T17" s="362"/>
-      <c r="U17" s="362"/>
-      <c r="V17" s="362"/>
-      <c r="W17" s="362"/>
-      <c r="X17" s="362"/>
-      <c r="Y17" s="362"/>
-      <c r="Z17" s="362"/>
-      <c r="AA17" s="362"/>
-      <c r="AB17" s="362"/>
-      <c r="AC17" s="362"/>
-      <c r="AD17" s="362"/>
-      <c r="AE17" s="362"/>
-      <c r="AF17" s="362"/>
-      <c r="AG17" s="362"/>
-      <c r="AH17" s="363"/>
+      <c r="I17" s="363"/>
+      <c r="J17" s="363"/>
+      <c r="K17" s="363"/>
+      <c r="L17" s="363"/>
+      <c r="M17" s="363"/>
+      <c r="N17" s="363"/>
+      <c r="O17" s="363"/>
+      <c r="P17" s="363"/>
+      <c r="Q17" s="363"/>
+      <c r="R17" s="363"/>
+      <c r="S17" s="363"/>
+      <c r="T17" s="363"/>
+      <c r="U17" s="363"/>
+      <c r="V17" s="363"/>
+      <c r="W17" s="363"/>
+      <c r="X17" s="363"/>
+      <c r="Y17" s="363"/>
+      <c r="Z17" s="363"/>
+      <c r="AA17" s="363"/>
+      <c r="AB17" s="363"/>
+      <c r="AC17" s="363"/>
+      <c r="AD17" s="363"/>
+      <c r="AE17" s="363"/>
+      <c r="AF17" s="363"/>
+      <c r="AG17" s="363"/>
+      <c r="AH17" s="364"/>
     </row>
     <row r="18" spans="1:35" s="88" customFormat="1" ht="24" customHeight="1">
       <c r="B18" s="30"/>
@@ -12277,40 +12277,40 @@
       <c r="D18" s="114">
         <v>1</v>
       </c>
-      <c r="E18" s="270" t="s">
+      <c r="E18" s="271" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="163"/>
-      <c r="G18" s="164"/>
-      <c r="H18" s="270" t="s">
+      <c r="F18" s="164"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="271" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="163"/>
-      <c r="J18" s="163"/>
-      <c r="K18" s="163"/>
-      <c r="L18" s="163"/>
-      <c r="M18" s="163"/>
-      <c r="N18" s="163"/>
-      <c r="O18" s="163"/>
-      <c r="P18" s="163"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="163"/>
-      <c r="S18" s="163"/>
-      <c r="T18" s="163"/>
-      <c r="U18" s="163"/>
-      <c r="V18" s="163"/>
-      <c r="W18" s="163"/>
-      <c r="X18" s="163"/>
-      <c r="Y18" s="163"/>
-      <c r="Z18" s="163"/>
-      <c r="AA18" s="163"/>
-      <c r="AB18" s="163"/>
-      <c r="AC18" s="163"/>
-      <c r="AD18" s="163"/>
-      <c r="AE18" s="163"/>
-      <c r="AF18" s="163"/>
-      <c r="AG18" s="163"/>
-      <c r="AH18" s="164"/>
+      <c r="I18" s="164"/>
+      <c r="J18" s="164"/>
+      <c r="K18" s="164"/>
+      <c r="L18" s="164"/>
+      <c r="M18" s="164"/>
+      <c r="N18" s="164"/>
+      <c r="O18" s="164"/>
+      <c r="P18" s="164"/>
+      <c r="Q18" s="164"/>
+      <c r="R18" s="164"/>
+      <c r="S18" s="164"/>
+      <c r="T18" s="164"/>
+      <c r="U18" s="164"/>
+      <c r="V18" s="164"/>
+      <c r="W18" s="164"/>
+      <c r="X18" s="164"/>
+      <c r="Y18" s="164"/>
+      <c r="Z18" s="164"/>
+      <c r="AA18" s="164"/>
+      <c r="AB18" s="164"/>
+      <c r="AC18" s="164"/>
+      <c r="AD18" s="164"/>
+      <c r="AE18" s="164"/>
+      <c r="AF18" s="164"/>
+      <c r="AG18" s="164"/>
+      <c r="AH18" s="165"/>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
       <c r="B19" s="1"/>
@@ -12318,40 +12318,40 @@
       <c r="D19" s="114">
         <v>2</v>
       </c>
-      <c r="E19" s="270" t="s">
+      <c r="E19" s="271" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="163"/>
-      <c r="G19" s="164"/>
-      <c r="H19" s="270" t="s">
+      <c r="F19" s="164"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="271" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="163"/>
-      <c r="J19" s="163"/>
-      <c r="K19" s="163"/>
-      <c r="L19" s="163"/>
-      <c r="M19" s="163"/>
-      <c r="N19" s="163"/>
-      <c r="O19" s="163"/>
-      <c r="P19" s="163"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="163"/>
-      <c r="S19" s="163"/>
-      <c r="T19" s="163"/>
-      <c r="U19" s="163"/>
-      <c r="V19" s="163"/>
-      <c r="W19" s="163"/>
-      <c r="X19" s="163"/>
-      <c r="Y19" s="163"/>
-      <c r="Z19" s="163"/>
-      <c r="AA19" s="163"/>
-      <c r="AB19" s="163"/>
-      <c r="AC19" s="163"/>
-      <c r="AD19" s="163"/>
-      <c r="AE19" s="163"/>
-      <c r="AF19" s="163"/>
-      <c r="AG19" s="163"/>
-      <c r="AH19" s="164"/>
+      <c r="I19" s="164"/>
+      <c r="J19" s="164"/>
+      <c r="K19" s="164"/>
+      <c r="L19" s="164"/>
+      <c r="M19" s="164"/>
+      <c r="N19" s="164"/>
+      <c r="O19" s="164"/>
+      <c r="P19" s="164"/>
+      <c r="Q19" s="164"/>
+      <c r="R19" s="164"/>
+      <c r="S19" s="164"/>
+      <c r="T19" s="164"/>
+      <c r="U19" s="164"/>
+      <c r="V19" s="164"/>
+      <c r="W19" s="164"/>
+      <c r="X19" s="164"/>
+      <c r="Y19" s="164"/>
+      <c r="Z19" s="164"/>
+      <c r="AA19" s="164"/>
+      <c r="AB19" s="164"/>
+      <c r="AC19" s="164"/>
+      <c r="AD19" s="164"/>
+      <c r="AE19" s="164"/>
+      <c r="AF19" s="164"/>
+      <c r="AG19" s="164"/>
+      <c r="AH19" s="165"/>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
       <c r="B20" s="1"/>
@@ -12359,40 +12359,40 @@
       <c r="D20" s="114">
         <v>3</v>
       </c>
-      <c r="E20" s="270" t="s">
+      <c r="E20" s="271" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="163"/>
-      <c r="G20" s="164"/>
-      <c r="H20" s="270" t="s">
+      <c r="F20" s="164"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="271" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="163"/>
-      <c r="J20" s="163"/>
-      <c r="K20" s="163"/>
-      <c r="L20" s="163"/>
-      <c r="M20" s="163"/>
-      <c r="N20" s="163"/>
-      <c r="O20" s="163"/>
-      <c r="P20" s="163"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="163"/>
-      <c r="S20" s="163"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="163"/>
-      <c r="V20" s="163"/>
-      <c r="W20" s="163"/>
-      <c r="X20" s="163"/>
-      <c r="Y20" s="163"/>
-      <c r="Z20" s="163"/>
-      <c r="AA20" s="163"/>
-      <c r="AB20" s="163"/>
-      <c r="AC20" s="163"/>
-      <c r="AD20" s="163"/>
-      <c r="AE20" s="163"/>
-      <c r="AF20" s="163"/>
-      <c r="AG20" s="163"/>
-      <c r="AH20" s="164"/>
+      <c r="I20" s="164"/>
+      <c r="J20" s="164"/>
+      <c r="K20" s="164"/>
+      <c r="L20" s="164"/>
+      <c r="M20" s="164"/>
+      <c r="N20" s="164"/>
+      <c r="O20" s="164"/>
+      <c r="P20" s="164"/>
+      <c r="Q20" s="164"/>
+      <c r="R20" s="164"/>
+      <c r="S20" s="164"/>
+      <c r="T20" s="164"/>
+      <c r="U20" s="164"/>
+      <c r="V20" s="164"/>
+      <c r="W20" s="164"/>
+      <c r="X20" s="164"/>
+      <c r="Y20" s="164"/>
+      <c r="Z20" s="164"/>
+      <c r="AA20" s="164"/>
+      <c r="AB20" s="164"/>
+      <c r="AC20" s="164"/>
+      <c r="AD20" s="164"/>
+      <c r="AE20" s="164"/>
+      <c r="AF20" s="164"/>
+      <c r="AG20" s="164"/>
+      <c r="AH20" s="165"/>
     </row>
     <row r="21" spans="1:35">
       <c r="B21" s="87"/>
@@ -12650,44 +12650,44 @@
       <c r="B28" s="87"/>
       <c r="C28" s="93"/>
       <c r="D28" s="124"/>
-      <c r="E28" s="271" t="s">
+      <c r="E28" s="272" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="271"/>
-      <c r="G28" s="272" t="s">
+      <c r="F28" s="272"/>
+      <c r="G28" s="273" t="s">
         <v>127</v>
       </c>
-      <c r="H28" s="272"/>
-      <c r="I28" s="272"/>
-      <c r="J28" s="272"/>
-      <c r="K28" s="272"/>
-      <c r="L28" s="272"/>
-      <c r="M28" s="271" t="s">
+      <c r="H28" s="273"/>
+      <c r="I28" s="273"/>
+      <c r="J28" s="273"/>
+      <c r="K28" s="273"/>
+      <c r="L28" s="273"/>
+      <c r="M28" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="271"/>
-      <c r="O28" s="319" t="s">
+      <c r="N28" s="272"/>
+      <c r="O28" s="320" t="s">
         <v>128</v>
       </c>
-      <c r="P28" s="320"/>
-      <c r="Q28" s="320"/>
-      <c r="R28" s="320"/>
-      <c r="S28" s="320"/>
-      <c r="T28" s="320"/>
-      <c r="U28" s="320"/>
-      <c r="V28" s="320"/>
-      <c r="W28" s="320"/>
-      <c r="X28" s="320"/>
-      <c r="Y28" s="320"/>
-      <c r="Z28" s="320"/>
-      <c r="AA28" s="320"/>
-      <c r="AB28" s="320"/>
-      <c r="AC28" s="320"/>
-      <c r="AD28" s="320"/>
-      <c r="AE28" s="320"/>
-      <c r="AF28" s="320"/>
-      <c r="AG28" s="320"/>
-      <c r="AH28" s="321"/>
+      <c r="P28" s="321"/>
+      <c r="Q28" s="321"/>
+      <c r="R28" s="321"/>
+      <c r="S28" s="321"/>
+      <c r="T28" s="321"/>
+      <c r="U28" s="321"/>
+      <c r="V28" s="321"/>
+      <c r="W28" s="321"/>
+      <c r="X28" s="321"/>
+      <c r="Y28" s="321"/>
+      <c r="Z28" s="321"/>
+      <c r="AA28" s="321"/>
+      <c r="AB28" s="321"/>
+      <c r="AC28" s="321"/>
+      <c r="AD28" s="321"/>
+      <c r="AE28" s="321"/>
+      <c r="AF28" s="321"/>
+      <c r="AG28" s="321"/>
+      <c r="AH28" s="322"/>
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="48"/>
@@ -12889,43 +12889,43 @@
       <c r="E35" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="F35" s="322" t="s">
+      <c r="F35" s="323" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="323"/>
-      <c r="H35" s="323"/>
-      <c r="I35" s="323"/>
-      <c r="J35" s="323"/>
-      <c r="K35" s="324"/>
-      <c r="L35" s="325" t="s">
+      <c r="G35" s="324"/>
+      <c r="H35" s="324"/>
+      <c r="I35" s="324"/>
+      <c r="J35" s="324"/>
+      <c r="K35" s="325"/>
+      <c r="L35" s="326" t="s">
         <v>88</v>
       </c>
-      <c r="M35" s="323"/>
-      <c r="N35" s="323"/>
-      <c r="O35" s="323"/>
-      <c r="P35" s="323"/>
-      <c r="Q35" s="323"/>
-      <c r="R35" s="323"/>
-      <c r="S35" s="323"/>
-      <c r="T35" s="323"/>
-      <c r="U35" s="324"/>
-      <c r="V35" s="326" t="s">
+      <c r="M35" s="324"/>
+      <c r="N35" s="324"/>
+      <c r="O35" s="324"/>
+      <c r="P35" s="324"/>
+      <c r="Q35" s="324"/>
+      <c r="R35" s="324"/>
+      <c r="S35" s="324"/>
+      <c r="T35" s="324"/>
+      <c r="U35" s="325"/>
+      <c r="V35" s="327" t="s">
         <v>89</v>
       </c>
-      <c r="W35" s="327"/>
-      <c r="X35" s="328"/>
-      <c r="Y35" s="326" t="s">
+      <c r="W35" s="328"/>
+      <c r="X35" s="329"/>
+      <c r="Y35" s="327" t="s">
         <v>90</v>
       </c>
-      <c r="Z35" s="327"/>
-      <c r="AA35" s="327"/>
-      <c r="AB35" s="328"/>
-      <c r="AC35" s="329" t="s">
+      <c r="Z35" s="328"/>
+      <c r="AA35" s="328"/>
+      <c r="AB35" s="329"/>
+      <c r="AC35" s="330" t="s">
         <v>91</v>
       </c>
-      <c r="AD35" s="330"/>
-      <c r="AE35" s="330"/>
-      <c r="AF35" s="331"/>
+      <c r="AD35" s="331"/>
+      <c r="AE35" s="331"/>
+      <c r="AF35" s="332"/>
       <c r="AG35" s="48"/>
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
@@ -12938,43 +12938,43 @@
       <c r="E36" s="129">
         <v>1</v>
       </c>
-      <c r="F36" s="299" t="s">
+      <c r="F36" s="300" t="s">
         <v>92</v>
       </c>
-      <c r="G36" s="300"/>
-      <c r="H36" s="300"/>
-      <c r="I36" s="300"/>
-      <c r="J36" s="300"/>
-      <c r="K36" s="301"/>
-      <c r="L36" s="261" t="s">
+      <c r="G36" s="301"/>
+      <c r="H36" s="301"/>
+      <c r="I36" s="301"/>
+      <c r="J36" s="301"/>
+      <c r="K36" s="302"/>
+      <c r="L36" s="262" t="s">
         <v>93</v>
       </c>
-      <c r="M36" s="300"/>
-      <c r="N36" s="300"/>
-      <c r="O36" s="300"/>
-      <c r="P36" s="300"/>
-      <c r="Q36" s="300"/>
-      <c r="R36" s="300"/>
-      <c r="S36" s="300"/>
-      <c r="T36" s="300"/>
-      <c r="U36" s="301"/>
-      <c r="V36" s="316" t="s">
+      <c r="M36" s="301"/>
+      <c r="N36" s="301"/>
+      <c r="O36" s="301"/>
+      <c r="P36" s="301"/>
+      <c r="Q36" s="301"/>
+      <c r="R36" s="301"/>
+      <c r="S36" s="301"/>
+      <c r="T36" s="301"/>
+      <c r="U36" s="302"/>
+      <c r="V36" s="317" t="s">
         <v>94</v>
       </c>
-      <c r="W36" s="317"/>
-      <c r="X36" s="318"/>
-      <c r="Y36" s="313" t="s">
+      <c r="W36" s="318"/>
+      <c r="X36" s="319"/>
+      <c r="Y36" s="314" t="s">
         <v>95</v>
       </c>
-      <c r="Z36" s="314"/>
-      <c r="AA36" s="314"/>
-      <c r="AB36" s="315"/>
-      <c r="AC36" s="261" t="s">
+      <c r="Z36" s="315"/>
+      <c r="AA36" s="315"/>
+      <c r="AB36" s="316"/>
+      <c r="AC36" s="262" t="s">
         <v>129</v>
       </c>
-      <c r="AD36" s="300"/>
-      <c r="AE36" s="300"/>
-      <c r="AF36" s="301"/>
+      <c r="AD36" s="301"/>
+      <c r="AE36" s="301"/>
+      <c r="AF36" s="302"/>
       <c r="AG36" s="48"/>
       <c r="AH36" s="48"/>
       <c r="AI36" s="48"/>
@@ -13060,80 +13060,80 @@
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
       <c r="D39"/>
-      <c r="E39" s="267" t="s">
+      <c r="E39" s="268" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="268"/>
-      <c r="G39" s="268"/>
-      <c r="H39" s="268"/>
-      <c r="I39" s="268"/>
-      <c r="J39" s="269" t="s">
+      <c r="F39" s="269"/>
+      <c r="G39" s="269"/>
+      <c r="H39" s="269"/>
+      <c r="I39" s="269"/>
+      <c r="J39" s="270" t="s">
         <v>132</v>
       </c>
-      <c r="K39" s="269"/>
-      <c r="L39" s="269"/>
-      <c r="M39" s="258" t="s">
+      <c r="K39" s="270"/>
+      <c r="L39" s="270"/>
+      <c r="M39" s="259" t="s">
         <v>133</v>
       </c>
-      <c r="N39" s="259"/>
-      <c r="O39" s="259"/>
-      <c r="P39" s="259"/>
-      <c r="Q39" s="259"/>
-      <c r="R39" s="259"/>
-      <c r="S39" s="260"/>
-      <c r="T39" s="258" t="s">
+      <c r="N39" s="260"/>
+      <c r="O39" s="260"/>
+      <c r="P39" s="260"/>
+      <c r="Q39" s="260"/>
+      <c r="R39" s="260"/>
+      <c r="S39" s="261"/>
+      <c r="T39" s="259" t="s">
         <v>90</v>
       </c>
-      <c r="U39" s="259"/>
-      <c r="V39" s="259"/>
-      <c r="W39" s="259"/>
-      <c r="X39" s="259"/>
-      <c r="Y39" s="259"/>
-      <c r="Z39" s="259"/>
-      <c r="AA39" s="259"/>
-      <c r="AB39" s="259"/>
-      <c r="AC39" s="259"/>
-      <c r="AD39" s="260"/>
+      <c r="U39" s="260"/>
+      <c r="V39" s="260"/>
+      <c r="W39" s="260"/>
+      <c r="X39" s="260"/>
+      <c r="Y39" s="260"/>
+      <c r="Z39" s="260"/>
+      <c r="AA39" s="260"/>
+      <c r="AB39" s="260"/>
+      <c r="AC39" s="260"/>
+      <c r="AD39" s="261"/>
     </row>
     <row r="40" spans="1:35" ht="11.25" customHeight="1">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
       <c r="D40"/>
-      <c r="E40" s="261" t="s">
+      <c r="E40" s="262" t="s">
         <v>134</v>
       </c>
-      <c r="F40" s="262"/>
-      <c r="G40" s="262"/>
-      <c r="H40" s="262"/>
-      <c r="I40" s="262"/>
-      <c r="J40" s="263" t="s">
+      <c r="F40" s="263"/>
+      <c r="G40" s="263"/>
+      <c r="H40" s="263"/>
+      <c r="I40" s="263"/>
+      <c r="J40" s="264" t="s">
+        <v>156</v>
+      </c>
+      <c r="K40" s="264"/>
+      <c r="L40" s="264"/>
+      <c r="M40" s="265" t="s">
         <v>135</v>
       </c>
-      <c r="K40" s="263"/>
-      <c r="L40" s="263"/>
-      <c r="M40" s="264" t="s">
-        <v>136</v>
-      </c>
-      <c r="N40" s="265"/>
-      <c r="O40" s="265"/>
-      <c r="P40" s="265"/>
-      <c r="Q40" s="265"/>
-      <c r="R40" s="265"/>
-      <c r="S40" s="266"/>
-      <c r="T40" s="264" t="s">
-        <v>136</v>
-      </c>
-      <c r="U40" s="265"/>
-      <c r="V40" s="265"/>
-      <c r="W40" s="265"/>
-      <c r="X40" s="265"/>
-      <c r="Y40" s="265"/>
-      <c r="Z40" s="265"/>
-      <c r="AA40" s="265"/>
-      <c r="AB40" s="265"/>
-      <c r="AC40" s="265"/>
-      <c r="AD40" s="266"/>
+      <c r="N40" s="266"/>
+      <c r="O40" s="266"/>
+      <c r="P40" s="266"/>
+      <c r="Q40" s="266"/>
+      <c r="R40" s="266"/>
+      <c r="S40" s="267"/>
+      <c r="T40" s="265" t="s">
+        <v>135</v>
+      </c>
+      <c r="U40" s="266"/>
+      <c r="V40" s="266"/>
+      <c r="W40" s="266"/>
+      <c r="X40" s="266"/>
+      <c r="Y40" s="266"/>
+      <c r="Z40" s="266"/>
+      <c r="AA40" s="266"/>
+      <c r="AB40" s="266"/>
+      <c r="AC40" s="266"/>
+      <c r="AD40" s="267"/>
     </row>
     <row r="41" spans="1:35" ht="11.25" customHeight="1">
       <c r="A41" s="58"/>
@@ -13209,7 +13209,7 @@
       <c r="B43" s="48"/>
       <c r="C43" s="48"/>
       <c r="D43" s="58" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E43" s="48"/>
       <c r="F43" s="48"/>
@@ -13286,7 +13286,7 @@
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
       <c r="E45" s="58" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
@@ -13361,7 +13361,7 @@
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
       <c r="E47" s="58" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
@@ -13399,80 +13399,80 @@
       <c r="B48" s="58"/>
       <c r="C48" s="58"/>
       <c r="D48"/>
-      <c r="E48" s="267" t="s">
+      <c r="E48" s="268" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="269"/>
+      <c r="G48" s="269"/>
+      <c r="H48" s="269"/>
+      <c r="I48" s="269"/>
+      <c r="J48" s="270" t="s">
+        <v>132</v>
+      </c>
+      <c r="K48" s="270"/>
+      <c r="L48" s="270"/>
+      <c r="M48" s="259" t="s">
         <v>139</v>
       </c>
-      <c r="F48" s="268"/>
-      <c r="G48" s="268"/>
-      <c r="H48" s="268"/>
-      <c r="I48" s="268"/>
-      <c r="J48" s="269" t="s">
-        <v>132</v>
-      </c>
-      <c r="K48" s="269"/>
-      <c r="L48" s="269"/>
-      <c r="M48" s="258" t="s">
-        <v>140</v>
-      </c>
-      <c r="N48" s="259"/>
-      <c r="O48" s="259"/>
-      <c r="P48" s="259"/>
-      <c r="Q48" s="259"/>
-      <c r="R48" s="259"/>
-      <c r="S48" s="260"/>
-      <c r="T48" s="258" t="s">
+      <c r="N48" s="260"/>
+      <c r="O48" s="260"/>
+      <c r="P48" s="260"/>
+      <c r="Q48" s="260"/>
+      <c r="R48" s="260"/>
+      <c r="S48" s="261"/>
+      <c r="T48" s="259" t="s">
         <v>90</v>
       </c>
-      <c r="U48" s="259"/>
-      <c r="V48" s="259"/>
-      <c r="W48" s="259"/>
-      <c r="X48" s="259"/>
-      <c r="Y48" s="259"/>
-      <c r="Z48" s="259"/>
-      <c r="AA48" s="259"/>
-      <c r="AB48" s="259"/>
-      <c r="AC48" s="259"/>
-      <c r="AD48" s="260"/>
+      <c r="U48" s="260"/>
+      <c r="V48" s="260"/>
+      <c r="W48" s="260"/>
+      <c r="X48" s="260"/>
+      <c r="Y48" s="260"/>
+      <c r="Z48" s="260"/>
+      <c r="AA48" s="260"/>
+      <c r="AB48" s="260"/>
+      <c r="AC48" s="260"/>
+      <c r="AD48" s="261"/>
     </row>
     <row r="49" spans="1:35" ht="11.25" customHeight="1">
       <c r="A49" s="58"/>
       <c r="B49" s="58"/>
       <c r="C49" s="58"/>
       <c r="D49"/>
-      <c r="E49" s="261" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" s="262"/>
-      <c r="G49" s="262"/>
-      <c r="H49" s="262"/>
-      <c r="I49" s="262"/>
-      <c r="J49" s="263" t="s">
+      <c r="E49" s="262" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="263"/>
+      <c r="G49" s="263"/>
+      <c r="H49" s="263"/>
+      <c r="I49" s="263"/>
+      <c r="J49" s="264" t="s">
+        <v>157</v>
+      </c>
+      <c r="K49" s="264"/>
+      <c r="L49" s="264"/>
+      <c r="M49" s="265" t="s">
+        <v>158</v>
+      </c>
+      <c r="N49" s="266"/>
+      <c r="O49" s="266"/>
+      <c r="P49" s="266"/>
+      <c r="Q49" s="266"/>
+      <c r="R49" s="266"/>
+      <c r="S49" s="267"/>
+      <c r="T49" s="265" t="s">
         <v>142</v>
       </c>
-      <c r="K49" s="263"/>
-      <c r="L49" s="263"/>
-      <c r="M49" s="264" t="s">
-        <v>143</v>
-      </c>
-      <c r="N49" s="265"/>
-      <c r="O49" s="265"/>
-      <c r="P49" s="265"/>
-      <c r="Q49" s="265"/>
-      <c r="R49" s="265"/>
-      <c r="S49" s="266"/>
-      <c r="T49" s="264" t="s">
-        <v>145</v>
-      </c>
-      <c r="U49" s="265"/>
-      <c r="V49" s="265"/>
-      <c r="W49" s="265"/>
-      <c r="X49" s="265"/>
-      <c r="Y49" s="265"/>
-      <c r="Z49" s="265"/>
-      <c r="AA49" s="265"/>
-      <c r="AB49" s="265"/>
-      <c r="AC49" s="265"/>
-      <c r="AD49" s="266"/>
+      <c r="U49" s="266"/>
+      <c r="V49" s="266"/>
+      <c r="W49" s="266"/>
+      <c r="X49" s="266"/>
+      <c r="Y49" s="266"/>
+      <c r="Z49" s="266"/>
+      <c r="AA49" s="266"/>
+      <c r="AB49" s="266"/>
+      <c r="AC49" s="266"/>
+      <c r="AD49" s="267"/>
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="48"/>
@@ -13553,7 +13553,7 @@
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
       <c r="D52" s="58" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E52" s="48"/>
       <c r="F52" s="48"/>
@@ -13629,30 +13629,30 @@
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
       <c r="D54" s="48"/>
-      <c r="E54" s="290" t="s">
+      <c r="E54" s="291" t="s">
         <v>96</v>
       </c>
-      <c r="F54" s="291"/>
-      <c r="G54" s="291"/>
-      <c r="H54" s="291"/>
-      <c r="I54" s="291"/>
-      <c r="J54" s="291"/>
-      <c r="K54" s="291"/>
-      <c r="L54" s="291"/>
-      <c r="M54" s="291"/>
-      <c r="N54" s="292"/>
-      <c r="O54" s="293" t="s">
+      <c r="F54" s="292"/>
+      <c r="G54" s="292"/>
+      <c r="H54" s="292"/>
+      <c r="I54" s="292"/>
+      <c r="J54" s="292"/>
+      <c r="K54" s="292"/>
+      <c r="L54" s="292"/>
+      <c r="M54" s="292"/>
+      <c r="N54" s="293"/>
+      <c r="O54" s="294" t="s">
         <v>97</v>
       </c>
-      <c r="P54" s="294"/>
-      <c r="Q54" s="294"/>
-      <c r="R54" s="294"/>
-      <c r="S54" s="294"/>
-      <c r="T54" s="294"/>
-      <c r="U54" s="294"/>
-      <c r="V54" s="294"/>
-      <c r="W54" s="294"/>
-      <c r="X54" s="295"/>
+      <c r="P54" s="295"/>
+      <c r="Q54" s="295"/>
+      <c r="R54" s="295"/>
+      <c r="S54" s="295"/>
+      <c r="T54" s="295"/>
+      <c r="U54" s="295"/>
+      <c r="V54" s="295"/>
+      <c r="W54" s="295"/>
+      <c r="X54" s="296"/>
       <c r="Y54" s="48"/>
       <c r="Z54" s="48"/>
       <c r="AA54" s="48"/>
@@ -13670,30 +13670,30 @@
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
-      <c r="E55" s="278" t="s">
+      <c r="E55" s="279" t="s">
         <v>100</v>
       </c>
-      <c r="F55" s="279"/>
-      <c r="G55" s="279"/>
-      <c r="H55" s="279"/>
-      <c r="I55" s="279"/>
-      <c r="J55" s="279"/>
-      <c r="K55" s="279"/>
-      <c r="L55" s="279"/>
-      <c r="M55" s="279"/>
-      <c r="N55" s="280"/>
-      <c r="O55" s="296" t="s">
+      <c r="F55" s="280"/>
+      <c r="G55" s="280"/>
+      <c r="H55" s="280"/>
+      <c r="I55" s="280"/>
+      <c r="J55" s="280"/>
+      <c r="K55" s="280"/>
+      <c r="L55" s="280"/>
+      <c r="M55" s="280"/>
+      <c r="N55" s="281"/>
+      <c r="O55" s="297" t="s">
         <v>102</v>
       </c>
-      <c r="P55" s="297"/>
-      <c r="Q55" s="297"/>
-      <c r="R55" s="297"/>
-      <c r="S55" s="297"/>
-      <c r="T55" s="297"/>
-      <c r="U55" s="297"/>
-      <c r="V55" s="297"/>
-      <c r="W55" s="297"/>
-      <c r="X55" s="298"/>
+      <c r="P55" s="298"/>
+      <c r="Q55" s="298"/>
+      <c r="R55" s="298"/>
+      <c r="S55" s="298"/>
+      <c r="T55" s="298"/>
+      <c r="U55" s="298"/>
+      <c r="V55" s="298"/>
+      <c r="W55" s="298"/>
+      <c r="X55" s="299"/>
       <c r="Y55" s="48"/>
       <c r="Z55" s="48"/>
       <c r="AA55" s="48"/>
@@ -13711,28 +13711,28 @@
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
       <c r="D56" s="48"/>
-      <c r="E56" s="281"/>
-      <c r="F56" s="282"/>
-      <c r="G56" s="282"/>
-      <c r="H56" s="282"/>
-      <c r="I56" s="282"/>
-      <c r="J56" s="282"/>
-      <c r="K56" s="282"/>
-      <c r="L56" s="282"/>
-      <c r="M56" s="282"/>
-      <c r="N56" s="283"/>
-      <c r="O56" s="296" t="s">
+      <c r="E56" s="282"/>
+      <c r="F56" s="283"/>
+      <c r="G56" s="283"/>
+      <c r="H56" s="283"/>
+      <c r="I56" s="283"/>
+      <c r="J56" s="283"/>
+      <c r="K56" s="283"/>
+      <c r="L56" s="283"/>
+      <c r="M56" s="283"/>
+      <c r="N56" s="284"/>
+      <c r="O56" s="297" t="s">
         <v>104</v>
       </c>
-      <c r="P56" s="297"/>
-      <c r="Q56" s="297"/>
-      <c r="R56" s="297"/>
-      <c r="S56" s="297"/>
-      <c r="T56" s="297"/>
-      <c r="U56" s="297"/>
-      <c r="V56" s="297"/>
-      <c r="W56" s="297"/>
-      <c r="X56" s="298"/>
+      <c r="P56" s="298"/>
+      <c r="Q56" s="298"/>
+      <c r="R56" s="298"/>
+      <c r="S56" s="298"/>
+      <c r="T56" s="298"/>
+      <c r="U56" s="298"/>
+      <c r="V56" s="298"/>
+      <c r="W56" s="298"/>
+      <c r="X56" s="299"/>
       <c r="Y56" s="48"/>
       <c r="Z56" s="48"/>
       <c r="AA56" s="48"/>
@@ -13750,28 +13750,28 @@
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
       <c r="D57" s="48"/>
-      <c r="E57" s="284"/>
-      <c r="F57" s="285"/>
-      <c r="G57" s="285"/>
-      <c r="H57" s="285"/>
-      <c r="I57" s="285"/>
-      <c r="J57" s="285"/>
-      <c r="K57" s="285"/>
-      <c r="L57" s="285"/>
-      <c r="M57" s="285"/>
-      <c r="N57" s="286"/>
-      <c r="O57" s="287" t="s">
+      <c r="E57" s="285"/>
+      <c r="F57" s="286"/>
+      <c r="G57" s="286"/>
+      <c r="H57" s="286"/>
+      <c r="I57" s="286"/>
+      <c r="J57" s="286"/>
+      <c r="K57" s="286"/>
+      <c r="L57" s="286"/>
+      <c r="M57" s="286"/>
+      <c r="N57" s="287"/>
+      <c r="O57" s="288" t="s">
         <v>105</v>
       </c>
-      <c r="P57" s="288"/>
-      <c r="Q57" s="288"/>
-      <c r="R57" s="288"/>
-      <c r="S57" s="288"/>
-      <c r="T57" s="288"/>
-      <c r="U57" s="288"/>
-      <c r="V57" s="288"/>
-      <c r="W57" s="288"/>
-      <c r="X57" s="289"/>
+      <c r="P57" s="289"/>
+      <c r="Q57" s="289"/>
+      <c r="R57" s="289"/>
+      <c r="S57" s="289"/>
+      <c r="T57" s="289"/>
+      <c r="U57" s="289"/>
+      <c r="V57" s="289"/>
+      <c r="W57" s="289"/>
+      <c r="X57" s="290"/>
       <c r="Y57" s="48"/>
       <c r="Z57" s="48"/>
       <c r="AA57" s="48"/>
@@ -13789,28 +13789,28 @@
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
-      <c r="E58" s="275" t="s">
+      <c r="E58" s="276" t="s">
         <v>98</v>
       </c>
-      <c r="F58" s="276"/>
-      <c r="G58" s="276"/>
-      <c r="H58" s="276"/>
-      <c r="I58" s="276"/>
-      <c r="J58" s="276"/>
-      <c r="K58" s="276"/>
-      <c r="L58" s="276"/>
-      <c r="M58" s="276"/>
-      <c r="N58" s="276"/>
-      <c r="O58" s="276"/>
-      <c r="P58" s="276"/>
-      <c r="Q58" s="276"/>
-      <c r="R58" s="276"/>
-      <c r="S58" s="276"/>
-      <c r="T58" s="276"/>
-      <c r="U58" s="276"/>
-      <c r="V58" s="276"/>
-      <c r="W58" s="276"/>
-      <c r="X58" s="277"/>
+      <c r="F58" s="277"/>
+      <c r="G58" s="277"/>
+      <c r="H58" s="277"/>
+      <c r="I58" s="277"/>
+      <c r="J58" s="277"/>
+      <c r="K58" s="277"/>
+      <c r="L58" s="277"/>
+      <c r="M58" s="277"/>
+      <c r="N58" s="277"/>
+      <c r="O58" s="277"/>
+      <c r="P58" s="277"/>
+      <c r="Q58" s="277"/>
+      <c r="R58" s="277"/>
+      <c r="S58" s="277"/>
+      <c r="T58" s="277"/>
+      <c r="U58" s="277"/>
+      <c r="V58" s="277"/>
+      <c r="W58" s="277"/>
+      <c r="X58" s="278"/>
       <c r="Y58" s="48"/>
       <c r="Z58" s="48"/>
       <c r="AA58" s="48"/>
@@ -13867,7 +13867,7 @@
       <c r="D60" s="48"/>
       <c r="E60" s="142"/>
       <c r="F60" s="133" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G60" s="134"/>
       <c r="H60" s="134"/>
@@ -13879,7 +13879,7 @@
       <c r="L60" s="134"/>
       <c r="M60" s="134"/>
       <c r="N60" s="133" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O60" s="134"/>
       <c r="P60" s="134"/>
@@ -14007,7 +14007,7 @@
       <c r="U63" s="134"/>
       <c r="V63" s="134"/>
       <c r="W63" s="134"/>
-      <c r="X63" s="365"/>
+      <c r="X63" s="152"/>
       <c r="Y63" s="48"/>
       <c r="Z63" s="48"/>
       <c r="AA63" s="48"/>
@@ -14026,7 +14026,7 @@
       <c r="C64" s="48"/>
       <c r="D64" s="48"/>
       <c r="E64" s="133" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F64" s="134"/>
       <c r="G64" s="134"/>
@@ -14046,7 +14046,7 @@
       <c r="U64" s="134"/>
       <c r="V64" s="134"/>
       <c r="W64" s="134"/>
-      <c r="X64" s="365"/>
+      <c r="X64" s="152"/>
       <c r="Y64" s="48"/>
       <c r="Z64" s="48"/>
       <c r="AA64" s="48"/>
@@ -14065,7 +14065,7 @@
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="133" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F65" s="134"/>
       <c r="G65" s="134"/>
@@ -14085,7 +14085,7 @@
       <c r="U65" s="134"/>
       <c r="V65" s="134"/>
       <c r="W65" s="134"/>
-      <c r="X65" s="365"/>
+      <c r="X65" s="152"/>
       <c r="Y65" s="48"/>
       <c r="Z65" s="48"/>
       <c r="AA65" s="48"/>
@@ -14140,7 +14140,7 @@
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
       <c r="D67" s="58" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E67" s="48"/>
       <c r="F67" s="48"/>
@@ -14217,7 +14217,7 @@
       <c r="C69" s="48"/>
       <c r="D69" s="48"/>
       <c r="E69" s="58" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F69" s="48"/>
       <c r="G69" s="48"/>
@@ -14464,7 +14464,7 @@
     <row r="77" spans="1:35">
       <c r="C77" s="30"/>
       <c r="E77" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -14529,44 +14529,44 @@
     <row r="79" spans="1:35">
       <c r="C79" s="30"/>
       <c r="D79" s="30"/>
-      <c r="E79" s="271" t="s">
+      <c r="E79" s="272" t="s">
         <v>22</v>
       </c>
-      <c r="F79" s="271"/>
-      <c r="G79" s="319" t="s">
-        <v>152</v>
-      </c>
-      <c r="H79" s="320"/>
-      <c r="I79" s="320"/>
-      <c r="J79" s="320"/>
-      <c r="K79" s="320"/>
-      <c r="L79" s="321"/>
-      <c r="M79" s="271" t="s">
+      <c r="F79" s="272"/>
+      <c r="G79" s="320" t="s">
+        <v>149</v>
+      </c>
+      <c r="H79" s="321"/>
+      <c r="I79" s="321"/>
+      <c r="J79" s="321"/>
+      <c r="K79" s="321"/>
+      <c r="L79" s="322"/>
+      <c r="M79" s="272" t="s">
         <v>23</v>
       </c>
-      <c r="N79" s="271"/>
-      <c r="O79" s="319" t="s">
-        <v>153</v>
-      </c>
-      <c r="P79" s="320"/>
-      <c r="Q79" s="320"/>
-      <c r="R79" s="320"/>
-      <c r="S79" s="320"/>
-      <c r="T79" s="320"/>
-      <c r="U79" s="320"/>
-      <c r="V79" s="320"/>
-      <c r="W79" s="320"/>
-      <c r="X79" s="320"/>
-      <c r="Y79" s="320"/>
-      <c r="Z79" s="320"/>
-      <c r="AA79" s="320"/>
-      <c r="AB79" s="320"/>
-      <c r="AC79" s="320"/>
-      <c r="AD79" s="320"/>
-      <c r="AE79" s="320"/>
-      <c r="AF79" s="320"/>
-      <c r="AG79" s="320"/>
-      <c r="AH79" s="321"/>
+      <c r="N79" s="272"/>
+      <c r="O79" s="320" t="s">
+        <v>150</v>
+      </c>
+      <c r="P79" s="321"/>
+      <c r="Q79" s="321"/>
+      <c r="R79" s="321"/>
+      <c r="S79" s="321"/>
+      <c r="T79" s="321"/>
+      <c r="U79" s="321"/>
+      <c r="V79" s="321"/>
+      <c r="W79" s="321"/>
+      <c r="X79" s="321"/>
+      <c r="Y79" s="321"/>
+      <c r="Z79" s="321"/>
+      <c r="AA79" s="321"/>
+      <c r="AB79" s="321"/>
+      <c r="AC79" s="321"/>
+      <c r="AD79" s="321"/>
+      <c r="AE79" s="321"/>
+      <c r="AF79" s="321"/>
+      <c r="AG79" s="321"/>
+      <c r="AH79" s="322"/>
     </row>
     <row r="80" spans="1:35">
       <c r="C80" s="30"/>
@@ -14701,86 +14701,86 @@
     <row r="84" spans="3:34">
       <c r="C84" s="30"/>
       <c r="D84" s="30"/>
-      <c r="E84" s="311" t="s">
+      <c r="E84" s="312" t="s">
         <v>53</v>
       </c>
-      <c r="F84" s="305" t="s">
+      <c r="F84" s="306" t="s">
         <v>24</v>
       </c>
-      <c r="G84" s="306"/>
-      <c r="H84" s="306"/>
-      <c r="I84" s="307"/>
-      <c r="J84" s="305" t="s">
+      <c r="G84" s="307"/>
+      <c r="H84" s="307"/>
+      <c r="I84" s="308"/>
+      <c r="J84" s="306" t="s">
         <v>25</v>
       </c>
-      <c r="K84" s="306"/>
-      <c r="L84" s="306"/>
-      <c r="M84" s="307"/>
-      <c r="N84" s="355" t="s">
+      <c r="K84" s="307"/>
+      <c r="L84" s="307"/>
+      <c r="M84" s="308"/>
+      <c r="N84" s="356" t="s">
         <v>26</v>
       </c>
-      <c r="O84" s="355"/>
-      <c r="P84" s="355"/>
-      <c r="Q84" s="355"/>
-      <c r="R84" s="355"/>
-      <c r="S84" s="355"/>
-      <c r="T84" s="355"/>
-      <c r="U84" s="355"/>
-      <c r="V84" s="355"/>
-      <c r="W84" s="305" t="s">
+      <c r="O84" s="356"/>
+      <c r="P84" s="356"/>
+      <c r="Q84" s="356"/>
+      <c r="R84" s="356"/>
+      <c r="S84" s="356"/>
+      <c r="T84" s="356"/>
+      <c r="U84" s="356"/>
+      <c r="V84" s="356"/>
+      <c r="W84" s="306" t="s">
         <v>34</v>
       </c>
-      <c r="X84" s="306"/>
-      <c r="Y84" s="306"/>
-      <c r="Z84" s="306"/>
-      <c r="AA84" s="306"/>
-      <c r="AB84" s="306"/>
-      <c r="AC84" s="307"/>
-      <c r="AD84" s="305" t="s">
+      <c r="X84" s="307"/>
+      <c r="Y84" s="307"/>
+      <c r="Z84" s="307"/>
+      <c r="AA84" s="307"/>
+      <c r="AB84" s="307"/>
+      <c r="AC84" s="308"/>
+      <c r="AD84" s="306" t="s">
         <v>35</v>
       </c>
-      <c r="AE84" s="306"/>
-      <c r="AF84" s="306"/>
-      <c r="AG84" s="306"/>
-      <c r="AH84" s="307"/>
+      <c r="AE84" s="307"/>
+      <c r="AF84" s="307"/>
+      <c r="AG84" s="307"/>
+      <c r="AH84" s="308"/>
     </row>
     <row r="85" spans="3:34">
       <c r="C85" s="30"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="312"/>
-      <c r="F85" s="308"/>
-      <c r="G85" s="309"/>
-      <c r="H85" s="309"/>
-      <c r="I85" s="310"/>
-      <c r="J85" s="308"/>
-      <c r="K85" s="309"/>
-      <c r="L85" s="309"/>
-      <c r="M85" s="310"/>
-      <c r="N85" s="355" t="s">
+      <c r="E85" s="313"/>
+      <c r="F85" s="309"/>
+      <c r="G85" s="310"/>
+      <c r="H85" s="310"/>
+      <c r="I85" s="311"/>
+      <c r="J85" s="309"/>
+      <c r="K85" s="310"/>
+      <c r="L85" s="310"/>
+      <c r="M85" s="311"/>
+      <c r="N85" s="356" t="s">
         <v>29</v>
       </c>
-      <c r="O85" s="355"/>
-      <c r="P85" s="355"/>
-      <c r="Q85" s="355"/>
-      <c r="R85" s="355"/>
-      <c r="S85" s="356" t="s">
+      <c r="O85" s="356"/>
+      <c r="P85" s="356"/>
+      <c r="Q85" s="356"/>
+      <c r="R85" s="356"/>
+      <c r="S85" s="357" t="s">
         <v>30</v>
       </c>
-      <c r="T85" s="356"/>
-      <c r="U85" s="356"/>
-      <c r="V85" s="356"/>
-      <c r="W85" s="308"/>
-      <c r="X85" s="309"/>
-      <c r="Y85" s="309"/>
-      <c r="Z85" s="309"/>
-      <c r="AA85" s="309"/>
-      <c r="AB85" s="309"/>
-      <c r="AC85" s="310"/>
-      <c r="AD85" s="308"/>
-      <c r="AE85" s="309"/>
-      <c r="AF85" s="309"/>
-      <c r="AG85" s="309"/>
-      <c r="AH85" s="310"/>
+      <c r="T85" s="357"/>
+      <c r="U85" s="357"/>
+      <c r="V85" s="357"/>
+      <c r="W85" s="309"/>
+      <c r="X85" s="310"/>
+      <c r="Y85" s="310"/>
+      <c r="Z85" s="310"/>
+      <c r="AA85" s="310"/>
+      <c r="AB85" s="310"/>
+      <c r="AC85" s="311"/>
+      <c r="AD85" s="309"/>
+      <c r="AE85" s="310"/>
+      <c r="AF85" s="310"/>
+      <c r="AG85" s="310"/>
+      <c r="AH85" s="311"/>
     </row>
     <row r="86" spans="3:34">
       <c r="C86" s="30"/>
@@ -14788,43 +14788,43 @@
       <c r="E86" s="41">
         <v>1</v>
       </c>
-      <c r="F86" s="349" t="s">
-        <v>155</v>
-      </c>
-      <c r="G86" s="350"/>
-      <c r="H86" s="350"/>
-      <c r="I86" s="351"/>
-      <c r="J86" s="349" t="s">
+      <c r="F86" s="350" t="s">
+        <v>152</v>
+      </c>
+      <c r="G86" s="351"/>
+      <c r="H86" s="351"/>
+      <c r="I86" s="352"/>
+      <c r="J86" s="350" t="s">
         <v>101</v>
       </c>
-      <c r="K86" s="350"/>
-      <c r="L86" s="350"/>
-      <c r="M86" s="351"/>
-      <c r="N86" s="357" t="s">
+      <c r="K86" s="351"/>
+      <c r="L86" s="351"/>
+      <c r="M86" s="352"/>
+      <c r="N86" s="358" t="s">
         <v>81</v>
       </c>
-      <c r="O86" s="358"/>
-      <c r="P86" s="358"/>
-      <c r="Q86" s="358"/>
-      <c r="R86" s="358"/>
-      <c r="S86" s="359" t="s">
+      <c r="O86" s="359"/>
+      <c r="P86" s="359"/>
+      <c r="Q86" s="359"/>
+      <c r="R86" s="359"/>
+      <c r="S86" s="360" t="s">
         <v>82</v>
       </c>
-      <c r="T86" s="360"/>
-      <c r="U86" s="360"/>
-      <c r="V86" s="360"/>
-      <c r="W86" s="352"/>
-      <c r="X86" s="353"/>
-      <c r="Y86" s="353"/>
-      <c r="Z86" s="353"/>
-      <c r="AA86" s="353"/>
-      <c r="AB86" s="353"/>
-      <c r="AC86" s="354"/>
-      <c r="AD86" s="352"/>
-      <c r="AE86" s="353"/>
-      <c r="AF86" s="353"/>
-      <c r="AG86" s="353"/>
-      <c r="AH86" s="354"/>
+      <c r="T86" s="361"/>
+      <c r="U86" s="361"/>
+      <c r="V86" s="361"/>
+      <c r="W86" s="353"/>
+      <c r="X86" s="354"/>
+      <c r="Y86" s="354"/>
+      <c r="Z86" s="354"/>
+      <c r="AA86" s="354"/>
+      <c r="AB86" s="354"/>
+      <c r="AC86" s="355"/>
+      <c r="AD86" s="353"/>
+      <c r="AE86" s="354"/>
+      <c r="AF86" s="354"/>
+      <c r="AG86" s="354"/>
+      <c r="AH86" s="355"/>
     </row>
     <row r="87" spans="3:34">
       <c r="C87" s="30"/>
@@ -14832,43 +14832,43 @@
       <c r="E87" s="41">
         <v>2</v>
       </c>
-      <c r="F87" s="349" t="s">
-        <v>156</v>
-      </c>
-      <c r="G87" s="350"/>
-      <c r="H87" s="350"/>
-      <c r="I87" s="351"/>
-      <c r="J87" s="349" t="s">
+      <c r="F87" s="350" t="s">
+        <v>153</v>
+      </c>
+      <c r="G87" s="351"/>
+      <c r="H87" s="351"/>
+      <c r="I87" s="352"/>
+      <c r="J87" s="350" t="s">
         <v>103</v>
       </c>
-      <c r="K87" s="350"/>
-      <c r="L87" s="350"/>
-      <c r="M87" s="351"/>
-      <c r="N87" s="357" t="s">
+      <c r="K87" s="351"/>
+      <c r="L87" s="351"/>
+      <c r="M87" s="352"/>
+      <c r="N87" s="358" t="s">
         <v>81</v>
       </c>
-      <c r="O87" s="358"/>
-      <c r="P87" s="358"/>
-      <c r="Q87" s="358"/>
-      <c r="R87" s="358"/>
-      <c r="S87" s="359" t="s">
+      <c r="O87" s="359"/>
+      <c r="P87" s="359"/>
+      <c r="Q87" s="359"/>
+      <c r="R87" s="359"/>
+      <c r="S87" s="360" t="s">
         <v>83</v>
       </c>
-      <c r="T87" s="360"/>
-      <c r="U87" s="360"/>
-      <c r="V87" s="360"/>
-      <c r="W87" s="352"/>
-      <c r="X87" s="353"/>
-      <c r="Y87" s="353"/>
-      <c r="Z87" s="353"/>
-      <c r="AA87" s="353"/>
-      <c r="AB87" s="353"/>
-      <c r="AC87" s="354"/>
-      <c r="AD87" s="352"/>
-      <c r="AE87" s="353"/>
-      <c r="AF87" s="353"/>
-      <c r="AG87" s="353"/>
-      <c r="AH87" s="354"/>
+      <c r="T87" s="361"/>
+      <c r="U87" s="361"/>
+      <c r="V87" s="361"/>
+      <c r="W87" s="353"/>
+      <c r="X87" s="354"/>
+      <c r="Y87" s="354"/>
+      <c r="Z87" s="354"/>
+      <c r="AA87" s="354"/>
+      <c r="AB87" s="354"/>
+      <c r="AC87" s="355"/>
+      <c r="AD87" s="353"/>
+      <c r="AE87" s="354"/>
+      <c r="AF87" s="354"/>
+      <c r="AG87" s="354"/>
+      <c r="AH87" s="355"/>
     </row>
     <row r="88" spans="3:34">
       <c r="C88" s="30"/>
@@ -14876,43 +14876,43 @@
       <c r="E88" s="41">
         <v>3</v>
       </c>
-      <c r="F88" s="349" t="s">
+      <c r="F88" s="350" t="s">
         <v>80</v>
       </c>
-      <c r="G88" s="350"/>
-      <c r="H88" s="350"/>
-      <c r="I88" s="351"/>
-      <c r="J88" s="349" t="s">
+      <c r="G88" s="351"/>
+      <c r="H88" s="351"/>
+      <c r="I88" s="352"/>
+      <c r="J88" s="350" t="s">
         <v>105</v>
       </c>
-      <c r="K88" s="350"/>
-      <c r="L88" s="350"/>
-      <c r="M88" s="351"/>
-      <c r="N88" s="357" t="s">
+      <c r="K88" s="351"/>
+      <c r="L88" s="351"/>
+      <c r="M88" s="352"/>
+      <c r="N88" s="358" t="s">
         <v>81</v>
       </c>
-      <c r="O88" s="358"/>
-      <c r="P88" s="358"/>
-      <c r="Q88" s="358"/>
-      <c r="R88" s="358"/>
-      <c r="S88" s="359" t="s">
+      <c r="O88" s="359"/>
+      <c r="P88" s="359"/>
+      <c r="Q88" s="359"/>
+      <c r="R88" s="359"/>
+      <c r="S88" s="360" t="s">
         <v>84</v>
       </c>
-      <c r="T88" s="360"/>
-      <c r="U88" s="360"/>
-      <c r="V88" s="360"/>
-      <c r="W88" s="352"/>
-      <c r="X88" s="353"/>
-      <c r="Y88" s="353"/>
-      <c r="Z88" s="353"/>
-      <c r="AA88" s="353"/>
-      <c r="AB88" s="353"/>
-      <c r="AC88" s="354"/>
-      <c r="AD88" s="352"/>
-      <c r="AE88" s="353"/>
-      <c r="AF88" s="353"/>
-      <c r="AG88" s="353"/>
-      <c r="AH88" s="354"/>
+      <c r="T88" s="361"/>
+      <c r="U88" s="361"/>
+      <c r="V88" s="361"/>
+      <c r="W88" s="353"/>
+      <c r="X88" s="354"/>
+      <c r="Y88" s="354"/>
+      <c r="Z88" s="354"/>
+      <c r="AA88" s="354"/>
+      <c r="AB88" s="354"/>
+      <c r="AC88" s="355"/>
+      <c r="AD88" s="353"/>
+      <c r="AE88" s="354"/>
+      <c r="AF88" s="354"/>
+      <c r="AG88" s="354"/>
+      <c r="AH88" s="355"/>
     </row>
     <row r="89" spans="3:34">
       <c r="C89" s="30"/>
@@ -14920,35 +14920,35 @@
       <c r="E89" s="41">
         <v>4</v>
       </c>
-      <c r="F89" s="349"/>
-      <c r="G89" s="350"/>
-      <c r="H89" s="350"/>
-      <c r="I89" s="351"/>
-      <c r="J89" s="349"/>
-      <c r="K89" s="350"/>
-      <c r="L89" s="350"/>
-      <c r="M89" s="351"/>
-      <c r="N89" s="364"/>
-      <c r="O89" s="358"/>
-      <c r="P89" s="358"/>
-      <c r="Q89" s="358"/>
-      <c r="R89" s="358"/>
-      <c r="S89" s="360"/>
-      <c r="T89" s="360"/>
-      <c r="U89" s="360"/>
-      <c r="V89" s="360"/>
-      <c r="W89" s="352"/>
-      <c r="X89" s="353"/>
-      <c r="Y89" s="353"/>
-      <c r="Z89" s="353"/>
-      <c r="AA89" s="353"/>
-      <c r="AB89" s="353"/>
-      <c r="AC89" s="354"/>
-      <c r="AD89" s="352"/>
-      <c r="AE89" s="353"/>
-      <c r="AF89" s="353"/>
-      <c r="AG89" s="353"/>
-      <c r="AH89" s="354"/>
+      <c r="F89" s="350"/>
+      <c r="G89" s="351"/>
+      <c r="H89" s="351"/>
+      <c r="I89" s="352"/>
+      <c r="J89" s="350"/>
+      <c r="K89" s="351"/>
+      <c r="L89" s="351"/>
+      <c r="M89" s="352"/>
+      <c r="N89" s="365"/>
+      <c r="O89" s="359"/>
+      <c r="P89" s="359"/>
+      <c r="Q89" s="359"/>
+      <c r="R89" s="359"/>
+      <c r="S89" s="361"/>
+      <c r="T89" s="361"/>
+      <c r="U89" s="361"/>
+      <c r="V89" s="361"/>
+      <c r="W89" s="353"/>
+      <c r="X89" s="354"/>
+      <c r="Y89" s="354"/>
+      <c r="Z89" s="354"/>
+      <c r="AA89" s="354"/>
+      <c r="AB89" s="354"/>
+      <c r="AC89" s="355"/>
+      <c r="AD89" s="353"/>
+      <c r="AE89" s="354"/>
+      <c r="AF89" s="354"/>
+      <c r="AG89" s="354"/>
+      <c r="AH89" s="355"/>
     </row>
     <row r="90" spans="3:34">
       <c r="C90" s="30"/>
@@ -14956,35 +14956,35 @@
       <c r="E90" s="41">
         <v>5</v>
       </c>
-      <c r="F90" s="349"/>
-      <c r="G90" s="350"/>
-      <c r="H90" s="350"/>
-      <c r="I90" s="351"/>
-      <c r="J90" s="349"/>
-      <c r="K90" s="350"/>
-      <c r="L90" s="350"/>
-      <c r="M90" s="351"/>
-      <c r="N90" s="364"/>
-      <c r="O90" s="358"/>
-      <c r="P90" s="358"/>
-      <c r="Q90" s="358"/>
-      <c r="R90" s="358"/>
-      <c r="S90" s="360"/>
-      <c r="T90" s="360"/>
-      <c r="U90" s="360"/>
-      <c r="V90" s="360"/>
-      <c r="W90" s="352"/>
-      <c r="X90" s="353"/>
-      <c r="Y90" s="353"/>
-      <c r="Z90" s="353"/>
-      <c r="AA90" s="353"/>
-      <c r="AB90" s="353"/>
-      <c r="AC90" s="354"/>
-      <c r="AD90" s="352"/>
-      <c r="AE90" s="353"/>
-      <c r="AF90" s="353"/>
-      <c r="AG90" s="353"/>
-      <c r="AH90" s="354"/>
+      <c r="F90" s="350"/>
+      <c r="G90" s="351"/>
+      <c r="H90" s="351"/>
+      <c r="I90" s="352"/>
+      <c r="J90" s="350"/>
+      <c r="K90" s="351"/>
+      <c r="L90" s="351"/>
+      <c r="M90" s="352"/>
+      <c r="N90" s="365"/>
+      <c r="O90" s="359"/>
+      <c r="P90" s="359"/>
+      <c r="Q90" s="359"/>
+      <c r="R90" s="359"/>
+      <c r="S90" s="361"/>
+      <c r="T90" s="361"/>
+      <c r="U90" s="361"/>
+      <c r="V90" s="361"/>
+      <c r="W90" s="353"/>
+      <c r="X90" s="354"/>
+      <c r="Y90" s="354"/>
+      <c r="Z90" s="354"/>
+      <c r="AA90" s="354"/>
+      <c r="AB90" s="354"/>
+      <c r="AC90" s="355"/>
+      <c r="AD90" s="353"/>
+      <c r="AE90" s="354"/>
+      <c r="AF90" s="354"/>
+      <c r="AG90" s="354"/>
+      <c r="AH90" s="355"/>
     </row>
   </sheetData>
   <mergeCells count="123">

--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10101_顧客検索.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10101_顧客検索.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1.1. Webサービス取引概要'!$A$1:$AI$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10101（顧客検索）'!$A$1:$AI$91</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'2. B10101（顧客検索）'!$A$1:$AI$92</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">データ!$A$1:$B$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
@@ -40,7 +40,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="E32" authorId="0">
+    <comment ref="E33" authorId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F33" authorId="0">
+    <comment ref="F34" authorId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="167">
   <si>
     <t>PJ名</t>
   </si>
@@ -971,27 +971,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>【外部インタフェース設計書_B10101C_顧客検索要求電文_(JSON)】を参照。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>B10101C</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>顧客検索要求電文</t>
-    <rPh sb="0" eb="2">
-      <t>コキャク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンサク</t>
-    </rPh>
-    <rPh sb="4" eb="8">
-      <t>ヨウキュウデンブン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1265,6 +1244,74 @@
   </si>
   <si>
     <t>errors.upper.limit</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>パラメータ名</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>必須</t>
+    <rPh sb="0" eb="2">
+      <t>ヒッス</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ドメイン名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>client_name</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客名</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>industry_code</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>業種コード</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウシュ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>顧客名</t>
+    <rPh sb="0" eb="3">
+      <t>コキャクメイ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>クエリ―パラメータ</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1694,7 +1741,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="366">
+  <cellXfs count="383">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2056,9 +2103,129 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2095,163 +2262,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2263,9 +2355,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2293,41 +2382,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2338,15 +2418,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2356,22 +2427,223 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2382,48 +2654,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2488,200 +2718,52 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3790,61 +3872,6 @@
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
             <a:t>結合子</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="326243" cy="151836"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Text Box 104"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4143375" y="5581650"/>
-          <a:ext cx="326243" cy="151836"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="18288" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>識別子</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5437,62 +5464,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="AutoShape 365"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="533400" y="2590801"/>
-          <a:ext cx="1838325" cy="466725"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartOnlineStorage">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>150813</xdr:colOff>
       <xdr:row>12</xdr:row>
@@ -5533,92 +5504,6 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1276629" cy="318549"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Text Box 367"/>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="676275" y="2676525"/>
-          <a:ext cx="1276629" cy="318549"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="square" lIns="18288" tIns="18288" rIns="18288" bIns="0" anchor="t" upright="1">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>B10101C</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>顧客検索要求電文</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
@@ -5806,6 +5691,59 @@
           <a:round/>
           <a:headEnd/>
           <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Oval 124"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1866900" y="1762125"/>
+          <a:ext cx="142875" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="000000"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
       </xdr:spPr>
       <xdr:txBody>
@@ -6238,12 +6176,12 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="153">
+      <c r="I25" s="155">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="153"/>
-      <c r="K25" s="153"/>
+      <c r="J25" s="155"/>
+      <c r="K25" s="155"/>
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1">
@@ -6874,55 +6812,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="192" t="s">
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="167" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="201" t="s">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="210" t="s">
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="185" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="211"/>
-      <c r="U1" s="211"/>
-      <c r="V1" s="211"/>
-      <c r="W1" s="211"/>
-      <c r="X1" s="211"/>
-      <c r="Y1" s="211"/>
-      <c r="Z1" s="212"/>
-      <c r="AA1" s="198" t="s">
+      <c r="T1" s="186"/>
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="187"/>
+      <c r="AA1" s="173" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="181" t="s">
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="156" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="182"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="185">
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="160">
         <v>43718</v>
       </c>
-      <c r="AH1" s="186"/>
-      <c r="AI1" s="187"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -6930,53 +6868,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="192" t="s">
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="204"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213"/>
-      <c r="T2" s="214"/>
-      <c r="U2" s="214"/>
-      <c r="V2" s="214"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="214"/>
-      <c r="Y2" s="214"/>
-      <c r="Z2" s="215"/>
-      <c r="AA2" s="198" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="189"/>
+      <c r="U2" s="189"/>
+      <c r="V2" s="189"/>
+      <c r="W2" s="189"/>
+      <c r="X2" s="189"/>
+      <c r="Y2" s="189"/>
+      <c r="Z2" s="190"/>
+      <c r="AA2" s="173" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="195" t="str">
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="170" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="196"/>
-      <c r="AE2" s="196"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="185" t="str">
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="172"/>
+      <c r="AG2" s="160" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="186"/>
-      <c r="AI2" s="187"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -6984,45 +6922,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="192" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="167" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="216"/>
-      <c r="T3" s="217"/>
-      <c r="U3" s="217"/>
-      <c r="V3" s="217"/>
-      <c r="W3" s="217"/>
-      <c r="X3" s="217"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="218"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="200"/>
-      <c r="AC3" s="184"/>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="185"/>
-      <c r="AH3" s="186"/>
-      <c r="AI3" s="187"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="192"/>
+      <c r="U3" s="192"/>
+      <c r="V3" s="192"/>
+      <c r="W3" s="192"/>
+      <c r="X3" s="192"/>
+      <c r="Y3" s="192"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="159"/>
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -7059,1030 +6997,1186 @@
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="163" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="189"/>
-      <c r="D7" s="188" t="s">
+      <c r="C7" s="164"/>
+      <c r="D7" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="190"/>
-      <c r="F7" s="189"/>
-      <c r="G7" s="188" t="s">
+      <c r="E7" s="165"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="163" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="190"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="191" t="s">
+      <c r="H7" s="165"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="166" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="190"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="190"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="190"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="188" t="s">
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+      <c r="N7" s="165"/>
+      <c r="O7" s="165"/>
+      <c r="P7" s="164"/>
+      <c r="Q7" s="163" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="190"/>
-      <c r="S7" s="190"/>
-      <c r="T7" s="190"/>
-      <c r="U7" s="190"/>
-      <c r="V7" s="190"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="190"/>
-      <c r="Y7" s="190"/>
-      <c r="Z7" s="190"/>
-      <c r="AA7" s="190"/>
-      <c r="AB7" s="190"/>
-      <c r="AC7" s="190"/>
-      <c r="AD7" s="190"/>
-      <c r="AE7" s="189"/>
-      <c r="AF7" s="191" t="s">
+      <c r="R7" s="165"/>
+      <c r="S7" s="165"/>
+      <c r="T7" s="165"/>
+      <c r="U7" s="165"/>
+      <c r="V7" s="165"/>
+      <c r="W7" s="165"/>
+      <c r="X7" s="165"/>
+      <c r="Y7" s="165"/>
+      <c r="Z7" s="165"/>
+      <c r="AA7" s="165"/>
+      <c r="AB7" s="165"/>
+      <c r="AC7" s="165"/>
+      <c r="AD7" s="165"/>
+      <c r="AE7" s="164"/>
+      <c r="AF7" s="166" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="190"/>
-      <c r="AH7" s="190"/>
-      <c r="AI7" s="189"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="164"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="117">
         <v>1</v>
       </c>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="206" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="169">
+      <c r="C8" s="207"/>
+      <c r="D8" s="208">
         <v>43718</v>
       </c>
-      <c r="E8" s="170"/>
-      <c r="F8" s="171"/>
-      <c r="G8" s="172" t="s">
+      <c r="E8" s="209"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="211" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="173"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="175"/>
-      <c r="M8" s="175"/>
-      <c r="N8" s="175"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="176"/>
-      <c r="Q8" s="178"/>
-      <c r="R8" s="179"/>
-      <c r="S8" s="179"/>
-      <c r="T8" s="179"/>
-      <c r="U8" s="179"/>
-      <c r="V8" s="179"/>
-      <c r="W8" s="179"/>
-      <c r="X8" s="179"/>
-      <c r="Y8" s="179"/>
-      <c r="Z8" s="179"/>
-      <c r="AA8" s="179"/>
-      <c r="AB8" s="179"/>
-      <c r="AC8" s="179"/>
-      <c r="AD8" s="179"/>
-      <c r="AE8" s="180"/>
-      <c r="AF8" s="177" t="s">
+      <c r="H8" s="212"/>
+      <c r="I8" s="207"/>
+      <c r="J8" s="213"/>
+      <c r="K8" s="214"/>
+      <c r="L8" s="214"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="214"/>
+      <c r="O8" s="214"/>
+      <c r="P8" s="215"/>
+      <c r="Q8" s="217"/>
+      <c r="R8" s="218"/>
+      <c r="S8" s="218"/>
+      <c r="T8" s="218"/>
+      <c r="U8" s="218"/>
+      <c r="V8" s="218"/>
+      <c r="W8" s="218"/>
+      <c r="X8" s="218"/>
+      <c r="Y8" s="218"/>
+      <c r="Z8" s="218"/>
+      <c r="AA8" s="218"/>
+      <c r="AB8" s="218"/>
+      <c r="AC8" s="218"/>
+      <c r="AD8" s="218"/>
+      <c r="AE8" s="219"/>
+      <c r="AF8" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175"/>
-      <c r="AI8" s="176"/>
+      <c r="AG8" s="214"/>
+      <c r="AH8" s="214"/>
+      <c r="AI8" s="215"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="118"/>
-      <c r="B9" s="154"/>
-      <c r="C9" s="155"/>
-      <c r="D9" s="156"/>
-      <c r="E9" s="157"/>
-      <c r="F9" s="158"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="159"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="160"/>
-      <c r="K9" s="161"/>
-      <c r="L9" s="161"/>
-      <c r="M9" s="161"/>
-      <c r="N9" s="161"/>
-      <c r="O9" s="161"/>
-      <c r="P9" s="162"/>
-      <c r="Q9" s="163"/>
-      <c r="R9" s="164"/>
-      <c r="S9" s="164"/>
-      <c r="T9" s="164"/>
-      <c r="U9" s="164"/>
-      <c r="V9" s="164"/>
-      <c r="W9" s="164"/>
-      <c r="X9" s="164"/>
-      <c r="Y9" s="164"/>
-      <c r="Z9" s="164"/>
-      <c r="AA9" s="164"/>
-      <c r="AB9" s="164"/>
-      <c r="AC9" s="164"/>
-      <c r="AD9" s="164"/>
-      <c r="AE9" s="165"/>
-      <c r="AF9" s="160"/>
-      <c r="AG9" s="161"/>
-      <c r="AH9" s="161"/>
-      <c r="AI9" s="162"/>
+      <c r="B9" s="194"/>
+      <c r="C9" s="195"/>
+      <c r="D9" s="196"/>
+      <c r="E9" s="197"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="199"/>
+      <c r="I9" s="195"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="201"/>
+      <c r="L9" s="201"/>
+      <c r="M9" s="201"/>
+      <c r="N9" s="201"/>
+      <c r="O9" s="201"/>
+      <c r="P9" s="202"/>
+      <c r="Q9" s="203"/>
+      <c r="R9" s="204"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="204"/>
+      <c r="U9" s="204"/>
+      <c r="V9" s="204"/>
+      <c r="W9" s="204"/>
+      <c r="X9" s="204"/>
+      <c r="Y9" s="204"/>
+      <c r="Z9" s="204"/>
+      <c r="AA9" s="204"/>
+      <c r="AB9" s="204"/>
+      <c r="AC9" s="204"/>
+      <c r="AD9" s="204"/>
+      <c r="AE9" s="205"/>
+      <c r="AF9" s="200"/>
+      <c r="AG9" s="201"/>
+      <c r="AH9" s="201"/>
+      <c r="AI9" s="202"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="118"/>
-      <c r="B10" s="154"/>
-      <c r="C10" s="155"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="157"/>
-      <c r="F10" s="158"/>
-      <c r="G10" s="154"/>
-      <c r="H10" s="159"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="160"/>
-      <c r="K10" s="161"/>
-      <c r="L10" s="161"/>
-      <c r="M10" s="161"/>
-      <c r="N10" s="161"/>
-      <c r="O10" s="161"/>
-      <c r="P10" s="162"/>
-      <c r="Q10" s="163"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="164"/>
-      <c r="T10" s="164"/>
-      <c r="U10" s="164"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="164"/>
-      <c r="AA10" s="164"/>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="164"/>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="165"/>
-      <c r="AF10" s="160"/>
-      <c r="AG10" s="161"/>
-      <c r="AH10" s="161"/>
-      <c r="AI10" s="162"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="197"/>
+      <c r="F10" s="198"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="201"/>
+      <c r="L10" s="201"/>
+      <c r="M10" s="201"/>
+      <c r="N10" s="201"/>
+      <c r="O10" s="201"/>
+      <c r="P10" s="202"/>
+      <c r="Q10" s="203"/>
+      <c r="R10" s="204"/>
+      <c r="S10" s="204"/>
+      <c r="T10" s="204"/>
+      <c r="U10" s="204"/>
+      <c r="V10" s="204"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="204"/>
+      <c r="Z10" s="204"/>
+      <c r="AA10" s="204"/>
+      <c r="AB10" s="204"/>
+      <c r="AC10" s="204"/>
+      <c r="AD10" s="204"/>
+      <c r="AE10" s="205"/>
+      <c r="AF10" s="200"/>
+      <c r="AG10" s="201"/>
+      <c r="AH10" s="201"/>
+      <c r="AI10" s="202"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="154"/>
-      <c r="C11" s="155"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="157"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="159"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="160"/>
-      <c r="K11" s="161"/>
-      <c r="L11" s="161"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="161"/>
-      <c r="O11" s="161"/>
-      <c r="P11" s="162"/>
-      <c r="Q11" s="163"/>
-      <c r="R11" s="164"/>
-      <c r="S11" s="164"/>
-      <c r="T11" s="164"/>
-      <c r="U11" s="164"/>
-      <c r="V11" s="164"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="164"/>
-      <c r="Y11" s="164"/>
-      <c r="Z11" s="164"/>
-      <c r="AA11" s="164"/>
-      <c r="AB11" s="164"/>
-      <c r="AC11" s="164"/>
-      <c r="AD11" s="164"/>
-      <c r="AE11" s="165"/>
-      <c r="AF11" s="160"/>
-      <c r="AG11" s="161"/>
-      <c r="AH11" s="161"/>
-      <c r="AI11" s="162"/>
+      <c r="B11" s="194"/>
+      <c r="C11" s="195"/>
+      <c r="D11" s="196"/>
+      <c r="E11" s="197"/>
+      <c r="F11" s="198"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="201"/>
+      <c r="L11" s="201"/>
+      <c r="M11" s="201"/>
+      <c r="N11" s="201"/>
+      <c r="O11" s="201"/>
+      <c r="P11" s="202"/>
+      <c r="Q11" s="203"/>
+      <c r="R11" s="204"/>
+      <c r="S11" s="204"/>
+      <c r="T11" s="204"/>
+      <c r="U11" s="204"/>
+      <c r="V11" s="204"/>
+      <c r="W11" s="204"/>
+      <c r="X11" s="204"/>
+      <c r="Y11" s="204"/>
+      <c r="Z11" s="204"/>
+      <c r="AA11" s="204"/>
+      <c r="AB11" s="204"/>
+      <c r="AC11" s="204"/>
+      <c r="AD11" s="204"/>
+      <c r="AE11" s="205"/>
+      <c r="AF11" s="200"/>
+      <c r="AG11" s="201"/>
+      <c r="AH11" s="201"/>
+      <c r="AI11" s="202"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="154"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="157"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="159"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="160"/>
-      <c r="K12" s="161"/>
-      <c r="L12" s="161"/>
-      <c r="M12" s="161"/>
-      <c r="N12" s="161"/>
-      <c r="O12" s="161"/>
-      <c r="P12" s="162"/>
-      <c r="Q12" s="163"/>
-      <c r="R12" s="164"/>
-      <c r="S12" s="164"/>
-      <c r="T12" s="164"/>
-      <c r="U12" s="164"/>
-      <c r="V12" s="164"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="164"/>
-      <c r="AB12" s="164"/>
-      <c r="AC12" s="164"/>
-      <c r="AD12" s="164"/>
-      <c r="AE12" s="165"/>
-      <c r="AF12" s="160"/>
-      <c r="AG12" s="161"/>
-      <c r="AH12" s="161"/>
-      <c r="AI12" s="162"/>
+      <c r="B12" s="194"/>
+      <c r="C12" s="195"/>
+      <c r="D12" s="196"/>
+      <c r="E12" s="197"/>
+      <c r="F12" s="198"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="199"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="201"/>
+      <c r="L12" s="201"/>
+      <c r="M12" s="201"/>
+      <c r="N12" s="201"/>
+      <c r="O12" s="201"/>
+      <c r="P12" s="202"/>
+      <c r="Q12" s="203"/>
+      <c r="R12" s="204"/>
+      <c r="S12" s="204"/>
+      <c r="T12" s="204"/>
+      <c r="U12" s="204"/>
+      <c r="V12" s="204"/>
+      <c r="W12" s="204"/>
+      <c r="X12" s="204"/>
+      <c r="Y12" s="204"/>
+      <c r="Z12" s="204"/>
+      <c r="AA12" s="204"/>
+      <c r="AB12" s="204"/>
+      <c r="AC12" s="204"/>
+      <c r="AD12" s="204"/>
+      <c r="AE12" s="205"/>
+      <c r="AF12" s="200"/>
+      <c r="AG12" s="201"/>
+      <c r="AH12" s="201"/>
+      <c r="AI12" s="202"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="155"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="160"/>
-      <c r="K13" s="161"/>
-      <c r="L13" s="161"/>
-      <c r="M13" s="161"/>
-      <c r="N13" s="161"/>
-      <c r="O13" s="161"/>
-      <c r="P13" s="162"/>
-      <c r="Q13" s="163"/>
-      <c r="R13" s="164"/>
-      <c r="S13" s="164"/>
-      <c r="T13" s="164"/>
-      <c r="U13" s="164"/>
-      <c r="V13" s="164"/>
-      <c r="W13" s="164"/>
-      <c r="X13" s="164"/>
-      <c r="Y13" s="164"/>
-      <c r="Z13" s="164"/>
-      <c r="AA13" s="164"/>
-      <c r="AB13" s="164"/>
-      <c r="AC13" s="164"/>
-      <c r="AD13" s="164"/>
-      <c r="AE13" s="165"/>
-      <c r="AF13" s="160"/>
-      <c r="AG13" s="161"/>
-      <c r="AH13" s="161"/>
-      <c r="AI13" s="162"/>
+      <c r="B13" s="194"/>
+      <c r="C13" s="195"/>
+      <c r="D13" s="196"/>
+      <c r="E13" s="197"/>
+      <c r="F13" s="198"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="201"/>
+      <c r="L13" s="201"/>
+      <c r="M13" s="201"/>
+      <c r="N13" s="201"/>
+      <c r="O13" s="201"/>
+      <c r="P13" s="202"/>
+      <c r="Q13" s="203"/>
+      <c r="R13" s="204"/>
+      <c r="S13" s="204"/>
+      <c r="T13" s="204"/>
+      <c r="U13" s="204"/>
+      <c r="V13" s="204"/>
+      <c r="W13" s="204"/>
+      <c r="X13" s="204"/>
+      <c r="Y13" s="204"/>
+      <c r="Z13" s="204"/>
+      <c r="AA13" s="204"/>
+      <c r="AB13" s="204"/>
+      <c r="AC13" s="204"/>
+      <c r="AD13" s="204"/>
+      <c r="AE13" s="205"/>
+      <c r="AF13" s="200"/>
+      <c r="AG13" s="201"/>
+      <c r="AH13" s="201"/>
+      <c r="AI13" s="202"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="157"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="159"/>
-      <c r="I14" s="155"/>
-      <c r="J14" s="160"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="162"/>
-      <c r="Q14" s="163"/>
-      <c r="R14" s="164"/>
-      <c r="S14" s="164"/>
-      <c r="T14" s="164"/>
-      <c r="U14" s="164"/>
-      <c r="V14" s="164"/>
-      <c r="W14" s="164"/>
-      <c r="X14" s="164"/>
-      <c r="Y14" s="164"/>
-      <c r="Z14" s="164"/>
-      <c r="AA14" s="164"/>
-      <c r="AB14" s="164"/>
-      <c r="AC14" s="164"/>
-      <c r="AD14" s="164"/>
-      <c r="AE14" s="165"/>
-      <c r="AF14" s="160"/>
-      <c r="AG14" s="161"/>
-      <c r="AH14" s="161"/>
-      <c r="AI14" s="162"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="195"/>
+      <c r="D14" s="196"/>
+      <c r="E14" s="197"/>
+      <c r="F14" s="198"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="199"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="201"/>
+      <c r="L14" s="201"/>
+      <c r="M14" s="201"/>
+      <c r="N14" s="201"/>
+      <c r="O14" s="201"/>
+      <c r="P14" s="202"/>
+      <c r="Q14" s="203"/>
+      <c r="R14" s="204"/>
+      <c r="S14" s="204"/>
+      <c r="T14" s="204"/>
+      <c r="U14" s="204"/>
+      <c r="V14" s="204"/>
+      <c r="W14" s="204"/>
+      <c r="X14" s="204"/>
+      <c r="Y14" s="204"/>
+      <c r="Z14" s="204"/>
+      <c r="AA14" s="204"/>
+      <c r="AB14" s="204"/>
+      <c r="AC14" s="204"/>
+      <c r="AD14" s="204"/>
+      <c r="AE14" s="205"/>
+      <c r="AF14" s="200"/>
+      <c r="AG14" s="201"/>
+      <c r="AH14" s="201"/>
+      <c r="AI14" s="202"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="155"/>
-      <c r="D15" s="156"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="159"/>
-      <c r="I15" s="155"/>
-      <c r="J15" s="160"/>
-      <c r="K15" s="161"/>
-      <c r="L15" s="161"/>
-      <c r="M15" s="161"/>
-      <c r="N15" s="161"/>
-      <c r="O15" s="161"/>
-      <c r="P15" s="162"/>
-      <c r="Q15" s="163"/>
-      <c r="R15" s="164"/>
-      <c r="S15" s="164"/>
-      <c r="T15" s="164"/>
-      <c r="U15" s="164"/>
-      <c r="V15" s="164"/>
-      <c r="W15" s="164"/>
-      <c r="X15" s="164"/>
-      <c r="Y15" s="164"/>
-      <c r="Z15" s="164"/>
-      <c r="AA15" s="164"/>
-      <c r="AB15" s="164"/>
-      <c r="AC15" s="164"/>
-      <c r="AD15" s="164"/>
-      <c r="AE15" s="165"/>
-      <c r="AF15" s="160"/>
-      <c r="AG15" s="161"/>
-      <c r="AH15" s="161"/>
-      <c r="AI15" s="162"/>
+      <c r="B15" s="194"/>
+      <c r="C15" s="195"/>
+      <c r="D15" s="196"/>
+      <c r="E15" s="197"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="199"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="201"/>
+      <c r="L15" s="201"/>
+      <c r="M15" s="201"/>
+      <c r="N15" s="201"/>
+      <c r="O15" s="201"/>
+      <c r="P15" s="202"/>
+      <c r="Q15" s="203"/>
+      <c r="R15" s="204"/>
+      <c r="S15" s="204"/>
+      <c r="T15" s="204"/>
+      <c r="U15" s="204"/>
+      <c r="V15" s="204"/>
+      <c r="W15" s="204"/>
+      <c r="X15" s="204"/>
+      <c r="Y15" s="204"/>
+      <c r="Z15" s="204"/>
+      <c r="AA15" s="204"/>
+      <c r="AB15" s="204"/>
+      <c r="AC15" s="204"/>
+      <c r="AD15" s="204"/>
+      <c r="AE15" s="205"/>
+      <c r="AF15" s="200"/>
+      <c r="AG15" s="201"/>
+      <c r="AH15" s="201"/>
+      <c r="AI15" s="202"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="156"/>
-      <c r="E16" s="157"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="155"/>
-      <c r="J16" s="160"/>
-      <c r="K16" s="161"/>
-      <c r="L16" s="161"/>
-      <c r="M16" s="161"/>
-      <c r="N16" s="161"/>
-      <c r="O16" s="161"/>
-      <c r="P16" s="162"/>
-      <c r="Q16" s="163"/>
-      <c r="R16" s="164"/>
-      <c r="S16" s="164"/>
-      <c r="T16" s="164"/>
-      <c r="U16" s="164"/>
-      <c r="V16" s="164"/>
-      <c r="W16" s="164"/>
-      <c r="X16" s="164"/>
-      <c r="Y16" s="164"/>
-      <c r="Z16" s="164"/>
-      <c r="AA16" s="164"/>
-      <c r="AB16" s="164"/>
-      <c r="AC16" s="164"/>
-      <c r="AD16" s="164"/>
-      <c r="AE16" s="165"/>
-      <c r="AF16" s="160"/>
-      <c r="AG16" s="161"/>
-      <c r="AH16" s="161"/>
-      <c r="AI16" s="162"/>
+      <c r="B16" s="194"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="196"/>
+      <c r="E16" s="197"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="199"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="201"/>
+      <c r="L16" s="201"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="201"/>
+      <c r="O16" s="201"/>
+      <c r="P16" s="202"/>
+      <c r="Q16" s="203"/>
+      <c r="R16" s="204"/>
+      <c r="S16" s="204"/>
+      <c r="T16" s="204"/>
+      <c r="U16" s="204"/>
+      <c r="V16" s="204"/>
+      <c r="W16" s="204"/>
+      <c r="X16" s="204"/>
+      <c r="Y16" s="204"/>
+      <c r="Z16" s="204"/>
+      <c r="AA16" s="204"/>
+      <c r="AB16" s="204"/>
+      <c r="AC16" s="204"/>
+      <c r="AD16" s="204"/>
+      <c r="AE16" s="205"/>
+      <c r="AF16" s="200"/>
+      <c r="AG16" s="201"/>
+      <c r="AH16" s="201"/>
+      <c r="AI16" s="202"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="155"/>
-      <c r="D17" s="156"/>
-      <c r="E17" s="157"/>
-      <c r="F17" s="158"/>
-      <c r="G17" s="154"/>
-      <c r="H17" s="159"/>
-      <c r="I17" s="155"/>
-      <c r="J17" s="160"/>
-      <c r="K17" s="161"/>
-      <c r="L17" s="161"/>
-      <c r="M17" s="161"/>
-      <c r="N17" s="161"/>
-      <c r="O17" s="161"/>
-      <c r="P17" s="162"/>
-      <c r="Q17" s="163"/>
-      <c r="R17" s="164"/>
-      <c r="S17" s="164"/>
-      <c r="T17" s="164"/>
-      <c r="U17" s="164"/>
-      <c r="V17" s="164"/>
-      <c r="W17" s="164"/>
-      <c r="X17" s="164"/>
-      <c r="Y17" s="164"/>
-      <c r="Z17" s="164"/>
-      <c r="AA17" s="164"/>
-      <c r="AB17" s="164"/>
-      <c r="AC17" s="164"/>
-      <c r="AD17" s="164"/>
-      <c r="AE17" s="165"/>
-      <c r="AF17" s="160"/>
-      <c r="AG17" s="161"/>
-      <c r="AH17" s="161"/>
-      <c r="AI17" s="162"/>
+      <c r="B17" s="194"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="197"/>
+      <c r="F17" s="198"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="199"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="201"/>
+      <c r="L17" s="201"/>
+      <c r="M17" s="201"/>
+      <c r="N17" s="201"/>
+      <c r="O17" s="201"/>
+      <c r="P17" s="202"/>
+      <c r="Q17" s="203"/>
+      <c r="R17" s="204"/>
+      <c r="S17" s="204"/>
+      <c r="T17" s="204"/>
+      <c r="U17" s="204"/>
+      <c r="V17" s="204"/>
+      <c r="W17" s="204"/>
+      <c r="X17" s="204"/>
+      <c r="Y17" s="204"/>
+      <c r="Z17" s="204"/>
+      <c r="AA17" s="204"/>
+      <c r="AB17" s="204"/>
+      <c r="AC17" s="204"/>
+      <c r="AD17" s="204"/>
+      <c r="AE17" s="205"/>
+      <c r="AF17" s="200"/>
+      <c r="AG17" s="201"/>
+      <c r="AH17" s="201"/>
+      <c r="AI17" s="202"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="156"/>
-      <c r="E18" s="157"/>
-      <c r="F18" s="158"/>
-      <c r="G18" s="154"/>
-      <c r="H18" s="159"/>
-      <c r="I18" s="155"/>
-      <c r="J18" s="160"/>
-      <c r="K18" s="161"/>
-      <c r="L18" s="161"/>
-      <c r="M18" s="161"/>
-      <c r="N18" s="161"/>
-      <c r="O18" s="161"/>
-      <c r="P18" s="162"/>
-      <c r="Q18" s="163"/>
-      <c r="R18" s="164"/>
-      <c r="S18" s="164"/>
-      <c r="T18" s="164"/>
-      <c r="U18" s="164"/>
-      <c r="V18" s="164"/>
-      <c r="W18" s="164"/>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="164"/>
-      <c r="AA18" s="164"/>
-      <c r="AB18" s="164"/>
-      <c r="AC18" s="164"/>
-      <c r="AD18" s="164"/>
-      <c r="AE18" s="165"/>
-      <c r="AF18" s="160"/>
-      <c r="AG18" s="161"/>
-      <c r="AH18" s="161"/>
-      <c r="AI18" s="162"/>
+      <c r="B18" s="194"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="197"/>
+      <c r="F18" s="198"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="199"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="201"/>
+      <c r="L18" s="201"/>
+      <c r="M18" s="201"/>
+      <c r="N18" s="201"/>
+      <c r="O18" s="201"/>
+      <c r="P18" s="202"/>
+      <c r="Q18" s="203"/>
+      <c r="R18" s="204"/>
+      <c r="S18" s="204"/>
+      <c r="T18" s="204"/>
+      <c r="U18" s="204"/>
+      <c r="V18" s="204"/>
+      <c r="W18" s="204"/>
+      <c r="X18" s="204"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="204"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="204"/>
+      <c r="AC18" s="204"/>
+      <c r="AD18" s="204"/>
+      <c r="AE18" s="205"/>
+      <c r="AF18" s="200"/>
+      <c r="AG18" s="201"/>
+      <c r="AH18" s="201"/>
+      <c r="AI18" s="202"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="156"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="158"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="159"/>
-      <c r="I19" s="155"/>
-      <c r="J19" s="160"/>
-      <c r="K19" s="161"/>
-      <c r="L19" s="161"/>
-      <c r="M19" s="161"/>
-      <c r="N19" s="161"/>
-      <c r="O19" s="161"/>
-      <c r="P19" s="162"/>
-      <c r="Q19" s="163"/>
-      <c r="R19" s="164"/>
-      <c r="S19" s="164"/>
-      <c r="T19" s="164"/>
-      <c r="U19" s="164"/>
-      <c r="V19" s="164"/>
-      <c r="W19" s="164"/>
-      <c r="X19" s="164"/>
-      <c r="Y19" s="164"/>
-      <c r="Z19" s="164"/>
-      <c r="AA19" s="164"/>
-      <c r="AB19" s="164"/>
-      <c r="AC19" s="164"/>
-      <c r="AD19" s="164"/>
-      <c r="AE19" s="165"/>
-      <c r="AF19" s="160"/>
-      <c r="AG19" s="161"/>
-      <c r="AH19" s="161"/>
-      <c r="AI19" s="162"/>
+      <c r="B19" s="194"/>
+      <c r="C19" s="195"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="198"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="199"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="201"/>
+      <c r="L19" s="201"/>
+      <c r="M19" s="201"/>
+      <c r="N19" s="201"/>
+      <c r="O19" s="201"/>
+      <c r="P19" s="202"/>
+      <c r="Q19" s="203"/>
+      <c r="R19" s="204"/>
+      <c r="S19" s="204"/>
+      <c r="T19" s="204"/>
+      <c r="U19" s="204"/>
+      <c r="V19" s="204"/>
+      <c r="W19" s="204"/>
+      <c r="X19" s="204"/>
+      <c r="Y19" s="204"/>
+      <c r="Z19" s="204"/>
+      <c r="AA19" s="204"/>
+      <c r="AB19" s="204"/>
+      <c r="AC19" s="204"/>
+      <c r="AD19" s="204"/>
+      <c r="AE19" s="205"/>
+      <c r="AF19" s="200"/>
+      <c r="AG19" s="201"/>
+      <c r="AH19" s="201"/>
+      <c r="AI19" s="202"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="157"/>
-      <c r="F20" s="158"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="159"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="160"/>
-      <c r="K20" s="161"/>
-      <c r="L20" s="161"/>
-      <c r="M20" s="161"/>
-      <c r="N20" s="161"/>
-      <c r="O20" s="161"/>
-      <c r="P20" s="162"/>
-      <c r="Q20" s="163"/>
-      <c r="R20" s="164"/>
-      <c r="S20" s="164"/>
-      <c r="T20" s="164"/>
-      <c r="U20" s="164"/>
-      <c r="V20" s="164"/>
-      <c r="W20" s="164"/>
-      <c r="X20" s="164"/>
-      <c r="Y20" s="164"/>
-      <c r="Z20" s="164"/>
-      <c r="AA20" s="164"/>
-      <c r="AB20" s="164"/>
-      <c r="AC20" s="164"/>
-      <c r="AD20" s="164"/>
-      <c r="AE20" s="165"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="161"/>
-      <c r="AH20" s="161"/>
-      <c r="AI20" s="162"/>
+      <c r="B20" s="194"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="198"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="199"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="201"/>
+      <c r="L20" s="201"/>
+      <c r="M20" s="201"/>
+      <c r="N20" s="201"/>
+      <c r="O20" s="201"/>
+      <c r="P20" s="202"/>
+      <c r="Q20" s="203"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="204"/>
+      <c r="T20" s="204"/>
+      <c r="U20" s="204"/>
+      <c r="V20" s="204"/>
+      <c r="W20" s="204"/>
+      <c r="X20" s="204"/>
+      <c r="Y20" s="204"/>
+      <c r="Z20" s="204"/>
+      <c r="AA20" s="204"/>
+      <c r="AB20" s="204"/>
+      <c r="AC20" s="204"/>
+      <c r="AD20" s="204"/>
+      <c r="AE20" s="205"/>
+      <c r="AF20" s="200"/>
+      <c r="AG20" s="201"/>
+      <c r="AH20" s="201"/>
+      <c r="AI20" s="202"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="155"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="157"/>
-      <c r="F21" s="158"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="159"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="160"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
-      <c r="O21" s="161"/>
-      <c r="P21" s="162"/>
-      <c r="Q21" s="163"/>
-      <c r="R21" s="164"/>
-      <c r="S21" s="164"/>
-      <c r="T21" s="164"/>
-      <c r="U21" s="164"/>
-      <c r="V21" s="164"/>
-      <c r="W21" s="164"/>
-      <c r="X21" s="164"/>
-      <c r="Y21" s="164"/>
-      <c r="Z21" s="164"/>
-      <c r="AA21" s="164"/>
-      <c r="AB21" s="164"/>
-      <c r="AC21" s="164"/>
-      <c r="AD21" s="164"/>
-      <c r="AE21" s="165"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="161"/>
-      <c r="AH21" s="161"/>
-      <c r="AI21" s="162"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="195"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="198"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="199"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="201"/>
+      <c r="L21" s="201"/>
+      <c r="M21" s="201"/>
+      <c r="N21" s="201"/>
+      <c r="O21" s="201"/>
+      <c r="P21" s="202"/>
+      <c r="Q21" s="203"/>
+      <c r="R21" s="204"/>
+      <c r="S21" s="204"/>
+      <c r="T21" s="204"/>
+      <c r="U21" s="204"/>
+      <c r="V21" s="204"/>
+      <c r="W21" s="204"/>
+      <c r="X21" s="204"/>
+      <c r="Y21" s="204"/>
+      <c r="Z21" s="204"/>
+      <c r="AA21" s="204"/>
+      <c r="AB21" s="204"/>
+      <c r="AC21" s="204"/>
+      <c r="AD21" s="204"/>
+      <c r="AE21" s="205"/>
+      <c r="AF21" s="200"/>
+      <c r="AG21" s="201"/>
+      <c r="AH21" s="201"/>
+      <c r="AI21" s="202"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="158"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="159"/>
-      <c r="I22" s="155"/>
-      <c r="J22" s="160"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
-      <c r="O22" s="161"/>
-      <c r="P22" s="162"/>
-      <c r="Q22" s="163"/>
-      <c r="R22" s="164"/>
-      <c r="S22" s="164"/>
-      <c r="T22" s="164"/>
-      <c r="U22" s="164"/>
-      <c r="V22" s="164"/>
-      <c r="W22" s="164"/>
-      <c r="X22" s="164"/>
-      <c r="Y22" s="164"/>
-      <c r="Z22" s="164"/>
-      <c r="AA22" s="164"/>
-      <c r="AB22" s="164"/>
-      <c r="AC22" s="164"/>
-      <c r="AD22" s="164"/>
-      <c r="AE22" s="165"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="161"/>
-      <c r="AH22" s="161"/>
-      <c r="AI22" s="162"/>
+      <c r="B22" s="194"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="197"/>
+      <c r="F22" s="198"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="199"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
+      <c r="M22" s="201"/>
+      <c r="N22" s="201"/>
+      <c r="O22" s="201"/>
+      <c r="P22" s="202"/>
+      <c r="Q22" s="203"/>
+      <c r="R22" s="204"/>
+      <c r="S22" s="204"/>
+      <c r="T22" s="204"/>
+      <c r="U22" s="204"/>
+      <c r="V22" s="204"/>
+      <c r="W22" s="204"/>
+      <c r="X22" s="204"/>
+      <c r="Y22" s="204"/>
+      <c r="Z22" s="204"/>
+      <c r="AA22" s="204"/>
+      <c r="AB22" s="204"/>
+      <c r="AC22" s="204"/>
+      <c r="AD22" s="204"/>
+      <c r="AE22" s="205"/>
+      <c r="AF22" s="200"/>
+      <c r="AG22" s="201"/>
+      <c r="AH22" s="201"/>
+      <c r="AI22" s="202"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="155"/>
-      <c r="D23" s="156"/>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="159"/>
-      <c r="I23" s="155"/>
-      <c r="J23" s="160"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="161"/>
-      <c r="P23" s="162"/>
-      <c r="Q23" s="163"/>
-      <c r="R23" s="164"/>
-      <c r="S23" s="164"/>
-      <c r="T23" s="164"/>
-      <c r="U23" s="164"/>
-      <c r="V23" s="164"/>
-      <c r="W23" s="164"/>
-      <c r="X23" s="164"/>
-      <c r="Y23" s="164"/>
-      <c r="Z23" s="164"/>
-      <c r="AA23" s="164"/>
-      <c r="AB23" s="164"/>
-      <c r="AC23" s="164"/>
-      <c r="AD23" s="164"/>
-      <c r="AE23" s="165"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="161"/>
-      <c r="AH23" s="161"/>
-      <c r="AI23" s="162"/>
+      <c r="B23" s="194"/>
+      <c r="C23" s="195"/>
+      <c r="D23" s="196"/>
+      <c r="E23" s="197"/>
+      <c r="F23" s="198"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="199"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="201"/>
+      <c r="L23" s="201"/>
+      <c r="M23" s="201"/>
+      <c r="N23" s="201"/>
+      <c r="O23" s="201"/>
+      <c r="P23" s="202"/>
+      <c r="Q23" s="203"/>
+      <c r="R23" s="204"/>
+      <c r="S23" s="204"/>
+      <c r="T23" s="204"/>
+      <c r="U23" s="204"/>
+      <c r="V23" s="204"/>
+      <c r="W23" s="204"/>
+      <c r="X23" s="204"/>
+      <c r="Y23" s="204"/>
+      <c r="Z23" s="204"/>
+      <c r="AA23" s="204"/>
+      <c r="AB23" s="204"/>
+      <c r="AC23" s="204"/>
+      <c r="AD23" s="204"/>
+      <c r="AE23" s="205"/>
+      <c r="AF23" s="200"/>
+      <c r="AG23" s="201"/>
+      <c r="AH23" s="201"/>
+      <c r="AI23" s="202"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="156"/>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="159"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="160"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="161"/>
-      <c r="P24" s="162"/>
-      <c r="Q24" s="163"/>
-      <c r="R24" s="164"/>
-      <c r="S24" s="164"/>
-      <c r="T24" s="164"/>
-      <c r="U24" s="164"/>
-      <c r="V24" s="164"/>
-      <c r="W24" s="164"/>
-      <c r="X24" s="164"/>
-      <c r="Y24" s="164"/>
-      <c r="Z24" s="164"/>
-      <c r="AA24" s="164"/>
-      <c r="AB24" s="164"/>
-      <c r="AC24" s="164"/>
-      <c r="AD24" s="164"/>
-      <c r="AE24" s="165"/>
-      <c r="AF24" s="160"/>
-      <c r="AG24" s="161"/>
-      <c r="AH24" s="161"/>
-      <c r="AI24" s="162"/>
+      <c r="B24" s="194"/>
+      <c r="C24" s="195"/>
+      <c r="D24" s="196"/>
+      <c r="E24" s="197"/>
+      <c r="F24" s="198"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="199"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="201"/>
+      <c r="L24" s="201"/>
+      <c r="M24" s="201"/>
+      <c r="N24" s="201"/>
+      <c r="O24" s="201"/>
+      <c r="P24" s="202"/>
+      <c r="Q24" s="203"/>
+      <c r="R24" s="204"/>
+      <c r="S24" s="204"/>
+      <c r="T24" s="204"/>
+      <c r="U24" s="204"/>
+      <c r="V24" s="204"/>
+      <c r="W24" s="204"/>
+      <c r="X24" s="204"/>
+      <c r="Y24" s="204"/>
+      <c r="Z24" s="204"/>
+      <c r="AA24" s="204"/>
+      <c r="AB24" s="204"/>
+      <c r="AC24" s="204"/>
+      <c r="AD24" s="204"/>
+      <c r="AE24" s="205"/>
+      <c r="AF24" s="200"/>
+      <c r="AG24" s="201"/>
+      <c r="AH24" s="201"/>
+      <c r="AI24" s="202"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="159"/>
-      <c r="I25" s="155"/>
-      <c r="J25" s="160"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="161"/>
-      <c r="P25" s="162"/>
-      <c r="Q25" s="163"/>
-      <c r="R25" s="164"/>
-      <c r="S25" s="164"/>
-      <c r="T25" s="164"/>
-      <c r="U25" s="164"/>
-      <c r="V25" s="164"/>
-      <c r="W25" s="164"/>
-      <c r="X25" s="164"/>
-      <c r="Y25" s="164"/>
-      <c r="Z25" s="164"/>
-      <c r="AA25" s="164"/>
-      <c r="AB25" s="164"/>
-      <c r="AC25" s="164"/>
-      <c r="AD25" s="164"/>
-      <c r="AE25" s="165"/>
-      <c r="AF25" s="160"/>
-      <c r="AG25" s="161"/>
-      <c r="AH25" s="161"/>
-      <c r="AI25" s="162"/>
+      <c r="B25" s="194"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="196"/>
+      <c r="E25" s="197"/>
+      <c r="F25" s="198"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="199"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="201"/>
+      <c r="L25" s="201"/>
+      <c r="M25" s="201"/>
+      <c r="N25" s="201"/>
+      <c r="O25" s="201"/>
+      <c r="P25" s="202"/>
+      <c r="Q25" s="203"/>
+      <c r="R25" s="204"/>
+      <c r="S25" s="204"/>
+      <c r="T25" s="204"/>
+      <c r="U25" s="204"/>
+      <c r="V25" s="204"/>
+      <c r="W25" s="204"/>
+      <c r="X25" s="204"/>
+      <c r="Y25" s="204"/>
+      <c r="Z25" s="204"/>
+      <c r="AA25" s="204"/>
+      <c r="AB25" s="204"/>
+      <c r="AC25" s="204"/>
+      <c r="AD25" s="204"/>
+      <c r="AE25" s="205"/>
+      <c r="AF25" s="200"/>
+      <c r="AG25" s="201"/>
+      <c r="AH25" s="201"/>
+      <c r="AI25" s="202"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="155"/>
-      <c r="D26" s="156"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="158"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="159"/>
-      <c r="I26" s="155"/>
-      <c r="J26" s="160"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="161"/>
-      <c r="P26" s="162"/>
-      <c r="Q26" s="163"/>
-      <c r="R26" s="164"/>
-      <c r="S26" s="164"/>
-      <c r="T26" s="164"/>
-      <c r="U26" s="164"/>
-      <c r="V26" s="164"/>
-      <c r="W26" s="164"/>
-      <c r="X26" s="164"/>
-      <c r="Y26" s="164"/>
-      <c r="Z26" s="164"/>
-      <c r="AA26" s="164"/>
-      <c r="AB26" s="164"/>
-      <c r="AC26" s="164"/>
-      <c r="AD26" s="164"/>
-      <c r="AE26" s="165"/>
-      <c r="AF26" s="160"/>
-      <c r="AG26" s="161"/>
-      <c r="AH26" s="161"/>
-      <c r="AI26" s="162"/>
+      <c r="B26" s="194"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="196"/>
+      <c r="E26" s="197"/>
+      <c r="F26" s="198"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="199"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="201"/>
+      <c r="L26" s="201"/>
+      <c r="M26" s="201"/>
+      <c r="N26" s="201"/>
+      <c r="O26" s="201"/>
+      <c r="P26" s="202"/>
+      <c r="Q26" s="203"/>
+      <c r="R26" s="204"/>
+      <c r="S26" s="204"/>
+      <c r="T26" s="204"/>
+      <c r="U26" s="204"/>
+      <c r="V26" s="204"/>
+      <c r="W26" s="204"/>
+      <c r="X26" s="204"/>
+      <c r="Y26" s="204"/>
+      <c r="Z26" s="204"/>
+      <c r="AA26" s="204"/>
+      <c r="AB26" s="204"/>
+      <c r="AC26" s="204"/>
+      <c r="AD26" s="204"/>
+      <c r="AE26" s="205"/>
+      <c r="AF26" s="200"/>
+      <c r="AG26" s="201"/>
+      <c r="AH26" s="201"/>
+      <c r="AI26" s="202"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="155"/>
-      <c r="D27" s="156"/>
-      <c r="E27" s="157"/>
-      <c r="F27" s="158"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="159"/>
-      <c r="I27" s="155"/>
-      <c r="J27" s="160"/>
-      <c r="K27" s="161"/>
-      <c r="L27" s="161"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="161"/>
-      <c r="O27" s="161"/>
-      <c r="P27" s="162"/>
-      <c r="Q27" s="163"/>
-      <c r="R27" s="164"/>
-      <c r="S27" s="164"/>
-      <c r="T27" s="164"/>
-      <c r="U27" s="164"/>
-      <c r="V27" s="164"/>
-      <c r="W27" s="164"/>
-      <c r="X27" s="164"/>
-      <c r="Y27" s="164"/>
-      <c r="Z27" s="164"/>
-      <c r="AA27" s="164"/>
-      <c r="AB27" s="164"/>
-      <c r="AC27" s="164"/>
-      <c r="AD27" s="164"/>
-      <c r="AE27" s="165"/>
-      <c r="AF27" s="160"/>
-      <c r="AG27" s="161"/>
-      <c r="AH27" s="161"/>
-      <c r="AI27" s="162"/>
+      <c r="B27" s="194"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="196"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="198"/>
+      <c r="G27" s="194"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="200"/>
+      <c r="K27" s="201"/>
+      <c r="L27" s="201"/>
+      <c r="M27" s="201"/>
+      <c r="N27" s="201"/>
+      <c r="O27" s="201"/>
+      <c r="P27" s="202"/>
+      <c r="Q27" s="203"/>
+      <c r="R27" s="204"/>
+      <c r="S27" s="204"/>
+      <c r="T27" s="204"/>
+      <c r="U27" s="204"/>
+      <c r="V27" s="204"/>
+      <c r="W27" s="204"/>
+      <c r="X27" s="204"/>
+      <c r="Y27" s="204"/>
+      <c r="Z27" s="204"/>
+      <c r="AA27" s="204"/>
+      <c r="AB27" s="204"/>
+      <c r="AC27" s="204"/>
+      <c r="AD27" s="204"/>
+      <c r="AE27" s="205"/>
+      <c r="AF27" s="200"/>
+      <c r="AG27" s="201"/>
+      <c r="AH27" s="201"/>
+      <c r="AI27" s="202"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="155"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="158"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="160"/>
-      <c r="K28" s="161"/>
-      <c r="L28" s="161"/>
-      <c r="M28" s="161"/>
-      <c r="N28" s="161"/>
-      <c r="O28" s="161"/>
-      <c r="P28" s="162"/>
-      <c r="Q28" s="163"/>
-      <c r="R28" s="164"/>
-      <c r="S28" s="164"/>
-      <c r="T28" s="164"/>
-      <c r="U28" s="164"/>
-      <c r="V28" s="164"/>
-      <c r="W28" s="164"/>
-      <c r="X28" s="164"/>
-      <c r="Y28" s="164"/>
-      <c r="Z28" s="164"/>
-      <c r="AA28" s="164"/>
-      <c r="AB28" s="164"/>
-      <c r="AC28" s="164"/>
-      <c r="AD28" s="164"/>
-      <c r="AE28" s="165"/>
-      <c r="AF28" s="160"/>
-      <c r="AG28" s="161"/>
-      <c r="AH28" s="161"/>
-      <c r="AI28" s="162"/>
+      <c r="B28" s="194"/>
+      <c r="C28" s="195"/>
+      <c r="D28" s="196"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="198"/>
+      <c r="G28" s="194"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="200"/>
+      <c r="K28" s="201"/>
+      <c r="L28" s="201"/>
+      <c r="M28" s="201"/>
+      <c r="N28" s="201"/>
+      <c r="O28" s="201"/>
+      <c r="P28" s="202"/>
+      <c r="Q28" s="203"/>
+      <c r="R28" s="204"/>
+      <c r="S28" s="204"/>
+      <c r="T28" s="204"/>
+      <c r="U28" s="204"/>
+      <c r="V28" s="204"/>
+      <c r="W28" s="204"/>
+      <c r="X28" s="204"/>
+      <c r="Y28" s="204"/>
+      <c r="Z28" s="204"/>
+      <c r="AA28" s="204"/>
+      <c r="AB28" s="204"/>
+      <c r="AC28" s="204"/>
+      <c r="AD28" s="204"/>
+      <c r="AE28" s="205"/>
+      <c r="AF28" s="200"/>
+      <c r="AG28" s="201"/>
+      <c r="AH28" s="201"/>
+      <c r="AI28" s="202"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="155"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="157"/>
-      <c r="F29" s="158"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="159"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="160"/>
-      <c r="K29" s="161"/>
-      <c r="L29" s="161"/>
-      <c r="M29" s="161"/>
-      <c r="N29" s="161"/>
-      <c r="O29" s="161"/>
-      <c r="P29" s="162"/>
-      <c r="Q29" s="163"/>
-      <c r="R29" s="164"/>
-      <c r="S29" s="164"/>
-      <c r="T29" s="164"/>
-      <c r="U29" s="164"/>
-      <c r="V29" s="164"/>
-      <c r="W29" s="164"/>
-      <c r="X29" s="164"/>
-      <c r="Y29" s="164"/>
-      <c r="Z29" s="164"/>
-      <c r="AA29" s="164"/>
-      <c r="AB29" s="164"/>
-      <c r="AC29" s="164"/>
-      <c r="AD29" s="164"/>
-      <c r="AE29" s="165"/>
-      <c r="AF29" s="160"/>
-      <c r="AG29" s="161"/>
-      <c r="AH29" s="161"/>
-      <c r="AI29" s="162"/>
+      <c r="B29" s="194"/>
+      <c r="C29" s="195"/>
+      <c r="D29" s="196"/>
+      <c r="E29" s="197"/>
+      <c r="F29" s="198"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="195"/>
+      <c r="J29" s="200"/>
+      <c r="K29" s="201"/>
+      <c r="L29" s="201"/>
+      <c r="M29" s="201"/>
+      <c r="N29" s="201"/>
+      <c r="O29" s="201"/>
+      <c r="P29" s="202"/>
+      <c r="Q29" s="203"/>
+      <c r="R29" s="204"/>
+      <c r="S29" s="204"/>
+      <c r="T29" s="204"/>
+      <c r="U29" s="204"/>
+      <c r="V29" s="204"/>
+      <c r="W29" s="204"/>
+      <c r="X29" s="204"/>
+      <c r="Y29" s="204"/>
+      <c r="Z29" s="204"/>
+      <c r="AA29" s="204"/>
+      <c r="AB29" s="204"/>
+      <c r="AC29" s="204"/>
+      <c r="AD29" s="204"/>
+      <c r="AE29" s="205"/>
+      <c r="AF29" s="200"/>
+      <c r="AG29" s="201"/>
+      <c r="AH29" s="201"/>
+      <c r="AI29" s="202"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="157"/>
-      <c r="F30" s="158"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="159"/>
-      <c r="I30" s="155"/>
-      <c r="J30" s="160"/>
-      <c r="K30" s="161"/>
-      <c r="L30" s="161"/>
-      <c r="M30" s="161"/>
-      <c r="N30" s="161"/>
-      <c r="O30" s="161"/>
-      <c r="P30" s="162"/>
-      <c r="Q30" s="163"/>
-      <c r="R30" s="164"/>
-      <c r="S30" s="164"/>
-      <c r="T30" s="164"/>
-      <c r="U30" s="164"/>
-      <c r="V30" s="164"/>
-      <c r="W30" s="164"/>
-      <c r="X30" s="164"/>
-      <c r="Y30" s="164"/>
-      <c r="Z30" s="164"/>
-      <c r="AA30" s="164"/>
-      <c r="AB30" s="164"/>
-      <c r="AC30" s="164"/>
-      <c r="AD30" s="164"/>
-      <c r="AE30" s="165"/>
-      <c r="AF30" s="160"/>
-      <c r="AG30" s="161"/>
-      <c r="AH30" s="161"/>
-      <c r="AI30" s="162"/>
+      <c r="B30" s="194"/>
+      <c r="C30" s="195"/>
+      <c r="D30" s="196"/>
+      <c r="E30" s="197"/>
+      <c r="F30" s="198"/>
+      <c r="G30" s="194"/>
+      <c r="H30" s="199"/>
+      <c r="I30" s="195"/>
+      <c r="J30" s="200"/>
+      <c r="K30" s="201"/>
+      <c r="L30" s="201"/>
+      <c r="M30" s="201"/>
+      <c r="N30" s="201"/>
+      <c r="O30" s="201"/>
+      <c r="P30" s="202"/>
+      <c r="Q30" s="203"/>
+      <c r="R30" s="204"/>
+      <c r="S30" s="204"/>
+      <c r="T30" s="204"/>
+      <c r="U30" s="204"/>
+      <c r="V30" s="204"/>
+      <c r="W30" s="204"/>
+      <c r="X30" s="204"/>
+      <c r="Y30" s="204"/>
+      <c r="Z30" s="204"/>
+      <c r="AA30" s="204"/>
+      <c r="AB30" s="204"/>
+      <c r="AC30" s="204"/>
+      <c r="AD30" s="204"/>
+      <c r="AE30" s="205"/>
+      <c r="AF30" s="200"/>
+      <c r="AG30" s="201"/>
+      <c r="AH30" s="201"/>
+      <c r="AI30" s="202"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="155"/>
-      <c r="D31" s="156"/>
-      <c r="E31" s="157"/>
-      <c r="F31" s="158"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="159"/>
-      <c r="I31" s="155"/>
-      <c r="J31" s="160"/>
-      <c r="K31" s="161"/>
-      <c r="L31" s="161"/>
-      <c r="M31" s="161"/>
-      <c r="N31" s="161"/>
-      <c r="O31" s="161"/>
-      <c r="P31" s="162"/>
-      <c r="Q31" s="163"/>
-      <c r="R31" s="164"/>
-      <c r="S31" s="164"/>
-      <c r="T31" s="164"/>
-      <c r="U31" s="164"/>
-      <c r="V31" s="164"/>
-      <c r="W31" s="164"/>
-      <c r="X31" s="164"/>
-      <c r="Y31" s="164"/>
-      <c r="Z31" s="164"/>
-      <c r="AA31" s="164"/>
-      <c r="AB31" s="164"/>
-      <c r="AC31" s="164"/>
-      <c r="AD31" s="164"/>
-      <c r="AE31" s="165"/>
-      <c r="AF31" s="160"/>
-      <c r="AG31" s="161"/>
-      <c r="AH31" s="161"/>
-      <c r="AI31" s="162"/>
+      <c r="B31" s="194"/>
+      <c r="C31" s="195"/>
+      <c r="D31" s="196"/>
+      <c r="E31" s="197"/>
+      <c r="F31" s="198"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="199"/>
+      <c r="I31" s="195"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="201"/>
+      <c r="L31" s="201"/>
+      <c r="M31" s="201"/>
+      <c r="N31" s="201"/>
+      <c r="O31" s="201"/>
+      <c r="P31" s="202"/>
+      <c r="Q31" s="203"/>
+      <c r="R31" s="204"/>
+      <c r="S31" s="204"/>
+      <c r="T31" s="204"/>
+      <c r="U31" s="204"/>
+      <c r="V31" s="204"/>
+      <c r="W31" s="204"/>
+      <c r="X31" s="204"/>
+      <c r="Y31" s="204"/>
+      <c r="Z31" s="204"/>
+      <c r="AA31" s="204"/>
+      <c r="AB31" s="204"/>
+      <c r="AC31" s="204"/>
+      <c r="AD31" s="204"/>
+      <c r="AE31" s="205"/>
+      <c r="AF31" s="200"/>
+      <c r="AG31" s="201"/>
+      <c r="AH31" s="201"/>
+      <c r="AI31" s="202"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="156"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="158"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="159"/>
-      <c r="I32" s="155"/>
-      <c r="J32" s="160"/>
-      <c r="K32" s="166"/>
-      <c r="L32" s="161"/>
-      <c r="M32" s="161"/>
-      <c r="N32" s="161"/>
-      <c r="O32" s="161"/>
-      <c r="P32" s="162"/>
-      <c r="Q32" s="163"/>
-      <c r="R32" s="164"/>
-      <c r="S32" s="164"/>
-      <c r="T32" s="164"/>
-      <c r="U32" s="164"/>
-      <c r="V32" s="164"/>
-      <c r="W32" s="164"/>
-      <c r="X32" s="164"/>
-      <c r="Y32" s="164"/>
-      <c r="Z32" s="164"/>
-      <c r="AA32" s="164"/>
-      <c r="AB32" s="164"/>
-      <c r="AC32" s="164"/>
-      <c r="AD32" s="164"/>
-      <c r="AE32" s="165"/>
-      <c r="AF32" s="160"/>
-      <c r="AG32" s="161"/>
-      <c r="AH32" s="161"/>
-      <c r="AI32" s="162"/>
+      <c r="B32" s="194"/>
+      <c r="C32" s="195"/>
+      <c r="D32" s="196"/>
+      <c r="E32" s="197"/>
+      <c r="F32" s="198"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="199"/>
+      <c r="I32" s="195"/>
+      <c r="J32" s="200"/>
+      <c r="K32" s="220"/>
+      <c r="L32" s="201"/>
+      <c r="M32" s="201"/>
+      <c r="N32" s="201"/>
+      <c r="O32" s="201"/>
+      <c r="P32" s="202"/>
+      <c r="Q32" s="203"/>
+      <c r="R32" s="204"/>
+      <c r="S32" s="204"/>
+      <c r="T32" s="204"/>
+      <c r="U32" s="204"/>
+      <c r="V32" s="204"/>
+      <c r="W32" s="204"/>
+      <c r="X32" s="204"/>
+      <c r="Y32" s="204"/>
+      <c r="Z32" s="204"/>
+      <c r="AA32" s="204"/>
+      <c r="AB32" s="204"/>
+      <c r="AC32" s="204"/>
+      <c r="AD32" s="204"/>
+      <c r="AE32" s="205"/>
+      <c r="AF32" s="200"/>
+      <c r="AG32" s="201"/>
+      <c r="AH32" s="201"/>
+      <c r="AI32" s="202"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="155"/>
-      <c r="D33" s="156"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="158"/>
-      <c r="G33" s="154"/>
-      <c r="H33" s="159"/>
-      <c r="I33" s="155"/>
-      <c r="J33" s="160"/>
-      <c r="K33" s="161"/>
-      <c r="L33" s="161"/>
-      <c r="M33" s="161"/>
-      <c r="N33" s="161"/>
-      <c r="O33" s="161"/>
-      <c r="P33" s="162"/>
-      <c r="Q33" s="163"/>
-      <c r="R33" s="164"/>
-      <c r="S33" s="164"/>
-      <c r="T33" s="164"/>
-      <c r="U33" s="164"/>
-      <c r="V33" s="164"/>
-      <c r="W33" s="164"/>
-      <c r="X33" s="164"/>
-      <c r="Y33" s="164"/>
-      <c r="Z33" s="164"/>
-      <c r="AA33" s="164"/>
-      <c r="AB33" s="164"/>
-      <c r="AC33" s="164"/>
-      <c r="AD33" s="164"/>
-      <c r="AE33" s="165"/>
-      <c r="AF33" s="160"/>
-      <c r="AG33" s="161"/>
-      <c r="AH33" s="161"/>
-      <c r="AI33" s="162"/>
+      <c r="B33" s="194"/>
+      <c r="C33" s="195"/>
+      <c r="D33" s="196"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="198"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="199"/>
+      <c r="I33" s="195"/>
+      <c r="J33" s="200"/>
+      <c r="K33" s="201"/>
+      <c r="L33" s="201"/>
+      <c r="M33" s="201"/>
+      <c r="N33" s="201"/>
+      <c r="O33" s="201"/>
+      <c r="P33" s="202"/>
+      <c r="Q33" s="203"/>
+      <c r="R33" s="204"/>
+      <c r="S33" s="204"/>
+      <c r="T33" s="204"/>
+      <c r="U33" s="204"/>
+      <c r="V33" s="204"/>
+      <c r="W33" s="204"/>
+      <c r="X33" s="204"/>
+      <c r="Y33" s="204"/>
+      <c r="Z33" s="204"/>
+      <c r="AA33" s="204"/>
+      <c r="AB33" s="204"/>
+      <c r="AC33" s="204"/>
+      <c r="AD33" s="204"/>
+      <c r="AE33" s="205"/>
+      <c r="AF33" s="200"/>
+      <c r="AG33" s="201"/>
+      <c r="AH33" s="201"/>
+      <c r="AI33" s="202"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8106,162 +8200,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8418,157 +8356,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="232" t="s">
+      <c r="A1" s="221" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="234"/>
-      <c r="E1" s="222" t="str">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="235" t="s">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="224" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="236"/>
-      <c r="Q1" s="236"/>
-      <c r="R1" s="237"/>
-      <c r="S1" s="223" t="str">
+      <c r="P1" s="225"/>
+      <c r="Q1" s="225"/>
+      <c r="R1" s="226"/>
+      <c r="S1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="232" t="s">
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="221" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="234"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="223"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="182"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="219">
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="234">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="220"/>
-      <c r="AI1" s="221"/>
+      <c r="AH1" s="235"/>
+      <c r="AI1" s="236"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="232" t="s">
+      <c r="A2" s="221" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="233"/>
-      <c r="C2" s="233"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="222" t="str">
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="223"/>
+      <c r="E2" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="238"/>
-      <c r="P2" s="239"/>
-      <c r="Q2" s="239"/>
-      <c r="R2" s="240"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="232" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="227"/>
+      <c r="P2" s="228"/>
+      <c r="Q2" s="228"/>
+      <c r="R2" s="229"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="221" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="234"/>
-      <c r="AC2" s="184" t="str">
+      <c r="AB2" s="223"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="182"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="219" t="str">
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="220"/>
-      <c r="AI2" s="221"/>
+      <c r="AH2" s="235"/>
+      <c r="AI2" s="236"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="232" t="s">
+      <c r="A3" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="222" t="str">
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="241"/>
-      <c r="P3" s="242"/>
-      <c r="Q3" s="242"/>
-      <c r="R3" s="243"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="231"/>
-      <c r="AA3" s="232"/>
-      <c r="AB3" s="234"/>
-      <c r="AC3" s="184" t="str">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="230"/>
+      <c r="P3" s="231"/>
+      <c r="Q3" s="231"/>
+      <c r="R3" s="232"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="221"/>
+      <c r="AB3" s="223"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="219" t="str">
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="234" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="220"/>
-      <c r="AI3" s="221"/>
+      <c r="AH3" s="235"/>
+      <c r="AI3" s="236"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="44"/>
@@ -10035,14 +9973,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -10052,6 +9982,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10080,157 +10018,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="222" t="str">
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="201" t="s">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="223" t="str">
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="198" t="s">
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="182"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="254">
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="247">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="255"/>
-      <c r="AI1" s="256"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="249"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="222" t="str">
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="204"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="198" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="184" t="str">
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="182"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="254" t="str">
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="255"/>
-      <c r="AI2" s="256"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="249"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="222" t="str">
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="231"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="200"/>
-      <c r="AC3" s="184" t="str">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="254" t="str">
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="255"/>
-      <c r="AI3" s="256"/>
+      <c r="AH3" s="248"/>
+      <c r="AI3" s="249"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1">
       <c r="A4" s="30"/>
@@ -10386,92 +10324,92 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="247" t="s">
+      <c r="D8" s="252" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="248"/>
-      <c r="F8" s="248"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="257" t="s">
+      <c r="E8" s="253"/>
+      <c r="F8" s="253"/>
+      <c r="G8" s="254"/>
+      <c r="H8" s="250" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="258"/>
-      <c r="J8" s="258"/>
-      <c r="K8" s="258"/>
-      <c r="L8" s="258"/>
-      <c r="M8" s="258"/>
-      <c r="N8" s="258"/>
-      <c r="O8" s="258"/>
-      <c r="P8" s="258"/>
-      <c r="Q8" s="258"/>
-      <c r="R8" s="258"/>
-      <c r="S8" s="258"/>
-      <c r="T8" s="258"/>
-      <c r="U8" s="258"/>
-      <c r="V8" s="258"/>
-      <c r="W8" s="258"/>
-      <c r="X8" s="258"/>
-      <c r="Y8" s="258"/>
-      <c r="Z8" s="258"/>
-      <c r="AA8" s="258"/>
-      <c r="AB8" s="258"/>
-      <c r="AC8" s="258"/>
-      <c r="AD8" s="258"/>
-      <c r="AE8" s="258"/>
-      <c r="AF8" s="258"/>
-      <c r="AG8" s="258"/>
-      <c r="AH8" s="258"/>
+      <c r="I8" s="251"/>
+      <c r="J8" s="251"/>
+      <c r="K8" s="251"/>
+      <c r="L8" s="251"/>
+      <c r="M8" s="251"/>
+      <c r="N8" s="251"/>
+      <c r="O8" s="251"/>
+      <c r="P8" s="251"/>
+      <c r="Q8" s="251"/>
+      <c r="R8" s="251"/>
+      <c r="S8" s="251"/>
+      <c r="T8" s="251"/>
+      <c r="U8" s="251"/>
+      <c r="V8" s="251"/>
+      <c r="W8" s="251"/>
+      <c r="X8" s="251"/>
+      <c r="Y8" s="251"/>
+      <c r="Z8" s="251"/>
+      <c r="AA8" s="251"/>
+      <c r="AB8" s="251"/>
+      <c r="AC8" s="251"/>
+      <c r="AD8" s="251"/>
+      <c r="AE8" s="251"/>
+      <c r="AF8" s="251"/>
+      <c r="AG8" s="251"/>
+      <c r="AH8" s="251"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="247" t="s">
+      <c r="D9" s="252" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="248"/>
-      <c r="F9" s="248"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="253" t="s">
+      <c r="E9" s="253"/>
+      <c r="F9" s="253"/>
+      <c r="G9" s="254"/>
+      <c r="H9" s="246" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="253"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="253"/>
-      <c r="L9" s="253"/>
-      <c r="M9" s="253"/>
-      <c r="N9" s="253"/>
-      <c r="O9" s="253"/>
-      <c r="P9" s="253"/>
-      <c r="Q9" s="253"/>
-      <c r="R9" s="253"/>
-      <c r="S9" s="253"/>
-      <c r="T9" s="253"/>
-      <c r="U9" s="253"/>
-      <c r="V9" s="253"/>
-      <c r="W9" s="253"/>
-      <c r="X9" s="253"/>
-      <c r="Y9" s="253"/>
-      <c r="Z9" s="253"/>
-      <c r="AA9" s="253"/>
-      <c r="AB9" s="253"/>
-      <c r="AC9" s="253"/>
-      <c r="AD9" s="253"/>
-      <c r="AE9" s="253"/>
-      <c r="AF9" s="253"/>
-      <c r="AG9" s="253"/>
-      <c r="AH9" s="253"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="246"/>
+      <c r="L9" s="246"/>
+      <c r="M9" s="246"/>
+      <c r="N9" s="246"/>
+      <c r="O9" s="246"/>
+      <c r="P9" s="246"/>
+      <c r="Q9" s="246"/>
+      <c r="R9" s="246"/>
+      <c r="S9" s="246"/>
+      <c r="T9" s="246"/>
+      <c r="U9" s="246"/>
+      <c r="V9" s="246"/>
+      <c r="W9" s="246"/>
+      <c r="X9" s="246"/>
+      <c r="Y9" s="246"/>
+      <c r="Z9" s="246"/>
+      <c r="AA9" s="246"/>
+      <c r="AB9" s="246"/>
+      <c r="AC9" s="246"/>
+      <c r="AD9" s="246"/>
+      <c r="AE9" s="246"/>
+      <c r="AF9" s="246"/>
+      <c r="AG9" s="246"/>
+      <c r="AH9" s="246"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="244" t="s">
+      <c r="D10" s="255" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="245"/>
-      <c r="F10" s="245"/>
-      <c r="G10" s="246"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="257"/>
       <c r="H10" s="103" t="s">
         <v>117</v>
       </c>
@@ -10506,172 +10444,172 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="247" t="s">
+      <c r="D11" s="252" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="248"/>
-      <c r="F11" s="248"/>
-      <c r="G11" s="249"/>
-      <c r="H11" s="257" t="s">
+      <c r="E11" s="253"/>
+      <c r="F11" s="253"/>
+      <c r="G11" s="254"/>
+      <c r="H11" s="250" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="258"/>
-      <c r="J11" s="258"/>
-      <c r="K11" s="258"/>
-      <c r="L11" s="258"/>
-      <c r="M11" s="258"/>
-      <c r="N11" s="258"/>
-      <c r="O11" s="258"/>
-      <c r="P11" s="258"/>
-      <c r="Q11" s="258"/>
-      <c r="R11" s="258"/>
-      <c r="S11" s="258"/>
-      <c r="T11" s="258"/>
-      <c r="U11" s="258"/>
-      <c r="V11" s="258"/>
-      <c r="W11" s="258"/>
-      <c r="X11" s="258"/>
-      <c r="Y11" s="258"/>
-      <c r="Z11" s="258"/>
-      <c r="AA11" s="258"/>
-      <c r="AB11" s="258"/>
-      <c r="AC11" s="258"/>
-      <c r="AD11" s="258"/>
-      <c r="AE11" s="258"/>
-      <c r="AF11" s="258"/>
-      <c r="AG11" s="258"/>
-      <c r="AH11" s="258"/>
+      <c r="I11" s="251"/>
+      <c r="J11" s="251"/>
+      <c r="K11" s="251"/>
+      <c r="L11" s="251"/>
+      <c r="M11" s="251"/>
+      <c r="N11" s="251"/>
+      <c r="O11" s="251"/>
+      <c r="P11" s="251"/>
+      <c r="Q11" s="251"/>
+      <c r="R11" s="251"/>
+      <c r="S11" s="251"/>
+      <c r="T11" s="251"/>
+      <c r="U11" s="251"/>
+      <c r="V11" s="251"/>
+      <c r="W11" s="251"/>
+      <c r="X11" s="251"/>
+      <c r="Y11" s="251"/>
+      <c r="Z11" s="251"/>
+      <c r="AA11" s="251"/>
+      <c r="AB11" s="251"/>
+      <c r="AC11" s="251"/>
+      <c r="AD11" s="251"/>
+      <c r="AE11" s="251"/>
+      <c r="AF11" s="251"/>
+      <c r="AG11" s="251"/>
+      <c r="AH11" s="251"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="247" t="s">
+      <c r="D12" s="252" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="248"/>
-      <c r="F12" s="248"/>
-      <c r="G12" s="249"/>
-      <c r="H12" s="253" t="s">
+      <c r="E12" s="253"/>
+      <c r="F12" s="253"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="246" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="253"/>
-      <c r="J12" s="253"/>
-      <c r="K12" s="253"/>
-      <c r="L12" s="253"/>
-      <c r="M12" s="253"/>
-      <c r="N12" s="253"/>
-      <c r="O12" s="253"/>
-      <c r="P12" s="253"/>
-      <c r="Q12" s="253"/>
-      <c r="R12" s="253"/>
-      <c r="S12" s="253"/>
-      <c r="T12" s="253"/>
-      <c r="U12" s="253"/>
-      <c r="V12" s="253"/>
-      <c r="W12" s="253"/>
-      <c r="X12" s="253"/>
-      <c r="Y12" s="253"/>
-      <c r="Z12" s="253"/>
-      <c r="AA12" s="253"/>
-      <c r="AB12" s="253"/>
-      <c r="AC12" s="253"/>
-      <c r="AD12" s="253"/>
-      <c r="AE12" s="253"/>
-      <c r="AF12" s="253"/>
-      <c r="AG12" s="253"/>
-      <c r="AH12" s="253"/>
+      <c r="I12" s="246"/>
+      <c r="J12" s="246"/>
+      <c r="K12" s="246"/>
+      <c r="L12" s="246"/>
+      <c r="M12" s="246"/>
+      <c r="N12" s="246"/>
+      <c r="O12" s="246"/>
+      <c r="P12" s="246"/>
+      <c r="Q12" s="246"/>
+      <c r="R12" s="246"/>
+      <c r="S12" s="246"/>
+      <c r="T12" s="246"/>
+      <c r="U12" s="246"/>
+      <c r="V12" s="246"/>
+      <c r="W12" s="246"/>
+      <c r="X12" s="246"/>
+      <c r="Y12" s="246"/>
+      <c r="Z12" s="246"/>
+      <c r="AA12" s="246"/>
+      <c r="AB12" s="246"/>
+      <c r="AC12" s="246"/>
+      <c r="AD12" s="246"/>
+      <c r="AE12" s="246"/>
+      <c r="AF12" s="246"/>
+      <c r="AG12" s="246"/>
+      <c r="AH12" s="246"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="247" t="s">
+      <c r="D13" s="252" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="248"/>
-      <c r="F13" s="248"/>
-      <c r="G13" s="249"/>
-      <c r="H13" s="253" t="s">
-        <v>151</v>
-      </c>
-      <c r="I13" s="253"/>
-      <c r="J13" s="253"/>
-      <c r="K13" s="253"/>
-      <c r="L13" s="253"/>
-      <c r="M13" s="253"/>
-      <c r="N13" s="253"/>
-      <c r="O13" s="253"/>
-      <c r="P13" s="253"/>
-      <c r="Q13" s="253"/>
-      <c r="R13" s="253"/>
-      <c r="S13" s="253"/>
-      <c r="T13" s="253"/>
-      <c r="U13" s="253"/>
-      <c r="V13" s="253"/>
-      <c r="W13" s="253"/>
-      <c r="X13" s="253"/>
-      <c r="Y13" s="253"/>
-      <c r="Z13" s="253"/>
-      <c r="AA13" s="253"/>
-      <c r="AB13" s="253"/>
-      <c r="AC13" s="253"/>
-      <c r="AD13" s="253"/>
-      <c r="AE13" s="253"/>
-      <c r="AF13" s="253"/>
-      <c r="AG13" s="253"/>
-      <c r="AH13" s="253"/>
+      <c r="E13" s="253"/>
+      <c r="F13" s="253"/>
+      <c r="G13" s="254"/>
+      <c r="H13" s="246" t="s">
+        <v>148</v>
+      </c>
+      <c r="I13" s="246"/>
+      <c r="J13" s="246"/>
+      <c r="K13" s="246"/>
+      <c r="L13" s="246"/>
+      <c r="M13" s="246"/>
+      <c r="N13" s="246"/>
+      <c r="O13" s="246"/>
+      <c r="P13" s="246"/>
+      <c r="Q13" s="246"/>
+      <c r="R13" s="246"/>
+      <c r="S13" s="246"/>
+      <c r="T13" s="246"/>
+      <c r="U13" s="246"/>
+      <c r="V13" s="246"/>
+      <c r="W13" s="246"/>
+      <c r="X13" s="246"/>
+      <c r="Y13" s="246"/>
+      <c r="Z13" s="246"/>
+      <c r="AA13" s="246"/>
+      <c r="AB13" s="246"/>
+      <c r="AC13" s="246"/>
+      <c r="AD13" s="246"/>
+      <c r="AE13" s="246"/>
+      <c r="AF13" s="246"/>
+      <c r="AG13" s="246"/>
+      <c r="AH13" s="246"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="247" t="s">
+      <c r="D14" s="252" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="248"/>
-      <c r="F14" s="248"/>
-      <c r="G14" s="249"/>
-      <c r="H14" s="253" t="s">
+      <c r="E14" s="253"/>
+      <c r="F14" s="253"/>
+      <c r="G14" s="254"/>
+      <c r="H14" s="246" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="253"/>
-      <c r="J14" s="253"/>
-      <c r="K14" s="253"/>
-      <c r="L14" s="253"/>
-      <c r="M14" s="253"/>
-      <c r="N14" s="253"/>
-      <c r="O14" s="253"/>
-      <c r="P14" s="253"/>
-      <c r="Q14" s="253"/>
-      <c r="R14" s="253"/>
-      <c r="S14" s="253"/>
-      <c r="T14" s="253"/>
-      <c r="U14" s="253"/>
-      <c r="V14" s="253"/>
-      <c r="W14" s="253"/>
-      <c r="X14" s="253"/>
-      <c r="Y14" s="253"/>
-      <c r="Z14" s="253"/>
-      <c r="AA14" s="253"/>
-      <c r="AB14" s="253"/>
-      <c r="AC14" s="253"/>
-      <c r="AD14" s="253"/>
-      <c r="AE14" s="253"/>
-      <c r="AF14" s="253"/>
-      <c r="AG14" s="253"/>
-      <c r="AH14" s="253"/>
+      <c r="I14" s="246"/>
+      <c r="J14" s="246"/>
+      <c r="K14" s="246"/>
+      <c r="L14" s="246"/>
+      <c r="M14" s="246"/>
+      <c r="N14" s="246"/>
+      <c r="O14" s="246"/>
+      <c r="P14" s="246"/>
+      <c r="Q14" s="246"/>
+      <c r="R14" s="246"/>
+      <c r="S14" s="246"/>
+      <c r="T14" s="246"/>
+      <c r="U14" s="246"/>
+      <c r="V14" s="246"/>
+      <c r="W14" s="246"/>
+      <c r="X14" s="246"/>
+      <c r="Y14" s="246"/>
+      <c r="Z14" s="246"/>
+      <c r="AA14" s="246"/>
+      <c r="AB14" s="246"/>
+      <c r="AC14" s="246"/>
+      <c r="AD14" s="246"/>
+      <c r="AE14" s="246"/>
+      <c r="AF14" s="246"/>
+      <c r="AG14" s="246"/>
+      <c r="AH14" s="246"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="247" t="s">
+      <c r="D15" s="252" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="248"/>
-      <c r="F15" s="248"/>
-      <c r="G15" s="249"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="254"/>
       <c r="H15" s="146" t="s">
         <v>118</v>
       </c>
@@ -10823,30 +10761,30 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="252"/>
-      <c r="H19" s="252"/>
-      <c r="I19" s="252"/>
-      <c r="J19" s="252"/>
-      <c r="K19" s="252"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="252"/>
-      <c r="N19" s="252"/>
-      <c r="O19" s="250"/>
-      <c r="P19" s="251"/>
-      <c r="Q19" s="251"/>
-      <c r="R19" s="251"/>
-      <c r="S19" s="251"/>
-      <c r="T19" s="251"/>
-      <c r="U19" s="251"/>
-      <c r="V19" s="251"/>
-      <c r="W19" s="251"/>
-      <c r="X19" s="251"/>
-      <c r="Y19" s="251"/>
-      <c r="Z19" s="251"/>
-      <c r="AA19" s="251"/>
-      <c r="AB19" s="251"/>
-      <c r="AC19" s="251"/>
-      <c r="AD19" s="251"/>
+      <c r="G19" s="260"/>
+      <c r="H19" s="260"/>
+      <c r="I19" s="260"/>
+      <c r="J19" s="260"/>
+      <c r="K19" s="260"/>
+      <c r="L19" s="260"/>
+      <c r="M19" s="260"/>
+      <c r="N19" s="260"/>
+      <c r="O19" s="258"/>
+      <c r="P19" s="259"/>
+      <c r="Q19" s="259"/>
+      <c r="R19" s="259"/>
+      <c r="S19" s="259"/>
+      <c r="T19" s="259"/>
+      <c r="U19" s="259"/>
+      <c r="V19" s="259"/>
+      <c r="W19" s="259"/>
+      <c r="X19" s="259"/>
+      <c r="Y19" s="259"/>
+      <c r="Z19" s="259"/>
+      <c r="AA19" s="259"/>
+      <c r="AB19" s="259"/>
+      <c r="AC19" s="259"/>
+      <c r="AD19" s="259"/>
       <c r="AE19" s="32"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
@@ -11298,14 +11236,15 @@
     <row r="34" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11322,15 +11261,14 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11347,10 +11285,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AI6"/>
+  <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -11359,157 +11297,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="222" t="str">
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="201" t="s">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="223" t="str">
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="198" t="s">
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="182"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="254">
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="247">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="255"/>
-      <c r="AI1" s="256"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="249"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="222" t="str">
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="204"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="198" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="184" t="str">
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="182"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="254" t="str">
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="255"/>
-      <c r="AI2" s="256"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="249"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="222" t="str">
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="231"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="200"/>
-      <c r="AC3" s="184" t="str">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="254" t="str">
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="255"/>
-      <c r="AI3" s="256"/>
+      <c r="AH3" s="248"/>
+      <c r="AI3" s="249"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" ht="12" customHeight="1">
@@ -11518,8 +11456,19 @@
       </c>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1"/>
+    <row r="14" spans="1:35">
+      <c r="I14" s="91" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11531,12 +11480,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11554,10 +11497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL90"/>
+  <dimension ref="A1:AL91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="BB17" sqref="BB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -11566,163 +11509,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="198" t="s">
+      <c r="A1" s="173" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="200"/>
-      <c r="E1" s="222" t="str">
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="175"/>
+      <c r="E1" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
-      <c r="H1" s="193"/>
-      <c r="I1" s="193"/>
-      <c r="J1" s="193"/>
-      <c r="K1" s="193"/>
-      <c r="L1" s="193"/>
-      <c r="M1" s="193"/>
-      <c r="N1" s="194"/>
-      <c r="O1" s="201" t="s">
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="168"/>
+      <c r="K1" s="168"/>
+      <c r="L1" s="168"/>
+      <c r="M1" s="168"/>
+      <c r="N1" s="169"/>
+      <c r="O1" s="176" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="202"/>
-      <c r="Q1" s="202"/>
-      <c r="R1" s="203"/>
-      <c r="S1" s="223" t="str">
+      <c r="P1" s="177"/>
+      <c r="Q1" s="177"/>
+      <c r="R1" s="178"/>
+      <c r="S1" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="224"/>
-      <c r="U1" s="224"/>
-      <c r="V1" s="224"/>
-      <c r="W1" s="224"/>
-      <c r="X1" s="224"/>
-      <c r="Y1" s="224"/>
-      <c r="Z1" s="225"/>
-      <c r="AA1" s="198" t="s">
+      <c r="T1" s="238"/>
+      <c r="U1" s="238"/>
+      <c r="V1" s="238"/>
+      <c r="W1" s="238"/>
+      <c r="X1" s="238"/>
+      <c r="Y1" s="238"/>
+      <c r="Z1" s="239"/>
+      <c r="AA1" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="200"/>
-      <c r="AC1" s="184" t="str">
+      <c r="AB1" s="175"/>
+      <c r="AC1" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="182"/>
-      <c r="AE1" s="182"/>
-      <c r="AF1" s="183"/>
-      <c r="AG1" s="254">
+      <c r="AD1" s="157"/>
+      <c r="AE1" s="157"/>
+      <c r="AF1" s="158"/>
+      <c r="AG1" s="247">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="255"/>
-      <c r="AI1" s="256"/>
+      <c r="AH1" s="248"/>
+      <c r="AI1" s="249"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="198" t="s">
+      <c r="A2" s="173" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="200"/>
-      <c r="E2" s="222" t="str">
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="193"/>
-      <c r="G2" s="193"/>
-      <c r="H2" s="193"/>
-      <c r="I2" s="193"/>
-      <c r="J2" s="193"/>
-      <c r="K2" s="193"/>
-      <c r="L2" s="193"/>
-      <c r="M2" s="193"/>
-      <c r="N2" s="194"/>
-      <c r="O2" s="204"/>
-      <c r="P2" s="205"/>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="226"/>
-      <c r="T2" s="227"/>
-      <c r="U2" s="227"/>
-      <c r="V2" s="227"/>
-      <c r="W2" s="227"/>
-      <c r="X2" s="227"/>
-      <c r="Y2" s="227"/>
-      <c r="Z2" s="228"/>
-      <c r="AA2" s="198" t="s">
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="179"/>
+      <c r="P2" s="180"/>
+      <c r="Q2" s="180"/>
+      <c r="R2" s="181"/>
+      <c r="S2" s="240"/>
+      <c r="T2" s="241"/>
+      <c r="U2" s="241"/>
+      <c r="V2" s="241"/>
+      <c r="W2" s="241"/>
+      <c r="X2" s="241"/>
+      <c r="Y2" s="241"/>
+      <c r="Z2" s="242"/>
+      <c r="AA2" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="200"/>
-      <c r="AC2" s="184" t="str">
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="182"/>
-      <c r="AE2" s="182"/>
-      <c r="AF2" s="183"/>
-      <c r="AG2" s="254" t="str">
+      <c r="AD2" s="157"/>
+      <c r="AE2" s="157"/>
+      <c r="AF2" s="158"/>
+      <c r="AG2" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="255"/>
-      <c r="AI2" s="256"/>
+      <c r="AH2" s="248"/>
+      <c r="AI2" s="249"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="198" t="s">
+      <c r="A3" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="199"/>
-      <c r="C3" s="199"/>
-      <c r="D3" s="200"/>
-      <c r="E3" s="222" t="str">
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="175"/>
+      <c r="E3" s="233" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="193"/>
-      <c r="G3" s="193"/>
-      <c r="H3" s="193"/>
-      <c r="I3" s="193"/>
-      <c r="J3" s="193"/>
-      <c r="K3" s="193"/>
-      <c r="L3" s="193"/>
-      <c r="M3" s="193"/>
-      <c r="N3" s="194"/>
-      <c r="O3" s="207"/>
-      <c r="P3" s="208"/>
-      <c r="Q3" s="208"/>
-      <c r="R3" s="209"/>
-      <c r="S3" s="229"/>
-      <c r="T3" s="230"/>
-      <c r="U3" s="230"/>
-      <c r="V3" s="230"/>
-      <c r="W3" s="230"/>
-      <c r="X3" s="230"/>
-      <c r="Y3" s="230"/>
-      <c r="Z3" s="231"/>
-      <c r="AA3" s="198"/>
-      <c r="AB3" s="200"/>
-      <c r="AC3" s="184" t="str">
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="182"/>
+      <c r="P3" s="183"/>
+      <c r="Q3" s="183"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="243"/>
+      <c r="T3" s="244"/>
+      <c r="U3" s="244"/>
+      <c r="V3" s="244"/>
+      <c r="W3" s="244"/>
+      <c r="X3" s="244"/>
+      <c r="Y3" s="244"/>
+      <c r="Z3" s="245"/>
+      <c r="AA3" s="173"/>
+      <c r="AB3" s="175"/>
+      <c r="AC3" s="159" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="182"/>
-      <c r="AE3" s="182"/>
-      <c r="AF3" s="183"/>
-      <c r="AG3" s="254" t="str">
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="247" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="255"/>
-      <c r="AI3" s="256"/>
+      <c r="AH3" s="248"/>
+      <c r="AI3" s="249"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11840,65 +11783,65 @@
     <row r="8" spans="1:38">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="333" t="s">
+      <c r="D8" s="280" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="335" t="s">
+      <c r="E8" s="282" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="336"/>
-      <c r="G8" s="336"/>
-      <c r="H8" s="336"/>
-      <c r="I8" s="336"/>
-      <c r="J8" s="337"/>
-      <c r="K8" s="341" t="s">
+      <c r="F8" s="283"/>
+      <c r="G8" s="283"/>
+      <c r="H8" s="283"/>
+      <c r="I8" s="283"/>
+      <c r="J8" s="284"/>
+      <c r="K8" s="288" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="336"/>
-      <c r="M8" s="336"/>
-      <c r="N8" s="337"/>
-      <c r="O8" s="342" t="s">
+      <c r="L8" s="283"/>
+      <c r="M8" s="283"/>
+      <c r="N8" s="284"/>
+      <c r="O8" s="289" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="347" t="s">
+      <c r="P8" s="294" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="348"/>
-      <c r="R8" s="348"/>
-      <c r="S8" s="348"/>
-      <c r="T8" s="348"/>
-      <c r="U8" s="349"/>
-      <c r="V8" s="344" t="s">
+      <c r="Q8" s="295"/>
+      <c r="R8" s="295"/>
+      <c r="S8" s="295"/>
+      <c r="T8" s="295"/>
+      <c r="U8" s="296"/>
+      <c r="V8" s="291" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="344"/>
-      <c r="X8" s="344"/>
-      <c r="Y8" s="344"/>
-      <c r="Z8" s="344"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="344"/>
-      <c r="AC8" s="344"/>
-      <c r="AD8" s="344"/>
-      <c r="AE8" s="344"/>
-      <c r="AF8" s="344"/>
-      <c r="AG8" s="344"/>
-      <c r="AH8" s="344"/>
+      <c r="W8" s="291"/>
+      <c r="X8" s="291"/>
+      <c r="Y8" s="291"/>
+      <c r="Z8" s="291"/>
+      <c r="AA8" s="291"/>
+      <c r="AB8" s="291"/>
+      <c r="AC8" s="291"/>
+      <c r="AD8" s="291"/>
+      <c r="AE8" s="291"/>
+      <c r="AF8" s="291"/>
+      <c r="AG8" s="291"/>
+      <c r="AH8" s="291"/>
     </row>
     <row r="9" spans="1:38">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="334"/>
-      <c r="E9" s="338"/>
-      <c r="F9" s="339"/>
-      <c r="G9" s="339"/>
-      <c r="H9" s="339"/>
-      <c r="I9" s="339"/>
-      <c r="J9" s="340"/>
-      <c r="K9" s="338"/>
-      <c r="L9" s="339"/>
-      <c r="M9" s="339"/>
-      <c r="N9" s="340"/>
-      <c r="O9" s="343"/>
+      <c r="D9" s="281"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="286"/>
+      <c r="G9" s="286"/>
+      <c r="H9" s="286"/>
+      <c r="I9" s="286"/>
+      <c r="J9" s="287"/>
+      <c r="K9" s="285"/>
+      <c r="L9" s="286"/>
+      <c r="M9" s="286"/>
+      <c r="N9" s="287"/>
+      <c r="O9" s="290"/>
       <c r="P9" s="90" t="s">
         <v>46</v>
       </c>
@@ -11911,23 +11854,23 @@
       <c r="S9" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="345" t="s">
+      <c r="T9" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="346"/>
-      <c r="V9" s="344"/>
-      <c r="W9" s="344"/>
-      <c r="X9" s="344"/>
-      <c r="Y9" s="344"/>
-      <c r="Z9" s="344"/>
-      <c r="AA9" s="344"/>
-      <c r="AB9" s="344"/>
-      <c r="AC9" s="344"/>
-      <c r="AD9" s="344"/>
-      <c r="AE9" s="344"/>
-      <c r="AF9" s="344"/>
-      <c r="AG9" s="344"/>
-      <c r="AH9" s="344"/>
+      <c r="U9" s="293"/>
+      <c r="V9" s="291"/>
+      <c r="W9" s="291"/>
+      <c r="X9" s="291"/>
+      <c r="Y9" s="291"/>
+      <c r="Z9" s="291"/>
+      <c r="AA9" s="291"/>
+      <c r="AB9" s="291"/>
+      <c r="AC9" s="291"/>
+      <c r="AD9" s="291"/>
+      <c r="AE9" s="291"/>
+      <c r="AF9" s="291"/>
+      <c r="AG9" s="291"/>
+      <c r="AH9" s="291"/>
     </row>
     <row r="10" spans="1:38">
       <c r="B10" s="30"/>
@@ -11935,20 +11878,20 @@
       <c r="D10" s="114">
         <v>1</v>
       </c>
-      <c r="E10" s="271" t="s">
+      <c r="E10" s="269" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="164"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="164"/>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
-      <c r="K10" s="163" t="s">
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="205"/>
+      <c r="K10" s="203" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="164"/>
-      <c r="M10" s="164"/>
-      <c r="N10" s="165"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="205"/>
       <c r="O10" s="115" t="s">
         <v>76</v>
       </c>
@@ -11964,23 +11907,23 @@
       <c r="S10" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T10" s="274" t="s">
+      <c r="T10" s="264" t="s">
         <v>79</v>
       </c>
-      <c r="U10" s="275"/>
-      <c r="V10" s="163"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="164"/>
-      <c r="Z10" s="164"/>
-      <c r="AA10" s="164"/>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="164"/>
-      <c r="AD10" s="164"/>
-      <c r="AE10" s="164"/>
-      <c r="AF10" s="164"/>
-      <c r="AG10" s="164"/>
-      <c r="AH10" s="165"/>
+      <c r="U10" s="265"/>
+      <c r="V10" s="203"/>
+      <c r="W10" s="204"/>
+      <c r="X10" s="204"/>
+      <c r="Y10" s="204"/>
+      <c r="Z10" s="204"/>
+      <c r="AA10" s="204"/>
+      <c r="AB10" s="204"/>
+      <c r="AC10" s="204"/>
+      <c r="AD10" s="204"/>
+      <c r="AE10" s="204"/>
+      <c r="AF10" s="204"/>
+      <c r="AG10" s="204"/>
+      <c r="AH10" s="205"/>
     </row>
     <row r="11" spans="1:38">
       <c r="B11" s="30"/>
@@ -11988,20 +11931,20 @@
       <c r="D11" s="114">
         <v>2</v>
       </c>
-      <c r="E11" s="271" t="s">
+      <c r="E11" s="269" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="164"/>
-      <c r="G11" s="164"/>
-      <c r="H11" s="164"/>
-      <c r="I11" s="164"/>
-      <c r="J11" s="165"/>
-      <c r="K11" s="163" t="s">
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="205"/>
+      <c r="K11" s="203" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="164"/>
-      <c r="M11" s="164"/>
-      <c r="N11" s="165"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="205"/>
       <c r="O11" s="116" t="s">
         <v>76</v>
       </c>
@@ -12017,23 +11960,23 @@
       <c r="S11" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T11" s="274" t="s">
+      <c r="T11" s="264" t="s">
         <v>79</v>
       </c>
-      <c r="U11" s="275"/>
-      <c r="V11" s="163"/>
-      <c r="W11" s="164"/>
-      <c r="X11" s="164"/>
-      <c r="Y11" s="164"/>
-      <c r="Z11" s="164"/>
-      <c r="AA11" s="164"/>
-      <c r="AB11" s="164"/>
-      <c r="AC11" s="164"/>
-      <c r="AD11" s="164"/>
-      <c r="AE11" s="164"/>
-      <c r="AF11" s="164"/>
-      <c r="AG11" s="164"/>
-      <c r="AH11" s="165"/>
+      <c r="U11" s="265"/>
+      <c r="V11" s="203"/>
+      <c r="W11" s="204"/>
+      <c r="X11" s="204"/>
+      <c r="Y11" s="204"/>
+      <c r="Z11" s="204"/>
+      <c r="AA11" s="204"/>
+      <c r="AB11" s="204"/>
+      <c r="AC11" s="204"/>
+      <c r="AD11" s="204"/>
+      <c r="AE11" s="204"/>
+      <c r="AF11" s="204"/>
+      <c r="AG11" s="204"/>
+      <c r="AH11" s="205"/>
     </row>
     <row r="12" spans="1:38">
       <c r="B12" s="30"/>
@@ -12041,20 +11984,20 @@
       <c r="D12" s="114">
         <v>3</v>
       </c>
-      <c r="E12" s="271" t="s">
+      <c r="E12" s="269" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="164"/>
-      <c r="G12" s="164"/>
-      <c r="H12" s="164"/>
-      <c r="I12" s="164"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="163" t="s">
+      <c r="F12" s="204"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="205"/>
+      <c r="K12" s="203" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="164"/>
-      <c r="M12" s="164"/>
-      <c r="N12" s="165"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="204"/>
+      <c r="N12" s="205"/>
       <c r="O12" s="116" t="s">
         <v>77</v>
       </c>
@@ -12070,23 +12013,23 @@
       <c r="S12" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T12" s="274" t="s">
+      <c r="T12" s="264" t="s">
         <v>79</v>
       </c>
-      <c r="U12" s="275"/>
-      <c r="V12" s="163"/>
-      <c r="W12" s="164"/>
-      <c r="X12" s="164"/>
-      <c r="Y12" s="164"/>
-      <c r="Z12" s="164"/>
-      <c r="AA12" s="164"/>
-      <c r="AB12" s="164"/>
-      <c r="AC12" s="164"/>
-      <c r="AD12" s="164"/>
-      <c r="AE12" s="164"/>
-      <c r="AF12" s="164"/>
-      <c r="AG12" s="164"/>
-      <c r="AH12" s="165"/>
+      <c r="U12" s="265"/>
+      <c r="V12" s="203"/>
+      <c r="W12" s="204"/>
+      <c r="X12" s="204"/>
+      <c r="Y12" s="204"/>
+      <c r="Z12" s="204"/>
+      <c r="AA12" s="204"/>
+      <c r="AB12" s="204"/>
+      <c r="AC12" s="204"/>
+      <c r="AD12" s="204"/>
+      <c r="AE12" s="204"/>
+      <c r="AF12" s="204"/>
+      <c r="AG12" s="204"/>
+      <c r="AH12" s="205"/>
     </row>
     <row r="13" spans="1:38">
       <c r="B13" s="30"/>
@@ -12236,40 +12179,40 @@
       <c r="D17" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="303" t="s">
+      <c r="E17" s="297" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="304"/>
-      <c r="G17" s="305"/>
-      <c r="H17" s="362" t="s">
+      <c r="F17" s="298"/>
+      <c r="G17" s="299"/>
+      <c r="H17" s="266" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="363"/>
-      <c r="J17" s="363"/>
-      <c r="K17" s="363"/>
-      <c r="L17" s="363"/>
-      <c r="M17" s="363"/>
-      <c r="N17" s="363"/>
-      <c r="O17" s="363"/>
-      <c r="P17" s="363"/>
-      <c r="Q17" s="363"/>
-      <c r="R17" s="363"/>
-      <c r="S17" s="363"/>
-      <c r="T17" s="363"/>
-      <c r="U17" s="363"/>
-      <c r="V17" s="363"/>
-      <c r="W17" s="363"/>
-      <c r="X17" s="363"/>
-      <c r="Y17" s="363"/>
-      <c r="Z17" s="363"/>
-      <c r="AA17" s="363"/>
-      <c r="AB17" s="363"/>
-      <c r="AC17" s="363"/>
-      <c r="AD17" s="363"/>
-      <c r="AE17" s="363"/>
-      <c r="AF17" s="363"/>
-      <c r="AG17" s="363"/>
-      <c r="AH17" s="364"/>
+      <c r="I17" s="267"/>
+      <c r="J17" s="267"/>
+      <c r="K17" s="267"/>
+      <c r="L17" s="267"/>
+      <c r="M17" s="267"/>
+      <c r="N17" s="267"/>
+      <c r="O17" s="267"/>
+      <c r="P17" s="267"/>
+      <c r="Q17" s="267"/>
+      <c r="R17" s="267"/>
+      <c r="S17" s="267"/>
+      <c r="T17" s="267"/>
+      <c r="U17" s="267"/>
+      <c r="V17" s="267"/>
+      <c r="W17" s="267"/>
+      <c r="X17" s="267"/>
+      <c r="Y17" s="267"/>
+      <c r="Z17" s="267"/>
+      <c r="AA17" s="267"/>
+      <c r="AB17" s="267"/>
+      <c r="AC17" s="267"/>
+      <c r="AD17" s="267"/>
+      <c r="AE17" s="267"/>
+      <c r="AF17" s="267"/>
+      <c r="AG17" s="267"/>
+      <c r="AH17" s="268"/>
     </row>
     <row r="18" spans="1:35" s="88" customFormat="1" ht="24" customHeight="1">
       <c r="B18" s="30"/>
@@ -12277,40 +12220,40 @@
       <c r="D18" s="114">
         <v>1</v>
       </c>
-      <c r="E18" s="271" t="s">
+      <c r="E18" s="269" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="164"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="271" t="s">
+      <c r="F18" s="204"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="269" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="164"/>
-      <c r="J18" s="164"/>
-      <c r="K18" s="164"/>
-      <c r="L18" s="164"/>
-      <c r="M18" s="164"/>
-      <c r="N18" s="164"/>
-      <c r="O18" s="164"/>
-      <c r="P18" s="164"/>
-      <c r="Q18" s="164"/>
-      <c r="R18" s="164"/>
-      <c r="S18" s="164"/>
-      <c r="T18" s="164"/>
-      <c r="U18" s="164"/>
-      <c r="V18" s="164"/>
-      <c r="W18" s="164"/>
-      <c r="X18" s="164"/>
-      <c r="Y18" s="164"/>
-      <c r="Z18" s="164"/>
-      <c r="AA18" s="164"/>
-      <c r="AB18" s="164"/>
-      <c r="AC18" s="164"/>
-      <c r="AD18" s="164"/>
-      <c r="AE18" s="164"/>
-      <c r="AF18" s="164"/>
-      <c r="AG18" s="164"/>
-      <c r="AH18" s="165"/>
+      <c r="I18" s="204"/>
+      <c r="J18" s="204"/>
+      <c r="K18" s="204"/>
+      <c r="L18" s="204"/>
+      <c r="M18" s="204"/>
+      <c r="N18" s="204"/>
+      <c r="O18" s="204"/>
+      <c r="P18" s="204"/>
+      <c r="Q18" s="204"/>
+      <c r="R18" s="204"/>
+      <c r="S18" s="204"/>
+      <c r="T18" s="204"/>
+      <c r="U18" s="204"/>
+      <c r="V18" s="204"/>
+      <c r="W18" s="204"/>
+      <c r="X18" s="204"/>
+      <c r="Y18" s="204"/>
+      <c r="Z18" s="204"/>
+      <c r="AA18" s="204"/>
+      <c r="AB18" s="204"/>
+      <c r="AC18" s="204"/>
+      <c r="AD18" s="204"/>
+      <c r="AE18" s="204"/>
+      <c r="AF18" s="204"/>
+      <c r="AG18" s="204"/>
+      <c r="AH18" s="205"/>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
       <c r="B19" s="1"/>
@@ -12318,40 +12261,40 @@
       <c r="D19" s="114">
         <v>2</v>
       </c>
-      <c r="E19" s="271" t="s">
+      <c r="E19" s="269" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="164"/>
-      <c r="G19" s="165"/>
-      <c r="H19" s="271" t="s">
+      <c r="F19" s="204"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="269" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="164"/>
-      <c r="J19" s="164"/>
-      <c r="K19" s="164"/>
-      <c r="L19" s="164"/>
-      <c r="M19" s="164"/>
-      <c r="N19" s="164"/>
-      <c r="O19" s="164"/>
-      <c r="P19" s="164"/>
-      <c r="Q19" s="164"/>
-      <c r="R19" s="164"/>
-      <c r="S19" s="164"/>
-      <c r="T19" s="164"/>
-      <c r="U19" s="164"/>
-      <c r="V19" s="164"/>
-      <c r="W19" s="164"/>
-      <c r="X19" s="164"/>
-      <c r="Y19" s="164"/>
-      <c r="Z19" s="164"/>
-      <c r="AA19" s="164"/>
-      <c r="AB19" s="164"/>
-      <c r="AC19" s="164"/>
-      <c r="AD19" s="164"/>
-      <c r="AE19" s="164"/>
-      <c r="AF19" s="164"/>
-      <c r="AG19" s="164"/>
-      <c r="AH19" s="165"/>
+      <c r="I19" s="204"/>
+      <c r="J19" s="204"/>
+      <c r="K19" s="204"/>
+      <c r="L19" s="204"/>
+      <c r="M19" s="204"/>
+      <c r="N19" s="204"/>
+      <c r="O19" s="204"/>
+      <c r="P19" s="204"/>
+      <c r="Q19" s="204"/>
+      <c r="R19" s="204"/>
+      <c r="S19" s="204"/>
+      <c r="T19" s="204"/>
+      <c r="U19" s="204"/>
+      <c r="V19" s="204"/>
+      <c r="W19" s="204"/>
+      <c r="X19" s="204"/>
+      <c r="Y19" s="204"/>
+      <c r="Z19" s="204"/>
+      <c r="AA19" s="204"/>
+      <c r="AB19" s="204"/>
+      <c r="AC19" s="204"/>
+      <c r="AD19" s="204"/>
+      <c r="AE19" s="204"/>
+      <c r="AF19" s="204"/>
+      <c r="AG19" s="204"/>
+      <c r="AH19" s="205"/>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
       <c r="B20" s="1"/>
@@ -12359,40 +12302,40 @@
       <c r="D20" s="114">
         <v>3</v>
       </c>
-      <c r="E20" s="271" t="s">
+      <c r="E20" s="269" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="164"/>
-      <c r="G20" s="165"/>
-      <c r="H20" s="271" t="s">
+      <c r="F20" s="204"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="269" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="164"/>
-      <c r="J20" s="164"/>
-      <c r="K20" s="164"/>
-      <c r="L20" s="164"/>
-      <c r="M20" s="164"/>
-      <c r="N20" s="164"/>
-      <c r="O20" s="164"/>
-      <c r="P20" s="164"/>
-      <c r="Q20" s="164"/>
-      <c r="R20" s="164"/>
-      <c r="S20" s="164"/>
-      <c r="T20" s="164"/>
-      <c r="U20" s="164"/>
-      <c r="V20" s="164"/>
-      <c r="W20" s="164"/>
-      <c r="X20" s="164"/>
-      <c r="Y20" s="164"/>
-      <c r="Z20" s="164"/>
-      <c r="AA20" s="164"/>
-      <c r="AB20" s="164"/>
-      <c r="AC20" s="164"/>
-      <c r="AD20" s="164"/>
-      <c r="AE20" s="164"/>
-      <c r="AF20" s="164"/>
-      <c r="AG20" s="164"/>
-      <c r="AH20" s="165"/>
+      <c r="I20" s="204"/>
+      <c r="J20" s="204"/>
+      <c r="K20" s="204"/>
+      <c r="L20" s="204"/>
+      <c r="M20" s="204"/>
+      <c r="N20" s="204"/>
+      <c r="O20" s="204"/>
+      <c r="P20" s="204"/>
+      <c r="Q20" s="204"/>
+      <c r="R20" s="204"/>
+      <c r="S20" s="204"/>
+      <c r="T20" s="204"/>
+      <c r="U20" s="204"/>
+      <c r="V20" s="204"/>
+      <c r="W20" s="204"/>
+      <c r="X20" s="204"/>
+      <c r="Y20" s="204"/>
+      <c r="Z20" s="204"/>
+      <c r="AA20" s="204"/>
+      <c r="AB20" s="204"/>
+      <c r="AC20" s="204"/>
+      <c r="AD20" s="204"/>
+      <c r="AE20" s="204"/>
+      <c r="AF20" s="204"/>
+      <c r="AG20" s="204"/>
+      <c r="AH20" s="205"/>
     </row>
     <row r="21" spans="1:35">
       <c r="B21" s="87"/>
@@ -12576,36 +12519,42 @@
     <row r="26" spans="1:35">
       <c r="B26" s="87"/>
       <c r="C26" s="93"/>
-      <c r="E26" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="125"/>
-      <c r="AE26" s="125"/>
-      <c r="AF26" s="124"/>
+      <c r="E26" s="377" t="s">
+        <v>156</v>
+      </c>
+      <c r="F26" s="378" t="s">
+        <v>157</v>
+      </c>
+      <c r="G26" s="379"/>
+      <c r="H26" s="379"/>
+      <c r="I26" s="379"/>
+      <c r="J26" s="379"/>
+      <c r="K26" s="380"/>
+      <c r="L26" s="378" t="s">
+        <v>158</v>
+      </c>
+      <c r="M26" s="379"/>
+      <c r="N26" s="379"/>
+      <c r="O26" s="379"/>
+      <c r="P26" s="379"/>
+      <c r="Q26" s="379"/>
+      <c r="R26" s="379"/>
+      <c r="S26" s="379"/>
+      <c r="T26" s="379"/>
+      <c r="U26" s="380"/>
+      <c r="V26" s="378" t="s">
+        <v>159</v>
+      </c>
+      <c r="W26" s="378" t="s">
+        <v>160</v>
+      </c>
+      <c r="X26" s="379"/>
+      <c r="Y26" s="379"/>
+      <c r="Z26" s="379"/>
+      <c r="AA26" s="379"/>
+      <c r="AB26" s="381"/>
+      <c r="AC26" s="381"/>
+      <c r="AD26" s="382"/>
       <c r="AG26" s="124"/>
       <c r="AH26" s="125"/>
     </row>
@@ -12614,164 +12563,133 @@
       <c r="B27" s="87"/>
       <c r="C27" s="93"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="125"/>
-      <c r="AE27" s="125"/>
-      <c r="AF27" s="124"/>
+      <c r="E27" s="367">
+        <v>1</v>
+      </c>
+      <c r="F27" s="369" t="s">
+        <v>161</v>
+      </c>
+      <c r="G27" s="370"/>
+      <c r="H27" s="370"/>
+      <c r="I27" s="370"/>
+      <c r="J27" s="370"/>
+      <c r="K27" s="371"/>
+      <c r="L27" s="369" t="s">
+        <v>162</v>
+      </c>
+      <c r="M27" s="370"/>
+      <c r="N27" s="370"/>
+      <c r="O27" s="370"/>
+      <c r="P27" s="370"/>
+      <c r="Q27" s="370"/>
+      <c r="R27" s="370"/>
+      <c r="S27" s="370"/>
+      <c r="T27" s="370"/>
+      <c r="U27" s="371"/>
+      <c r="V27" s="369"/>
+      <c r="W27" s="372" t="s">
+        <v>165</v>
+      </c>
+      <c r="X27" s="373"/>
+      <c r="Y27" s="373"/>
+      <c r="Z27" s="373"/>
+      <c r="AA27" s="373"/>
+      <c r="AB27" s="373"/>
+      <c r="AC27" s="375"/>
+      <c r="AD27" s="376"/>
       <c r="AG27" s="124"/>
       <c r="AH27" s="125"/>
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="48"/>
-      <c r="B28" s="87"/>
-      <c r="C28" s="93"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="153"/>
       <c r="D28" s="124"/>
-      <c r="E28" s="272" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="272"/>
-      <c r="G28" s="273" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="273"/>
-      <c r="I28" s="273"/>
-      <c r="J28" s="273"/>
-      <c r="K28" s="273"/>
-      <c r="L28" s="273"/>
-      <c r="M28" s="272" t="s">
-        <v>23</v>
-      </c>
-      <c r="N28" s="272"/>
-      <c r="O28" s="320" t="s">
-        <v>128</v>
-      </c>
-      <c r="P28" s="321"/>
-      <c r="Q28" s="321"/>
-      <c r="R28" s="321"/>
-      <c r="S28" s="321"/>
-      <c r="T28" s="321"/>
-      <c r="U28" s="321"/>
-      <c r="V28" s="321"/>
-      <c r="W28" s="321"/>
-      <c r="X28" s="321"/>
-      <c r="Y28" s="321"/>
-      <c r="Z28" s="321"/>
-      <c r="AA28" s="321"/>
-      <c r="AB28" s="321"/>
-      <c r="AC28" s="321"/>
-      <c r="AD28" s="321"/>
-      <c r="AE28" s="321"/>
-      <c r="AF28" s="321"/>
-      <c r="AG28" s="321"/>
-      <c r="AH28" s="322"/>
-    </row>
-    <row r="29" spans="1:35">
-      <c r="A29" s="48"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="124"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="93"/>
-      <c r="L29" s="93"/>
-      <c r="M29" s="93"/>
-      <c r="N29" s="92"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="93"/>
-      <c r="Y29" s="93"/>
-      <c r="Z29" s="93"/>
-      <c r="AA29" s="93"/>
-      <c r="AB29" s="93"/>
-      <c r="AC29" s="93"/>
-      <c r="AD29" s="93"/>
-      <c r="AE29" s="125"/>
-      <c r="AF29" s="124"/>
-      <c r="AG29" s="124"/>
-      <c r="AH29" s="125"/>
-    </row>
-    <row r="30" spans="1:35" s="86" customFormat="1">
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-    </row>
-    <row r="31" spans="1:35">
-      <c r="A31" s="48"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AD31" s="48"/>
-      <c r="AE31" s="48"/>
-      <c r="AF31" s="48"/>
-      <c r="AG31" s="48"/>
-      <c r="AH31" s="48"/>
-      <c r="AI31" s="48"/>
+      <c r="E28" s="368">
+        <v>2</v>
+      </c>
+      <c r="F28" s="372" t="s">
+        <v>163</v>
+      </c>
+      <c r="G28" s="373"/>
+      <c r="H28" s="373"/>
+      <c r="I28" s="373"/>
+      <c r="J28" s="373"/>
+      <c r="K28" s="374"/>
+      <c r="L28" s="372" t="s">
+        <v>164</v>
+      </c>
+      <c r="M28" s="373"/>
+      <c r="N28" s="154"/>
+      <c r="O28" s="373"/>
+      <c r="P28" s="373"/>
+      <c r="Q28" s="373"/>
+      <c r="R28" s="373"/>
+      <c r="S28" s="373"/>
+      <c r="T28" s="373"/>
+      <c r="U28" s="374"/>
+      <c r="V28" s="372"/>
+      <c r="W28" s="372" t="s">
+        <v>164</v>
+      </c>
+      <c r="X28" s="373"/>
+      <c r="Y28" s="373"/>
+      <c r="Z28" s="373"/>
+      <c r="AA28" s="373"/>
+      <c r="AB28" s="373"/>
+      <c r="AC28" s="375"/>
+      <c r="AD28" s="376"/>
+      <c r="AG28" s="124"/>
+      <c r="AH28" s="125"/>
+    </row>
+    <row r="29" spans="1:35" s="86" customFormat="1">
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" s="48"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="93"/>
+      <c r="G30" s="93"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
+      <c r="M30" s="93"/>
+      <c r="N30" s="92"/>
+      <c r="O30" s="93"/>
+      <c r="P30" s="93"/>
+      <c r="Q30" s="93"/>
+      <c r="R30" s="93"/>
+      <c r="S30" s="93"/>
+      <c r="T30" s="93"/>
+      <c r="U30" s="93"/>
+      <c r="V30" s="93"/>
+      <c r="W30" s="93"/>
+      <c r="X30" s="93"/>
+      <c r="Y30" s="93"/>
+      <c r="Z30" s="93"/>
+      <c r="AA30" s="93"/>
+      <c r="AB30" s="93"/>
+      <c r="AC30" s="93"/>
+      <c r="AD30" s="93"/>
+      <c r="AE30" s="125"/>
+      <c r="AF30" s="124"/>
+      <c r="AG30" s="124"/>
+      <c r="AH30" s="125"/>
+    </row>
+    <row r="31" spans="1:35" s="86" customFormat="1">
+      <c r="C31" s="25"/>
+      <c r="D31" s="25"/>
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="48"/>
       <c r="B32" s="48"/>
-      <c r="C32" s="58" t="s">
-        <v>32</v>
-      </c>
+      <c r="C32" s="48"/>
       <c r="D32" s="48"/>
       <c r="E32" s="48"/>
       <c r="F32" s="48"/>
@@ -12808,20 +12726,20 @@
     <row r="33" spans="1:35">
       <c r="A33" s="48"/>
       <c r="B33" s="48"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58" t="s">
-        <v>85</v>
-      </c>
+      <c r="C33" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="48"/>
       <c r="E33" s="48"/>
       <c r="F33" s="48"/>
       <c r="G33" s="48"/>
       <c r="H33" s="48"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="28"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="48"/>
       <c r="M33" s="48"/>
-      <c r="N33" s="28"/>
+      <c r="N33" s="48"/>
       <c r="O33" s="48"/>
       <c r="P33" s="48"/>
       <c r="Q33" s="48"/>
@@ -12847,18 +12765,20 @@
     <row r="34" spans="1:35">
       <c r="A34" s="48"/>
       <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58" t="s">
+        <v>85</v>
+      </c>
       <c r="E34" s="48"/>
       <c r="F34" s="48"/>
       <c r="G34" s="48"/>
       <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
       <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
+      <c r="N34" s="28"/>
       <c r="O34" s="48"/>
       <c r="P34" s="48"/>
       <c r="Q34" s="48"/>
@@ -12881,373 +12801,373 @@
       <c r="AH34" s="48"/>
       <c r="AI34" s="48"/>
     </row>
-    <row r="35" spans="1:35" ht="40.5" customHeight="1">
+    <row r="35" spans="1:35">
       <c r="A35" s="48"/>
       <c r="B35" s="48"/>
       <c r="C35" s="48"/>
       <c r="D35" s="48"/>
-      <c r="E35" s="128" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="323" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="324"/>
-      <c r="H35" s="324"/>
-      <c r="I35" s="324"/>
-      <c r="J35" s="324"/>
-      <c r="K35" s="325"/>
-      <c r="L35" s="326" t="s">
-        <v>88</v>
-      </c>
-      <c r="M35" s="324"/>
-      <c r="N35" s="324"/>
-      <c r="O35" s="324"/>
-      <c r="P35" s="324"/>
-      <c r="Q35" s="324"/>
-      <c r="R35" s="324"/>
-      <c r="S35" s="324"/>
-      <c r="T35" s="324"/>
-      <c r="U35" s="325"/>
-      <c r="V35" s="327" t="s">
-        <v>89</v>
-      </c>
-      <c r="W35" s="328"/>
-      <c r="X35" s="329"/>
-      <c r="Y35" s="327" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z35" s="328"/>
-      <c r="AA35" s="328"/>
-      <c r="AB35" s="329"/>
-      <c r="AC35" s="330" t="s">
-        <v>91</v>
-      </c>
-      <c r="AD35" s="331"/>
-      <c r="AE35" s="331"/>
-      <c r="AF35" s="332"/>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
+      <c r="K35" s="48"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="48"/>
+      <c r="R35" s="48"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="48"/>
       <c r="AG35" s="48"/>
       <c r="AH35" s="48"/>
       <c r="AI35" s="48"/>
     </row>
-    <row r="36" spans="1:35" ht="50.25" customHeight="1">
+    <row r="36" spans="1:35" ht="40.5" customHeight="1">
       <c r="A36" s="48"/>
       <c r="B36" s="48"/>
       <c r="C36" s="48"/>
       <c r="D36" s="48"/>
-      <c r="E36" s="129">
-        <v>1</v>
-      </c>
-      <c r="F36" s="300" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="301"/>
-      <c r="H36" s="301"/>
-      <c r="I36" s="301"/>
-      <c r="J36" s="301"/>
-      <c r="K36" s="302"/>
-      <c r="L36" s="262" t="s">
-        <v>93</v>
-      </c>
-      <c r="M36" s="301"/>
-      <c r="N36" s="301"/>
-      <c r="O36" s="301"/>
-      <c r="P36" s="301"/>
-      <c r="Q36" s="301"/>
-      <c r="R36" s="301"/>
-      <c r="S36" s="301"/>
-      <c r="T36" s="301"/>
-      <c r="U36" s="302"/>
-      <c r="V36" s="317" t="s">
-        <v>94</v>
-      </c>
-      <c r="W36" s="318"/>
-      <c r="X36" s="319"/>
-      <c r="Y36" s="314" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z36" s="315"/>
-      <c r="AA36" s="315"/>
-      <c r="AB36" s="316"/>
-      <c r="AC36" s="262" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD36" s="301"/>
-      <c r="AE36" s="301"/>
-      <c r="AF36" s="302"/>
+      <c r="E36" s="128" t="s">
+        <v>86</v>
+      </c>
+      <c r="F36" s="320" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="321"/>
+      <c r="H36" s="321"/>
+      <c r="I36" s="321"/>
+      <c r="J36" s="321"/>
+      <c r="K36" s="322"/>
+      <c r="L36" s="323" t="s">
+        <v>88</v>
+      </c>
+      <c r="M36" s="321"/>
+      <c r="N36" s="321"/>
+      <c r="O36" s="321"/>
+      <c r="P36" s="321"/>
+      <c r="Q36" s="321"/>
+      <c r="R36" s="321"/>
+      <c r="S36" s="321"/>
+      <c r="T36" s="321"/>
+      <c r="U36" s="322"/>
+      <c r="V36" s="324" t="s">
+        <v>89</v>
+      </c>
+      <c r="W36" s="325"/>
+      <c r="X36" s="326"/>
+      <c r="Y36" s="324" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z36" s="325"/>
+      <c r="AA36" s="325"/>
+      <c r="AB36" s="326"/>
+      <c r="AC36" s="327" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD36" s="328"/>
+      <c r="AE36" s="328"/>
+      <c r="AF36" s="329"/>
       <c r="AG36" s="48"/>
       <c r="AH36" s="48"/>
       <c r="AI36" s="48"/>
     </row>
-    <row r="37" spans="1:35">
+    <row r="37" spans="1:35" ht="50.25" customHeight="1">
       <c r="A37" s="48"/>
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="48"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="48"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="48"/>
-      <c r="P37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="48"/>
-      <c r="V37" s="48"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="48"/>
-      <c r="Y37" s="48"/>
-      <c r="Z37" s="48"/>
-      <c r="AA37" s="48"/>
-      <c r="AB37" s="48"/>
-      <c r="AC37" s="48"/>
-      <c r="AD37" s="48"/>
-      <c r="AE37" s="48"/>
-      <c r="AF37" s="48"/>
+      <c r="E37" s="129">
+        <v>1</v>
+      </c>
+      <c r="F37" s="361" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="312"/>
+      <c r="H37" s="312"/>
+      <c r="I37" s="312"/>
+      <c r="J37" s="312"/>
+      <c r="K37" s="313"/>
+      <c r="L37" s="311" t="s">
+        <v>93</v>
+      </c>
+      <c r="M37" s="312"/>
+      <c r="N37" s="312"/>
+      <c r="O37" s="312"/>
+      <c r="P37" s="312"/>
+      <c r="Q37" s="312"/>
+      <c r="R37" s="312"/>
+      <c r="S37" s="312"/>
+      <c r="T37" s="312"/>
+      <c r="U37" s="313"/>
+      <c r="V37" s="314" t="s">
+        <v>94</v>
+      </c>
+      <c r="W37" s="315"/>
+      <c r="X37" s="316"/>
+      <c r="Y37" s="308" t="s">
+        <v>95</v>
+      </c>
+      <c r="Z37" s="309"/>
+      <c r="AA37" s="309"/>
+      <c r="AB37" s="310"/>
+      <c r="AC37" s="311" t="s">
+        <v>126</v>
+      </c>
+      <c r="AD37" s="312"/>
+      <c r="AE37" s="312"/>
+      <c r="AF37" s="313"/>
       <c r="AG37" s="48"/>
       <c r="AH37" s="48"/>
       <c r="AI37" s="48"/>
     </row>
     <row r="38" spans="1:35">
-      <c r="A38" s="58"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38"/>
-      <c r="E38" s="91" t="s">
-        <v>130</v>
-      </c>
-      <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
-      <c r="Y38"/>
-      <c r="Z38"/>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="58"/>
-      <c r="AC38" s="58"/>
-      <c r="AD38" s="58"/>
-      <c r="AE38" s="58"/>
-      <c r="AF38" s="58"/>
-      <c r="AG38" s="58"/>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="58"/>
+      <c r="A38" s="48"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="G38" s="48"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
+      <c r="K38" s="48"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="48"/>
+      <c r="R38" s="48"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="48"/>
+      <c r="AH38" s="48"/>
+      <c r="AI38" s="48"/>
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="58"/>
       <c r="B39" s="58"/>
       <c r="C39" s="58"/>
       <c r="D39"/>
-      <c r="E39" s="268" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="269"/>
-      <c r="G39" s="269"/>
-      <c r="H39" s="269"/>
-      <c r="I39" s="269"/>
-      <c r="J39" s="270" t="s">
-        <v>132</v>
-      </c>
-      <c r="K39" s="270"/>
-      <c r="L39" s="270"/>
-      <c r="M39" s="259" t="s">
-        <v>133</v>
-      </c>
-      <c r="N39" s="260"/>
-      <c r="O39" s="260"/>
-      <c r="P39" s="260"/>
-      <c r="Q39" s="260"/>
-      <c r="R39" s="260"/>
-      <c r="S39" s="261"/>
-      <c r="T39" s="259" t="s">
-        <v>90</v>
-      </c>
-      <c r="U39" s="260"/>
-      <c r="V39" s="260"/>
-      <c r="W39" s="260"/>
-      <c r="X39" s="260"/>
-      <c r="Y39" s="260"/>
-      <c r="Z39" s="260"/>
-      <c r="AA39" s="260"/>
-      <c r="AB39" s="260"/>
-      <c r="AC39" s="260"/>
-      <c r="AD39" s="261"/>
-    </row>
-    <row r="40" spans="1:35" ht="11.25" customHeight="1">
+      <c r="E39" s="91" t="s">
+        <v>127</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+      <c r="Y39"/>
+      <c r="Z39"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+      <c r="AD39" s="58"/>
+      <c r="AE39" s="58"/>
+      <c r="AF39" s="58"/>
+      <c r="AG39" s="58"/>
+      <c r="AH39" s="58"/>
+      <c r="AI39" s="58"/>
+    </row>
+    <row r="40" spans="1:35">
       <c r="A40" s="58"/>
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
       <c r="D40"/>
-      <c r="E40" s="262" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="263"/>
-      <c r="G40" s="263"/>
-      <c r="H40" s="263"/>
-      <c r="I40" s="263"/>
-      <c r="J40" s="264" t="s">
-        <v>156</v>
-      </c>
-      <c r="K40" s="264"/>
-      <c r="L40" s="264"/>
-      <c r="M40" s="265" t="s">
-        <v>135</v>
-      </c>
-      <c r="N40" s="266"/>
-      <c r="O40" s="266"/>
-      <c r="P40" s="266"/>
-      <c r="Q40" s="266"/>
-      <c r="R40" s="266"/>
-      <c r="S40" s="267"/>
-      <c r="T40" s="265" t="s">
-        <v>135</v>
-      </c>
-      <c r="U40" s="266"/>
-      <c r="V40" s="266"/>
-      <c r="W40" s="266"/>
-      <c r="X40" s="266"/>
-      <c r="Y40" s="266"/>
-      <c r="Z40" s="266"/>
-      <c r="AA40" s="266"/>
-      <c r="AB40" s="266"/>
-      <c r="AC40" s="266"/>
-      <c r="AD40" s="267"/>
+      <c r="E40" s="331" t="s">
+        <v>128</v>
+      </c>
+      <c r="F40" s="332"/>
+      <c r="G40" s="332"/>
+      <c r="H40" s="332"/>
+      <c r="I40" s="332"/>
+      <c r="J40" s="333" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40" s="333"/>
+      <c r="L40" s="333"/>
+      <c r="M40" s="334" t="s">
+        <v>130</v>
+      </c>
+      <c r="N40" s="335"/>
+      <c r="O40" s="335"/>
+      <c r="P40" s="335"/>
+      <c r="Q40" s="335"/>
+      <c r="R40" s="335"/>
+      <c r="S40" s="336"/>
+      <c r="T40" s="334" t="s">
+        <v>90</v>
+      </c>
+      <c r="U40" s="335"/>
+      <c r="V40" s="335"/>
+      <c r="W40" s="335"/>
+      <c r="X40" s="335"/>
+      <c r="Y40" s="335"/>
+      <c r="Z40" s="335"/>
+      <c r="AA40" s="335"/>
+      <c r="AB40" s="335"/>
+      <c r="AC40" s="335"/>
+      <c r="AD40" s="336"/>
     </row>
     <row r="41" spans="1:35" ht="11.25" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
       <c r="D41"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="151"/>
-      <c r="N41" s="151"/>
-      <c r="O41" s="151"/>
-      <c r="P41" s="151"/>
-      <c r="Q41" s="151"/>
-      <c r="R41" s="151"/>
-      <c r="S41" s="151"/>
-      <c r="T41" s="151"/>
-      <c r="U41" s="151"/>
-      <c r="V41" s="151"/>
-      <c r="W41" s="151"/>
-      <c r="X41" s="151"/>
-      <c r="Y41" s="151"/>
-      <c r="Z41" s="151"/>
-      <c r="AA41" s="151"/>
-      <c r="AB41" s="151"/>
-      <c r="AC41" s="151"/>
-      <c r="AD41" s="151"/>
-    </row>
-    <row r="42" spans="1:35">
+      <c r="E41" s="311" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" s="362"/>
+      <c r="G41" s="362"/>
+      <c r="H41" s="362"/>
+      <c r="I41" s="362"/>
+      <c r="J41" s="363" t="s">
+        <v>153</v>
+      </c>
+      <c r="K41" s="363"/>
+      <c r="L41" s="363"/>
+      <c r="M41" s="364" t="s">
+        <v>132</v>
+      </c>
+      <c r="N41" s="365"/>
+      <c r="O41" s="365"/>
+      <c r="P41" s="365"/>
+      <c r="Q41" s="365"/>
+      <c r="R41" s="365"/>
+      <c r="S41" s="366"/>
+      <c r="T41" s="364" t="s">
+        <v>132</v>
+      </c>
+      <c r="U41" s="365"/>
+      <c r="V41" s="365"/>
+      <c r="W41" s="365"/>
+      <c r="X41" s="365"/>
+      <c r="Y41" s="365"/>
+      <c r="Z41" s="365"/>
+      <c r="AA41" s="365"/>
+      <c r="AB41" s="365"/>
+      <c r="AC41" s="365"/>
+      <c r="AD41" s="366"/>
+    </row>
+    <row r="42" spans="1:35" ht="11.25" customHeight="1">
       <c r="A42" s="58"/>
       <c r="B42" s="58"/>
       <c r="C42" s="58"/>
       <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
-      <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
-      <c r="K42"/>
-      <c r="L42"/>
-      <c r="M42"/>
-      <c r="N42"/>
-      <c r="O42"/>
-      <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42"/>
-      <c r="S42"/>
-      <c r="T42"/>
-      <c r="U42"/>
-      <c r="V42"/>
-      <c r="W42"/>
-      <c r="X42"/>
-      <c r="Y42"/>
-      <c r="Z42"/>
-      <c r="AA42" s="58"/>
-      <c r="AB42" s="58"/>
-      <c r="AC42" s="58"/>
-      <c r="AD42" s="58"/>
-      <c r="AE42" s="58"/>
-      <c r="AF42" s="58"/>
-      <c r="AG42" s="58"/>
-      <c r="AH42" s="58"/>
-      <c r="AI42" s="58"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="150"/>
+      <c r="K42" s="150"/>
+      <c r="L42" s="150"/>
+      <c r="M42" s="151"/>
+      <c r="N42" s="151"/>
+      <c r="O42" s="151"/>
+      <c r="P42" s="151"/>
+      <c r="Q42" s="151"/>
+      <c r="R42" s="151"/>
+      <c r="S42" s="151"/>
+      <c r="T42" s="151"/>
+      <c r="U42" s="151"/>
+      <c r="V42" s="151"/>
+      <c r="W42" s="151"/>
+      <c r="X42" s="151"/>
+      <c r="Y42" s="151"/>
+      <c r="Z42" s="151"/>
+      <c r="AA42" s="151"/>
+      <c r="AB42" s="151"/>
+      <c r="AC42" s="151"/>
+      <c r="AD42" s="151"/>
     </row>
     <row r="43" spans="1:35">
-      <c r="A43" s="48"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="E43" s="48"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-      <c r="K43" s="48"/>
-      <c r="L43" s="48"/>
-      <c r="M43" s="48"/>
-      <c r="N43" s="48"/>
-      <c r="O43" s="48"/>
-      <c r="P43" s="48"/>
-      <c r="Q43" s="48"/>
-      <c r="R43" s="48"/>
-      <c r="S43" s="48"/>
-      <c r="T43" s="48"/>
-      <c r="U43" s="48"/>
-      <c r="V43" s="48"/>
-      <c r="W43" s="48"/>
-      <c r="X43" s="48"/>
-      <c r="Y43" s="48"/>
-      <c r="Z43" s="48"/>
-      <c r="AA43" s="48"/>
-      <c r="AB43" s="48"/>
-      <c r="AC43" s="48"/>
-      <c r="AD43" s="48"/>
-      <c r="AE43" s="48"/>
-      <c r="AF43" s="48"/>
-      <c r="AG43" s="48"/>
-      <c r="AH43" s="48"/>
-      <c r="AI43" s="48"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="58"/>
+      <c r="C43" s="58"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43"/>
+      <c r="R43"/>
+      <c r="S43"/>
+      <c r="T43"/>
+      <c r="U43"/>
+      <c r="V43"/>
+      <c r="W43"/>
+      <c r="X43"/>
+      <c r="Y43"/>
+      <c r="Z43"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="58"/>
+      <c r="AC43" s="58"/>
+      <c r="AD43" s="58"/>
+      <c r="AE43" s="58"/>
+      <c r="AF43" s="58"/>
+      <c r="AG43" s="58"/>
+      <c r="AH43" s="58"/>
+      <c r="AI43" s="58"/>
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="48"/>
       <c r="B44" s="48"/>
       <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
+      <c r="D44" s="58" t="s">
+        <v>133</v>
+      </c>
       <c r="E44" s="48"/>
       <c r="F44" s="48"/>
       <c r="G44" s="48"/>
@@ -13285,9 +13205,7 @@
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
-      <c r="E45" s="58" t="s">
-        <v>137</v>
-      </c>
+      <c r="E45" s="48"/>
       <c r="F45" s="48"/>
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
@@ -13324,6 +13242,9 @@
       <c r="B46" s="48"/>
       <c r="C46" s="48"/>
       <c r="D46" s="48"/>
+      <c r="E46" s="58" t="s">
+        <v>134</v>
+      </c>
       <c r="F46" s="48"/>
       <c r="G46" s="48"/>
       <c r="H46" s="48"/>
@@ -13360,9 +13281,6 @@
       <c r="B47" s="48"/>
       <c r="C47" s="48"/>
       <c r="D47" s="48"/>
-      <c r="E47" s="58" t="s">
-        <v>141</v>
-      </c>
       <c r="F47" s="48"/>
       <c r="G47" s="48"/>
       <c r="H47" s="48"/>
@@ -13395,121 +13313,123 @@
       <c r="AI47" s="48"/>
     </row>
     <row r="48" spans="1:35">
-      <c r="A48" s="58"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="58"/>
-      <c r="D48"/>
-      <c r="E48" s="268" t="s">
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="F48" s="269"/>
-      <c r="G48" s="269"/>
-      <c r="H48" s="269"/>
-      <c r="I48" s="269"/>
-      <c r="J48" s="270" t="s">
-        <v>132</v>
-      </c>
-      <c r="K48" s="270"/>
-      <c r="L48" s="270"/>
-      <c r="M48" s="259" t="s">
-        <v>139</v>
-      </c>
-      <c r="N48" s="260"/>
-      <c r="O48" s="260"/>
-      <c r="P48" s="260"/>
-      <c r="Q48" s="260"/>
-      <c r="R48" s="260"/>
-      <c r="S48" s="261"/>
-      <c r="T48" s="259" t="s">
-        <v>90</v>
-      </c>
-      <c r="U48" s="260"/>
-      <c r="V48" s="260"/>
-      <c r="W48" s="260"/>
-      <c r="X48" s="260"/>
-      <c r="Y48" s="260"/>
-      <c r="Z48" s="260"/>
-      <c r="AA48" s="260"/>
-      <c r="AB48" s="260"/>
-      <c r="AC48" s="260"/>
-      <c r="AD48" s="261"/>
-    </row>
-    <row r="49" spans="1:35" ht="11.25" customHeight="1">
+      <c r="F48" s="48"/>
+      <c r="G48" s="48"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
+      <c r="K48" s="48"/>
+      <c r="L48" s="48"/>
+      <c r="M48" s="48"/>
+      <c r="N48" s="48"/>
+      <c r="O48" s="48"/>
+      <c r="P48" s="48"/>
+      <c r="Q48" s="48"/>
+      <c r="R48" s="48"/>
+      <c r="S48" s="48"/>
+      <c r="T48" s="48"/>
+      <c r="U48" s="48"/>
+      <c r="V48" s="48"/>
+      <c r="W48" s="48"/>
+      <c r="X48" s="48"/>
+      <c r="Y48" s="48"/>
+      <c r="Z48" s="48"/>
+      <c r="AA48" s="48"/>
+      <c r="AB48" s="48"/>
+      <c r="AC48" s="48"/>
+      <c r="AD48" s="48"/>
+      <c r="AE48" s="48"/>
+      <c r="AF48" s="48"/>
+      <c r="AG48" s="48"/>
+      <c r="AH48" s="48"/>
+      <c r="AI48" s="48"/>
+    </row>
+    <row r="49" spans="1:35">
       <c r="A49" s="58"/>
       <c r="B49" s="58"/>
       <c r="C49" s="58"/>
       <c r="D49"/>
-      <c r="E49" s="262" t="s">
-        <v>140</v>
-      </c>
-      <c r="F49" s="263"/>
-      <c r="G49" s="263"/>
-      <c r="H49" s="263"/>
-      <c r="I49" s="263"/>
-      <c r="J49" s="264" t="s">
-        <v>157</v>
-      </c>
-      <c r="K49" s="264"/>
-      <c r="L49" s="264"/>
-      <c r="M49" s="265" t="s">
-        <v>158</v>
-      </c>
-      <c r="N49" s="266"/>
-      <c r="O49" s="266"/>
-      <c r="P49" s="266"/>
-      <c r="Q49" s="266"/>
-      <c r="R49" s="266"/>
-      <c r="S49" s="267"/>
-      <c r="T49" s="265" t="s">
-        <v>142</v>
-      </c>
-      <c r="U49" s="266"/>
-      <c r="V49" s="266"/>
-      <c r="W49" s="266"/>
-      <c r="X49" s="266"/>
-      <c r="Y49" s="266"/>
-      <c r="Z49" s="266"/>
-      <c r="AA49" s="266"/>
-      <c r="AB49" s="266"/>
-      <c r="AC49" s="266"/>
-      <c r="AD49" s="267"/>
-    </row>
-    <row r="50" spans="1:35">
-      <c r="A50" s="48"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="48"/>
-      <c r="G50" s="48"/>
-      <c r="H50" s="48"/>
-      <c r="I50" s="48"/>
-      <c r="J50" s="48"/>
-      <c r="K50" s="48"/>
-      <c r="L50" s="48"/>
-      <c r="M50" s="48"/>
-      <c r="N50" s="48"/>
-      <c r="O50" s="48"/>
-      <c r="P50" s="48"/>
-      <c r="Q50" s="48"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="48"/>
-      <c r="T50" s="48"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="48"/>
-      <c r="W50" s="48"/>
-      <c r="X50" s="48"/>
-      <c r="Y50" s="48"/>
-      <c r="Z50" s="48"/>
-      <c r="AA50" s="48"/>
-      <c r="AB50" s="48"/>
-      <c r="AC50" s="48"/>
-      <c r="AD50" s="48"/>
-      <c r="AE50" s="48"/>
-      <c r="AF50" s="48"/>
-      <c r="AG50" s="48"/>
-      <c r="AH50" s="48"/>
-      <c r="AI50" s="48"/>
+      <c r="E49" s="331" t="s">
+        <v>135</v>
+      </c>
+      <c r="F49" s="332"/>
+      <c r="G49" s="332"/>
+      <c r="H49" s="332"/>
+      <c r="I49" s="332"/>
+      <c r="J49" s="333" t="s">
+        <v>129</v>
+      </c>
+      <c r="K49" s="333"/>
+      <c r="L49" s="333"/>
+      <c r="M49" s="334" t="s">
+        <v>136</v>
+      </c>
+      <c r="N49" s="335"/>
+      <c r="O49" s="335"/>
+      <c r="P49" s="335"/>
+      <c r="Q49" s="335"/>
+      <c r="R49" s="335"/>
+      <c r="S49" s="336"/>
+      <c r="T49" s="334" t="s">
+        <v>90</v>
+      </c>
+      <c r="U49" s="335"/>
+      <c r="V49" s="335"/>
+      <c r="W49" s="335"/>
+      <c r="X49" s="335"/>
+      <c r="Y49" s="335"/>
+      <c r="Z49" s="335"/>
+      <c r="AA49" s="335"/>
+      <c r="AB49" s="335"/>
+      <c r="AC49" s="335"/>
+      <c r="AD49" s="336"/>
+    </row>
+    <row r="50" spans="1:35" ht="11.25" customHeight="1">
+      <c r="A50" s="58"/>
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50"/>
+      <c r="E50" s="311" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" s="362"/>
+      <c r="G50" s="362"/>
+      <c r="H50" s="362"/>
+      <c r="I50" s="362"/>
+      <c r="J50" s="363" t="s">
+        <v>154</v>
+      </c>
+      <c r="K50" s="363"/>
+      <c r="L50" s="363"/>
+      <c r="M50" s="364" t="s">
+        <v>155</v>
+      </c>
+      <c r="N50" s="365"/>
+      <c r="O50" s="365"/>
+      <c r="P50" s="365"/>
+      <c r="Q50" s="365"/>
+      <c r="R50" s="365"/>
+      <c r="S50" s="366"/>
+      <c r="T50" s="364" t="s">
+        <v>139</v>
+      </c>
+      <c r="U50" s="365"/>
+      <c r="V50" s="365"/>
+      <c r="W50" s="365"/>
+      <c r="X50" s="365"/>
+      <c r="Y50" s="365"/>
+      <c r="Z50" s="365"/>
+      <c r="AA50" s="365"/>
+      <c r="AB50" s="365"/>
+      <c r="AC50" s="365"/>
+      <c r="AD50" s="366"/>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="48"/>
@@ -13552,9 +13472,7 @@
       <c r="A52" s="48"/>
       <c r="B52" s="48"/>
       <c r="C52" s="48"/>
-      <c r="D52" s="58" t="s">
-        <v>143</v>
-      </c>
+      <c r="D52" s="48"/>
       <c r="E52" s="48"/>
       <c r="F52" s="48"/>
       <c r="G52" s="48"/>
@@ -13591,7 +13509,9 @@
       <c r="A53" s="48"/>
       <c r="B53" s="48"/>
       <c r="C53" s="48"/>
-      <c r="D53" s="48"/>
+      <c r="D53" s="58" t="s">
+        <v>140</v>
+      </c>
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
@@ -13629,30 +13549,26 @@
       <c r="B54" s="48"/>
       <c r="C54" s="48"/>
       <c r="D54" s="48"/>
-      <c r="E54" s="291" t="s">
-        <v>96</v>
-      </c>
-      <c r="F54" s="292"/>
-      <c r="G54" s="292"/>
-      <c r="H54" s="292"/>
-      <c r="I54" s="292"/>
-      <c r="J54" s="292"/>
-      <c r="K54" s="292"/>
-      <c r="L54" s="292"/>
-      <c r="M54" s="292"/>
-      <c r="N54" s="293"/>
-      <c r="O54" s="294" t="s">
-        <v>97</v>
-      </c>
-      <c r="P54" s="295"/>
-      <c r="Q54" s="295"/>
-      <c r="R54" s="295"/>
-      <c r="S54" s="295"/>
-      <c r="T54" s="295"/>
-      <c r="U54" s="295"/>
-      <c r="V54" s="295"/>
-      <c r="W54" s="295"/>
-      <c r="X54" s="296"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="48"/>
+      <c r="P54" s="48"/>
+      <c r="Q54" s="48"/>
+      <c r="R54" s="48"/>
+      <c r="S54" s="48"/>
+      <c r="T54" s="48"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="48"/>
+      <c r="W54" s="48"/>
+      <c r="X54" s="48"/>
       <c r="Y54" s="48"/>
       <c r="Z54" s="48"/>
       <c r="AA54" s="48"/>
@@ -13670,30 +13586,30 @@
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
-      <c r="E55" s="279" t="s">
-        <v>100</v>
-      </c>
-      <c r="F55" s="280"/>
-      <c r="G55" s="280"/>
-      <c r="H55" s="280"/>
-      <c r="I55" s="280"/>
-      <c r="J55" s="280"/>
-      <c r="K55" s="280"/>
-      <c r="L55" s="280"/>
-      <c r="M55" s="280"/>
-      <c r="N55" s="281"/>
-      <c r="O55" s="297" t="s">
-        <v>102</v>
-      </c>
-      <c r="P55" s="298"/>
-      <c r="Q55" s="298"/>
-      <c r="R55" s="298"/>
-      <c r="S55" s="298"/>
-      <c r="T55" s="298"/>
-      <c r="U55" s="298"/>
-      <c r="V55" s="298"/>
-      <c r="W55" s="298"/>
-      <c r="X55" s="299"/>
+      <c r="E55" s="352" t="s">
+        <v>96</v>
+      </c>
+      <c r="F55" s="353"/>
+      <c r="G55" s="353"/>
+      <c r="H55" s="353"/>
+      <c r="I55" s="353"/>
+      <c r="J55" s="353"/>
+      <c r="K55" s="353"/>
+      <c r="L55" s="353"/>
+      <c r="M55" s="353"/>
+      <c r="N55" s="354"/>
+      <c r="O55" s="355" t="s">
+        <v>97</v>
+      </c>
+      <c r="P55" s="356"/>
+      <c r="Q55" s="356"/>
+      <c r="R55" s="356"/>
+      <c r="S55" s="356"/>
+      <c r="T55" s="356"/>
+      <c r="U55" s="356"/>
+      <c r="V55" s="356"/>
+      <c r="W55" s="356"/>
+      <c r="X55" s="357"/>
       <c r="Y55" s="48"/>
       <c r="Z55" s="48"/>
       <c r="AA55" s="48"/>
@@ -13711,28 +13627,30 @@
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
       <c r="D56" s="48"/>
-      <c r="E56" s="282"/>
-      <c r="F56" s="283"/>
-      <c r="G56" s="283"/>
-      <c r="H56" s="283"/>
-      <c r="I56" s="283"/>
-      <c r="J56" s="283"/>
-      <c r="K56" s="283"/>
-      <c r="L56" s="283"/>
-      <c r="M56" s="283"/>
-      <c r="N56" s="284"/>
-      <c r="O56" s="297" t="s">
-        <v>104</v>
-      </c>
-      <c r="P56" s="298"/>
-      <c r="Q56" s="298"/>
-      <c r="R56" s="298"/>
-      <c r="S56" s="298"/>
-      <c r="T56" s="298"/>
-      <c r="U56" s="298"/>
-      <c r="V56" s="298"/>
-      <c r="W56" s="298"/>
-      <c r="X56" s="299"/>
+      <c r="E56" s="340" t="s">
+        <v>100</v>
+      </c>
+      <c r="F56" s="341"/>
+      <c r="G56" s="341"/>
+      <c r="H56" s="341"/>
+      <c r="I56" s="341"/>
+      <c r="J56" s="341"/>
+      <c r="K56" s="341"/>
+      <c r="L56" s="341"/>
+      <c r="M56" s="341"/>
+      <c r="N56" s="342"/>
+      <c r="O56" s="358" t="s">
+        <v>102</v>
+      </c>
+      <c r="P56" s="359"/>
+      <c r="Q56" s="359"/>
+      <c r="R56" s="359"/>
+      <c r="S56" s="359"/>
+      <c r="T56" s="359"/>
+      <c r="U56" s="359"/>
+      <c r="V56" s="359"/>
+      <c r="W56" s="359"/>
+      <c r="X56" s="360"/>
       <c r="Y56" s="48"/>
       <c r="Z56" s="48"/>
       <c r="AA56" s="48"/>
@@ -13750,28 +13668,28 @@
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
       <c r="D57" s="48"/>
-      <c r="E57" s="285"/>
-      <c r="F57" s="286"/>
-      <c r="G57" s="286"/>
-      <c r="H57" s="286"/>
-      <c r="I57" s="286"/>
-      <c r="J57" s="286"/>
-      <c r="K57" s="286"/>
-      <c r="L57" s="286"/>
-      <c r="M57" s="286"/>
-      <c r="N57" s="287"/>
-      <c r="O57" s="288" t="s">
-        <v>105</v>
-      </c>
-      <c r="P57" s="289"/>
-      <c r="Q57" s="289"/>
-      <c r="R57" s="289"/>
-      <c r="S57" s="289"/>
-      <c r="T57" s="289"/>
-      <c r="U57" s="289"/>
-      <c r="V57" s="289"/>
-      <c r="W57" s="289"/>
-      <c r="X57" s="290"/>
+      <c r="E57" s="343"/>
+      <c r="F57" s="344"/>
+      <c r="G57" s="344"/>
+      <c r="H57" s="344"/>
+      <c r="I57" s="344"/>
+      <c r="J57" s="344"/>
+      <c r="K57" s="344"/>
+      <c r="L57" s="344"/>
+      <c r="M57" s="344"/>
+      <c r="N57" s="345"/>
+      <c r="O57" s="358" t="s">
+        <v>104</v>
+      </c>
+      <c r="P57" s="359"/>
+      <c r="Q57" s="359"/>
+      <c r="R57" s="359"/>
+      <c r="S57" s="359"/>
+      <c r="T57" s="359"/>
+      <c r="U57" s="359"/>
+      <c r="V57" s="359"/>
+      <c r="W57" s="359"/>
+      <c r="X57" s="360"/>
       <c r="Y57" s="48"/>
       <c r="Z57" s="48"/>
       <c r="AA57" s="48"/>
@@ -13789,28 +13707,28 @@
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
-      <c r="E58" s="276" t="s">
-        <v>98</v>
-      </c>
-      <c r="F58" s="277"/>
-      <c r="G58" s="277"/>
-      <c r="H58" s="277"/>
-      <c r="I58" s="277"/>
-      <c r="J58" s="277"/>
-      <c r="K58" s="277"/>
-      <c r="L58" s="277"/>
-      <c r="M58" s="277"/>
-      <c r="N58" s="277"/>
-      <c r="O58" s="277"/>
-      <c r="P58" s="277"/>
-      <c r="Q58" s="277"/>
-      <c r="R58" s="277"/>
-      <c r="S58" s="277"/>
-      <c r="T58" s="277"/>
-      <c r="U58" s="277"/>
-      <c r="V58" s="277"/>
-      <c r="W58" s="277"/>
-      <c r="X58" s="278"/>
+      <c r="E58" s="346"/>
+      <c r="F58" s="347"/>
+      <c r="G58" s="347"/>
+      <c r="H58" s="347"/>
+      <c r="I58" s="347"/>
+      <c r="J58" s="347"/>
+      <c r="K58" s="347"/>
+      <c r="L58" s="347"/>
+      <c r="M58" s="347"/>
+      <c r="N58" s="348"/>
+      <c r="O58" s="349" t="s">
+        <v>105</v>
+      </c>
+      <c r="P58" s="350"/>
+      <c r="Q58" s="350"/>
+      <c r="R58" s="350"/>
+      <c r="S58" s="350"/>
+      <c r="T58" s="350"/>
+      <c r="U58" s="350"/>
+      <c r="V58" s="350"/>
+      <c r="W58" s="350"/>
+      <c r="X58" s="351"/>
       <c r="Y58" s="48"/>
       <c r="Z58" s="48"/>
       <c r="AA58" s="48"/>
@@ -13828,26 +13746,28 @@
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
-      <c r="E59" s="130"/>
-      <c r="F59" s="131"/>
-      <c r="G59" s="131"/>
-      <c r="H59" s="131"/>
-      <c r="I59" s="131"/>
-      <c r="J59" s="131"/>
-      <c r="K59" s="131"/>
-      <c r="L59" s="131"/>
-      <c r="M59" s="131"/>
-      <c r="N59" s="131"/>
-      <c r="O59" s="131"/>
-      <c r="P59" s="131"/>
-      <c r="Q59" s="131"/>
-      <c r="R59" s="131"/>
-      <c r="S59" s="131"/>
-      <c r="T59" s="131"/>
-      <c r="U59" s="131"/>
-      <c r="V59" s="131"/>
-      <c r="W59" s="131"/>
-      <c r="X59" s="132"/>
+      <c r="E59" s="337" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="338"/>
+      <c r="G59" s="338"/>
+      <c r="H59" s="338"/>
+      <c r="I59" s="338"/>
+      <c r="J59" s="338"/>
+      <c r="K59" s="338"/>
+      <c r="L59" s="338"/>
+      <c r="M59" s="338"/>
+      <c r="N59" s="338"/>
+      <c r="O59" s="338"/>
+      <c r="P59" s="338"/>
+      <c r="Q59" s="338"/>
+      <c r="R59" s="338"/>
+      <c r="S59" s="338"/>
+      <c r="T59" s="338"/>
+      <c r="U59" s="338"/>
+      <c r="V59" s="338"/>
+      <c r="W59" s="338"/>
+      <c r="X59" s="339"/>
       <c r="Y59" s="48"/>
       <c r="Z59" s="48"/>
       <c r="AA59" s="48"/>
@@ -13865,32 +13785,26 @@
       <c r="B60" s="48"/>
       <c r="C60" s="48"/>
       <c r="D60" s="48"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="133" t="s">
-        <v>144</v>
-      </c>
-      <c r="G60" s="134"/>
-      <c r="H60" s="134"/>
-      <c r="I60" s="134"/>
-      <c r="J60" s="135"/>
-      <c r="K60" s="145" t="s">
-        <v>107</v>
-      </c>
-      <c r="L60" s="134"/>
-      <c r="M60" s="134"/>
-      <c r="N60" s="133" t="s">
-        <v>145</v>
-      </c>
-      <c r="O60" s="134"/>
-      <c r="P60" s="134"/>
-      <c r="Q60" s="134"/>
-      <c r="R60" s="143"/>
-      <c r="S60" s="143"/>
-      <c r="T60" s="143"/>
-      <c r="U60" s="143"/>
-      <c r="V60" s="143"/>
-      <c r="W60" s="143"/>
-      <c r="X60" s="144"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="131"/>
+      <c r="G60" s="131"/>
+      <c r="H60" s="131"/>
+      <c r="I60" s="131"/>
+      <c r="J60" s="131"/>
+      <c r="K60" s="131"/>
+      <c r="L60" s="131"/>
+      <c r="M60" s="131"/>
+      <c r="N60" s="131"/>
+      <c r="O60" s="131"/>
+      <c r="P60" s="131"/>
+      <c r="Q60" s="131"/>
+      <c r="R60" s="131"/>
+      <c r="S60" s="131"/>
+      <c r="T60" s="131"/>
+      <c r="U60" s="131"/>
+      <c r="V60" s="131"/>
+      <c r="W60" s="131"/>
+      <c r="X60" s="132"/>
       <c r="Y60" s="48"/>
       <c r="Z60" s="48"/>
       <c r="AA60" s="48"/>
@@ -13910,19 +13824,19 @@
       <c r="D61" s="48"/>
       <c r="E61" s="142"/>
       <c r="F61" s="133" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="G61" s="134"/>
       <c r="H61" s="134"/>
       <c r="I61" s="134"/>
       <c r="J61" s="135"/>
-      <c r="K61" s="135" t="s">
-        <v>99</v>
+      <c r="K61" s="145" t="s">
+        <v>107</v>
       </c>
       <c r="L61" s="134"/>
       <c r="M61" s="134"/>
       <c r="N61" s="133" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="O61" s="134"/>
       <c r="P61" s="134"/>
@@ -13951,26 +13865,32 @@
       <c r="B62" s="48"/>
       <c r="C62" s="48"/>
       <c r="D62" s="48"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="138"/>
-      <c r="G62" s="138"/>
-      <c r="H62" s="138"/>
-      <c r="I62" s="138"/>
-      <c r="J62" s="139"/>
-      <c r="K62" s="139"/>
-      <c r="L62" s="138"/>
-      <c r="M62" s="138"/>
-      <c r="N62" s="138"/>
-      <c r="O62" s="138"/>
-      <c r="P62" s="138"/>
-      <c r="Q62" s="138"/>
-      <c r="R62" s="138"/>
-      <c r="S62" s="138"/>
-      <c r="T62" s="140"/>
-      <c r="U62" s="138"/>
-      <c r="V62" s="138"/>
-      <c r="W62" s="138"/>
-      <c r="X62" s="141"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="133" t="s">
+        <v>108</v>
+      </c>
+      <c r="G62" s="134"/>
+      <c r="H62" s="134"/>
+      <c r="I62" s="134"/>
+      <c r="J62" s="135"/>
+      <c r="K62" s="135" t="s">
+        <v>99</v>
+      </c>
+      <c r="L62" s="134"/>
+      <c r="M62" s="134"/>
+      <c r="N62" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="O62" s="134"/>
+      <c r="P62" s="134"/>
+      <c r="Q62" s="134"/>
+      <c r="R62" s="143"/>
+      <c r="S62" s="143"/>
+      <c r="T62" s="143"/>
+      <c r="U62" s="143"/>
+      <c r="V62" s="143"/>
+      <c r="W62" s="143"/>
+      <c r="X62" s="144"/>
       <c r="Y62" s="48"/>
       <c r="Z62" s="48"/>
       <c r="AA62" s="48"/>
@@ -13988,26 +13908,26 @@
       <c r="B63" s="48"/>
       <c r="C63" s="48"/>
       <c r="D63" s="48"/>
-      <c r="E63" s="134"/>
-      <c r="F63" s="134"/>
-      <c r="G63" s="134"/>
-      <c r="H63" s="134"/>
-      <c r="I63" s="134"/>
-      <c r="J63" s="135"/>
-      <c r="K63" s="135"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
-      <c r="N63" s="134"/>
-      <c r="O63" s="134"/>
-      <c r="P63" s="134"/>
-      <c r="Q63" s="134"/>
-      <c r="R63" s="134"/>
-      <c r="S63" s="134"/>
-      <c r="T63" s="136"/>
-      <c r="U63" s="134"/>
-      <c r="V63" s="134"/>
-      <c r="W63" s="134"/>
-      <c r="X63" s="152"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="138"/>
+      <c r="G63" s="138"/>
+      <c r="H63" s="138"/>
+      <c r="I63" s="138"/>
+      <c r="J63" s="139"/>
+      <c r="K63" s="139"/>
+      <c r="L63" s="138"/>
+      <c r="M63" s="138"/>
+      <c r="N63" s="138"/>
+      <c r="O63" s="138"/>
+      <c r="P63" s="138"/>
+      <c r="Q63" s="138"/>
+      <c r="R63" s="138"/>
+      <c r="S63" s="138"/>
+      <c r="T63" s="140"/>
+      <c r="U63" s="138"/>
+      <c r="V63" s="138"/>
+      <c r="W63" s="138"/>
+      <c r="X63" s="141"/>
       <c r="Y63" s="48"/>
       <c r="Z63" s="48"/>
       <c r="AA63" s="48"/>
@@ -14025,9 +13945,7 @@
       <c r="B64" s="48"/>
       <c r="C64" s="48"/>
       <c r="D64" s="48"/>
-      <c r="E64" s="133" t="s">
-        <v>154</v>
-      </c>
+      <c r="E64" s="134"/>
       <c r="F64" s="134"/>
       <c r="G64" s="134"/>
       <c r="H64" s="134"/>
@@ -14065,7 +13983,7 @@
       <c r="C65" s="48"/>
       <c r="D65" s="48"/>
       <c r="E65" s="133" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F65" s="134"/>
       <c r="G65" s="134"/>
@@ -14103,26 +14021,28 @@
       <c r="B66" s="48"/>
       <c r="C66" s="48"/>
       <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="48"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="48"/>
-      <c r="M66" s="48"/>
-      <c r="N66" s="48"/>
-      <c r="O66" s="48"/>
-      <c r="P66" s="48"/>
-      <c r="Q66" s="48"/>
-      <c r="R66" s="48"/>
-      <c r="S66" s="48"/>
-      <c r="T66" s="48"/>
-      <c r="U66" s="48"/>
-      <c r="V66" s="48"/>
-      <c r="W66" s="48"/>
-      <c r="X66" s="48"/>
+      <c r="E66" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="F66" s="134"/>
+      <c r="G66" s="134"/>
+      <c r="H66" s="134"/>
+      <c r="I66" s="134"/>
+      <c r="J66" s="135"/>
+      <c r="K66" s="135"/>
+      <c r="L66" s="134"/>
+      <c r="M66" s="134"/>
+      <c r="N66" s="134"/>
+      <c r="O66" s="134"/>
+      <c r="P66" s="134"/>
+      <c r="Q66" s="134"/>
+      <c r="R66" s="134"/>
+      <c r="S66" s="134"/>
+      <c r="T66" s="136"/>
+      <c r="U66" s="134"/>
+      <c r="V66" s="134"/>
+      <c r="W66" s="134"/>
+      <c r="X66" s="152"/>
       <c r="Y66" s="48"/>
       <c r="Z66" s="48"/>
       <c r="AA66" s="48"/>
@@ -14139,9 +14059,7 @@
       <c r="A67" s="48"/>
       <c r="B67" s="48"/>
       <c r="C67" s="48"/>
-      <c r="D67" s="58" t="s">
-        <v>146</v>
-      </c>
+      <c r="D67" s="48"/>
       <c r="E67" s="48"/>
       <c r="F67" s="48"/>
       <c r="G67" s="48"/>
@@ -14178,7 +14096,9 @@
       <c r="A68" s="48"/>
       <c r="B68" s="48"/>
       <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
+      <c r="D68" s="58" t="s">
+        <v>143</v>
+      </c>
       <c r="E68" s="48"/>
       <c r="F68" s="48"/>
       <c r="G68" s="48"/>
@@ -14216,9 +14136,7 @@
       <c r="B69" s="48"/>
       <c r="C69" s="48"/>
       <c r="D69" s="48"/>
-      <c r="E69" s="58" t="s">
-        <v>147</v>
-      </c>
+      <c r="E69" s="48"/>
       <c r="F69" s="48"/>
       <c r="G69" s="48"/>
       <c r="H69" s="48"/>
@@ -14255,7 +14173,9 @@
       <c r="B70" s="48"/>
       <c r="C70" s="48"/>
       <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
+      <c r="E70" s="58" t="s">
+        <v>144</v>
+      </c>
       <c r="F70" s="48"/>
       <c r="G70" s="48"/>
       <c r="H70" s="48"/>
@@ -14361,45 +14281,48 @@
       <c r="AH72" s="48"/>
       <c r="AI72" s="48"/>
     </row>
-    <row r="74" spans="1:35">
-      <c r="C74" s="30" t="s">
+    <row r="73" spans="1:35">
+      <c r="A73" s="48"/>
+      <c r="B73" s="48"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="48"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+      <c r="G73" s="48"/>
+      <c r="H73" s="48"/>
+      <c r="I73" s="48"/>
+      <c r="J73" s="48"/>
+      <c r="K73" s="48"/>
+      <c r="L73" s="48"/>
+      <c r="M73" s="48"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="48"/>
+      <c r="P73" s="48"/>
+      <c r="Q73" s="48"/>
+      <c r="R73" s="48"/>
+      <c r="S73" s="48"/>
+      <c r="T73" s="48"/>
+      <c r="U73" s="48"/>
+      <c r="V73" s="48"/>
+      <c r="W73" s="48"/>
+      <c r="X73" s="48"/>
+      <c r="Y73" s="48"/>
+      <c r="Z73" s="48"/>
+      <c r="AA73" s="48"/>
+      <c r="AB73" s="48"/>
+      <c r="AC73" s="48"/>
+      <c r="AD73" s="48"/>
+      <c r="AE73" s="48"/>
+      <c r="AF73" s="48"/>
+      <c r="AG73" s="48"/>
+      <c r="AH73" s="48"/>
+      <c r="AI73" s="48"/>
+    </row>
+    <row r="75" spans="1:35">
+      <c r="C75" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="30"/>
-      <c r="I74" s="30"/>
-      <c r="J74" s="30"/>
-      <c r="K74" s="30"/>
-      <c r="L74" s="30"/>
-      <c r="M74" s="30"/>
-      <c r="N74" s="30"/>
-      <c r="O74" s="30"/>
-      <c r="P74" s="30"/>
-      <c r="Q74" s="30"/>
-      <c r="R74" s="30"/>
-      <c r="S74" s="30"/>
-      <c r="T74" s="30"/>
-      <c r="U74" s="30"/>
-      <c r="V74" s="30"/>
-      <c r="W74" s="30"/>
-      <c r="X74" s="30"/>
-      <c r="Y74" s="30"/>
-      <c r="Z74" s="30"/>
-      <c r="AA74" s="30"/>
-      <c r="AB74" s="30"/>
-      <c r="AC74" s="30"/>
-      <c r="AD74" s="30"/>
-      <c r="AE74" s="30"/>
-      <c r="AF74" s="30"/>
-    </row>
-    <row r="75" spans="1:35">
-      <c r="C75" s="30"/>
-      <c r="D75" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="D75" s="30"/>
       <c r="E75" s="30"/>
       <c r="F75" s="30"/>
       <c r="G75" s="30"/>
@@ -14431,7 +14354,9 @@
     </row>
     <row r="76" spans="1:35">
       <c r="C76" s="30"/>
-      <c r="D76" s="30"/>
+      <c r="D76" s="30" t="s">
+        <v>38</v>
+      </c>
       <c r="E76" s="30"/>
       <c r="F76" s="30"/>
       <c r="G76" s="30"/>
@@ -14463,41 +14388,41 @@
     </row>
     <row r="77" spans="1:35">
       <c r="C77" s="30"/>
-      <c r="E77" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="1"/>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-      <c r="K77" s="1"/>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="1"/>
-      <c r="Y77" s="1"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
-      <c r="AD77" s="27"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="30"/>
+      <c r="P77" s="30"/>
+      <c r="Q77" s="30"/>
+      <c r="R77" s="30"/>
+      <c r="S77" s="30"/>
+      <c r="T77" s="30"/>
+      <c r="U77" s="30"/>
+      <c r="V77" s="30"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30"/>
+      <c r="AB77" s="30"/>
+      <c r="AC77" s="30"/>
+      <c r="AD77" s="30"/>
       <c r="AE77" s="30"/>
       <c r="AF77" s="30"/>
     </row>
     <row r="78" spans="1:35">
       <c r="C78" s="30"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
+      <c r="E78" s="1" t="s">
+        <v>145</v>
+      </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
       <c r="H78" s="1"/>
@@ -14528,77 +14453,77 @@
     </row>
     <row r="79" spans="1:35">
       <c r="C79" s="30"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="272" t="s">
-        <v>22</v>
-      </c>
-      <c r="F79" s="272"/>
-      <c r="G79" s="320" t="s">
-        <v>149</v>
-      </c>
-      <c r="H79" s="321"/>
-      <c r="I79" s="321"/>
-      <c r="J79" s="321"/>
-      <c r="K79" s="321"/>
-      <c r="L79" s="322"/>
-      <c r="M79" s="272" t="s">
-        <v>23</v>
-      </c>
-      <c r="N79" s="272"/>
-      <c r="O79" s="320" t="s">
-        <v>150</v>
-      </c>
-      <c r="P79" s="321"/>
-      <c r="Q79" s="321"/>
-      <c r="R79" s="321"/>
-      <c r="S79" s="321"/>
-      <c r="T79" s="321"/>
-      <c r="U79" s="321"/>
-      <c r="V79" s="321"/>
-      <c r="W79" s="321"/>
-      <c r="X79" s="321"/>
-      <c r="Y79" s="321"/>
-      <c r="Z79" s="321"/>
-      <c r="AA79" s="321"/>
-      <c r="AB79" s="321"/>
-      <c r="AC79" s="321"/>
-      <c r="AD79" s="321"/>
-      <c r="AE79" s="321"/>
-      <c r="AF79" s="321"/>
-      <c r="AG79" s="321"/>
-      <c r="AH79" s="322"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+      <c r="V79" s="1"/>
+      <c r="W79" s="1"/>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+      <c r="Z79" s="1"/>
+      <c r="AA79" s="1"/>
+      <c r="AB79" s="1"/>
+      <c r="AC79" s="1"/>
+      <c r="AD79" s="27"/>
+      <c r="AE79" s="30"/>
+      <c r="AF79" s="30"/>
     </row>
     <row r="80" spans="1:35">
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="30"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="30"/>
-      <c r="I80" s="30"/>
-      <c r="J80" s="30"/>
-      <c r="K80" s="30"/>
-      <c r="L80" s="30"/>
-      <c r="M80" s="30"/>
-      <c r="N80" s="30"/>
-      <c r="O80" s="30"/>
-      <c r="P80" s="30"/>
-      <c r="Q80" s="30"/>
-      <c r="R80" s="30"/>
-      <c r="S80" s="30"/>
-      <c r="T80" s="30"/>
-      <c r="U80" s="30"/>
-      <c r="V80" s="30"/>
-      <c r="W80" s="30"/>
-      <c r="X80" s="30"/>
-      <c r="Y80" s="30"/>
-      <c r="Z80" s="30"/>
-      <c r="AA80" s="30"/>
-      <c r="AB80" s="30"/>
-      <c r="AC80" s="30"/>
-      <c r="AD80" s="30"/>
-      <c r="AE80" s="30"/>
-      <c r="AF80" s="30"/>
+      <c r="E80" s="330" t="s">
+        <v>22</v>
+      </c>
+      <c r="F80" s="330"/>
+      <c r="G80" s="317" t="s">
+        <v>146</v>
+      </c>
+      <c r="H80" s="318"/>
+      <c r="I80" s="318"/>
+      <c r="J80" s="318"/>
+      <c r="K80" s="318"/>
+      <c r="L80" s="319"/>
+      <c r="M80" s="330" t="s">
+        <v>23</v>
+      </c>
+      <c r="N80" s="330"/>
+      <c r="O80" s="317" t="s">
+        <v>147</v>
+      </c>
+      <c r="P80" s="318"/>
+      <c r="Q80" s="318"/>
+      <c r="R80" s="318"/>
+      <c r="S80" s="318"/>
+      <c r="T80" s="318"/>
+      <c r="U80" s="318"/>
+      <c r="V80" s="318"/>
+      <c r="W80" s="318"/>
+      <c r="X80" s="318"/>
+      <c r="Y80" s="318"/>
+      <c r="Z80" s="318"/>
+      <c r="AA80" s="318"/>
+      <c r="AB80" s="318"/>
+      <c r="AC80" s="318"/>
+      <c r="AD80" s="318"/>
+      <c r="AE80" s="318"/>
+      <c r="AF80" s="318"/>
+      <c r="AG80" s="318"/>
+      <c r="AH80" s="319"/>
     </row>
     <row r="81" spans="3:34">
       <c r="C81" s="30"/>
@@ -14634,9 +14559,7 @@
     </row>
     <row r="82" spans="3:34">
       <c r="C82" s="30"/>
-      <c r="D82" s="30" t="s">
-        <v>39</v>
-      </c>
+      <c r="D82" s="30"/>
       <c r="E82" s="30"/>
       <c r="F82" s="30"/>
       <c r="G82" s="30"/>
@@ -14668,7 +14591,9 @@
     </row>
     <row r="83" spans="3:34">
       <c r="C83" s="30"/>
-      <c r="D83" s="30"/>
+      <c r="D83" s="30" t="s">
+        <v>39</v>
+      </c>
       <c r="E83" s="30"/>
       <c r="F83" s="30"/>
       <c r="G83" s="30"/>
@@ -14701,331 +14626,382 @@
     <row r="84" spans="3:34">
       <c r="C84" s="30"/>
       <c r="D84" s="30"/>
-      <c r="E84" s="312" t="s">
-        <v>53</v>
-      </c>
-      <c r="F84" s="306" t="s">
-        <v>24</v>
-      </c>
-      <c r="G84" s="307"/>
-      <c r="H84" s="307"/>
-      <c r="I84" s="308"/>
-      <c r="J84" s="306" t="s">
-        <v>25</v>
-      </c>
-      <c r="K84" s="307"/>
-      <c r="L84" s="307"/>
-      <c r="M84" s="308"/>
-      <c r="N84" s="356" t="s">
-        <v>26</v>
-      </c>
-      <c r="O84" s="356"/>
-      <c r="P84" s="356"/>
-      <c r="Q84" s="356"/>
-      <c r="R84" s="356"/>
-      <c r="S84" s="356"/>
-      <c r="T84" s="356"/>
-      <c r="U84" s="356"/>
-      <c r="V84" s="356"/>
-      <c r="W84" s="306" t="s">
-        <v>34</v>
-      </c>
-      <c r="X84" s="307"/>
-      <c r="Y84" s="307"/>
-      <c r="Z84" s="307"/>
-      <c r="AA84" s="307"/>
-      <c r="AB84" s="307"/>
-      <c r="AC84" s="308"/>
-      <c r="AD84" s="306" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE84" s="307"/>
-      <c r="AF84" s="307"/>
-      <c r="AG84" s="307"/>
-      <c r="AH84" s="308"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="30"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="30"/>
+      <c r="P84" s="30"/>
+      <c r="Q84" s="30"/>
+      <c r="R84" s="30"/>
+      <c r="S84" s="30"/>
+      <c r="T84" s="30"/>
+      <c r="U84" s="30"/>
+      <c r="V84" s="30"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="30"/>
+      <c r="AA84" s="30"/>
+      <c r="AB84" s="30"/>
+      <c r="AC84" s="30"/>
+      <c r="AD84" s="30"/>
+      <c r="AE84" s="30"/>
+      <c r="AF84" s="30"/>
     </row>
     <row r="85" spans="3:34">
       <c r="C85" s="30"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="313"/>
-      <c r="F85" s="309"/>
-      <c r="G85" s="310"/>
-      <c r="H85" s="310"/>
-      <c r="I85" s="311"/>
-      <c r="J85" s="309"/>
-      <c r="K85" s="310"/>
-      <c r="L85" s="310"/>
-      <c r="M85" s="311"/>
-      <c r="N85" s="356" t="s">
-        <v>29</v>
-      </c>
-      <c r="O85" s="356"/>
-      <c r="P85" s="356"/>
-      <c r="Q85" s="356"/>
-      <c r="R85" s="356"/>
-      <c r="S85" s="357" t="s">
-        <v>30</v>
-      </c>
-      <c r="T85" s="357"/>
-      <c r="U85" s="357"/>
-      <c r="V85" s="357"/>
-      <c r="W85" s="309"/>
-      <c r="X85" s="310"/>
-      <c r="Y85" s="310"/>
-      <c r="Z85" s="310"/>
-      <c r="AA85" s="310"/>
-      <c r="AB85" s="310"/>
-      <c r="AC85" s="311"/>
-      <c r="AD85" s="309"/>
-      <c r="AE85" s="310"/>
-      <c r="AF85" s="310"/>
-      <c r="AG85" s="310"/>
-      <c r="AH85" s="311"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="306" t="s">
+        <v>53</v>
+      </c>
+      <c r="F85" s="300" t="s">
+        <v>24</v>
+      </c>
+      <c r="G85" s="301"/>
+      <c r="H85" s="301"/>
+      <c r="I85" s="302"/>
+      <c r="J85" s="300" t="s">
+        <v>25</v>
+      </c>
+      <c r="K85" s="301"/>
+      <c r="L85" s="301"/>
+      <c r="M85" s="302"/>
+      <c r="N85" s="278" t="s">
+        <v>26</v>
+      </c>
+      <c r="O85" s="278"/>
+      <c r="P85" s="278"/>
+      <c r="Q85" s="278"/>
+      <c r="R85" s="278"/>
+      <c r="S85" s="278"/>
+      <c r="T85" s="278"/>
+      <c r="U85" s="278"/>
+      <c r="V85" s="278"/>
+      <c r="W85" s="300" t="s">
+        <v>34</v>
+      </c>
+      <c r="X85" s="301"/>
+      <c r="Y85" s="301"/>
+      <c r="Z85" s="301"/>
+      <c r="AA85" s="301"/>
+      <c r="AB85" s="301"/>
+      <c r="AC85" s="302"/>
+      <c r="AD85" s="300" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE85" s="301"/>
+      <c r="AF85" s="301"/>
+      <c r="AG85" s="301"/>
+      <c r="AH85" s="302"/>
     </row>
     <row r="86" spans="3:34">
       <c r="C86" s="30"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="41">
-        <v>1</v>
-      </c>
-      <c r="F86" s="350" t="s">
-        <v>152</v>
-      </c>
-      <c r="G86" s="351"/>
-      <c r="H86" s="351"/>
-      <c r="I86" s="352"/>
-      <c r="J86" s="350" t="s">
-        <v>101</v>
-      </c>
-      <c r="K86" s="351"/>
-      <c r="L86" s="351"/>
-      <c r="M86" s="352"/>
-      <c r="N86" s="358" t="s">
-        <v>81</v>
-      </c>
-      <c r="O86" s="359"/>
-      <c r="P86" s="359"/>
-      <c r="Q86" s="359"/>
-      <c r="R86" s="359"/>
-      <c r="S86" s="360" t="s">
-        <v>82</v>
-      </c>
-      <c r="T86" s="361"/>
-      <c r="U86" s="361"/>
-      <c r="V86" s="361"/>
-      <c r="W86" s="353"/>
-      <c r="X86" s="354"/>
-      <c r="Y86" s="354"/>
-      <c r="Z86" s="354"/>
-      <c r="AA86" s="354"/>
-      <c r="AB86" s="354"/>
-      <c r="AC86" s="355"/>
-      <c r="AD86" s="353"/>
-      <c r="AE86" s="354"/>
-      <c r="AF86" s="354"/>
-      <c r="AG86" s="354"/>
-      <c r="AH86" s="355"/>
+      <c r="E86" s="307"/>
+      <c r="F86" s="303"/>
+      <c r="G86" s="304"/>
+      <c r="H86" s="304"/>
+      <c r="I86" s="305"/>
+      <c r="J86" s="303"/>
+      <c r="K86" s="304"/>
+      <c r="L86" s="304"/>
+      <c r="M86" s="305"/>
+      <c r="N86" s="278" t="s">
+        <v>29</v>
+      </c>
+      <c r="O86" s="278"/>
+      <c r="P86" s="278"/>
+      <c r="Q86" s="278"/>
+      <c r="R86" s="278"/>
+      <c r="S86" s="279" t="s">
+        <v>30</v>
+      </c>
+      <c r="T86" s="279"/>
+      <c r="U86" s="279"/>
+      <c r="V86" s="279"/>
+      <c r="W86" s="303"/>
+      <c r="X86" s="304"/>
+      <c r="Y86" s="304"/>
+      <c r="Z86" s="304"/>
+      <c r="AA86" s="304"/>
+      <c r="AB86" s="304"/>
+      <c r="AC86" s="305"/>
+      <c r="AD86" s="303"/>
+      <c r="AE86" s="304"/>
+      <c r="AF86" s="304"/>
+      <c r="AG86" s="304"/>
+      <c r="AH86" s="305"/>
     </row>
     <row r="87" spans="3:34">
       <c r="C87" s="30"/>
       <c r="D87" s="1"/>
       <c r="E87" s="41">
-        <v>2</v>
-      </c>
-      <c r="F87" s="350" t="s">
-        <v>153</v>
-      </c>
-      <c r="G87" s="351"/>
-      <c r="H87" s="351"/>
-      <c r="I87" s="352"/>
-      <c r="J87" s="350" t="s">
-        <v>103</v>
-      </c>
-      <c r="K87" s="351"/>
-      <c r="L87" s="351"/>
-      <c r="M87" s="352"/>
-      <c r="N87" s="358" t="s">
+        <v>1</v>
+      </c>
+      <c r="F87" s="275" t="s">
+        <v>149</v>
+      </c>
+      <c r="G87" s="276"/>
+      <c r="H87" s="276"/>
+      <c r="I87" s="277"/>
+      <c r="J87" s="275" t="s">
+        <v>101</v>
+      </c>
+      <c r="K87" s="276"/>
+      <c r="L87" s="276"/>
+      <c r="M87" s="277"/>
+      <c r="N87" s="273" t="s">
         <v>81</v>
       </c>
-      <c r="O87" s="359"/>
-      <c r="P87" s="359"/>
-      <c r="Q87" s="359"/>
-      <c r="R87" s="359"/>
-      <c r="S87" s="360" t="s">
-        <v>83</v>
-      </c>
-      <c r="T87" s="361"/>
-      <c r="U87" s="361"/>
-      <c r="V87" s="361"/>
-      <c r="W87" s="353"/>
-      <c r="X87" s="354"/>
-      <c r="Y87" s="354"/>
-      <c r="Z87" s="354"/>
-      <c r="AA87" s="354"/>
-      <c r="AB87" s="354"/>
-      <c r="AC87" s="355"/>
-      <c r="AD87" s="353"/>
-      <c r="AE87" s="354"/>
-      <c r="AF87" s="354"/>
-      <c r="AG87" s="354"/>
-      <c r="AH87" s="355"/>
+      <c r="O87" s="271"/>
+      <c r="P87" s="271"/>
+      <c r="Q87" s="271"/>
+      <c r="R87" s="271"/>
+      <c r="S87" s="274" t="s">
+        <v>82</v>
+      </c>
+      <c r="T87" s="272"/>
+      <c r="U87" s="272"/>
+      <c r="V87" s="272"/>
+      <c r="W87" s="261"/>
+      <c r="X87" s="262"/>
+      <c r="Y87" s="262"/>
+      <c r="Z87" s="262"/>
+      <c r="AA87" s="262"/>
+      <c r="AB87" s="262"/>
+      <c r="AC87" s="263"/>
+      <c r="AD87" s="261"/>
+      <c r="AE87" s="262"/>
+      <c r="AF87" s="262"/>
+      <c r="AG87" s="262"/>
+      <c r="AH87" s="263"/>
     </row>
     <row r="88" spans="3:34">
       <c r="C88" s="30"/>
       <c r="D88" s="1"/>
       <c r="E88" s="41">
-        <v>3</v>
-      </c>
-      <c r="F88" s="350" t="s">
-        <v>80</v>
-      </c>
-      <c r="G88" s="351"/>
-      <c r="H88" s="351"/>
-      <c r="I88" s="352"/>
-      <c r="J88" s="350" t="s">
-        <v>105</v>
-      </c>
-      <c r="K88" s="351"/>
-      <c r="L88" s="351"/>
-      <c r="M88" s="352"/>
-      <c r="N88" s="358" t="s">
+        <v>2</v>
+      </c>
+      <c r="F88" s="275" t="s">
+        <v>150</v>
+      </c>
+      <c r="G88" s="276"/>
+      <c r="H88" s="276"/>
+      <c r="I88" s="277"/>
+      <c r="J88" s="275" t="s">
+        <v>103</v>
+      </c>
+      <c r="K88" s="276"/>
+      <c r="L88" s="276"/>
+      <c r="M88" s="277"/>
+      <c r="N88" s="273" t="s">
         <v>81</v>
       </c>
-      <c r="O88" s="359"/>
-      <c r="P88" s="359"/>
-      <c r="Q88" s="359"/>
-      <c r="R88" s="359"/>
-      <c r="S88" s="360" t="s">
-        <v>84</v>
-      </c>
-      <c r="T88" s="361"/>
-      <c r="U88" s="361"/>
-      <c r="V88" s="361"/>
-      <c r="W88" s="353"/>
-      <c r="X88" s="354"/>
-      <c r="Y88" s="354"/>
-      <c r="Z88" s="354"/>
-      <c r="AA88" s="354"/>
-      <c r="AB88" s="354"/>
-      <c r="AC88" s="355"/>
-      <c r="AD88" s="353"/>
-      <c r="AE88" s="354"/>
-      <c r="AF88" s="354"/>
-      <c r="AG88" s="354"/>
-      <c r="AH88" s="355"/>
+      <c r="O88" s="271"/>
+      <c r="P88" s="271"/>
+      <c r="Q88" s="271"/>
+      <c r="R88" s="271"/>
+      <c r="S88" s="274" t="s">
+        <v>83</v>
+      </c>
+      <c r="T88" s="272"/>
+      <c r="U88" s="272"/>
+      <c r="V88" s="272"/>
+      <c r="W88" s="261"/>
+      <c r="X88" s="262"/>
+      <c r="Y88" s="262"/>
+      <c r="Z88" s="262"/>
+      <c r="AA88" s="262"/>
+      <c r="AB88" s="262"/>
+      <c r="AC88" s="263"/>
+      <c r="AD88" s="261"/>
+      <c r="AE88" s="262"/>
+      <c r="AF88" s="262"/>
+      <c r="AG88" s="262"/>
+      <c r="AH88" s="263"/>
     </row>
     <row r="89" spans="3:34">
       <c r="C89" s="30"/>
       <c r="D89" s="1"/>
       <c r="E89" s="41">
-        <v>4</v>
-      </c>
-      <c r="F89" s="350"/>
-      <c r="G89" s="351"/>
-      <c r="H89" s="351"/>
-      <c r="I89" s="352"/>
-      <c r="J89" s="350"/>
-      <c r="K89" s="351"/>
-      <c r="L89" s="351"/>
-      <c r="M89" s="352"/>
-      <c r="N89" s="365"/>
-      <c r="O89" s="359"/>
-      <c r="P89" s="359"/>
-      <c r="Q89" s="359"/>
-      <c r="R89" s="359"/>
-      <c r="S89" s="361"/>
-      <c r="T89" s="361"/>
-      <c r="U89" s="361"/>
-      <c r="V89" s="361"/>
-      <c r="W89" s="353"/>
-      <c r="X89" s="354"/>
-      <c r="Y89" s="354"/>
-      <c r="Z89" s="354"/>
-      <c r="AA89" s="354"/>
-      <c r="AB89" s="354"/>
-      <c r="AC89" s="355"/>
-      <c r="AD89" s="353"/>
-      <c r="AE89" s="354"/>
-      <c r="AF89" s="354"/>
-      <c r="AG89" s="354"/>
-      <c r="AH89" s="355"/>
+        <v>3</v>
+      </c>
+      <c r="F89" s="275" t="s">
+        <v>80</v>
+      </c>
+      <c r="G89" s="276"/>
+      <c r="H89" s="276"/>
+      <c r="I89" s="277"/>
+      <c r="J89" s="275" t="s">
+        <v>105</v>
+      </c>
+      <c r="K89" s="276"/>
+      <c r="L89" s="276"/>
+      <c r="M89" s="277"/>
+      <c r="N89" s="273" t="s">
+        <v>81</v>
+      </c>
+      <c r="O89" s="271"/>
+      <c r="P89" s="271"/>
+      <c r="Q89" s="271"/>
+      <c r="R89" s="271"/>
+      <c r="S89" s="274" t="s">
+        <v>84</v>
+      </c>
+      <c r="T89" s="272"/>
+      <c r="U89" s="272"/>
+      <c r="V89" s="272"/>
+      <c r="W89" s="261"/>
+      <c r="X89" s="262"/>
+      <c r="Y89" s="262"/>
+      <c r="Z89" s="262"/>
+      <c r="AA89" s="262"/>
+      <c r="AB89" s="262"/>
+      <c r="AC89" s="263"/>
+      <c r="AD89" s="261"/>
+      <c r="AE89" s="262"/>
+      <c r="AF89" s="262"/>
+      <c r="AG89" s="262"/>
+      <c r="AH89" s="263"/>
     </row>
     <row r="90" spans="3:34">
       <c r="C90" s="30"/>
       <c r="D90" s="1"/>
       <c r="E90" s="41">
+        <v>4</v>
+      </c>
+      <c r="F90" s="275"/>
+      <c r="G90" s="276"/>
+      <c r="H90" s="276"/>
+      <c r="I90" s="277"/>
+      <c r="J90" s="275"/>
+      <c r="K90" s="276"/>
+      <c r="L90" s="276"/>
+      <c r="M90" s="277"/>
+      <c r="N90" s="270"/>
+      <c r="O90" s="271"/>
+      <c r="P90" s="271"/>
+      <c r="Q90" s="271"/>
+      <c r="R90" s="271"/>
+      <c r="S90" s="272"/>
+      <c r="T90" s="272"/>
+      <c r="U90" s="272"/>
+      <c r="V90" s="272"/>
+      <c r="W90" s="261"/>
+      <c r="X90" s="262"/>
+      <c r="Y90" s="262"/>
+      <c r="Z90" s="262"/>
+      <c r="AA90" s="262"/>
+      <c r="AB90" s="262"/>
+      <c r="AC90" s="263"/>
+      <c r="AD90" s="261"/>
+      <c r="AE90" s="262"/>
+      <c r="AF90" s="262"/>
+      <c r="AG90" s="262"/>
+      <c r="AH90" s="263"/>
+    </row>
+    <row r="91" spans="3:34">
+      <c r="C91" s="30"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="41">
         <v>5</v>
       </c>
-      <c r="F90" s="350"/>
-      <c r="G90" s="351"/>
-      <c r="H90" s="351"/>
-      <c r="I90" s="352"/>
-      <c r="J90" s="350"/>
-      <c r="K90" s="351"/>
-      <c r="L90" s="351"/>
-      <c r="M90" s="352"/>
-      <c r="N90" s="365"/>
-      <c r="O90" s="359"/>
-      <c r="P90" s="359"/>
-      <c r="Q90" s="359"/>
-      <c r="R90" s="359"/>
-      <c r="S90" s="361"/>
-      <c r="T90" s="361"/>
-      <c r="U90" s="361"/>
-      <c r="V90" s="361"/>
-      <c r="W90" s="353"/>
-      <c r="X90" s="354"/>
-      <c r="Y90" s="354"/>
-      <c r="Z90" s="354"/>
-      <c r="AA90" s="354"/>
-      <c r="AB90" s="354"/>
-      <c r="AC90" s="355"/>
-      <c r="AD90" s="353"/>
-      <c r="AE90" s="354"/>
-      <c r="AF90" s="354"/>
-      <c r="AG90" s="354"/>
-      <c r="AH90" s="355"/>
+      <c r="F91" s="275"/>
+      <c r="G91" s="276"/>
+      <c r="H91" s="276"/>
+      <c r="I91" s="277"/>
+      <c r="J91" s="275"/>
+      <c r="K91" s="276"/>
+      <c r="L91" s="276"/>
+      <c r="M91" s="277"/>
+      <c r="N91" s="270"/>
+      <c r="O91" s="271"/>
+      <c r="P91" s="271"/>
+      <c r="Q91" s="271"/>
+      <c r="R91" s="271"/>
+      <c r="S91" s="272"/>
+      <c r="T91" s="272"/>
+      <c r="U91" s="272"/>
+      <c r="V91" s="272"/>
+      <c r="W91" s="261"/>
+      <c r="X91" s="262"/>
+      <c r="Y91" s="262"/>
+      <c r="Z91" s="262"/>
+      <c r="AA91" s="262"/>
+      <c r="AB91" s="262"/>
+      <c r="AC91" s="263"/>
+      <c r="AD91" s="261"/>
+      <c r="AE91" s="262"/>
+      <c r="AF91" s="262"/>
+      <c r="AG91" s="262"/>
+      <c r="AH91" s="263"/>
     </row>
   </sheetData>
-  <mergeCells count="123">
-    <mergeCell ref="AD86:AH86"/>
-    <mergeCell ref="AD87:AH87"/>
-    <mergeCell ref="AD88:AH88"/>
-    <mergeCell ref="W86:AC86"/>
-    <mergeCell ref="W87:AC87"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="AD89:AH89"/>
-    <mergeCell ref="AD90:AH90"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="N90:R90"/>
-    <mergeCell ref="S90:V90"/>
-    <mergeCell ref="N89:R89"/>
-    <mergeCell ref="S89:V89"/>
-    <mergeCell ref="N88:R88"/>
-    <mergeCell ref="S88:V88"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="F86:I86"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="W88:AC88"/>
-    <mergeCell ref="W89:AC89"/>
-    <mergeCell ref="W90:AC90"/>
-    <mergeCell ref="N84:V84"/>
-    <mergeCell ref="N85:R85"/>
-    <mergeCell ref="S85:V85"/>
-    <mergeCell ref="N87:R87"/>
-    <mergeCell ref="S87:V87"/>
-    <mergeCell ref="N86:R86"/>
-    <mergeCell ref="S86:V86"/>
-    <mergeCell ref="J86:M86"/>
-    <mergeCell ref="J87:M87"/>
+  <mergeCells count="119">
+    <mergeCell ref="T49:AD49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:S50"/>
+    <mergeCell ref="T50:AD50"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:S40"/>
+    <mergeCell ref="T40:AD40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:S41"/>
+    <mergeCell ref="T41:AD41"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="E59:X59"/>
+    <mergeCell ref="E56:N58"/>
+    <mergeCell ref="O58:X58"/>
+    <mergeCell ref="E55:N55"/>
+    <mergeCell ref="O55:X55"/>
+    <mergeCell ref="O56:X56"/>
+    <mergeCell ref="O57:X57"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="F85:I86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="L37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="O80:AH80"/>
+    <mergeCell ref="W85:AC86"/>
+    <mergeCell ref="AD85:AH86"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="J85:M86"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:S49"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC2:AF2"/>
@@ -15050,67 +15026,44 @@
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="T9:U9"/>
     <mergeCell ref="P8:U8"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="F84:I85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="G79:L79"/>
-    <mergeCell ref="O79:AH79"/>
-    <mergeCell ref="W84:AC85"/>
-    <mergeCell ref="AD84:AH85"/>
-    <mergeCell ref="O28:AH28"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="L35:U35"/>
-    <mergeCell ref="V35:X35"/>
-    <mergeCell ref="Y35:AB35"/>
-    <mergeCell ref="AC35:AF35"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="J84:M85"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="E48:I48"/>
-    <mergeCell ref="J48:L48"/>
-    <mergeCell ref="M48:S48"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E79:F79"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="E58:X58"/>
-    <mergeCell ref="E55:N57"/>
-    <mergeCell ref="O57:X57"/>
-    <mergeCell ref="E54:N54"/>
-    <mergeCell ref="O54:X54"/>
-    <mergeCell ref="O55:X55"/>
-    <mergeCell ref="O56:X56"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="T48:AD48"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="T49:AD49"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:AD39"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:S40"/>
-    <mergeCell ref="T40:AD40"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="W89:AC89"/>
+    <mergeCell ref="W90:AC90"/>
+    <mergeCell ref="W91:AC91"/>
+    <mergeCell ref="N85:V85"/>
+    <mergeCell ref="N86:R86"/>
+    <mergeCell ref="S86:V86"/>
+    <mergeCell ref="N88:R88"/>
+    <mergeCell ref="S88:V88"/>
+    <mergeCell ref="N87:R87"/>
+    <mergeCell ref="S87:V87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="AD87:AH87"/>
+    <mergeCell ref="AD88:AH88"/>
+    <mergeCell ref="AD89:AH89"/>
+    <mergeCell ref="W87:AC87"/>
+    <mergeCell ref="W88:AC88"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="AD90:AH90"/>
+    <mergeCell ref="AD91:AH91"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="N91:R91"/>
+    <mergeCell ref="S91:V91"/>
+    <mergeCell ref="N90:R90"/>
+    <mergeCell ref="S90:V90"/>
+    <mergeCell ref="N89:R89"/>
+    <mergeCell ref="S89:V89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="F89:I89"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
@@ -15131,8 +15084,8 @@
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
   <rowBreaks count="2" manualBreakCount="2">
-    <brk id="30" max="34" man="1"/>
-    <brk id="72" max="34" man="1"/>
+    <brk id="31" max="34" man="1"/>
+    <brk id="73" max="34" man="1"/>
   </rowBreaks>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10101_顧客検索.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10101_顧客検索.xlsx
@@ -1239,10 +1239,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>FB1999902</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>errors.upper.limit</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -1312,6 +1308,10 @@
   </si>
   <si>
     <t>クエリ―パラメータ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>FB1999902</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -2109,9 +2109,122 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2226,86 +2339,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2343,44 +2414,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2400,260 +2459,53 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2718,52 +2570,200 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6176,12 +6176,12 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
-      <c r="I25" s="155">
+      <c r="I25" s="171">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>43718</v>
       </c>
-      <c r="J25" s="155"/>
-      <c r="K25" s="155"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="171"/>
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1">
@@ -6812,55 +6812,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="167" t="s">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="210" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="176" t="s">
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="185" t="s">
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="228" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="186"/>
-      <c r="U1" s="186"/>
-      <c r="V1" s="186"/>
-      <c r="W1" s="186"/>
-      <c r="X1" s="186"/>
-      <c r="Y1" s="186"/>
-      <c r="Z1" s="187"/>
-      <c r="AA1" s="173" t="s">
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="230"/>
+      <c r="AA1" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="156" t="s">
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="203">
         <v>43718</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="204"/>
+      <c r="AI1" s="205"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -6868,53 +6868,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="167" t="s">
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="210" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="190"/>
-      <c r="AA2" s="173" t="s">
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="231"/>
+      <c r="T2" s="232"/>
+      <c r="U2" s="232"/>
+      <c r="V2" s="232"/>
+      <c r="W2" s="232"/>
+      <c r="X2" s="232"/>
+      <c r="Y2" s="232"/>
+      <c r="Z2" s="233"/>
+      <c r="AA2" s="216" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="170" t="str">
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="213" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="172"/>
-      <c r="AG2" s="160" t="str">
+      <c r="AD2" s="214"/>
+      <c r="AE2" s="214"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="203" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="204"/>
+      <c r="AI2" s="205"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -6922,45 +6922,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="167" t="s">
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="210" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="192"/>
-      <c r="U3" s="192"/>
-      <c r="V3" s="192"/>
-      <c r="W3" s="192"/>
-      <c r="X3" s="192"/>
-      <c r="Y3" s="192"/>
-      <c r="Z3" s="193"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="159"/>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="160"/>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="234"/>
+      <c r="T3" s="235"/>
+      <c r="U3" s="235"/>
+      <c r="V3" s="235"/>
+      <c r="W3" s="235"/>
+      <c r="X3" s="235"/>
+      <c r="Y3" s="235"/>
+      <c r="Z3" s="236"/>
+      <c r="AA3" s="216"/>
+      <c r="AB3" s="218"/>
+      <c r="AC3" s="202"/>
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="204"/>
+      <c r="AI3" s="205"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -6997,1186 +6997,1030 @@
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="206" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="164"/>
-      <c r="D7" s="163" t="s">
+      <c r="C7" s="207"/>
+      <c r="D7" s="206" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="163" t="s">
+      <c r="E7" s="208"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="206" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="165"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="166" t="s">
+      <c r="H7" s="208"/>
+      <c r="I7" s="207"/>
+      <c r="J7" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="165"/>
-      <c r="N7" s="165"/>
-      <c r="O7" s="165"/>
-      <c r="P7" s="164"/>
-      <c r="Q7" s="163" t="s">
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="208"/>
+      <c r="N7" s="208"/>
+      <c r="O7" s="208"/>
+      <c r="P7" s="207"/>
+      <c r="Q7" s="206" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="165"/>
-      <c r="S7" s="165"/>
-      <c r="T7" s="165"/>
-      <c r="U7" s="165"/>
-      <c r="V7" s="165"/>
-      <c r="W7" s="165"/>
-      <c r="X7" s="165"/>
-      <c r="Y7" s="165"/>
-      <c r="Z7" s="165"/>
-      <c r="AA7" s="165"/>
-      <c r="AB7" s="165"/>
-      <c r="AC7" s="165"/>
-      <c r="AD7" s="165"/>
-      <c r="AE7" s="164"/>
-      <c r="AF7" s="166" t="s">
+      <c r="R7" s="208"/>
+      <c r="S7" s="208"/>
+      <c r="T7" s="208"/>
+      <c r="U7" s="208"/>
+      <c r="V7" s="208"/>
+      <c r="W7" s="208"/>
+      <c r="X7" s="208"/>
+      <c r="Y7" s="208"/>
+      <c r="Z7" s="208"/>
+      <c r="AA7" s="208"/>
+      <c r="AB7" s="208"/>
+      <c r="AC7" s="208"/>
+      <c r="AD7" s="208"/>
+      <c r="AE7" s="207"/>
+      <c r="AF7" s="209" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="165"/>
-      <c r="AH7" s="165"/>
-      <c r="AI7" s="164"/>
+      <c r="AG7" s="208"/>
+      <c r="AH7" s="208"/>
+      <c r="AI7" s="207"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="117">
         <v>1</v>
       </c>
-      <c r="B8" s="206" t="s">
+      <c r="B8" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="207"/>
-      <c r="D8" s="208">
+      <c r="C8" s="186"/>
+      <c r="D8" s="187">
         <v>43718</v>
       </c>
-      <c r="E8" s="209"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="211" t="s">
+      <c r="E8" s="188"/>
+      <c r="F8" s="189"/>
+      <c r="G8" s="190" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="212"/>
-      <c r="I8" s="207"/>
-      <c r="J8" s="213"/>
-      <c r="K8" s="214"/>
-      <c r="L8" s="214"/>
-      <c r="M8" s="214"/>
-      <c r="N8" s="214"/>
-      <c r="O8" s="214"/>
-      <c r="P8" s="215"/>
-      <c r="Q8" s="217"/>
-      <c r="R8" s="218"/>
-      <c r="S8" s="218"/>
-      <c r="T8" s="218"/>
-      <c r="U8" s="218"/>
-      <c r="V8" s="218"/>
-      <c r="W8" s="218"/>
-      <c r="X8" s="218"/>
-      <c r="Y8" s="218"/>
-      <c r="Z8" s="218"/>
-      <c r="AA8" s="218"/>
-      <c r="AB8" s="218"/>
-      <c r="AC8" s="218"/>
-      <c r="AD8" s="218"/>
-      <c r="AE8" s="219"/>
-      <c r="AF8" s="216" t="s">
+      <c r="H8" s="191"/>
+      <c r="I8" s="186"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="193"/>
+      <c r="L8" s="193"/>
+      <c r="M8" s="193"/>
+      <c r="N8" s="193"/>
+      <c r="O8" s="193"/>
+      <c r="P8" s="194"/>
+      <c r="Q8" s="196"/>
+      <c r="R8" s="197"/>
+      <c r="S8" s="197"/>
+      <c r="T8" s="197"/>
+      <c r="U8" s="197"/>
+      <c r="V8" s="197"/>
+      <c r="W8" s="197"/>
+      <c r="X8" s="197"/>
+      <c r="Y8" s="197"/>
+      <c r="Z8" s="197"/>
+      <c r="AA8" s="197"/>
+      <c r="AB8" s="197"/>
+      <c r="AC8" s="197"/>
+      <c r="AD8" s="197"/>
+      <c r="AE8" s="198"/>
+      <c r="AF8" s="195" t="s">
         <v>73</v>
       </c>
-      <c r="AG8" s="214"/>
-      <c r="AH8" s="214"/>
-      <c r="AI8" s="215"/>
+      <c r="AG8" s="193"/>
+      <c r="AH8" s="193"/>
+      <c r="AI8" s="194"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="118"/>
-      <c r="B9" s="194"/>
-      <c r="C9" s="195"/>
-      <c r="D9" s="196"/>
-      <c r="E9" s="197"/>
-      <c r="F9" s="198"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="199"/>
-      <c r="I9" s="195"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="201"/>
-      <c r="L9" s="201"/>
-      <c r="M9" s="201"/>
-      <c r="N9" s="201"/>
-      <c r="O9" s="201"/>
-      <c r="P9" s="202"/>
-      <c r="Q9" s="203"/>
-      <c r="R9" s="204"/>
-      <c r="S9" s="204"/>
-      <c r="T9" s="204"/>
-      <c r="U9" s="204"/>
-      <c r="V9" s="204"/>
-      <c r="W9" s="204"/>
-      <c r="X9" s="204"/>
-      <c r="Y9" s="204"/>
-      <c r="Z9" s="204"/>
-      <c r="AA9" s="204"/>
-      <c r="AB9" s="204"/>
-      <c r="AC9" s="204"/>
-      <c r="AD9" s="204"/>
-      <c r="AE9" s="205"/>
-      <c r="AF9" s="200"/>
-      <c r="AG9" s="201"/>
-      <c r="AH9" s="201"/>
-      <c r="AI9" s="202"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="175"/>
+      <c r="F9" s="176"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="173"/>
+      <c r="J9" s="178"/>
+      <c r="K9" s="179"/>
+      <c r="L9" s="179"/>
+      <c r="M9" s="179"/>
+      <c r="N9" s="179"/>
+      <c r="O9" s="179"/>
+      <c r="P9" s="180"/>
+      <c r="Q9" s="181"/>
+      <c r="R9" s="182"/>
+      <c r="S9" s="182"/>
+      <c r="T9" s="182"/>
+      <c r="U9" s="182"/>
+      <c r="V9" s="182"/>
+      <c r="W9" s="182"/>
+      <c r="X9" s="182"/>
+      <c r="Y9" s="182"/>
+      <c r="Z9" s="182"/>
+      <c r="AA9" s="182"/>
+      <c r="AB9" s="182"/>
+      <c r="AC9" s="182"/>
+      <c r="AD9" s="182"/>
+      <c r="AE9" s="183"/>
+      <c r="AF9" s="178"/>
+      <c r="AG9" s="179"/>
+      <c r="AH9" s="179"/>
+      <c r="AI9" s="180"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="118"/>
-      <c r="B10" s="194"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="196"/>
-      <c r="E10" s="197"/>
-      <c r="F10" s="198"/>
-      <c r="G10" s="194"/>
-      <c r="H10" s="199"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="201"/>
-      <c r="L10" s="201"/>
-      <c r="M10" s="201"/>
-      <c r="N10" s="201"/>
-      <c r="O10" s="201"/>
-      <c r="P10" s="202"/>
-      <c r="Q10" s="203"/>
-      <c r="R10" s="204"/>
-      <c r="S10" s="204"/>
-      <c r="T10" s="204"/>
-      <c r="U10" s="204"/>
-      <c r="V10" s="204"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="204"/>
-      <c r="Y10" s="204"/>
-      <c r="Z10" s="204"/>
-      <c r="AA10" s="204"/>
-      <c r="AB10" s="204"/>
-      <c r="AC10" s="204"/>
-      <c r="AD10" s="204"/>
-      <c r="AE10" s="205"/>
-      <c r="AF10" s="200"/>
-      <c r="AG10" s="201"/>
-      <c r="AH10" s="201"/>
-      <c r="AI10" s="202"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="175"/>
+      <c r="F10" s="176"/>
+      <c r="G10" s="172"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="173"/>
+      <c r="J10" s="178"/>
+      <c r="K10" s="179"/>
+      <c r="L10" s="179"/>
+      <c r="M10" s="179"/>
+      <c r="N10" s="179"/>
+      <c r="O10" s="179"/>
+      <c r="P10" s="180"/>
+      <c r="Q10" s="181"/>
+      <c r="R10" s="182"/>
+      <c r="S10" s="182"/>
+      <c r="T10" s="182"/>
+      <c r="U10" s="182"/>
+      <c r="V10" s="182"/>
+      <c r="W10" s="182"/>
+      <c r="X10" s="182"/>
+      <c r="Y10" s="182"/>
+      <c r="Z10" s="182"/>
+      <c r="AA10" s="182"/>
+      <c r="AB10" s="182"/>
+      <c r="AC10" s="182"/>
+      <c r="AD10" s="182"/>
+      <c r="AE10" s="183"/>
+      <c r="AF10" s="178"/>
+      <c r="AG10" s="179"/>
+      <c r="AH10" s="179"/>
+      <c r="AI10" s="180"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="194"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="196"/>
-      <c r="E11" s="197"/>
-      <c r="F11" s="198"/>
-      <c r="G11" s="194"/>
-      <c r="H11" s="199"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="201"/>
-      <c r="L11" s="201"/>
-      <c r="M11" s="201"/>
-      <c r="N11" s="201"/>
-      <c r="O11" s="201"/>
-      <c r="P11" s="202"/>
-      <c r="Q11" s="203"/>
-      <c r="R11" s="204"/>
-      <c r="S11" s="204"/>
-      <c r="T11" s="204"/>
-      <c r="U11" s="204"/>
-      <c r="V11" s="204"/>
-      <c r="W11" s="204"/>
-      <c r="X11" s="204"/>
-      <c r="Y11" s="204"/>
-      <c r="Z11" s="204"/>
-      <c r="AA11" s="204"/>
-      <c r="AB11" s="204"/>
-      <c r="AC11" s="204"/>
-      <c r="AD11" s="204"/>
-      <c r="AE11" s="205"/>
-      <c r="AF11" s="200"/>
-      <c r="AG11" s="201"/>
-      <c r="AH11" s="201"/>
-      <c r="AI11" s="202"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="173"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="175"/>
+      <c r="F11" s="176"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="173"/>
+      <c r="J11" s="178"/>
+      <c r="K11" s="179"/>
+      <c r="L11" s="179"/>
+      <c r="M11" s="179"/>
+      <c r="N11" s="179"/>
+      <c r="O11" s="179"/>
+      <c r="P11" s="180"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="182"/>
+      <c r="S11" s="182"/>
+      <c r="T11" s="182"/>
+      <c r="U11" s="182"/>
+      <c r="V11" s="182"/>
+      <c r="W11" s="182"/>
+      <c r="X11" s="182"/>
+      <c r="Y11" s="182"/>
+      <c r="Z11" s="182"/>
+      <c r="AA11" s="182"/>
+      <c r="AB11" s="182"/>
+      <c r="AC11" s="182"/>
+      <c r="AD11" s="182"/>
+      <c r="AE11" s="183"/>
+      <c r="AF11" s="178"/>
+      <c r="AG11" s="179"/>
+      <c r="AH11" s="179"/>
+      <c r="AI11" s="180"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="194"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="196"/>
-      <c r="E12" s="197"/>
-      <c r="F12" s="198"/>
-      <c r="G12" s="194"/>
-      <c r="H12" s="199"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="201"/>
-      <c r="L12" s="201"/>
-      <c r="M12" s="201"/>
-      <c r="N12" s="201"/>
-      <c r="O12" s="201"/>
-      <c r="P12" s="202"/>
-      <c r="Q12" s="203"/>
-      <c r="R12" s="204"/>
-      <c r="S12" s="204"/>
-      <c r="T12" s="204"/>
-      <c r="U12" s="204"/>
-      <c r="V12" s="204"/>
-      <c r="W12" s="204"/>
-      <c r="X12" s="204"/>
-      <c r="Y12" s="204"/>
-      <c r="Z12" s="204"/>
-      <c r="AA12" s="204"/>
-      <c r="AB12" s="204"/>
-      <c r="AC12" s="204"/>
-      <c r="AD12" s="204"/>
-      <c r="AE12" s="205"/>
-      <c r="AF12" s="200"/>
-      <c r="AG12" s="201"/>
-      <c r="AH12" s="201"/>
-      <c r="AI12" s="202"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="176"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="173"/>
+      <c r="J12" s="178"/>
+      <c r="K12" s="179"/>
+      <c r="L12" s="179"/>
+      <c r="M12" s="179"/>
+      <c r="N12" s="179"/>
+      <c r="O12" s="179"/>
+      <c r="P12" s="180"/>
+      <c r="Q12" s="181"/>
+      <c r="R12" s="182"/>
+      <c r="S12" s="182"/>
+      <c r="T12" s="182"/>
+      <c r="U12" s="182"/>
+      <c r="V12" s="182"/>
+      <c r="W12" s="182"/>
+      <c r="X12" s="182"/>
+      <c r="Y12" s="182"/>
+      <c r="Z12" s="182"/>
+      <c r="AA12" s="182"/>
+      <c r="AB12" s="182"/>
+      <c r="AC12" s="182"/>
+      <c r="AD12" s="182"/>
+      <c r="AE12" s="183"/>
+      <c r="AF12" s="178"/>
+      <c r="AG12" s="179"/>
+      <c r="AH12" s="179"/>
+      <c r="AI12" s="180"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="194"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="196"/>
-      <c r="E13" s="197"/>
-      <c r="F13" s="198"/>
-      <c r="G13" s="194"/>
-      <c r="H13" s="199"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="201"/>
-      <c r="L13" s="201"/>
-      <c r="M13" s="201"/>
-      <c r="N13" s="201"/>
-      <c r="O13" s="201"/>
-      <c r="P13" s="202"/>
-      <c r="Q13" s="203"/>
-      <c r="R13" s="204"/>
-      <c r="S13" s="204"/>
-      <c r="T13" s="204"/>
-      <c r="U13" s="204"/>
-      <c r="V13" s="204"/>
-      <c r="W13" s="204"/>
-      <c r="X13" s="204"/>
-      <c r="Y13" s="204"/>
-      <c r="Z13" s="204"/>
-      <c r="AA13" s="204"/>
-      <c r="AB13" s="204"/>
-      <c r="AC13" s="204"/>
-      <c r="AD13" s="204"/>
-      <c r="AE13" s="205"/>
-      <c r="AF13" s="200"/>
-      <c r="AG13" s="201"/>
-      <c r="AH13" s="201"/>
-      <c r="AI13" s="202"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="173"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="176"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="173"/>
+      <c r="J13" s="178"/>
+      <c r="K13" s="179"/>
+      <c r="L13" s="179"/>
+      <c r="M13" s="179"/>
+      <c r="N13" s="179"/>
+      <c r="O13" s="179"/>
+      <c r="P13" s="180"/>
+      <c r="Q13" s="181"/>
+      <c r="R13" s="182"/>
+      <c r="S13" s="182"/>
+      <c r="T13" s="182"/>
+      <c r="U13" s="182"/>
+      <c r="V13" s="182"/>
+      <c r="W13" s="182"/>
+      <c r="X13" s="182"/>
+      <c r="Y13" s="182"/>
+      <c r="Z13" s="182"/>
+      <c r="AA13" s="182"/>
+      <c r="AB13" s="182"/>
+      <c r="AC13" s="182"/>
+      <c r="AD13" s="182"/>
+      <c r="AE13" s="183"/>
+      <c r="AF13" s="178"/>
+      <c r="AG13" s="179"/>
+      <c r="AH13" s="179"/>
+      <c r="AI13" s="180"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="194"/>
-      <c r="C14" s="195"/>
-      <c r="D14" s="196"/>
-      <c r="E14" s="197"/>
-      <c r="F14" s="198"/>
-      <c r="G14" s="194"/>
-      <c r="H14" s="199"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="201"/>
-      <c r="L14" s="201"/>
-      <c r="M14" s="201"/>
-      <c r="N14" s="201"/>
-      <c r="O14" s="201"/>
-      <c r="P14" s="202"/>
-      <c r="Q14" s="203"/>
-      <c r="R14" s="204"/>
-      <c r="S14" s="204"/>
-      <c r="T14" s="204"/>
-      <c r="U14" s="204"/>
-      <c r="V14" s="204"/>
-      <c r="W14" s="204"/>
-      <c r="X14" s="204"/>
-      <c r="Y14" s="204"/>
-      <c r="Z14" s="204"/>
-      <c r="AA14" s="204"/>
-      <c r="AB14" s="204"/>
-      <c r="AC14" s="204"/>
-      <c r="AD14" s="204"/>
-      <c r="AE14" s="205"/>
-      <c r="AF14" s="200"/>
-      <c r="AG14" s="201"/>
-      <c r="AH14" s="201"/>
-      <c r="AI14" s="202"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="173"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="176"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="173"/>
+      <c r="J14" s="178"/>
+      <c r="K14" s="179"/>
+      <c r="L14" s="179"/>
+      <c r="M14" s="179"/>
+      <c r="N14" s="179"/>
+      <c r="O14" s="179"/>
+      <c r="P14" s="180"/>
+      <c r="Q14" s="181"/>
+      <c r="R14" s="182"/>
+      <c r="S14" s="182"/>
+      <c r="T14" s="182"/>
+      <c r="U14" s="182"/>
+      <c r="V14" s="182"/>
+      <c r="W14" s="182"/>
+      <c r="X14" s="182"/>
+      <c r="Y14" s="182"/>
+      <c r="Z14" s="182"/>
+      <c r="AA14" s="182"/>
+      <c r="AB14" s="182"/>
+      <c r="AC14" s="182"/>
+      <c r="AD14" s="182"/>
+      <c r="AE14" s="183"/>
+      <c r="AF14" s="178"/>
+      <c r="AG14" s="179"/>
+      <c r="AH14" s="179"/>
+      <c r="AI14" s="180"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="194"/>
-      <c r="C15" s="195"/>
-      <c r="D15" s="196"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="198"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="199"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="201"/>
-      <c r="L15" s="201"/>
-      <c r="M15" s="201"/>
-      <c r="N15" s="201"/>
-      <c r="O15" s="201"/>
-      <c r="P15" s="202"/>
-      <c r="Q15" s="203"/>
-      <c r="R15" s="204"/>
-      <c r="S15" s="204"/>
-      <c r="T15" s="204"/>
-      <c r="U15" s="204"/>
-      <c r="V15" s="204"/>
-      <c r="W15" s="204"/>
-      <c r="X15" s="204"/>
-      <c r="Y15" s="204"/>
-      <c r="Z15" s="204"/>
-      <c r="AA15" s="204"/>
-      <c r="AB15" s="204"/>
-      <c r="AC15" s="204"/>
-      <c r="AD15" s="204"/>
-      <c r="AE15" s="205"/>
-      <c r="AF15" s="200"/>
-      <c r="AG15" s="201"/>
-      <c r="AH15" s="201"/>
-      <c r="AI15" s="202"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="174"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="176"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="173"/>
+      <c r="J15" s="178"/>
+      <c r="K15" s="179"/>
+      <c r="L15" s="179"/>
+      <c r="M15" s="179"/>
+      <c r="N15" s="179"/>
+      <c r="O15" s="179"/>
+      <c r="P15" s="180"/>
+      <c r="Q15" s="181"/>
+      <c r="R15" s="182"/>
+      <c r="S15" s="182"/>
+      <c r="T15" s="182"/>
+      <c r="U15" s="182"/>
+      <c r="V15" s="182"/>
+      <c r="W15" s="182"/>
+      <c r="X15" s="182"/>
+      <c r="Y15" s="182"/>
+      <c r="Z15" s="182"/>
+      <c r="AA15" s="182"/>
+      <c r="AB15" s="182"/>
+      <c r="AC15" s="182"/>
+      <c r="AD15" s="182"/>
+      <c r="AE15" s="183"/>
+      <c r="AF15" s="178"/>
+      <c r="AG15" s="179"/>
+      <c r="AH15" s="179"/>
+      <c r="AI15" s="180"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="194"/>
-      <c r="C16" s="195"/>
-      <c r="D16" s="196"/>
-      <c r="E16" s="197"/>
-      <c r="F16" s="198"/>
-      <c r="G16" s="194"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="201"/>
-      <c r="L16" s="201"/>
-      <c r="M16" s="201"/>
-      <c r="N16" s="201"/>
-      <c r="O16" s="201"/>
-      <c r="P16" s="202"/>
-      <c r="Q16" s="203"/>
-      <c r="R16" s="204"/>
-      <c r="S16" s="204"/>
-      <c r="T16" s="204"/>
-      <c r="U16" s="204"/>
-      <c r="V16" s="204"/>
-      <c r="W16" s="204"/>
-      <c r="X16" s="204"/>
-      <c r="Y16" s="204"/>
-      <c r="Z16" s="204"/>
-      <c r="AA16" s="204"/>
-      <c r="AB16" s="204"/>
-      <c r="AC16" s="204"/>
-      <c r="AD16" s="204"/>
-      <c r="AE16" s="205"/>
-      <c r="AF16" s="200"/>
-      <c r="AG16" s="201"/>
-      <c r="AH16" s="201"/>
-      <c r="AI16" s="202"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="172"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="173"/>
+      <c r="J16" s="178"/>
+      <c r="K16" s="179"/>
+      <c r="L16" s="179"/>
+      <c r="M16" s="179"/>
+      <c r="N16" s="179"/>
+      <c r="O16" s="179"/>
+      <c r="P16" s="180"/>
+      <c r="Q16" s="181"/>
+      <c r="R16" s="182"/>
+      <c r="S16" s="182"/>
+      <c r="T16" s="182"/>
+      <c r="U16" s="182"/>
+      <c r="V16" s="182"/>
+      <c r="W16" s="182"/>
+      <c r="X16" s="182"/>
+      <c r="Y16" s="182"/>
+      <c r="Z16" s="182"/>
+      <c r="AA16" s="182"/>
+      <c r="AB16" s="182"/>
+      <c r="AC16" s="182"/>
+      <c r="AD16" s="182"/>
+      <c r="AE16" s="183"/>
+      <c r="AF16" s="178"/>
+      <c r="AG16" s="179"/>
+      <c r="AH16" s="179"/>
+      <c r="AI16" s="180"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="194"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="197"/>
-      <c r="F17" s="198"/>
-      <c r="G17" s="194"/>
-      <c r="H17" s="199"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="201"/>
-      <c r="L17" s="201"/>
-      <c r="M17" s="201"/>
-      <c r="N17" s="201"/>
-      <c r="O17" s="201"/>
-      <c r="P17" s="202"/>
-      <c r="Q17" s="203"/>
-      <c r="R17" s="204"/>
-      <c r="S17" s="204"/>
-      <c r="T17" s="204"/>
-      <c r="U17" s="204"/>
-      <c r="V17" s="204"/>
-      <c r="W17" s="204"/>
-      <c r="X17" s="204"/>
-      <c r="Y17" s="204"/>
-      <c r="Z17" s="204"/>
-      <c r="AA17" s="204"/>
-      <c r="AB17" s="204"/>
-      <c r="AC17" s="204"/>
-      <c r="AD17" s="204"/>
-      <c r="AE17" s="205"/>
-      <c r="AF17" s="200"/>
-      <c r="AG17" s="201"/>
-      <c r="AH17" s="201"/>
-      <c r="AI17" s="202"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="173"/>
+      <c r="J17" s="178"/>
+      <c r="K17" s="179"/>
+      <c r="L17" s="179"/>
+      <c r="M17" s="179"/>
+      <c r="N17" s="179"/>
+      <c r="O17" s="179"/>
+      <c r="P17" s="180"/>
+      <c r="Q17" s="181"/>
+      <c r="R17" s="182"/>
+      <c r="S17" s="182"/>
+      <c r="T17" s="182"/>
+      <c r="U17" s="182"/>
+      <c r="V17" s="182"/>
+      <c r="W17" s="182"/>
+      <c r="X17" s="182"/>
+      <c r="Y17" s="182"/>
+      <c r="Z17" s="182"/>
+      <c r="AA17" s="182"/>
+      <c r="AB17" s="182"/>
+      <c r="AC17" s="182"/>
+      <c r="AD17" s="182"/>
+      <c r="AE17" s="183"/>
+      <c r="AF17" s="178"/>
+      <c r="AG17" s="179"/>
+      <c r="AH17" s="179"/>
+      <c r="AI17" s="180"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="194"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="197"/>
-      <c r="F18" s="198"/>
-      <c r="G18" s="194"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="201"/>
-      <c r="L18" s="201"/>
-      <c r="M18" s="201"/>
-      <c r="N18" s="201"/>
-      <c r="O18" s="201"/>
-      <c r="P18" s="202"/>
-      <c r="Q18" s="203"/>
-      <c r="R18" s="204"/>
-      <c r="S18" s="204"/>
-      <c r="T18" s="204"/>
-      <c r="U18" s="204"/>
-      <c r="V18" s="204"/>
-      <c r="W18" s="204"/>
-      <c r="X18" s="204"/>
-      <c r="Y18" s="204"/>
-      <c r="Z18" s="204"/>
-      <c r="AA18" s="204"/>
-      <c r="AB18" s="204"/>
-      <c r="AC18" s="204"/>
-      <c r="AD18" s="204"/>
-      <c r="AE18" s="205"/>
-      <c r="AF18" s="200"/>
-      <c r="AG18" s="201"/>
-      <c r="AH18" s="201"/>
-      <c r="AI18" s="202"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="178"/>
+      <c r="K18" s="179"/>
+      <c r="L18" s="179"/>
+      <c r="M18" s="179"/>
+      <c r="N18" s="179"/>
+      <c r="O18" s="179"/>
+      <c r="P18" s="180"/>
+      <c r="Q18" s="181"/>
+      <c r="R18" s="182"/>
+      <c r="S18" s="182"/>
+      <c r="T18" s="182"/>
+      <c r="U18" s="182"/>
+      <c r="V18" s="182"/>
+      <c r="W18" s="182"/>
+      <c r="X18" s="182"/>
+      <c r="Y18" s="182"/>
+      <c r="Z18" s="182"/>
+      <c r="AA18" s="182"/>
+      <c r="AB18" s="182"/>
+      <c r="AC18" s="182"/>
+      <c r="AD18" s="182"/>
+      <c r="AE18" s="183"/>
+      <c r="AF18" s="178"/>
+      <c r="AG18" s="179"/>
+      <c r="AH18" s="179"/>
+      <c r="AI18" s="180"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="194"/>
-      <c r="C19" s="195"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="198"/>
-      <c r="G19" s="194"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="201"/>
-      <c r="L19" s="201"/>
-      <c r="M19" s="201"/>
-      <c r="N19" s="201"/>
-      <c r="O19" s="201"/>
-      <c r="P19" s="202"/>
-      <c r="Q19" s="203"/>
-      <c r="R19" s="204"/>
-      <c r="S19" s="204"/>
-      <c r="T19" s="204"/>
-      <c r="U19" s="204"/>
-      <c r="V19" s="204"/>
-      <c r="W19" s="204"/>
-      <c r="X19" s="204"/>
-      <c r="Y19" s="204"/>
-      <c r="Z19" s="204"/>
-      <c r="AA19" s="204"/>
-      <c r="AB19" s="204"/>
-      <c r="AC19" s="204"/>
-      <c r="AD19" s="204"/>
-      <c r="AE19" s="205"/>
-      <c r="AF19" s="200"/>
-      <c r="AG19" s="201"/>
-      <c r="AH19" s="201"/>
-      <c r="AI19" s="202"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="173"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="172"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="173"/>
+      <c r="J19" s="178"/>
+      <c r="K19" s="179"/>
+      <c r="L19" s="179"/>
+      <c r="M19" s="179"/>
+      <c r="N19" s="179"/>
+      <c r="O19" s="179"/>
+      <c r="P19" s="180"/>
+      <c r="Q19" s="181"/>
+      <c r="R19" s="182"/>
+      <c r="S19" s="182"/>
+      <c r="T19" s="182"/>
+      <c r="U19" s="182"/>
+      <c r="V19" s="182"/>
+      <c r="W19" s="182"/>
+      <c r="X19" s="182"/>
+      <c r="Y19" s="182"/>
+      <c r="Z19" s="182"/>
+      <c r="AA19" s="182"/>
+      <c r="AB19" s="182"/>
+      <c r="AC19" s="182"/>
+      <c r="AD19" s="182"/>
+      <c r="AE19" s="183"/>
+      <c r="AF19" s="178"/>
+      <c r="AG19" s="179"/>
+      <c r="AH19" s="179"/>
+      <c r="AI19" s="180"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="194"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="196"/>
-      <c r="E20" s="197"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="194"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="201"/>
-      <c r="L20" s="201"/>
-      <c r="M20" s="201"/>
-      <c r="N20" s="201"/>
-      <c r="O20" s="201"/>
-      <c r="P20" s="202"/>
-      <c r="Q20" s="203"/>
-      <c r="R20" s="204"/>
-      <c r="S20" s="204"/>
-      <c r="T20" s="204"/>
-      <c r="U20" s="204"/>
-      <c r="V20" s="204"/>
-      <c r="W20" s="204"/>
-      <c r="X20" s="204"/>
-      <c r="Y20" s="204"/>
-      <c r="Z20" s="204"/>
-      <c r="AA20" s="204"/>
-      <c r="AB20" s="204"/>
-      <c r="AC20" s="204"/>
-      <c r="AD20" s="204"/>
-      <c r="AE20" s="205"/>
-      <c r="AF20" s="200"/>
-      <c r="AG20" s="201"/>
-      <c r="AH20" s="201"/>
-      <c r="AI20" s="202"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="174"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="172"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="178"/>
+      <c r="K20" s="179"/>
+      <c r="L20" s="179"/>
+      <c r="M20" s="179"/>
+      <c r="N20" s="179"/>
+      <c r="O20" s="179"/>
+      <c r="P20" s="180"/>
+      <c r="Q20" s="181"/>
+      <c r="R20" s="182"/>
+      <c r="S20" s="182"/>
+      <c r="T20" s="182"/>
+      <c r="U20" s="182"/>
+      <c r="V20" s="182"/>
+      <c r="W20" s="182"/>
+      <c r="X20" s="182"/>
+      <c r="Y20" s="182"/>
+      <c r="Z20" s="182"/>
+      <c r="AA20" s="182"/>
+      <c r="AB20" s="182"/>
+      <c r="AC20" s="182"/>
+      <c r="AD20" s="182"/>
+      <c r="AE20" s="183"/>
+      <c r="AF20" s="178"/>
+      <c r="AG20" s="179"/>
+      <c r="AH20" s="179"/>
+      <c r="AI20" s="180"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="194"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="196"/>
-      <c r="E21" s="197"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="194"/>
-      <c r="H21" s="199"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="201"/>
-      <c r="L21" s="201"/>
-      <c r="M21" s="201"/>
-      <c r="N21" s="201"/>
-      <c r="O21" s="201"/>
-      <c r="P21" s="202"/>
-      <c r="Q21" s="203"/>
-      <c r="R21" s="204"/>
-      <c r="S21" s="204"/>
-      <c r="T21" s="204"/>
-      <c r="U21" s="204"/>
-      <c r="V21" s="204"/>
-      <c r="W21" s="204"/>
-      <c r="X21" s="204"/>
-      <c r="Y21" s="204"/>
-      <c r="Z21" s="204"/>
-      <c r="AA21" s="204"/>
-      <c r="AB21" s="204"/>
-      <c r="AC21" s="204"/>
-      <c r="AD21" s="204"/>
-      <c r="AE21" s="205"/>
-      <c r="AF21" s="200"/>
-      <c r="AG21" s="201"/>
-      <c r="AH21" s="201"/>
-      <c r="AI21" s="202"/>
+      <c r="B21" s="172"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="174"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="176"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="178"/>
+      <c r="K21" s="179"/>
+      <c r="L21" s="179"/>
+      <c r="M21" s="179"/>
+      <c r="N21" s="179"/>
+      <c r="O21" s="179"/>
+      <c r="P21" s="180"/>
+      <c r="Q21" s="181"/>
+      <c r="R21" s="182"/>
+      <c r="S21" s="182"/>
+      <c r="T21" s="182"/>
+      <c r="U21" s="182"/>
+      <c r="V21" s="182"/>
+      <c r="W21" s="182"/>
+      <c r="X21" s="182"/>
+      <c r="Y21" s="182"/>
+      <c r="Z21" s="182"/>
+      <c r="AA21" s="182"/>
+      <c r="AB21" s="182"/>
+      <c r="AC21" s="182"/>
+      <c r="AD21" s="182"/>
+      <c r="AE21" s="183"/>
+      <c r="AF21" s="178"/>
+      <c r="AG21" s="179"/>
+      <c r="AH21" s="179"/>
+      <c r="AI21" s="180"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="194"/>
-      <c r="C22" s="195"/>
-      <c r="D22" s="196"/>
-      <c r="E22" s="197"/>
-      <c r="F22" s="198"/>
-      <c r="G22" s="194"/>
-      <c r="H22" s="199"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
-      <c r="M22" s="201"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="201"/>
-      <c r="P22" s="202"/>
-      <c r="Q22" s="203"/>
-      <c r="R22" s="204"/>
-      <c r="S22" s="204"/>
-      <c r="T22" s="204"/>
-      <c r="U22" s="204"/>
-      <c r="V22" s="204"/>
-      <c r="W22" s="204"/>
-      <c r="X22" s="204"/>
-      <c r="Y22" s="204"/>
-      <c r="Z22" s="204"/>
-      <c r="AA22" s="204"/>
-      <c r="AB22" s="204"/>
-      <c r="AC22" s="204"/>
-      <c r="AD22" s="204"/>
-      <c r="AE22" s="205"/>
-      <c r="AF22" s="200"/>
-      <c r="AG22" s="201"/>
-      <c r="AH22" s="201"/>
-      <c r="AI22" s="202"/>
+      <c r="B22" s="172"/>
+      <c r="C22" s="173"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="172"/>
+      <c r="H22" s="177"/>
+      <c r="I22" s="173"/>
+      <c r="J22" s="178"/>
+      <c r="K22" s="179"/>
+      <c r="L22" s="179"/>
+      <c r="M22" s="179"/>
+      <c r="N22" s="179"/>
+      <c r="O22" s="179"/>
+      <c r="P22" s="180"/>
+      <c r="Q22" s="181"/>
+      <c r="R22" s="182"/>
+      <c r="S22" s="182"/>
+      <c r="T22" s="182"/>
+      <c r="U22" s="182"/>
+      <c r="V22" s="182"/>
+      <c r="W22" s="182"/>
+      <c r="X22" s="182"/>
+      <c r="Y22" s="182"/>
+      <c r="Z22" s="182"/>
+      <c r="AA22" s="182"/>
+      <c r="AB22" s="182"/>
+      <c r="AC22" s="182"/>
+      <c r="AD22" s="182"/>
+      <c r="AE22" s="183"/>
+      <c r="AF22" s="178"/>
+      <c r="AG22" s="179"/>
+      <c r="AH22" s="179"/>
+      <c r="AI22" s="180"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="194"/>
-      <c r="C23" s="195"/>
-      <c r="D23" s="196"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="198"/>
-      <c r="G23" s="194"/>
-      <c r="H23" s="199"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="201"/>
-      <c r="L23" s="201"/>
-      <c r="M23" s="201"/>
-      <c r="N23" s="201"/>
-      <c r="O23" s="201"/>
-      <c r="P23" s="202"/>
-      <c r="Q23" s="203"/>
-      <c r="R23" s="204"/>
-      <c r="S23" s="204"/>
-      <c r="T23" s="204"/>
-      <c r="U23" s="204"/>
-      <c r="V23" s="204"/>
-      <c r="W23" s="204"/>
-      <c r="X23" s="204"/>
-      <c r="Y23" s="204"/>
-      <c r="Z23" s="204"/>
-      <c r="AA23" s="204"/>
-      <c r="AB23" s="204"/>
-      <c r="AC23" s="204"/>
-      <c r="AD23" s="204"/>
-      <c r="AE23" s="205"/>
-      <c r="AF23" s="200"/>
-      <c r="AG23" s="201"/>
-      <c r="AH23" s="201"/>
-      <c r="AI23" s="202"/>
+      <c r="B23" s="172"/>
+      <c r="C23" s="173"/>
+      <c r="D23" s="174"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="176"/>
+      <c r="G23" s="172"/>
+      <c r="H23" s="177"/>
+      <c r="I23" s="173"/>
+      <c r="J23" s="178"/>
+      <c r="K23" s="179"/>
+      <c r="L23" s="179"/>
+      <c r="M23" s="179"/>
+      <c r="N23" s="179"/>
+      <c r="O23" s="179"/>
+      <c r="P23" s="180"/>
+      <c r="Q23" s="181"/>
+      <c r="R23" s="182"/>
+      <c r="S23" s="182"/>
+      <c r="T23" s="182"/>
+      <c r="U23" s="182"/>
+      <c r="V23" s="182"/>
+      <c r="W23" s="182"/>
+      <c r="X23" s="182"/>
+      <c r="Y23" s="182"/>
+      <c r="Z23" s="182"/>
+      <c r="AA23" s="182"/>
+      <c r="AB23" s="182"/>
+      <c r="AC23" s="182"/>
+      <c r="AD23" s="182"/>
+      <c r="AE23" s="183"/>
+      <c r="AF23" s="178"/>
+      <c r="AG23" s="179"/>
+      <c r="AH23" s="179"/>
+      <c r="AI23" s="180"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="194"/>
-      <c r="C24" s="195"/>
-      <c r="D24" s="196"/>
-      <c r="E24" s="197"/>
-      <c r="F24" s="198"/>
-      <c r="G24" s="194"/>
-      <c r="H24" s="199"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="200"/>
-      <c r="K24" s="201"/>
-      <c r="L24" s="201"/>
-      <c r="M24" s="201"/>
-      <c r="N24" s="201"/>
-      <c r="O24" s="201"/>
-      <c r="P24" s="202"/>
-      <c r="Q24" s="203"/>
-      <c r="R24" s="204"/>
-      <c r="S24" s="204"/>
-      <c r="T24" s="204"/>
-      <c r="U24" s="204"/>
-      <c r="V24" s="204"/>
-      <c r="W24" s="204"/>
-      <c r="X24" s="204"/>
-      <c r="Y24" s="204"/>
-      <c r="Z24" s="204"/>
-      <c r="AA24" s="204"/>
-      <c r="AB24" s="204"/>
-      <c r="AC24" s="204"/>
-      <c r="AD24" s="204"/>
-      <c r="AE24" s="205"/>
-      <c r="AF24" s="200"/>
-      <c r="AG24" s="201"/>
-      <c r="AH24" s="201"/>
-      <c r="AI24" s="202"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="174"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="176"/>
+      <c r="G24" s="172"/>
+      <c r="H24" s="177"/>
+      <c r="I24" s="173"/>
+      <c r="J24" s="178"/>
+      <c r="K24" s="179"/>
+      <c r="L24" s="179"/>
+      <c r="M24" s="179"/>
+      <c r="N24" s="179"/>
+      <c r="O24" s="179"/>
+      <c r="P24" s="180"/>
+      <c r="Q24" s="181"/>
+      <c r="R24" s="182"/>
+      <c r="S24" s="182"/>
+      <c r="T24" s="182"/>
+      <c r="U24" s="182"/>
+      <c r="V24" s="182"/>
+      <c r="W24" s="182"/>
+      <c r="X24" s="182"/>
+      <c r="Y24" s="182"/>
+      <c r="Z24" s="182"/>
+      <c r="AA24" s="182"/>
+      <c r="AB24" s="182"/>
+      <c r="AC24" s="182"/>
+      <c r="AD24" s="182"/>
+      <c r="AE24" s="183"/>
+      <c r="AF24" s="178"/>
+      <c r="AG24" s="179"/>
+      <c r="AH24" s="179"/>
+      <c r="AI24" s="180"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="194"/>
-      <c r="C25" s="195"/>
-      <c r="D25" s="196"/>
-      <c r="E25" s="197"/>
-      <c r="F25" s="198"/>
-      <c r="G25" s="194"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="200"/>
-      <c r="K25" s="201"/>
-      <c r="L25" s="201"/>
-      <c r="M25" s="201"/>
-      <c r="N25" s="201"/>
-      <c r="O25" s="201"/>
-      <c r="P25" s="202"/>
-      <c r="Q25" s="203"/>
-      <c r="R25" s="204"/>
-      <c r="S25" s="204"/>
-      <c r="T25" s="204"/>
-      <c r="U25" s="204"/>
-      <c r="V25" s="204"/>
-      <c r="W25" s="204"/>
-      <c r="X25" s="204"/>
-      <c r="Y25" s="204"/>
-      <c r="Z25" s="204"/>
-      <c r="AA25" s="204"/>
-      <c r="AB25" s="204"/>
-      <c r="AC25" s="204"/>
-      <c r="AD25" s="204"/>
-      <c r="AE25" s="205"/>
-      <c r="AF25" s="200"/>
-      <c r="AG25" s="201"/>
-      <c r="AH25" s="201"/>
-      <c r="AI25" s="202"/>
+      <c r="B25" s="172"/>
+      <c r="C25" s="173"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="176"/>
+      <c r="G25" s="172"/>
+      <c r="H25" s="177"/>
+      <c r="I25" s="173"/>
+      <c r="J25" s="178"/>
+      <c r="K25" s="179"/>
+      <c r="L25" s="179"/>
+      <c r="M25" s="179"/>
+      <c r="N25" s="179"/>
+      <c r="O25" s="179"/>
+      <c r="P25" s="180"/>
+      <c r="Q25" s="181"/>
+      <c r="R25" s="182"/>
+      <c r="S25" s="182"/>
+      <c r="T25" s="182"/>
+      <c r="U25" s="182"/>
+      <c r="V25" s="182"/>
+      <c r="W25" s="182"/>
+      <c r="X25" s="182"/>
+      <c r="Y25" s="182"/>
+      <c r="Z25" s="182"/>
+      <c r="AA25" s="182"/>
+      <c r="AB25" s="182"/>
+      <c r="AC25" s="182"/>
+      <c r="AD25" s="182"/>
+      <c r="AE25" s="183"/>
+      <c r="AF25" s="178"/>
+      <c r="AG25" s="179"/>
+      <c r="AH25" s="179"/>
+      <c r="AI25" s="180"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="194"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="196"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="198"/>
-      <c r="G26" s="194"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="201"/>
-      <c r="L26" s="201"/>
-      <c r="M26" s="201"/>
-      <c r="N26" s="201"/>
-      <c r="O26" s="201"/>
-      <c r="P26" s="202"/>
-      <c r="Q26" s="203"/>
-      <c r="R26" s="204"/>
-      <c r="S26" s="204"/>
-      <c r="T26" s="204"/>
-      <c r="U26" s="204"/>
-      <c r="V26" s="204"/>
-      <c r="W26" s="204"/>
-      <c r="X26" s="204"/>
-      <c r="Y26" s="204"/>
-      <c r="Z26" s="204"/>
-      <c r="AA26" s="204"/>
-      <c r="AB26" s="204"/>
-      <c r="AC26" s="204"/>
-      <c r="AD26" s="204"/>
-      <c r="AE26" s="205"/>
-      <c r="AF26" s="200"/>
-      <c r="AG26" s="201"/>
-      <c r="AH26" s="201"/>
-      <c r="AI26" s="202"/>
+      <c r="B26" s="172"/>
+      <c r="C26" s="173"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="173"/>
+      <c r="J26" s="178"/>
+      <c r="K26" s="179"/>
+      <c r="L26" s="179"/>
+      <c r="M26" s="179"/>
+      <c r="N26" s="179"/>
+      <c r="O26" s="179"/>
+      <c r="P26" s="180"/>
+      <c r="Q26" s="181"/>
+      <c r="R26" s="182"/>
+      <c r="S26" s="182"/>
+      <c r="T26" s="182"/>
+      <c r="U26" s="182"/>
+      <c r="V26" s="182"/>
+      <c r="W26" s="182"/>
+      <c r="X26" s="182"/>
+      <c r="Y26" s="182"/>
+      <c r="Z26" s="182"/>
+      <c r="AA26" s="182"/>
+      <c r="AB26" s="182"/>
+      <c r="AC26" s="182"/>
+      <c r="AD26" s="182"/>
+      <c r="AE26" s="183"/>
+      <c r="AF26" s="178"/>
+      <c r="AG26" s="179"/>
+      <c r="AH26" s="179"/>
+      <c r="AI26" s="180"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="194"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="196"/>
-      <c r="E27" s="197"/>
-      <c r="F27" s="198"/>
-      <c r="G27" s="194"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="200"/>
-      <c r="K27" s="201"/>
-      <c r="L27" s="201"/>
-      <c r="M27" s="201"/>
-      <c r="N27" s="201"/>
-      <c r="O27" s="201"/>
-      <c r="P27" s="202"/>
-      <c r="Q27" s="203"/>
-      <c r="R27" s="204"/>
-      <c r="S27" s="204"/>
-      <c r="T27" s="204"/>
-      <c r="U27" s="204"/>
-      <c r="V27" s="204"/>
-      <c r="W27" s="204"/>
-      <c r="X27" s="204"/>
-      <c r="Y27" s="204"/>
-      <c r="Z27" s="204"/>
-      <c r="AA27" s="204"/>
-      <c r="AB27" s="204"/>
-      <c r="AC27" s="204"/>
-      <c r="AD27" s="204"/>
-      <c r="AE27" s="205"/>
-      <c r="AF27" s="200"/>
-      <c r="AG27" s="201"/>
-      <c r="AH27" s="201"/>
-      <c r="AI27" s="202"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="177"/>
+      <c r="I27" s="173"/>
+      <c r="J27" s="178"/>
+      <c r="K27" s="179"/>
+      <c r="L27" s="179"/>
+      <c r="M27" s="179"/>
+      <c r="N27" s="179"/>
+      <c r="O27" s="179"/>
+      <c r="P27" s="180"/>
+      <c r="Q27" s="181"/>
+      <c r="R27" s="182"/>
+      <c r="S27" s="182"/>
+      <c r="T27" s="182"/>
+      <c r="U27" s="182"/>
+      <c r="V27" s="182"/>
+      <c r="W27" s="182"/>
+      <c r="X27" s="182"/>
+      <c r="Y27" s="182"/>
+      <c r="Z27" s="182"/>
+      <c r="AA27" s="182"/>
+      <c r="AB27" s="182"/>
+      <c r="AC27" s="182"/>
+      <c r="AD27" s="182"/>
+      <c r="AE27" s="183"/>
+      <c r="AF27" s="178"/>
+      <c r="AG27" s="179"/>
+      <c r="AH27" s="179"/>
+      <c r="AI27" s="180"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="194"/>
-      <c r="C28" s="195"/>
-      <c r="D28" s="196"/>
-      <c r="E28" s="197"/>
-      <c r="F28" s="198"/>
-      <c r="G28" s="194"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="200"/>
-      <c r="K28" s="201"/>
-      <c r="L28" s="201"/>
-      <c r="M28" s="201"/>
-      <c r="N28" s="201"/>
-      <c r="O28" s="201"/>
-      <c r="P28" s="202"/>
-      <c r="Q28" s="203"/>
-      <c r="R28" s="204"/>
-      <c r="S28" s="204"/>
-      <c r="T28" s="204"/>
-      <c r="U28" s="204"/>
-      <c r="V28" s="204"/>
-      <c r="W28" s="204"/>
-      <c r="X28" s="204"/>
-      <c r="Y28" s="204"/>
-      <c r="Z28" s="204"/>
-      <c r="AA28" s="204"/>
-      <c r="AB28" s="204"/>
-      <c r="AC28" s="204"/>
-      <c r="AD28" s="204"/>
-      <c r="AE28" s="205"/>
-      <c r="AF28" s="200"/>
-      <c r="AG28" s="201"/>
-      <c r="AH28" s="201"/>
-      <c r="AI28" s="202"/>
+      <c r="B28" s="172"/>
+      <c r="C28" s="173"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="176"/>
+      <c r="G28" s="172"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="173"/>
+      <c r="J28" s="178"/>
+      <c r="K28" s="179"/>
+      <c r="L28" s="179"/>
+      <c r="M28" s="179"/>
+      <c r="N28" s="179"/>
+      <c r="O28" s="179"/>
+      <c r="P28" s="180"/>
+      <c r="Q28" s="181"/>
+      <c r="R28" s="182"/>
+      <c r="S28" s="182"/>
+      <c r="T28" s="182"/>
+      <c r="U28" s="182"/>
+      <c r="V28" s="182"/>
+      <c r="W28" s="182"/>
+      <c r="X28" s="182"/>
+      <c r="Y28" s="182"/>
+      <c r="Z28" s="182"/>
+      <c r="AA28" s="182"/>
+      <c r="AB28" s="182"/>
+      <c r="AC28" s="182"/>
+      <c r="AD28" s="182"/>
+      <c r="AE28" s="183"/>
+      <c r="AF28" s="178"/>
+      <c r="AG28" s="179"/>
+      <c r="AH28" s="179"/>
+      <c r="AI28" s="180"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="194"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="197"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="194"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="200"/>
-      <c r="K29" s="201"/>
-      <c r="L29" s="201"/>
-      <c r="M29" s="201"/>
-      <c r="N29" s="201"/>
-      <c r="O29" s="201"/>
-      <c r="P29" s="202"/>
-      <c r="Q29" s="203"/>
-      <c r="R29" s="204"/>
-      <c r="S29" s="204"/>
-      <c r="T29" s="204"/>
-      <c r="U29" s="204"/>
-      <c r="V29" s="204"/>
-      <c r="W29" s="204"/>
-      <c r="X29" s="204"/>
-      <c r="Y29" s="204"/>
-      <c r="Z29" s="204"/>
-      <c r="AA29" s="204"/>
-      <c r="AB29" s="204"/>
-      <c r="AC29" s="204"/>
-      <c r="AD29" s="204"/>
-      <c r="AE29" s="205"/>
-      <c r="AF29" s="200"/>
-      <c r="AG29" s="201"/>
-      <c r="AH29" s="201"/>
-      <c r="AI29" s="202"/>
+      <c r="B29" s="172"/>
+      <c r="C29" s="173"/>
+      <c r="D29" s="174"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="176"/>
+      <c r="G29" s="172"/>
+      <c r="H29" s="177"/>
+      <c r="I29" s="173"/>
+      <c r="J29" s="178"/>
+      <c r="K29" s="179"/>
+      <c r="L29" s="179"/>
+      <c r="M29" s="179"/>
+      <c r="N29" s="179"/>
+      <c r="O29" s="179"/>
+      <c r="P29" s="180"/>
+      <c r="Q29" s="181"/>
+      <c r="R29" s="182"/>
+      <c r="S29" s="182"/>
+      <c r="T29" s="182"/>
+      <c r="U29" s="182"/>
+      <c r="V29" s="182"/>
+      <c r="W29" s="182"/>
+      <c r="X29" s="182"/>
+      <c r="Y29" s="182"/>
+      <c r="Z29" s="182"/>
+      <c r="AA29" s="182"/>
+      <c r="AB29" s="182"/>
+      <c r="AC29" s="182"/>
+      <c r="AD29" s="182"/>
+      <c r="AE29" s="183"/>
+      <c r="AF29" s="178"/>
+      <c r="AG29" s="179"/>
+      <c r="AH29" s="179"/>
+      <c r="AI29" s="180"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="194"/>
-      <c r="C30" s="195"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="197"/>
-      <c r="F30" s="198"/>
-      <c r="G30" s="194"/>
-      <c r="H30" s="199"/>
-      <c r="I30" s="195"/>
-      <c r="J30" s="200"/>
-      <c r="K30" s="201"/>
-      <c r="L30" s="201"/>
-      <c r="M30" s="201"/>
-      <c r="N30" s="201"/>
-      <c r="O30" s="201"/>
-      <c r="P30" s="202"/>
-      <c r="Q30" s="203"/>
-      <c r="R30" s="204"/>
-      <c r="S30" s="204"/>
-      <c r="T30" s="204"/>
-      <c r="U30" s="204"/>
-      <c r="V30" s="204"/>
-      <c r="W30" s="204"/>
-      <c r="X30" s="204"/>
-      <c r="Y30" s="204"/>
-      <c r="Z30" s="204"/>
-      <c r="AA30" s="204"/>
-      <c r="AB30" s="204"/>
-      <c r="AC30" s="204"/>
-      <c r="AD30" s="204"/>
-      <c r="AE30" s="205"/>
-      <c r="AF30" s="200"/>
-      <c r="AG30" s="201"/>
-      <c r="AH30" s="201"/>
-      <c r="AI30" s="202"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="173"/>
+      <c r="D30" s="174"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="176"/>
+      <c r="G30" s="172"/>
+      <c r="H30" s="177"/>
+      <c r="I30" s="173"/>
+      <c r="J30" s="178"/>
+      <c r="K30" s="179"/>
+      <c r="L30" s="179"/>
+      <c r="M30" s="179"/>
+      <c r="N30" s="179"/>
+      <c r="O30" s="179"/>
+      <c r="P30" s="180"/>
+      <c r="Q30" s="181"/>
+      <c r="R30" s="182"/>
+      <c r="S30" s="182"/>
+      <c r="T30" s="182"/>
+      <c r="U30" s="182"/>
+      <c r="V30" s="182"/>
+      <c r="W30" s="182"/>
+      <c r="X30" s="182"/>
+      <c r="Y30" s="182"/>
+      <c r="Z30" s="182"/>
+      <c r="AA30" s="182"/>
+      <c r="AB30" s="182"/>
+      <c r="AC30" s="182"/>
+      <c r="AD30" s="182"/>
+      <c r="AE30" s="183"/>
+      <c r="AF30" s="178"/>
+      <c r="AG30" s="179"/>
+      <c r="AH30" s="179"/>
+      <c r="AI30" s="180"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="194"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="197"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="194"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="200"/>
-      <c r="K31" s="201"/>
-      <c r="L31" s="201"/>
-      <c r="M31" s="201"/>
-      <c r="N31" s="201"/>
-      <c r="O31" s="201"/>
-      <c r="P31" s="202"/>
-      <c r="Q31" s="203"/>
-      <c r="R31" s="204"/>
-      <c r="S31" s="204"/>
-      <c r="T31" s="204"/>
-      <c r="U31" s="204"/>
-      <c r="V31" s="204"/>
-      <c r="W31" s="204"/>
-      <c r="X31" s="204"/>
-      <c r="Y31" s="204"/>
-      <c r="Z31" s="204"/>
-      <c r="AA31" s="204"/>
-      <c r="AB31" s="204"/>
-      <c r="AC31" s="204"/>
-      <c r="AD31" s="204"/>
-      <c r="AE31" s="205"/>
-      <c r="AF31" s="200"/>
-      <c r="AG31" s="201"/>
-      <c r="AH31" s="201"/>
-      <c r="AI31" s="202"/>
+      <c r="B31" s="172"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="174"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="176"/>
+      <c r="G31" s="172"/>
+      <c r="H31" s="177"/>
+      <c r="I31" s="173"/>
+      <c r="J31" s="178"/>
+      <c r="K31" s="179"/>
+      <c r="L31" s="179"/>
+      <c r="M31" s="179"/>
+      <c r="N31" s="179"/>
+      <c r="O31" s="179"/>
+      <c r="P31" s="180"/>
+      <c r="Q31" s="181"/>
+      <c r="R31" s="182"/>
+      <c r="S31" s="182"/>
+      <c r="T31" s="182"/>
+      <c r="U31" s="182"/>
+      <c r="V31" s="182"/>
+      <c r="W31" s="182"/>
+      <c r="X31" s="182"/>
+      <c r="Y31" s="182"/>
+      <c r="Z31" s="182"/>
+      <c r="AA31" s="182"/>
+      <c r="AB31" s="182"/>
+      <c r="AC31" s="182"/>
+      <c r="AD31" s="182"/>
+      <c r="AE31" s="183"/>
+      <c r="AF31" s="178"/>
+      <c r="AG31" s="179"/>
+      <c r="AH31" s="179"/>
+      <c r="AI31" s="180"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="194"/>
-      <c r="C32" s="195"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="197"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="199"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="200"/>
-      <c r="K32" s="220"/>
-      <c r="L32" s="201"/>
-      <c r="M32" s="201"/>
-      <c r="N32" s="201"/>
-      <c r="O32" s="201"/>
-      <c r="P32" s="202"/>
-      <c r="Q32" s="203"/>
-      <c r="R32" s="204"/>
-      <c r="S32" s="204"/>
-      <c r="T32" s="204"/>
-      <c r="U32" s="204"/>
-      <c r="V32" s="204"/>
-      <c r="W32" s="204"/>
-      <c r="X32" s="204"/>
-      <c r="Y32" s="204"/>
-      <c r="Z32" s="204"/>
-      <c r="AA32" s="204"/>
-      <c r="AB32" s="204"/>
-      <c r="AC32" s="204"/>
-      <c r="AD32" s="204"/>
-      <c r="AE32" s="205"/>
-      <c r="AF32" s="200"/>
-      <c r="AG32" s="201"/>
-      <c r="AH32" s="201"/>
-      <c r="AI32" s="202"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="172"/>
+      <c r="H32" s="177"/>
+      <c r="I32" s="173"/>
+      <c r="J32" s="178"/>
+      <c r="K32" s="184"/>
+      <c r="L32" s="179"/>
+      <c r="M32" s="179"/>
+      <c r="N32" s="179"/>
+      <c r="O32" s="179"/>
+      <c r="P32" s="180"/>
+      <c r="Q32" s="181"/>
+      <c r="R32" s="182"/>
+      <c r="S32" s="182"/>
+      <c r="T32" s="182"/>
+      <c r="U32" s="182"/>
+      <c r="V32" s="182"/>
+      <c r="W32" s="182"/>
+      <c r="X32" s="182"/>
+      <c r="Y32" s="182"/>
+      <c r="Z32" s="182"/>
+      <c r="AA32" s="182"/>
+      <c r="AB32" s="182"/>
+      <c r="AC32" s="182"/>
+      <c r="AD32" s="182"/>
+      <c r="AE32" s="183"/>
+      <c r="AF32" s="178"/>
+      <c r="AG32" s="179"/>
+      <c r="AH32" s="179"/>
+      <c r="AI32" s="180"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="194"/>
-      <c r="C33" s="195"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="197"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="194"/>
-      <c r="H33" s="199"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="200"/>
-      <c r="K33" s="201"/>
-      <c r="L33" s="201"/>
-      <c r="M33" s="201"/>
-      <c r="N33" s="201"/>
-      <c r="O33" s="201"/>
-      <c r="P33" s="202"/>
-      <c r="Q33" s="203"/>
-      <c r="R33" s="204"/>
-      <c r="S33" s="204"/>
-      <c r="T33" s="204"/>
-      <c r="U33" s="204"/>
-      <c r="V33" s="204"/>
-      <c r="W33" s="204"/>
-      <c r="X33" s="204"/>
-      <c r="Y33" s="204"/>
-      <c r="Z33" s="204"/>
-      <c r="AA33" s="204"/>
-      <c r="AB33" s="204"/>
-      <c r="AC33" s="204"/>
-      <c r="AD33" s="204"/>
-      <c r="AE33" s="205"/>
-      <c r="AF33" s="200"/>
-      <c r="AG33" s="201"/>
-      <c r="AH33" s="201"/>
-      <c r="AI33" s="202"/>
+      <c r="B33" s="172"/>
+      <c r="C33" s="173"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="172"/>
+      <c r="H33" s="177"/>
+      <c r="I33" s="173"/>
+      <c r="J33" s="178"/>
+      <c r="K33" s="179"/>
+      <c r="L33" s="179"/>
+      <c r="M33" s="179"/>
+      <c r="N33" s="179"/>
+      <c r="O33" s="179"/>
+      <c r="P33" s="180"/>
+      <c r="Q33" s="181"/>
+      <c r="R33" s="182"/>
+      <c r="S33" s="182"/>
+      <c r="T33" s="182"/>
+      <c r="U33" s="182"/>
+      <c r="V33" s="182"/>
+      <c r="W33" s="182"/>
+      <c r="X33" s="182"/>
+      <c r="Y33" s="182"/>
+      <c r="Z33" s="182"/>
+      <c r="AA33" s="182"/>
+      <c r="AB33" s="182"/>
+      <c r="AC33" s="182"/>
+      <c r="AD33" s="182"/>
+      <c r="AE33" s="183"/>
+      <c r="AF33" s="178"/>
+      <c r="AG33" s="179"/>
+      <c r="AH33" s="179"/>
+      <c r="AI33" s="180"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8200,6 +8044,162 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8356,157 +8356,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="233" t="str">
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="224" t="s">
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="253" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="225"/>
-      <c r="Q1" s="225"/>
-      <c r="R1" s="226"/>
-      <c r="S1" s="237" t="str">
+      <c r="P1" s="254"/>
+      <c r="Q1" s="254"/>
+      <c r="R1" s="255"/>
+      <c r="S1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="221" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="250" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="223"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="252"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="234">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="237">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="235"/>
-      <c r="AI1" s="236"/>
+      <c r="AH1" s="238"/>
+      <c r="AI1" s="239"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="223"/>
-      <c r="E2" s="233" t="str">
+      <c r="B2" s="251"/>
+      <c r="C2" s="251"/>
+      <c r="D2" s="252"/>
+      <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="227"/>
-      <c r="P2" s="228"/>
-      <c r="Q2" s="228"/>
-      <c r="R2" s="229"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="241"/>
-      <c r="U2" s="241"/>
-      <c r="V2" s="241"/>
-      <c r="W2" s="241"/>
-      <c r="X2" s="241"/>
-      <c r="Y2" s="241"/>
-      <c r="Z2" s="242"/>
-      <c r="AA2" s="221" t="s">
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="256"/>
+      <c r="P2" s="257"/>
+      <c r="Q2" s="257"/>
+      <c r="R2" s="258"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="250" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="223"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="252"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="234" t="str">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="235"/>
-      <c r="AI2" s="236"/>
+      <c r="AH2" s="238"/>
+      <c r="AI2" s="239"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="221" t="s">
+      <c r="A3" s="250" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="223"/>
-      <c r="E3" s="233" t="str">
+      <c r="B3" s="251"/>
+      <c r="C3" s="251"/>
+      <c r="D3" s="252"/>
+      <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="230"/>
-      <c r="P3" s="231"/>
-      <c r="Q3" s="231"/>
-      <c r="R3" s="232"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="245"/>
-      <c r="AA3" s="221"/>
-      <c r="AB3" s="223"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="259"/>
+      <c r="P3" s="260"/>
+      <c r="Q3" s="260"/>
+      <c r="R3" s="261"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="250"/>
+      <c r="AB3" s="252"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="234" t="str">
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="237" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="235"/>
-      <c r="AI3" s="236"/>
+      <c r="AH3" s="238"/>
+      <c r="AI3" s="239"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="44"/>
@@ -9973,6 +9973,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9982,14 +9990,6 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10018,157 +10018,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="233" t="str">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="176" t="s">
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="219" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="237" t="str">
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="173" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="247">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="272">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="249"/>
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="274"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="233" t="str">
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="241"/>
-      <c r="U2" s="241"/>
-      <c r="V2" s="241"/>
-      <c r="W2" s="241"/>
-      <c r="X2" s="241"/>
-      <c r="Y2" s="241"/>
-      <c r="Z2" s="242"/>
-      <c r="AA2" s="173" t="s">
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="247" t="str">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="249"/>
+      <c r="AH2" s="273"/>
+      <c r="AI2" s="274"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="233" t="str">
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="245"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="216"/>
+      <c r="AB3" s="218"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="247" t="str">
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="249"/>
+      <c r="AH3" s="273"/>
+      <c r="AI3" s="274"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1">
       <c r="A4" s="30"/>
@@ -10324,92 +10324,92 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="252" t="s">
+      <c r="D8" s="265" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="253"/>
-      <c r="F8" s="253"/>
-      <c r="G8" s="254"/>
-      <c r="H8" s="250" t="s">
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="267"/>
+      <c r="H8" s="275" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="251"/>
-      <c r="J8" s="251"/>
-      <c r="K8" s="251"/>
-      <c r="L8" s="251"/>
-      <c r="M8" s="251"/>
-      <c r="N8" s="251"/>
-      <c r="O8" s="251"/>
-      <c r="P8" s="251"/>
-      <c r="Q8" s="251"/>
-      <c r="R8" s="251"/>
-      <c r="S8" s="251"/>
-      <c r="T8" s="251"/>
-      <c r="U8" s="251"/>
-      <c r="V8" s="251"/>
-      <c r="W8" s="251"/>
-      <c r="X8" s="251"/>
-      <c r="Y8" s="251"/>
-      <c r="Z8" s="251"/>
-      <c r="AA8" s="251"/>
-      <c r="AB8" s="251"/>
-      <c r="AC8" s="251"/>
-      <c r="AD8" s="251"/>
-      <c r="AE8" s="251"/>
-      <c r="AF8" s="251"/>
-      <c r="AG8" s="251"/>
-      <c r="AH8" s="251"/>
+      <c r="I8" s="276"/>
+      <c r="J8" s="276"/>
+      <c r="K8" s="276"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="276"/>
+      <c r="N8" s="276"/>
+      <c r="O8" s="276"/>
+      <c r="P8" s="276"/>
+      <c r="Q8" s="276"/>
+      <c r="R8" s="276"/>
+      <c r="S8" s="276"/>
+      <c r="T8" s="276"/>
+      <c r="U8" s="276"/>
+      <c r="V8" s="276"/>
+      <c r="W8" s="276"/>
+      <c r="X8" s="276"/>
+      <c r="Y8" s="276"/>
+      <c r="Z8" s="276"/>
+      <c r="AA8" s="276"/>
+      <c r="AB8" s="276"/>
+      <c r="AC8" s="276"/>
+      <c r="AD8" s="276"/>
+      <c r="AE8" s="276"/>
+      <c r="AF8" s="276"/>
+      <c r="AG8" s="276"/>
+      <c r="AH8" s="276"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="252" t="s">
+      <c r="D9" s="265" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="253"/>
-      <c r="F9" s="253"/>
-      <c r="G9" s="254"/>
-      <c r="H9" s="246" t="s">
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="267"/>
+      <c r="H9" s="271" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="246"/>
-      <c r="L9" s="246"/>
-      <c r="M9" s="246"/>
-      <c r="N9" s="246"/>
-      <c r="O9" s="246"/>
-      <c r="P9" s="246"/>
-      <c r="Q9" s="246"/>
-      <c r="R9" s="246"/>
-      <c r="S9" s="246"/>
-      <c r="T9" s="246"/>
-      <c r="U9" s="246"/>
-      <c r="V9" s="246"/>
-      <c r="W9" s="246"/>
-      <c r="X9" s="246"/>
-      <c r="Y9" s="246"/>
-      <c r="Z9" s="246"/>
-      <c r="AA9" s="246"/>
-      <c r="AB9" s="246"/>
-      <c r="AC9" s="246"/>
-      <c r="AD9" s="246"/>
-      <c r="AE9" s="246"/>
-      <c r="AF9" s="246"/>
-      <c r="AG9" s="246"/>
-      <c r="AH9" s="246"/>
+      <c r="I9" s="271"/>
+      <c r="J9" s="271"/>
+      <c r="K9" s="271"/>
+      <c r="L9" s="271"/>
+      <c r="M9" s="271"/>
+      <c r="N9" s="271"/>
+      <c r="O9" s="271"/>
+      <c r="P9" s="271"/>
+      <c r="Q9" s="271"/>
+      <c r="R9" s="271"/>
+      <c r="S9" s="271"/>
+      <c r="T9" s="271"/>
+      <c r="U9" s="271"/>
+      <c r="V9" s="271"/>
+      <c r="W9" s="271"/>
+      <c r="X9" s="271"/>
+      <c r="Y9" s="271"/>
+      <c r="Z9" s="271"/>
+      <c r="AA9" s="271"/>
+      <c r="AB9" s="271"/>
+      <c r="AC9" s="271"/>
+      <c r="AD9" s="271"/>
+      <c r="AE9" s="271"/>
+      <c r="AF9" s="271"/>
+      <c r="AG9" s="271"/>
+      <c r="AH9" s="271"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="255" t="s">
+      <c r="D10" s="262" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="256"/>
-      <c r="F10" s="256"/>
-      <c r="G10" s="257"/>
+      <c r="E10" s="263"/>
+      <c r="F10" s="263"/>
+      <c r="G10" s="264"/>
       <c r="H10" s="103" t="s">
         <v>117</v>
       </c>
@@ -10444,172 +10444,172 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="252" t="s">
+      <c r="D11" s="265" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="253"/>
-      <c r="F11" s="253"/>
-      <c r="G11" s="254"/>
-      <c r="H11" s="250" t="s">
+      <c r="E11" s="266"/>
+      <c r="F11" s="266"/>
+      <c r="G11" s="267"/>
+      <c r="H11" s="275" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="251"/>
-      <c r="J11" s="251"/>
-      <c r="K11" s="251"/>
-      <c r="L11" s="251"/>
-      <c r="M11" s="251"/>
-      <c r="N11" s="251"/>
-      <c r="O11" s="251"/>
-      <c r="P11" s="251"/>
-      <c r="Q11" s="251"/>
-      <c r="R11" s="251"/>
-      <c r="S11" s="251"/>
-      <c r="T11" s="251"/>
-      <c r="U11" s="251"/>
-      <c r="V11" s="251"/>
-      <c r="W11" s="251"/>
-      <c r="X11" s="251"/>
-      <c r="Y11" s="251"/>
-      <c r="Z11" s="251"/>
-      <c r="AA11" s="251"/>
-      <c r="AB11" s="251"/>
-      <c r="AC11" s="251"/>
-      <c r="AD11" s="251"/>
-      <c r="AE11" s="251"/>
-      <c r="AF11" s="251"/>
-      <c r="AG11" s="251"/>
-      <c r="AH11" s="251"/>
+      <c r="I11" s="276"/>
+      <c r="J11" s="276"/>
+      <c r="K11" s="276"/>
+      <c r="L11" s="276"/>
+      <c r="M11" s="276"/>
+      <c r="N11" s="276"/>
+      <c r="O11" s="276"/>
+      <c r="P11" s="276"/>
+      <c r="Q11" s="276"/>
+      <c r="R11" s="276"/>
+      <c r="S11" s="276"/>
+      <c r="T11" s="276"/>
+      <c r="U11" s="276"/>
+      <c r="V11" s="276"/>
+      <c r="W11" s="276"/>
+      <c r="X11" s="276"/>
+      <c r="Y11" s="276"/>
+      <c r="Z11" s="276"/>
+      <c r="AA11" s="276"/>
+      <c r="AB11" s="276"/>
+      <c r="AC11" s="276"/>
+      <c r="AD11" s="276"/>
+      <c r="AE11" s="276"/>
+      <c r="AF11" s="276"/>
+      <c r="AG11" s="276"/>
+      <c r="AH11" s="276"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="252" t="s">
+      <c r="D12" s="265" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="253"/>
-      <c r="F12" s="253"/>
-      <c r="G12" s="254"/>
-      <c r="H12" s="246" t="s">
+      <c r="E12" s="266"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="267"/>
+      <c r="H12" s="271" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="246"/>
-      <c r="J12" s="246"/>
-      <c r="K12" s="246"/>
-      <c r="L12" s="246"/>
-      <c r="M12" s="246"/>
-      <c r="N12" s="246"/>
-      <c r="O12" s="246"/>
-      <c r="P12" s="246"/>
-      <c r="Q12" s="246"/>
-      <c r="R12" s="246"/>
-      <c r="S12" s="246"/>
-      <c r="T12" s="246"/>
-      <c r="U12" s="246"/>
-      <c r="V12" s="246"/>
-      <c r="W12" s="246"/>
-      <c r="X12" s="246"/>
-      <c r="Y12" s="246"/>
-      <c r="Z12" s="246"/>
-      <c r="AA12" s="246"/>
-      <c r="AB12" s="246"/>
-      <c r="AC12" s="246"/>
-      <c r="AD12" s="246"/>
-      <c r="AE12" s="246"/>
-      <c r="AF12" s="246"/>
-      <c r="AG12" s="246"/>
-      <c r="AH12" s="246"/>
+      <c r="I12" s="271"/>
+      <c r="J12" s="271"/>
+      <c r="K12" s="271"/>
+      <c r="L12" s="271"/>
+      <c r="M12" s="271"/>
+      <c r="N12" s="271"/>
+      <c r="O12" s="271"/>
+      <c r="P12" s="271"/>
+      <c r="Q12" s="271"/>
+      <c r="R12" s="271"/>
+      <c r="S12" s="271"/>
+      <c r="T12" s="271"/>
+      <c r="U12" s="271"/>
+      <c r="V12" s="271"/>
+      <c r="W12" s="271"/>
+      <c r="X12" s="271"/>
+      <c r="Y12" s="271"/>
+      <c r="Z12" s="271"/>
+      <c r="AA12" s="271"/>
+      <c r="AB12" s="271"/>
+      <c r="AC12" s="271"/>
+      <c r="AD12" s="271"/>
+      <c r="AE12" s="271"/>
+      <c r="AF12" s="271"/>
+      <c r="AG12" s="271"/>
+      <c r="AH12" s="271"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="252" t="s">
+      <c r="D13" s="265" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="253"/>
-      <c r="F13" s="253"/>
-      <c r="G13" s="254"/>
-      <c r="H13" s="246" t="s">
+      <c r="E13" s="266"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="267"/>
+      <c r="H13" s="271" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="246"/>
-      <c r="J13" s="246"/>
-      <c r="K13" s="246"/>
-      <c r="L13" s="246"/>
-      <c r="M13" s="246"/>
-      <c r="N13" s="246"/>
-      <c r="O13" s="246"/>
-      <c r="P13" s="246"/>
-      <c r="Q13" s="246"/>
-      <c r="R13" s="246"/>
-      <c r="S13" s="246"/>
-      <c r="T13" s="246"/>
-      <c r="U13" s="246"/>
-      <c r="V13" s="246"/>
-      <c r="W13" s="246"/>
-      <c r="X13" s="246"/>
-      <c r="Y13" s="246"/>
-      <c r="Z13" s="246"/>
-      <c r="AA13" s="246"/>
-      <c r="AB13" s="246"/>
-      <c r="AC13" s="246"/>
-      <c r="AD13" s="246"/>
-      <c r="AE13" s="246"/>
-      <c r="AF13" s="246"/>
-      <c r="AG13" s="246"/>
-      <c r="AH13" s="246"/>
+      <c r="I13" s="271"/>
+      <c r="J13" s="271"/>
+      <c r="K13" s="271"/>
+      <c r="L13" s="271"/>
+      <c r="M13" s="271"/>
+      <c r="N13" s="271"/>
+      <c r="O13" s="271"/>
+      <c r="P13" s="271"/>
+      <c r="Q13" s="271"/>
+      <c r="R13" s="271"/>
+      <c r="S13" s="271"/>
+      <c r="T13" s="271"/>
+      <c r="U13" s="271"/>
+      <c r="V13" s="271"/>
+      <c r="W13" s="271"/>
+      <c r="X13" s="271"/>
+      <c r="Y13" s="271"/>
+      <c r="Z13" s="271"/>
+      <c r="AA13" s="271"/>
+      <c r="AB13" s="271"/>
+      <c r="AC13" s="271"/>
+      <c r="AD13" s="271"/>
+      <c r="AE13" s="271"/>
+      <c r="AF13" s="271"/>
+      <c r="AG13" s="271"/>
+      <c r="AH13" s="271"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="252" t="s">
+      <c r="D14" s="265" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="253"/>
-      <c r="F14" s="253"/>
-      <c r="G14" s="254"/>
-      <c r="H14" s="246" t="s">
+      <c r="E14" s="266"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="267"/>
+      <c r="H14" s="271" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="246"/>
-      <c r="J14" s="246"/>
-      <c r="K14" s="246"/>
-      <c r="L14" s="246"/>
-      <c r="M14" s="246"/>
-      <c r="N14" s="246"/>
-      <c r="O14" s="246"/>
-      <c r="P14" s="246"/>
-      <c r="Q14" s="246"/>
-      <c r="R14" s="246"/>
-      <c r="S14" s="246"/>
-      <c r="T14" s="246"/>
-      <c r="U14" s="246"/>
-      <c r="V14" s="246"/>
-      <c r="W14" s="246"/>
-      <c r="X14" s="246"/>
-      <c r="Y14" s="246"/>
-      <c r="Z14" s="246"/>
-      <c r="AA14" s="246"/>
-      <c r="AB14" s="246"/>
-      <c r="AC14" s="246"/>
-      <c r="AD14" s="246"/>
-      <c r="AE14" s="246"/>
-      <c r="AF14" s="246"/>
-      <c r="AG14" s="246"/>
-      <c r="AH14" s="246"/>
+      <c r="I14" s="271"/>
+      <c r="J14" s="271"/>
+      <c r="K14" s="271"/>
+      <c r="L14" s="271"/>
+      <c r="M14" s="271"/>
+      <c r="N14" s="271"/>
+      <c r="O14" s="271"/>
+      <c r="P14" s="271"/>
+      <c r="Q14" s="271"/>
+      <c r="R14" s="271"/>
+      <c r="S14" s="271"/>
+      <c r="T14" s="271"/>
+      <c r="U14" s="271"/>
+      <c r="V14" s="271"/>
+      <c r="W14" s="271"/>
+      <c r="X14" s="271"/>
+      <c r="Y14" s="271"/>
+      <c r="Z14" s="271"/>
+      <c r="AA14" s="271"/>
+      <c r="AB14" s="271"/>
+      <c r="AC14" s="271"/>
+      <c r="AD14" s="271"/>
+      <c r="AE14" s="271"/>
+      <c r="AF14" s="271"/>
+      <c r="AG14" s="271"/>
+      <c r="AH14" s="271"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="252" t="s">
+      <c r="D15" s="265" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="253"/>
-      <c r="F15" s="253"/>
-      <c r="G15" s="254"/>
+      <c r="E15" s="266"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="267"/>
       <c r="H15" s="146" t="s">
         <v>118</v>
       </c>
@@ -10761,30 +10761,30 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="260"/>
-      <c r="H19" s="260"/>
-      <c r="I19" s="260"/>
-      <c r="J19" s="260"/>
-      <c r="K19" s="260"/>
-      <c r="L19" s="260"/>
-      <c r="M19" s="260"/>
-      <c r="N19" s="260"/>
-      <c r="O19" s="258"/>
-      <c r="P19" s="259"/>
-      <c r="Q19" s="259"/>
-      <c r="R19" s="259"/>
-      <c r="S19" s="259"/>
-      <c r="T19" s="259"/>
-      <c r="U19" s="259"/>
-      <c r="V19" s="259"/>
-      <c r="W19" s="259"/>
-      <c r="X19" s="259"/>
-      <c r="Y19" s="259"/>
-      <c r="Z19" s="259"/>
-      <c r="AA19" s="259"/>
-      <c r="AB19" s="259"/>
-      <c r="AC19" s="259"/>
-      <c r="AD19" s="259"/>
+      <c r="G19" s="270"/>
+      <c r="H19" s="270"/>
+      <c r="I19" s="270"/>
+      <c r="J19" s="270"/>
+      <c r="K19" s="270"/>
+      <c r="L19" s="270"/>
+      <c r="M19" s="270"/>
+      <c r="N19" s="270"/>
+      <c r="O19" s="268"/>
+      <c r="P19" s="269"/>
+      <c r="Q19" s="269"/>
+      <c r="R19" s="269"/>
+      <c r="S19" s="269"/>
+      <c r="T19" s="269"/>
+      <c r="U19" s="269"/>
+      <c r="V19" s="269"/>
+      <c r="W19" s="269"/>
+      <c r="X19" s="269"/>
+      <c r="Y19" s="269"/>
+      <c r="Z19" s="269"/>
+      <c r="AA19" s="269"/>
+      <c r="AB19" s="269"/>
+      <c r="AC19" s="269"/>
+      <c r="AD19" s="269"/>
       <c r="AE19" s="32"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
@@ -11236,15 +11236,14 @@
     <row r="34" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11261,14 +11260,15 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11297,157 +11297,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="233" t="str">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="176" t="s">
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="219" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="237" t="str">
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="173" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="247">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="272">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="249"/>
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="274"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="233" t="str">
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="241"/>
-      <c r="U2" s="241"/>
-      <c r="V2" s="241"/>
-      <c r="W2" s="241"/>
-      <c r="X2" s="241"/>
-      <c r="Y2" s="241"/>
-      <c r="Z2" s="242"/>
-      <c r="AA2" s="173" t="s">
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="247" t="str">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="249"/>
+      <c r="AH2" s="273"/>
+      <c r="AI2" s="274"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="233" t="str">
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="245"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="216"/>
+      <c r="AB3" s="218"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="247" t="str">
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="249"/>
+      <c r="AH3" s="273"/>
+      <c r="AI3" s="274"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" ht="12" customHeight="1">
@@ -11458,17 +11458,11 @@
     <row r="6" spans="1:35" ht="12" customHeight="1"/>
     <row r="14" spans="1:35">
       <c r="I14" s="91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11480,6 +11474,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11499,8 +11499,8 @@
   </sheetPr>
   <dimension ref="A1:AL91"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="BB17" sqref="BB17"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T51" sqref="T51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
@@ -11509,163 +11509,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="175"/>
-      <c r="E1" s="233" t="str">
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="218"/>
+      <c r="E1" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
-      <c r="K1" s="168"/>
-      <c r="L1" s="168"/>
-      <c r="M1" s="168"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="176" t="s">
+      <c r="F1" s="211"/>
+      <c r="G1" s="211"/>
+      <c r="H1" s="211"/>
+      <c r="I1" s="211"/>
+      <c r="J1" s="211"/>
+      <c r="K1" s="211"/>
+      <c r="L1" s="211"/>
+      <c r="M1" s="211"/>
+      <c r="N1" s="212"/>
+      <c r="O1" s="219" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="177"/>
-      <c r="Q1" s="177"/>
-      <c r="R1" s="178"/>
-      <c r="S1" s="237" t="str">
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="221"/>
+      <c r="S1" s="241" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="238"/>
-      <c r="U1" s="238"/>
-      <c r="V1" s="238"/>
-      <c r="W1" s="238"/>
-      <c r="X1" s="238"/>
-      <c r="Y1" s="238"/>
-      <c r="Z1" s="239"/>
-      <c r="AA1" s="173" t="s">
+      <c r="T1" s="242"/>
+      <c r="U1" s="242"/>
+      <c r="V1" s="242"/>
+      <c r="W1" s="242"/>
+      <c r="X1" s="242"/>
+      <c r="Y1" s="242"/>
+      <c r="Z1" s="243"/>
+      <c r="AA1" s="216" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="175"/>
-      <c r="AC1" s="159" t="str">
+      <c r="AB1" s="218"/>
+      <c r="AC1" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="157"/>
-      <c r="AE1" s="157"/>
-      <c r="AF1" s="158"/>
-      <c r="AG1" s="247">
+      <c r="AD1" s="200"/>
+      <c r="AE1" s="200"/>
+      <c r="AF1" s="201"/>
+      <c r="AG1" s="272">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="248"/>
-      <c r="AI1" s="249"/>
+      <c r="AH1" s="273"/>
+      <c r="AI1" s="274"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="216" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="175"/>
-      <c r="E2" s="233" t="str">
+      <c r="B2" s="217"/>
+      <c r="C2" s="217"/>
+      <c r="D2" s="218"/>
+      <c r="E2" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="168"/>
-      <c r="G2" s="168"/>
-      <c r="H2" s="168"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="168"/>
-      <c r="K2" s="168"/>
-      <c r="L2" s="168"/>
-      <c r="M2" s="168"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="180"/>
-      <c r="Q2" s="180"/>
-      <c r="R2" s="181"/>
-      <c r="S2" s="240"/>
-      <c r="T2" s="241"/>
-      <c r="U2" s="241"/>
-      <c r="V2" s="241"/>
-      <c r="W2" s="241"/>
-      <c r="X2" s="241"/>
-      <c r="Y2" s="241"/>
-      <c r="Z2" s="242"/>
-      <c r="AA2" s="173" t="s">
+      <c r="F2" s="211"/>
+      <c r="G2" s="211"/>
+      <c r="H2" s="211"/>
+      <c r="I2" s="211"/>
+      <c r="J2" s="211"/>
+      <c r="K2" s="211"/>
+      <c r="L2" s="211"/>
+      <c r="M2" s="211"/>
+      <c r="N2" s="212"/>
+      <c r="O2" s="222"/>
+      <c r="P2" s="223"/>
+      <c r="Q2" s="223"/>
+      <c r="R2" s="224"/>
+      <c r="S2" s="244"/>
+      <c r="T2" s="245"/>
+      <c r="U2" s="245"/>
+      <c r="V2" s="245"/>
+      <c r="W2" s="245"/>
+      <c r="X2" s="245"/>
+      <c r="Y2" s="245"/>
+      <c r="Z2" s="246"/>
+      <c r="AA2" s="216" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="175"/>
-      <c r="AC2" s="159" t="str">
+      <c r="AB2" s="218"/>
+      <c r="AC2" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="157"/>
-      <c r="AE2" s="157"/>
-      <c r="AF2" s="158"/>
-      <c r="AG2" s="247" t="str">
+      <c r="AD2" s="200"/>
+      <c r="AE2" s="200"/>
+      <c r="AF2" s="201"/>
+      <c r="AG2" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="248"/>
-      <c r="AI2" s="249"/>
+      <c r="AH2" s="273"/>
+      <c r="AI2" s="274"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="174"/>
-      <c r="C3" s="174"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="233" t="str">
+      <c r="B3" s="217"/>
+      <c r="C3" s="217"/>
+      <c r="D3" s="218"/>
+      <c r="E3" s="240" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="182"/>
-      <c r="P3" s="183"/>
-      <c r="Q3" s="183"/>
-      <c r="R3" s="184"/>
-      <c r="S3" s="243"/>
-      <c r="T3" s="244"/>
-      <c r="U3" s="244"/>
-      <c r="V3" s="244"/>
-      <c r="W3" s="244"/>
-      <c r="X3" s="244"/>
-      <c r="Y3" s="244"/>
-      <c r="Z3" s="245"/>
-      <c r="AA3" s="173"/>
-      <c r="AB3" s="175"/>
-      <c r="AC3" s="159" t="str">
+      <c r="F3" s="211"/>
+      <c r="G3" s="211"/>
+      <c r="H3" s="211"/>
+      <c r="I3" s="211"/>
+      <c r="J3" s="211"/>
+      <c r="K3" s="211"/>
+      <c r="L3" s="211"/>
+      <c r="M3" s="211"/>
+      <c r="N3" s="212"/>
+      <c r="O3" s="225"/>
+      <c r="P3" s="226"/>
+      <c r="Q3" s="226"/>
+      <c r="R3" s="227"/>
+      <c r="S3" s="247"/>
+      <c r="T3" s="248"/>
+      <c r="U3" s="248"/>
+      <c r="V3" s="248"/>
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="248"/>
+      <c r="Z3" s="249"/>
+      <c r="AA3" s="216"/>
+      <c r="AB3" s="218"/>
+      <c r="AC3" s="202" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="247" t="str">
+      <c r="AD3" s="200"/>
+      <c r="AE3" s="200"/>
+      <c r="AF3" s="201"/>
+      <c r="AG3" s="272" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="248"/>
-      <c r="AI3" s="249"/>
+      <c r="AH3" s="273"/>
+      <c r="AI3" s="274"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11783,65 +11783,65 @@
     <row r="8" spans="1:38">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="280" t="s">
+      <c r="D8" s="350" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="282" t="s">
+      <c r="E8" s="352" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="283"/>
-      <c r="G8" s="283"/>
-      <c r="H8" s="283"/>
-      <c r="I8" s="283"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="288" t="s">
+      <c r="F8" s="353"/>
+      <c r="G8" s="353"/>
+      <c r="H8" s="353"/>
+      <c r="I8" s="353"/>
+      <c r="J8" s="354"/>
+      <c r="K8" s="358" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="283"/>
-      <c r="M8" s="283"/>
-      <c r="N8" s="284"/>
-      <c r="O8" s="289" t="s">
+      <c r="L8" s="353"/>
+      <c r="M8" s="353"/>
+      <c r="N8" s="354"/>
+      <c r="O8" s="359" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="294" t="s">
+      <c r="P8" s="364" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="295"/>
-      <c r="R8" s="295"/>
-      <c r="S8" s="295"/>
-      <c r="T8" s="295"/>
-      <c r="U8" s="296"/>
-      <c r="V8" s="291" t="s">
+      <c r="Q8" s="365"/>
+      <c r="R8" s="365"/>
+      <c r="S8" s="365"/>
+      <c r="T8" s="365"/>
+      <c r="U8" s="366"/>
+      <c r="V8" s="361" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="291"/>
-      <c r="X8" s="291"/>
-      <c r="Y8" s="291"/>
-      <c r="Z8" s="291"/>
-      <c r="AA8" s="291"/>
-      <c r="AB8" s="291"/>
-      <c r="AC8" s="291"/>
-      <c r="AD8" s="291"/>
-      <c r="AE8" s="291"/>
-      <c r="AF8" s="291"/>
-      <c r="AG8" s="291"/>
-      <c r="AH8" s="291"/>
+      <c r="W8" s="361"/>
+      <c r="X8" s="361"/>
+      <c r="Y8" s="361"/>
+      <c r="Z8" s="361"/>
+      <c r="AA8" s="361"/>
+      <c r="AB8" s="361"/>
+      <c r="AC8" s="361"/>
+      <c r="AD8" s="361"/>
+      <c r="AE8" s="361"/>
+      <c r="AF8" s="361"/>
+      <c r="AG8" s="361"/>
+      <c r="AH8" s="361"/>
     </row>
     <row r="9" spans="1:38">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="281"/>
-      <c r="E9" s="285"/>
-      <c r="F9" s="286"/>
-      <c r="G9" s="286"/>
-      <c r="H9" s="286"/>
-      <c r="I9" s="286"/>
-      <c r="J9" s="287"/>
-      <c r="K9" s="285"/>
-      <c r="L9" s="286"/>
-      <c r="M9" s="286"/>
-      <c r="N9" s="287"/>
-      <c r="O9" s="290"/>
+      <c r="D9" s="351"/>
+      <c r="E9" s="355"/>
+      <c r="F9" s="356"/>
+      <c r="G9" s="356"/>
+      <c r="H9" s="356"/>
+      <c r="I9" s="356"/>
+      <c r="J9" s="357"/>
+      <c r="K9" s="355"/>
+      <c r="L9" s="356"/>
+      <c r="M9" s="356"/>
+      <c r="N9" s="357"/>
+      <c r="O9" s="360"/>
       <c r="P9" s="90" t="s">
         <v>46</v>
       </c>
@@ -11854,23 +11854,23 @@
       <c r="S9" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="292" t="s">
+      <c r="T9" s="362" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="293"/>
-      <c r="V9" s="291"/>
-      <c r="W9" s="291"/>
-      <c r="X9" s="291"/>
-      <c r="Y9" s="291"/>
-      <c r="Z9" s="291"/>
-      <c r="AA9" s="291"/>
-      <c r="AB9" s="291"/>
-      <c r="AC9" s="291"/>
-      <c r="AD9" s="291"/>
-      <c r="AE9" s="291"/>
-      <c r="AF9" s="291"/>
-      <c r="AG9" s="291"/>
-      <c r="AH9" s="291"/>
+      <c r="U9" s="363"/>
+      <c r="V9" s="361"/>
+      <c r="W9" s="361"/>
+      <c r="X9" s="361"/>
+      <c r="Y9" s="361"/>
+      <c r="Z9" s="361"/>
+      <c r="AA9" s="361"/>
+      <c r="AB9" s="361"/>
+      <c r="AC9" s="361"/>
+      <c r="AD9" s="361"/>
+      <c r="AE9" s="361"/>
+      <c r="AF9" s="361"/>
+      <c r="AG9" s="361"/>
+      <c r="AH9" s="361"/>
     </row>
     <row r="10" spans="1:38">
       <c r="B10" s="30"/>
@@ -11878,20 +11878,20 @@
       <c r="D10" s="114">
         <v>1</v>
       </c>
-      <c r="E10" s="269" t="s">
+      <c r="E10" s="289" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="203" t="s">
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="183"/>
+      <c r="K10" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="205"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="182"/>
+      <c r="N10" s="183"/>
       <c r="O10" s="115" t="s">
         <v>76</v>
       </c>
@@ -11907,23 +11907,23 @@
       <c r="S10" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T10" s="264" t="s">
+      <c r="T10" s="291" t="s">
         <v>79</v>
       </c>
-      <c r="U10" s="265"/>
-      <c r="V10" s="203"/>
-      <c r="W10" s="204"/>
-      <c r="X10" s="204"/>
-      <c r="Y10" s="204"/>
-      <c r="Z10" s="204"/>
-      <c r="AA10" s="204"/>
-      <c r="AB10" s="204"/>
-      <c r="AC10" s="204"/>
-      <c r="AD10" s="204"/>
-      <c r="AE10" s="204"/>
-      <c r="AF10" s="204"/>
-      <c r="AG10" s="204"/>
-      <c r="AH10" s="205"/>
+      <c r="U10" s="292"/>
+      <c r="V10" s="181"/>
+      <c r="W10" s="182"/>
+      <c r="X10" s="182"/>
+      <c r="Y10" s="182"/>
+      <c r="Z10" s="182"/>
+      <c r="AA10" s="182"/>
+      <c r="AB10" s="182"/>
+      <c r="AC10" s="182"/>
+      <c r="AD10" s="182"/>
+      <c r="AE10" s="182"/>
+      <c r="AF10" s="182"/>
+      <c r="AG10" s="182"/>
+      <c r="AH10" s="183"/>
     </row>
     <row r="11" spans="1:38">
       <c r="B11" s="30"/>
@@ -11931,20 +11931,20 @@
       <c r="D11" s="114">
         <v>2</v>
       </c>
-      <c r="E11" s="269" t="s">
+      <c r="E11" s="289" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="203" t="s">
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="183"/>
+      <c r="K11" s="181" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="205"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="182"/>
+      <c r="N11" s="183"/>
       <c r="O11" s="116" t="s">
         <v>76</v>
       </c>
@@ -11960,23 +11960,23 @@
       <c r="S11" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T11" s="264" t="s">
+      <c r="T11" s="291" t="s">
         <v>79</v>
       </c>
-      <c r="U11" s="265"/>
-      <c r="V11" s="203"/>
-      <c r="W11" s="204"/>
-      <c r="X11" s="204"/>
-      <c r="Y11" s="204"/>
-      <c r="Z11" s="204"/>
-      <c r="AA11" s="204"/>
-      <c r="AB11" s="204"/>
-      <c r="AC11" s="204"/>
-      <c r="AD11" s="204"/>
-      <c r="AE11" s="204"/>
-      <c r="AF11" s="204"/>
-      <c r="AG11" s="204"/>
-      <c r="AH11" s="205"/>
+      <c r="U11" s="292"/>
+      <c r="V11" s="181"/>
+      <c r="W11" s="182"/>
+      <c r="X11" s="182"/>
+      <c r="Y11" s="182"/>
+      <c r="Z11" s="182"/>
+      <c r="AA11" s="182"/>
+      <c r="AB11" s="182"/>
+      <c r="AC11" s="182"/>
+      <c r="AD11" s="182"/>
+      <c r="AE11" s="182"/>
+      <c r="AF11" s="182"/>
+      <c r="AG11" s="182"/>
+      <c r="AH11" s="183"/>
     </row>
     <row r="12" spans="1:38">
       <c r="B12" s="30"/>
@@ -11984,20 +11984,20 @@
       <c r="D12" s="114">
         <v>3</v>
       </c>
-      <c r="E12" s="269" t="s">
+      <c r="E12" s="289" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="204"/>
-      <c r="G12" s="204"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="203" t="s">
+      <c r="F12" s="182"/>
+      <c r="G12" s="182"/>
+      <c r="H12" s="182"/>
+      <c r="I12" s="182"/>
+      <c r="J12" s="183"/>
+      <c r="K12" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="204"/>
-      <c r="M12" s="204"/>
-      <c r="N12" s="205"/>
+      <c r="L12" s="182"/>
+      <c r="M12" s="182"/>
+      <c r="N12" s="183"/>
       <c r="O12" s="116" t="s">
         <v>77</v>
       </c>
@@ -12013,23 +12013,23 @@
       <c r="S12" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T12" s="264" t="s">
+      <c r="T12" s="291" t="s">
         <v>79</v>
       </c>
-      <c r="U12" s="265"/>
-      <c r="V12" s="203"/>
-      <c r="W12" s="204"/>
-      <c r="X12" s="204"/>
-      <c r="Y12" s="204"/>
-      <c r="Z12" s="204"/>
-      <c r="AA12" s="204"/>
-      <c r="AB12" s="204"/>
-      <c r="AC12" s="204"/>
-      <c r="AD12" s="204"/>
-      <c r="AE12" s="204"/>
-      <c r="AF12" s="204"/>
-      <c r="AG12" s="204"/>
-      <c r="AH12" s="205"/>
+      <c r="U12" s="292"/>
+      <c r="V12" s="181"/>
+      <c r="W12" s="182"/>
+      <c r="X12" s="182"/>
+      <c r="Y12" s="182"/>
+      <c r="Z12" s="182"/>
+      <c r="AA12" s="182"/>
+      <c r="AB12" s="182"/>
+      <c r="AC12" s="182"/>
+      <c r="AD12" s="182"/>
+      <c r="AE12" s="182"/>
+      <c r="AF12" s="182"/>
+      <c r="AG12" s="182"/>
+      <c r="AH12" s="183"/>
     </row>
     <row r="13" spans="1:38">
       <c r="B13" s="30"/>
@@ -12179,40 +12179,40 @@
       <c r="D17" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="297" t="s">
+      <c r="E17" s="320" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="298"/>
-      <c r="G17" s="299"/>
-      <c r="H17" s="266" t="s">
+      <c r="F17" s="321"/>
+      <c r="G17" s="322"/>
+      <c r="H17" s="379" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="267"/>
-      <c r="J17" s="267"/>
-      <c r="K17" s="267"/>
-      <c r="L17" s="267"/>
-      <c r="M17" s="267"/>
-      <c r="N17" s="267"/>
-      <c r="O17" s="267"/>
-      <c r="P17" s="267"/>
-      <c r="Q17" s="267"/>
-      <c r="R17" s="267"/>
-      <c r="S17" s="267"/>
-      <c r="T17" s="267"/>
-      <c r="U17" s="267"/>
-      <c r="V17" s="267"/>
-      <c r="W17" s="267"/>
-      <c r="X17" s="267"/>
-      <c r="Y17" s="267"/>
-      <c r="Z17" s="267"/>
-      <c r="AA17" s="267"/>
-      <c r="AB17" s="267"/>
-      <c r="AC17" s="267"/>
-      <c r="AD17" s="267"/>
-      <c r="AE17" s="267"/>
-      <c r="AF17" s="267"/>
-      <c r="AG17" s="267"/>
-      <c r="AH17" s="268"/>
+      <c r="I17" s="380"/>
+      <c r="J17" s="380"/>
+      <c r="K17" s="380"/>
+      <c r="L17" s="380"/>
+      <c r="M17" s="380"/>
+      <c r="N17" s="380"/>
+      <c r="O17" s="380"/>
+      <c r="P17" s="380"/>
+      <c r="Q17" s="380"/>
+      <c r="R17" s="380"/>
+      <c r="S17" s="380"/>
+      <c r="T17" s="380"/>
+      <c r="U17" s="380"/>
+      <c r="V17" s="380"/>
+      <c r="W17" s="380"/>
+      <c r="X17" s="380"/>
+      <c r="Y17" s="380"/>
+      <c r="Z17" s="380"/>
+      <c r="AA17" s="380"/>
+      <c r="AB17" s="380"/>
+      <c r="AC17" s="380"/>
+      <c r="AD17" s="380"/>
+      <c r="AE17" s="380"/>
+      <c r="AF17" s="380"/>
+      <c r="AG17" s="380"/>
+      <c r="AH17" s="381"/>
     </row>
     <row r="18" spans="1:35" s="88" customFormat="1" ht="24" customHeight="1">
       <c r="B18" s="30"/>
@@ -12220,40 +12220,40 @@
       <c r="D18" s="114">
         <v>1</v>
       </c>
-      <c r="E18" s="269" t="s">
+      <c r="E18" s="289" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="204"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="269" t="s">
+      <c r="F18" s="182"/>
+      <c r="G18" s="183"/>
+      <c r="H18" s="289" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="204"/>
-      <c r="J18" s="204"/>
-      <c r="K18" s="204"/>
-      <c r="L18" s="204"/>
-      <c r="M18" s="204"/>
-      <c r="N18" s="204"/>
-      <c r="O18" s="204"/>
-      <c r="P18" s="204"/>
-      <c r="Q18" s="204"/>
-      <c r="R18" s="204"/>
-      <c r="S18" s="204"/>
-      <c r="T18" s="204"/>
-      <c r="U18" s="204"/>
-      <c r="V18" s="204"/>
-      <c r="W18" s="204"/>
-      <c r="X18" s="204"/>
-      <c r="Y18" s="204"/>
-      <c r="Z18" s="204"/>
-      <c r="AA18" s="204"/>
-      <c r="AB18" s="204"/>
-      <c r="AC18" s="204"/>
-      <c r="AD18" s="204"/>
-      <c r="AE18" s="204"/>
-      <c r="AF18" s="204"/>
-      <c r="AG18" s="204"/>
-      <c r="AH18" s="205"/>
+      <c r="I18" s="182"/>
+      <c r="J18" s="182"/>
+      <c r="K18" s="182"/>
+      <c r="L18" s="182"/>
+      <c r="M18" s="182"/>
+      <c r="N18" s="182"/>
+      <c r="O18" s="182"/>
+      <c r="P18" s="182"/>
+      <c r="Q18" s="182"/>
+      <c r="R18" s="182"/>
+      <c r="S18" s="182"/>
+      <c r="T18" s="182"/>
+      <c r="U18" s="182"/>
+      <c r="V18" s="182"/>
+      <c r="W18" s="182"/>
+      <c r="X18" s="182"/>
+      <c r="Y18" s="182"/>
+      <c r="Z18" s="182"/>
+      <c r="AA18" s="182"/>
+      <c r="AB18" s="182"/>
+      <c r="AC18" s="182"/>
+      <c r="AD18" s="182"/>
+      <c r="AE18" s="182"/>
+      <c r="AF18" s="182"/>
+      <c r="AG18" s="182"/>
+      <c r="AH18" s="183"/>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
       <c r="B19" s="1"/>
@@ -12261,40 +12261,40 @@
       <c r="D19" s="114">
         <v>2</v>
       </c>
-      <c r="E19" s="269" t="s">
+      <c r="E19" s="289" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="204"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="269" t="s">
+      <c r="F19" s="182"/>
+      <c r="G19" s="183"/>
+      <c r="H19" s="289" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="204"/>
-      <c r="J19" s="204"/>
-      <c r="K19" s="204"/>
-      <c r="L19" s="204"/>
-      <c r="M19" s="204"/>
-      <c r="N19" s="204"/>
-      <c r="O19" s="204"/>
-      <c r="P19" s="204"/>
-      <c r="Q19" s="204"/>
-      <c r="R19" s="204"/>
-      <c r="S19" s="204"/>
-      <c r="T19" s="204"/>
-      <c r="U19" s="204"/>
-      <c r="V19" s="204"/>
-      <c r="W19" s="204"/>
-      <c r="X19" s="204"/>
-      <c r="Y19" s="204"/>
-      <c r="Z19" s="204"/>
-      <c r="AA19" s="204"/>
-      <c r="AB19" s="204"/>
-      <c r="AC19" s="204"/>
-      <c r="AD19" s="204"/>
-      <c r="AE19" s="204"/>
-      <c r="AF19" s="204"/>
-      <c r="AG19" s="204"/>
-      <c r="AH19" s="205"/>
+      <c r="I19" s="182"/>
+      <c r="J19" s="182"/>
+      <c r="K19" s="182"/>
+      <c r="L19" s="182"/>
+      <c r="M19" s="182"/>
+      <c r="N19" s="182"/>
+      <c r="O19" s="182"/>
+      <c r="P19" s="182"/>
+      <c r="Q19" s="182"/>
+      <c r="R19" s="182"/>
+      <c r="S19" s="182"/>
+      <c r="T19" s="182"/>
+      <c r="U19" s="182"/>
+      <c r="V19" s="182"/>
+      <c r="W19" s="182"/>
+      <c r="X19" s="182"/>
+      <c r="Y19" s="182"/>
+      <c r="Z19" s="182"/>
+      <c r="AA19" s="182"/>
+      <c r="AB19" s="182"/>
+      <c r="AC19" s="182"/>
+      <c r="AD19" s="182"/>
+      <c r="AE19" s="182"/>
+      <c r="AF19" s="182"/>
+      <c r="AG19" s="182"/>
+      <c r="AH19" s="183"/>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
       <c r="B20" s="1"/>
@@ -12302,40 +12302,40 @@
       <c r="D20" s="114">
         <v>3</v>
       </c>
-      <c r="E20" s="269" t="s">
+      <c r="E20" s="289" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="204"/>
-      <c r="G20" s="205"/>
-      <c r="H20" s="269" t="s">
+      <c r="F20" s="182"/>
+      <c r="G20" s="183"/>
+      <c r="H20" s="289" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="204"/>
-      <c r="J20" s="204"/>
-      <c r="K20" s="204"/>
-      <c r="L20" s="204"/>
-      <c r="M20" s="204"/>
-      <c r="N20" s="204"/>
-      <c r="O20" s="204"/>
-      <c r="P20" s="204"/>
-      <c r="Q20" s="204"/>
-      <c r="R20" s="204"/>
-      <c r="S20" s="204"/>
-      <c r="T20" s="204"/>
-      <c r="U20" s="204"/>
-      <c r="V20" s="204"/>
-      <c r="W20" s="204"/>
-      <c r="X20" s="204"/>
-      <c r="Y20" s="204"/>
-      <c r="Z20" s="204"/>
-      <c r="AA20" s="204"/>
-      <c r="AB20" s="204"/>
-      <c r="AC20" s="204"/>
-      <c r="AD20" s="204"/>
-      <c r="AE20" s="204"/>
-      <c r="AF20" s="204"/>
-      <c r="AG20" s="204"/>
-      <c r="AH20" s="205"/>
+      <c r="I20" s="182"/>
+      <c r="J20" s="182"/>
+      <c r="K20" s="182"/>
+      <c r="L20" s="182"/>
+      <c r="M20" s="182"/>
+      <c r="N20" s="182"/>
+      <c r="O20" s="182"/>
+      <c r="P20" s="182"/>
+      <c r="Q20" s="182"/>
+      <c r="R20" s="182"/>
+      <c r="S20" s="182"/>
+      <c r="T20" s="182"/>
+      <c r="U20" s="182"/>
+      <c r="V20" s="182"/>
+      <c r="W20" s="182"/>
+      <c r="X20" s="182"/>
+      <c r="Y20" s="182"/>
+      <c r="Z20" s="182"/>
+      <c r="AA20" s="182"/>
+      <c r="AB20" s="182"/>
+      <c r="AC20" s="182"/>
+      <c r="AD20" s="182"/>
+      <c r="AE20" s="182"/>
+      <c r="AF20" s="182"/>
+      <c r="AG20" s="182"/>
+      <c r="AH20" s="183"/>
     </row>
     <row r="21" spans="1:35">
       <c r="B21" s="87"/>
@@ -12519,42 +12519,42 @@
     <row r="26" spans="1:35">
       <c r="B26" s="87"/>
       <c r="C26" s="93"/>
-      <c r="E26" s="377" t="s">
+      <c r="E26" s="165" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="F26" s="378" t="s">
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="168"/>
+      <c r="L26" s="166" t="s">
         <v>157</v>
       </c>
-      <c r="G26" s="379"/>
-      <c r="H26" s="379"/>
-      <c r="I26" s="379"/>
-      <c r="J26" s="379"/>
-      <c r="K26" s="380"/>
-      <c r="L26" s="378" t="s">
+      <c r="M26" s="167"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="167"/>
+      <c r="S26" s="167"/>
+      <c r="T26" s="167"/>
+      <c r="U26" s="168"/>
+      <c r="V26" s="166" t="s">
         <v>158</v>
       </c>
-      <c r="M26" s="379"/>
-      <c r="N26" s="379"/>
-      <c r="O26" s="379"/>
-      <c r="P26" s="379"/>
-      <c r="Q26" s="379"/>
-      <c r="R26" s="379"/>
-      <c r="S26" s="379"/>
-      <c r="T26" s="379"/>
-      <c r="U26" s="380"/>
-      <c r="V26" s="378" t="s">
+      <c r="W26" s="166" t="s">
         <v>159</v>
       </c>
-      <c r="W26" s="378" t="s">
-        <v>160</v>
-      </c>
-      <c r="X26" s="379"/>
-      <c r="Y26" s="379"/>
-      <c r="Z26" s="379"/>
-      <c r="AA26" s="379"/>
-      <c r="AB26" s="381"/>
-      <c r="AC26" s="381"/>
-      <c r="AD26" s="382"/>
+      <c r="X26" s="167"/>
+      <c r="Y26" s="167"/>
+      <c r="Z26" s="167"/>
+      <c r="AA26" s="167"/>
+      <c r="AB26" s="169"/>
+      <c r="AC26" s="169"/>
+      <c r="AD26" s="170"/>
       <c r="AG26" s="124"/>
       <c r="AH26" s="125"/>
     </row>
@@ -12563,40 +12563,40 @@
       <c r="B27" s="87"/>
       <c r="C27" s="93"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="367">
+      <c r="E27" s="155">
         <v>1</v>
       </c>
-      <c r="F27" s="369" t="s">
+      <c r="F27" s="157" t="s">
+        <v>160</v>
+      </c>
+      <c r="G27" s="158"/>
+      <c r="H27" s="158"/>
+      <c r="I27" s="158"/>
+      <c r="J27" s="158"/>
+      <c r="K27" s="159"/>
+      <c r="L27" s="157" t="s">
         <v>161</v>
       </c>
-      <c r="G27" s="370"/>
-      <c r="H27" s="370"/>
-      <c r="I27" s="370"/>
-      <c r="J27" s="370"/>
-      <c r="K27" s="371"/>
-      <c r="L27" s="369" t="s">
-        <v>162</v>
-      </c>
-      <c r="M27" s="370"/>
-      <c r="N27" s="370"/>
-      <c r="O27" s="370"/>
-      <c r="P27" s="370"/>
-      <c r="Q27" s="370"/>
-      <c r="R27" s="370"/>
-      <c r="S27" s="370"/>
-      <c r="T27" s="370"/>
-      <c r="U27" s="371"/>
-      <c r="V27" s="369"/>
-      <c r="W27" s="372" t="s">
-        <v>165</v>
-      </c>
-      <c r="X27" s="373"/>
-      <c r="Y27" s="373"/>
-      <c r="Z27" s="373"/>
-      <c r="AA27" s="373"/>
-      <c r="AB27" s="373"/>
-      <c r="AC27" s="375"/>
-      <c r="AD27" s="376"/>
+      <c r="M27" s="158"/>
+      <c r="N27" s="158"/>
+      <c r="O27" s="158"/>
+      <c r="P27" s="158"/>
+      <c r="Q27" s="158"/>
+      <c r="R27" s="158"/>
+      <c r="S27" s="158"/>
+      <c r="T27" s="158"/>
+      <c r="U27" s="159"/>
+      <c r="V27" s="157"/>
+      <c r="W27" s="160" t="s">
+        <v>164</v>
+      </c>
+      <c r="X27" s="161"/>
+      <c r="Y27" s="161"/>
+      <c r="Z27" s="161"/>
+      <c r="AA27" s="161"/>
+      <c r="AB27" s="161"/>
+      <c r="AC27" s="163"/>
+      <c r="AD27" s="164"/>
       <c r="AG27" s="124"/>
       <c r="AH27" s="125"/>
     </row>
@@ -12605,40 +12605,40 @@
       <c r="B28" s="1"/>
       <c r="C28" s="153"/>
       <c r="D28" s="124"/>
-      <c r="E28" s="368">
+      <c r="E28" s="156">
         <v>2</v>
       </c>
-      <c r="F28" s="372" t="s">
+      <c r="F28" s="160" t="s">
+        <v>162</v>
+      </c>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="162"/>
+      <c r="L28" s="160" t="s">
         <v>163</v>
       </c>
-      <c r="G28" s="373"/>
-      <c r="H28" s="373"/>
-      <c r="I28" s="373"/>
-      <c r="J28" s="373"/>
-      <c r="K28" s="374"/>
-      <c r="L28" s="372" t="s">
-        <v>164</v>
-      </c>
-      <c r="M28" s="373"/>
+      <c r="M28" s="161"/>
       <c r="N28" s="154"/>
-      <c r="O28" s="373"/>
-      <c r="P28" s="373"/>
-      <c r="Q28" s="373"/>
-      <c r="R28" s="373"/>
-      <c r="S28" s="373"/>
-      <c r="T28" s="373"/>
-      <c r="U28" s="374"/>
-      <c r="V28" s="372"/>
-      <c r="W28" s="372" t="s">
-        <v>164</v>
-      </c>
-      <c r="X28" s="373"/>
-      <c r="Y28" s="373"/>
-      <c r="Z28" s="373"/>
-      <c r="AA28" s="373"/>
-      <c r="AB28" s="373"/>
-      <c r="AC28" s="375"/>
-      <c r="AD28" s="376"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="161"/>
+      <c r="R28" s="161"/>
+      <c r="S28" s="161"/>
+      <c r="T28" s="161"/>
+      <c r="U28" s="162"/>
+      <c r="V28" s="160"/>
+      <c r="W28" s="160" t="s">
+        <v>163</v>
+      </c>
+      <c r="X28" s="161"/>
+      <c r="Y28" s="161"/>
+      <c r="Z28" s="161"/>
+      <c r="AA28" s="161"/>
+      <c r="AB28" s="161"/>
+      <c r="AC28" s="163"/>
+      <c r="AD28" s="164"/>
       <c r="AG28" s="124"/>
       <c r="AH28" s="125"/>
     </row>
@@ -12846,43 +12846,43 @@
       <c r="E36" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="320" t="s">
+      <c r="F36" s="340" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="321"/>
-      <c r="H36" s="321"/>
-      <c r="I36" s="321"/>
-      <c r="J36" s="321"/>
-      <c r="K36" s="322"/>
-      <c r="L36" s="323" t="s">
+      <c r="G36" s="341"/>
+      <c r="H36" s="341"/>
+      <c r="I36" s="341"/>
+      <c r="J36" s="341"/>
+      <c r="K36" s="342"/>
+      <c r="L36" s="343" t="s">
         <v>88</v>
       </c>
-      <c r="M36" s="321"/>
-      <c r="N36" s="321"/>
-      <c r="O36" s="321"/>
-      <c r="P36" s="321"/>
-      <c r="Q36" s="321"/>
-      <c r="R36" s="321"/>
-      <c r="S36" s="321"/>
-      <c r="T36" s="321"/>
-      <c r="U36" s="322"/>
-      <c r="V36" s="324" t="s">
+      <c r="M36" s="341"/>
+      <c r="N36" s="341"/>
+      <c r="O36" s="341"/>
+      <c r="P36" s="341"/>
+      <c r="Q36" s="341"/>
+      <c r="R36" s="341"/>
+      <c r="S36" s="341"/>
+      <c r="T36" s="341"/>
+      <c r="U36" s="342"/>
+      <c r="V36" s="344" t="s">
         <v>89</v>
       </c>
-      <c r="W36" s="325"/>
-      <c r="X36" s="326"/>
-      <c r="Y36" s="324" t="s">
+      <c r="W36" s="345"/>
+      <c r="X36" s="346"/>
+      <c r="Y36" s="344" t="s">
         <v>90</v>
       </c>
-      <c r="Z36" s="325"/>
-      <c r="AA36" s="325"/>
-      <c r="AB36" s="326"/>
-      <c r="AC36" s="327" t="s">
+      <c r="Z36" s="345"/>
+      <c r="AA36" s="345"/>
+      <c r="AB36" s="346"/>
+      <c r="AC36" s="347" t="s">
         <v>91</v>
       </c>
-      <c r="AD36" s="328"/>
-      <c r="AE36" s="328"/>
-      <c r="AF36" s="329"/>
+      <c r="AD36" s="348"/>
+      <c r="AE36" s="348"/>
+      <c r="AF36" s="349"/>
       <c r="AG36" s="48"/>
       <c r="AH36" s="48"/>
       <c r="AI36" s="48"/>
@@ -12895,43 +12895,43 @@
       <c r="E37" s="129">
         <v>1</v>
       </c>
-      <c r="F37" s="361" t="s">
+      <c r="F37" s="317" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="312"/>
-      <c r="H37" s="312"/>
-      <c r="I37" s="312"/>
-      <c r="J37" s="312"/>
-      <c r="K37" s="313"/>
-      <c r="L37" s="311" t="s">
+      <c r="G37" s="318"/>
+      <c r="H37" s="318"/>
+      <c r="I37" s="318"/>
+      <c r="J37" s="318"/>
+      <c r="K37" s="319"/>
+      <c r="L37" s="280" t="s">
         <v>93</v>
       </c>
-      <c r="M37" s="312"/>
-      <c r="N37" s="312"/>
-      <c r="O37" s="312"/>
-      <c r="P37" s="312"/>
-      <c r="Q37" s="312"/>
-      <c r="R37" s="312"/>
-      <c r="S37" s="312"/>
-      <c r="T37" s="312"/>
-      <c r="U37" s="313"/>
-      <c r="V37" s="314" t="s">
+      <c r="M37" s="318"/>
+      <c r="N37" s="318"/>
+      <c r="O37" s="318"/>
+      <c r="P37" s="318"/>
+      <c r="Q37" s="318"/>
+      <c r="R37" s="318"/>
+      <c r="S37" s="318"/>
+      <c r="T37" s="318"/>
+      <c r="U37" s="319"/>
+      <c r="V37" s="334" t="s">
         <v>94</v>
       </c>
-      <c r="W37" s="315"/>
-      <c r="X37" s="316"/>
-      <c r="Y37" s="308" t="s">
+      <c r="W37" s="335"/>
+      <c r="X37" s="336"/>
+      <c r="Y37" s="331" t="s">
         <v>95</v>
       </c>
-      <c r="Z37" s="309"/>
-      <c r="AA37" s="309"/>
-      <c r="AB37" s="310"/>
-      <c r="AC37" s="311" t="s">
+      <c r="Z37" s="332"/>
+      <c r="AA37" s="332"/>
+      <c r="AB37" s="333"/>
+      <c r="AC37" s="280" t="s">
         <v>126</v>
       </c>
-      <c r="AD37" s="312"/>
-      <c r="AE37" s="312"/>
-      <c r="AF37" s="313"/>
+      <c r="AD37" s="318"/>
+      <c r="AE37" s="318"/>
+      <c r="AF37" s="319"/>
       <c r="AG37" s="48"/>
       <c r="AH37" s="48"/>
       <c r="AI37" s="48"/>
@@ -13017,80 +13017,80 @@
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
       <c r="D40"/>
-      <c r="E40" s="331" t="s">
+      <c r="E40" s="286" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="332"/>
-      <c r="G40" s="332"/>
-      <c r="H40" s="332"/>
-      <c r="I40" s="332"/>
-      <c r="J40" s="333" t="s">
+      <c r="F40" s="287"/>
+      <c r="G40" s="287"/>
+      <c r="H40" s="287"/>
+      <c r="I40" s="287"/>
+      <c r="J40" s="288" t="s">
         <v>129</v>
       </c>
-      <c r="K40" s="333"/>
-      <c r="L40" s="333"/>
-      <c r="M40" s="334" t="s">
+      <c r="K40" s="288"/>
+      <c r="L40" s="288"/>
+      <c r="M40" s="277" t="s">
         <v>130</v>
       </c>
-      <c r="N40" s="335"/>
-      <c r="O40" s="335"/>
-      <c r="P40" s="335"/>
-      <c r="Q40" s="335"/>
-      <c r="R40" s="335"/>
-      <c r="S40" s="336"/>
-      <c r="T40" s="334" t="s">
+      <c r="N40" s="278"/>
+      <c r="O40" s="278"/>
+      <c r="P40" s="278"/>
+      <c r="Q40" s="278"/>
+      <c r="R40" s="278"/>
+      <c r="S40" s="279"/>
+      <c r="T40" s="277" t="s">
         <v>90</v>
       </c>
-      <c r="U40" s="335"/>
-      <c r="V40" s="335"/>
-      <c r="W40" s="335"/>
-      <c r="X40" s="335"/>
-      <c r="Y40" s="335"/>
-      <c r="Z40" s="335"/>
-      <c r="AA40" s="335"/>
-      <c r="AB40" s="335"/>
-      <c r="AC40" s="335"/>
-      <c r="AD40" s="336"/>
+      <c r="U40" s="278"/>
+      <c r="V40" s="278"/>
+      <c r="W40" s="278"/>
+      <c r="X40" s="278"/>
+      <c r="Y40" s="278"/>
+      <c r="Z40" s="278"/>
+      <c r="AA40" s="278"/>
+      <c r="AB40" s="278"/>
+      <c r="AC40" s="278"/>
+      <c r="AD40" s="279"/>
     </row>
     <row r="41" spans="1:35" ht="11.25" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
       <c r="D41"/>
-      <c r="E41" s="311" t="s">
+      <c r="E41" s="280" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="362"/>
-      <c r="G41" s="362"/>
-      <c r="H41" s="362"/>
-      <c r="I41" s="362"/>
-      <c r="J41" s="363" t="s">
+      <c r="F41" s="281"/>
+      <c r="G41" s="281"/>
+      <c r="H41" s="281"/>
+      <c r="I41" s="281"/>
+      <c r="J41" s="282" t="s">
         <v>153</v>
       </c>
-      <c r="K41" s="363"/>
-      <c r="L41" s="363"/>
-      <c r="M41" s="364" t="s">
+      <c r="K41" s="282"/>
+      <c r="L41" s="282"/>
+      <c r="M41" s="283" t="s">
         <v>132</v>
       </c>
-      <c r="N41" s="365"/>
-      <c r="O41" s="365"/>
-      <c r="P41" s="365"/>
-      <c r="Q41" s="365"/>
-      <c r="R41" s="365"/>
-      <c r="S41" s="366"/>
-      <c r="T41" s="364" t="s">
+      <c r="N41" s="284"/>
+      <c r="O41" s="284"/>
+      <c r="P41" s="284"/>
+      <c r="Q41" s="284"/>
+      <c r="R41" s="284"/>
+      <c r="S41" s="285"/>
+      <c r="T41" s="283" t="s">
         <v>132</v>
       </c>
-      <c r="U41" s="365"/>
-      <c r="V41" s="365"/>
-      <c r="W41" s="365"/>
-      <c r="X41" s="365"/>
-      <c r="Y41" s="365"/>
-      <c r="Z41" s="365"/>
-      <c r="AA41" s="365"/>
-      <c r="AB41" s="365"/>
-      <c r="AC41" s="365"/>
-      <c r="AD41" s="366"/>
+      <c r="U41" s="284"/>
+      <c r="V41" s="284"/>
+      <c r="W41" s="284"/>
+      <c r="X41" s="284"/>
+      <c r="Y41" s="284"/>
+      <c r="Z41" s="284"/>
+      <c r="AA41" s="284"/>
+      <c r="AB41" s="284"/>
+      <c r="AC41" s="284"/>
+      <c r="AD41" s="285"/>
     </row>
     <row r="42" spans="1:35" ht="11.25" customHeight="1">
       <c r="A42" s="58"/>
@@ -13356,80 +13356,80 @@
       <c r="B49" s="58"/>
       <c r="C49" s="58"/>
       <c r="D49"/>
-      <c r="E49" s="331" t="s">
+      <c r="E49" s="286" t="s">
         <v>135</v>
       </c>
-      <c r="F49" s="332"/>
-      <c r="G49" s="332"/>
-      <c r="H49" s="332"/>
-      <c r="I49" s="332"/>
-      <c r="J49" s="333" t="s">
+      <c r="F49" s="287"/>
+      <c r="G49" s="287"/>
+      <c r="H49" s="287"/>
+      <c r="I49" s="287"/>
+      <c r="J49" s="288" t="s">
         <v>129</v>
       </c>
-      <c r="K49" s="333"/>
-      <c r="L49" s="333"/>
-      <c r="M49" s="334" t="s">
+      <c r="K49" s="288"/>
+      <c r="L49" s="288"/>
+      <c r="M49" s="277" t="s">
         <v>136</v>
       </c>
-      <c r="N49" s="335"/>
-      <c r="O49" s="335"/>
-      <c r="P49" s="335"/>
-      <c r="Q49" s="335"/>
-      <c r="R49" s="335"/>
-      <c r="S49" s="336"/>
-      <c r="T49" s="334" t="s">
+      <c r="N49" s="278"/>
+      <c r="O49" s="278"/>
+      <c r="P49" s="278"/>
+      <c r="Q49" s="278"/>
+      <c r="R49" s="278"/>
+      <c r="S49" s="279"/>
+      <c r="T49" s="277" t="s">
         <v>90</v>
       </c>
-      <c r="U49" s="335"/>
-      <c r="V49" s="335"/>
-      <c r="W49" s="335"/>
-      <c r="X49" s="335"/>
-      <c r="Y49" s="335"/>
-      <c r="Z49" s="335"/>
-      <c r="AA49" s="335"/>
-      <c r="AB49" s="335"/>
-      <c r="AC49" s="335"/>
-      <c r="AD49" s="336"/>
+      <c r="U49" s="278"/>
+      <c r="V49" s="278"/>
+      <c r="W49" s="278"/>
+      <c r="X49" s="278"/>
+      <c r="Y49" s="278"/>
+      <c r="Z49" s="278"/>
+      <c r="AA49" s="278"/>
+      <c r="AB49" s="278"/>
+      <c r="AC49" s="278"/>
+      <c r="AD49" s="279"/>
     </row>
     <row r="50" spans="1:35" ht="11.25" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="58"/>
       <c r="C50" s="58"/>
       <c r="D50"/>
-      <c r="E50" s="311" t="s">
+      <c r="E50" s="280" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="362"/>
-      <c r="G50" s="362"/>
-      <c r="H50" s="362"/>
-      <c r="I50" s="362"/>
-      <c r="J50" s="363" t="s">
+      <c r="F50" s="281"/>
+      <c r="G50" s="281"/>
+      <c r="H50" s="281"/>
+      <c r="I50" s="281"/>
+      <c r="J50" s="282" t="s">
+        <v>166</v>
+      </c>
+      <c r="K50" s="282"/>
+      <c r="L50" s="282"/>
+      <c r="M50" s="283" t="s">
         <v>154</v>
       </c>
-      <c r="K50" s="363"/>
-      <c r="L50" s="363"/>
-      <c r="M50" s="364" t="s">
-        <v>155</v>
-      </c>
-      <c r="N50" s="365"/>
-      <c r="O50" s="365"/>
-      <c r="P50" s="365"/>
-      <c r="Q50" s="365"/>
-      <c r="R50" s="365"/>
-      <c r="S50" s="366"/>
-      <c r="T50" s="364" t="s">
+      <c r="N50" s="284"/>
+      <c r="O50" s="284"/>
+      <c r="P50" s="284"/>
+      <c r="Q50" s="284"/>
+      <c r="R50" s="284"/>
+      <c r="S50" s="285"/>
+      <c r="T50" s="283" t="s">
         <v>139</v>
       </c>
-      <c r="U50" s="365"/>
-      <c r="V50" s="365"/>
-      <c r="W50" s="365"/>
-      <c r="X50" s="365"/>
-      <c r="Y50" s="365"/>
-      <c r="Z50" s="365"/>
-      <c r="AA50" s="365"/>
-      <c r="AB50" s="365"/>
-      <c r="AC50" s="365"/>
-      <c r="AD50" s="366"/>
+      <c r="U50" s="284"/>
+      <c r="V50" s="284"/>
+      <c r="W50" s="284"/>
+      <c r="X50" s="284"/>
+      <c r="Y50" s="284"/>
+      <c r="Z50" s="284"/>
+      <c r="AA50" s="284"/>
+      <c r="AB50" s="284"/>
+      <c r="AC50" s="284"/>
+      <c r="AD50" s="285"/>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="48"/>
@@ -13586,30 +13586,30 @@
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
-      <c r="E55" s="352" t="s">
+      <c r="E55" s="308" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="353"/>
-      <c r="G55" s="353"/>
-      <c r="H55" s="353"/>
-      <c r="I55" s="353"/>
-      <c r="J55" s="353"/>
-      <c r="K55" s="353"/>
-      <c r="L55" s="353"/>
-      <c r="M55" s="353"/>
-      <c r="N55" s="354"/>
-      <c r="O55" s="355" t="s">
+      <c r="F55" s="309"/>
+      <c r="G55" s="309"/>
+      <c r="H55" s="309"/>
+      <c r="I55" s="309"/>
+      <c r="J55" s="309"/>
+      <c r="K55" s="309"/>
+      <c r="L55" s="309"/>
+      <c r="M55" s="309"/>
+      <c r="N55" s="310"/>
+      <c r="O55" s="311" t="s">
         <v>97</v>
       </c>
-      <c r="P55" s="356"/>
-      <c r="Q55" s="356"/>
-      <c r="R55" s="356"/>
-      <c r="S55" s="356"/>
-      <c r="T55" s="356"/>
-      <c r="U55" s="356"/>
-      <c r="V55" s="356"/>
-      <c r="W55" s="356"/>
-      <c r="X55" s="357"/>
+      <c r="P55" s="312"/>
+      <c r="Q55" s="312"/>
+      <c r="R55" s="312"/>
+      <c r="S55" s="312"/>
+      <c r="T55" s="312"/>
+      <c r="U55" s="312"/>
+      <c r="V55" s="312"/>
+      <c r="W55" s="312"/>
+      <c r="X55" s="313"/>
       <c r="Y55" s="48"/>
       <c r="Z55" s="48"/>
       <c r="AA55" s="48"/>
@@ -13627,30 +13627,30 @@
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
       <c r="D56" s="48"/>
-      <c r="E56" s="340" t="s">
+      <c r="E56" s="296" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="341"/>
-      <c r="G56" s="341"/>
-      <c r="H56" s="341"/>
-      <c r="I56" s="341"/>
-      <c r="J56" s="341"/>
-      <c r="K56" s="341"/>
-      <c r="L56" s="341"/>
-      <c r="M56" s="341"/>
-      <c r="N56" s="342"/>
-      <c r="O56" s="358" t="s">
+      <c r="F56" s="297"/>
+      <c r="G56" s="297"/>
+      <c r="H56" s="297"/>
+      <c r="I56" s="297"/>
+      <c r="J56" s="297"/>
+      <c r="K56" s="297"/>
+      <c r="L56" s="297"/>
+      <c r="M56" s="297"/>
+      <c r="N56" s="298"/>
+      <c r="O56" s="314" t="s">
         <v>102</v>
       </c>
-      <c r="P56" s="359"/>
-      <c r="Q56" s="359"/>
-      <c r="R56" s="359"/>
-      <c r="S56" s="359"/>
-      <c r="T56" s="359"/>
-      <c r="U56" s="359"/>
-      <c r="V56" s="359"/>
-      <c r="W56" s="359"/>
-      <c r="X56" s="360"/>
+      <c r="P56" s="315"/>
+      <c r="Q56" s="315"/>
+      <c r="R56" s="315"/>
+      <c r="S56" s="315"/>
+      <c r="T56" s="315"/>
+      <c r="U56" s="315"/>
+      <c r="V56" s="315"/>
+      <c r="W56" s="315"/>
+      <c r="X56" s="316"/>
       <c r="Y56" s="48"/>
       <c r="Z56" s="48"/>
       <c r="AA56" s="48"/>
@@ -13668,28 +13668,28 @@
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
       <c r="D57" s="48"/>
-      <c r="E57" s="343"/>
-      <c r="F57" s="344"/>
-      <c r="G57" s="344"/>
-      <c r="H57" s="344"/>
-      <c r="I57" s="344"/>
-      <c r="J57" s="344"/>
-      <c r="K57" s="344"/>
-      <c r="L57" s="344"/>
-      <c r="M57" s="344"/>
-      <c r="N57" s="345"/>
-      <c r="O57" s="358" t="s">
+      <c r="E57" s="299"/>
+      <c r="F57" s="300"/>
+      <c r="G57" s="300"/>
+      <c r="H57" s="300"/>
+      <c r="I57" s="300"/>
+      <c r="J57" s="300"/>
+      <c r="K57" s="300"/>
+      <c r="L57" s="300"/>
+      <c r="M57" s="300"/>
+      <c r="N57" s="301"/>
+      <c r="O57" s="314" t="s">
         <v>104</v>
       </c>
-      <c r="P57" s="359"/>
-      <c r="Q57" s="359"/>
-      <c r="R57" s="359"/>
-      <c r="S57" s="359"/>
-      <c r="T57" s="359"/>
-      <c r="U57" s="359"/>
-      <c r="V57" s="359"/>
-      <c r="W57" s="359"/>
-      <c r="X57" s="360"/>
+      <c r="P57" s="315"/>
+      <c r="Q57" s="315"/>
+      <c r="R57" s="315"/>
+      <c r="S57" s="315"/>
+      <c r="T57" s="315"/>
+      <c r="U57" s="315"/>
+      <c r="V57" s="315"/>
+      <c r="W57" s="315"/>
+      <c r="X57" s="316"/>
       <c r="Y57" s="48"/>
       <c r="Z57" s="48"/>
       <c r="AA57" s="48"/>
@@ -13707,28 +13707,28 @@
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
-      <c r="E58" s="346"/>
-      <c r="F58" s="347"/>
-      <c r="G58" s="347"/>
-      <c r="H58" s="347"/>
-      <c r="I58" s="347"/>
-      <c r="J58" s="347"/>
-      <c r="K58" s="347"/>
-      <c r="L58" s="347"/>
-      <c r="M58" s="347"/>
-      <c r="N58" s="348"/>
-      <c r="O58" s="349" t="s">
+      <c r="E58" s="302"/>
+      <c r="F58" s="303"/>
+      <c r="G58" s="303"/>
+      <c r="H58" s="303"/>
+      <c r="I58" s="303"/>
+      <c r="J58" s="303"/>
+      <c r="K58" s="303"/>
+      <c r="L58" s="303"/>
+      <c r="M58" s="303"/>
+      <c r="N58" s="304"/>
+      <c r="O58" s="305" t="s">
         <v>105</v>
       </c>
-      <c r="P58" s="350"/>
-      <c r="Q58" s="350"/>
-      <c r="R58" s="350"/>
-      <c r="S58" s="350"/>
-      <c r="T58" s="350"/>
-      <c r="U58" s="350"/>
-      <c r="V58" s="350"/>
-      <c r="W58" s="350"/>
-      <c r="X58" s="351"/>
+      <c r="P58" s="306"/>
+      <c r="Q58" s="306"/>
+      <c r="R58" s="306"/>
+      <c r="S58" s="306"/>
+      <c r="T58" s="306"/>
+      <c r="U58" s="306"/>
+      <c r="V58" s="306"/>
+      <c r="W58" s="306"/>
+      <c r="X58" s="307"/>
       <c r="Y58" s="48"/>
       <c r="Z58" s="48"/>
       <c r="AA58" s="48"/>
@@ -13746,28 +13746,28 @@
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
-      <c r="E59" s="337" t="s">
+      <c r="E59" s="293" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="338"/>
-      <c r="G59" s="338"/>
-      <c r="H59" s="338"/>
-      <c r="I59" s="338"/>
-      <c r="J59" s="338"/>
-      <c r="K59" s="338"/>
-      <c r="L59" s="338"/>
-      <c r="M59" s="338"/>
-      <c r="N59" s="338"/>
-      <c r="O59" s="338"/>
-      <c r="P59" s="338"/>
-      <c r="Q59" s="338"/>
-      <c r="R59" s="338"/>
-      <c r="S59" s="338"/>
-      <c r="T59" s="338"/>
-      <c r="U59" s="338"/>
-      <c r="V59" s="338"/>
-      <c r="W59" s="338"/>
-      <c r="X59" s="339"/>
+      <c r="F59" s="294"/>
+      <c r="G59" s="294"/>
+      <c r="H59" s="294"/>
+      <c r="I59" s="294"/>
+      <c r="J59" s="294"/>
+      <c r="K59" s="294"/>
+      <c r="L59" s="294"/>
+      <c r="M59" s="294"/>
+      <c r="N59" s="294"/>
+      <c r="O59" s="294"/>
+      <c r="P59" s="294"/>
+      <c r="Q59" s="294"/>
+      <c r="R59" s="294"/>
+      <c r="S59" s="294"/>
+      <c r="T59" s="294"/>
+      <c r="U59" s="294"/>
+      <c r="V59" s="294"/>
+      <c r="W59" s="294"/>
+      <c r="X59" s="295"/>
       <c r="Y59" s="48"/>
       <c r="Z59" s="48"/>
       <c r="AA59" s="48"/>
@@ -14486,44 +14486,44 @@
     <row r="80" spans="1:35">
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
-      <c r="E80" s="330" t="s">
+      <c r="E80" s="290" t="s">
         <v>22</v>
       </c>
-      <c r="F80" s="330"/>
-      <c r="G80" s="317" t="s">
+      <c r="F80" s="290"/>
+      <c r="G80" s="337" t="s">
         <v>146</v>
       </c>
-      <c r="H80" s="318"/>
-      <c r="I80" s="318"/>
-      <c r="J80" s="318"/>
-      <c r="K80" s="318"/>
-      <c r="L80" s="319"/>
-      <c r="M80" s="330" t="s">
+      <c r="H80" s="338"/>
+      <c r="I80" s="338"/>
+      <c r="J80" s="338"/>
+      <c r="K80" s="338"/>
+      <c r="L80" s="339"/>
+      <c r="M80" s="290" t="s">
         <v>23</v>
       </c>
-      <c r="N80" s="330"/>
-      <c r="O80" s="317" t="s">
+      <c r="N80" s="290"/>
+      <c r="O80" s="337" t="s">
         <v>147</v>
       </c>
-      <c r="P80" s="318"/>
-      <c r="Q80" s="318"/>
-      <c r="R80" s="318"/>
-      <c r="S80" s="318"/>
-      <c r="T80" s="318"/>
-      <c r="U80" s="318"/>
-      <c r="V80" s="318"/>
-      <c r="W80" s="318"/>
-      <c r="X80" s="318"/>
-      <c r="Y80" s="318"/>
-      <c r="Z80" s="318"/>
-      <c r="AA80" s="318"/>
-      <c r="AB80" s="318"/>
-      <c r="AC80" s="318"/>
-      <c r="AD80" s="318"/>
-      <c r="AE80" s="318"/>
-      <c r="AF80" s="318"/>
-      <c r="AG80" s="318"/>
-      <c r="AH80" s="319"/>
+      <c r="P80" s="338"/>
+      <c r="Q80" s="338"/>
+      <c r="R80" s="338"/>
+      <c r="S80" s="338"/>
+      <c r="T80" s="338"/>
+      <c r="U80" s="338"/>
+      <c r="V80" s="338"/>
+      <c r="W80" s="338"/>
+      <c r="X80" s="338"/>
+      <c r="Y80" s="338"/>
+      <c r="Z80" s="338"/>
+      <c r="AA80" s="338"/>
+      <c r="AB80" s="338"/>
+      <c r="AC80" s="338"/>
+      <c r="AD80" s="338"/>
+      <c r="AE80" s="338"/>
+      <c r="AF80" s="338"/>
+      <c r="AG80" s="338"/>
+      <c r="AH80" s="339"/>
     </row>
     <row r="81" spans="3:34">
       <c r="C81" s="30"/>
@@ -14658,86 +14658,86 @@
     <row r="85" spans="3:34">
       <c r="C85" s="30"/>
       <c r="D85" s="30"/>
-      <c r="E85" s="306" t="s">
+      <c r="E85" s="329" t="s">
         <v>53</v>
       </c>
-      <c r="F85" s="300" t="s">
+      <c r="F85" s="323" t="s">
         <v>24</v>
       </c>
-      <c r="G85" s="301"/>
-      <c r="H85" s="301"/>
-      <c r="I85" s="302"/>
-      <c r="J85" s="300" t="s">
+      <c r="G85" s="324"/>
+      <c r="H85" s="324"/>
+      <c r="I85" s="325"/>
+      <c r="J85" s="323" t="s">
         <v>25</v>
       </c>
-      <c r="K85" s="301"/>
-      <c r="L85" s="301"/>
-      <c r="M85" s="302"/>
-      <c r="N85" s="278" t="s">
+      <c r="K85" s="324"/>
+      <c r="L85" s="324"/>
+      <c r="M85" s="325"/>
+      <c r="N85" s="373" t="s">
         <v>26</v>
       </c>
-      <c r="O85" s="278"/>
-      <c r="P85" s="278"/>
-      <c r="Q85" s="278"/>
-      <c r="R85" s="278"/>
-      <c r="S85" s="278"/>
-      <c r="T85" s="278"/>
-      <c r="U85" s="278"/>
-      <c r="V85" s="278"/>
-      <c r="W85" s="300" t="s">
+      <c r="O85" s="373"/>
+      <c r="P85" s="373"/>
+      <c r="Q85" s="373"/>
+      <c r="R85" s="373"/>
+      <c r="S85" s="373"/>
+      <c r="T85" s="373"/>
+      <c r="U85" s="373"/>
+      <c r="V85" s="373"/>
+      <c r="W85" s="323" t="s">
         <v>34</v>
       </c>
-      <c r="X85" s="301"/>
-      <c r="Y85" s="301"/>
-      <c r="Z85" s="301"/>
-      <c r="AA85" s="301"/>
-      <c r="AB85" s="301"/>
-      <c r="AC85" s="302"/>
-      <c r="AD85" s="300" t="s">
+      <c r="X85" s="324"/>
+      <c r="Y85" s="324"/>
+      <c r="Z85" s="324"/>
+      <c r="AA85" s="324"/>
+      <c r="AB85" s="324"/>
+      <c r="AC85" s="325"/>
+      <c r="AD85" s="323" t="s">
         <v>35</v>
       </c>
-      <c r="AE85" s="301"/>
-      <c r="AF85" s="301"/>
-      <c r="AG85" s="301"/>
-      <c r="AH85" s="302"/>
+      <c r="AE85" s="324"/>
+      <c r="AF85" s="324"/>
+      <c r="AG85" s="324"/>
+      <c r="AH85" s="325"/>
     </row>
     <row r="86" spans="3:34">
       <c r="C86" s="30"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="307"/>
-      <c r="F86" s="303"/>
-      <c r="G86" s="304"/>
-      <c r="H86" s="304"/>
-      <c r="I86" s="305"/>
-      <c r="J86" s="303"/>
-      <c r="K86" s="304"/>
-      <c r="L86" s="304"/>
-      <c r="M86" s="305"/>
-      <c r="N86" s="278" t="s">
+      <c r="E86" s="330"/>
+      <c r="F86" s="326"/>
+      <c r="G86" s="327"/>
+      <c r="H86" s="327"/>
+      <c r="I86" s="328"/>
+      <c r="J86" s="326"/>
+      <c r="K86" s="327"/>
+      <c r="L86" s="327"/>
+      <c r="M86" s="328"/>
+      <c r="N86" s="373" t="s">
         <v>29</v>
       </c>
-      <c r="O86" s="278"/>
-      <c r="P86" s="278"/>
-      <c r="Q86" s="278"/>
-      <c r="R86" s="278"/>
-      <c r="S86" s="279" t="s">
+      <c r="O86" s="373"/>
+      <c r="P86" s="373"/>
+      <c r="Q86" s="373"/>
+      <c r="R86" s="373"/>
+      <c r="S86" s="374" t="s">
         <v>30</v>
       </c>
-      <c r="T86" s="279"/>
-      <c r="U86" s="279"/>
-      <c r="V86" s="279"/>
-      <c r="W86" s="303"/>
-      <c r="X86" s="304"/>
-      <c r="Y86" s="304"/>
-      <c r="Z86" s="304"/>
-      <c r="AA86" s="304"/>
-      <c r="AB86" s="304"/>
-      <c r="AC86" s="305"/>
-      <c r="AD86" s="303"/>
-      <c r="AE86" s="304"/>
-      <c r="AF86" s="304"/>
-      <c r="AG86" s="304"/>
-      <c r="AH86" s="305"/>
+      <c r="T86" s="374"/>
+      <c r="U86" s="374"/>
+      <c r="V86" s="374"/>
+      <c r="W86" s="326"/>
+      <c r="X86" s="327"/>
+      <c r="Y86" s="327"/>
+      <c r="Z86" s="327"/>
+      <c r="AA86" s="327"/>
+      <c r="AB86" s="327"/>
+      <c r="AC86" s="328"/>
+      <c r="AD86" s="326"/>
+      <c r="AE86" s="327"/>
+      <c r="AF86" s="327"/>
+      <c r="AG86" s="327"/>
+      <c r="AH86" s="328"/>
     </row>
     <row r="87" spans="3:34">
       <c r="C87" s="30"/>
@@ -14745,43 +14745,43 @@
       <c r="E87" s="41">
         <v>1</v>
       </c>
-      <c r="F87" s="275" t="s">
+      <c r="F87" s="367" t="s">
         <v>149</v>
       </c>
-      <c r="G87" s="276"/>
-      <c r="H87" s="276"/>
-      <c r="I87" s="277"/>
-      <c r="J87" s="275" t="s">
+      <c r="G87" s="368"/>
+      <c r="H87" s="368"/>
+      <c r="I87" s="369"/>
+      <c r="J87" s="367" t="s">
         <v>101</v>
       </c>
-      <c r="K87" s="276"/>
-      <c r="L87" s="276"/>
-      <c r="M87" s="277"/>
-      <c r="N87" s="273" t="s">
+      <c r="K87" s="368"/>
+      <c r="L87" s="368"/>
+      <c r="M87" s="369"/>
+      <c r="N87" s="375" t="s">
         <v>81</v>
       </c>
-      <c r="O87" s="271"/>
-      <c r="P87" s="271"/>
-      <c r="Q87" s="271"/>
-      <c r="R87" s="271"/>
-      <c r="S87" s="274" t="s">
+      <c r="O87" s="376"/>
+      <c r="P87" s="376"/>
+      <c r="Q87" s="376"/>
+      <c r="R87" s="376"/>
+      <c r="S87" s="377" t="s">
         <v>82</v>
       </c>
-      <c r="T87" s="272"/>
-      <c r="U87" s="272"/>
-      <c r="V87" s="272"/>
-      <c r="W87" s="261"/>
-      <c r="X87" s="262"/>
-      <c r="Y87" s="262"/>
-      <c r="Z87" s="262"/>
-      <c r="AA87" s="262"/>
-      <c r="AB87" s="262"/>
-      <c r="AC87" s="263"/>
-      <c r="AD87" s="261"/>
-      <c r="AE87" s="262"/>
-      <c r="AF87" s="262"/>
-      <c r="AG87" s="262"/>
-      <c r="AH87" s="263"/>
+      <c r="T87" s="378"/>
+      <c r="U87" s="378"/>
+      <c r="V87" s="378"/>
+      <c r="W87" s="370"/>
+      <c r="X87" s="371"/>
+      <c r="Y87" s="371"/>
+      <c r="Z87" s="371"/>
+      <c r="AA87" s="371"/>
+      <c r="AB87" s="371"/>
+      <c r="AC87" s="372"/>
+      <c r="AD87" s="370"/>
+      <c r="AE87" s="371"/>
+      <c r="AF87" s="371"/>
+      <c r="AG87" s="371"/>
+      <c r="AH87" s="372"/>
     </row>
     <row r="88" spans="3:34">
       <c r="C88" s="30"/>
@@ -14789,43 +14789,43 @@
       <c r="E88" s="41">
         <v>2</v>
       </c>
-      <c r="F88" s="275" t="s">
+      <c r="F88" s="367" t="s">
         <v>150</v>
       </c>
-      <c r="G88" s="276"/>
-      <c r="H88" s="276"/>
-      <c r="I88" s="277"/>
-      <c r="J88" s="275" t="s">
+      <c r="G88" s="368"/>
+      <c r="H88" s="368"/>
+      <c r="I88" s="369"/>
+      <c r="J88" s="367" t="s">
         <v>103</v>
       </c>
-      <c r="K88" s="276"/>
-      <c r="L88" s="276"/>
-      <c r="M88" s="277"/>
-      <c r="N88" s="273" t="s">
+      <c r="K88" s="368"/>
+      <c r="L88" s="368"/>
+      <c r="M88" s="369"/>
+      <c r="N88" s="375" t="s">
         <v>81</v>
       </c>
-      <c r="O88" s="271"/>
-      <c r="P88" s="271"/>
-      <c r="Q88" s="271"/>
-      <c r="R88" s="271"/>
-      <c r="S88" s="274" t="s">
+      <c r="O88" s="376"/>
+      <c r="P88" s="376"/>
+      <c r="Q88" s="376"/>
+      <c r="R88" s="376"/>
+      <c r="S88" s="377" t="s">
         <v>83</v>
       </c>
-      <c r="T88" s="272"/>
-      <c r="U88" s="272"/>
-      <c r="V88" s="272"/>
-      <c r="W88" s="261"/>
-      <c r="X88" s="262"/>
-      <c r="Y88" s="262"/>
-      <c r="Z88" s="262"/>
-      <c r="AA88" s="262"/>
-      <c r="AB88" s="262"/>
-      <c r="AC88" s="263"/>
-      <c r="AD88" s="261"/>
-      <c r="AE88" s="262"/>
-      <c r="AF88" s="262"/>
-      <c r="AG88" s="262"/>
-      <c r="AH88" s="263"/>
+      <c r="T88" s="378"/>
+      <c r="U88" s="378"/>
+      <c r="V88" s="378"/>
+      <c r="W88" s="370"/>
+      <c r="X88" s="371"/>
+      <c r="Y88" s="371"/>
+      <c r="Z88" s="371"/>
+      <c r="AA88" s="371"/>
+      <c r="AB88" s="371"/>
+      <c r="AC88" s="372"/>
+      <c r="AD88" s="370"/>
+      <c r="AE88" s="371"/>
+      <c r="AF88" s="371"/>
+      <c r="AG88" s="371"/>
+      <c r="AH88" s="372"/>
     </row>
     <row r="89" spans="3:34">
       <c r="C89" s="30"/>
@@ -14833,43 +14833,43 @@
       <c r="E89" s="41">
         <v>3</v>
       </c>
-      <c r="F89" s="275" t="s">
+      <c r="F89" s="367" t="s">
         <v>80</v>
       </c>
-      <c r="G89" s="276"/>
-      <c r="H89" s="276"/>
-      <c r="I89" s="277"/>
-      <c r="J89" s="275" t="s">
+      <c r="G89" s="368"/>
+      <c r="H89" s="368"/>
+      <c r="I89" s="369"/>
+      <c r="J89" s="367" t="s">
         <v>105</v>
       </c>
-      <c r="K89" s="276"/>
-      <c r="L89" s="276"/>
-      <c r="M89" s="277"/>
-      <c r="N89" s="273" t="s">
+      <c r="K89" s="368"/>
+      <c r="L89" s="368"/>
+      <c r="M89" s="369"/>
+      <c r="N89" s="375" t="s">
         <v>81</v>
       </c>
-      <c r="O89" s="271"/>
-      <c r="P89" s="271"/>
-      <c r="Q89" s="271"/>
-      <c r="R89" s="271"/>
-      <c r="S89" s="274" t="s">
+      <c r="O89" s="376"/>
+      <c r="P89" s="376"/>
+      <c r="Q89" s="376"/>
+      <c r="R89" s="376"/>
+      <c r="S89" s="377" t="s">
         <v>84</v>
       </c>
-      <c r="T89" s="272"/>
-      <c r="U89" s="272"/>
-      <c r="V89" s="272"/>
-      <c r="W89" s="261"/>
-      <c r="X89" s="262"/>
-      <c r="Y89" s="262"/>
-      <c r="Z89" s="262"/>
-      <c r="AA89" s="262"/>
-      <c r="AB89" s="262"/>
-      <c r="AC89" s="263"/>
-      <c r="AD89" s="261"/>
-      <c r="AE89" s="262"/>
-      <c r="AF89" s="262"/>
-      <c r="AG89" s="262"/>
-      <c r="AH89" s="263"/>
+      <c r="T89" s="378"/>
+      <c r="U89" s="378"/>
+      <c r="V89" s="378"/>
+      <c r="W89" s="370"/>
+      <c r="X89" s="371"/>
+      <c r="Y89" s="371"/>
+      <c r="Z89" s="371"/>
+      <c r="AA89" s="371"/>
+      <c r="AB89" s="371"/>
+      <c r="AC89" s="372"/>
+      <c r="AD89" s="370"/>
+      <c r="AE89" s="371"/>
+      <c r="AF89" s="371"/>
+      <c r="AG89" s="371"/>
+      <c r="AH89" s="372"/>
     </row>
     <row r="90" spans="3:34">
       <c r="C90" s="30"/>
@@ -14877,35 +14877,35 @@
       <c r="E90" s="41">
         <v>4</v>
       </c>
-      <c r="F90" s="275"/>
-      <c r="G90" s="276"/>
-      <c r="H90" s="276"/>
-      <c r="I90" s="277"/>
-      <c r="J90" s="275"/>
-      <c r="K90" s="276"/>
-      <c r="L90" s="276"/>
-      <c r="M90" s="277"/>
-      <c r="N90" s="270"/>
-      <c r="O90" s="271"/>
-      <c r="P90" s="271"/>
-      <c r="Q90" s="271"/>
-      <c r="R90" s="271"/>
-      <c r="S90" s="272"/>
-      <c r="T90" s="272"/>
-      <c r="U90" s="272"/>
-      <c r="V90" s="272"/>
-      <c r="W90" s="261"/>
-      <c r="X90" s="262"/>
-      <c r="Y90" s="262"/>
-      <c r="Z90" s="262"/>
-      <c r="AA90" s="262"/>
-      <c r="AB90" s="262"/>
-      <c r="AC90" s="263"/>
-      <c r="AD90" s="261"/>
-      <c r="AE90" s="262"/>
-      <c r="AF90" s="262"/>
-      <c r="AG90" s="262"/>
-      <c r="AH90" s="263"/>
+      <c r="F90" s="367"/>
+      <c r="G90" s="368"/>
+      <c r="H90" s="368"/>
+      <c r="I90" s="369"/>
+      <c r="J90" s="367"/>
+      <c r="K90" s="368"/>
+      <c r="L90" s="368"/>
+      <c r="M90" s="369"/>
+      <c r="N90" s="382"/>
+      <c r="O90" s="376"/>
+      <c r="P90" s="376"/>
+      <c r="Q90" s="376"/>
+      <c r="R90" s="376"/>
+      <c r="S90" s="378"/>
+      <c r="T90" s="378"/>
+      <c r="U90" s="378"/>
+      <c r="V90" s="378"/>
+      <c r="W90" s="370"/>
+      <c r="X90" s="371"/>
+      <c r="Y90" s="371"/>
+      <c r="Z90" s="371"/>
+      <c r="AA90" s="371"/>
+      <c r="AB90" s="371"/>
+      <c r="AC90" s="372"/>
+      <c r="AD90" s="370"/>
+      <c r="AE90" s="371"/>
+      <c r="AF90" s="371"/>
+      <c r="AG90" s="371"/>
+      <c r="AH90" s="372"/>
     </row>
     <row r="91" spans="3:34">
       <c r="C91" s="30"/>
@@ -14913,51 +14913,120 @@
       <c r="E91" s="41">
         <v>5</v>
       </c>
-      <c r="F91" s="275"/>
-      <c r="G91" s="276"/>
-      <c r="H91" s="276"/>
-      <c r="I91" s="277"/>
-      <c r="J91" s="275"/>
-      <c r="K91" s="276"/>
-      <c r="L91" s="276"/>
-      <c r="M91" s="277"/>
-      <c r="N91" s="270"/>
-      <c r="O91" s="271"/>
-      <c r="P91" s="271"/>
-      <c r="Q91" s="271"/>
-      <c r="R91" s="271"/>
-      <c r="S91" s="272"/>
-      <c r="T91" s="272"/>
-      <c r="U91" s="272"/>
-      <c r="V91" s="272"/>
-      <c r="W91" s="261"/>
-      <c r="X91" s="262"/>
-      <c r="Y91" s="262"/>
-      <c r="Z91" s="262"/>
-      <c r="AA91" s="262"/>
-      <c r="AB91" s="262"/>
-      <c r="AC91" s="263"/>
-      <c r="AD91" s="261"/>
-      <c r="AE91" s="262"/>
-      <c r="AF91" s="262"/>
-      <c r="AG91" s="262"/>
-      <c r="AH91" s="263"/>
+      <c r="F91" s="367"/>
+      <c r="G91" s="368"/>
+      <c r="H91" s="368"/>
+      <c r="I91" s="369"/>
+      <c r="J91" s="367"/>
+      <c r="K91" s="368"/>
+      <c r="L91" s="368"/>
+      <c r="M91" s="369"/>
+      <c r="N91" s="382"/>
+      <c r="O91" s="376"/>
+      <c r="P91" s="376"/>
+      <c r="Q91" s="376"/>
+      <c r="R91" s="376"/>
+      <c r="S91" s="378"/>
+      <c r="T91" s="378"/>
+      <c r="U91" s="378"/>
+      <c r="V91" s="378"/>
+      <c r="W91" s="370"/>
+      <c r="X91" s="371"/>
+      <c r="Y91" s="371"/>
+      <c r="Z91" s="371"/>
+      <c r="AA91" s="371"/>
+      <c r="AB91" s="371"/>
+      <c r="AC91" s="372"/>
+      <c r="AD91" s="370"/>
+      <c r="AE91" s="371"/>
+      <c r="AF91" s="371"/>
+      <c r="AG91" s="371"/>
+      <c r="AH91" s="372"/>
     </row>
   </sheetData>
   <mergeCells count="119">
-    <mergeCell ref="T49:AD49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:S50"/>
-    <mergeCell ref="T50:AD50"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:S40"/>
-    <mergeCell ref="T40:AD40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:S41"/>
-    <mergeCell ref="T41:AD41"/>
+    <mergeCell ref="AD87:AH87"/>
+    <mergeCell ref="AD88:AH88"/>
+    <mergeCell ref="AD89:AH89"/>
+    <mergeCell ref="W87:AC87"/>
+    <mergeCell ref="W88:AC88"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="AD90:AH90"/>
+    <mergeCell ref="AD91:AH91"/>
+    <mergeCell ref="H17:AH17"/>
+    <mergeCell ref="H18:AH18"/>
+    <mergeCell ref="H19:AH19"/>
+    <mergeCell ref="H20:AH20"/>
+    <mergeCell ref="N91:R91"/>
+    <mergeCell ref="S91:V91"/>
+    <mergeCell ref="N90:R90"/>
+    <mergeCell ref="S90:V90"/>
+    <mergeCell ref="N89:R89"/>
+    <mergeCell ref="S89:V89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="J90:M90"/>
+    <mergeCell ref="J91:M91"/>
+    <mergeCell ref="F87:I87"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="W89:AC89"/>
+    <mergeCell ref="W90:AC90"/>
+    <mergeCell ref="W91:AC91"/>
+    <mergeCell ref="N85:V85"/>
+    <mergeCell ref="N86:R86"/>
+    <mergeCell ref="S86:V86"/>
+    <mergeCell ref="N88:R88"/>
+    <mergeCell ref="S88:V88"/>
+    <mergeCell ref="N87:R87"/>
+    <mergeCell ref="S87:V87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="J88:M88"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="J85:M86"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="F85:I86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="L37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="O80:AH80"/>
+    <mergeCell ref="W85:AC86"/>
+    <mergeCell ref="AD85:AH86"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="V12:AH12"/>
@@ -14982,88 +15051,19 @@
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="E18:G18"/>
     <mergeCell ref="E19:G19"/>
-    <mergeCell ref="F85:I86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="L37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="O80:AH80"/>
-    <mergeCell ref="W85:AC86"/>
-    <mergeCell ref="AD85:AH86"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="J85:M86"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="W89:AC89"/>
-    <mergeCell ref="W90:AC90"/>
-    <mergeCell ref="W91:AC91"/>
-    <mergeCell ref="N85:V85"/>
-    <mergeCell ref="N86:R86"/>
-    <mergeCell ref="S86:V86"/>
-    <mergeCell ref="N88:R88"/>
-    <mergeCell ref="S88:V88"/>
-    <mergeCell ref="N87:R87"/>
-    <mergeCell ref="S87:V87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="AD87:AH87"/>
-    <mergeCell ref="AD88:AH88"/>
-    <mergeCell ref="AD89:AH89"/>
-    <mergeCell ref="W87:AC87"/>
-    <mergeCell ref="W88:AC88"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="AD90:AH90"/>
-    <mergeCell ref="AD91:AH91"/>
-    <mergeCell ref="H17:AH17"/>
-    <mergeCell ref="H18:AH18"/>
-    <mergeCell ref="H19:AH19"/>
-    <mergeCell ref="H20:AH20"/>
-    <mergeCell ref="N91:R91"/>
-    <mergeCell ref="S91:V91"/>
-    <mergeCell ref="N90:R90"/>
-    <mergeCell ref="S90:V90"/>
-    <mergeCell ref="N89:R89"/>
-    <mergeCell ref="S89:V89"/>
-    <mergeCell ref="J89:M89"/>
-    <mergeCell ref="J90:M90"/>
-    <mergeCell ref="J91:M91"/>
-    <mergeCell ref="F87:I87"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="T49:AD49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:S50"/>
+    <mergeCell ref="T50:AD50"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:S40"/>
+    <mergeCell ref="T40:AD40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:S41"/>
+    <mergeCell ref="T41:AD41"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">

--- a/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10101_顧客検索.xlsx
+++ b/サンプルアプリケーション/設計書/B1_顧客管理システム/030_アプリ設計/010_システム機能設計/システム機能設計書(Webサービス)_B10101_顧客検索.xlsx
@@ -34,49 +34,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作成者</author>
-  </authors>
-  <commentList>
-    <comment ref="E33" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ 明朝"/>
-            <family val="1"/>
-            <charset val="128"/>
-          </rPr>
-          <t>処理は目的(入力、各種業務処理、出力等)に分割して記載すること。
-例）
-(1) ○○バリデーション
-(2) ○○取得
-(3) ○○集計
-(4) ○○登録</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F34" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="ＭＳ Ｐゴシック"/>
-            <family val="3"/>
-            <charset val="128"/>
-          </rPr>
-          <t>処理内容の記載時、文章だけでは誤解されるリスクが高い仕様は、図表や数式を使って、理解しやすいように書く。</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="167">
   <si>
@@ -1323,7 +1280,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="9"/>
       <name val="ＭＳ 明朝"/>
@@ -1458,20 +1415,6 @@
       <color indexed="55"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ 明朝"/>
-      <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -2144,6 +2087,120 @@
     <xf numFmtId="31" fontId="13" fillId="0" borderId="0" xfId="6" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2180,163 +2237,88 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2348,9 +2330,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2378,41 +2357,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2423,15 +2393,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2441,22 +2402,181 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2468,44 +2588,38 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2570,12 +2684,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2585,185 +2693,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -6812,55 +6755,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="210" t="s">
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="183" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="219" t="s">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="192" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="221"/>
-      <c r="S1" s="228" t="s">
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="201" t="s">
         <v>68</v>
       </c>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="230"/>
-      <c r="AA1" s="216" t="s">
+      <c r="T1" s="202"/>
+      <c r="U1" s="202"/>
+      <c r="V1" s="202"/>
+      <c r="W1" s="202"/>
+      <c r="X1" s="202"/>
+      <c r="Y1" s="202"/>
+      <c r="Z1" s="203"/>
+      <c r="AA1" s="189" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="218"/>
-      <c r="AC1" s="199" t="s">
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="203">
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="176">
         <v>43718</v>
       </c>
-      <c r="AH1" s="204"/>
-      <c r="AI1" s="205"/>
+      <c r="AH1" s="177"/>
+      <c r="AI1" s="178"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="13"/>
@@ -6868,53 +6811,53 @@
       <c r="AN1" s="14"/>
     </row>
     <row r="2" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="210" t="s">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="223"/>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="231"/>
-      <c r="T2" s="232"/>
-      <c r="U2" s="232"/>
-      <c r="V2" s="232"/>
-      <c r="W2" s="232"/>
-      <c r="X2" s="232"/>
-      <c r="Y2" s="232"/>
-      <c r="Z2" s="233"/>
-      <c r="AA2" s="216" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="204"/>
+      <c r="T2" s="205"/>
+      <c r="U2" s="205"/>
+      <c r="V2" s="205"/>
+      <c r="W2" s="205"/>
+      <c r="X2" s="205"/>
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="189" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="218"/>
-      <c r="AC2" s="213" t="str">
+      <c r="AB2" s="191"/>
+      <c r="AC2" s="186" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="214"/>
-      <c r="AE2" s="214"/>
-      <c r="AF2" s="215"/>
-      <c r="AG2" s="203" t="str">
+      <c r="AD2" s="187"/>
+      <c r="AE2" s="187"/>
+      <c r="AF2" s="188"/>
+      <c r="AG2" s="176" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="204"/>
-      <c r="AI2" s="205"/>
+      <c r="AH2" s="177"/>
+      <c r="AI2" s="178"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
@@ -6922,45 +6865,45 @@
       <c r="AN2" s="13"/>
     </row>
     <row r="3" spans="1:40" s="15" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="210" t="s">
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="183" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="225"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="234"/>
-      <c r="T3" s="235"/>
-      <c r="U3" s="235"/>
-      <c r="V3" s="235"/>
-      <c r="W3" s="235"/>
-      <c r="X3" s="235"/>
-      <c r="Y3" s="235"/>
-      <c r="Z3" s="236"/>
-      <c r="AA3" s="216"/>
-      <c r="AB3" s="218"/>
-      <c r="AC3" s="202"/>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="203"/>
-      <c r="AH3" s="204"/>
-      <c r="AI3" s="205"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="207"/>
+      <c r="T3" s="208"/>
+      <c r="U3" s="208"/>
+      <c r="V3" s="208"/>
+      <c r="W3" s="208"/>
+      <c r="X3" s="208"/>
+      <c r="Y3" s="208"/>
+      <c r="Z3" s="209"/>
+      <c r="AA3" s="189"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="175"/>
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="177"/>
+      <c r="AI3" s="178"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -6997,1030 +6940,1186 @@
       <c r="A7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="206" t="s">
+      <c r="B7" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="207"/>
-      <c r="D7" s="206" t="s">
+      <c r="C7" s="180"/>
+      <c r="D7" s="179" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="208"/>
-      <c r="F7" s="207"/>
-      <c r="G7" s="206" t="s">
+      <c r="E7" s="181"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="179" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="208"/>
-      <c r="I7" s="207"/>
-      <c r="J7" s="209" t="s">
+      <c r="H7" s="181"/>
+      <c r="I7" s="180"/>
+      <c r="J7" s="182" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="208"/>
-      <c r="L7" s="208"/>
-      <c r="M7" s="208"/>
-      <c r="N7" s="208"/>
-      <c r="O7" s="208"/>
-      <c r="P7" s="207"/>
-      <c r="Q7" s="206" t="s">
+      <c r="K7" s="181"/>
+      <c r="L7" s="181"/>
+      <c r="M7" s="181"/>
+      <c r="N7" s="181"/>
+      <c r="O7" s="181"/>
+      <c r="P7" s="180"/>
+      <c r="Q7" s="179" t="s">
         <v>7</v>
       </c>
-      <c r="R7" s="208"/>
-      <c r="S7" s="208"/>
-      <c r="T7" s="208"/>
-      <c r="U7" s="208"/>
-      <c r="V7" s="208"/>
-      <c r="W7" s="208"/>
-      <c r="X7" s="208"/>
-      <c r="Y7" s="208"/>
-      <c r="Z7" s="208"/>
-      <c r="AA7" s="208"/>
-      <c r="AB7" s="208"/>
-      <c r="AC7" s="208"/>
-      <c r="AD7" s="208"/>
-      <c r="AE7" s="207"/>
-      <c r="AF7" s="209" t="s">
+      <c r="R7" s="181"/>
+      <c r="S7" s="181"/>
+      <c r="T7" s="181"/>
+      <c r="U7" s="181"/>
+      <c r="V7" s="181"/>
+      <c r="W7" s="181"/>
+      <c r="X7" s="181"/>
+      <c r="Y7" s="181"/>
+      <c r="Z7" s="181"/>
+      <c r="AA7" s="181"/>
+      <c r="AB7" s="181"/>
+      <c r="AC7" s="181"/>
+      <c r="AD7" s="181"/>
+      <c r="AE7" s="180"/>
+      <c r="AF7" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="AG7" s="208"/>
-      <c r="AH7" s="208"/>
-      <c r="AI7" s="207"/>
+      <c r="AG7" s="181"/>
+      <c r="AH7" s="181"/>
+      <c r="AI7" s="180"/>
     </row>
     <row r="8" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="117">
         <v>1</v>
       </c>
-      <c r="B8" s="185" t="s">
+      <c r="B8" s="222" t="s">
         <v>110</v>
       </c>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187">
+      <c r="C8" s="223"/>
+      <c r="D8" s="224">
         <v>43718</v>
       </c>
-      <c r="E8" s="188"/>
-      <c r="F8" s="189"/>
-      <c r="G8" s="190" t="s">
+      <c r="E8" s="225"/>
+      <c r="F8" s="226"/>
+      <c r="G8" s="227" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="191"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="192"/>
-      <c r="K8" s="193"/>
-      <c r="L8" s="193"/>
-      <c r="M8" s="193"/>
-      <c r="N8" s="193"/>
-      <c r="O8" s="193"/>
-      <c r="P8" s="194"/>
-      <c r="Q8" s="196"/>
-      <c r="R8" s="197"/>
-      <c r="S8" s="197"/>
-      <c r="T8" s="197"/>
-      <c r="U8" s="197"/>
-      <c r="V8" s="197"/>
-      <c r="W8" s="197"/>
-      <c r="X8" s="197"/>
-      <c r="Y8" s="197"/>
-      <c r="Z8" s="197"/>
-      <c r="AA8" s="197"/>
-      <c r="AB8" s="197"/>
-      <c r="AC8" s="197"/>
-      <c r="AD8" s="197"/>
-      <c r="AE8" s="198"/>
-      <c r="AF8" s="195" t="s">
+      <c r="H8" s="228"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="230"/>
+      <c r="L8" s="230"/>
+      <c r="M8" s="230"/>
+      <c r="N8" s="230"/>
+      <c r="O8" s="230"/>
+      <c r="P8" s="231"/>
+      <c r="Q8" s="233"/>
+      <c r="R8" s="234"/>
+      <c r="S8" s="234"/>
+      <c r="T8" s="234"/>
+      <c r="U8" s="234"/>
+      <c r="V8" s="234"/>
+      <c r="W8" s="234"/>
+      <c r="X8" s="234"/>
+      <c r="Y8" s="234"/>
+      <c r="Z8" s="234"/>
+      <c r="AA8" s="234"/>
+      <c r="AB8" s="234"/>
+      <c r="AC8" s="234"/>
+      <c r="AD8" s="234"/>
+      <c r="AE8" s="235"/>
+      <c r="AF8" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="AG8" s="193"/>
-      <c r="AH8" s="193"/>
-      <c r="AI8" s="194"/>
+      <c r="AG8" s="230"/>
+      <c r="AH8" s="230"/>
+      <c r="AI8" s="231"/>
     </row>
     <row r="9" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="118"/>
-      <c r="B9" s="172"/>
-      <c r="C9" s="173"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="176"/>
-      <c r="G9" s="174"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="173"/>
-      <c r="J9" s="178"/>
-      <c r="K9" s="179"/>
-      <c r="L9" s="179"/>
-      <c r="M9" s="179"/>
-      <c r="N9" s="179"/>
-      <c r="O9" s="179"/>
-      <c r="P9" s="180"/>
-      <c r="Q9" s="181"/>
-      <c r="R9" s="182"/>
-      <c r="S9" s="182"/>
-      <c r="T9" s="182"/>
-      <c r="U9" s="182"/>
-      <c r="V9" s="182"/>
-      <c r="W9" s="182"/>
-      <c r="X9" s="182"/>
-      <c r="Y9" s="182"/>
-      <c r="Z9" s="182"/>
-      <c r="AA9" s="182"/>
-      <c r="AB9" s="182"/>
-      <c r="AC9" s="182"/>
-      <c r="AD9" s="182"/>
-      <c r="AE9" s="183"/>
-      <c r="AF9" s="178"/>
-      <c r="AG9" s="179"/>
-      <c r="AH9" s="179"/>
-      <c r="AI9" s="180"/>
+      <c r="B9" s="210"/>
+      <c r="C9" s="211"/>
+      <c r="D9" s="212"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="214"/>
+      <c r="G9" s="212"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="217"/>
+      <c r="L9" s="217"/>
+      <c r="M9" s="217"/>
+      <c r="N9" s="217"/>
+      <c r="O9" s="217"/>
+      <c r="P9" s="218"/>
+      <c r="Q9" s="219"/>
+      <c r="R9" s="220"/>
+      <c r="S9" s="220"/>
+      <c r="T9" s="220"/>
+      <c r="U9" s="220"/>
+      <c r="V9" s="220"/>
+      <c r="W9" s="220"/>
+      <c r="X9" s="220"/>
+      <c r="Y9" s="220"/>
+      <c r="Z9" s="220"/>
+      <c r="AA9" s="220"/>
+      <c r="AB9" s="220"/>
+      <c r="AC9" s="220"/>
+      <c r="AD9" s="220"/>
+      <c r="AE9" s="221"/>
+      <c r="AF9" s="216"/>
+      <c r="AG9" s="217"/>
+      <c r="AH9" s="217"/>
+      <c r="AI9" s="218"/>
     </row>
     <row r="10" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="118"/>
-      <c r="B10" s="172"/>
-      <c r="C10" s="173"/>
-      <c r="D10" s="174"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="176"/>
-      <c r="G10" s="172"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="173"/>
-      <c r="J10" s="178"/>
-      <c r="K10" s="179"/>
-      <c r="L10" s="179"/>
-      <c r="M10" s="179"/>
-      <c r="N10" s="179"/>
-      <c r="O10" s="179"/>
-      <c r="P10" s="180"/>
-      <c r="Q10" s="181"/>
-      <c r="R10" s="182"/>
-      <c r="S10" s="182"/>
-      <c r="T10" s="182"/>
-      <c r="U10" s="182"/>
-      <c r="V10" s="182"/>
-      <c r="W10" s="182"/>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="182"/>
-      <c r="Z10" s="182"/>
-      <c r="AA10" s="182"/>
-      <c r="AB10" s="182"/>
-      <c r="AC10" s="182"/>
-      <c r="AD10" s="182"/>
-      <c r="AE10" s="183"/>
-      <c r="AF10" s="178"/>
-      <c r="AG10" s="179"/>
-      <c r="AH10" s="179"/>
-      <c r="AI10" s="180"/>
+      <c r="B10" s="210"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="212"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="214"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="216"/>
+      <c r="K10" s="217"/>
+      <c r="L10" s="217"/>
+      <c r="M10" s="217"/>
+      <c r="N10" s="217"/>
+      <c r="O10" s="217"/>
+      <c r="P10" s="218"/>
+      <c r="Q10" s="219"/>
+      <c r="R10" s="220"/>
+      <c r="S10" s="220"/>
+      <c r="T10" s="220"/>
+      <c r="U10" s="220"/>
+      <c r="V10" s="220"/>
+      <c r="W10" s="220"/>
+      <c r="X10" s="220"/>
+      <c r="Y10" s="220"/>
+      <c r="Z10" s="220"/>
+      <c r="AA10" s="220"/>
+      <c r="AB10" s="220"/>
+      <c r="AC10" s="220"/>
+      <c r="AD10" s="220"/>
+      <c r="AE10" s="221"/>
+      <c r="AF10" s="216"/>
+      <c r="AG10" s="217"/>
+      <c r="AH10" s="217"/>
+      <c r="AI10" s="218"/>
     </row>
     <row r="11" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="118"/>
-      <c r="B11" s="172"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="174"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="176"/>
-      <c r="G11" s="172"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="173"/>
-      <c r="J11" s="178"/>
-      <c r="K11" s="179"/>
-      <c r="L11" s="179"/>
-      <c r="M11" s="179"/>
-      <c r="N11" s="179"/>
-      <c r="O11" s="179"/>
-      <c r="P11" s="180"/>
-      <c r="Q11" s="181"/>
-      <c r="R11" s="182"/>
-      <c r="S11" s="182"/>
-      <c r="T11" s="182"/>
-      <c r="U11" s="182"/>
-      <c r="V11" s="182"/>
-      <c r="W11" s="182"/>
-      <c r="X11" s="182"/>
-      <c r="Y11" s="182"/>
-      <c r="Z11" s="182"/>
-      <c r="AA11" s="182"/>
-      <c r="AB11" s="182"/>
-      <c r="AC11" s="182"/>
-      <c r="AD11" s="182"/>
-      <c r="AE11" s="183"/>
-      <c r="AF11" s="178"/>
-      <c r="AG11" s="179"/>
-      <c r="AH11" s="179"/>
-      <c r="AI11" s="180"/>
+      <c r="B11" s="210"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="212"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="214"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="217"/>
+      <c r="L11" s="217"/>
+      <c r="M11" s="217"/>
+      <c r="N11" s="217"/>
+      <c r="O11" s="217"/>
+      <c r="P11" s="218"/>
+      <c r="Q11" s="219"/>
+      <c r="R11" s="220"/>
+      <c r="S11" s="220"/>
+      <c r="T11" s="220"/>
+      <c r="U11" s="220"/>
+      <c r="V11" s="220"/>
+      <c r="W11" s="220"/>
+      <c r="X11" s="220"/>
+      <c r="Y11" s="220"/>
+      <c r="Z11" s="220"/>
+      <c r="AA11" s="220"/>
+      <c r="AB11" s="220"/>
+      <c r="AC11" s="220"/>
+      <c r="AD11" s="220"/>
+      <c r="AE11" s="221"/>
+      <c r="AF11" s="216"/>
+      <c r="AG11" s="217"/>
+      <c r="AH11" s="217"/>
+      <c r="AI11" s="218"/>
     </row>
     <row r="12" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="118"/>
-      <c r="B12" s="172"/>
-      <c r="C12" s="173"/>
-      <c r="D12" s="174"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="176"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="173"/>
-      <c r="J12" s="178"/>
-      <c r="K12" s="179"/>
-      <c r="L12" s="179"/>
-      <c r="M12" s="179"/>
-      <c r="N12" s="179"/>
-      <c r="O12" s="179"/>
-      <c r="P12" s="180"/>
-      <c r="Q12" s="181"/>
-      <c r="R12" s="182"/>
-      <c r="S12" s="182"/>
-      <c r="T12" s="182"/>
-      <c r="U12" s="182"/>
-      <c r="V12" s="182"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="182"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="182"/>
-      <c r="AE12" s="183"/>
-      <c r="AF12" s="178"/>
-      <c r="AG12" s="179"/>
-      <c r="AH12" s="179"/>
-      <c r="AI12" s="180"/>
+      <c r="B12" s="210"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="212"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="214"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="215"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="216"/>
+      <c r="K12" s="217"/>
+      <c r="L12" s="217"/>
+      <c r="M12" s="217"/>
+      <c r="N12" s="217"/>
+      <c r="O12" s="217"/>
+      <c r="P12" s="218"/>
+      <c r="Q12" s="219"/>
+      <c r="R12" s="220"/>
+      <c r="S12" s="220"/>
+      <c r="T12" s="220"/>
+      <c r="U12" s="220"/>
+      <c r="V12" s="220"/>
+      <c r="W12" s="220"/>
+      <c r="X12" s="220"/>
+      <c r="Y12" s="220"/>
+      <c r="Z12" s="220"/>
+      <c r="AA12" s="220"/>
+      <c r="AB12" s="220"/>
+      <c r="AC12" s="220"/>
+      <c r="AD12" s="220"/>
+      <c r="AE12" s="221"/>
+      <c r="AF12" s="216"/>
+      <c r="AG12" s="217"/>
+      <c r="AH12" s="217"/>
+      <c r="AI12" s="218"/>
     </row>
     <row r="13" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="118"/>
-      <c r="B13" s="172"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="174"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="176"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="178"/>
-      <c r="K13" s="179"/>
-      <c r="L13" s="179"/>
-      <c r="M13" s="179"/>
-      <c r="N13" s="179"/>
-      <c r="O13" s="179"/>
-      <c r="P13" s="180"/>
-      <c r="Q13" s="181"/>
-      <c r="R13" s="182"/>
-      <c r="S13" s="182"/>
-      <c r="T13" s="182"/>
-      <c r="U13" s="182"/>
-      <c r="V13" s="182"/>
-      <c r="W13" s="182"/>
-      <c r="X13" s="182"/>
-      <c r="Y13" s="182"/>
-      <c r="Z13" s="182"/>
-      <c r="AA13" s="182"/>
-      <c r="AB13" s="182"/>
-      <c r="AC13" s="182"/>
-      <c r="AD13" s="182"/>
-      <c r="AE13" s="183"/>
-      <c r="AF13" s="178"/>
-      <c r="AG13" s="179"/>
-      <c r="AH13" s="179"/>
-      <c r="AI13" s="180"/>
+      <c r="B13" s="210"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="212"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="214"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="216"/>
+      <c r="K13" s="217"/>
+      <c r="L13" s="217"/>
+      <c r="M13" s="217"/>
+      <c r="N13" s="217"/>
+      <c r="O13" s="217"/>
+      <c r="P13" s="218"/>
+      <c r="Q13" s="219"/>
+      <c r="R13" s="220"/>
+      <c r="S13" s="220"/>
+      <c r="T13" s="220"/>
+      <c r="U13" s="220"/>
+      <c r="V13" s="220"/>
+      <c r="W13" s="220"/>
+      <c r="X13" s="220"/>
+      <c r="Y13" s="220"/>
+      <c r="Z13" s="220"/>
+      <c r="AA13" s="220"/>
+      <c r="AB13" s="220"/>
+      <c r="AC13" s="220"/>
+      <c r="AD13" s="220"/>
+      <c r="AE13" s="221"/>
+      <c r="AF13" s="216"/>
+      <c r="AG13" s="217"/>
+      <c r="AH13" s="217"/>
+      <c r="AI13" s="218"/>
     </row>
     <row r="14" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="118"/>
-      <c r="B14" s="172"/>
-      <c r="C14" s="173"/>
-      <c r="D14" s="174"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="176"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="173"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="179"/>
-      <c r="L14" s="179"/>
-      <c r="M14" s="179"/>
-      <c r="N14" s="179"/>
-      <c r="O14" s="179"/>
-      <c r="P14" s="180"/>
-      <c r="Q14" s="181"/>
-      <c r="R14" s="182"/>
-      <c r="S14" s="182"/>
-      <c r="T14" s="182"/>
-      <c r="U14" s="182"/>
-      <c r="V14" s="182"/>
-      <c r="W14" s="182"/>
-      <c r="X14" s="182"/>
-      <c r="Y14" s="182"/>
-      <c r="Z14" s="182"/>
-      <c r="AA14" s="182"/>
-      <c r="AB14" s="182"/>
-      <c r="AC14" s="182"/>
-      <c r="AD14" s="182"/>
-      <c r="AE14" s="183"/>
-      <c r="AF14" s="178"/>
-      <c r="AG14" s="179"/>
-      <c r="AH14" s="179"/>
-      <c r="AI14" s="180"/>
+      <c r="B14" s="210"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="212"/>
+      <c r="E14" s="213"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="210"/>
+      <c r="H14" s="215"/>
+      <c r="I14" s="211"/>
+      <c r="J14" s="216"/>
+      <c r="K14" s="217"/>
+      <c r="L14" s="217"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="217"/>
+      <c r="O14" s="217"/>
+      <c r="P14" s="218"/>
+      <c r="Q14" s="219"/>
+      <c r="R14" s="220"/>
+      <c r="S14" s="220"/>
+      <c r="T14" s="220"/>
+      <c r="U14" s="220"/>
+      <c r="V14" s="220"/>
+      <c r="W14" s="220"/>
+      <c r="X14" s="220"/>
+      <c r="Y14" s="220"/>
+      <c r="Z14" s="220"/>
+      <c r="AA14" s="220"/>
+      <c r="AB14" s="220"/>
+      <c r="AC14" s="220"/>
+      <c r="AD14" s="220"/>
+      <c r="AE14" s="221"/>
+      <c r="AF14" s="216"/>
+      <c r="AG14" s="217"/>
+      <c r="AH14" s="217"/>
+      <c r="AI14" s="218"/>
     </row>
     <row r="15" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="118"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="173"/>
-      <c r="D15" s="174"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="176"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="173"/>
-      <c r="J15" s="178"/>
-      <c r="K15" s="179"/>
-      <c r="L15" s="179"/>
-      <c r="M15" s="179"/>
-      <c r="N15" s="179"/>
-      <c r="O15" s="179"/>
-      <c r="P15" s="180"/>
-      <c r="Q15" s="181"/>
-      <c r="R15" s="182"/>
-      <c r="S15" s="182"/>
-      <c r="T15" s="182"/>
-      <c r="U15" s="182"/>
-      <c r="V15" s="182"/>
-      <c r="W15" s="182"/>
-      <c r="X15" s="182"/>
-      <c r="Y15" s="182"/>
-      <c r="Z15" s="182"/>
-      <c r="AA15" s="182"/>
-      <c r="AB15" s="182"/>
-      <c r="AC15" s="182"/>
-      <c r="AD15" s="182"/>
-      <c r="AE15" s="183"/>
-      <c r="AF15" s="178"/>
-      <c r="AG15" s="179"/>
-      <c r="AH15" s="179"/>
-      <c r="AI15" s="180"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="211"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="213"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="210"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="211"/>
+      <c r="J15" s="216"/>
+      <c r="K15" s="217"/>
+      <c r="L15" s="217"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="217"/>
+      <c r="O15" s="217"/>
+      <c r="P15" s="218"/>
+      <c r="Q15" s="219"/>
+      <c r="R15" s="220"/>
+      <c r="S15" s="220"/>
+      <c r="T15" s="220"/>
+      <c r="U15" s="220"/>
+      <c r="V15" s="220"/>
+      <c r="W15" s="220"/>
+      <c r="X15" s="220"/>
+      <c r="Y15" s="220"/>
+      <c r="Z15" s="220"/>
+      <c r="AA15" s="220"/>
+      <c r="AB15" s="220"/>
+      <c r="AC15" s="220"/>
+      <c r="AD15" s="220"/>
+      <c r="AE15" s="221"/>
+      <c r="AF15" s="216"/>
+      <c r="AG15" s="217"/>
+      <c r="AH15" s="217"/>
+      <c r="AI15" s="218"/>
     </row>
     <row r="16" spans="1:40" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="118"/>
-      <c r="B16" s="172"/>
-      <c r="C16" s="173"/>
-      <c r="D16" s="174"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="176"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="173"/>
-      <c r="J16" s="178"/>
-      <c r="K16" s="179"/>
-      <c r="L16" s="179"/>
-      <c r="M16" s="179"/>
-      <c r="N16" s="179"/>
-      <c r="O16" s="179"/>
-      <c r="P16" s="180"/>
-      <c r="Q16" s="181"/>
-      <c r="R16" s="182"/>
-      <c r="S16" s="182"/>
-      <c r="T16" s="182"/>
-      <c r="U16" s="182"/>
-      <c r="V16" s="182"/>
-      <c r="W16" s="182"/>
-      <c r="X16" s="182"/>
-      <c r="Y16" s="182"/>
-      <c r="Z16" s="182"/>
-      <c r="AA16" s="182"/>
-      <c r="AB16" s="182"/>
-      <c r="AC16" s="182"/>
-      <c r="AD16" s="182"/>
-      <c r="AE16" s="183"/>
-      <c r="AF16" s="178"/>
-      <c r="AG16" s="179"/>
-      <c r="AH16" s="179"/>
-      <c r="AI16" s="180"/>
+      <c r="B16" s="210"/>
+      <c r="C16" s="211"/>
+      <c r="D16" s="212"/>
+      <c r="E16" s="213"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="210"/>
+      <c r="H16" s="215"/>
+      <c r="I16" s="211"/>
+      <c r="J16" s="216"/>
+      <c r="K16" s="217"/>
+      <c r="L16" s="217"/>
+      <c r="M16" s="217"/>
+      <c r="N16" s="217"/>
+      <c r="O16" s="217"/>
+      <c r="P16" s="218"/>
+      <c r="Q16" s="219"/>
+      <c r="R16" s="220"/>
+      <c r="S16" s="220"/>
+      <c r="T16" s="220"/>
+      <c r="U16" s="220"/>
+      <c r="V16" s="220"/>
+      <c r="W16" s="220"/>
+      <c r="X16" s="220"/>
+      <c r="Y16" s="220"/>
+      <c r="Z16" s="220"/>
+      <c r="AA16" s="220"/>
+      <c r="AB16" s="220"/>
+      <c r="AC16" s="220"/>
+      <c r="AD16" s="220"/>
+      <c r="AE16" s="221"/>
+      <c r="AF16" s="216"/>
+      <c r="AG16" s="217"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="218"/>
     </row>
     <row r="17" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="118"/>
-      <c r="B17" s="172"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="176"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="173"/>
-      <c r="J17" s="178"/>
-      <c r="K17" s="179"/>
-      <c r="L17" s="179"/>
-      <c r="M17" s="179"/>
-      <c r="N17" s="179"/>
-      <c r="O17" s="179"/>
-      <c r="P17" s="180"/>
-      <c r="Q17" s="181"/>
-      <c r="R17" s="182"/>
-      <c r="S17" s="182"/>
-      <c r="T17" s="182"/>
-      <c r="U17" s="182"/>
-      <c r="V17" s="182"/>
-      <c r="W17" s="182"/>
-      <c r="X17" s="182"/>
-      <c r="Y17" s="182"/>
-      <c r="Z17" s="182"/>
-      <c r="AA17" s="182"/>
-      <c r="AB17" s="182"/>
-      <c r="AC17" s="182"/>
-      <c r="AD17" s="182"/>
-      <c r="AE17" s="183"/>
-      <c r="AF17" s="178"/>
-      <c r="AG17" s="179"/>
-      <c r="AH17" s="179"/>
-      <c r="AI17" s="180"/>
+      <c r="B17" s="210"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="210"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="211"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="217"/>
+      <c r="L17" s="217"/>
+      <c r="M17" s="217"/>
+      <c r="N17" s="217"/>
+      <c r="O17" s="217"/>
+      <c r="P17" s="218"/>
+      <c r="Q17" s="219"/>
+      <c r="R17" s="220"/>
+      <c r="S17" s="220"/>
+      <c r="T17" s="220"/>
+      <c r="U17" s="220"/>
+      <c r="V17" s="220"/>
+      <c r="W17" s="220"/>
+      <c r="X17" s="220"/>
+      <c r="Y17" s="220"/>
+      <c r="Z17" s="220"/>
+      <c r="AA17" s="220"/>
+      <c r="AB17" s="220"/>
+      <c r="AC17" s="220"/>
+      <c r="AD17" s="220"/>
+      <c r="AE17" s="221"/>
+      <c r="AF17" s="216"/>
+      <c r="AG17" s="217"/>
+      <c r="AH17" s="217"/>
+      <c r="AI17" s="218"/>
     </row>
     <row r="18" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="118"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="174"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="176"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="177"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="178"/>
-      <c r="K18" s="179"/>
-      <c r="L18" s="179"/>
-      <c r="M18" s="179"/>
-      <c r="N18" s="179"/>
-      <c r="O18" s="179"/>
-      <c r="P18" s="180"/>
-      <c r="Q18" s="181"/>
-      <c r="R18" s="182"/>
-      <c r="S18" s="182"/>
-      <c r="T18" s="182"/>
-      <c r="U18" s="182"/>
-      <c r="V18" s="182"/>
-      <c r="W18" s="182"/>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="182"/>
-      <c r="AA18" s="182"/>
-      <c r="AB18" s="182"/>
-      <c r="AC18" s="182"/>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="183"/>
-      <c r="AF18" s="178"/>
-      <c r="AG18" s="179"/>
-      <c r="AH18" s="179"/>
-      <c r="AI18" s="180"/>
+      <c r="B18" s="210"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="215"/>
+      <c r="I18" s="211"/>
+      <c r="J18" s="216"/>
+      <c r="K18" s="217"/>
+      <c r="L18" s="217"/>
+      <c r="M18" s="217"/>
+      <c r="N18" s="217"/>
+      <c r="O18" s="217"/>
+      <c r="P18" s="218"/>
+      <c r="Q18" s="219"/>
+      <c r="R18" s="220"/>
+      <c r="S18" s="220"/>
+      <c r="T18" s="220"/>
+      <c r="U18" s="220"/>
+      <c r="V18" s="220"/>
+      <c r="W18" s="220"/>
+      <c r="X18" s="220"/>
+      <c r="Y18" s="220"/>
+      <c r="Z18" s="220"/>
+      <c r="AA18" s="220"/>
+      <c r="AB18" s="220"/>
+      <c r="AC18" s="220"/>
+      <c r="AD18" s="220"/>
+      <c r="AE18" s="221"/>
+      <c r="AF18" s="216"/>
+      <c r="AG18" s="217"/>
+      <c r="AH18" s="217"/>
+      <c r="AI18" s="218"/>
     </row>
     <row r="19" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="118"/>
-      <c r="B19" s="172"/>
-      <c r="C19" s="173"/>
-      <c r="D19" s="174"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="176"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="177"/>
-      <c r="I19" s="173"/>
-      <c r="J19" s="178"/>
-      <c r="K19" s="179"/>
-      <c r="L19" s="179"/>
-      <c r="M19" s="179"/>
-      <c r="N19" s="179"/>
-      <c r="O19" s="179"/>
-      <c r="P19" s="180"/>
-      <c r="Q19" s="181"/>
-      <c r="R19" s="182"/>
-      <c r="S19" s="182"/>
-      <c r="T19" s="182"/>
-      <c r="U19" s="182"/>
-      <c r="V19" s="182"/>
-      <c r="W19" s="182"/>
-      <c r="X19" s="182"/>
-      <c r="Y19" s="182"/>
-      <c r="Z19" s="182"/>
-      <c r="AA19" s="182"/>
-      <c r="AB19" s="182"/>
-      <c r="AC19" s="182"/>
-      <c r="AD19" s="182"/>
-      <c r="AE19" s="183"/>
-      <c r="AF19" s="178"/>
-      <c r="AG19" s="179"/>
-      <c r="AH19" s="179"/>
-      <c r="AI19" s="180"/>
+      <c r="B19" s="210"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="215"/>
+      <c r="I19" s="211"/>
+      <c r="J19" s="216"/>
+      <c r="K19" s="217"/>
+      <c r="L19" s="217"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="217"/>
+      <c r="O19" s="217"/>
+      <c r="P19" s="218"/>
+      <c r="Q19" s="219"/>
+      <c r="R19" s="220"/>
+      <c r="S19" s="220"/>
+      <c r="T19" s="220"/>
+      <c r="U19" s="220"/>
+      <c r="V19" s="220"/>
+      <c r="W19" s="220"/>
+      <c r="X19" s="220"/>
+      <c r="Y19" s="220"/>
+      <c r="Z19" s="220"/>
+      <c r="AA19" s="220"/>
+      <c r="AB19" s="220"/>
+      <c r="AC19" s="220"/>
+      <c r="AD19" s="220"/>
+      <c r="AE19" s="221"/>
+      <c r="AF19" s="216"/>
+      <c r="AG19" s="217"/>
+      <c r="AH19" s="217"/>
+      <c r="AI19" s="218"/>
     </row>
     <row r="20" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="118"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="174"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="177"/>
-      <c r="I20" s="173"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="179"/>
-      <c r="L20" s="179"/>
-      <c r="M20" s="179"/>
-      <c r="N20" s="179"/>
-      <c r="O20" s="179"/>
-      <c r="P20" s="180"/>
-      <c r="Q20" s="181"/>
-      <c r="R20" s="182"/>
-      <c r="S20" s="182"/>
-      <c r="T20" s="182"/>
-      <c r="U20" s="182"/>
-      <c r="V20" s="182"/>
-      <c r="W20" s="182"/>
-      <c r="X20" s="182"/>
-      <c r="Y20" s="182"/>
-      <c r="Z20" s="182"/>
-      <c r="AA20" s="182"/>
-      <c r="AB20" s="182"/>
-      <c r="AC20" s="182"/>
-      <c r="AD20" s="182"/>
-      <c r="AE20" s="183"/>
-      <c r="AF20" s="178"/>
-      <c r="AG20" s="179"/>
-      <c r="AH20" s="179"/>
-      <c r="AI20" s="180"/>
+      <c r="B20" s="210"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="215"/>
+      <c r="I20" s="211"/>
+      <c r="J20" s="216"/>
+      <c r="K20" s="217"/>
+      <c r="L20" s="217"/>
+      <c r="M20" s="217"/>
+      <c r="N20" s="217"/>
+      <c r="O20" s="217"/>
+      <c r="P20" s="218"/>
+      <c r="Q20" s="219"/>
+      <c r="R20" s="220"/>
+      <c r="S20" s="220"/>
+      <c r="T20" s="220"/>
+      <c r="U20" s="220"/>
+      <c r="V20" s="220"/>
+      <c r="W20" s="220"/>
+      <c r="X20" s="220"/>
+      <c r="Y20" s="220"/>
+      <c r="Z20" s="220"/>
+      <c r="AA20" s="220"/>
+      <c r="AB20" s="220"/>
+      <c r="AC20" s="220"/>
+      <c r="AD20" s="220"/>
+      <c r="AE20" s="221"/>
+      <c r="AF20" s="216"/>
+      <c r="AG20" s="217"/>
+      <c r="AH20" s="217"/>
+      <c r="AI20" s="218"/>
     </row>
     <row r="21" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="118"/>
-      <c r="B21" s="172"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="174"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="176"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="179"/>
-      <c r="L21" s="179"/>
-      <c r="M21" s="179"/>
-      <c r="N21" s="179"/>
-      <c r="O21" s="179"/>
-      <c r="P21" s="180"/>
-      <c r="Q21" s="181"/>
-      <c r="R21" s="182"/>
-      <c r="S21" s="182"/>
-      <c r="T21" s="182"/>
-      <c r="U21" s="182"/>
-      <c r="V21" s="182"/>
-      <c r="W21" s="182"/>
-      <c r="X21" s="182"/>
-      <c r="Y21" s="182"/>
-      <c r="Z21" s="182"/>
-      <c r="AA21" s="182"/>
-      <c r="AB21" s="182"/>
-      <c r="AC21" s="182"/>
-      <c r="AD21" s="182"/>
-      <c r="AE21" s="183"/>
-      <c r="AF21" s="178"/>
-      <c r="AG21" s="179"/>
-      <c r="AH21" s="179"/>
-      <c r="AI21" s="180"/>
+      <c r="B21" s="210"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="215"/>
+      <c r="I21" s="211"/>
+      <c r="J21" s="216"/>
+      <c r="K21" s="217"/>
+      <c r="L21" s="217"/>
+      <c r="M21" s="217"/>
+      <c r="N21" s="217"/>
+      <c r="O21" s="217"/>
+      <c r="P21" s="218"/>
+      <c r="Q21" s="219"/>
+      <c r="R21" s="220"/>
+      <c r="S21" s="220"/>
+      <c r="T21" s="220"/>
+      <c r="U21" s="220"/>
+      <c r="V21" s="220"/>
+      <c r="W21" s="220"/>
+      <c r="X21" s="220"/>
+      <c r="Y21" s="220"/>
+      <c r="Z21" s="220"/>
+      <c r="AA21" s="220"/>
+      <c r="AB21" s="220"/>
+      <c r="AC21" s="220"/>
+      <c r="AD21" s="220"/>
+      <c r="AE21" s="221"/>
+      <c r="AF21" s="216"/>
+      <c r="AG21" s="217"/>
+      <c r="AH21" s="217"/>
+      <c r="AI21" s="218"/>
     </row>
     <row r="22" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="118"/>
-      <c r="B22" s="172"/>
-      <c r="C22" s="173"/>
-      <c r="D22" s="174"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="176"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="177"/>
-      <c r="I22" s="173"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="179"/>
-      <c r="L22" s="179"/>
-      <c r="M22" s="179"/>
-      <c r="N22" s="179"/>
-      <c r="O22" s="179"/>
-      <c r="P22" s="180"/>
-      <c r="Q22" s="181"/>
-      <c r="R22" s="182"/>
-      <c r="S22" s="182"/>
-      <c r="T22" s="182"/>
-      <c r="U22" s="182"/>
-      <c r="V22" s="182"/>
-      <c r="W22" s="182"/>
-      <c r="X22" s="182"/>
-      <c r="Y22" s="182"/>
-      <c r="Z22" s="182"/>
-      <c r="AA22" s="182"/>
-      <c r="AB22" s="182"/>
-      <c r="AC22" s="182"/>
-      <c r="AD22" s="182"/>
-      <c r="AE22" s="183"/>
-      <c r="AF22" s="178"/>
-      <c r="AG22" s="179"/>
-      <c r="AH22" s="179"/>
-      <c r="AI22" s="180"/>
+      <c r="B22" s="210"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="210"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="211"/>
+      <c r="J22" s="216"/>
+      <c r="K22" s="217"/>
+      <c r="L22" s="217"/>
+      <c r="M22" s="217"/>
+      <c r="N22" s="217"/>
+      <c r="O22" s="217"/>
+      <c r="P22" s="218"/>
+      <c r="Q22" s="219"/>
+      <c r="R22" s="220"/>
+      <c r="S22" s="220"/>
+      <c r="T22" s="220"/>
+      <c r="U22" s="220"/>
+      <c r="V22" s="220"/>
+      <c r="W22" s="220"/>
+      <c r="X22" s="220"/>
+      <c r="Y22" s="220"/>
+      <c r="Z22" s="220"/>
+      <c r="AA22" s="220"/>
+      <c r="AB22" s="220"/>
+      <c r="AC22" s="220"/>
+      <c r="AD22" s="220"/>
+      <c r="AE22" s="221"/>
+      <c r="AF22" s="216"/>
+      <c r="AG22" s="217"/>
+      <c r="AH22" s="217"/>
+      <c r="AI22" s="218"/>
     </row>
     <row r="23" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="118"/>
-      <c r="B23" s="172"/>
-      <c r="C23" s="173"/>
-      <c r="D23" s="174"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="177"/>
-      <c r="I23" s="173"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="179"/>
-      <c r="L23" s="179"/>
-      <c r="M23" s="179"/>
-      <c r="N23" s="179"/>
-      <c r="O23" s="179"/>
-      <c r="P23" s="180"/>
-      <c r="Q23" s="181"/>
-      <c r="R23" s="182"/>
-      <c r="S23" s="182"/>
-      <c r="T23" s="182"/>
-      <c r="U23" s="182"/>
-      <c r="V23" s="182"/>
-      <c r="W23" s="182"/>
-      <c r="X23" s="182"/>
-      <c r="Y23" s="182"/>
-      <c r="Z23" s="182"/>
-      <c r="AA23" s="182"/>
-      <c r="AB23" s="182"/>
-      <c r="AC23" s="182"/>
-      <c r="AD23" s="182"/>
-      <c r="AE23" s="183"/>
-      <c r="AF23" s="178"/>
-      <c r="AG23" s="179"/>
-      <c r="AH23" s="179"/>
-      <c r="AI23" s="180"/>
+      <c r="B23" s="210"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="213"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="215"/>
+      <c r="I23" s="211"/>
+      <c r="J23" s="216"/>
+      <c r="K23" s="217"/>
+      <c r="L23" s="217"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="217"/>
+      <c r="O23" s="217"/>
+      <c r="P23" s="218"/>
+      <c r="Q23" s="219"/>
+      <c r="R23" s="220"/>
+      <c r="S23" s="220"/>
+      <c r="T23" s="220"/>
+      <c r="U23" s="220"/>
+      <c r="V23" s="220"/>
+      <c r="W23" s="220"/>
+      <c r="X23" s="220"/>
+      <c r="Y23" s="220"/>
+      <c r="Z23" s="220"/>
+      <c r="AA23" s="220"/>
+      <c r="AB23" s="220"/>
+      <c r="AC23" s="220"/>
+      <c r="AD23" s="220"/>
+      <c r="AE23" s="221"/>
+      <c r="AF23" s="216"/>
+      <c r="AG23" s="217"/>
+      <c r="AH23" s="217"/>
+      <c r="AI23" s="218"/>
     </row>
     <row r="24" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="118"/>
-      <c r="B24" s="172"/>
-      <c r="C24" s="173"/>
-      <c r="D24" s="174"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="176"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="177"/>
-      <c r="I24" s="173"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="179"/>
-      <c r="L24" s="179"/>
-      <c r="M24" s="179"/>
-      <c r="N24" s="179"/>
-      <c r="O24" s="179"/>
-      <c r="P24" s="180"/>
-      <c r="Q24" s="181"/>
-      <c r="R24" s="182"/>
-      <c r="S24" s="182"/>
-      <c r="T24" s="182"/>
-      <c r="U24" s="182"/>
-      <c r="V24" s="182"/>
-      <c r="W24" s="182"/>
-      <c r="X24" s="182"/>
-      <c r="Y24" s="182"/>
-      <c r="Z24" s="182"/>
-      <c r="AA24" s="182"/>
-      <c r="AB24" s="182"/>
-      <c r="AC24" s="182"/>
-      <c r="AD24" s="182"/>
-      <c r="AE24" s="183"/>
-      <c r="AF24" s="178"/>
-      <c r="AG24" s="179"/>
-      <c r="AH24" s="179"/>
-      <c r="AI24" s="180"/>
+      <c r="B24" s="210"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="214"/>
+      <c r="G24" s="210"/>
+      <c r="H24" s="215"/>
+      <c r="I24" s="211"/>
+      <c r="J24" s="216"/>
+      <c r="K24" s="217"/>
+      <c r="L24" s="217"/>
+      <c r="M24" s="217"/>
+      <c r="N24" s="217"/>
+      <c r="O24" s="217"/>
+      <c r="P24" s="218"/>
+      <c r="Q24" s="219"/>
+      <c r="R24" s="220"/>
+      <c r="S24" s="220"/>
+      <c r="T24" s="220"/>
+      <c r="U24" s="220"/>
+      <c r="V24" s="220"/>
+      <c r="W24" s="220"/>
+      <c r="X24" s="220"/>
+      <c r="Y24" s="220"/>
+      <c r="Z24" s="220"/>
+      <c r="AA24" s="220"/>
+      <c r="AB24" s="220"/>
+      <c r="AC24" s="220"/>
+      <c r="AD24" s="220"/>
+      <c r="AE24" s="221"/>
+      <c r="AF24" s="216"/>
+      <c r="AG24" s="217"/>
+      <c r="AH24" s="217"/>
+      <c r="AI24" s="218"/>
     </row>
     <row r="25" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="118"/>
-      <c r="B25" s="172"/>
-      <c r="C25" s="173"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="177"/>
-      <c r="I25" s="173"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="179"/>
-      <c r="L25" s="179"/>
-      <c r="M25" s="179"/>
-      <c r="N25" s="179"/>
-      <c r="O25" s="179"/>
-      <c r="P25" s="180"/>
-      <c r="Q25" s="181"/>
-      <c r="R25" s="182"/>
-      <c r="S25" s="182"/>
-      <c r="T25" s="182"/>
-      <c r="U25" s="182"/>
-      <c r="V25" s="182"/>
-      <c r="W25" s="182"/>
-      <c r="X25" s="182"/>
-      <c r="Y25" s="182"/>
-      <c r="Z25" s="182"/>
-      <c r="AA25" s="182"/>
-      <c r="AB25" s="182"/>
-      <c r="AC25" s="182"/>
-      <c r="AD25" s="182"/>
-      <c r="AE25" s="183"/>
-      <c r="AF25" s="178"/>
-      <c r="AG25" s="179"/>
-      <c r="AH25" s="179"/>
-      <c r="AI25" s="180"/>
+      <c r="B25" s="210"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="213"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="210"/>
+      <c r="H25" s="215"/>
+      <c r="I25" s="211"/>
+      <c r="J25" s="216"/>
+      <c r="K25" s="217"/>
+      <c r="L25" s="217"/>
+      <c r="M25" s="217"/>
+      <c r="N25" s="217"/>
+      <c r="O25" s="217"/>
+      <c r="P25" s="218"/>
+      <c r="Q25" s="219"/>
+      <c r="R25" s="220"/>
+      <c r="S25" s="220"/>
+      <c r="T25" s="220"/>
+      <c r="U25" s="220"/>
+      <c r="V25" s="220"/>
+      <c r="W25" s="220"/>
+      <c r="X25" s="220"/>
+      <c r="Y25" s="220"/>
+      <c r="Z25" s="220"/>
+      <c r="AA25" s="220"/>
+      <c r="AB25" s="220"/>
+      <c r="AC25" s="220"/>
+      <c r="AD25" s="220"/>
+      <c r="AE25" s="221"/>
+      <c r="AF25" s="216"/>
+      <c r="AG25" s="217"/>
+      <c r="AH25" s="217"/>
+      <c r="AI25" s="218"/>
     </row>
     <row r="26" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="118"/>
-      <c r="B26" s="172"/>
-      <c r="C26" s="173"/>
-      <c r="D26" s="174"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="176"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="173"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="179"/>
-      <c r="L26" s="179"/>
-      <c r="M26" s="179"/>
-      <c r="N26" s="179"/>
-      <c r="O26" s="179"/>
-      <c r="P26" s="180"/>
-      <c r="Q26" s="181"/>
-      <c r="R26" s="182"/>
-      <c r="S26" s="182"/>
-      <c r="T26" s="182"/>
-      <c r="U26" s="182"/>
-      <c r="V26" s="182"/>
-      <c r="W26" s="182"/>
-      <c r="X26" s="182"/>
-      <c r="Y26" s="182"/>
-      <c r="Z26" s="182"/>
-      <c r="AA26" s="182"/>
-      <c r="AB26" s="182"/>
-      <c r="AC26" s="182"/>
-      <c r="AD26" s="182"/>
-      <c r="AE26" s="183"/>
-      <c r="AF26" s="178"/>
-      <c r="AG26" s="179"/>
-      <c r="AH26" s="179"/>
-      <c r="AI26" s="180"/>
+      <c r="B26" s="210"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="210"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="211"/>
+      <c r="J26" s="216"/>
+      <c r="K26" s="217"/>
+      <c r="L26" s="217"/>
+      <c r="M26" s="217"/>
+      <c r="N26" s="217"/>
+      <c r="O26" s="217"/>
+      <c r="P26" s="218"/>
+      <c r="Q26" s="219"/>
+      <c r="R26" s="220"/>
+      <c r="S26" s="220"/>
+      <c r="T26" s="220"/>
+      <c r="U26" s="220"/>
+      <c r="V26" s="220"/>
+      <c r="W26" s="220"/>
+      <c r="X26" s="220"/>
+      <c r="Y26" s="220"/>
+      <c r="Z26" s="220"/>
+      <c r="AA26" s="220"/>
+      <c r="AB26" s="220"/>
+      <c r="AC26" s="220"/>
+      <c r="AD26" s="220"/>
+      <c r="AE26" s="221"/>
+      <c r="AF26" s="216"/>
+      <c r="AG26" s="217"/>
+      <c r="AH26" s="217"/>
+      <c r="AI26" s="218"/>
     </row>
     <row r="27" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="118"/>
-      <c r="B27" s="172"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="174"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="177"/>
-      <c r="I27" s="173"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="179"/>
-      <c r="L27" s="179"/>
-      <c r="M27" s="179"/>
-      <c r="N27" s="179"/>
-      <c r="O27" s="179"/>
-      <c r="P27" s="180"/>
-      <c r="Q27" s="181"/>
-      <c r="R27" s="182"/>
-      <c r="S27" s="182"/>
-      <c r="T27" s="182"/>
-      <c r="U27" s="182"/>
-      <c r="V27" s="182"/>
-      <c r="W27" s="182"/>
-      <c r="X27" s="182"/>
-      <c r="Y27" s="182"/>
-      <c r="Z27" s="182"/>
-      <c r="AA27" s="182"/>
-      <c r="AB27" s="182"/>
-      <c r="AC27" s="182"/>
-      <c r="AD27" s="182"/>
-      <c r="AE27" s="183"/>
-      <c r="AF27" s="178"/>
-      <c r="AG27" s="179"/>
-      <c r="AH27" s="179"/>
-      <c r="AI27" s="180"/>
+      <c r="B27" s="210"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="212"/>
+      <c r="E27" s="213"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="210"/>
+      <c r="H27" s="215"/>
+      <c r="I27" s="211"/>
+      <c r="J27" s="216"/>
+      <c r="K27" s="217"/>
+      <c r="L27" s="217"/>
+      <c r="M27" s="217"/>
+      <c r="N27" s="217"/>
+      <c r="O27" s="217"/>
+      <c r="P27" s="218"/>
+      <c r="Q27" s="219"/>
+      <c r="R27" s="220"/>
+      <c r="S27" s="220"/>
+      <c r="T27" s="220"/>
+      <c r="U27" s="220"/>
+      <c r="V27" s="220"/>
+      <c r="W27" s="220"/>
+      <c r="X27" s="220"/>
+      <c r="Y27" s="220"/>
+      <c r="Z27" s="220"/>
+      <c r="AA27" s="220"/>
+      <c r="AB27" s="220"/>
+      <c r="AC27" s="220"/>
+      <c r="AD27" s="220"/>
+      <c r="AE27" s="221"/>
+      <c r="AF27" s="216"/>
+      <c r="AG27" s="217"/>
+      <c r="AH27" s="217"/>
+      <c r="AI27" s="218"/>
     </row>
     <row r="28" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="118"/>
-      <c r="B28" s="172"/>
-      <c r="C28" s="173"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="176"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="177"/>
-      <c r="I28" s="173"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
-      <c r="O28" s="179"/>
-      <c r="P28" s="180"/>
-      <c r="Q28" s="181"/>
-      <c r="R28" s="182"/>
-      <c r="S28" s="182"/>
-      <c r="T28" s="182"/>
-      <c r="U28" s="182"/>
-      <c r="V28" s="182"/>
-      <c r="W28" s="182"/>
-      <c r="X28" s="182"/>
-      <c r="Y28" s="182"/>
-      <c r="Z28" s="182"/>
-      <c r="AA28" s="182"/>
-      <c r="AB28" s="182"/>
-      <c r="AC28" s="182"/>
-      <c r="AD28" s="182"/>
-      <c r="AE28" s="183"/>
-      <c r="AF28" s="178"/>
-      <c r="AG28" s="179"/>
-      <c r="AH28" s="179"/>
-      <c r="AI28" s="180"/>
+      <c r="B28" s="210"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="212"/>
+      <c r="E28" s="213"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="210"/>
+      <c r="H28" s="215"/>
+      <c r="I28" s="211"/>
+      <c r="J28" s="216"/>
+      <c r="K28" s="217"/>
+      <c r="L28" s="217"/>
+      <c r="M28" s="217"/>
+      <c r="N28" s="217"/>
+      <c r="O28" s="217"/>
+      <c r="P28" s="218"/>
+      <c r="Q28" s="219"/>
+      <c r="R28" s="220"/>
+      <c r="S28" s="220"/>
+      <c r="T28" s="220"/>
+      <c r="U28" s="220"/>
+      <c r="V28" s="220"/>
+      <c r="W28" s="220"/>
+      <c r="X28" s="220"/>
+      <c r="Y28" s="220"/>
+      <c r="Z28" s="220"/>
+      <c r="AA28" s="220"/>
+      <c r="AB28" s="220"/>
+      <c r="AC28" s="220"/>
+      <c r="AD28" s="220"/>
+      <c r="AE28" s="221"/>
+      <c r="AF28" s="216"/>
+      <c r="AG28" s="217"/>
+      <c r="AH28" s="217"/>
+      <c r="AI28" s="218"/>
     </row>
     <row r="29" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="118"/>
-      <c r="B29" s="172"/>
-      <c r="C29" s="173"/>
-      <c r="D29" s="174"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="177"/>
-      <c r="I29" s="173"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
-      <c r="O29" s="179"/>
-      <c r="P29" s="180"/>
-      <c r="Q29" s="181"/>
-      <c r="R29" s="182"/>
-      <c r="S29" s="182"/>
-      <c r="T29" s="182"/>
-      <c r="U29" s="182"/>
-      <c r="V29" s="182"/>
-      <c r="W29" s="182"/>
-      <c r="X29" s="182"/>
-      <c r="Y29" s="182"/>
-      <c r="Z29" s="182"/>
-      <c r="AA29" s="182"/>
-      <c r="AB29" s="182"/>
-      <c r="AC29" s="182"/>
-      <c r="AD29" s="182"/>
-      <c r="AE29" s="183"/>
-      <c r="AF29" s="178"/>
-      <c r="AG29" s="179"/>
-      <c r="AH29" s="179"/>
-      <c r="AI29" s="180"/>
+      <c r="B29" s="210"/>
+      <c r="C29" s="211"/>
+      <c r="D29" s="212"/>
+      <c r="E29" s="213"/>
+      <c r="F29" s="214"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="215"/>
+      <c r="I29" s="211"/>
+      <c r="J29" s="216"/>
+      <c r="K29" s="217"/>
+      <c r="L29" s="217"/>
+      <c r="M29" s="217"/>
+      <c r="N29" s="217"/>
+      <c r="O29" s="217"/>
+      <c r="P29" s="218"/>
+      <c r="Q29" s="219"/>
+      <c r="R29" s="220"/>
+      <c r="S29" s="220"/>
+      <c r="T29" s="220"/>
+      <c r="U29" s="220"/>
+      <c r="V29" s="220"/>
+      <c r="W29" s="220"/>
+      <c r="X29" s="220"/>
+      <c r="Y29" s="220"/>
+      <c r="Z29" s="220"/>
+      <c r="AA29" s="220"/>
+      <c r="AB29" s="220"/>
+      <c r="AC29" s="220"/>
+      <c r="AD29" s="220"/>
+      <c r="AE29" s="221"/>
+      <c r="AF29" s="216"/>
+      <c r="AG29" s="217"/>
+      <c r="AH29" s="217"/>
+      <c r="AI29" s="218"/>
     </row>
     <row r="30" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="118"/>
-      <c r="B30" s="172"/>
-      <c r="C30" s="173"/>
-      <c r="D30" s="174"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="176"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="177"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="180"/>
-      <c r="Q30" s="181"/>
-      <c r="R30" s="182"/>
-      <c r="S30" s="182"/>
-      <c r="T30" s="182"/>
-      <c r="U30" s="182"/>
-      <c r="V30" s="182"/>
-      <c r="W30" s="182"/>
-      <c r="X30" s="182"/>
-      <c r="Y30" s="182"/>
-      <c r="Z30" s="182"/>
-      <c r="AA30" s="182"/>
-      <c r="AB30" s="182"/>
-      <c r="AC30" s="182"/>
-      <c r="AD30" s="182"/>
-      <c r="AE30" s="183"/>
-      <c r="AF30" s="178"/>
-      <c r="AG30" s="179"/>
-      <c r="AH30" s="179"/>
-      <c r="AI30" s="180"/>
+      <c r="B30" s="210"/>
+      <c r="C30" s="211"/>
+      <c r="D30" s="212"/>
+      <c r="E30" s="213"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="215"/>
+      <c r="I30" s="211"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="217"/>
+      <c r="L30" s="217"/>
+      <c r="M30" s="217"/>
+      <c r="N30" s="217"/>
+      <c r="O30" s="217"/>
+      <c r="P30" s="218"/>
+      <c r="Q30" s="219"/>
+      <c r="R30" s="220"/>
+      <c r="S30" s="220"/>
+      <c r="T30" s="220"/>
+      <c r="U30" s="220"/>
+      <c r="V30" s="220"/>
+      <c r="W30" s="220"/>
+      <c r="X30" s="220"/>
+      <c r="Y30" s="220"/>
+      <c r="Z30" s="220"/>
+      <c r="AA30" s="220"/>
+      <c r="AB30" s="220"/>
+      <c r="AC30" s="220"/>
+      <c r="AD30" s="220"/>
+      <c r="AE30" s="221"/>
+      <c r="AF30" s="216"/>
+      <c r="AG30" s="217"/>
+      <c r="AH30" s="217"/>
+      <c r="AI30" s="218"/>
     </row>
     <row r="31" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="118"/>
-      <c r="B31" s="172"/>
-      <c r="C31" s="173"/>
-      <c r="D31" s="174"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="177"/>
-      <c r="I31" s="173"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="179"/>
-      <c r="L31" s="179"/>
-      <c r="M31" s="179"/>
-      <c r="N31" s="179"/>
-      <c r="O31" s="179"/>
-      <c r="P31" s="180"/>
-      <c r="Q31" s="181"/>
-      <c r="R31" s="182"/>
-      <c r="S31" s="182"/>
-      <c r="T31" s="182"/>
-      <c r="U31" s="182"/>
-      <c r="V31" s="182"/>
-      <c r="W31" s="182"/>
-      <c r="X31" s="182"/>
-      <c r="Y31" s="182"/>
-      <c r="Z31" s="182"/>
-      <c r="AA31" s="182"/>
-      <c r="AB31" s="182"/>
-      <c r="AC31" s="182"/>
-      <c r="AD31" s="182"/>
-      <c r="AE31" s="183"/>
-      <c r="AF31" s="178"/>
-      <c r="AG31" s="179"/>
-      <c r="AH31" s="179"/>
-      <c r="AI31" s="180"/>
+      <c r="B31" s="210"/>
+      <c r="C31" s="211"/>
+      <c r="D31" s="212"/>
+      <c r="E31" s="213"/>
+      <c r="F31" s="214"/>
+      <c r="G31" s="210"/>
+      <c r="H31" s="215"/>
+      <c r="I31" s="211"/>
+      <c r="J31" s="216"/>
+      <c r="K31" s="217"/>
+      <c r="L31" s="217"/>
+      <c r="M31" s="217"/>
+      <c r="N31" s="217"/>
+      <c r="O31" s="217"/>
+      <c r="P31" s="218"/>
+      <c r="Q31" s="219"/>
+      <c r="R31" s="220"/>
+      <c r="S31" s="220"/>
+      <c r="T31" s="220"/>
+      <c r="U31" s="220"/>
+      <c r="V31" s="220"/>
+      <c r="W31" s="220"/>
+      <c r="X31" s="220"/>
+      <c r="Y31" s="220"/>
+      <c r="Z31" s="220"/>
+      <c r="AA31" s="220"/>
+      <c r="AB31" s="220"/>
+      <c r="AC31" s="220"/>
+      <c r="AD31" s="220"/>
+      <c r="AE31" s="221"/>
+      <c r="AF31" s="216"/>
+      <c r="AG31" s="217"/>
+      <c r="AH31" s="217"/>
+      <c r="AI31" s="218"/>
     </row>
     <row r="32" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="118"/>
-      <c r="B32" s="172"/>
-      <c r="C32" s="173"/>
-      <c r="D32" s="174"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="176"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="184"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="179"/>
-      <c r="N32" s="179"/>
-      <c r="O32" s="179"/>
-      <c r="P32" s="180"/>
-      <c r="Q32" s="181"/>
-      <c r="R32" s="182"/>
-      <c r="S32" s="182"/>
-      <c r="T32" s="182"/>
-      <c r="U32" s="182"/>
-      <c r="V32" s="182"/>
-      <c r="W32" s="182"/>
-      <c r="X32" s="182"/>
-      <c r="Y32" s="182"/>
-      <c r="Z32" s="182"/>
-      <c r="AA32" s="182"/>
-      <c r="AB32" s="182"/>
-      <c r="AC32" s="182"/>
-      <c r="AD32" s="182"/>
-      <c r="AE32" s="183"/>
-      <c r="AF32" s="178"/>
-      <c r="AG32" s="179"/>
-      <c r="AH32" s="179"/>
-      <c r="AI32" s="180"/>
+      <c r="B32" s="210"/>
+      <c r="C32" s="211"/>
+      <c r="D32" s="212"/>
+      <c r="E32" s="213"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="215"/>
+      <c r="I32" s="211"/>
+      <c r="J32" s="216"/>
+      <c r="K32" s="236"/>
+      <c r="L32" s="217"/>
+      <c r="M32" s="217"/>
+      <c r="N32" s="217"/>
+      <c r="O32" s="217"/>
+      <c r="P32" s="218"/>
+      <c r="Q32" s="219"/>
+      <c r="R32" s="220"/>
+      <c r="S32" s="220"/>
+      <c r="T32" s="220"/>
+      <c r="U32" s="220"/>
+      <c r="V32" s="220"/>
+      <c r="W32" s="220"/>
+      <c r="X32" s="220"/>
+      <c r="Y32" s="220"/>
+      <c r="Z32" s="220"/>
+      <c r="AA32" s="220"/>
+      <c r="AB32" s="220"/>
+      <c r="AC32" s="220"/>
+      <c r="AD32" s="220"/>
+      <c r="AE32" s="221"/>
+      <c r="AF32" s="216"/>
+      <c r="AG32" s="217"/>
+      <c r="AH32" s="217"/>
+      <c r="AI32" s="218"/>
     </row>
     <row r="33" spans="1:35" s="21" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="118"/>
-      <c r="B33" s="172"/>
-      <c r="C33" s="173"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="178"/>
-      <c r="K33" s="179"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="179"/>
-      <c r="N33" s="179"/>
-      <c r="O33" s="179"/>
-      <c r="P33" s="180"/>
-      <c r="Q33" s="181"/>
-      <c r="R33" s="182"/>
-      <c r="S33" s="182"/>
-      <c r="T33" s="182"/>
-      <c r="U33" s="182"/>
-      <c r="V33" s="182"/>
-      <c r="W33" s="182"/>
-      <c r="X33" s="182"/>
-      <c r="Y33" s="182"/>
-      <c r="Z33" s="182"/>
-      <c r="AA33" s="182"/>
-      <c r="AB33" s="182"/>
-      <c r="AC33" s="182"/>
-      <c r="AD33" s="182"/>
-      <c r="AE33" s="183"/>
-      <c r="AF33" s="178"/>
-      <c r="AG33" s="179"/>
-      <c r="AH33" s="179"/>
-      <c r="AI33" s="180"/>
+      <c r="B33" s="210"/>
+      <c r="C33" s="211"/>
+      <c r="D33" s="212"/>
+      <c r="E33" s="213"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="210"/>
+      <c r="H33" s="215"/>
+      <c r="I33" s="211"/>
+      <c r="J33" s="216"/>
+      <c r="K33" s="217"/>
+      <c r="L33" s="217"/>
+      <c r="M33" s="217"/>
+      <c r="N33" s="217"/>
+      <c r="O33" s="217"/>
+      <c r="P33" s="218"/>
+      <c r="Q33" s="219"/>
+      <c r="R33" s="220"/>
+      <c r="S33" s="220"/>
+      <c r="T33" s="220"/>
+      <c r="U33" s="220"/>
+      <c r="V33" s="220"/>
+      <c r="W33" s="220"/>
+      <c r="X33" s="220"/>
+      <c r="Y33" s="220"/>
+      <c r="Z33" s="220"/>
+      <c r="AA33" s="220"/>
+      <c r="AB33" s="220"/>
+      <c r="AC33" s="220"/>
+      <c r="AD33" s="220"/>
+      <c r="AE33" s="221"/>
+      <c r="AF33" s="216"/>
+      <c r="AG33" s="217"/>
+      <c r="AH33" s="217"/>
+      <c r="AI33" s="218"/>
     </row>
     <row r="34" spans="1:35" ht="14.25">
       <c r="K34" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
@@ -8044,162 +8143,6 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -8356,157 +8299,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="250" t="s">
+      <c r="A1" s="237" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="240" t="str">
+      <c r="B1" s="238"/>
+      <c r="C1" s="238"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="253" t="s">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="254"/>
-      <c r="Q1" s="254"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="241" t="str">
+      <c r="P1" s="241"/>
+      <c r="Q1" s="241"/>
+      <c r="R1" s="242"/>
+      <c r="S1" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="242"/>
-      <c r="U1" s="242"/>
-      <c r="V1" s="242"/>
-      <c r="W1" s="242"/>
-      <c r="X1" s="242"/>
-      <c r="Y1" s="242"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="250" t="s">
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="255"/>
+      <c r="AA1" s="237" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="252"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="239"/>
+      <c r="AC1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="237">
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="250">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="238"/>
-      <c r="AI1" s="239"/>
+      <c r="AH1" s="251"/>
+      <c r="AI1" s="252"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="250" t="s">
+      <c r="A2" s="237" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="251"/>
-      <c r="C2" s="251"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="240" t="str">
+      <c r="B2" s="238"/>
+      <c r="C2" s="238"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="256"/>
-      <c r="P2" s="257"/>
-      <c r="Q2" s="257"/>
-      <c r="R2" s="258"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="245"/>
-      <c r="Z2" s="246"/>
-      <c r="AA2" s="250" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="243"/>
+      <c r="P2" s="244"/>
+      <c r="Q2" s="244"/>
+      <c r="R2" s="245"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
+      <c r="Y2" s="257"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="237" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="252"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="239"/>
+      <c r="AC2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="237" t="str">
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="238"/>
-      <c r="AI2" s="239"/>
+      <c r="AH2" s="251"/>
+      <c r="AI2" s="252"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="250" t="s">
+      <c r="A3" s="237" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="251"/>
-      <c r="C3" s="251"/>
-      <c r="D3" s="252"/>
-      <c r="E3" s="240" t="str">
+      <c r="B3" s="238"/>
+      <c r="C3" s="238"/>
+      <c r="D3" s="239"/>
+      <c r="E3" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="259"/>
-      <c r="P3" s="260"/>
-      <c r="Q3" s="260"/>
-      <c r="R3" s="261"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="248"/>
-      <c r="U3" s="248"/>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="249"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="252"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="246"/>
+      <c r="P3" s="247"/>
+      <c r="Q3" s="247"/>
+      <c r="R3" s="248"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="237"/>
+      <c r="AB3" s="239"/>
+      <c r="AC3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="237" t="str">
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="250" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="238"/>
-      <c r="AI3" s="239"/>
+      <c r="AH3" s="251"/>
+      <c r="AI3" s="252"/>
     </row>
     <row r="4" spans="1:35" s="46" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="44"/>
@@ -9973,14 +9916,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -9990,6 +9925,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -10018,157 +9961,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="240" t="str">
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="219" t="s">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="221"/>
-      <c r="S1" s="241" t="str">
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="242"/>
-      <c r="U1" s="242"/>
-      <c r="V1" s="242"/>
-      <c r="W1" s="242"/>
-      <c r="X1" s="242"/>
-      <c r="Y1" s="242"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="216" t="s">
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="255"/>
+      <c r="AA1" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="218"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="272">
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="263">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="273"/>
-      <c r="AI1" s="274"/>
+      <c r="AH1" s="264"/>
+      <c r="AI1" s="265"/>
     </row>
     <row r="2" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="240" t="str">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="223"/>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="245"/>
-      <c r="Z2" s="246"/>
-      <c r="AA2" s="216" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
+      <c r="Y2" s="257"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="218"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="191"/>
+      <c r="AC2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="272" t="str">
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="263" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="273"/>
-      <c r="AI2" s="274"/>
+      <c r="AH2" s="264"/>
+      <c r="AI2" s="265"/>
     </row>
     <row r="3" spans="1:38" s="24" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="240" t="str">
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="225"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="248"/>
-      <c r="U3" s="248"/>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="249"/>
-      <c r="AA3" s="216"/>
-      <c r="AB3" s="218"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="189"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="272" t="str">
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="263" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="273"/>
-      <c r="AI3" s="274"/>
+      <c r="AH3" s="264"/>
+      <c r="AI3" s="265"/>
     </row>
     <row r="4" spans="1:38" ht="12" customHeight="1">
       <c r="A4" s="30"/>
@@ -10324,92 +10267,92 @@
       <c r="A8" s="30"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="265" t="s">
+      <c r="D8" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="267"/>
-      <c r="H8" s="275" t="s">
+      <c r="E8" s="269"/>
+      <c r="F8" s="269"/>
+      <c r="G8" s="270"/>
+      <c r="H8" s="266" t="s">
         <v>116</v>
       </c>
-      <c r="I8" s="276"/>
-      <c r="J8" s="276"/>
-      <c r="K8" s="276"/>
-      <c r="L8" s="276"/>
-      <c r="M8" s="276"/>
-      <c r="N8" s="276"/>
-      <c r="O8" s="276"/>
-      <c r="P8" s="276"/>
-      <c r="Q8" s="276"/>
-      <c r="R8" s="276"/>
-      <c r="S8" s="276"/>
-      <c r="T8" s="276"/>
-      <c r="U8" s="276"/>
-      <c r="V8" s="276"/>
-      <c r="W8" s="276"/>
-      <c r="X8" s="276"/>
-      <c r="Y8" s="276"/>
-      <c r="Z8" s="276"/>
-      <c r="AA8" s="276"/>
-      <c r="AB8" s="276"/>
-      <c r="AC8" s="276"/>
-      <c r="AD8" s="276"/>
-      <c r="AE8" s="276"/>
-      <c r="AF8" s="276"/>
-      <c r="AG8" s="276"/>
-      <c r="AH8" s="276"/>
+      <c r="I8" s="267"/>
+      <c r="J8" s="267"/>
+      <c r="K8" s="267"/>
+      <c r="L8" s="267"/>
+      <c r="M8" s="267"/>
+      <c r="N8" s="267"/>
+      <c r="O8" s="267"/>
+      <c r="P8" s="267"/>
+      <c r="Q8" s="267"/>
+      <c r="R8" s="267"/>
+      <c r="S8" s="267"/>
+      <c r="T8" s="267"/>
+      <c r="U8" s="267"/>
+      <c r="V8" s="267"/>
+      <c r="W8" s="267"/>
+      <c r="X8" s="267"/>
+      <c r="Y8" s="267"/>
+      <c r="Z8" s="267"/>
+      <c r="AA8" s="267"/>
+      <c r="AB8" s="267"/>
+      <c r="AC8" s="267"/>
+      <c r="AD8" s="267"/>
+      <c r="AE8" s="267"/>
+      <c r="AF8" s="267"/>
+      <c r="AG8" s="267"/>
+      <c r="AH8" s="267"/>
     </row>
     <row r="9" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="30"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="265" t="s">
+      <c r="D9" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="266"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="267"/>
-      <c r="H9" s="271" t="s">
+      <c r="E9" s="269"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="270"/>
+      <c r="H9" s="262" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="271"/>
-      <c r="J9" s="271"/>
-      <c r="K9" s="271"/>
-      <c r="L9" s="271"/>
-      <c r="M9" s="271"/>
-      <c r="N9" s="271"/>
-      <c r="O9" s="271"/>
-      <c r="P9" s="271"/>
-      <c r="Q9" s="271"/>
-      <c r="R9" s="271"/>
-      <c r="S9" s="271"/>
-      <c r="T9" s="271"/>
-      <c r="U9" s="271"/>
-      <c r="V9" s="271"/>
-      <c r="W9" s="271"/>
-      <c r="X9" s="271"/>
-      <c r="Y9" s="271"/>
-      <c r="Z9" s="271"/>
-      <c r="AA9" s="271"/>
-      <c r="AB9" s="271"/>
-      <c r="AC9" s="271"/>
-      <c r="AD9" s="271"/>
-      <c r="AE9" s="271"/>
-      <c r="AF9" s="271"/>
-      <c r="AG9" s="271"/>
-      <c r="AH9" s="271"/>
+      <c r="I9" s="262"/>
+      <c r="J9" s="262"/>
+      <c r="K9" s="262"/>
+      <c r="L9" s="262"/>
+      <c r="M9" s="262"/>
+      <c r="N9" s="262"/>
+      <c r="O9" s="262"/>
+      <c r="P9" s="262"/>
+      <c r="Q9" s="262"/>
+      <c r="R9" s="262"/>
+      <c r="S9" s="262"/>
+      <c r="T9" s="262"/>
+      <c r="U9" s="262"/>
+      <c r="V9" s="262"/>
+      <c r="W9" s="262"/>
+      <c r="X9" s="262"/>
+      <c r="Y9" s="262"/>
+      <c r="Z9" s="262"/>
+      <c r="AA9" s="262"/>
+      <c r="AB9" s="262"/>
+      <c r="AC9" s="262"/>
+      <c r="AD9" s="262"/>
+      <c r="AE9" s="262"/>
+      <c r="AF9" s="262"/>
+      <c r="AG9" s="262"/>
+      <c r="AH9" s="262"/>
     </row>
     <row r="10" spans="1:38" ht="12" customHeight="1">
       <c r="A10" s="30"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30"/>
-      <c r="D10" s="262" t="s">
+      <c r="D10" s="271" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="263"/>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
+      <c r="E10" s="272"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="273"/>
       <c r="H10" s="103" t="s">
         <v>117</v>
       </c>
@@ -10444,172 +10387,172 @@
       <c r="A11" s="30"/>
       <c r="B11" s="30"/>
       <c r="C11" s="30"/>
-      <c r="D11" s="265" t="s">
+      <c r="D11" s="268" t="s">
         <v>69</v>
       </c>
-      <c r="E11" s="266"/>
-      <c r="F11" s="266"/>
-      <c r="G11" s="267"/>
-      <c r="H11" s="275" t="s">
+      <c r="E11" s="269"/>
+      <c r="F11" s="269"/>
+      <c r="G11" s="270"/>
+      <c r="H11" s="266" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="276"/>
-      <c r="J11" s="276"/>
-      <c r="K11" s="276"/>
-      <c r="L11" s="276"/>
-      <c r="M11" s="276"/>
-      <c r="N11" s="276"/>
-      <c r="O11" s="276"/>
-      <c r="P11" s="276"/>
-      <c r="Q11" s="276"/>
-      <c r="R11" s="276"/>
-      <c r="S11" s="276"/>
-      <c r="T11" s="276"/>
-      <c r="U11" s="276"/>
-      <c r="V11" s="276"/>
-      <c r="W11" s="276"/>
-      <c r="X11" s="276"/>
-      <c r="Y11" s="276"/>
-      <c r="Z11" s="276"/>
-      <c r="AA11" s="276"/>
-      <c r="AB11" s="276"/>
-      <c r="AC11" s="276"/>
-      <c r="AD11" s="276"/>
-      <c r="AE11" s="276"/>
-      <c r="AF11" s="276"/>
-      <c r="AG11" s="276"/>
-      <c r="AH11" s="276"/>
+      <c r="I11" s="267"/>
+      <c r="J11" s="267"/>
+      <c r="K11" s="267"/>
+      <c r="L11" s="267"/>
+      <c r="M11" s="267"/>
+      <c r="N11" s="267"/>
+      <c r="O11" s="267"/>
+      <c r="P11" s="267"/>
+      <c r="Q11" s="267"/>
+      <c r="R11" s="267"/>
+      <c r="S11" s="267"/>
+      <c r="T11" s="267"/>
+      <c r="U11" s="267"/>
+      <c r="V11" s="267"/>
+      <c r="W11" s="267"/>
+      <c r="X11" s="267"/>
+      <c r="Y11" s="267"/>
+      <c r="Z11" s="267"/>
+      <c r="AA11" s="267"/>
+      <c r="AB11" s="267"/>
+      <c r="AC11" s="267"/>
+      <c r="AD11" s="267"/>
+      <c r="AE11" s="267"/>
+      <c r="AF11" s="267"/>
+      <c r="AG11" s="267"/>
+      <c r="AH11" s="267"/>
     </row>
     <row r="12" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="30"/>
       <c r="B12" s="30"/>
       <c r="C12" s="30"/>
-      <c r="D12" s="265" t="s">
+      <c r="D12" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="266"/>
-      <c r="F12" s="266"/>
-      <c r="G12" s="267"/>
-      <c r="H12" s="271" t="s">
+      <c r="E12" s="269"/>
+      <c r="F12" s="269"/>
+      <c r="G12" s="270"/>
+      <c r="H12" s="262" t="s">
         <v>113</v>
       </c>
-      <c r="I12" s="271"/>
-      <c r="J12" s="271"/>
-      <c r="K12" s="271"/>
-      <c r="L12" s="271"/>
-      <c r="M12" s="271"/>
-      <c r="N12" s="271"/>
-      <c r="O12" s="271"/>
-      <c r="P12" s="271"/>
-      <c r="Q12" s="271"/>
-      <c r="R12" s="271"/>
-      <c r="S12" s="271"/>
-      <c r="T12" s="271"/>
-      <c r="U12" s="271"/>
-      <c r="V12" s="271"/>
-      <c r="W12" s="271"/>
-      <c r="X12" s="271"/>
-      <c r="Y12" s="271"/>
-      <c r="Z12" s="271"/>
-      <c r="AA12" s="271"/>
-      <c r="AB12" s="271"/>
-      <c r="AC12" s="271"/>
-      <c r="AD12" s="271"/>
-      <c r="AE12" s="271"/>
-      <c r="AF12" s="271"/>
-      <c r="AG12" s="271"/>
-      <c r="AH12" s="271"/>
+      <c r="I12" s="262"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="262"/>
+      <c r="M12" s="262"/>
+      <c r="N12" s="262"/>
+      <c r="O12" s="262"/>
+      <c r="P12" s="262"/>
+      <c r="Q12" s="262"/>
+      <c r="R12" s="262"/>
+      <c r="S12" s="262"/>
+      <c r="T12" s="262"/>
+      <c r="U12" s="262"/>
+      <c r="V12" s="262"/>
+      <c r="W12" s="262"/>
+      <c r="X12" s="262"/>
+      <c r="Y12" s="262"/>
+      <c r="Z12" s="262"/>
+      <c r="AA12" s="262"/>
+      <c r="AB12" s="262"/>
+      <c r="AC12" s="262"/>
+      <c r="AD12" s="262"/>
+      <c r="AE12" s="262"/>
+      <c r="AF12" s="262"/>
+      <c r="AG12" s="262"/>
+      <c r="AH12" s="262"/>
     </row>
     <row r="13" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
-      <c r="D13" s="265" t="s">
+      <c r="D13" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="266"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="267"/>
-      <c r="H13" s="271" t="s">
+      <c r="E13" s="269"/>
+      <c r="F13" s="269"/>
+      <c r="G13" s="270"/>
+      <c r="H13" s="262" t="s">
         <v>148</v>
       </c>
-      <c r="I13" s="271"/>
-      <c r="J13" s="271"/>
-      <c r="K13" s="271"/>
-      <c r="L13" s="271"/>
-      <c r="M13" s="271"/>
-      <c r="N13" s="271"/>
-      <c r="O13" s="271"/>
-      <c r="P13" s="271"/>
-      <c r="Q13" s="271"/>
-      <c r="R13" s="271"/>
-      <c r="S13" s="271"/>
-      <c r="T13" s="271"/>
-      <c r="U13" s="271"/>
-      <c r="V13" s="271"/>
-      <c r="W13" s="271"/>
-      <c r="X13" s="271"/>
-      <c r="Y13" s="271"/>
-      <c r="Z13" s="271"/>
-      <c r="AA13" s="271"/>
-      <c r="AB13" s="271"/>
-      <c r="AC13" s="271"/>
-      <c r="AD13" s="271"/>
-      <c r="AE13" s="271"/>
-      <c r="AF13" s="271"/>
-      <c r="AG13" s="271"/>
-      <c r="AH13" s="271"/>
+      <c r="I13" s="262"/>
+      <c r="J13" s="262"/>
+      <c r="K13" s="262"/>
+      <c r="L13" s="262"/>
+      <c r="M13" s="262"/>
+      <c r="N13" s="262"/>
+      <c r="O13" s="262"/>
+      <c r="P13" s="262"/>
+      <c r="Q13" s="262"/>
+      <c r="R13" s="262"/>
+      <c r="S13" s="262"/>
+      <c r="T13" s="262"/>
+      <c r="U13" s="262"/>
+      <c r="V13" s="262"/>
+      <c r="W13" s="262"/>
+      <c r="X13" s="262"/>
+      <c r="Y13" s="262"/>
+      <c r="Z13" s="262"/>
+      <c r="AA13" s="262"/>
+      <c r="AB13" s="262"/>
+      <c r="AC13" s="262"/>
+      <c r="AD13" s="262"/>
+      <c r="AE13" s="262"/>
+      <c r="AF13" s="262"/>
+      <c r="AG13" s="262"/>
+      <c r="AH13" s="262"/>
     </row>
     <row r="14" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="30"/>
-      <c r="D14" s="265" t="s">
+      <c r="D14" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="266"/>
-      <c r="F14" s="266"/>
-      <c r="G14" s="267"/>
-      <c r="H14" s="271" t="s">
+      <c r="E14" s="269"/>
+      <c r="F14" s="269"/>
+      <c r="G14" s="270"/>
+      <c r="H14" s="262" t="s">
         <v>111</v>
       </c>
-      <c r="I14" s="271"/>
-      <c r="J14" s="271"/>
-      <c r="K14" s="271"/>
-      <c r="L14" s="271"/>
-      <c r="M14" s="271"/>
-      <c r="N14" s="271"/>
-      <c r="O14" s="271"/>
-      <c r="P14" s="271"/>
-      <c r="Q14" s="271"/>
-      <c r="R14" s="271"/>
-      <c r="S14" s="271"/>
-      <c r="T14" s="271"/>
-      <c r="U14" s="271"/>
-      <c r="V14" s="271"/>
-      <c r="W14" s="271"/>
-      <c r="X14" s="271"/>
-      <c r="Y14" s="271"/>
-      <c r="Z14" s="271"/>
-      <c r="AA14" s="271"/>
-      <c r="AB14" s="271"/>
-      <c r="AC14" s="271"/>
-      <c r="AD14" s="271"/>
-      <c r="AE14" s="271"/>
-      <c r="AF14" s="271"/>
-      <c r="AG14" s="271"/>
-      <c r="AH14" s="271"/>
+      <c r="I14" s="262"/>
+      <c r="J14" s="262"/>
+      <c r="K14" s="262"/>
+      <c r="L14" s="262"/>
+      <c r="M14" s="262"/>
+      <c r="N14" s="262"/>
+      <c r="O14" s="262"/>
+      <c r="P14" s="262"/>
+      <c r="Q14" s="262"/>
+      <c r="R14" s="262"/>
+      <c r="S14" s="262"/>
+      <c r="T14" s="262"/>
+      <c r="U14" s="262"/>
+      <c r="V14" s="262"/>
+      <c r="W14" s="262"/>
+      <c r="X14" s="262"/>
+      <c r="Y14" s="262"/>
+      <c r="Z14" s="262"/>
+      <c r="AA14" s="262"/>
+      <c r="AB14" s="262"/>
+      <c r="AC14" s="262"/>
+      <c r="AD14" s="262"/>
+      <c r="AE14" s="262"/>
+      <c r="AF14" s="262"/>
+      <c r="AG14" s="262"/>
+      <c r="AH14" s="262"/>
     </row>
     <row r="15" spans="1:38" s="25" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="30"/>
       <c r="B15" s="30"/>
       <c r="C15" s="30"/>
-      <c r="D15" s="265" t="s">
+      <c r="D15" s="268" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="266"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="267"/>
+      <c r="E15" s="269"/>
+      <c r="F15" s="269"/>
+      <c r="G15" s="270"/>
       <c r="H15" s="146" t="s">
         <v>118</v>
       </c>
@@ -10761,30 +10704,30 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="270"/>
-      <c r="H19" s="270"/>
-      <c r="I19" s="270"/>
-      <c r="J19" s="270"/>
-      <c r="K19" s="270"/>
-      <c r="L19" s="270"/>
-      <c r="M19" s="270"/>
-      <c r="N19" s="270"/>
-      <c r="O19" s="268"/>
-      <c r="P19" s="269"/>
-      <c r="Q19" s="269"/>
-      <c r="R19" s="269"/>
-      <c r="S19" s="269"/>
-      <c r="T19" s="269"/>
-      <c r="U19" s="269"/>
-      <c r="V19" s="269"/>
-      <c r="W19" s="269"/>
-      <c r="X19" s="269"/>
-      <c r="Y19" s="269"/>
-      <c r="Z19" s="269"/>
-      <c r="AA19" s="269"/>
-      <c r="AB19" s="269"/>
-      <c r="AC19" s="269"/>
-      <c r="AD19" s="269"/>
+      <c r="G19" s="276"/>
+      <c r="H19" s="276"/>
+      <c r="I19" s="276"/>
+      <c r="J19" s="276"/>
+      <c r="K19" s="276"/>
+      <c r="L19" s="276"/>
+      <c r="M19" s="276"/>
+      <c r="N19" s="276"/>
+      <c r="O19" s="274"/>
+      <c r="P19" s="275"/>
+      <c r="Q19" s="275"/>
+      <c r="R19" s="275"/>
+      <c r="S19" s="275"/>
+      <c r="T19" s="275"/>
+      <c r="U19" s="275"/>
+      <c r="V19" s="275"/>
+      <c r="W19" s="275"/>
+      <c r="X19" s="275"/>
+      <c r="Y19" s="275"/>
+      <c r="Z19" s="275"/>
+      <c r="AA19" s="275"/>
+      <c r="AB19" s="275"/>
+      <c r="AC19" s="275"/>
+      <c r="AD19" s="275"/>
       <c r="AE19" s="32"/>
     </row>
     <row r="20" spans="1:35" ht="12" customHeight="1">
@@ -11236,14 +11179,15 @@
     <row r="34" ht="12" customHeight="1"/>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="O19:AD19"/>
+    <mergeCell ref="G19:N19"/>
+    <mergeCell ref="H12:AH12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
     <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AC3:AF3"/>
@@ -11260,15 +11204,14 @@
     <mergeCell ref="H11:AH11"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="O19:AD19"/>
-    <mergeCell ref="G19:N19"/>
-    <mergeCell ref="H12:AH12"/>
-    <mergeCell ref="D13:G13"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11297,157 +11240,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="240" t="str">
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="219" t="s">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="221"/>
-      <c r="S1" s="241" t="str">
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="242"/>
-      <c r="U1" s="242"/>
-      <c r="V1" s="242"/>
-      <c r="W1" s="242"/>
-      <c r="X1" s="242"/>
-      <c r="Y1" s="242"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="216" t="s">
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="255"/>
+      <c r="AA1" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="218"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="272">
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="263">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="273"/>
-      <c r="AI1" s="274"/>
+      <c r="AH1" s="264"/>
+      <c r="AI1" s="265"/>
     </row>
     <row r="2" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="240" t="str">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="223"/>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="245"/>
-      <c r="Z2" s="246"/>
-      <c r="AA2" s="216" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
+      <c r="Y2" s="257"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="218"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="191"/>
+      <c r="AC2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="272" t="str">
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="263" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="273"/>
-      <c r="AI2" s="274"/>
+      <c r="AH2" s="264"/>
+      <c r="AI2" s="265"/>
     </row>
     <row r="3" spans="1:35" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="240" t="str">
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="225"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="248"/>
-      <c r="U3" s="248"/>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="249"/>
-      <c r="AA3" s="216"/>
-      <c r="AB3" s="218"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="189"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="272" t="str">
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="263" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="273"/>
-      <c r="AI3" s="274"/>
+      <c r="AH3" s="264"/>
+      <c r="AI3" s="265"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1"/>
     <row r="5" spans="1:35" ht="12" customHeight="1">
@@ -11463,6 +11406,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="AA1:AB1"/>
@@ -11474,12 +11423,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <printOptions horizontalCentered="1"/>
@@ -11493,7 +11436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -11509,163 +11452,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="189" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="218"/>
-      <c r="E1" s="240" t="str">
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="211"/>
-      <c r="G1" s="211"/>
-      <c r="H1" s="211"/>
-      <c r="I1" s="211"/>
-      <c r="J1" s="211"/>
-      <c r="K1" s="211"/>
-      <c r="L1" s="211"/>
-      <c r="M1" s="211"/>
-      <c r="N1" s="212"/>
-      <c r="O1" s="219" t="s">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="192" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="220"/>
-      <c r="Q1" s="220"/>
-      <c r="R1" s="221"/>
-      <c r="S1" s="241" t="str">
+      <c r="P1" s="193"/>
+      <c r="Q1" s="193"/>
+      <c r="R1" s="194"/>
+      <c r="S1" s="253" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v xml:space="preserve">システム機能設計書(Webサービス)       </v>
       </c>
-      <c r="T1" s="242"/>
-      <c r="U1" s="242"/>
-      <c r="V1" s="242"/>
-      <c r="W1" s="242"/>
-      <c r="X1" s="242"/>
-      <c r="Y1" s="242"/>
-      <c r="Z1" s="243"/>
-      <c r="AA1" s="216" t="s">
+      <c r="T1" s="254"/>
+      <c r="U1" s="254"/>
+      <c r="V1" s="254"/>
+      <c r="W1" s="254"/>
+      <c r="X1" s="254"/>
+      <c r="Y1" s="254"/>
+      <c r="Z1" s="255"/>
+      <c r="AA1" s="189" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="218"/>
-      <c r="AC1" s="202" t="str">
+      <c r="AB1" s="191"/>
+      <c r="AC1" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="200"/>
-      <c r="AE1" s="200"/>
-      <c r="AF1" s="201"/>
-      <c r="AG1" s="272">
+      <c r="AD1" s="173"/>
+      <c r="AE1" s="173"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="263">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43718</v>
       </c>
-      <c r="AH1" s="273"/>
-      <c r="AI1" s="274"/>
+      <c r="AH1" s="264"/>
+      <c r="AI1" s="265"/>
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
       <c r="AL1" s="14"/>
     </row>
     <row r="2" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="216" t="s">
+      <c r="A2" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="217"/>
-      <c r="C2" s="217"/>
-      <c r="D2" s="218"/>
-      <c r="E2" s="240" t="str">
+      <c r="B2" s="190"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="211"/>
-      <c r="G2" s="211"/>
-      <c r="H2" s="211"/>
-      <c r="I2" s="211"/>
-      <c r="J2" s="211"/>
-      <c r="K2" s="211"/>
-      <c r="L2" s="211"/>
-      <c r="M2" s="211"/>
-      <c r="N2" s="212"/>
-      <c r="O2" s="222"/>
-      <c r="P2" s="223"/>
-      <c r="Q2" s="223"/>
-      <c r="R2" s="224"/>
-      <c r="S2" s="244"/>
-      <c r="T2" s="245"/>
-      <c r="U2" s="245"/>
-      <c r="V2" s="245"/>
-      <c r="W2" s="245"/>
-      <c r="X2" s="245"/>
-      <c r="Y2" s="245"/>
-      <c r="Z2" s="246"/>
-      <c r="AA2" s="216" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="195"/>
+      <c r="P2" s="196"/>
+      <c r="Q2" s="196"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="256"/>
+      <c r="T2" s="257"/>
+      <c r="U2" s="257"/>
+      <c r="V2" s="257"/>
+      <c r="W2" s="257"/>
+      <c r="X2" s="257"/>
+      <c r="Y2" s="257"/>
+      <c r="Z2" s="258"/>
+      <c r="AA2" s="189" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="218"/>
-      <c r="AC2" s="202" t="str">
+      <c r="AB2" s="191"/>
+      <c r="AC2" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="200"/>
-      <c r="AE2" s="200"/>
-      <c r="AF2" s="201"/>
-      <c r="AG2" s="272" t="str">
+      <c r="AD2" s="173"/>
+      <c r="AE2" s="173"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="263" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="273"/>
-      <c r="AI2" s="274"/>
+      <c r="AH2" s="264"/>
+      <c r="AI2" s="265"/>
       <c r="AJ2" s="13"/>
       <c r="AK2" s="13"/>
       <c r="AL2" s="13"/>
     </row>
     <row r="3" spans="1:38" s="42" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="216" t="s">
+      <c r="A3" s="189" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="218"/>
-      <c r="E3" s="240" t="str">
+      <c r="B3" s="190"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="191"/>
+      <c r="E3" s="249" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>顧客管理システム</v>
       </c>
-      <c r="F3" s="211"/>
-      <c r="G3" s="211"/>
-      <c r="H3" s="211"/>
-      <c r="I3" s="211"/>
-      <c r="J3" s="211"/>
-      <c r="K3" s="211"/>
-      <c r="L3" s="211"/>
-      <c r="M3" s="211"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="225"/>
-      <c r="P3" s="226"/>
-      <c r="Q3" s="226"/>
-      <c r="R3" s="227"/>
-      <c r="S3" s="247"/>
-      <c r="T3" s="248"/>
-      <c r="U3" s="248"/>
-      <c r="V3" s="248"/>
-      <c r="W3" s="248"/>
-      <c r="X3" s="248"/>
-      <c r="Y3" s="248"/>
-      <c r="Z3" s="249"/>
-      <c r="AA3" s="216"/>
-      <c r="AB3" s="218"/>
-      <c r="AC3" s="202" t="str">
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="198"/>
+      <c r="P3" s="199"/>
+      <c r="Q3" s="199"/>
+      <c r="R3" s="200"/>
+      <c r="S3" s="259"/>
+      <c r="T3" s="260"/>
+      <c r="U3" s="260"/>
+      <c r="V3" s="260"/>
+      <c r="W3" s="260"/>
+      <c r="X3" s="260"/>
+      <c r="Y3" s="260"/>
+      <c r="Z3" s="261"/>
+      <c r="AA3" s="189"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="175" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="200"/>
-      <c r="AE3" s="200"/>
-      <c r="AF3" s="201"/>
-      <c r="AG3" s="272" t="str">
+      <c r="AD3" s="173"/>
+      <c r="AE3" s="173"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="263" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="273"/>
-      <c r="AI3" s="274"/>
+      <c r="AH3" s="264"/>
+      <c r="AI3" s="265"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13"/>
       <c r="AL3" s="13"/>
@@ -11783,65 +11726,65 @@
     <row r="8" spans="1:38">
       <c r="B8" s="30"/>
       <c r="C8" s="30"/>
-      <c r="D8" s="350" t="s">
+      <c r="D8" s="296" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="352" t="s">
+      <c r="E8" s="298" t="s">
         <v>50</v>
       </c>
-      <c r="F8" s="353"/>
-      <c r="G8" s="353"/>
-      <c r="H8" s="353"/>
-      <c r="I8" s="353"/>
-      <c r="J8" s="354"/>
-      <c r="K8" s="358" t="s">
+      <c r="F8" s="299"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="299"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="300"/>
+      <c r="K8" s="304" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="353"/>
-      <c r="M8" s="353"/>
-      <c r="N8" s="354"/>
-      <c r="O8" s="359" t="s">
+      <c r="L8" s="299"/>
+      <c r="M8" s="299"/>
+      <c r="N8" s="300"/>
+      <c r="O8" s="305" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="364" t="s">
+      <c r="P8" s="310" t="s">
         <v>47</v>
       </c>
-      <c r="Q8" s="365"/>
-      <c r="R8" s="365"/>
-      <c r="S8" s="365"/>
-      <c r="T8" s="365"/>
-      <c r="U8" s="366"/>
-      <c r="V8" s="361" t="s">
+      <c r="Q8" s="311"/>
+      <c r="R8" s="311"/>
+      <c r="S8" s="311"/>
+      <c r="T8" s="311"/>
+      <c r="U8" s="312"/>
+      <c r="V8" s="307" t="s">
         <v>35</v>
       </c>
-      <c r="W8" s="361"/>
-      <c r="X8" s="361"/>
-      <c r="Y8" s="361"/>
-      <c r="Z8" s="361"/>
-      <c r="AA8" s="361"/>
-      <c r="AB8" s="361"/>
-      <c r="AC8" s="361"/>
-      <c r="AD8" s="361"/>
-      <c r="AE8" s="361"/>
-      <c r="AF8" s="361"/>
-      <c r="AG8" s="361"/>
-      <c r="AH8" s="361"/>
+      <c r="W8" s="307"/>
+      <c r="X8" s="307"/>
+      <c r="Y8" s="307"/>
+      <c r="Z8" s="307"/>
+      <c r="AA8" s="307"/>
+      <c r="AB8" s="307"/>
+      <c r="AC8" s="307"/>
+      <c r="AD8" s="307"/>
+      <c r="AE8" s="307"/>
+      <c r="AF8" s="307"/>
+      <c r="AG8" s="307"/>
+      <c r="AH8" s="307"/>
     </row>
     <row r="9" spans="1:38">
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
-      <c r="D9" s="351"/>
-      <c r="E9" s="355"/>
-      <c r="F9" s="356"/>
-      <c r="G9" s="356"/>
-      <c r="H9" s="356"/>
-      <c r="I9" s="356"/>
-      <c r="J9" s="357"/>
-      <c r="K9" s="355"/>
-      <c r="L9" s="356"/>
-      <c r="M9" s="356"/>
-      <c r="N9" s="357"/>
-      <c r="O9" s="360"/>
+      <c r="D9" s="297"/>
+      <c r="E9" s="301"/>
+      <c r="F9" s="302"/>
+      <c r="G9" s="302"/>
+      <c r="H9" s="302"/>
+      <c r="I9" s="302"/>
+      <c r="J9" s="303"/>
+      <c r="K9" s="301"/>
+      <c r="L9" s="302"/>
+      <c r="M9" s="302"/>
+      <c r="N9" s="303"/>
+      <c r="O9" s="306"/>
       <c r="P9" s="90" t="s">
         <v>46</v>
       </c>
@@ -11854,23 +11797,23 @@
       <c r="S9" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="T9" s="362" t="s">
+      <c r="T9" s="308" t="s">
         <v>42</v>
       </c>
-      <c r="U9" s="363"/>
-      <c r="V9" s="361"/>
-      <c r="W9" s="361"/>
-      <c r="X9" s="361"/>
-      <c r="Y9" s="361"/>
-      <c r="Z9" s="361"/>
-      <c r="AA9" s="361"/>
-      <c r="AB9" s="361"/>
-      <c r="AC9" s="361"/>
-      <c r="AD9" s="361"/>
-      <c r="AE9" s="361"/>
-      <c r="AF9" s="361"/>
-      <c r="AG9" s="361"/>
-      <c r="AH9" s="361"/>
+      <c r="U9" s="309"/>
+      <c r="V9" s="307"/>
+      <c r="W9" s="307"/>
+      <c r="X9" s="307"/>
+      <c r="Y9" s="307"/>
+      <c r="Z9" s="307"/>
+      <c r="AA9" s="307"/>
+      <c r="AB9" s="307"/>
+      <c r="AC9" s="307"/>
+      <c r="AD9" s="307"/>
+      <c r="AE9" s="307"/>
+      <c r="AF9" s="307"/>
+      <c r="AG9" s="307"/>
+      <c r="AH9" s="307"/>
     </row>
     <row r="10" spans="1:38">
       <c r="B10" s="30"/>
@@ -11878,20 +11821,20 @@
       <c r="D10" s="114">
         <v>1</v>
       </c>
-      <c r="E10" s="289" t="s">
+      <c r="E10" s="285" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="183"/>
-      <c r="K10" s="181" t="s">
+      <c r="F10" s="220"/>
+      <c r="G10" s="220"/>
+      <c r="H10" s="220"/>
+      <c r="I10" s="220"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="L10" s="182"/>
-      <c r="M10" s="182"/>
-      <c r="N10" s="183"/>
+      <c r="L10" s="220"/>
+      <c r="M10" s="220"/>
+      <c r="N10" s="221"/>
       <c r="O10" s="115" t="s">
         <v>76</v>
       </c>
@@ -11907,23 +11850,23 @@
       <c r="S10" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T10" s="291" t="s">
+      <c r="T10" s="280" t="s">
         <v>79</v>
       </c>
-      <c r="U10" s="292"/>
-      <c r="V10" s="181"/>
-      <c r="W10" s="182"/>
-      <c r="X10" s="182"/>
-      <c r="Y10" s="182"/>
-      <c r="Z10" s="182"/>
-      <c r="AA10" s="182"/>
-      <c r="AB10" s="182"/>
-      <c r="AC10" s="182"/>
-      <c r="AD10" s="182"/>
-      <c r="AE10" s="182"/>
-      <c r="AF10" s="182"/>
-      <c r="AG10" s="182"/>
-      <c r="AH10" s="183"/>
+      <c r="U10" s="281"/>
+      <c r="V10" s="219"/>
+      <c r="W10" s="220"/>
+      <c r="X10" s="220"/>
+      <c r="Y10" s="220"/>
+      <c r="Z10" s="220"/>
+      <c r="AA10" s="220"/>
+      <c r="AB10" s="220"/>
+      <c r="AC10" s="220"/>
+      <c r="AD10" s="220"/>
+      <c r="AE10" s="220"/>
+      <c r="AF10" s="220"/>
+      <c r="AG10" s="220"/>
+      <c r="AH10" s="221"/>
     </row>
     <row r="11" spans="1:38">
       <c r="B11" s="30"/>
@@ -11931,20 +11874,20 @@
       <c r="D11" s="114">
         <v>2</v>
       </c>
-      <c r="E11" s="289" t="s">
+      <c r="E11" s="285" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="183"/>
-      <c r="K11" s="181" t="s">
+      <c r="F11" s="220"/>
+      <c r="G11" s="220"/>
+      <c r="H11" s="220"/>
+      <c r="I11" s="220"/>
+      <c r="J11" s="221"/>
+      <c r="K11" s="219" t="s">
         <v>121</v>
       </c>
-      <c r="L11" s="182"/>
-      <c r="M11" s="182"/>
-      <c r="N11" s="183"/>
+      <c r="L11" s="220"/>
+      <c r="M11" s="220"/>
+      <c r="N11" s="221"/>
       <c r="O11" s="116" t="s">
         <v>76</v>
       </c>
@@ -11960,23 +11903,23 @@
       <c r="S11" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T11" s="291" t="s">
+      <c r="T11" s="280" t="s">
         <v>79</v>
       </c>
-      <c r="U11" s="292"/>
-      <c r="V11" s="181"/>
-      <c r="W11" s="182"/>
-      <c r="X11" s="182"/>
-      <c r="Y11" s="182"/>
-      <c r="Z11" s="182"/>
-      <c r="AA11" s="182"/>
-      <c r="AB11" s="182"/>
-      <c r="AC11" s="182"/>
-      <c r="AD11" s="182"/>
-      <c r="AE11" s="182"/>
-      <c r="AF11" s="182"/>
-      <c r="AG11" s="182"/>
-      <c r="AH11" s="183"/>
+      <c r="U11" s="281"/>
+      <c r="V11" s="219"/>
+      <c r="W11" s="220"/>
+      <c r="X11" s="220"/>
+      <c r="Y11" s="220"/>
+      <c r="Z11" s="220"/>
+      <c r="AA11" s="220"/>
+      <c r="AB11" s="220"/>
+      <c r="AC11" s="220"/>
+      <c r="AD11" s="220"/>
+      <c r="AE11" s="220"/>
+      <c r="AF11" s="220"/>
+      <c r="AG11" s="220"/>
+      <c r="AH11" s="221"/>
     </row>
     <row r="12" spans="1:38">
       <c r="B12" s="30"/>
@@ -11984,20 +11927,20 @@
       <c r="D12" s="114">
         <v>3</v>
       </c>
-      <c r="E12" s="289" t="s">
+      <c r="E12" s="285" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="182"/>
-      <c r="G12" s="182"/>
-      <c r="H12" s="182"/>
-      <c r="I12" s="182"/>
-      <c r="J12" s="183"/>
-      <c r="K12" s="181" t="s">
+      <c r="F12" s="220"/>
+      <c r="G12" s="220"/>
+      <c r="H12" s="220"/>
+      <c r="I12" s="220"/>
+      <c r="J12" s="221"/>
+      <c r="K12" s="219" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="182"/>
-      <c r="M12" s="182"/>
-      <c r="N12" s="183"/>
+      <c r="L12" s="220"/>
+      <c r="M12" s="220"/>
+      <c r="N12" s="221"/>
       <c r="O12" s="116" t="s">
         <v>77</v>
       </c>
@@ -12013,23 +11956,23 @@
       <c r="S12" s="89" t="s">
         <v>79</v>
       </c>
-      <c r="T12" s="291" t="s">
+      <c r="T12" s="280" t="s">
         <v>79</v>
       </c>
-      <c r="U12" s="292"/>
-      <c r="V12" s="181"/>
-      <c r="W12" s="182"/>
-      <c r="X12" s="182"/>
-      <c r="Y12" s="182"/>
-      <c r="Z12" s="182"/>
-      <c r="AA12" s="182"/>
-      <c r="AB12" s="182"/>
-      <c r="AC12" s="182"/>
-      <c r="AD12" s="182"/>
-      <c r="AE12" s="182"/>
-      <c r="AF12" s="182"/>
-      <c r="AG12" s="182"/>
-      <c r="AH12" s="183"/>
+      <c r="U12" s="281"/>
+      <c r="V12" s="219"/>
+      <c r="W12" s="220"/>
+      <c r="X12" s="220"/>
+      <c r="Y12" s="220"/>
+      <c r="Z12" s="220"/>
+      <c r="AA12" s="220"/>
+      <c r="AB12" s="220"/>
+      <c r="AC12" s="220"/>
+      <c r="AD12" s="220"/>
+      <c r="AE12" s="220"/>
+      <c r="AF12" s="220"/>
+      <c r="AG12" s="220"/>
+      <c r="AH12" s="221"/>
     </row>
     <row r="13" spans="1:38">
       <c r="B13" s="30"/>
@@ -12179,40 +12122,40 @@
       <c r="D17" s="127" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="320" t="s">
+      <c r="E17" s="375" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="321"/>
-      <c r="G17" s="322"/>
-      <c r="H17" s="379" t="s">
+      <c r="F17" s="376"/>
+      <c r="G17" s="377"/>
+      <c r="H17" s="282" t="s">
         <v>36</v>
       </c>
-      <c r="I17" s="380"/>
-      <c r="J17" s="380"/>
-      <c r="K17" s="380"/>
-      <c r="L17" s="380"/>
-      <c r="M17" s="380"/>
-      <c r="N17" s="380"/>
-      <c r="O17" s="380"/>
-      <c r="P17" s="380"/>
-      <c r="Q17" s="380"/>
-      <c r="R17" s="380"/>
-      <c r="S17" s="380"/>
-      <c r="T17" s="380"/>
-      <c r="U17" s="380"/>
-      <c r="V17" s="380"/>
-      <c r="W17" s="380"/>
-      <c r="X17" s="380"/>
-      <c r="Y17" s="380"/>
-      <c r="Z17" s="380"/>
-      <c r="AA17" s="380"/>
-      <c r="AB17" s="380"/>
-      <c r="AC17" s="380"/>
-      <c r="AD17" s="380"/>
-      <c r="AE17" s="380"/>
-      <c r="AF17" s="380"/>
-      <c r="AG17" s="380"/>
-      <c r="AH17" s="381"/>
+      <c r="I17" s="283"/>
+      <c r="J17" s="283"/>
+      <c r="K17" s="283"/>
+      <c r="L17" s="283"/>
+      <c r="M17" s="283"/>
+      <c r="N17" s="283"/>
+      <c r="O17" s="283"/>
+      <c r="P17" s="283"/>
+      <c r="Q17" s="283"/>
+      <c r="R17" s="283"/>
+      <c r="S17" s="283"/>
+      <c r="T17" s="283"/>
+      <c r="U17" s="283"/>
+      <c r="V17" s="283"/>
+      <c r="W17" s="283"/>
+      <c r="X17" s="283"/>
+      <c r="Y17" s="283"/>
+      <c r="Z17" s="283"/>
+      <c r="AA17" s="283"/>
+      <c r="AB17" s="283"/>
+      <c r="AC17" s="283"/>
+      <c r="AD17" s="283"/>
+      <c r="AE17" s="283"/>
+      <c r="AF17" s="283"/>
+      <c r="AG17" s="283"/>
+      <c r="AH17" s="284"/>
     </row>
     <row r="18" spans="1:35" s="88" customFormat="1" ht="24" customHeight="1">
       <c r="B18" s="30"/>
@@ -12220,40 +12163,40 @@
       <c r="D18" s="114">
         <v>1</v>
       </c>
-      <c r="E18" s="289" t="s">
+      <c r="E18" s="285" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="182"/>
-      <c r="G18" s="183"/>
-      <c r="H18" s="289" t="s">
+      <c r="F18" s="220"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="285" t="s">
         <v>122</v>
       </c>
-      <c r="I18" s="182"/>
-      <c r="J18" s="182"/>
-      <c r="K18" s="182"/>
-      <c r="L18" s="182"/>
-      <c r="M18" s="182"/>
-      <c r="N18" s="182"/>
-      <c r="O18" s="182"/>
-      <c r="P18" s="182"/>
-      <c r="Q18" s="182"/>
-      <c r="R18" s="182"/>
-      <c r="S18" s="182"/>
-      <c r="T18" s="182"/>
-      <c r="U18" s="182"/>
-      <c r="V18" s="182"/>
-      <c r="W18" s="182"/>
-      <c r="X18" s="182"/>
-      <c r="Y18" s="182"/>
-      <c r="Z18" s="182"/>
-      <c r="AA18" s="182"/>
-      <c r="AB18" s="182"/>
-      <c r="AC18" s="182"/>
-      <c r="AD18" s="182"/>
-      <c r="AE18" s="182"/>
-      <c r="AF18" s="182"/>
-      <c r="AG18" s="182"/>
-      <c r="AH18" s="183"/>
+      <c r="I18" s="220"/>
+      <c r="J18" s="220"/>
+      <c r="K18" s="220"/>
+      <c r="L18" s="220"/>
+      <c r="M18" s="220"/>
+      <c r="N18" s="220"/>
+      <c r="O18" s="220"/>
+      <c r="P18" s="220"/>
+      <c r="Q18" s="220"/>
+      <c r="R18" s="220"/>
+      <c r="S18" s="220"/>
+      <c r="T18" s="220"/>
+      <c r="U18" s="220"/>
+      <c r="V18" s="220"/>
+      <c r="W18" s="220"/>
+      <c r="X18" s="220"/>
+      <c r="Y18" s="220"/>
+      <c r="Z18" s="220"/>
+      <c r="AA18" s="220"/>
+      <c r="AB18" s="220"/>
+      <c r="AC18" s="220"/>
+      <c r="AD18" s="220"/>
+      <c r="AE18" s="220"/>
+      <c r="AF18" s="220"/>
+      <c r="AG18" s="220"/>
+      <c r="AH18" s="221"/>
     </row>
     <row r="19" spans="1:35" ht="24" customHeight="1">
       <c r="B19" s="1"/>
@@ -12261,40 +12204,40 @@
       <c r="D19" s="114">
         <v>2</v>
       </c>
-      <c r="E19" s="289" t="s">
+      <c r="E19" s="285" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="182"/>
-      <c r="G19" s="183"/>
-      <c r="H19" s="289" t="s">
+      <c r="F19" s="220"/>
+      <c r="G19" s="221"/>
+      <c r="H19" s="285" t="s">
         <v>115</v>
       </c>
-      <c r="I19" s="182"/>
-      <c r="J19" s="182"/>
-      <c r="K19" s="182"/>
-      <c r="L19" s="182"/>
-      <c r="M19" s="182"/>
-      <c r="N19" s="182"/>
-      <c r="O19" s="182"/>
-      <c r="P19" s="182"/>
-      <c r="Q19" s="182"/>
-      <c r="R19" s="182"/>
-      <c r="S19" s="182"/>
-      <c r="T19" s="182"/>
-      <c r="U19" s="182"/>
-      <c r="V19" s="182"/>
-      <c r="W19" s="182"/>
-      <c r="X19" s="182"/>
-      <c r="Y19" s="182"/>
-      <c r="Z19" s="182"/>
-      <c r="AA19" s="182"/>
-      <c r="AB19" s="182"/>
-      <c r="AC19" s="182"/>
-      <c r="AD19" s="182"/>
-      <c r="AE19" s="182"/>
-      <c r="AF19" s="182"/>
-      <c r="AG19" s="182"/>
-      <c r="AH19" s="183"/>
+      <c r="I19" s="220"/>
+      <c r="J19" s="220"/>
+      <c r="K19" s="220"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="220"/>
+      <c r="N19" s="220"/>
+      <c r="O19" s="220"/>
+      <c r="P19" s="220"/>
+      <c r="Q19" s="220"/>
+      <c r="R19" s="220"/>
+      <c r="S19" s="220"/>
+      <c r="T19" s="220"/>
+      <c r="U19" s="220"/>
+      <c r="V19" s="220"/>
+      <c r="W19" s="220"/>
+      <c r="X19" s="220"/>
+      <c r="Y19" s="220"/>
+      <c r="Z19" s="220"/>
+      <c r="AA19" s="220"/>
+      <c r="AB19" s="220"/>
+      <c r="AC19" s="220"/>
+      <c r="AD19" s="220"/>
+      <c r="AE19" s="220"/>
+      <c r="AF19" s="220"/>
+      <c r="AG19" s="220"/>
+      <c r="AH19" s="221"/>
     </row>
     <row r="20" spans="1:35" ht="24" customHeight="1">
       <c r="B20" s="1"/>
@@ -12302,40 +12245,40 @@
       <c r="D20" s="114">
         <v>3</v>
       </c>
-      <c r="E20" s="289" t="s">
+      <c r="E20" s="285" t="s">
         <v>114</v>
       </c>
-      <c r="F20" s="182"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="289" t="s">
+      <c r="F20" s="220"/>
+      <c r="G20" s="221"/>
+      <c r="H20" s="285" t="s">
         <v>123</v>
       </c>
-      <c r="I20" s="182"/>
-      <c r="J20" s="182"/>
-      <c r="K20" s="182"/>
-      <c r="L20" s="182"/>
-      <c r="M20" s="182"/>
-      <c r="N20" s="182"/>
-      <c r="O20" s="182"/>
-      <c r="P20" s="182"/>
-      <c r="Q20" s="182"/>
-      <c r="R20" s="182"/>
-      <c r="S20" s="182"/>
-      <c r="T20" s="182"/>
-      <c r="U20" s="182"/>
-      <c r="V20" s="182"/>
-      <c r="W20" s="182"/>
-      <c r="X20" s="182"/>
-      <c r="Y20" s="182"/>
-      <c r="Z20" s="182"/>
-      <c r="AA20" s="182"/>
-      <c r="AB20" s="182"/>
-      <c r="AC20" s="182"/>
-      <c r="AD20" s="182"/>
-      <c r="AE20" s="182"/>
-      <c r="AF20" s="182"/>
-      <c r="AG20" s="182"/>
-      <c r="AH20" s="183"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="220"/>
+      <c r="K20" s="220"/>
+      <c r="L20" s="220"/>
+      <c r="M20" s="220"/>
+      <c r="N20" s="220"/>
+      <c r="O20" s="220"/>
+      <c r="P20" s="220"/>
+      <c r="Q20" s="220"/>
+      <c r="R20" s="220"/>
+      <c r="S20" s="220"/>
+      <c r="T20" s="220"/>
+      <c r="U20" s="220"/>
+      <c r="V20" s="220"/>
+      <c r="W20" s="220"/>
+      <c r="X20" s="220"/>
+      <c r="Y20" s="220"/>
+      <c r="Z20" s="220"/>
+      <c r="AA20" s="220"/>
+      <c r="AB20" s="220"/>
+      <c r="AC20" s="220"/>
+      <c r="AD20" s="220"/>
+      <c r="AE20" s="220"/>
+      <c r="AF20" s="220"/>
+      <c r="AG20" s="220"/>
+      <c r="AH20" s="221"/>
     </row>
     <row r="21" spans="1:35">
       <c r="B21" s="87"/>
@@ -12846,43 +12789,43 @@
       <c r="E36" s="128" t="s">
         <v>86</v>
       </c>
-      <c r="F36" s="340" t="s">
+      <c r="F36" s="313" t="s">
         <v>87</v>
       </c>
-      <c r="G36" s="341"/>
-      <c r="H36" s="341"/>
-      <c r="I36" s="341"/>
-      <c r="J36" s="341"/>
-      <c r="K36" s="342"/>
-      <c r="L36" s="343" t="s">
+      <c r="G36" s="314"/>
+      <c r="H36" s="314"/>
+      <c r="I36" s="314"/>
+      <c r="J36" s="314"/>
+      <c r="K36" s="315"/>
+      <c r="L36" s="316" t="s">
         <v>88</v>
       </c>
-      <c r="M36" s="341"/>
-      <c r="N36" s="341"/>
-      <c r="O36" s="341"/>
-      <c r="P36" s="341"/>
-      <c r="Q36" s="341"/>
-      <c r="R36" s="341"/>
-      <c r="S36" s="341"/>
-      <c r="T36" s="341"/>
-      <c r="U36" s="342"/>
-      <c r="V36" s="344" t="s">
+      <c r="M36" s="314"/>
+      <c r="N36" s="314"/>
+      <c r="O36" s="314"/>
+      <c r="P36" s="314"/>
+      <c r="Q36" s="314"/>
+      <c r="R36" s="314"/>
+      <c r="S36" s="314"/>
+      <c r="T36" s="314"/>
+      <c r="U36" s="315"/>
+      <c r="V36" s="317" t="s">
         <v>89</v>
       </c>
-      <c r="W36" s="345"/>
-      <c r="X36" s="346"/>
-      <c r="Y36" s="344" t="s">
+      <c r="W36" s="318"/>
+      <c r="X36" s="319"/>
+      <c r="Y36" s="317" t="s">
         <v>90</v>
       </c>
-      <c r="Z36" s="345"/>
-      <c r="AA36" s="345"/>
-      <c r="AB36" s="346"/>
-      <c r="AC36" s="347" t="s">
+      <c r="Z36" s="318"/>
+      <c r="AA36" s="318"/>
+      <c r="AB36" s="319"/>
+      <c r="AC36" s="320" t="s">
         <v>91</v>
       </c>
-      <c r="AD36" s="348"/>
-      <c r="AE36" s="348"/>
-      <c r="AF36" s="349"/>
+      <c r="AD36" s="321"/>
+      <c r="AE36" s="321"/>
+      <c r="AF36" s="322"/>
       <c r="AG36" s="48"/>
       <c r="AH36" s="48"/>
       <c r="AI36" s="48"/>
@@ -12895,43 +12838,43 @@
       <c r="E37" s="129">
         <v>1</v>
       </c>
-      <c r="F37" s="317" t="s">
+      <c r="F37" s="374" t="s">
         <v>92</v>
       </c>
-      <c r="G37" s="318"/>
-      <c r="H37" s="318"/>
-      <c r="I37" s="318"/>
-      <c r="J37" s="318"/>
-      <c r="K37" s="319"/>
-      <c r="L37" s="280" t="s">
+      <c r="G37" s="331"/>
+      <c r="H37" s="331"/>
+      <c r="I37" s="331"/>
+      <c r="J37" s="331"/>
+      <c r="K37" s="332"/>
+      <c r="L37" s="330" t="s">
         <v>93</v>
       </c>
-      <c r="M37" s="318"/>
-      <c r="N37" s="318"/>
-      <c r="O37" s="318"/>
-      <c r="P37" s="318"/>
-      <c r="Q37" s="318"/>
-      <c r="R37" s="318"/>
-      <c r="S37" s="318"/>
-      <c r="T37" s="318"/>
-      <c r="U37" s="319"/>
-      <c r="V37" s="334" t="s">
+      <c r="M37" s="331"/>
+      <c r="N37" s="331"/>
+      <c r="O37" s="331"/>
+      <c r="P37" s="331"/>
+      <c r="Q37" s="331"/>
+      <c r="R37" s="331"/>
+      <c r="S37" s="331"/>
+      <c r="T37" s="331"/>
+      <c r="U37" s="332"/>
+      <c r="V37" s="344" t="s">
         <v>94</v>
       </c>
-      <c r="W37" s="335"/>
-      <c r="X37" s="336"/>
-      <c r="Y37" s="331" t="s">
+      <c r="W37" s="345"/>
+      <c r="X37" s="346"/>
+      <c r="Y37" s="341" t="s">
         <v>95</v>
       </c>
-      <c r="Z37" s="332"/>
-      <c r="AA37" s="332"/>
-      <c r="AB37" s="333"/>
-      <c r="AC37" s="280" t="s">
+      <c r="Z37" s="342"/>
+      <c r="AA37" s="342"/>
+      <c r="AB37" s="343"/>
+      <c r="AC37" s="330" t="s">
         <v>126</v>
       </c>
-      <c r="AD37" s="318"/>
-      <c r="AE37" s="318"/>
-      <c r="AF37" s="319"/>
+      <c r="AD37" s="331"/>
+      <c r="AE37" s="331"/>
+      <c r="AF37" s="332"/>
       <c r="AG37" s="48"/>
       <c r="AH37" s="48"/>
       <c r="AI37" s="48"/>
@@ -13017,80 +12960,80 @@
       <c r="B40" s="58"/>
       <c r="C40" s="58"/>
       <c r="D40"/>
-      <c r="E40" s="286" t="s">
+      <c r="E40" s="333" t="s">
         <v>128</v>
       </c>
-      <c r="F40" s="287"/>
-      <c r="G40" s="287"/>
-      <c r="H40" s="287"/>
-      <c r="I40" s="287"/>
-      <c r="J40" s="288" t="s">
+      <c r="F40" s="334"/>
+      <c r="G40" s="334"/>
+      <c r="H40" s="334"/>
+      <c r="I40" s="334"/>
+      <c r="J40" s="335" t="s">
         <v>129</v>
       </c>
-      <c r="K40" s="288"/>
-      <c r="L40" s="288"/>
-      <c r="M40" s="277" t="s">
+      <c r="K40" s="335"/>
+      <c r="L40" s="335"/>
+      <c r="M40" s="336" t="s">
         <v>130</v>
       </c>
-      <c r="N40" s="278"/>
-      <c r="O40" s="278"/>
-      <c r="P40" s="278"/>
-      <c r="Q40" s="278"/>
-      <c r="R40" s="278"/>
-      <c r="S40" s="279"/>
-      <c r="T40" s="277" t="s">
+      <c r="N40" s="337"/>
+      <c r="O40" s="337"/>
+      <c r="P40" s="337"/>
+      <c r="Q40" s="337"/>
+      <c r="R40" s="337"/>
+      <c r="S40" s="338"/>
+      <c r="T40" s="336" t="s">
         <v>90</v>
       </c>
-      <c r="U40" s="278"/>
-      <c r="V40" s="278"/>
-      <c r="W40" s="278"/>
-      <c r="X40" s="278"/>
-      <c r="Y40" s="278"/>
-      <c r="Z40" s="278"/>
-      <c r="AA40" s="278"/>
-      <c r="AB40" s="278"/>
-      <c r="AC40" s="278"/>
-      <c r="AD40" s="279"/>
+      <c r="U40" s="337"/>
+      <c r="V40" s="337"/>
+      <c r="W40" s="337"/>
+      <c r="X40" s="337"/>
+      <c r="Y40" s="337"/>
+      <c r="Z40" s="337"/>
+      <c r="AA40" s="337"/>
+      <c r="AB40" s="337"/>
+      <c r="AC40" s="337"/>
+      <c r="AD40" s="338"/>
     </row>
     <row r="41" spans="1:35" ht="11.25" customHeight="1">
       <c r="A41" s="58"/>
       <c r="B41" s="58"/>
       <c r="C41" s="58"/>
       <c r="D41"/>
-      <c r="E41" s="280" t="s">
+      <c r="E41" s="330" t="s">
         <v>131</v>
       </c>
-      <c r="F41" s="281"/>
-      <c r="G41" s="281"/>
-      <c r="H41" s="281"/>
-      <c r="I41" s="281"/>
-      <c r="J41" s="282" t="s">
+      <c r="F41" s="378"/>
+      <c r="G41" s="378"/>
+      <c r="H41" s="378"/>
+      <c r="I41" s="378"/>
+      <c r="J41" s="379" t="s">
         <v>153</v>
       </c>
-      <c r="K41" s="282"/>
-      <c r="L41" s="282"/>
-      <c r="M41" s="283" t="s">
+      <c r="K41" s="379"/>
+      <c r="L41" s="379"/>
+      <c r="M41" s="380" t="s">
         <v>132</v>
       </c>
-      <c r="N41" s="284"/>
-      <c r="O41" s="284"/>
-      <c r="P41" s="284"/>
-      <c r="Q41" s="284"/>
-      <c r="R41" s="284"/>
-      <c r="S41" s="285"/>
-      <c r="T41" s="283" t="s">
+      <c r="N41" s="381"/>
+      <c r="O41" s="381"/>
+      <c r="P41" s="381"/>
+      <c r="Q41" s="381"/>
+      <c r="R41" s="381"/>
+      <c r="S41" s="382"/>
+      <c r="T41" s="380" t="s">
         <v>132</v>
       </c>
-      <c r="U41" s="284"/>
-      <c r="V41" s="284"/>
-      <c r="W41" s="284"/>
-      <c r="X41" s="284"/>
-      <c r="Y41" s="284"/>
-      <c r="Z41" s="284"/>
-      <c r="AA41" s="284"/>
-      <c r="AB41" s="284"/>
-      <c r="AC41" s="284"/>
-      <c r="AD41" s="285"/>
+      <c r="U41" s="381"/>
+      <c r="V41" s="381"/>
+      <c r="W41" s="381"/>
+      <c r="X41" s="381"/>
+      <c r="Y41" s="381"/>
+      <c r="Z41" s="381"/>
+      <c r="AA41" s="381"/>
+      <c r="AB41" s="381"/>
+      <c r="AC41" s="381"/>
+      <c r="AD41" s="382"/>
     </row>
     <row r="42" spans="1:35" ht="11.25" customHeight="1">
       <c r="A42" s="58"/>
@@ -13356,80 +13299,80 @@
       <c r="B49" s="58"/>
       <c r="C49" s="58"/>
       <c r="D49"/>
-      <c r="E49" s="286" t="s">
+      <c r="E49" s="333" t="s">
         <v>135</v>
       </c>
-      <c r="F49" s="287"/>
-      <c r="G49" s="287"/>
-      <c r="H49" s="287"/>
-      <c r="I49" s="287"/>
-      <c r="J49" s="288" t="s">
+      <c r="F49" s="334"/>
+      <c r="G49" s="334"/>
+      <c r="H49" s="334"/>
+      <c r="I49" s="334"/>
+      <c r="J49" s="335" t="s">
         <v>129</v>
       </c>
-      <c r="K49" s="288"/>
-      <c r="L49" s="288"/>
-      <c r="M49" s="277" t="s">
+      <c r="K49" s="335"/>
+      <c r="L49" s="335"/>
+      <c r="M49" s="336" t="s">
         <v>136</v>
       </c>
-      <c r="N49" s="278"/>
-      <c r="O49" s="278"/>
-      <c r="P49" s="278"/>
-      <c r="Q49" s="278"/>
-      <c r="R49" s="278"/>
-      <c r="S49" s="279"/>
-      <c r="T49" s="277" t="s">
+      <c r="N49" s="337"/>
+      <c r="O49" s="337"/>
+      <c r="P49" s="337"/>
+      <c r="Q49" s="337"/>
+      <c r="R49" s="337"/>
+      <c r="S49" s="338"/>
+      <c r="T49" s="336" t="s">
         <v>90</v>
       </c>
-      <c r="U49" s="278"/>
-      <c r="V49" s="278"/>
-      <c r="W49" s="278"/>
-      <c r="X49" s="278"/>
-      <c r="Y49" s="278"/>
-      <c r="Z49" s="278"/>
-      <c r="AA49" s="278"/>
-      <c r="AB49" s="278"/>
-      <c r="AC49" s="278"/>
-      <c r="AD49" s="279"/>
+      <c r="U49" s="337"/>
+      <c r="V49" s="337"/>
+      <c r="W49" s="337"/>
+      <c r="X49" s="337"/>
+      <c r="Y49" s="337"/>
+      <c r="Z49" s="337"/>
+      <c r="AA49" s="337"/>
+      <c r="AB49" s="337"/>
+      <c r="AC49" s="337"/>
+      <c r="AD49" s="338"/>
     </row>
     <row r="50" spans="1:35" ht="11.25" customHeight="1">
       <c r="A50" s="58"/>
       <c r="B50" s="58"/>
       <c r="C50" s="58"/>
       <c r="D50"/>
-      <c r="E50" s="280" t="s">
+      <c r="E50" s="330" t="s">
         <v>137</v>
       </c>
-      <c r="F50" s="281"/>
-      <c r="G50" s="281"/>
-      <c r="H50" s="281"/>
-      <c r="I50" s="281"/>
-      <c r="J50" s="282" t="s">
+      <c r="F50" s="378"/>
+      <c r="G50" s="378"/>
+      <c r="H50" s="378"/>
+      <c r="I50" s="378"/>
+      <c r="J50" s="379" t="s">
         <v>166</v>
       </c>
-      <c r="K50" s="282"/>
-      <c r="L50" s="282"/>
-      <c r="M50" s="283" t="s">
+      <c r="K50" s="379"/>
+      <c r="L50" s="379"/>
+      <c r="M50" s="380" t="s">
         <v>154</v>
       </c>
-      <c r="N50" s="284"/>
-      <c r="O50" s="284"/>
-      <c r="P50" s="284"/>
-      <c r="Q50" s="284"/>
-      <c r="R50" s="284"/>
-      <c r="S50" s="285"/>
-      <c r="T50" s="283" t="s">
+      <c r="N50" s="381"/>
+      <c r="O50" s="381"/>
+      <c r="P50" s="381"/>
+      <c r="Q50" s="381"/>
+      <c r="R50" s="381"/>
+      <c r="S50" s="382"/>
+      <c r="T50" s="380" t="s">
         <v>139</v>
       </c>
-      <c r="U50" s="284"/>
-      <c r="V50" s="284"/>
-      <c r="W50" s="284"/>
-      <c r="X50" s="284"/>
-      <c r="Y50" s="284"/>
-      <c r="Z50" s="284"/>
-      <c r="AA50" s="284"/>
-      <c r="AB50" s="284"/>
-      <c r="AC50" s="284"/>
-      <c r="AD50" s="285"/>
+      <c r="U50" s="381"/>
+      <c r="V50" s="381"/>
+      <c r="W50" s="381"/>
+      <c r="X50" s="381"/>
+      <c r="Y50" s="381"/>
+      <c r="Z50" s="381"/>
+      <c r="AA50" s="381"/>
+      <c r="AB50" s="381"/>
+      <c r="AC50" s="381"/>
+      <c r="AD50" s="382"/>
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="48"/>
@@ -13586,30 +13529,30 @@
       <c r="B55" s="48"/>
       <c r="C55" s="48"/>
       <c r="D55" s="48"/>
-      <c r="E55" s="308" t="s">
+      <c r="E55" s="365" t="s">
         <v>96</v>
       </c>
-      <c r="F55" s="309"/>
-      <c r="G55" s="309"/>
-      <c r="H55" s="309"/>
-      <c r="I55" s="309"/>
-      <c r="J55" s="309"/>
-      <c r="K55" s="309"/>
-      <c r="L55" s="309"/>
-      <c r="M55" s="309"/>
-      <c r="N55" s="310"/>
-      <c r="O55" s="311" t="s">
+      <c r="F55" s="366"/>
+      <c r="G55" s="366"/>
+      <c r="H55" s="366"/>
+      <c r="I55" s="366"/>
+      <c r="J55" s="366"/>
+      <c r="K55" s="366"/>
+      <c r="L55" s="366"/>
+      <c r="M55" s="366"/>
+      <c r="N55" s="367"/>
+      <c r="O55" s="368" t="s">
         <v>97</v>
       </c>
-      <c r="P55" s="312"/>
-      <c r="Q55" s="312"/>
-      <c r="R55" s="312"/>
-      <c r="S55" s="312"/>
-      <c r="T55" s="312"/>
-      <c r="U55" s="312"/>
-      <c r="V55" s="312"/>
-      <c r="W55" s="312"/>
-      <c r="X55" s="313"/>
+      <c r="P55" s="369"/>
+      <c r="Q55" s="369"/>
+      <c r="R55" s="369"/>
+      <c r="S55" s="369"/>
+      <c r="T55" s="369"/>
+      <c r="U55" s="369"/>
+      <c r="V55" s="369"/>
+      <c r="W55" s="369"/>
+      <c r="X55" s="370"/>
       <c r="Y55" s="48"/>
       <c r="Z55" s="48"/>
       <c r="AA55" s="48"/>
@@ -13627,30 +13570,30 @@
       <c r="B56" s="48"/>
       <c r="C56" s="48"/>
       <c r="D56" s="48"/>
-      <c r="E56" s="296" t="s">
+      <c r="E56" s="353" t="s">
         <v>100</v>
       </c>
-      <c r="F56" s="297"/>
-      <c r="G56" s="297"/>
-      <c r="H56" s="297"/>
-      <c r="I56" s="297"/>
-      <c r="J56" s="297"/>
-      <c r="K56" s="297"/>
-      <c r="L56" s="297"/>
-      <c r="M56" s="297"/>
-      <c r="N56" s="298"/>
-      <c r="O56" s="314" t="s">
+      <c r="F56" s="354"/>
+      <c r="G56" s="354"/>
+      <c r="H56" s="354"/>
+      <c r="I56" s="354"/>
+      <c r="J56" s="354"/>
+      <c r="K56" s="354"/>
+      <c r="L56" s="354"/>
+      <c r="M56" s="354"/>
+      <c r="N56" s="355"/>
+      <c r="O56" s="371" t="s">
         <v>102</v>
       </c>
-      <c r="P56" s="315"/>
-      <c r="Q56" s="315"/>
-      <c r="R56" s="315"/>
-      <c r="S56" s="315"/>
-      <c r="T56" s="315"/>
-      <c r="U56" s="315"/>
-      <c r="V56" s="315"/>
-      <c r="W56" s="315"/>
-      <c r="X56" s="316"/>
+      <c r="P56" s="372"/>
+      <c r="Q56" s="372"/>
+      <c r="R56" s="372"/>
+      <c r="S56" s="372"/>
+      <c r="T56" s="372"/>
+      <c r="U56" s="372"/>
+      <c r="V56" s="372"/>
+      <c r="W56" s="372"/>
+      <c r="X56" s="373"/>
       <c r="Y56" s="48"/>
       <c r="Z56" s="48"/>
       <c r="AA56" s="48"/>
@@ -13668,28 +13611,28 @@
       <c r="B57" s="48"/>
       <c r="C57" s="48"/>
       <c r="D57" s="48"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="300"/>
-      <c r="G57" s="300"/>
-      <c r="H57" s="300"/>
-      <c r="I57" s="300"/>
-      <c r="J57" s="300"/>
-      <c r="K57" s="300"/>
-      <c r="L57" s="300"/>
-      <c r="M57" s="300"/>
-      <c r="N57" s="301"/>
-      <c r="O57" s="314" t="s">
+      <c r="E57" s="356"/>
+      <c r="F57" s="357"/>
+      <c r="G57" s="357"/>
+      <c r="H57" s="357"/>
+      <c r="I57" s="357"/>
+      <c r="J57" s="357"/>
+      <c r="K57" s="357"/>
+      <c r="L57" s="357"/>
+      <c r="M57" s="357"/>
+      <c r="N57" s="358"/>
+      <c r="O57" s="371" t="s">
         <v>104</v>
       </c>
-      <c r="P57" s="315"/>
-      <c r="Q57" s="315"/>
-      <c r="R57" s="315"/>
-      <c r="S57" s="315"/>
-      <c r="T57" s="315"/>
-      <c r="U57" s="315"/>
-      <c r="V57" s="315"/>
-      <c r="W57" s="315"/>
-      <c r="X57" s="316"/>
+      <c r="P57" s="372"/>
+      <c r="Q57" s="372"/>
+      <c r="R57" s="372"/>
+      <c r="S57" s="372"/>
+      <c r="T57" s="372"/>
+      <c r="U57" s="372"/>
+      <c r="V57" s="372"/>
+      <c r="W57" s="372"/>
+      <c r="X57" s="373"/>
       <c r="Y57" s="48"/>
       <c r="Z57" s="48"/>
       <c r="AA57" s="48"/>
@@ -13707,28 +13650,28 @@
       <c r="B58" s="48"/>
       <c r="C58" s="48"/>
       <c r="D58" s="48"/>
-      <c r="E58" s="302"/>
-      <c r="F58" s="303"/>
-      <c r="G58" s="303"/>
-      <c r="H58" s="303"/>
-      <c r="I58" s="303"/>
-      <c r="J58" s="303"/>
-      <c r="K58" s="303"/>
-      <c r="L58" s="303"/>
-      <c r="M58" s="303"/>
-      <c r="N58" s="304"/>
-      <c r="O58" s="305" t="s">
+      <c r="E58" s="359"/>
+      <c r="F58" s="360"/>
+      <c r="G58" s="360"/>
+      <c r="H58" s="360"/>
+      <c r="I58" s="360"/>
+      <c r="J58" s="360"/>
+      <c r="K58" s="360"/>
+      <c r="L58" s="360"/>
+      <c r="M58" s="360"/>
+      <c r="N58" s="361"/>
+      <c r="O58" s="362" t="s">
         <v>105</v>
       </c>
-      <c r="P58" s="306"/>
-      <c r="Q58" s="306"/>
-      <c r="R58" s="306"/>
-      <c r="S58" s="306"/>
-      <c r="T58" s="306"/>
-      <c r="U58" s="306"/>
-      <c r="V58" s="306"/>
-      <c r="W58" s="306"/>
-      <c r="X58" s="307"/>
+      <c r="P58" s="363"/>
+      <c r="Q58" s="363"/>
+      <c r="R58" s="363"/>
+      <c r="S58" s="363"/>
+      <c r="T58" s="363"/>
+      <c r="U58" s="363"/>
+      <c r="V58" s="363"/>
+      <c r="W58" s="363"/>
+      <c r="X58" s="364"/>
       <c r="Y58" s="48"/>
       <c r="Z58" s="48"/>
       <c r="AA58" s="48"/>
@@ -13746,28 +13689,28 @@
       <c r="B59" s="48"/>
       <c r="C59" s="48"/>
       <c r="D59" s="48"/>
-      <c r="E59" s="293" t="s">
+      <c r="E59" s="350" t="s">
         <v>98</v>
       </c>
-      <c r="F59" s="294"/>
-      <c r="G59" s="294"/>
-      <c r="H59" s="294"/>
-      <c r="I59" s="294"/>
-      <c r="J59" s="294"/>
-      <c r="K59" s="294"/>
-      <c r="L59" s="294"/>
-      <c r="M59" s="294"/>
-      <c r="N59" s="294"/>
-      <c r="O59" s="294"/>
-      <c r="P59" s="294"/>
-      <c r="Q59" s="294"/>
-      <c r="R59" s="294"/>
-      <c r="S59" s="294"/>
-      <c r="T59" s="294"/>
-      <c r="U59" s="294"/>
-      <c r="V59" s="294"/>
-      <c r="W59" s="294"/>
-      <c r="X59" s="295"/>
+      <c r="F59" s="351"/>
+      <c r="G59" s="351"/>
+      <c r="H59" s="351"/>
+      <c r="I59" s="351"/>
+      <c r="J59" s="351"/>
+      <c r="K59" s="351"/>
+      <c r="L59" s="351"/>
+      <c r="M59" s="351"/>
+      <c r="N59" s="351"/>
+      <c r="O59" s="351"/>
+      <c r="P59" s="351"/>
+      <c r="Q59" s="351"/>
+      <c r="R59" s="351"/>
+      <c r="S59" s="351"/>
+      <c r="T59" s="351"/>
+      <c r="U59" s="351"/>
+      <c r="V59" s="351"/>
+      <c r="W59" s="351"/>
+      <c r="X59" s="352"/>
       <c r="Y59" s="48"/>
       <c r="Z59" s="48"/>
       <c r="AA59" s="48"/>
@@ -14486,44 +14429,44 @@
     <row r="80" spans="1:35">
       <c r="C80" s="30"/>
       <c r="D80" s="30"/>
-      <c r="E80" s="290" t="s">
+      <c r="E80" s="323" t="s">
         <v>22</v>
       </c>
-      <c r="F80" s="290"/>
-      <c r="G80" s="337" t="s">
+      <c r="F80" s="323"/>
+      <c r="G80" s="347" t="s">
         <v>146</v>
       </c>
-      <c r="H80" s="338"/>
-      <c r="I80" s="338"/>
-      <c r="J80" s="338"/>
-      <c r="K80" s="338"/>
-      <c r="L80" s="339"/>
-      <c r="M80" s="290" t="s">
+      <c r="H80" s="348"/>
+      <c r="I80" s="348"/>
+      <c r="J80" s="348"/>
+      <c r="K80" s="348"/>
+      <c r="L80" s="349"/>
+      <c r="M80" s="323" t="s">
         <v>23</v>
       </c>
-      <c r="N80" s="290"/>
-      <c r="O80" s="337" t="s">
+      <c r="N80" s="323"/>
+      <c r="O80" s="347" t="s">
         <v>147</v>
       </c>
-      <c r="P80" s="338"/>
-      <c r="Q80" s="338"/>
-      <c r="R80" s="338"/>
-      <c r="S80" s="338"/>
-      <c r="T80" s="338"/>
-      <c r="U80" s="338"/>
-      <c r="V80" s="338"/>
-      <c r="W80" s="338"/>
-      <c r="X80" s="338"/>
-      <c r="Y80" s="338"/>
-      <c r="Z80" s="338"/>
-      <c r="AA80" s="338"/>
-      <c r="AB80" s="338"/>
-      <c r="AC80" s="338"/>
-      <c r="AD80" s="338"/>
-      <c r="AE80" s="338"/>
-      <c r="AF80" s="338"/>
-      <c r="AG80" s="338"/>
-      <c r="AH80" s="339"/>
+      <c r="P80" s="348"/>
+      <c r="Q80" s="348"/>
+      <c r="R80" s="348"/>
+      <c r="S80" s="348"/>
+      <c r="T80" s="348"/>
+      <c r="U80" s="348"/>
+      <c r="V80" s="348"/>
+      <c r="W80" s="348"/>
+      <c r="X80" s="348"/>
+      <c r="Y80" s="348"/>
+      <c r="Z80" s="348"/>
+      <c r="AA80" s="348"/>
+      <c r="AB80" s="348"/>
+      <c r="AC80" s="348"/>
+      <c r="AD80" s="348"/>
+      <c r="AE80" s="348"/>
+      <c r="AF80" s="348"/>
+      <c r="AG80" s="348"/>
+      <c r="AH80" s="349"/>
     </row>
     <row r="81" spans="3:34">
       <c r="C81" s="30"/>
@@ -14658,86 +14601,86 @@
     <row r="85" spans="3:34">
       <c r="C85" s="30"/>
       <c r="D85" s="30"/>
-      <c r="E85" s="329" t="s">
+      <c r="E85" s="339" t="s">
         <v>53</v>
       </c>
-      <c r="F85" s="323" t="s">
+      <c r="F85" s="324" t="s">
         <v>24</v>
       </c>
-      <c r="G85" s="324"/>
-      <c r="H85" s="324"/>
-      <c r="I85" s="325"/>
-      <c r="J85" s="323" t="s">
+      <c r="G85" s="325"/>
+      <c r="H85" s="325"/>
+      <c r="I85" s="326"/>
+      <c r="J85" s="324" t="s">
         <v>25</v>
       </c>
-      <c r="K85" s="324"/>
-      <c r="L85" s="324"/>
-      <c r="M85" s="325"/>
-      <c r="N85" s="373" t="s">
+      <c r="K85" s="325"/>
+      <c r="L85" s="325"/>
+      <c r="M85" s="326"/>
+      <c r="N85" s="294" t="s">
         <v>26</v>
       </c>
-      <c r="O85" s="373"/>
-      <c r="P85" s="373"/>
-      <c r="Q85" s="373"/>
-      <c r="R85" s="373"/>
-      <c r="S85" s="373"/>
-      <c r="T85" s="373"/>
-      <c r="U85" s="373"/>
-      <c r="V85" s="373"/>
-      <c r="W85" s="323" t="s">
+      <c r="O85" s="294"/>
+      <c r="P85" s="294"/>
+      <c r="Q85" s="294"/>
+      <c r="R85" s="294"/>
+      <c r="S85" s="294"/>
+      <c r="T85" s="294"/>
+      <c r="U85" s="294"/>
+      <c r="V85" s="294"/>
+      <c r="W85" s="324" t="s">
         <v>34</v>
       </c>
-      <c r="X85" s="324"/>
-      <c r="Y85" s="324"/>
-      <c r="Z85" s="324"/>
-      <c r="AA85" s="324"/>
-      <c r="AB85" s="324"/>
-      <c r="AC85" s="325"/>
-      <c r="AD85" s="323" t="s">
+      <c r="X85" s="325"/>
+      <c r="Y85" s="325"/>
+      <c r="Z85" s="325"/>
+      <c r="AA85" s="325"/>
+      <c r="AB85" s="325"/>
+      <c r="AC85" s="326"/>
+      <c r="AD85" s="324" t="s">
         <v>35</v>
       </c>
-      <c r="AE85" s="324"/>
-      <c r="AF85" s="324"/>
-      <c r="AG85" s="324"/>
-      <c r="AH85" s="325"/>
+      <c r="AE85" s="325"/>
+      <c r="AF85" s="325"/>
+      <c r="AG85" s="325"/>
+      <c r="AH85" s="326"/>
     </row>
     <row r="86" spans="3:34">
       <c r="C86" s="30"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="330"/>
-      <c r="F86" s="326"/>
-      <c r="G86" s="327"/>
-      <c r="H86" s="327"/>
-      <c r="I86" s="328"/>
-      <c r="J86" s="326"/>
-      <c r="K86" s="327"/>
-      <c r="L86" s="327"/>
-      <c r="M86" s="328"/>
-      <c r="N86" s="373" t="s">
+      <c r="E86" s="340"/>
+      <c r="F86" s="327"/>
+      <c r="G86" s="328"/>
+      <c r="H86" s="328"/>
+      <c r="I86" s="329"/>
+      <c r="J86" s="327"/>
+      <c r="K86" s="328"/>
+      <c r="L86" s="328"/>
+      <c r="M86" s="329"/>
+      <c r="N86" s="294" t="s">
         <v>29</v>
       </c>
-      <c r="O86" s="373"/>
-      <c r="P86" s="373"/>
-      <c r="Q86" s="373"/>
-      <c r="R86" s="373"/>
-      <c r="S86" s="374" t="s">
+      <c r="O86" s="294"/>
+      <c r="P86" s="294"/>
+      <c r="Q86" s="294"/>
+      <c r="R86" s="294"/>
+      <c r="S86" s="295" t="s">
         <v>30</v>
       </c>
-      <c r="T86" s="374"/>
-      <c r="U86" s="374"/>
-      <c r="V86" s="374"/>
-      <c r="W86" s="326"/>
-      <c r="X86" s="327"/>
-      <c r="Y86" s="327"/>
-      <c r="Z86" s="327"/>
-      <c r="AA86" s="327"/>
-      <c r="AB86" s="327"/>
-      <c r="AC86" s="328"/>
-      <c r="AD86" s="326"/>
-      <c r="AE86" s="327"/>
-      <c r="AF86" s="327"/>
-      <c r="AG86" s="327"/>
-      <c r="AH86" s="328"/>
+      <c r="T86" s="295"/>
+      <c r="U86" s="295"/>
+      <c r="V86" s="295"/>
+      <c r="W86" s="327"/>
+      <c r="X86" s="328"/>
+      <c r="Y86" s="328"/>
+      <c r="Z86" s="328"/>
+      <c r="AA86" s="328"/>
+      <c r="AB86" s="328"/>
+      <c r="AC86" s="329"/>
+      <c r="AD86" s="327"/>
+      <c r="AE86" s="328"/>
+      <c r="AF86" s="328"/>
+      <c r="AG86" s="328"/>
+      <c r="AH86" s="329"/>
     </row>
     <row r="87" spans="3:34">
       <c r="C87" s="30"/>
@@ -14745,43 +14688,43 @@
       <c r="E87" s="41">
         <v>1</v>
       </c>
-      <c r="F87" s="367" t="s">
+      <c r="F87" s="291" t="s">
         <v>149</v>
       </c>
-      <c r="G87" s="368"/>
-      <c r="H87" s="368"/>
-      <c r="I87" s="369"/>
-      <c r="J87" s="367" t="s">
+      <c r="G87" s="292"/>
+      <c r="H87" s="292"/>
+      <c r="I87" s="293"/>
+      <c r="J87" s="291" t="s">
         <v>101</v>
       </c>
-      <c r="K87" s="368"/>
-      <c r="L87" s="368"/>
-      <c r="M87" s="369"/>
-      <c r="N87" s="375" t="s">
+      <c r="K87" s="292"/>
+      <c r="L87" s="292"/>
+      <c r="M87" s="293"/>
+      <c r="N87" s="289" t="s">
         <v>81</v>
       </c>
-      <c r="O87" s="376"/>
-      <c r="P87" s="376"/>
-      <c r="Q87" s="376"/>
-      <c r="R87" s="376"/>
-      <c r="S87" s="377" t="s">
+      <c r="O87" s="287"/>
+      <c r="P87" s="287"/>
+      <c r="Q87" s="287"/>
+      <c r="R87" s="287"/>
+      <c r="S87" s="290" t="s">
         <v>82</v>
       </c>
-      <c r="T87" s="378"/>
-      <c r="U87" s="378"/>
-      <c r="V87" s="378"/>
-      <c r="W87" s="370"/>
-      <c r="X87" s="371"/>
-      <c r="Y87" s="371"/>
-      <c r="Z87" s="371"/>
-      <c r="AA87" s="371"/>
-      <c r="AB87" s="371"/>
-      <c r="AC87" s="372"/>
-      <c r="AD87" s="370"/>
-      <c r="AE87" s="371"/>
-      <c r="AF87" s="371"/>
-      <c r="AG87" s="371"/>
-      <c r="AH87" s="372"/>
+      <c r="T87" s="288"/>
+      <c r="U87" s="288"/>
+      <c r="V87" s="288"/>
+      <c r="W87" s="277"/>
+      <c r="X87" s="278"/>
+      <c r="Y87" s="278"/>
+      <c r="Z87" s="278"/>
+      <c r="AA87" s="278"/>
+      <c r="AB87" s="278"/>
+      <c r="AC87" s="279"/>
+      <c r="AD87" s="277"/>
+      <c r="AE87" s="278"/>
+      <c r="AF87" s="278"/>
+      <c r="AG87" s="278"/>
+      <c r="AH87" s="279"/>
     </row>
     <row r="88" spans="3:34">
       <c r="C88" s="30"/>
@@ -14789,43 +14732,43 @@
       <c r="E88" s="41">
         <v>2</v>
       </c>
-      <c r="F88" s="367" t="s">
+      <c r="F88" s="291" t="s">
         <v>150</v>
       </c>
-      <c r="G88" s="368"/>
-      <c r="H88" s="368"/>
-      <c r="I88" s="369"/>
-      <c r="J88" s="367" t="s">
+      <c r="G88" s="292"/>
+      <c r="H88" s="292"/>
+      <c r="I88" s="293"/>
+      <c r="J88" s="291" t="s">
         <v>103</v>
       </c>
-      <c r="K88" s="368"/>
-      <c r="L88" s="368"/>
-      <c r="M88" s="369"/>
-      <c r="N88" s="375" t="s">
+      <c r="K88" s="292"/>
+      <c r="L88" s="292"/>
+      <c r="M88" s="293"/>
+      <c r="N88" s="289" t="s">
         <v>81</v>
       </c>
-      <c r="O88" s="376"/>
-      <c r="P88" s="376"/>
-      <c r="Q88" s="376"/>
-      <c r="R88" s="376"/>
-      <c r="S88" s="377" t="s">
+      <c r="O88" s="287"/>
+      <c r="P88" s="287"/>
+      <c r="Q88" s="287"/>
+      <c r="R88" s="287"/>
+      <c r="S88" s="290" t="s">
         <v>83</v>
       </c>
-      <c r="T88" s="378"/>
-      <c r="U88" s="378"/>
-      <c r="V88" s="378"/>
-      <c r="W88" s="370"/>
-      <c r="X88" s="371"/>
-      <c r="Y88" s="371"/>
-      <c r="Z88" s="371"/>
-      <c r="AA88" s="371"/>
-      <c r="AB88" s="371"/>
-      <c r="AC88" s="372"/>
-      <c r="AD88" s="370"/>
-      <c r="AE88" s="371"/>
-      <c r="AF88" s="371"/>
-      <c r="AG88" s="371"/>
-      <c r="AH88" s="372"/>
+      <c r="T88" s="288"/>
+      <c r="U88" s="288"/>
+      <c r="V88" s="288"/>
+      <c r="W88" s="277"/>
+      <c r="X88" s="278"/>
+      <c r="Y88" s="278"/>
+      <c r="Z88" s="278"/>
+      <c r="AA88" s="278"/>
+      <c r="AB88" s="278"/>
+      <c r="AC88" s="279"/>
+      <c r="AD88" s="277"/>
+      <c r="AE88" s="278"/>
+      <c r="AF88" s="278"/>
+      <c r="AG88" s="278"/>
+      <c r="AH88" s="279"/>
     </row>
     <row r="89" spans="3:34">
       <c r="C89" s="30"/>
@@ -14833,43 +14776,43 @@
       <c r="E89" s="41">
         <v>3</v>
       </c>
-      <c r="F89" s="367" t="s">
+      <c r="F89" s="291" t="s">
         <v>80</v>
       </c>
-      <c r="G89" s="368"/>
-      <c r="H89" s="368"/>
-      <c r="I89" s="369"/>
-      <c r="J89" s="367" t="s">
+      <c r="G89" s="292"/>
+      <c r="H89" s="292"/>
+      <c r="I89" s="293"/>
+      <c r="J89" s="291" t="s">
         <v>105</v>
       </c>
-      <c r="K89" s="368"/>
-      <c r="L89" s="368"/>
-      <c r="M89" s="369"/>
-      <c r="N89" s="375" t="s">
+      <c r="K89" s="292"/>
+      <c r="L89" s="292"/>
+      <c r="M89" s="293"/>
+      <c r="N89" s="289" t="s">
         <v>81</v>
       </c>
-      <c r="O89" s="376"/>
-      <c r="P89" s="376"/>
-      <c r="Q89" s="376"/>
-      <c r="R89" s="376"/>
-      <c r="S89" s="377" t="s">
+      <c r="O89" s="287"/>
+      <c r="P89" s="287"/>
+      <c r="Q89" s="287"/>
+      <c r="R89" s="287"/>
+      <c r="S89" s="290" t="s">
         <v>84</v>
       </c>
-      <c r="T89" s="378"/>
-      <c r="U89" s="378"/>
-      <c r="V89" s="378"/>
-      <c r="W89" s="370"/>
-      <c r="X89" s="371"/>
-      <c r="Y89" s="371"/>
-      <c r="Z89" s="371"/>
-      <c r="AA89" s="371"/>
-      <c r="AB89" s="371"/>
-      <c r="AC89" s="372"/>
-      <c r="AD89" s="370"/>
-      <c r="AE89" s="371"/>
-      <c r="AF89" s="371"/>
-      <c r="AG89" s="371"/>
-      <c r="AH89" s="372"/>
+      <c r="T89" s="288"/>
+      <c r="U89" s="288"/>
+      <c r="V89" s="288"/>
+      <c r="W89" s="277"/>
+      <c r="X89" s="278"/>
+      <c r="Y89" s="278"/>
+      <c r="Z89" s="278"/>
+      <c r="AA89" s="278"/>
+      <c r="AB89" s="278"/>
+      <c r="AC89" s="279"/>
+      <c r="AD89" s="277"/>
+      <c r="AE89" s="278"/>
+      <c r="AF89" s="278"/>
+      <c r="AG89" s="278"/>
+      <c r="AH89" s="279"/>
     </row>
     <row r="90" spans="3:34">
       <c r="C90" s="30"/>
@@ -14877,35 +14820,35 @@
       <c r="E90" s="41">
         <v>4</v>
       </c>
-      <c r="F90" s="367"/>
-      <c r="G90" s="368"/>
-      <c r="H90" s="368"/>
-      <c r="I90" s="369"/>
-      <c r="J90" s="367"/>
-      <c r="K90" s="368"/>
-      <c r="L90" s="368"/>
-      <c r="M90" s="369"/>
-      <c r="N90" s="382"/>
-      <c r="O90" s="376"/>
-      <c r="P90" s="376"/>
-      <c r="Q90" s="376"/>
-      <c r="R90" s="376"/>
-      <c r="S90" s="378"/>
-      <c r="T90" s="378"/>
-      <c r="U90" s="378"/>
-      <c r="V90" s="378"/>
-      <c r="W90" s="370"/>
-      <c r="X90" s="371"/>
-      <c r="Y90" s="371"/>
-      <c r="Z90" s="371"/>
-      <c r="AA90" s="371"/>
-      <c r="AB90" s="371"/>
-      <c r="AC90" s="372"/>
-      <c r="AD90" s="370"/>
-      <c r="AE90" s="371"/>
-      <c r="AF90" s="371"/>
-      <c r="AG90" s="371"/>
-      <c r="AH90" s="372"/>
+      <c r="F90" s="291"/>
+      <c r="G90" s="292"/>
+      <c r="H90" s="292"/>
+      <c r="I90" s="293"/>
+      <c r="J90" s="291"/>
+      <c r="K90" s="292"/>
+      <c r="L90" s="292"/>
+      <c r="M90" s="293"/>
+      <c r="N90" s="286"/>
+      <c r="O90" s="287"/>
+      <c r="P90" s="287"/>
+      <c r="Q90" s="287"/>
+      <c r="R90" s="287"/>
+      <c r="S90" s="288"/>
+      <c r="T90" s="288"/>
+      <c r="U90" s="288"/>
+      <c r="V90" s="288"/>
+      <c r="W90" s="277"/>
+      <c r="X90" s="278"/>
+      <c r="Y90" s="278"/>
+      <c r="Z90" s="278"/>
+      <c r="AA90" s="278"/>
+      <c r="AB90" s="278"/>
+      <c r="AC90" s="279"/>
+      <c r="AD90" s="277"/>
+      <c r="AE90" s="278"/>
+      <c r="AF90" s="278"/>
+      <c r="AG90" s="278"/>
+      <c r="AH90" s="279"/>
     </row>
     <row r="91" spans="3:34">
       <c r="C91" s="30"/>
@@ -14913,38 +14856,133 @@
       <c r="E91" s="41">
         <v>5</v>
       </c>
-      <c r="F91" s="367"/>
-      <c r="G91" s="368"/>
-      <c r="H91" s="368"/>
-      <c r="I91" s="369"/>
-      <c r="J91" s="367"/>
-      <c r="K91" s="368"/>
-      <c r="L91" s="368"/>
-      <c r="M91" s="369"/>
-      <c r="N91" s="382"/>
-      <c r="O91" s="376"/>
-      <c r="P91" s="376"/>
-      <c r="Q91" s="376"/>
-      <c r="R91" s="376"/>
-      <c r="S91" s="378"/>
-      <c r="T91" s="378"/>
-      <c r="U91" s="378"/>
-      <c r="V91" s="378"/>
-      <c r="W91" s="370"/>
-      <c r="X91" s="371"/>
-      <c r="Y91" s="371"/>
-      <c r="Z91" s="371"/>
-      <c r="AA91" s="371"/>
-      <c r="AB91" s="371"/>
-      <c r="AC91" s="372"/>
-      <c r="AD91" s="370"/>
-      <c r="AE91" s="371"/>
-      <c r="AF91" s="371"/>
-      <c r="AG91" s="371"/>
-      <c r="AH91" s="372"/>
+      <c r="F91" s="291"/>
+      <c r="G91" s="292"/>
+      <c r="H91" s="292"/>
+      <c r="I91" s="293"/>
+      <c r="J91" s="291"/>
+      <c r="K91" s="292"/>
+      <c r="L91" s="292"/>
+      <c r="M91" s="293"/>
+      <c r="N91" s="286"/>
+      <c r="O91" s="287"/>
+      <c r="P91" s="287"/>
+      <c r="Q91" s="287"/>
+      <c r="R91" s="287"/>
+      <c r="S91" s="288"/>
+      <c r="T91" s="288"/>
+      <c r="U91" s="288"/>
+      <c r="V91" s="288"/>
+      <c r="W91" s="277"/>
+      <c r="X91" s="278"/>
+      <c r="Y91" s="278"/>
+      <c r="Z91" s="278"/>
+      <c r="AA91" s="278"/>
+      <c r="AB91" s="278"/>
+      <c r="AC91" s="279"/>
+      <c r="AD91" s="277"/>
+      <c r="AE91" s="278"/>
+      <c r="AF91" s="278"/>
+      <c r="AG91" s="278"/>
+      <c r="AH91" s="279"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="T50:AD50"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:S40"/>
+    <mergeCell ref="T40:AD40"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="J41:L41"/>
+    <mergeCell ref="M41:S41"/>
+    <mergeCell ref="T41:AD41"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="E80:F80"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="E59:X59"/>
+    <mergeCell ref="E56:N58"/>
+    <mergeCell ref="O58:X58"/>
+    <mergeCell ref="E55:N55"/>
+    <mergeCell ref="O55:X55"/>
+    <mergeCell ref="O56:X56"/>
+    <mergeCell ref="O57:X57"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="L36:U36"/>
+    <mergeCell ref="V36:X36"/>
+    <mergeCell ref="Y36:AB36"/>
+    <mergeCell ref="AC36:AF36"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="J85:M86"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="E49:I49"/>
+    <mergeCell ref="J49:L49"/>
+    <mergeCell ref="M49:S49"/>
+    <mergeCell ref="F85:I86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="L37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="G80:L80"/>
+    <mergeCell ref="O80:AH80"/>
+    <mergeCell ref="W85:AC86"/>
+    <mergeCell ref="AD85:AH86"/>
+    <mergeCell ref="T49:AD49"/>
+    <mergeCell ref="E50:I50"/>
+    <mergeCell ref="J50:L50"/>
+    <mergeCell ref="M50:S50"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="W89:AC89"/>
+    <mergeCell ref="W90:AC90"/>
+    <mergeCell ref="W91:AC91"/>
+    <mergeCell ref="N85:V85"/>
+    <mergeCell ref="N86:R86"/>
+    <mergeCell ref="S86:V86"/>
+    <mergeCell ref="N88:R88"/>
+    <mergeCell ref="S88:V88"/>
+    <mergeCell ref="N87:R87"/>
+    <mergeCell ref="S87:V87"/>
+    <mergeCell ref="J87:M87"/>
+    <mergeCell ref="J88:M88"/>
     <mergeCell ref="AD87:AH87"/>
     <mergeCell ref="AD88:AH88"/>
     <mergeCell ref="AD89:AH89"/>
@@ -14969,101 +15007,6 @@
     <mergeCell ref="F87:I87"/>
     <mergeCell ref="F88:I88"/>
     <mergeCell ref="F89:I89"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="W89:AC89"/>
-    <mergeCell ref="W90:AC90"/>
-    <mergeCell ref="W91:AC91"/>
-    <mergeCell ref="N85:V85"/>
-    <mergeCell ref="N86:R86"/>
-    <mergeCell ref="S86:V86"/>
-    <mergeCell ref="N88:R88"/>
-    <mergeCell ref="S88:V88"/>
-    <mergeCell ref="N87:R87"/>
-    <mergeCell ref="S87:V87"/>
-    <mergeCell ref="J87:M87"/>
-    <mergeCell ref="J88:M88"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="L36:U36"/>
-    <mergeCell ref="V36:X36"/>
-    <mergeCell ref="Y36:AB36"/>
-    <mergeCell ref="AC36:AF36"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="J85:M86"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="E49:I49"/>
-    <mergeCell ref="J49:L49"/>
-    <mergeCell ref="M49:S49"/>
-    <mergeCell ref="F85:I86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="L37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="G80:L80"/>
-    <mergeCell ref="O80:AH80"/>
-    <mergeCell ref="W85:AC86"/>
-    <mergeCell ref="AD85:AH86"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E80:F80"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="E59:X59"/>
-    <mergeCell ref="E56:N58"/>
-    <mergeCell ref="O58:X58"/>
-    <mergeCell ref="E55:N55"/>
-    <mergeCell ref="O55:X55"/>
-    <mergeCell ref="O56:X56"/>
-    <mergeCell ref="O57:X57"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="T49:AD49"/>
-    <mergeCell ref="E50:I50"/>
-    <mergeCell ref="J50:L50"/>
-    <mergeCell ref="M50:S50"/>
-    <mergeCell ref="T50:AD50"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:S40"/>
-    <mergeCell ref="T40:AD40"/>
-    <mergeCell ref="E41:I41"/>
-    <mergeCell ref="J41:L41"/>
-    <mergeCell ref="M41:S41"/>
-    <mergeCell ref="T41:AD41"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="3">
@@ -15087,7 +15030,6 @@
     <brk id="31" max="34" man="1"/>
     <brk id="73" max="34" man="1"/>
   </rowBreaks>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
